--- a/cost/Cost_Database.xlsx
+++ b/cost/Cost_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannbn/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB48C612-4A28-EB46-A272-51DFDA0E69F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C100831-F158-644B-9436-4D79BCF1D694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="198">
   <si>
     <t>Account</t>
   </si>
@@ -668,6 +668,51 @@
   <si>
     <t>https://inldigitallibrary.inl.gov/sites/sti/sti/Sort_129862.pdf
 https://www.sciencedirect.com/science/article/pii/S1364032121011473</t>
+  </si>
+  <si>
+    <t>Supply Chain Buildings</t>
+  </si>
+  <si>
+    <t>Radwaste Building</t>
+  </si>
+  <si>
+    <t>Storage Building</t>
+  </si>
+  <si>
+    <t>Storage Building Slab Roof</t>
+  </si>
+  <si>
+    <t>Storage Building Basement</t>
+  </si>
+  <si>
+    <t>Storage Building Walls</t>
+  </si>
+  <si>
+    <t>Radwaste Building Basement</t>
+  </si>
+  <si>
+    <t>Radwaste Building Slab Roof</t>
+  </si>
+  <si>
+    <t>Radwaste Building Walls</t>
+  </si>
+  <si>
+    <t>Storage Building Slab Roof Volume</t>
+  </si>
+  <si>
+    <t>Storage Building Basement Volume</t>
+  </si>
+  <si>
+    <t>Storage Building Exterior Walls Volume</t>
+  </si>
+  <si>
+    <t>Radwaste Building Slab Roof Volume</t>
+  </si>
+  <si>
+    <t>Radwaste Building Basement Volume</t>
+  </si>
+  <si>
+    <t>Radwaste Building Exterior Walls Volume</t>
   </si>
 </sst>
 </file>
@@ -1010,9 +1055,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1027,20 +1069,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1048,13 +1088,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1360,29 +1403,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5330BDA-7164-B946-A942-FFAE4F744BBA}">
-  <dimension ref="A1:W116"/>
+  <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G38" zoomScale="164" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="C42" zoomScale="183" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="53" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="53" customWidth="1"/>
-    <col min="3" max="3" width="26" style="53" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" style="62" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="53" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="53" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="53" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" style="53" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="53" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="53" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="53" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="53" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" style="53" customWidth="1"/>
-    <col min="14" max="14" width="38.1640625" style="53" customWidth="1"/>
-    <col min="15" max="15" width="44.83203125" style="53" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="26" style="52" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" style="54" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="52" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="52" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" style="52" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="52" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="52" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="52" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="52" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" style="52" customWidth="1"/>
+    <col min="14" max="14" width="38.1640625" style="52" customWidth="1"/>
+    <col min="15" max="15" width="44.83203125" style="52" customWidth="1"/>
     <col min="16" max="16" width="49.5" customWidth="1"/>
     <col min="17" max="17" width="25.1640625" customWidth="1"/>
   </cols>
@@ -1481,7 +1524,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="10">
-        <f t="shared" ref="B3:B71" si="0">IF(ISNUMBER(A3),
+        <f t="shared" ref="B3:B80" si="0">IF(ISNUMBER(A3),
     IF(AND(A3=INT(A3), MOD(A3, 10) = 0), 0,
         IF(AND(A3=INT(A3), LEN(A3)=2), 1,
             IF(AND(A3=INT(A3), LEN(A3)=3), 2,
@@ -1495,7 +1538,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="29" t="str">
-        <f t="shared" ref="D3:D71" si="1">REPT("   ", B3*2) &amp; C3</f>
+        <f t="shared" ref="D3:D80" si="1">REPT("   ", B3*2) &amp; C3</f>
         <v xml:space="preserve">      Land Cost</v>
       </c>
       <c r="E3" s="35"/>
@@ -1522,10 +1565,10 @@
       <c r="N3" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="O3" s="57" t="s">
+      <c r="O3" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="P3" s="58" t="s">
+      <c r="P3" s="63" t="s">
         <v>70</v>
       </c>
       <c r="Q3" s="14"/>
@@ -1570,8 +1613,8 @@
       <c r="N4" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="O4" s="57"/>
-      <c r="P4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="63"/>
       <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1608,10 +1651,10 @@
       <c r="N5" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="57" t="s">
+      <c r="O5" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="P5" s="58" t="s">
+      <c r="P5" s="63" t="s">
         <v>73</v>
       </c>
       <c r="Q5" s="14"/>
@@ -1649,8 +1692,8 @@
       <c r="N6" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="57"/>
-      <c r="P6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="63"/>
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="1:17" ht="89" thickBot="1" x14ac:dyDescent="0.25">
@@ -1820,13 +1863,13 @@
       <c r="M11" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="N11" s="59" t="s">
+      <c r="N11" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="O11" s="57" t="s">
+      <c r="O11" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="P11" s="60" t="s">
+      <c r="P11" s="59" t="s">
         <v>98</v>
       </c>
       <c r="Q11" s="14"/>
@@ -1875,9 +1918,9 @@
       <c r="M12" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="N12" s="59"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="61"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="60"/>
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1917,9 +1960,9 @@
       <c r="M13" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="N13" s="59"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="61"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="60"/>
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1988,13 +2031,13 @@
       <c r="M15" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="N15" s="59" t="s">
+      <c r="N15" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="O15" s="57" t="s">
+      <c r="O15" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="P15" s="60" t="s">
+      <c r="P15" s="59" t="s">
         <v>98</v>
       </c>
       <c r="Q15" s="14"/>
@@ -2036,9 +2079,9 @@
       <c r="M16" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="N16" s="59"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="61"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="60"/>
       <c r="Q16" s="14"/>
     </row>
     <row r="17" spans="1:17" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -2078,9 +2121,9 @@
       <c r="M17" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="59"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="61"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="60"/>
       <c r="Q17" s="14"/>
     </row>
     <row r="18" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2178,13 +2221,13 @@
       <c r="M20" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="N20" s="59" t="s">
+      <c r="N20" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="O20" s="57" t="s">
+      <c r="O20" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="P20" s="60" t="s">
+      <c r="P20" s="59" t="s">
         <v>98</v>
       </c>
       <c r="Q20" s="14"/>
@@ -2226,9 +2269,9 @@
       <c r="M21" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="N21" s="59"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="61"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="60"/>
       <c r="Q21" s="14"/>
     </row>
     <row r="22" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2268,9 +2311,9 @@
       <c r="M22" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="N22" s="59"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="61"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="60"/>
       <c r="Q22" s="14"/>
     </row>
     <row r="23" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2339,13 +2382,13 @@
       <c r="M24" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="N24" s="59" t="s">
+      <c r="N24" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="O24" s="57" t="s">
+      <c r="O24" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="P24" s="60" t="s">
+      <c r="P24" s="59" t="s">
         <v>98</v>
       </c>
       <c r="Q24" s="14"/>
@@ -2387,9 +2430,9 @@
       <c r="M25" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="59"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="61"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="60"/>
       <c r="Q25" s="14"/>
     </row>
     <row r="26" spans="1:17" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -2429,12 +2472,12 @@
       <c r="M26" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="N26" s="59"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="61"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="60"/>
       <c r="Q26" s="14"/>
     </row>
-    <row r="27" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>214</v>
       </c>
@@ -2558,13 +2601,13 @@
       <c r="M30" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="N30" s="59" t="s">
+      <c r="N30" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="O30" s="57" t="s">
+      <c r="O30" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="P30" s="60" t="s">
+      <c r="P30" s="59" t="s">
         <v>98</v>
       </c>
       <c r="Q30" s="14"/>
@@ -2606,9 +2649,9 @@
       <c r="M31" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="N31" s="59"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="61"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="60"/>
       <c r="Q31" s="14"/>
     </row>
     <row r="32" spans="1:17" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -2648,9 +2691,9 @@
       <c r="M32" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="N32" s="59"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="61"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="60"/>
       <c r="Q32" s="14"/>
     </row>
     <row r="33" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2719,13 +2762,13 @@
       <c r="M34" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="N34" s="59" t="s">
+      <c r="N34" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="O34" s="57" t="s">
+      <c r="O34" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="P34" s="60" t="s">
+      <c r="P34" s="59" t="s">
         <v>98</v>
       </c>
       <c r="Q34" s="14"/>
@@ -2767,9 +2810,9 @@
       <c r="M35" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="N35" s="59"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="61"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="60"/>
       <c r="Q35" s="14"/>
     </row>
     <row r="36" spans="1:17" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -2809,9 +2852,9 @@
       <c r="M36" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="N36" s="59"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="61"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="60"/>
       <c r="Q36" s="14"/>
     </row>
     <row r="37" spans="1:17" ht="30" thickBot="1" x14ac:dyDescent="0.25">
@@ -2909,13 +2952,13 @@
       <c r="M39" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="N39" s="59" t="s">
+      <c r="N39" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="O39" s="57" t="s">
+      <c r="O39" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="P39" s="60" t="s">
+      <c r="P39" s="59" t="s">
         <v>98</v>
       </c>
       <c r="Q39" s="14"/>
@@ -2957,9 +3000,9 @@
       <c r="M40" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="N40" s="59"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="61"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="60"/>
       <c r="Q40" s="14"/>
     </row>
     <row r="41" spans="1:17" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -2999,12 +3042,12 @@
       <c r="M41" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="N41" s="59"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="61"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="60"/>
       <c r="Q41" s="14"/>
     </row>
-    <row r="42" spans="1:17" ht="136" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>214.72</v>
       </c>
@@ -3012,7 +3055,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="31" t="s">
         <v>170</v>
       </c>
       <c r="D42" s="29" t="str">
@@ -3020,7 +3063,7 @@
         <v xml:space="preserve">                        Diesel Generator</v>
       </c>
       <c r="E42" s="35"/>
-      <c r="F42" s="63">
+      <c r="F42" s="55">
         <f>225537/I42</f>
         <v>2653376.4705882352</v>
       </c>
@@ -3051,2084 +3094,2503 @@
       <c r="O42" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="P42" s="64" t="s">
+      <c r="P42" s="56" t="s">
         <v>182</v>
       </c>
       <c r="Q42" s="14"/>
     </row>
     <row r="43" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
-        <v>22</v>
+      <c r="A43" s="24">
+        <v>215</v>
       </c>
       <c r="B43" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>183</v>
       </c>
       <c r="D43" s="29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      Reactor System</v>
-      </c>
-      <c r="E43" s="46"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="14"/>
+        <v xml:space="preserve">            Supply Chain Buildings</v>
+      </c>
+      <c r="E43" s="35"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="56"/>
       <c r="Q43" s="14"/>
     </row>
     <row r="44" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
-        <v>221</v>
+        <v>215.1</v>
       </c>
       <c r="B44" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="D44" s="29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">            Reactor Components</v>
-      </c>
-      <c r="E44" s="50"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="14"/>
+        <v xml:space="preserve">                  Storage Building</v>
+      </c>
+      <c r="E44" s="35"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="56"/>
       <c r="Q44" s="14"/>
     </row>
-    <row r="45" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
-        <v>221.1</v>
+        <v>215.11</v>
       </c>
       <c r="B45" s="10">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">                        Storage Building Slab Roof</v>
+      </c>
+      <c r="E45" s="35"/>
+      <c r="F45" s="36">
+        <f>1200 *1.53</f>
+        <v>1836</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H45" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37">
+        <v>2024</v>
+      </c>
+      <c r="M45" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="N45" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="O45" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="P45" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q45" s="14"/>
+    </row>
+    <row r="46" spans="1:17" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="24">
+        <v>215.12</v>
+      </c>
+      <c r="B46" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">                        Storage Building Basement</v>
+      </c>
+      <c r="E46" s="35"/>
+      <c r="F46" s="36">
+        <f>943.9*1.53</f>
+        <v>1444.1669999999999</v>
+      </c>
+      <c r="G46" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H46" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37">
+        <v>2024</v>
+      </c>
+      <c r="M46" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="N46" s="57"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="14"/>
+    </row>
+    <row r="47" spans="1:17" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="24">
+        <v>215.13</v>
+      </c>
+      <c r="B47" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">                        Storage Building Walls</v>
+      </c>
+      <c r="E47" s="35"/>
+      <c r="F47" s="36">
+        <f>721.21*1.53</f>
+        <v>1103.4513000000002</v>
+      </c>
+      <c r="G47" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H47" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37">
+        <v>2024</v>
+      </c>
+      <c r="M47" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="N47" s="57"/>
+      <c r="O47" s="58"/>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="14"/>
+    </row>
+    <row r="48" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="24">
+        <v>215.4</v>
+      </c>
+      <c r="B48" s="10">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C45" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">                  Reactor Vessel and Accessories</v>
-      </c>
-      <c r="E45" s="50"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-    </row>
-    <row r="46" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
-        <v>221.11</v>
-      </c>
-      <c r="B46" s="10">
+      <c r="C48" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">                  Radwaste Building</v>
+      </c>
+      <c r="E48" s="35"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="14"/>
+    </row>
+    <row r="49" spans="1:17" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="24">
+        <v>215.41</v>
+      </c>
+      <c r="B49" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C46" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">                        Reactor Support</v>
-      </c>
-      <c r="E46" s="50"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="48"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-    </row>
-    <row r="47" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="24">
-        <v>221.12</v>
-      </c>
-      <c r="B47" s="10">
+      <c r="C49" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">                        Radwaste Building Slab Roof</v>
+      </c>
+      <c r="E49" s="35"/>
+      <c r="F49" s="36">
+        <f>1200 *1.53</f>
+        <v>1836</v>
+      </c>
+      <c r="G49" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H49" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37">
+        <v>2024</v>
+      </c>
+      <c r="M49" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="N49" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="O49" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="P49" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q49" s="14"/>
+    </row>
+    <row r="50" spans="1:17" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="24">
+        <v>215.42</v>
+      </c>
+      <c r="B50" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C47" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">                        Outer Vessel Structure</v>
-      </c>
-      <c r="E47" s="50"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-    </row>
-    <row r="48" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="24">
-        <v>221.13</v>
-      </c>
-      <c r="B48" s="10">
+      <c r="C50" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">                        Radwaste Building Basement</v>
+      </c>
+      <c r="E50" s="35"/>
+      <c r="F50" s="36">
+        <f>943.9*1.53</f>
+        <v>1444.1669999999999</v>
+      </c>
+      <c r="G50" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H50" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37">
+        <v>2024</v>
+      </c>
+      <c r="M50" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="N50" s="57"/>
+      <c r="O50" s="58"/>
+      <c r="P50" s="60"/>
+      <c r="Q50" s="14"/>
+    </row>
+    <row r="51" spans="1:17" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="24">
+        <v>215.43</v>
+      </c>
+      <c r="B51" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C48" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">                        Inner Vessel Structure</v>
-      </c>
-      <c r="E48" s="50"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="49"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-    </row>
-    <row r="49" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="24">
-        <v>221.2</v>
-      </c>
-      <c r="B49" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">                  Reactor Control Devices</v>
-      </c>
-      <c r="E49" s="50"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="48"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-    </row>
-    <row r="50" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="24">
-        <v>221.21</v>
-      </c>
-      <c r="B50" s="10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">                        Reactivity Control System </v>
-      </c>
-      <c r="E50" s="50"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="49"/>
-      <c r="O50" s="48"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-    </row>
-    <row r="51" spans="1:17" ht="30" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="24">
-        <v>221.21100000000001</v>
-      </c>
-      <c r="B51" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
       <c r="C51" s="31" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="D51" s="29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                              Reactivity Control System Fabrication</v>
-      </c>
-      <c r="E51" s="50"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="14"/>
+        <v xml:space="preserve">                        Radwaste Building Walls</v>
+      </c>
+      <c r="E51" s="35"/>
+      <c r="F51" s="36">
+        <f>721.21*1.53</f>
+        <v>1103.4513000000002</v>
+      </c>
+      <c r="G51" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H51" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37">
+        <v>2024</v>
+      </c>
+      <c r="M51" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="N51" s="57"/>
+      <c r="O51" s="58"/>
+      <c r="P51" s="60"/>
       <c r="Q51" s="14"/>
     </row>
     <row r="52" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="24">
-        <v>221.21199999999999</v>
+      <c r="A52" s="22">
+        <v>22</v>
       </c>
       <c r="B52" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>148</v>
+        <v>1</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>10</v>
       </c>
       <c r="D52" s="29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                              Installation</v>
-      </c>
-      <c r="E52" s="50"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="49"/>
-      <c r="O52" s="48"/>
+        <v xml:space="preserve">      Reactor System</v>
+      </c>
+      <c r="E52" s="35"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="47"/>
       <c r="P52" s="14"/>
       <c r="Q52" s="14"/>
     </row>
-    <row r="53" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
-        <v>221.21299999999999</v>
+        <v>221</v>
       </c>
       <c r="B53" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D53" s="29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                              Control Drums Materials</v>
-      </c>
-      <c r="E53" s="50"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="49"/>
-      <c r="O53" s="48"/>
+        <v xml:space="preserve">            Reactor Components</v>
+      </c>
+      <c r="E53" s="49"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="47"/>
       <c r="P53" s="14"/>
       <c r="Q53" s="14"/>
     </row>
     <row r="54" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
-        <v>221.214</v>
+        <v>221.1</v>
       </c>
       <c r="B54" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="D54" s="29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                              Control Drums Materials</v>
-      </c>
-      <c r="E54" s="50"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="49"/>
-      <c r="O54" s="48"/>
+        <v xml:space="preserve">                  Reactor Vessel and Accessories</v>
+      </c>
+      <c r="E54" s="49"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="47"/>
       <c r="P54" s="14"/>
       <c r="Q54" s="14"/>
     </row>
     <row r="55" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
-        <v>221.3</v>
+        <v>221.11</v>
       </c>
       <c r="B55" s="10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D55" s="29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                  Non-Fuel Core Internals</v>
-      </c>
-      <c r="E55" s="50"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="49"/>
-      <c r="O55" s="48"/>
+        <v xml:space="preserve">                        Reactor Support</v>
+      </c>
+      <c r="E55" s="49"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="47"/>
       <c r="P55" s="14"/>
       <c r="Q55" s="14"/>
     </row>
-    <row r="56" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
-        <v>221.31</v>
+        <v>221.12</v>
       </c>
       <c r="B56" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="D56" s="29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                        Reflector</v>
-      </c>
-      <c r="E56" s="50"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="49"/>
-      <c r="O56" s="48"/>
+        <v xml:space="preserve">                        Outer Vessel Structure</v>
+      </c>
+      <c r="E56" s="49"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="47"/>
       <c r="P56" s="14"/>
       <c r="Q56" s="14"/>
     </row>
-    <row r="57" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
-        <v>221.32</v>
+        <v>221.13</v>
       </c>
       <c r="B57" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="D57" s="29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                        Shield</v>
-      </c>
-      <c r="E57" s="50"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="48"/>
-      <c r="L57" s="48"/>
-      <c r="M57" s="48"/>
-      <c r="N57" s="49"/>
-      <c r="O57" s="48"/>
+        <v xml:space="preserve">                        Inner Vessel Structure</v>
+      </c>
+      <c r="E57" s="49"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="47"/>
       <c r="P57" s="14"/>
       <c r="Q57" s="14"/>
     </row>
     <row r="58" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
-        <v>221.321</v>
+        <v>221.2</v>
       </c>
       <c r="B58" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D58" s="29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                              In Vessel Shield Materials</v>
-      </c>
-      <c r="E58" s="50"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="48"/>
-      <c r="L58" s="48"/>
-      <c r="M58" s="48"/>
-      <c r="N58" s="49"/>
-      <c r="O58" s="48"/>
+        <v xml:space="preserve">                  Reactor Control Devices</v>
+      </c>
+      <c r="E58" s="49"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="47"/>
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
     </row>
     <row r="59" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
-        <v>221.322</v>
+        <v>221.21</v>
       </c>
       <c r="B59" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D59" s="29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                              Out The Vessel Shield Materials</v>
-      </c>
-      <c r="E59" s="50"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="48"/>
-      <c r="L59" s="48"/>
-      <c r="M59" s="48"/>
-      <c r="N59" s="49"/>
-      <c r="O59" s="48"/>
+        <v xml:space="preserve">                        Reactivity Control System </v>
+      </c>
+      <c r="E59" s="49"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="48"/>
+      <c r="O59" s="47"/>
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
     </row>
-    <row r="60" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
-        <v>222</v>
+        <v>221.21100000000001</v>
       </c>
       <c r="B60" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D60" s="29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">            Main Heat Transport System</v>
-      </c>
-      <c r="E60" s="50"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="48"/>
-      <c r="M60" s="48"/>
-      <c r="N60" s="49"/>
-      <c r="O60" s="48"/>
+        <v xml:space="preserve">                              Reactivity Control System Fabrication</v>
+      </c>
+      <c r="E60" s="49"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="48"/>
+      <c r="O60" s="47"/>
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
     </row>
-    <row r="61" spans="1:17" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
-        <v>222.1</v>
+        <v>221.21199999999999</v>
       </c>
       <c r="B61" s="10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D61" s="29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                  Fluid Circulation Drive System (Pumps)</v>
-      </c>
-      <c r="E61" s="50"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="48"/>
-      <c r="K61" s="48"/>
-      <c r="L61" s="48"/>
-      <c r="M61" s="48"/>
-      <c r="N61" s="49"/>
-      <c r="O61" s="48"/>
+        <v xml:space="preserve">                              Installation</v>
+      </c>
+      <c r="E61" s="49"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="48"/>
+      <c r="O61" s="47"/>
       <c r="P61" s="14"/>
       <c r="Q61" s="14"/>
     </row>
-    <row r="62" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="19">
-        <v>222.11</v>
+    <row r="62" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="24">
+        <v>221.21299999999999</v>
       </c>
       <c r="B62" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="D62" s="29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                        Primary Pumps</v>
-      </c>
-      <c r="E62" s="50"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="48"/>
-      <c r="L62" s="48"/>
-      <c r="M62" s="48"/>
-      <c r="N62" s="49"/>
-      <c r="O62" s="48"/>
+        <v xml:space="preserve">                              Control Drums Materials</v>
+      </c>
+      <c r="E62" s="49"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="48"/>
+      <c r="O62" s="47"/>
       <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
     </row>
-    <row r="63" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="19">
-        <v>222.12</v>
+    <row r="63" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="24">
+        <v>221.214</v>
       </c>
       <c r="B63" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="D63" s="29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                        Secondary Pumps</v>
-      </c>
-      <c r="E63" s="50"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="48"/>
-      <c r="M63" s="48"/>
-      <c r="N63" s="49"/>
-      <c r="O63" s="48"/>
+        <v xml:space="preserve">                              Control Drums Materials</v>
+      </c>
+      <c r="E63" s="49"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
+      <c r="M63" s="47"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="47"/>
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
     </row>
-    <row r="64" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
-        <v>222.2</v>
+        <v>221.3</v>
       </c>
       <c r="B64" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="D64" s="29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                  Reactor Heat Transfer Piping System</v>
-      </c>
-      <c r="E64" s="50"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="48"/>
-      <c r="L64" s="48"/>
-      <c r="M64" s="48"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="48"/>
+        <v xml:space="preserve">                  Non-Fuel Core Internals</v>
+      </c>
+      <c r="E64" s="49"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="47"/>
+      <c r="M64" s="47"/>
+      <c r="N64" s="48"/>
+      <c r="O64" s="47"/>
       <c r="P64" s="14"/>
       <c r="Q64" s="14"/>
     </row>
     <row r="65" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
-        <v>222.3</v>
+        <v>221.31</v>
       </c>
       <c r="B65" s="10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D65" s="29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                  Heat Exchangers</v>
-      </c>
-      <c r="E65" s="50"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="48"/>
-      <c r="K65" s="48"/>
-      <c r="L65" s="48"/>
-      <c r="M65" s="48"/>
-      <c r="N65" s="49"/>
-      <c r="O65" s="48"/>
+        <v xml:space="preserve">                        Reflector</v>
+      </c>
+      <c r="E65" s="49"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+      <c r="M65" s="47"/>
+      <c r="N65" s="48"/>
+      <c r="O65" s="47"/>
       <c r="P65" s="14"/>
       <c r="Q65" s="14"/>
     </row>
-    <row r="66" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
-        <v>222.31</v>
+        <v>221.32</v>
       </c>
       <c r="B66" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D66" s="29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                        Immediate Heat Exchanger</v>
-      </c>
-      <c r="E66" s="50"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="48"/>
-      <c r="L66" s="48"/>
-      <c r="M66" s="48"/>
-      <c r="N66" s="49"/>
-      <c r="O66" s="48"/>
+        <v xml:space="preserve">                        Shield</v>
+      </c>
+      <c r="E66" s="49"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="48"/>
+      <c r="O66" s="47"/>
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
     </row>
     <row r="67" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
-        <v>222.32</v>
+        <v>221.321</v>
       </c>
       <c r="B67" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="D67" s="29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                        Secondary Heat Exchanger</v>
-      </c>
-      <c r="E67" s="50"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="48"/>
-      <c r="L67" s="48"/>
-      <c r="M67" s="48"/>
-      <c r="N67" s="49"/>
-      <c r="O67" s="48"/>
+        <v xml:space="preserve">                              In Vessel Shield Materials</v>
+      </c>
+      <c r="E67" s="49"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="47"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="47"/>
       <c r="P67" s="14"/>
       <c r="Q67" s="14"/>
     </row>
-    <row r="68" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
-        <v>223</v>
+        <v>221.322</v>
       </c>
       <c r="B68" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="D68" s="29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">            Safety Systems</v>
-      </c>
-      <c r="E68" s="50"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="48"/>
-      <c r="L68" s="48"/>
-      <c r="M68" s="48"/>
-      <c r="N68" s="49"/>
-      <c r="O68" s="48"/>
+        <v xml:space="preserve">                              Out The Vessel Shield Materials</v>
+      </c>
+      <c r="E68" s="49"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="48"/>
+      <c r="O68" s="47"/>
       <c r="P68" s="14"/>
       <c r="Q68" s="14"/>
     </row>
-    <row r="69" spans="1:17" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
-        <v>223.2</v>
+        <v>222</v>
       </c>
       <c r="B69" s="10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="D69" s="29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                  Reactor Cavity Cooling System (Rvacs)</v>
-      </c>
-      <c r="E69" s="50"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="48"/>
-      <c r="L69" s="48"/>
-      <c r="M69" s="48"/>
-      <c r="N69" s="49"/>
-      <c r="O69" s="48"/>
+        <v xml:space="preserve">            Main Heat Transport System</v>
+      </c>
+      <c r="E69" s="49"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="48"/>
+      <c r="O69" s="47"/>
       <c r="P69" s="14"/>
       <c r="Q69" s="14"/>
     </row>
-    <row r="70" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
-        <v>223.21</v>
+        <v>222.1</v>
       </c>
       <c r="B70" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D70" s="29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                        Rvacs (Cooling Vessel)</v>
-      </c>
-      <c r="E70" s="50"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="48"/>
-      <c r="L70" s="48"/>
-      <c r="M70" s="48"/>
-      <c r="N70" s="49"/>
-      <c r="O70" s="48"/>
+        <v xml:space="preserve">                  Fluid Circulation Drive System (Pumps)</v>
+      </c>
+      <c r="E70" s="49"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="48"/>
+      <c r="O70" s="47"/>
       <c r="P70" s="14"/>
       <c r="Q70" s="14"/>
     </row>
-    <row r="71" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="24">
-        <v>223.22</v>
+    <row r="71" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="19">
+        <v>222.11</v>
       </c>
       <c r="B71" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D71" s="29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                        Rvacs (Intake Vessel)</v>
-      </c>
-      <c r="E71" s="50"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="48"/>
-      <c r="K71" s="48"/>
-      <c r="L71" s="48"/>
-      <c r="M71" s="48"/>
-      <c r="N71" s="49"/>
-      <c r="O71" s="48"/>
+        <v xml:space="preserve">                        Primary Pumps</v>
+      </c>
+      <c r="E71" s="49"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="48"/>
+      <c r="O71" s="47"/>
       <c r="P71" s="14"/>
       <c r="Q71" s="14"/>
     </row>
-    <row r="72" spans="1:17" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="24">
+    <row r="72" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="19">
+        <v>222.12</v>
+      </c>
+      <c r="B72" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">                        Secondary Pumps</v>
+      </c>
+      <c r="E72" s="49"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="48"/>
+      <c r="O72" s="47"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
+    </row>
+    <row r="73" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="24">
+        <v>222.2</v>
+      </c>
+      <c r="B73" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">                  Reactor Heat Transfer Piping System</v>
+      </c>
+      <c r="E73" s="49"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="47"/>
+      <c r="N73" s="48"/>
+      <c r="O73" s="47"/>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="14"/>
+    </row>
+    <row r="74" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="24">
+        <v>222.3</v>
+      </c>
+      <c r="B74" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">                  Heat Exchangers</v>
+      </c>
+      <c r="E74" s="49"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="48"/>
+      <c r="O74" s="47"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+    </row>
+    <row r="75" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="24">
+        <v>222.31</v>
+      </c>
+      <c r="B75" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">                        Immediate Heat Exchanger</v>
+      </c>
+      <c r="E75" s="49"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="48"/>
+      <c r="O75" s="47"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
+    </row>
+    <row r="76" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="24">
+        <v>222.32</v>
+      </c>
+      <c r="B76" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">                        Secondary Heat Exchanger</v>
+      </c>
+      <c r="E76" s="49"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="48"/>
+      <c r="O76" s="47"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
+    </row>
+    <row r="77" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="24">
+        <v>223</v>
+      </c>
+      <c r="B77" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">            Safety Systems</v>
+      </c>
+      <c r="E77" s="49"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="48"/>
+      <c r="O77" s="47"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
+    </row>
+    <row r="78" spans="1:17" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="24">
+        <v>223.2</v>
+      </c>
+      <c r="B78" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">                  Reactor Cavity Cooling System (Rvacs)</v>
+      </c>
+      <c r="E78" s="49"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
+      <c r="N78" s="48"/>
+      <c r="O78" s="47"/>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="14"/>
+    </row>
+    <row r="79" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="24">
+        <v>223.21</v>
+      </c>
+      <c r="B79" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D79" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">                        Rvacs (Cooling Vessel)</v>
+      </c>
+      <c r="E79" s="49"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="47"/>
+      <c r="N79" s="48"/>
+      <c r="O79" s="47"/>
+      <c r="P79" s="14"/>
+      <c r="Q79" s="14"/>
+    </row>
+    <row r="80" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="24">
+        <v>223.22</v>
+      </c>
+      <c r="B80" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">                        Rvacs (Intake Vessel)</v>
+      </c>
+      <c r="E80" s="49"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="47"/>
+      <c r="N80" s="48"/>
+      <c r="O80" s="47"/>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="14"/>
+    </row>
+    <row r="81" spans="1:17" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="24">
         <v>227</v>
       </c>
-      <c r="B72" s="10">
-        <f t="shared" ref="B72:B106" si="2">IF(ISNUMBER(A72),
-    IF(AND(A72=INT(A72), MOD(A72, 10) = 0), 0,
-        IF(AND(A72=INT(A72), LEN(A72)=2), 1,
-            IF(AND(A72=INT(A72), LEN(A72)=3), 2,
-                LEN(A72) - FIND(".", A72) + 2)
+      <c r="B81" s="10">
+        <f t="shared" ref="B81:B115" si="2">IF(ISNUMBER(A81),
+    IF(AND(A81=INT(A81), MOD(A81, 10) = 0), 0,
+        IF(AND(A81=INT(A81), LEN(A81)=2), 1,
+            IF(AND(A81=INT(A81), LEN(A81)=3), 2,
+                LEN(A81) - FIND(".", A81) + 2)
         )
     ),
 "")</f>
         <v>2</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C81" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="29" t="str">
-        <f t="shared" ref="D72:D106" si="3">REPT("   ", B72*2) &amp; C72</f>
+      <c r="D81" s="29" t="str">
+        <f t="shared" ref="D81:D115" si="3">REPT("   ", B81*2) &amp; C81</f>
         <v xml:space="preserve">            Reactor Instrumentation and Control (I&amp;C)</v>
       </c>
-      <c r="E72" s="50"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="48"/>
-      <c r="K72" s="48"/>
-      <c r="L72" s="48"/>
-      <c r="M72" s="48"/>
-      <c r="N72" s="49"/>
-      <c r="O72" s="48"/>
-      <c r="P72" s="14"/>
-      <c r="Q72" s="14"/>
-    </row>
-    <row r="73" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="24">
+      <c r="E81" s="49"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="47"/>
+      <c r="L81" s="47"/>
+      <c r="M81" s="47"/>
+      <c r="N81" s="48"/>
+      <c r="O81" s="47"/>
+      <c r="P81" s="14"/>
+      <c r="Q81" s="14"/>
+    </row>
+    <row r="82" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="24">
         <v>227.1</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B82" s="10">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="C82" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="D73" s="29" t="str">
+      <c r="D82" s="29" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                  I&amp;C Baseline Cost</v>
       </c>
-      <c r="E73" s="50"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="48"/>
-      <c r="K73" s="48"/>
-      <c r="L73" s="48"/>
-      <c r="M73" s="48"/>
-      <c r="N73" s="49"/>
-      <c r="O73" s="48"/>
-      <c r="P73" s="14"/>
-      <c r="Q73" s="14"/>
-    </row>
-    <row r="74" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="24">
+      <c r="E82" s="49"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="47"/>
+      <c r="L82" s="47"/>
+      <c r="M82" s="47"/>
+      <c r="N82" s="48"/>
+      <c r="O82" s="47"/>
+      <c r="P82" s="14"/>
+      <c r="Q82" s="14"/>
+    </row>
+    <row r="83" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="24">
         <v>227.2</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B83" s="10">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C74" s="31" t="s">
+      <c r="C83" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="D74" s="29" t="str">
+      <c r="D83" s="29" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                  I&amp;C Autonomous Control</v>
       </c>
-      <c r="E74" s="50"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="48"/>
-      <c r="J74" s="48"/>
-      <c r="K74" s="48"/>
-      <c r="L74" s="48"/>
-      <c r="M74" s="48"/>
-      <c r="N74" s="49"/>
-      <c r="O74" s="48"/>
-      <c r="P74" s="14"/>
-      <c r="Q74" s="14"/>
-    </row>
-    <row r="75" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="21">
+      <c r="E83" s="49"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="47"/>
+      <c r="M83" s="47"/>
+      <c r="N83" s="48"/>
+      <c r="O83" s="47"/>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="14"/>
+    </row>
+    <row r="84" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="21">
         <v>23</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B84" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C84" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="29" t="str">
+      <c r="D84" s="29" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">      Energy Conversion System </v>
       </c>
-      <c r="E75" s="50"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="48"/>
-      <c r="J75" s="48"/>
-      <c r="K75" s="48"/>
-      <c r="L75" s="48"/>
-      <c r="M75" s="48"/>
-      <c r="N75" s="49"/>
-      <c r="O75" s="48"/>
-      <c r="P75" s="14"/>
-      <c r="Q75" s="14"/>
-    </row>
-    <row r="76" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="24">
+      <c r="E84" s="49"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="47"/>
+      <c r="J84" s="47"/>
+      <c r="K84" s="47"/>
+      <c r="L84" s="47"/>
+      <c r="M84" s="47"/>
+      <c r="N84" s="48"/>
+      <c r="O84" s="47"/>
+      <c r="P84" s="14"/>
+      <c r="Q84" s="14"/>
+    </row>
+    <row r="85" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="24">
         <v>232</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B85" s="10">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C85" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="29" t="str">
+      <c r="D85" s="29" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">            Energy Applications</v>
       </c>
-      <c r="E76" s="50"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="48"/>
-      <c r="J76" s="48"/>
-      <c r="K76" s="48"/>
-      <c r="L76" s="48"/>
-      <c r="M76" s="48"/>
-      <c r="N76" s="49"/>
-      <c r="O76" s="48"/>
-      <c r="P76" s="14"/>
-      <c r="Q76" s="14"/>
-    </row>
-    <row r="77" spans="1:17" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="24">
+      <c r="E85" s="49"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="47"/>
+      <c r="J85" s="47"/>
+      <c r="K85" s="47"/>
+      <c r="L85" s="47"/>
+      <c r="M85" s="47"/>
+      <c r="N85" s="48"/>
+      <c r="O85" s="47"/>
+      <c r="P85" s="14"/>
+      <c r="Q85" s="14"/>
+    </row>
+    <row r="86" spans="1:17" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="24">
         <v>232.1</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B86" s="10">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C86" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="D77" s="29" t="str">
+      <c r="D86" s="29" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                  Electricity Generation Systems (Turbines)</v>
       </c>
-      <c r="E77" s="50"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="48"/>
-      <c r="J77" s="48"/>
-      <c r="K77" s="48"/>
-      <c r="L77" s="48"/>
-      <c r="M77" s="48"/>
-      <c r="N77" s="49"/>
-      <c r="O77" s="48"/>
-      <c r="P77" s="14"/>
-      <c r="Q77" s="14"/>
-    </row>
-    <row r="78" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="21">
+      <c r="E86" s="49"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="47"/>
+      <c r="K86" s="47"/>
+      <c r="L86" s="47"/>
+      <c r="M86" s="47"/>
+      <c r="N86" s="48"/>
+      <c r="O86" s="47"/>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="14"/>
+    </row>
+    <row r="87" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="21">
         <v>24</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B87" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C78" s="31" t="s">
+      <c r="C87" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D78" s="29" t="str">
+      <c r="D87" s="29" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">      Electrical Equipment</v>
       </c>
-      <c r="E78" s="50"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="48"/>
-      <c r="K78" s="48"/>
-      <c r="L78" s="48"/>
-      <c r="M78" s="48"/>
-      <c r="N78" s="49"/>
-      <c r="O78" s="48"/>
-      <c r="P78" s="14"/>
-      <c r="Q78" s="14"/>
-    </row>
-    <row r="79" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="21">
+      <c r="E87" s="49"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="47"/>
+      <c r="J87" s="47"/>
+      <c r="K87" s="47"/>
+      <c r="L87" s="47"/>
+      <c r="M87" s="47"/>
+      <c r="N87" s="48"/>
+      <c r="O87" s="47"/>
+      <c r="P87" s="14"/>
+      <c r="Q87" s="14"/>
+    </row>
+    <row r="88" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="21">
         <v>25</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B88" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C79" s="31" t="s">
+      <c r="C88" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D79" s="29" t="str">
+      <c r="D88" s="29" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">      Initial Fuel Inventory</v>
       </c>
-      <c r="E79" s="50"/>
-      <c r="F79" s="48"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="48"/>
-      <c r="J79" s="48"/>
-      <c r="K79" s="48"/>
-      <c r="L79" s="48"/>
-      <c r="M79" s="48"/>
-      <c r="N79" s="49"/>
-      <c r="O79" s="48"/>
-      <c r="P79" s="14"/>
-      <c r="Q79" s="14"/>
-    </row>
-    <row r="80" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="24">
+      <c r="E88" s="49"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="47"/>
+      <c r="K88" s="47"/>
+      <c r="L88" s="47"/>
+      <c r="M88" s="47"/>
+      <c r="N88" s="48"/>
+      <c r="O88" s="47"/>
+      <c r="P88" s="14"/>
+      <c r="Q88" s="14"/>
+    </row>
+    <row r="89" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="24">
         <v>251</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B89" s="10">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="C89" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D80" s="29" t="str">
+      <c r="D89" s="29" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">            First Core Mining</v>
       </c>
-      <c r="E80" s="50"/>
-      <c r="F80" s="48"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="48"/>
-      <c r="J80" s="48"/>
-      <c r="K80" s="48"/>
-      <c r="L80" s="48"/>
-      <c r="M80" s="48"/>
-      <c r="N80" s="49"/>
-      <c r="O80" s="48"/>
-      <c r="P80" s="14"/>
-      <c r="Q80" s="14"/>
-    </row>
-    <row r="81" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="24">
+      <c r="E89" s="49"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="47"/>
+      <c r="L89" s="47"/>
+      <c r="M89" s="47"/>
+      <c r="N89" s="48"/>
+      <c r="O89" s="47"/>
+      <c r="P89" s="14"/>
+      <c r="Q89" s="14"/>
+    </row>
+    <row r="90" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="24">
         <v>252</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B90" s="10">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C90" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="29" t="str">
+      <c r="D90" s="29" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">            First Core Conversion </v>
       </c>
-      <c r="E81" s="50"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="49"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="48"/>
-      <c r="K81" s="48"/>
-      <c r="L81" s="48"/>
-      <c r="M81" s="48"/>
-      <c r="N81" s="49"/>
-      <c r="O81" s="48"/>
-      <c r="P81" s="14"/>
-      <c r="Q81" s="14"/>
-    </row>
-    <row r="82" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="24">
+      <c r="E90" s="49"/>
+      <c r="F90" s="47"/>
+      <c r="G90" s="47"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="47"/>
+      <c r="J90" s="47"/>
+      <c r="K90" s="47"/>
+      <c r="L90" s="47"/>
+      <c r="M90" s="47"/>
+      <c r="N90" s="48"/>
+      <c r="O90" s="47"/>
+      <c r="P90" s="14"/>
+      <c r="Q90" s="14"/>
+    </row>
+    <row r="91" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="24">
         <v>253</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B91" s="10">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C82" s="31" t="s">
+      <c r="C91" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D82" s="29" t="str">
+      <c r="D91" s="29" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">            First Core Enrichment </v>
       </c>
-      <c r="E82" s="50"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="48"/>
-      <c r="J82" s="48"/>
-      <c r="K82" s="48"/>
-      <c r="L82" s="48"/>
-      <c r="M82" s="48"/>
-      <c r="N82" s="49"/>
-      <c r="O82" s="48"/>
-      <c r="P82" s="14"/>
-      <c r="Q82" s="14"/>
-    </row>
-    <row r="83" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="24">
+      <c r="E91" s="49"/>
+      <c r="F91" s="47"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="47"/>
+      <c r="K91" s="47"/>
+      <c r="L91" s="47"/>
+      <c r="M91" s="47"/>
+      <c r="N91" s="48"/>
+      <c r="O91" s="47"/>
+      <c r="P91" s="14"/>
+      <c r="Q91" s="14"/>
+    </row>
+    <row r="92" spans="1:17" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="24">
         <v>254</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B92" s="10">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C83" s="31" t="s">
+      <c r="C92" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D83" s="29" t="str">
+      <c r="D92" s="29" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">            First Core Fuel Assembly Fabrication </v>
       </c>
-      <c r="E83" s="50"/>
-      <c r="F83" s="48"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="49"/>
-      <c r="I83" s="48"/>
-      <c r="J83" s="48"/>
-      <c r="K83" s="48"/>
-      <c r="L83" s="48"/>
-      <c r="M83" s="48"/>
-      <c r="N83" s="49"/>
-      <c r="O83" s="48"/>
-      <c r="P83" s="14"/>
-      <c r="Q83" s="14"/>
-    </row>
-    <row r="84" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="24">
+      <c r="E92" s="49"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="47"/>
+      <c r="N92" s="48"/>
+      <c r="O92" s="47"/>
+      <c r="P92" s="14"/>
+      <c r="Q92" s="14"/>
+    </row>
+    <row r="93" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="24">
         <v>254.1</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B93" s="10">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C84" s="31" t="s">
+      <c r="C93" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D84" s="29" t="str">
+      <c r="D93" s="29" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                  Fuel Production and Procurement</v>
       </c>
-      <c r="E84" s="50"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="48"/>
-      <c r="K84" s="48"/>
-      <c r="L84" s="48"/>
-      <c r="M84" s="48"/>
-      <c r="N84" s="49"/>
-      <c r="O84" s="48"/>
-      <c r="P84" s="14"/>
-      <c r="Q84" s="14"/>
-    </row>
-    <row r="85" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="24">
+      <c r="E93" s="49"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="48"/>
+      <c r="I93" s="47"/>
+      <c r="J93" s="47"/>
+      <c r="K93" s="47"/>
+      <c r="L93" s="47"/>
+      <c r="M93" s="47"/>
+      <c r="N93" s="48"/>
+      <c r="O93" s="47"/>
+      <c r="P93" s="14"/>
+      <c r="Q93" s="14"/>
+    </row>
+    <row r="94" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="24">
         <v>254.1</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B94" s="10">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C85" s="31" t="s">
+      <c r="C94" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="D85" s="29" t="str">
+      <c r="D94" s="29" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                  Other Related Activities</v>
       </c>
-      <c r="E85" s="50"/>
-      <c r="F85" s="48"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="49"/>
-      <c r="I85" s="48"/>
-      <c r="J85" s="48"/>
-      <c r="K85" s="48"/>
-      <c r="L85" s="48"/>
-      <c r="M85" s="48"/>
-      <c r="N85" s="49"/>
-      <c r="O85" s="48"/>
-      <c r="P85" s="14"/>
-      <c r="Q85" s="14"/>
-    </row>
-    <row r="86" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="21">
+      <c r="E94" s="49"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="48"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="47"/>
+      <c r="K94" s="47"/>
+      <c r="L94" s="47"/>
+      <c r="M94" s="47"/>
+      <c r="N94" s="48"/>
+      <c r="O94" s="47"/>
+      <c r="P94" s="14"/>
+      <c r="Q94" s="14"/>
+    </row>
+    <row r="95" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="21">
         <v>26</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B95" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C86" s="31" t="s">
+      <c r="C95" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="D86" s="29" t="str">
+      <c r="D95" s="29" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">      Miscellaneous Equipment (Cranes)</v>
       </c>
-      <c r="E86" s="50"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="49"/>
-      <c r="I86" s="48"/>
-      <c r="J86" s="48"/>
-      <c r="K86" s="48"/>
-      <c r="L86" s="48"/>
-      <c r="M86" s="48"/>
-      <c r="N86" s="49"/>
-      <c r="O86" s="48"/>
-      <c r="P86" s="14"/>
-      <c r="Q86" s="14"/>
-    </row>
-    <row r="87" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="15">
+      <c r="E95" s="49"/>
+      <c r="F95" s="47"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="47"/>
+      <c r="K95" s="47"/>
+      <c r="L95" s="47"/>
+      <c r="M95" s="47"/>
+      <c r="N95" s="48"/>
+      <c r="O95" s="47"/>
+      <c r="P95" s="14"/>
+      <c r="Q95" s="14"/>
+    </row>
+    <row r="96" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="15">
         <v>30</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B96" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C87" s="32" t="s">
+      <c r="C96" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D87" s="29" t="str">
+      <c r="D96" s="29" t="str">
         <f t="shared" si="3"/>
         <v>Capitalized Indirect Services Cost</v>
       </c>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-    </row>
-    <row r="88" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="21">
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15"/>
+      <c r="O96" s="15"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="15"/>
+    </row>
+    <row r="97" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="21">
         <v>31</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B97" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C88" s="33" t="s">
+      <c r="C97" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D88" s="29" t="str">
+      <c r="D97" s="29" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">      Factory &amp; Field Indirect Costs </v>
       </c>
-      <c r="E88" s="50"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="50"/>
-      <c r="H88" s="52"/>
-      <c r="I88" s="50"/>
-      <c r="J88" s="50"/>
-      <c r="K88" s="50"/>
-      <c r="L88" s="50"/>
-      <c r="M88" s="50"/>
-      <c r="N88" s="52"/>
-      <c r="O88" s="50"/>
-      <c r="P88" s="20"/>
-      <c r="Q88" s="20"/>
-      <c r="R88" s="3"/>
-      <c r="S88" s="3"/>
-      <c r="T88" s="3"/>
-      <c r="U88" s="3"/>
-      <c r="V88" s="3"/>
-      <c r="W88" s="3"/>
-    </row>
-    <row r="89" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="21">
+      <c r="E97" s="49"/>
+      <c r="F97" s="49"/>
+      <c r="G97" s="49"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="49"/>
+      <c r="J97" s="49"/>
+      <c r="K97" s="49"/>
+      <c r="L97" s="49"/>
+      <c r="M97" s="49"/>
+      <c r="N97" s="51"/>
+      <c r="O97" s="49"/>
+      <c r="P97" s="20"/>
+      <c r="Q97" s="20"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+    </row>
+    <row r="98" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="21">
         <v>32</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B98" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C89" s="31" t="s">
+      <c r="C98" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D89" s="29" t="str">
+      <c r="D98" s="29" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">      Factory &amp; Construction Supervision </v>
       </c>
-      <c r="E89" s="50"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="50"/>
-      <c r="H89" s="52"/>
-      <c r="I89" s="50"/>
-      <c r="J89" s="50"/>
-      <c r="K89" s="50"/>
-      <c r="L89" s="50"/>
-      <c r="M89" s="50"/>
-      <c r="N89" s="52"/>
-      <c r="O89" s="50"/>
-      <c r="P89" s="20"/>
-      <c r="Q89" s="20"/>
-      <c r="R89" s="3"/>
-      <c r="S89" s="3"/>
-      <c r="T89" s="3"/>
-      <c r="U89" s="3"/>
-      <c r="V89" s="3"/>
-      <c r="W89" s="3"/>
-    </row>
-    <row r="90" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="21">
+      <c r="E98" s="49"/>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="49"/>
+      <c r="J98" s="49"/>
+      <c r="K98" s="49"/>
+      <c r="L98" s="49"/>
+      <c r="M98" s="49"/>
+      <c r="N98" s="51"/>
+      <c r="O98" s="49"/>
+      <c r="P98" s="20"/>
+      <c r="Q98" s="20"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+    </row>
+    <row r="99" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="21">
         <v>33</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B99" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C90" s="31" t="s">
+      <c r="C99" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D90" s="29" t="str">
+      <c r="D99" s="29" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">      Startup Costs</v>
       </c>
-      <c r="E90" s="50"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50"/>
-      <c r="H90" s="52"/>
-      <c r="I90" s="50"/>
-      <c r="J90" s="50"/>
-      <c r="K90" s="50"/>
-      <c r="L90" s="50"/>
-      <c r="M90" s="50"/>
-      <c r="N90" s="52"/>
-      <c r="O90" s="50"/>
-      <c r="P90" s="20"/>
-      <c r="Q90" s="20"/>
-      <c r="R90" s="3"/>
-      <c r="S90" s="3"/>
-      <c r="T90" s="3"/>
-      <c r="U90" s="3"/>
-      <c r="V90" s="3"/>
-      <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="21">
+      <c r="E99" s="49"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="51"/>
+      <c r="I99" s="49"/>
+      <c r="J99" s="49"/>
+      <c r="K99" s="49"/>
+      <c r="L99" s="49"/>
+      <c r="M99" s="49"/>
+      <c r="N99" s="51"/>
+      <c r="O99" s="49"/>
+      <c r="P99" s="20"/>
+      <c r="Q99" s="20"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+    </row>
+    <row r="100" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="21">
         <v>34</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B100" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C91" s="31" t="s">
+      <c r="C100" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D91" s="29" t="str">
+      <c r="D100" s="29" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">      Shipping and Transportation Costs</v>
       </c>
-      <c r="E91" s="50"/>
-      <c r="F91" s="50"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="52"/>
-      <c r="I91" s="50"/>
-      <c r="J91" s="50"/>
-      <c r="K91" s="50"/>
-      <c r="L91" s="50"/>
-      <c r="M91" s="50"/>
-      <c r="N91" s="52"/>
-      <c r="O91" s="50"/>
-      <c r="P91" s="20"/>
-      <c r="Q91" s="20"/>
-      <c r="R91" s="3"/>
-      <c r="S91" s="3"/>
-      <c r="T91" s="3"/>
-      <c r="U91" s="3"/>
-      <c r="V91" s="3"/>
-      <c r="W91" s="3"/>
-    </row>
-    <row r="92" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="21">
+      <c r="E100" s="49"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="51"/>
+      <c r="I100" s="49"/>
+      <c r="J100" s="49"/>
+      <c r="K100" s="49"/>
+      <c r="L100" s="49"/>
+      <c r="M100" s="49"/>
+      <c r="N100" s="51"/>
+      <c r="O100" s="49"/>
+      <c r="P100" s="20"/>
+      <c r="Q100" s="20"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+    </row>
+    <row r="101" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="21">
         <v>35</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B101" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C92" s="31" t="s">
+      <c r="C101" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="29" t="str">
+      <c r="D101" s="29" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">      Engineering Services</v>
       </c>
-      <c r="E92" s="50"/>
-      <c r="F92" s="48"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="48"/>
-      <c r="L92" s="48"/>
-      <c r="M92" s="48"/>
-      <c r="N92" s="49"/>
-      <c r="O92" s="48"/>
-      <c r="P92" s="14"/>
-      <c r="Q92" s="14"/>
-      <c r="R92" s="3"/>
-    </row>
-    <row r="93" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="21">
-        <v>36</v>
-      </c>
-      <c r="B93" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C93" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="D93" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">      Pm/Cm Services</v>
-      </c>
-      <c r="E93" s="50"/>
-      <c r="F93" s="48"/>
-      <c r="G93" s="48"/>
-      <c r="H93" s="49"/>
-      <c r="I93" s="48"/>
-      <c r="J93" s="48"/>
-      <c r="K93" s="48"/>
-      <c r="L93" s="48"/>
-      <c r="M93" s="48"/>
-      <c r="N93" s="49"/>
-      <c r="O93" s="48"/>
-      <c r="P93" s="14"/>
-      <c r="Q93" s="14"/>
-      <c r="R93" s="3"/>
-    </row>
-    <row r="94" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="15">
-        <v>60</v>
-      </c>
-      <c r="B94" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C94" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D94" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Capitalized Financial Costs </v>
-      </c>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
-      <c r="O94" s="15"/>
-      <c r="P94" s="15"/>
-      <c r="Q94" s="15"/>
-      <c r="R94" s="3"/>
-    </row>
-    <row r="95" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="21">
-        <v>62</v>
-      </c>
-      <c r="B95" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C95" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D95" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">      Interest</v>
-      </c>
-      <c r="E95" s="50"/>
-      <c r="F95" s="48"/>
-      <c r="G95" s="48"/>
-      <c r="H95" s="49"/>
-      <c r="I95" s="48"/>
-      <c r="J95" s="48"/>
-      <c r="K95" s="48"/>
-      <c r="L95" s="48"/>
-      <c r="M95" s="48"/>
-      <c r="N95" s="49"/>
-      <c r="O95" s="48"/>
-      <c r="P95" s="14"/>
-      <c r="Q95" s="14"/>
-      <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="16">
-        <v>70</v>
-      </c>
-      <c r="B96" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C96" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D96" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Annualized O&amp;M Cost </v>
-      </c>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="10"/>
-      <c r="M96" s="10"/>
-      <c r="N96" s="11"/>
-      <c r="O96" s="10"/>
-      <c r="P96" s="10"/>
-      <c r="Q96" s="10"/>
-      <c r="R96" s="3"/>
-    </row>
-    <row r="97" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="21">
-        <v>71</v>
-      </c>
-      <c r="B97" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C97" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D97" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">      O&amp;M Staff</v>
-      </c>
-      <c r="E97" s="50"/>
-      <c r="F97" s="48"/>
-      <c r="G97" s="48"/>
-      <c r="H97" s="49"/>
-      <c r="I97" s="48"/>
-      <c r="J97" s="48"/>
-      <c r="K97" s="48"/>
-      <c r="L97" s="48"/>
-      <c r="M97" s="48"/>
-      <c r="N97" s="49"/>
-      <c r="O97" s="48"/>
-      <c r="P97" s="14"/>
-      <c r="Q97" s="14"/>
-      <c r="R97" s="3"/>
-    </row>
-    <row r="98" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="24">
-        <v>711</v>
-      </c>
-      <c r="B98" s="10">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="C98" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D98" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">            Operators </v>
-      </c>
-      <c r="E98" s="50"/>
-      <c r="F98" s="48"/>
-      <c r="G98" s="48"/>
-      <c r="H98" s="49"/>
-      <c r="I98" s="48"/>
-      <c r="J98" s="48"/>
-      <c r="K98" s="48"/>
-      <c r="L98" s="48"/>
-      <c r="M98" s="48"/>
-      <c r="N98" s="49"/>
-      <c r="O98" s="48"/>
-      <c r="P98" s="14"/>
-      <c r="Q98" s="14"/>
-      <c r="R98" s="3"/>
-    </row>
-    <row r="99" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="24">
-        <v>712</v>
-      </c>
-      <c r="B99" s="10">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="C99" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D99" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">            Remote Monitoring Technicians </v>
-      </c>
-      <c r="E99" s="50"/>
-      <c r="F99" s="48"/>
-      <c r="G99" s="48"/>
-      <c r="H99" s="49"/>
-      <c r="I99" s="48"/>
-      <c r="J99" s="48"/>
-      <c r="K99" s="48"/>
-      <c r="L99" s="48"/>
-      <c r="M99" s="48"/>
-      <c r="N99" s="49"/>
-      <c r="O99" s="48"/>
-      <c r="P99" s="14"/>
-      <c r="Q99" s="14"/>
-      <c r="R99" s="3"/>
-    </row>
-    <row r="100" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="24">
-        <v>713</v>
-      </c>
-      <c r="B100" s="10">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="C100" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D100" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">            Security Staff </v>
-      </c>
-      <c r="E100" s="50"/>
-      <c r="F100" s="48"/>
-      <c r="G100" s="48"/>
-      <c r="H100" s="49"/>
-      <c r="I100" s="48"/>
-      <c r="J100" s="48"/>
-      <c r="K100" s="48"/>
-      <c r="L100" s="48"/>
-      <c r="M100" s="48"/>
-      <c r="N100" s="49"/>
-      <c r="O100" s="48"/>
-      <c r="P100" s="14"/>
-      <c r="Q100" s="14"/>
-      <c r="R100" s="3"/>
-    </row>
-    <row r="101" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="21">
-        <v>75</v>
-      </c>
-      <c r="B101" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C101" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D101" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">      Capital Plant Expenditures</v>
-      </c>
-      <c r="E101" s="50"/>
-      <c r="F101" s="48"/>
-      <c r="G101" s="48"/>
-      <c r="H101" s="49"/>
-      <c r="I101" s="48"/>
-      <c r="J101" s="48"/>
-      <c r="K101" s="48"/>
-      <c r="L101" s="48"/>
-      <c r="M101" s="48"/>
-      <c r="N101" s="49"/>
-      <c r="O101" s="48"/>
+      <c r="E101" s="49"/>
+      <c r="F101" s="47"/>
+      <c r="G101" s="47"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="47"/>
+      <c r="J101" s="47"/>
+      <c r="K101" s="47"/>
+      <c r="L101" s="47"/>
+      <c r="M101" s="47"/>
+      <c r="N101" s="48"/>
+      <c r="O101" s="47"/>
       <c r="P101" s="14"/>
       <c r="Q101" s="14"/>
       <c r="R101" s="3"/>
     </row>
-    <row r="102" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="B102" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="D102" s="29" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">      Annualized Decommissioning Cost</v>
-      </c>
-      <c r="E102" s="50"/>
-      <c r="F102" s="48"/>
-      <c r="G102" s="48"/>
-      <c r="H102" s="49"/>
-      <c r="I102" s="48"/>
-      <c r="J102" s="48"/>
-      <c r="K102" s="48"/>
-      <c r="L102" s="48"/>
-      <c r="M102" s="48"/>
-      <c r="N102" s="49"/>
-      <c r="O102" s="48"/>
+        <v xml:space="preserve">      Pm/Cm Services</v>
+      </c>
+      <c r="E102" s="49"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="48"/>
+      <c r="I102" s="47"/>
+      <c r="J102" s="47"/>
+      <c r="K102" s="47"/>
+      <c r="L102" s="47"/>
+      <c r="M102" s="47"/>
+      <c r="N102" s="48"/>
+      <c r="O102" s="47"/>
       <c r="P102" s="14"/>
       <c r="Q102" s="14"/>
       <c r="R102" s="3"/>
     </row>
-    <row r="103" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="16">
-        <v>80</v>
+    <row r="103" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="15">
+        <v>60</v>
       </c>
       <c r="B103" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C103" s="34" t="s">
-        <v>47</v>
+      <c r="C103" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="D103" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>Annualized Fuel Cost</v>
-      </c>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10"/>
-      <c r="K103" s="10"/>
-      <c r="L103" s="10"/>
-      <c r="M103" s="10"/>
-      <c r="N103" s="11"/>
-      <c r="O103" s="10"/>
-      <c r="P103" s="10"/>
-      <c r="Q103" s="10"/>
-    </row>
-    <row r="104" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">Capitalized Financial Costs </v>
+      </c>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="15"/>
+      <c r="O103" s="15"/>
+      <c r="P103" s="15"/>
+      <c r="Q103" s="15"/>
+      <c r="R103" s="3"/>
+    </row>
+    <row r="104" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="21">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B104" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D104" s="29" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">      Refueling Operations</v>
-      </c>
-      <c r="E104" s="50"/>
-      <c r="F104" s="48"/>
-      <c r="G104" s="48"/>
-      <c r="H104" s="49"/>
-      <c r="I104" s="48"/>
-      <c r="J104" s="48"/>
-      <c r="K104" s="48"/>
-      <c r="L104" s="48"/>
-      <c r="M104" s="48"/>
-      <c r="N104" s="49"/>
-      <c r="O104" s="48"/>
+        <v xml:space="preserve">      Interest</v>
+      </c>
+      <c r="E104" s="49"/>
+      <c r="F104" s="47"/>
+      <c r="G104" s="47"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="47"/>
+      <c r="J104" s="47"/>
+      <c r="K104" s="47"/>
+      <c r="L104" s="47"/>
+      <c r="M104" s="47"/>
+      <c r="N104" s="48"/>
+      <c r="O104" s="47"/>
       <c r="P104" s="14"/>
       <c r="Q104" s="14"/>
-    </row>
-    <row r="105" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="21">
-        <v>82</v>
+      <c r="R104" s="3"/>
+    </row>
+    <row r="105" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="16">
+        <v>70</v>
       </c>
       <c r="B105" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C105" s="31" t="s">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>40</v>
       </c>
       <c r="D105" s="29" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">      Additional Nuclear Fuel</v>
-      </c>
-      <c r="E105" s="50"/>
-      <c r="F105" s="48"/>
-      <c r="G105" s="48"/>
-      <c r="H105" s="49"/>
-      <c r="I105" s="48"/>
-      <c r="J105" s="48"/>
-      <c r="K105" s="48"/>
-      <c r="L105" s="48"/>
-      <c r="M105" s="48"/>
-      <c r="N105" s="49"/>
-      <c r="O105" s="48"/>
-      <c r="P105" s="14"/>
-      <c r="Q105" s="14"/>
-    </row>
-    <row r="106" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">Annualized O&amp;M Cost </v>
+      </c>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="11"/>
+      <c r="O105" s="10"/>
+      <c r="P105" s="10"/>
+      <c r="Q105" s="10"/>
+      <c r="R105" s="3"/>
+    </row>
+    <row r="106" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="21">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B106" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D106" s="29" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">      Spent Fuel Management</v>
-      </c>
-      <c r="E106" s="50"/>
-      <c r="F106" s="48"/>
-      <c r="G106" s="48"/>
-      <c r="H106" s="49"/>
-      <c r="I106" s="48"/>
-      <c r="J106" s="48"/>
-      <c r="K106" s="48"/>
-      <c r="L106" s="48"/>
-      <c r="M106" s="48"/>
-      <c r="N106" s="49"/>
-      <c r="O106" s="48"/>
+        <v xml:space="preserve">      O&amp;M Staff</v>
+      </c>
+      <c r="E106" s="49"/>
+      <c r="F106" s="47"/>
+      <c r="G106" s="47"/>
+      <c r="H106" s="48"/>
+      <c r="I106" s="47"/>
+      <c r="J106" s="47"/>
+      <c r="K106" s="47"/>
+      <c r="L106" s="47"/>
+      <c r="M106" s="47"/>
+      <c r="N106" s="48"/>
+      <c r="O106" s="47"/>
       <c r="P106" s="14"/>
       <c r="Q106" s="14"/>
-    </row>
-    <row r="107" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="55" t="s">
+      <c r="R106" s="3"/>
+    </row>
+    <row r="107" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="24">
+        <v>711</v>
+      </c>
+      <c r="B107" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D107" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">            Operators </v>
+      </c>
+      <c r="E107" s="49"/>
+      <c r="F107" s="47"/>
+      <c r="G107" s="47"/>
+      <c r="H107" s="48"/>
+      <c r="I107" s="47"/>
+      <c r="J107" s="47"/>
+      <c r="K107" s="47"/>
+      <c r="L107" s="47"/>
+      <c r="M107" s="47"/>
+      <c r="N107" s="48"/>
+      <c r="O107" s="47"/>
+      <c r="P107" s="14"/>
+      <c r="Q107" s="14"/>
+      <c r="R107" s="3"/>
+    </row>
+    <row r="108" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="24">
+        <v>712</v>
+      </c>
+      <c r="B108" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C108" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D108" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">            Remote Monitoring Technicians </v>
+      </c>
+      <c r="E108" s="49"/>
+      <c r="F108" s="47"/>
+      <c r="G108" s="47"/>
+      <c r="H108" s="48"/>
+      <c r="I108" s="47"/>
+      <c r="J108" s="47"/>
+      <c r="K108" s="47"/>
+      <c r="L108" s="47"/>
+      <c r="M108" s="47"/>
+      <c r="N108" s="48"/>
+      <c r="O108" s="47"/>
+      <c r="P108" s="14"/>
+      <c r="Q108" s="14"/>
+      <c r="R108" s="3"/>
+    </row>
+    <row r="109" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="24">
+        <v>713</v>
+      </c>
+      <c r="B109" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C109" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D109" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">            Security Staff </v>
+      </c>
+      <c r="E109" s="49"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="47"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="47"/>
+      <c r="J109" s="47"/>
+      <c r="K109" s="47"/>
+      <c r="L109" s="47"/>
+      <c r="M109" s="47"/>
+      <c r="N109" s="48"/>
+      <c r="O109" s="47"/>
+      <c r="P109" s="14"/>
+      <c r="Q109" s="14"/>
+      <c r="R109" s="3"/>
+    </row>
+    <row r="110" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="21">
+        <v>75</v>
+      </c>
+      <c r="B110" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C110" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D110" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      Capital Plant Expenditures</v>
+      </c>
+      <c r="E110" s="49"/>
+      <c r="F110" s="47"/>
+      <c r="G110" s="47"/>
+      <c r="H110" s="48"/>
+      <c r="I110" s="47"/>
+      <c r="J110" s="47"/>
+      <c r="K110" s="47"/>
+      <c r="L110" s="47"/>
+      <c r="M110" s="47"/>
+      <c r="N110" s="48"/>
+      <c r="O110" s="47"/>
+      <c r="P110" s="14"/>
+      <c r="Q110" s="14"/>
+      <c r="R110" s="3"/>
+    </row>
+    <row r="111" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="21">
+        <v>78</v>
+      </c>
+      <c r="B111" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C111" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D111" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      Annualized Decommissioning Cost</v>
+      </c>
+      <c r="E111" s="49"/>
+      <c r="F111" s="47"/>
+      <c r="G111" s="47"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="47"/>
+      <c r="J111" s="47"/>
+      <c r="K111" s="47"/>
+      <c r="L111" s="47"/>
+      <c r="M111" s="47"/>
+      <c r="N111" s="48"/>
+      <c r="O111" s="47"/>
+      <c r="P111" s="14"/>
+      <c r="Q111" s="14"/>
+      <c r="R111" s="3"/>
+    </row>
+    <row r="112" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="16">
+        <v>80</v>
+      </c>
+      <c r="B112" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C112" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D112" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>Annualized Fuel Cost</v>
+      </c>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="11"/>
+      <c r="O112" s="10"/>
+      <c r="P112" s="10"/>
+      <c r="Q112" s="10"/>
+    </row>
+    <row r="113" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="21">
+        <v>81</v>
+      </c>
+      <c r="B113" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C113" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D113" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      Refueling Operations</v>
+      </c>
+      <c r="E113" s="49"/>
+      <c r="F113" s="47"/>
+      <c r="G113" s="47"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="47"/>
+      <c r="J113" s="47"/>
+      <c r="K113" s="47"/>
+      <c r="L113" s="47"/>
+      <c r="M113" s="47"/>
+      <c r="N113" s="48"/>
+      <c r="O113" s="47"/>
+      <c r="P113" s="14"/>
+      <c r="Q113" s="14"/>
+    </row>
+    <row r="114" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="21">
+        <v>82</v>
+      </c>
+      <c r="B114" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C114" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      Additional Nuclear Fuel</v>
+      </c>
+      <c r="E114" s="49"/>
+      <c r="F114" s="47"/>
+      <c r="G114" s="47"/>
+      <c r="H114" s="48"/>
+      <c r="I114" s="47"/>
+      <c r="J114" s="47"/>
+      <c r="K114" s="47"/>
+      <c r="L114" s="47"/>
+      <c r="M114" s="47"/>
+      <c r="N114" s="48"/>
+      <c r="O114" s="47"/>
+      <c r="P114" s="14"/>
+      <c r="Q114" s="14"/>
+    </row>
+    <row r="115" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="21">
+        <v>83</v>
+      </c>
+      <c r="B115" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C115" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D115" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      Spent Fuel Management</v>
+      </c>
+      <c r="E115" s="49"/>
+      <c r="F115" s="47"/>
+      <c r="G115" s="47"/>
+      <c r="H115" s="48"/>
+      <c r="I115" s="47"/>
+      <c r="J115" s="47"/>
+      <c r="K115" s="47"/>
+      <c r="L115" s="47"/>
+      <c r="M115" s="47"/>
+      <c r="N115" s="48"/>
+      <c r="O115" s="47"/>
+      <c r="P115" s="14"/>
+      <c r="Q115" s="14"/>
+    </row>
+    <row r="116" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="B107" s="55"/>
-      <c r="C107" s="56"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="55"/>
-      <c r="F107" s="56"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="55"/>
-      <c r="J107" s="56"/>
-      <c r="K107" s="55"/>
-      <c r="L107" s="56"/>
-      <c r="M107" s="55"/>
-      <c r="N107" s="56"/>
-      <c r="O107" s="55"/>
-      <c r="P107" s="56"/>
-      <c r="Q107" s="11"/>
-    </row>
-    <row r="108" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="55" t="s">
+      <c r="B116" s="61"/>
+      <c r="C116" s="62"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="61"/>
+      <c r="F116" s="62"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="61"/>
+      <c r="J116" s="62"/>
+      <c r="K116" s="61"/>
+      <c r="L116" s="62"/>
+      <c r="M116" s="61"/>
+      <c r="N116" s="62"/>
+      <c r="O116" s="61"/>
+      <c r="P116" s="62"/>
+      <c r="Q116" s="11"/>
+    </row>
+    <row r="117" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B108" s="55"/>
-      <c r="C108" s="56"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="55"/>
-      <c r="F108" s="56"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="55"/>
-      <c r="J108" s="56"/>
-      <c r="K108" s="55"/>
-      <c r="L108" s="56"/>
-      <c r="M108" s="55"/>
-      <c r="N108" s="56"/>
-      <c r="O108" s="55"/>
-      <c r="P108" s="56"/>
-      <c r="Q108" s="11"/>
-    </row>
-    <row r="109" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="55" t="s">
+      <c r="B117" s="61"/>
+      <c r="C117" s="62"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="61"/>
+      <c r="F117" s="62"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="61"/>
+      <c r="J117" s="62"/>
+      <c r="K117" s="61"/>
+      <c r="L117" s="62"/>
+      <c r="M117" s="61"/>
+      <c r="N117" s="62"/>
+      <c r="O117" s="61"/>
+      <c r="P117" s="62"/>
+      <c r="Q117" s="11"/>
+    </row>
+    <row r="118" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B109" s="55"/>
-      <c r="C109" s="56"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="55"/>
-      <c r="F109" s="56"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="55"/>
-      <c r="J109" s="56"/>
-      <c r="K109" s="55"/>
-      <c r="L109" s="56"/>
-      <c r="M109" s="55"/>
-      <c r="N109" s="56"/>
-      <c r="O109" s="55"/>
-      <c r="P109" s="56"/>
-      <c r="Q109" s="11"/>
-    </row>
-    <row r="110" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="55" t="s">
+      <c r="B118" s="61"/>
+      <c r="C118" s="62"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="61"/>
+      <c r="F118" s="62"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="61"/>
+      <c r="J118" s="62"/>
+      <c r="K118" s="61"/>
+      <c r="L118" s="62"/>
+      <c r="M118" s="61"/>
+      <c r="N118" s="62"/>
+      <c r="O118" s="61"/>
+      <c r="P118" s="62"/>
+      <c r="Q118" s="11"/>
+    </row>
+    <row r="119" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B110" s="55"/>
-      <c r="C110" s="56"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="55"/>
-      <c r="F110" s="56"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="55"/>
-      <c r="J110" s="56"/>
-      <c r="K110" s="55"/>
-      <c r="L110" s="56"/>
-      <c r="M110" s="55"/>
-      <c r="N110" s="56"/>
-      <c r="O110" s="55"/>
-      <c r="P110" s="56"/>
-      <c r="Q110" s="11"/>
-    </row>
-    <row r="111" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="55" t="s">
+      <c r="B119" s="61"/>
+      <c r="C119" s="62"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="61"/>
+      <c r="F119" s="62"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="61"/>
+      <c r="J119" s="62"/>
+      <c r="K119" s="61"/>
+      <c r="L119" s="62"/>
+      <c r="M119" s="61"/>
+      <c r="N119" s="62"/>
+      <c r="O119" s="61"/>
+      <c r="P119" s="62"/>
+      <c r="Q119" s="11"/>
+    </row>
+    <row r="120" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B111" s="55"/>
-      <c r="C111" s="56"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="55"/>
-      <c r="F111" s="56"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="15"/>
-      <c r="I111" s="55"/>
-      <c r="J111" s="56"/>
-      <c r="K111" s="55"/>
-      <c r="L111" s="56"/>
-      <c r="M111" s="55"/>
-      <c r="N111" s="56"/>
-      <c r="O111" s="55"/>
-      <c r="P111" s="56"/>
-      <c r="Q111" s="11"/>
-    </row>
-    <row r="112" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="55" t="s">
+      <c r="B120" s="61"/>
+      <c r="C120" s="62"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="61"/>
+      <c r="F120" s="62"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="61"/>
+      <c r="J120" s="62"/>
+      <c r="K120" s="61"/>
+      <c r="L120" s="62"/>
+      <c r="M120" s="61"/>
+      <c r="N120" s="62"/>
+      <c r="O120" s="61"/>
+      <c r="P120" s="62"/>
+      <c r="Q120" s="11"/>
+    </row>
+    <row r="121" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B112" s="55"/>
-      <c r="C112" s="56"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="55"/>
-      <c r="F112" s="56"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="15"/>
-      <c r="I112" s="55"/>
-      <c r="J112" s="56"/>
-      <c r="K112" s="55"/>
-      <c r="L112" s="56"/>
-      <c r="M112" s="55"/>
-      <c r="N112" s="56"/>
-      <c r="O112" s="55"/>
-      <c r="P112" s="56"/>
-      <c r="Q112" s="11"/>
-    </row>
-    <row r="113" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="55" t="s">
+      <c r="B121" s="61"/>
+      <c r="C121" s="62"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="61"/>
+      <c r="F121" s="62"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="61"/>
+      <c r="J121" s="62"/>
+      <c r="K121" s="61"/>
+      <c r="L121" s="62"/>
+      <c r="M121" s="61"/>
+      <c r="N121" s="62"/>
+      <c r="O121" s="61"/>
+      <c r="P121" s="62"/>
+      <c r="Q121" s="11"/>
+    </row>
+    <row r="122" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B113" s="55"/>
-      <c r="C113" s="56"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="55"/>
-      <c r="F113" s="56"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="15"/>
-      <c r="I113" s="55"/>
-      <c r="J113" s="56"/>
-      <c r="K113" s="55"/>
-      <c r="L113" s="56"/>
-      <c r="M113" s="55"/>
-      <c r="N113" s="56"/>
-      <c r="O113" s="55"/>
-      <c r="P113" s="56"/>
-      <c r="Q113" s="11"/>
-    </row>
-    <row r="114" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="55" t="s">
+      <c r="B122" s="61"/>
+      <c r="C122" s="62"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="61"/>
+      <c r="F122" s="62"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="61"/>
+      <c r="J122" s="62"/>
+      <c r="K122" s="61"/>
+      <c r="L122" s="62"/>
+      <c r="M122" s="61"/>
+      <c r="N122" s="62"/>
+      <c r="O122" s="61"/>
+      <c r="P122" s="62"/>
+      <c r="Q122" s="11"/>
+    </row>
+    <row r="123" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B114" s="55"/>
-      <c r="C114" s="56"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="55"/>
-      <c r="F114" s="56"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="55"/>
-      <c r="J114" s="56"/>
-      <c r="K114" s="55"/>
-      <c r="L114" s="56"/>
-      <c r="M114" s="55"/>
-      <c r="N114" s="56"/>
-      <c r="O114" s="55"/>
-      <c r="P114" s="56"/>
-      <c r="Q114" s="11"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H115" s="54"/>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H116" s="54"/>
+      <c r="B123" s="61"/>
+      <c r="C123" s="62"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="61"/>
+      <c r="F123" s="62"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="61"/>
+      <c r="J123" s="62"/>
+      <c r="K123" s="61"/>
+      <c r="L123" s="62"/>
+      <c r="M123" s="61"/>
+      <c r="N123" s="62"/>
+      <c r="O123" s="61"/>
+      <c r="P123" s="62"/>
+      <c r="Q123" s="11"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H124" s="53"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H125" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
+  <mergeCells count="79">
+    <mergeCell ref="N45:N47"/>
+    <mergeCell ref="N49:N51"/>
+    <mergeCell ref="O45:O47"/>
+    <mergeCell ref="O49:O51"/>
+    <mergeCell ref="P45:P47"/>
+    <mergeCell ref="P49:P51"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="O116:P116"/>
+    <mergeCell ref="O117:P117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="O119:P119"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="K119:L119"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="O118:P118"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="O120:P120"/>
+    <mergeCell ref="O121:P121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="M122:N122"/>
+    <mergeCell ref="O122:P122"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="O123:P123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="M123:N123"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="N24:N26"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="N34:N36"/>
     <mergeCell ref="N39:N41"/>
     <mergeCell ref="O39:O41"/>
     <mergeCell ref="P39:P41"/>
@@ -5140,103 +5602,41 @@
     <mergeCell ref="P24:P26"/>
     <mergeCell ref="P30:P32"/>
     <mergeCell ref="P34:P36"/>
-    <mergeCell ref="N15:N17"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="N24:N26"/>
-    <mergeCell ref="N30:N32"/>
-    <mergeCell ref="N34:N36"/>
-    <mergeCell ref="O114:P114"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="O112:P112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="M113:N113"/>
-    <mergeCell ref="O113:P113"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="I112:J112"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="M112:N112"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="I111:J111"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="O111:P111"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="K108:L108"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="O110:P110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="O109:P109"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="O15:O17"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="O107:P107"/>
-    <mergeCell ref="O108:P108"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A112:C112"/>
   </mergeCells>
   <dataValidations count="11">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F150:F179 E3:E141" xr:uid="{0D656B1C-36BB-D24C-9DF1-8575D533B58B}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F159:F188 E3:E150" xr:uid="{0D656B1C-36BB-D24C-9DF1-8575D533B58B}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M164:M208 L2:L208" xr:uid="{7C199008-9AB6-6549-A861-AD474C13E949}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M173:M217 L2:L217" xr:uid="{7C199008-9AB6-6549-A861-AD474C13E949}">
       <formula1>1950</formula1>
       <formula2>2025</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9 F47:F149 F11:F41 F43 I1:I1048576" xr:uid="{66ABF627-CC97-3E44-B6AC-09E441BED0CD}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9 F56:F158 F11:F41 F49:F52 I1:I1048576 F45:F47" xr:uid="{66ABF627-CC97-3E44-B6AC-09E441BED0CD}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M117:M163" xr:uid="{F4F53CC5-25AF-5B42-8EEF-6E8D6F9FC73C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M126:M172" xr:uid="{F4F53CC5-25AF-5B42-8EEF-6E8D6F9FC73C}">
       <formula1>"General, Labor, Material, Equipment,Lab and Mat and Equip"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J107:J141" xr:uid="{19C103B6-865E-F94F-B938-0317482E5B19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J116:J150" xr:uid="{19C103B6-865E-F94F-B938-0317482E5B19}">
       <formula1>"acres, MWe, m^3"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K107:K354" xr:uid="{6D536505-A5B6-E145-A4B9-9C3C8E6B8527}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K116:K363" xr:uid="{6D536505-A5B6-E145-A4B9-9C3C8E6B8527}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M116" xr:uid="{7E44D5D7-AB3F-D340-AE9A-F65BCE5B6A48}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M125" xr:uid="{7E44D5D7-AB3F-D340-AE9A-F65BCE5B6A48}">
       <formula1>"General, Labor, Material, Equipment,Lab and Mat and Equip, 'Lab and Equip"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H375:H385" xr:uid="{9E6037A9-5EC7-2945-A2FE-1723BA7DEE83}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H384:H394" xr:uid="{9E6037A9-5EC7-2945-A2FE-1723BA7DEE83}">
       <formula1>"Land Area, Power MWe, Excavation Volume,  Reactor Building Slab Roof Volume,	Reactor Building  Basement Volume, Reactor Building  Exterior Walls Volume,		Turbine Building Slab Roof Volume,	Turbine Building  Basement Volume,	Turbine Building  Exterior Wall"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J106" xr:uid="{F68DA79D-95E2-7146-BCB2-9ACBE8CB4202}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J115" xr:uid="{F68DA79D-95E2-7146-BCB2-9ACBE8CB4202}">
       <formula1>"acres, MWe, m^3, MWt"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{EEDF1E2A-32DC-6242-8EBD-BD01BBD19C77}">
       <formula1>"$/acres, $/MWe, $/m^3, $/MWt"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K106" xr:uid="{1C0096F5-23AB-5A48-8F14-E27BC72A38A6}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K115" xr:uid="{1C0096F5-23AB-5A48-8F14-E27BC72A38A6}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>

--- a/cost/Cost_Database.xlsx
+++ b/cost/Cost_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannbn/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D053BFA-EC9D-1449-98E1-F487820FBFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EBA101-A52C-1349-AD93-4B99B67931F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Database" sheetId="2" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="407">
   <si>
     <t>Account</t>
   </si>
@@ -1509,17 +1509,30 @@
   <si>
     <t>Total Capital Investment</t>
   </si>
+  <si>
+    <t>unitless</t>
+  </si>
+  <si>
+    <t>Total Field Direct Cost</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="37" x14ac:knownFonts="1">
     <font>
@@ -1986,7 +1999,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2255,6 +2268,24 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2263,10 +2294,37 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2296,51 +2354,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2362,6 +2375,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2370,7 +2386,7 @@
     <cellStyle name="Normal 2" xfId="4" xr:uid="{E15291B7-9068-3147-AE9D-D55638463741}"/>
     <cellStyle name="Normal 2 5" xfId="3" xr:uid="{D5427F60-54E8-014E-9224-5454BAE094F2}"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="96">
     <dxf>
       <font>
         <b/>
@@ -2397,141 +2413,6 @@
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2588,9 +2469,15 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2604,15 +2491,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2669,33 +2550,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2719,54 +2573,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2802,6 +2608,405 @@
         <b/>
         <i val="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3250,9 +3455,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5330BDA-7164-B946-A942-FFAE4F744BBA}">
   <dimension ref="A1:Z126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="63" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
+    <sheetView topLeftCell="F1" zoomScale="150" zoomScaleNormal="63" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P102" sqref="P102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3432,10 +3637,10 @@
       <c r="Q3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="113" t="s">
+      <c r="R3" s="119" t="s">
         <v>142</v>
       </c>
-      <c r="S3" s="129" t="s">
+      <c r="S3" s="123" t="s">
         <v>56</v>
       </c>
       <c r="T3" s="26"/>
@@ -3485,8 +3690,8 @@
       <c r="Q4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="113"/>
-      <c r="S4" s="129"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="123"/>
       <c r="T4" s="26"/>
     </row>
     <row r="5" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3528,10 +3733,10 @@
       <c r="Q5" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="113" t="s">
+      <c r="R5" s="119" t="s">
         <v>143</v>
       </c>
-      <c r="S5" s="129" t="s">
+      <c r="S5" s="123" t="s">
         <v>59</v>
       </c>
       <c r="T5" s="26"/>
@@ -3574,8 +3779,8 @@
       <c r="Q6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="113"/>
-      <c r="S6" s="129"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="123"/>
       <c r="T6" s="26"/>
     </row>
     <row r="7" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3763,13 +3968,13 @@
       <c r="P11" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="125" t="s">
+      <c r="Q11" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="R11" s="113" t="s">
+      <c r="R11" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="S11" s="114" t="s">
+      <c r="S11" s="124" t="s">
         <v>84</v>
       </c>
       <c r="T11" s="26"/>
@@ -3823,9 +4028,9 @@
       <c r="P12" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" s="125"/>
-      <c r="R12" s="113"/>
-      <c r="S12" s="115"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="125"/>
       <c r="T12" s="26"/>
     </row>
     <row r="13" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3870,9 +4075,9 @@
       <c r="P13" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="125"/>
-      <c r="R13" s="113"/>
-      <c r="S13" s="115"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="125"/>
       <c r="T13" s="26"/>
     </row>
     <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3948,13 +4153,13 @@
       <c r="P15" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q15" s="125" t="s">
+      <c r="Q15" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="113" t="s">
+      <c r="R15" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="S15" s="114" t="s">
+      <c r="S15" s="124" t="s">
         <v>84</v>
       </c>
       <c r="T15" s="26"/>
@@ -4001,9 +4206,9 @@
       <c r="P16" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="125"/>
-      <c r="R16" s="113"/>
-      <c r="S16" s="115"/>
+      <c r="Q16" s="115"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="125"/>
       <c r="T16" s="26"/>
     </row>
     <row r="17" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4048,9 +4253,9 @@
       <c r="P17" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="115"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="125"/>
       <c r="T17" s="26"/>
     </row>
     <row r="18" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4159,13 +4364,13 @@
       <c r="P20" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q20" s="125" t="s">
+      <c r="Q20" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="R20" s="113" t="s">
+      <c r="R20" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="S20" s="114" t="s">
+      <c r="S20" s="124" t="s">
         <v>84</v>
       </c>
       <c r="T20" s="26"/>
@@ -4212,9 +4417,9 @@
       <c r="P21" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="115"/>
+      <c r="Q21" s="115"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="125"/>
       <c r="T21" s="26"/>
     </row>
     <row r="22" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4259,9 +4464,9 @@
       <c r="P22" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="125"/>
-      <c r="R22" s="113"/>
-      <c r="S22" s="115"/>
+      <c r="Q22" s="115"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="125"/>
       <c r="T22" s="26"/>
     </row>
     <row r="23" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4338,13 +4543,13 @@
       <c r="P24" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q24" s="125" t="s">
+      <c r="Q24" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="R24" s="113" t="s">
+      <c r="R24" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="114" t="s">
+      <c r="S24" s="124" t="s">
         <v>84</v>
       </c>
       <c r="T24" s="26"/>
@@ -4391,9 +4596,9 @@
       <c r="P25" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q25" s="125"/>
-      <c r="R25" s="113"/>
-      <c r="S25" s="115"/>
+      <c r="Q25" s="115"/>
+      <c r="R25" s="119"/>
+      <c r="S25" s="125"/>
       <c r="T25" s="26"/>
     </row>
     <row r="26" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4438,9 +4643,9 @@
       <c r="P26" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q26" s="125"/>
-      <c r="R26" s="113"/>
-      <c r="S26" s="115"/>
+      <c r="Q26" s="115"/>
+      <c r="R26" s="119"/>
+      <c r="S26" s="125"/>
       <c r="T26" s="26"/>
     </row>
     <row r="27" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4581,13 +4786,13 @@
       <c r="P30" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q30" s="136" t="s">
+      <c r="Q30" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="R30" s="135" t="s">
+      <c r="R30" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="S30" s="133" t="s">
+      <c r="S30" s="129" t="s">
         <v>84</v>
       </c>
       <c r="T30" s="85"/>
@@ -4634,9 +4839,9 @@
       <c r="P31" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q31" s="136"/>
-      <c r="R31" s="135"/>
-      <c r="S31" s="134"/>
+      <c r="Q31" s="114"/>
+      <c r="R31" s="120"/>
+      <c r="S31" s="130"/>
       <c r="T31" s="85"/>
     </row>
     <row r="32" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -4681,9 +4886,9 @@
       <c r="P32" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q32" s="136"/>
-      <c r="R32" s="135"/>
-      <c r="S32" s="134"/>
+      <c r="Q32" s="114"/>
+      <c r="R32" s="120"/>
+      <c r="S32" s="130"/>
       <c r="T32" s="85"/>
     </row>
     <row r="33" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4760,13 +4965,13 @@
       <c r="P34" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q34" s="136" t="s">
+      <c r="Q34" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="R34" s="135" t="s">
+      <c r="R34" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="S34" s="133" t="s">
+      <c r="S34" s="129" t="s">
         <v>84</v>
       </c>
       <c r="T34" s="85"/>
@@ -4813,9 +5018,9 @@
       <c r="P35" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q35" s="136"/>
-      <c r="R35" s="135"/>
-      <c r="S35" s="134"/>
+      <c r="Q35" s="114"/>
+      <c r="R35" s="120"/>
+      <c r="S35" s="130"/>
       <c r="T35" s="85"/>
     </row>
     <row r="36" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -4860,9 +5065,9 @@
       <c r="P36" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q36" s="136"/>
-      <c r="R36" s="135"/>
-      <c r="S36" s="134"/>
+      <c r="Q36" s="114"/>
+      <c r="R36" s="120"/>
+      <c r="S36" s="130"/>
       <c r="T36" s="85"/>
     </row>
     <row r="37" spans="1:20" ht="30" thickBot="1" x14ac:dyDescent="0.25">
@@ -4971,13 +5176,13 @@
       <c r="P39" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q39" s="136" t="s">
+      <c r="Q39" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="R39" s="135" t="s">
+      <c r="R39" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="S39" s="133" t="s">
+      <c r="S39" s="129" t="s">
         <v>84</v>
       </c>
       <c r="T39" s="85"/>
@@ -5024,9 +5229,9 @@
       <c r="P40" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q40" s="136"/>
-      <c r="R40" s="135"/>
-      <c r="S40" s="134"/>
+      <c r="Q40" s="114"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="130"/>
       <c r="T40" s="85"/>
     </row>
     <row r="41" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -5071,9 +5276,9 @@
       <c r="P41" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q41" s="136"/>
-      <c r="R41" s="135"/>
-      <c r="S41" s="134"/>
+      <c r="Q41" s="114"/>
+      <c r="R41" s="120"/>
+      <c r="S41" s="130"/>
       <c r="T41" s="85"/>
     </row>
     <row r="42" spans="1:20" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5240,13 +5445,13 @@
       <c r="P45" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q45" s="125" t="s">
+      <c r="Q45" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="R45" s="113" t="s">
+      <c r="R45" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="S45" s="114" t="s">
+      <c r="S45" s="124" t="s">
         <v>84</v>
       </c>
       <c r="T45" s="26"/>
@@ -5293,9 +5498,9 @@
       <c r="P46" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q46" s="125"/>
-      <c r="R46" s="113"/>
-      <c r="S46" s="115"/>
+      <c r="Q46" s="115"/>
+      <c r="R46" s="119"/>
+      <c r="S46" s="125"/>
       <c r="T46" s="26"/>
     </row>
     <row r="47" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -5340,9 +5545,9 @@
       <c r="P47" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q47" s="125"/>
-      <c r="R47" s="113"/>
-      <c r="S47" s="115"/>
+      <c r="Q47" s="115"/>
+      <c r="R47" s="119"/>
+      <c r="S47" s="125"/>
       <c r="T47" s="26"/>
     </row>
     <row r="48" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5419,13 +5624,13 @@
       <c r="P49" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q49" s="125" t="s">
+      <c r="Q49" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="R49" s="113" t="s">
+      <c r="R49" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="S49" s="114" t="s">
+      <c r="S49" s="124" t="s">
         <v>84</v>
       </c>
       <c r="T49" s="26"/>
@@ -5472,9 +5677,9 @@
       <c r="P50" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q50" s="125"/>
-      <c r="R50" s="113"/>
-      <c r="S50" s="115"/>
+      <c r="Q50" s="115"/>
+      <c r="R50" s="119"/>
+      <c r="S50" s="125"/>
       <c r="T50" s="26"/>
     </row>
     <row r="51" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -5519,9 +5724,9 @@
       <c r="P51" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q51" s="125"/>
-      <c r="R51" s="113"/>
-      <c r="S51" s="115"/>
+      <c r="Q51" s="115"/>
+      <c r="R51" s="119"/>
+      <c r="S51" s="125"/>
       <c r="T51" s="26"/>
     </row>
     <row r="52" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5670,10 +5875,10 @@
       <c r="Q55" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="R55" s="130" t="s">
+      <c r="R55" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="S55" s="116" t="s">
+      <c r="S55" s="131" t="s">
         <v>183</v>
       </c>
       <c r="T55" s="42" t="s">
@@ -5730,8 +5935,8 @@
       <c r="Q56" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="R56" s="131"/>
-      <c r="S56" s="117"/>
+      <c r="R56" s="127"/>
+      <c r="S56" s="132"/>
       <c r="T56" s="26"/>
     </row>
     <row r="57" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5787,8 +5992,8 @@
       <c r="Q57" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="R57" s="132"/>
-      <c r="S57" s="118"/>
+      <c r="R57" s="128"/>
+      <c r="S57" s="133"/>
       <c r="T57" s="42" t="s">
         <v>182</v>
       </c>
@@ -5898,10 +6103,10 @@
       <c r="Q60" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R60" s="119" t="s">
+      <c r="R60" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="S60" s="122" t="s">
+      <c r="S60" s="137" t="s">
         <v>352</v>
       </c>
       <c r="T60" s="90" t="s">
@@ -5947,8 +6152,8 @@
       <c r="Q61" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R61" s="120"/>
-      <c r="S61" s="123"/>
+      <c r="R61" s="135"/>
+      <c r="S61" s="138"/>
       <c r="T61" s="85"/>
     </row>
     <row r="62" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6005,8 +6210,8 @@
       <c r="Q62" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R62" s="120"/>
-      <c r="S62" s="123"/>
+      <c r="R62" s="135"/>
+      <c r="S62" s="138"/>
       <c r="T62" s="85"/>
     </row>
     <row r="63" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6063,8 +6268,8 @@
       <c r="Q63" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R63" s="121"/>
-      <c r="S63" s="124"/>
+      <c r="R63" s="136"/>
+      <c r="S63" s="139"/>
       <c r="T63" s="85"/>
     </row>
     <row r="64" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6154,10 +6359,10 @@
       <c r="Q65" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="R65" s="130" t="s">
+      <c r="R65" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="S65" s="116" t="s">
+      <c r="S65" s="131" t="s">
         <v>183</v>
       </c>
       <c r="T65" s="26"/>
@@ -6190,8 +6395,8 @@
       <c r="O66" s="26"/>
       <c r="P66" s="26"/>
       <c r="Q66" s="42"/>
-      <c r="R66" s="131"/>
-      <c r="S66" s="117"/>
+      <c r="R66" s="127"/>
+      <c r="S66" s="132"/>
       <c r="T66" s="26"/>
     </row>
     <row r="67" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6251,8 +6456,8 @@
       <c r="Q67" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R67" s="131"/>
-      <c r="S67" s="117"/>
+      <c r="R67" s="127"/>
+      <c r="S67" s="132"/>
       <c r="T67" s="85"/>
     </row>
     <row r="68" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6308,8 +6513,8 @@
       <c r="Q68" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R68" s="132"/>
-      <c r="S68" s="118"/>
+      <c r="R68" s="128"/>
+      <c r="S68" s="133"/>
       <c r="T68" s="85"/>
     </row>
     <row r="69" spans="1:20" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6534,13 +6739,13 @@
       <c r="Q73" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="R73" s="111" t="s">
+      <c r="R73" s="116" t="s">
         <v>353</v>
       </c>
-      <c r="S73" s="127" t="s">
+      <c r="S73" s="121" t="s">
         <v>355</v>
       </c>
-      <c r="T73" s="111"/>
+      <c r="T73" s="116"/>
     </row>
     <row r="74" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30">
@@ -6590,9 +6795,9 @@
       <c r="Q74" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="R74" s="112"/>
-      <c r="S74" s="128"/>
-      <c r="T74" s="112"/>
+      <c r="R74" s="118"/>
+      <c r="S74" s="122"/>
+      <c r="T74" s="118"/>
     </row>
     <row r="75" spans="1:20" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30">
@@ -7544,10 +7749,10 @@
       <c r="P95" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q95" s="111" t="s">
+      <c r="Q95" s="116" t="s">
         <v>388</v>
       </c>
-      <c r="R95" s="111" t="s">
+      <c r="R95" s="116" t="s">
         <v>389</v>
       </c>
       <c r="S95" s="26"/>
@@ -7592,8 +7797,8 @@
       <c r="P96" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q96" s="126"/>
-      <c r="R96" s="126"/>
+      <c r="Q96" s="117"/>
+      <c r="R96" s="117"/>
       <c r="S96" s="26"/>
       <c r="T96" s="26"/>
     </row>
@@ -7638,8 +7843,8 @@
       <c r="P97" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q97" s="126"/>
-      <c r="R97" s="126"/>
+      <c r="Q97" s="117"/>
+      <c r="R97" s="117"/>
       <c r="S97" s="26"/>
       <c r="T97" s="26"/>
     </row>
@@ -7686,8 +7891,8 @@
       <c r="P98" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q98" s="126"/>
-      <c r="R98" s="126"/>
+      <c r="Q98" s="117"/>
+      <c r="R98" s="117"/>
       <c r="S98" s="26"/>
       <c r="T98" s="26"/>
     </row>
@@ -7741,8 +7946,8 @@
       <c r="P99" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q99" s="112"/>
-      <c r="R99" s="112"/>
+      <c r="Q99" s="118"/>
+      <c r="R99" s="118"/>
       <c r="S99" s="26"/>
       <c r="T99" s="26"/>
     </row>
@@ -7836,18 +8041,33 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve">      Factory &amp; field indirect costs</v>
       </c>
-      <c r="E102" s="19"/>
+      <c r="E102" s="19" t="s">
+        <v>351</v>
+      </c>
       <c r="F102" s="19"/>
       <c r="G102" s="19"/>
       <c r="H102" s="29"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="29"/>
-      <c r="K102" s="29"/>
+      <c r="I102" s="147">
+        <f>MARVEL_Cost!C56/(MARVEL_Cost!C6+MARVEL_Cost!C13+MARVEL_Cost!C45)</f>
+        <v>6.5389932052543287E-2</v>
+      </c>
+      <c r="J102" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="K102" s="42" t="s">
+        <v>404</v>
+      </c>
       <c r="L102" s="29"/>
-      <c r="M102" s="29"/>
+      <c r="M102" s="29" t="s">
+        <v>405</v>
+      </c>
       <c r="N102" s="29"/>
-      <c r="O102" s="29"/>
-      <c r="P102" s="29"/>
+      <c r="O102" s="26">
+        <v>2024</v>
+      </c>
+      <c r="P102" s="26" t="s">
+        <v>406</v>
+      </c>
       <c r="Q102" s="98"/>
       <c r="R102" s="29"/>
       <c r="S102" s="29"/>
@@ -7920,7 +8140,7 @@
       <c r="P104" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="Q104" s="137" t="s">
+      <c r="Q104" s="111" t="s">
         <v>380</v>
       </c>
       <c r="R104" s="24"/>
@@ -7969,7 +8189,7 @@
       <c r="P105" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="Q105" s="138"/>
+      <c r="Q105" s="112"/>
       <c r="R105" s="24"/>
       <c r="S105" s="24"/>
       <c r="T105" s="24"/>
@@ -8016,7 +8236,7 @@
       <c r="P106" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q106" s="138"/>
+      <c r="Q106" s="112"/>
       <c r="R106" s="26"/>
       <c r="S106" s="26"/>
       <c r="T106" s="26"/>
@@ -8058,7 +8278,7 @@
       <c r="P107" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q107" s="139"/>
+      <c r="Q107" s="113"/>
       <c r="R107" s="26"/>
       <c r="S107" s="26"/>
       <c r="T107" s="26"/>
@@ -8683,19 +8903,20 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="Q104:Q107"/>
-    <mergeCell ref="Q39:Q41"/>
-    <mergeCell ref="Q45:Q47"/>
-    <mergeCell ref="Q49:Q51"/>
-    <mergeCell ref="Q95:Q99"/>
-    <mergeCell ref="R24:R26"/>
-    <mergeCell ref="R30:R32"/>
-    <mergeCell ref="R34:R36"/>
-    <mergeCell ref="R39:R41"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="Q24:Q26"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="Q34:Q36"/>
+    <mergeCell ref="T73:T74"/>
+    <mergeCell ref="R45:R47"/>
+    <mergeCell ref="R49:R51"/>
+    <mergeCell ref="S45:S47"/>
+    <mergeCell ref="S49:S51"/>
+    <mergeCell ref="S65:S68"/>
+    <mergeCell ref="R60:R63"/>
+    <mergeCell ref="S60:S63"/>
+    <mergeCell ref="Q15:Q17"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="S15:S17"/>
     <mergeCell ref="R95:R99"/>
     <mergeCell ref="R73:R74"/>
     <mergeCell ref="S73:S74"/>
@@ -8712,163 +8933,162 @@
     <mergeCell ref="S55:S57"/>
     <mergeCell ref="S39:S41"/>
     <mergeCell ref="R20:R22"/>
-    <mergeCell ref="Q15:Q17"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="R15:R17"/>
-    <mergeCell ref="S15:S17"/>
-    <mergeCell ref="T73:T74"/>
-    <mergeCell ref="R45:R47"/>
-    <mergeCell ref="R49:R51"/>
-    <mergeCell ref="S45:S47"/>
-    <mergeCell ref="S49:S51"/>
-    <mergeCell ref="S65:S68"/>
-    <mergeCell ref="R60:R63"/>
-    <mergeCell ref="S60:S63"/>
+    <mergeCell ref="R24:R26"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="R34:R36"/>
+    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="Q34:Q36"/>
+    <mergeCell ref="Q104:Q107"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="Q45:Q47"/>
+    <mergeCell ref="Q49:Q51"/>
+    <mergeCell ref="Q95:Q99"/>
   </mergeCells>
-  <conditionalFormatting sqref="A124">
-    <cfRule type="expression" dxfId="67" priority="5">
-      <formula>$B124=3</formula>
+  <conditionalFormatting sqref="A124 L102:N102 Q102:T102">
+    <cfRule type="expression" dxfId="95" priority="29">
+      <formula>$B102=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="6">
-      <formula>$B124=2</formula>
+    <cfRule type="expression" dxfId="94" priority="30">
+      <formula>$B102=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="7">
-      <formula>$B124&lt;2</formula>
+    <cfRule type="expression" dxfId="93" priority="31">
+      <formula>$B102&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="8">
-      <formula>$B124=0</formula>
+    <cfRule type="expression" dxfId="92" priority="32">
+      <formula>$B102=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73:F75 L95:T95 L96:P96 S96:T100 I97:P97 A100:R100 A101:T103 A104:P109 R104:T109">
-    <cfRule type="expression" dxfId="63" priority="76">
-      <formula>$B73=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="73">
+  <conditionalFormatting sqref="A73:F75 L95:T95 L96:P96 S96:T100 I97:P97 A100:R100 A101:T101 A104:P109 R104:T109 A103:T103 A102:H102">
+    <cfRule type="expression" dxfId="91" priority="97">
       <formula>$B73=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="74">
+    <cfRule type="expression" dxfId="90" priority="98">
       <formula>$B73=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="75">
+    <cfRule type="expression" dxfId="89" priority="99">
       <formula>$B73&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="100">
+      <formula>$B73=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:H97">
-    <cfRule type="expression" dxfId="59" priority="40">
-      <formula>$B95=0</formula>
+    <cfRule type="expression" dxfId="87" priority="61">
+      <formula>$B95=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="39">
+    <cfRule type="expression" dxfId="86" priority="62">
+      <formula>$B95=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="63">
       <formula>$B95&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="38">
-      <formula>$B95=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="37">
-      <formula>$B95=3</formula>
+    <cfRule type="expression" dxfId="84" priority="64">
+      <formula>$B95=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:I81">
-    <cfRule type="expression" dxfId="55" priority="61">
+    <cfRule type="expression" dxfId="83" priority="85">
       <formula>$B77=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="64">
-      <formula>$B77=0</formula>
+    <cfRule type="expression" dxfId="82" priority="86">
+      <formula>$B77=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="63">
+    <cfRule type="expression" dxfId="81" priority="87">
       <formula>$B77&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="62">
-      <formula>$B77=2</formula>
+    <cfRule type="expression" dxfId="80" priority="88">
+      <formula>$B77=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:P99">
-    <cfRule type="expression" dxfId="51" priority="21">
+    <cfRule type="expression" dxfId="79" priority="45">
       <formula>$B98=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="22">
+    <cfRule type="expression" dxfId="78" priority="46">
       <formula>$B98=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="23">
+    <cfRule type="expression" dxfId="77" priority="47">
       <formula>$B98&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="24">
+    <cfRule type="expression" dxfId="76" priority="48">
       <formula>$B98=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:S72">
-    <cfRule type="expression" dxfId="47" priority="80">
-      <formula>$B72=0</formula>
+    <cfRule type="expression" dxfId="75" priority="101">
+      <formula>$B72=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="79">
+    <cfRule type="expression" dxfId="74" priority="102">
+      <formula>$B72=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="103">
       <formula>$B72&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="78">
-      <formula>$B72=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="77">
-      <formula>$B72=3</formula>
+    <cfRule type="expression" dxfId="72" priority="104">
+      <formula>$B72=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T71 T72:T75 H73:R73 H74:Q74 G75:Q75 A76:T76 K77:T77 S78:T81">
-    <cfRule type="expression" dxfId="43" priority="81">
+    <cfRule type="expression" dxfId="71" priority="105">
       <formula>$B1=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="82">
+    <cfRule type="expression" dxfId="70" priority="106">
       <formula>$B1=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="83">
+    <cfRule type="expression" dxfId="69" priority="107">
       <formula>$B1&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="84">
+    <cfRule type="expression" dxfId="68" priority="108">
       <formula>$B1=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:T94">
-    <cfRule type="expression" dxfId="39" priority="41">
+    <cfRule type="expression" dxfId="67" priority="65">
       <formula>$B82=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="42">
+    <cfRule type="expression" dxfId="66" priority="66">
       <formula>$B82=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="43">
+    <cfRule type="expression" dxfId="65" priority="67">
       <formula>$B82&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="44">
+    <cfRule type="expression" dxfId="64" priority="68">
       <formula>$B82=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:T123">
-    <cfRule type="expression" dxfId="35" priority="12">
-      <formula>$B110=0</formula>
+    <cfRule type="expression" dxfId="63" priority="33">
+      <formula>$B110=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="11">
+    <cfRule type="expression" dxfId="62" priority="34">
+      <formula>$B110=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="35">
       <formula>$B110&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="10">
-      <formula>$B110=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="9">
-      <formula>$B110=3</formula>
+    <cfRule type="expression" dxfId="60" priority="36">
+      <formula>$B110=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124:D124">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="59" priority="25">
       <formula>$B124=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="58" priority="26">
       <formula>$B124=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="3">
+    <cfRule type="expression" dxfId="57" priority="27">
       <formula>$B124&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="4">
+    <cfRule type="expression" dxfId="56" priority="28">
       <formula>$B124=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D123">
-    <cfRule type="colorScale" priority="128">
+    <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8878,108 +9098,178 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73:G74">
-    <cfRule type="expression" dxfId="27" priority="69">
+    <cfRule type="expression" dxfId="55" priority="93">
       <formula>$B73=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="70">
+    <cfRule type="expression" dxfId="54" priority="94">
       <formula>$B73=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="71">
+    <cfRule type="expression" dxfId="53" priority="95">
       <formula>$B73&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="72">
+    <cfRule type="expression" dxfId="52" priority="96">
       <formula>$B73=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95:K96">
-    <cfRule type="expression" dxfId="23" priority="36">
+    <cfRule type="expression" dxfId="51" priority="57">
+      <formula>$B95=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="58">
+      <formula>$B95=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="59">
+      <formula>$B95&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="60">
       <formula>$B95=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="35">
-      <formula>$B95&lt;2</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J77 O101">
+    <cfRule type="expression" dxfId="47" priority="114">
+      <formula>$B78=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="34">
-      <formula>$B95=2</formula>
+    <cfRule type="expression" dxfId="46" priority="115">
+      <formula>$B78=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="33">
-      <formula>$B95=3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J77">
-    <cfRule type="expression" dxfId="19" priority="93">
-      <formula>$B78=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="92">
+    <cfRule type="expression" dxfId="45" priority="116">
       <formula>$B78&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="91">
-      <formula>$B78=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="90">
-      <formula>$B78=3</formula>
+    <cfRule type="expression" dxfId="44" priority="117">
+      <formula>$B78=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K78:Q81">
-    <cfRule type="expression" dxfId="15" priority="58">
+    <cfRule type="expression" dxfId="43" priority="81">
+      <formula>$B78=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="82">
       <formula>$B78=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="57">
-      <formula>$B78=3</formula>
+    <cfRule type="expression" dxfId="41" priority="83">
+      <formula>$B78&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="60">
+    <cfRule type="expression" dxfId="40" priority="84">
       <formula>$B78=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="59">
-      <formula>$B78&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q104">
-    <cfRule type="expression" dxfId="11" priority="17">
+    <cfRule type="expression" dxfId="39" priority="41">
       <formula>$B104=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="18">
+    <cfRule type="expression" dxfId="38" priority="42">
       <formula>$B104=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="19">
+    <cfRule type="expression" dxfId="37" priority="43">
       <formula>$B104&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="20">
+    <cfRule type="expression" dxfId="36" priority="44">
       <formula>$B104=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q108:Q109">
-    <cfRule type="expression" dxfId="7" priority="15">
+    <cfRule type="expression" dxfId="35" priority="37">
+      <formula>$B108=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="38">
+      <formula>$B108=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="39">
       <formula>$B108&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="14">
-      <formula>$B108=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="13">
-      <formula>$B108=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="16">
+    <cfRule type="expression" dxfId="32" priority="40">
       <formula>$B108=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S73">
-    <cfRule type="expression" dxfId="3" priority="98">
+    <cfRule type="expression" dxfId="31" priority="122">
       <formula>$B72=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="99">
+    <cfRule type="expression" dxfId="30" priority="123">
       <formula>$B72=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="100">
+    <cfRule type="expression" dxfId="29" priority="124">
       <formula>$B72&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="101">
+    <cfRule type="expression" dxfId="28" priority="125">
       <formula>$B72=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="13">
+  <conditionalFormatting sqref="I102">
+    <cfRule type="expression" dxfId="27" priority="21">
+      <formula>$B102=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="22">
+      <formula>$B102=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="23">
+      <formula>$B102&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="24">
+      <formula>$B102=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J102">
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>$B102=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>$B102=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>$B102&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>$B102=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K102">
+    <cfRule type="expression" dxfId="19" priority="13">
+      <formula>$B102=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="14">
+      <formula>$B102=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="15">
+      <formula>$B102&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>$B102=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P102">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>$B102=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>$B102=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>$B102&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$B102=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O102">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$B102=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>$B102=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$B102&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$B102=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="14">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I157:I186 H124:H148" xr:uid="{0D656B1C-36BB-D24C-9DF1-8575D533B58B}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P171:P215 O2:O215" xr:uid="{7C199008-9AB6-6549-A861-AD474C13E949}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P171:P215 O2:O101 O103:O215" xr:uid="{7C199008-9AB6-6549-A861-AD474C13E949}">
       <formula1>1950</formula1>
       <formula2>2025</formula2>
     </dataValidation>
@@ -9010,13 +9300,16 @@
       <formula2>1</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M123" xr:uid="{127B7473-9D01-354E-A3BD-12180E660A5C}">
-      <formula1>"acres, MWe, m^3, MWt, Kg, Drums, kW"</formula1>
+      <formula1>"acres, MWe, m^3, MWt, Kg, Drums, kW, $"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P123" xr:uid="{7E44D5D7-AB3F-D340-AE9A-F65BCE5B6A48}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P123" xr:uid="{7E44D5D7-AB3F-D340-AE9A-F65BCE5B6A48}">
       <formula1>"General, Labor, Material, Equipment,Lab and Mat and Equip, 'Lab and Equip"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J123" xr:uid="{0FCCEC2F-487A-5A42-9C52-ED538456C753}">
       <formula1>"$/acres, $/MWe, $/m^3, $/MWt, $/Kg, $/Drum, $/(kg.sec), $/SWU, unitless"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P122" xr:uid="{17DDFD40-D97D-B64B-BD3B-AEAF52F6302C}">
+      <formula1>"N/A, General, Labor, Material, Equipment,Lab and Mat and Equip, 'Lab and Equip"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -9034,7 +9327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAED81D3-2E1E-EB42-8F84-3B0F01FD7CDC}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="183" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="183" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
     </sheetView>
   </sheetViews>
@@ -10630,10 +10923,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF46401-6828-1F49-B2C3-A6E5E28394B1}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="156" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10644,7 +10937,7 @@
     <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -10666,8 +10959,11 @@
       <c r="G1" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1985</v>
       </c>
@@ -10691,8 +10987,11 @@
         <f>AVERAGE(C2,E2)</f>
         <v>3.5077268631057317</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f>+A2+1</f>
         <v>1986</v>
@@ -10717,8 +11016,11 @@
         <f t="shared" ref="G3:G41" si="1">AVERAGE(C3,E3)</f>
         <v>3.4091576629618658</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A39" si="2">+A3+1</f>
         <v>1987</v>
@@ -10743,8 +11045,11 @@
         <f t="shared" si="1"/>
         <v>3.3453365939328341</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f t="shared" si="2"/>
         <v>1988</v>
@@ -10769,8 +11074,11 @@
         <f t="shared" si="1"/>
         <v>3.1996966340937996</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f t="shared" si="2"/>
         <v>1989</v>
@@ -10795,8 +11103,11 @@
         <f t="shared" si="1"/>
         <v>3.0469579706202397</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" si="2"/>
         <v>1990</v>
@@ -10821,8 +11132,11 @@
         <f t="shared" si="1"/>
         <v>2.9415018835339906</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="2"/>
         <v>1991</v>
@@ -10847,8 +11161,11 @@
         <f t="shared" si="1"/>
         <v>2.8361039998658946</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="2"/>
         <v>1992</v>
@@ -10873,8 +11190,11 @@
         <f t="shared" si="1"/>
         <v>2.7325235034052247</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" si="2"/>
         <v>1993</v>
@@ -10899,8 +11219,11 @@
         <f t="shared" si="1"/>
         <v>2.6102364763135144</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f t="shared" si="2"/>
         <v>1994</v>
@@ -10925,8 +11248,11 @@
         <f t="shared" si="1"/>
         <v>2.5262885305582738</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f t="shared" si="2"/>
         <v>1995</v>
@@ -10951,8 +11277,11 @@
         <f t="shared" si="1"/>
         <v>2.4827907155103204</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f t="shared" si="2"/>
         <v>1996</v>
@@ -10977,8 +11306,11 @@
         <f t="shared" si="1"/>
         <v>2.4262533008020304</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <f t="shared" si="2"/>
         <v>1997</v>
@@ -11003,8 +11335,11 @@
         <f t="shared" si="1"/>
         <v>2.3671474216595447</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f t="shared" si="2"/>
         <v>1998</v>
@@ -11029,8 +11364,11 @@
         <f t="shared" si="1"/>
         <v>2.307052093528327</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" si="2"/>
         <v>1999</v>
@@ -11055,8 +11393,11 @@
         <f t="shared" si="1"/>
         <v>2.2643663875974873</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <f t="shared" si="2"/>
         <v>2000</v>
@@ -11081,8 +11422,11 @@
         <f t="shared" si="1"/>
         <v>2.2041708998292839</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <f t="shared" si="2"/>
         <v>2001</v>
@@ -11107,8 +11451,11 @@
         <f t="shared" si="1"/>
         <v>2.1214299408402955</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <f t="shared" si="2"/>
         <v>2002</v>
@@ -11133,8 +11480,11 @@
         <f t="shared" si="1"/>
         <v>2.0800427371143604</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <f t="shared" si="2"/>
         <v>2003</v>
@@ -11159,8 +11509,11 @@
         <f t="shared" si="1"/>
         <v>2.0294240285722087</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <f t="shared" si="2"/>
         <v>2004</v>
@@ -11185,8 +11538,11 @@
         <f t="shared" si="1"/>
         <v>1.9615140730224918</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <f t="shared" si="2"/>
         <v>2005</v>
@@ -11211,8 +11567,11 @@
         <f t="shared" si="1"/>
         <v>1.8908139941124174</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <f t="shared" si="2"/>
         <v>2006</v>
@@ -11237,8 +11596,11 @@
         <f t="shared" si="1"/>
         <v>1.7812582023870296</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <f t="shared" si="2"/>
         <v>2007</v>
@@ -11263,8 +11625,11 @@
         <f t="shared" si="1"/>
         <v>1.6698766116056492</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <f t="shared" si="2"/>
         <v>2008</v>
@@ -11289,8 +11654,11 @@
         <f t="shared" si="1"/>
         <v>1.6212060370241057</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <f t="shared" si="2"/>
         <v>2009</v>
@@ -11315,8 +11683,11 @@
         <f t="shared" si="1"/>
         <v>1.6018382421283412</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <f t="shared" si="2"/>
         <v>2010</v>
@@ -11341,8 +11712,11 @@
         <f t="shared" si="1"/>
         <v>1.599627378088782</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <f t="shared" si="2"/>
         <v>2011</v>
@@ -11367,8 +11741,11 @@
         <f t="shared" si="1"/>
         <v>1.555513512447007</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <f t="shared" si="2"/>
         <v>2012</v>
@@ -11393,8 +11770,11 @@
         <f t="shared" si="1"/>
         <v>1.489126368714752</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <f t="shared" si="2"/>
         <v>2013</v>
@@ -11419,8 +11799,11 @@
         <f t="shared" si="1"/>
         <v>1.4468538620411944</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <f t="shared" si="2"/>
         <v>2014</v>
@@ -11445,8 +11828,11 @@
         <f t="shared" si="1"/>
         <v>1.4086050826947987</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <f t="shared" si="2"/>
         <v>2015</v>
@@ -11471,8 +11857,11 @@
         <f t="shared" si="1"/>
         <v>1.3743420273513181</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <f t="shared" si="2"/>
         <v>2016</v>
@@ -11497,8 +11886,11 @@
         <f t="shared" si="1"/>
         <v>1.3499985236534209</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <f t="shared" si="2"/>
         <v>2017</v>
@@ -11523,8 +11915,11 @@
         <f t="shared" si="1"/>
         <v>1.3179687370712139</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <f t="shared" si="2"/>
         <v>2018</v>
@@ -11549,8 +11944,11 @@
         <f t="shared" si="1"/>
         <v>1.276830950870623</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11575,8 +11973,11 @@
         <f t="shared" si="1"/>
         <v>1.2415770326808417</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -11601,8 +12002,11 @@
         <f t="shared" si="1"/>
         <v>1.2165134245854174</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -11627,8 +12031,11 @@
         <f t="shared" si="1"/>
         <v>1.1715472467908044</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -11653,8 +12060,11 @@
         <f t="shared" si="1"/>
         <v>1.0792357293864472</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>2023</v>
       </c>
@@ -11678,8 +12088,11 @@
         <f t="shared" si="1"/>
         <v>1.0172398620903442</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>2024</v>
       </c>
@@ -11701,6 +12114,9 @@
       </c>
       <c r="G41" s="4">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="3">
         <v>1</v>
       </c>
     </row>

--- a/cost/Cost_Database.xlsx
+++ b/cost/Cost_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannbn/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EBA101-A52C-1349-AD93-4B99B67931F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE22912-9392-C84A-B63C-2B8E3A9FA0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Database" sheetId="2" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="403">
   <si>
     <t>Account</t>
   </si>
@@ -1363,9 +1363,6 @@
     <t>Fixed Cost ($)</t>
   </si>
   <si>
-    <t>Unit Cost ($)</t>
-  </si>
-  <si>
     <t>Secondary Pump</t>
   </si>
   <si>
@@ -1510,16 +1507,7 @@
     <t>Total Capital Investment</t>
   </si>
   <si>
-    <t>unitless</t>
-  </si>
-  <si>
-    <t>Total Field Direct Cost</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>Unit Cost</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1520,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="37" x14ac:knownFonts="1">
     <font>
@@ -2267,25 +2255,10 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2294,37 +2267,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2354,6 +2300,51 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2375,9 +2366,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2386,7 +2374,7 @@
     <cellStyle name="Normal 2" xfId="4" xr:uid="{E15291B7-9068-3147-AE9D-D55638463741}"/>
     <cellStyle name="Normal 2 5" xfId="3" xr:uid="{D5427F60-54E8-014E-9224-5454BAE094F2}"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="76">
     <dxf>
       <font>
         <b/>
@@ -2442,6 +2430,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2457,6 +2466,80 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFFBA"/>
         </patternFill>
       </fill>
@@ -2465,6 +2548,19 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2496,10 +2592,11 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2509,9 +2606,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2531,7 +2661,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2545,7 +2695,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2563,31 +2761,10 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2604,6 +2781,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2612,7 +2803,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2626,7 +2824,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2639,7 +2837,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2653,7 +2851,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2666,7 +2864,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2680,7 +2878,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2689,351 +2887,6 @@
         <b/>
         <i val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3453,11 +3306,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5330BDA-7164-B946-A942-FFAE4F744BBA}">
-  <dimension ref="A1:Z126"/>
+  <dimension ref="A1:Z124"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="150" zoomScaleNormal="63" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P102" sqref="P102"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="63" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102:XFD102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3511,7 +3364,7 @@
         <v>357</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>50</v>
@@ -3637,10 +3490,10 @@
       <c r="Q3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="119" t="s">
+      <c r="R3" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="S3" s="123" t="s">
+      <c r="S3" s="130" t="s">
         <v>56</v>
       </c>
       <c r="T3" s="26"/>
@@ -3690,8 +3543,8 @@
       <c r="Q4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="119"/>
-      <c r="S4" s="123"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="130"/>
       <c r="T4" s="26"/>
     </row>
     <row r="5" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3733,10 +3586,10 @@
       <c r="Q5" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="119" t="s">
+      <c r="R5" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="S5" s="123" t="s">
+      <c r="S5" s="130" t="s">
         <v>59</v>
       </c>
       <c r="T5" s="26"/>
@@ -3779,8 +3632,8 @@
       <c r="Q6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="119"/>
-      <c r="S6" s="123"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="130"/>
       <c r="T6" s="26"/>
     </row>
     <row r="7" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3798,12 +3651,14 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">      Plant Studies</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="19" t="s">
+        <v>350</v>
+      </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="27">
-        <f>MARVEL_Cost!E4</f>
-        <v>0</v>
+        <f>MARVEL_Cost!C4</f>
+        <v>5210451</v>
       </c>
       <c r="I7" s="66"/>
       <c r="J7" s="24"/>
@@ -3835,7 +3690,14 @@
         <v>20</v>
       </c>
       <c r="B8" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(A8),
+    IF(AND(A8=INT(A8), MOD(A8, 10) = 0), 0,
+        IF(AND(A8=INT(A8), LEN(A8)=2), 1,
+            IF(AND(A8=INT(A8), LEN(A8)=3), 2,
+                LEN(A8) - FIND(".", A8) + 2)
+        )
+    ),
+"")</f>
         <v>0</v>
       </c>
       <c r="C8" s="30" t="s">
@@ -3968,13 +3830,13 @@
       <c r="P11" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="115" t="s">
+      <c r="Q11" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="R11" s="119" t="s">
+      <c r="R11" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="S11" s="124" t="s">
+      <c r="S11" s="115" t="s">
         <v>84</v>
       </c>
       <c r="T11" s="26"/>
@@ -4028,9 +3890,9 @@
       <c r="P12" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="125"/>
+      <c r="Q12" s="126"/>
+      <c r="R12" s="114"/>
+      <c r="S12" s="116"/>
       <c r="T12" s="26"/>
     </row>
     <row r="13" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4075,9 +3937,9 @@
       <c r="P13" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="115"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="125"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="114"/>
+      <c r="S13" s="116"/>
       <c r="T13" s="26"/>
     </row>
     <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4153,13 +4015,13 @@
       <c r="P15" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q15" s="115" t="s">
+      <c r="Q15" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="119" t="s">
+      <c r="R15" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="S15" s="124" t="s">
+      <c r="S15" s="115" t="s">
         <v>84</v>
       </c>
       <c r="T15" s="26"/>
@@ -4206,9 +4068,9 @@
       <c r="P16" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="115"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="125"/>
+      <c r="Q16" s="126"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="116"/>
       <c r="T16" s="26"/>
     </row>
     <row r="17" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4253,9 +4115,9 @@
       <c r="P17" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="125"/>
+      <c r="Q17" s="126"/>
+      <c r="R17" s="114"/>
+      <c r="S17" s="116"/>
       <c r="T17" s="26"/>
     </row>
     <row r="18" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4364,13 +4226,13 @@
       <c r="P20" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q20" s="115" t="s">
+      <c r="Q20" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="R20" s="119" t="s">
+      <c r="R20" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="S20" s="124" t="s">
+      <c r="S20" s="115" t="s">
         <v>84</v>
       </c>
       <c r="T20" s="26"/>
@@ -4417,9 +4279,9 @@
       <c r="P21" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q21" s="115"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="125"/>
+      <c r="Q21" s="126"/>
+      <c r="R21" s="114"/>
+      <c r="S21" s="116"/>
       <c r="T21" s="26"/>
     </row>
     <row r="22" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4464,9 +4326,9 @@
       <c r="P22" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="115"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="125"/>
+      <c r="Q22" s="126"/>
+      <c r="R22" s="114"/>
+      <c r="S22" s="116"/>
       <c r="T22" s="26"/>
     </row>
     <row r="23" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4543,13 +4405,13 @@
       <c r="P24" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q24" s="115" t="s">
+      <c r="Q24" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="R24" s="119" t="s">
+      <c r="R24" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="124" t="s">
+      <c r="S24" s="115" t="s">
         <v>84</v>
       </c>
       <c r="T24" s="26"/>
@@ -4596,9 +4458,9 @@
       <c r="P25" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q25" s="115"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="125"/>
+      <c r="Q25" s="126"/>
+      <c r="R25" s="114"/>
+      <c r="S25" s="116"/>
       <c r="T25" s="26"/>
     </row>
     <row r="26" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4643,9 +4505,9 @@
       <c r="P26" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q26" s="115"/>
-      <c r="R26" s="119"/>
-      <c r="S26" s="125"/>
+      <c r="Q26" s="126"/>
+      <c r="R26" s="114"/>
+      <c r="S26" s="116"/>
       <c r="T26" s="26"/>
     </row>
     <row r="27" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4786,13 +4648,13 @@
       <c r="P30" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q30" s="114" t="s">
+      <c r="Q30" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="R30" s="120" t="s">
+      <c r="R30" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="S30" s="129" t="s">
+      <c r="S30" s="134" t="s">
         <v>84</v>
       </c>
       <c r="T30" s="85"/>
@@ -4839,9 +4701,9 @@
       <c r="P31" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q31" s="114"/>
-      <c r="R31" s="120"/>
-      <c r="S31" s="130"/>
+      <c r="Q31" s="137"/>
+      <c r="R31" s="136"/>
+      <c r="S31" s="135"/>
       <c r="T31" s="85"/>
     </row>
     <row r="32" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -4886,9 +4748,9 @@
       <c r="P32" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q32" s="114"/>
-      <c r="R32" s="120"/>
-      <c r="S32" s="130"/>
+      <c r="Q32" s="137"/>
+      <c r="R32" s="136"/>
+      <c r="S32" s="135"/>
       <c r="T32" s="85"/>
     </row>
     <row r="33" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4965,13 +4827,13 @@
       <c r="P34" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q34" s="114" t="s">
+      <c r="Q34" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="R34" s="120" t="s">
+      <c r="R34" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="S34" s="129" t="s">
+      <c r="S34" s="134" t="s">
         <v>84</v>
       </c>
       <c r="T34" s="85"/>
@@ -5018,9 +4880,9 @@
       <c r="P35" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q35" s="114"/>
-      <c r="R35" s="120"/>
-      <c r="S35" s="130"/>
+      <c r="Q35" s="137"/>
+      <c r="R35" s="136"/>
+      <c r="S35" s="135"/>
       <c r="T35" s="85"/>
     </row>
     <row r="36" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -5065,9 +4927,9 @@
       <c r="P36" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q36" s="114"/>
-      <c r="R36" s="120"/>
-      <c r="S36" s="130"/>
+      <c r="Q36" s="137"/>
+      <c r="R36" s="136"/>
+      <c r="S36" s="135"/>
       <c r="T36" s="85"/>
     </row>
     <row r="37" spans="1:20" ht="30" thickBot="1" x14ac:dyDescent="0.25">
@@ -5176,13 +5038,13 @@
       <c r="P39" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q39" s="114" t="s">
+      <c r="Q39" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="R39" s="120" t="s">
+      <c r="R39" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="S39" s="129" t="s">
+      <c r="S39" s="134" t="s">
         <v>84</v>
       </c>
       <c r="T39" s="85"/>
@@ -5229,9 +5091,9 @@
       <c r="P40" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q40" s="114"/>
-      <c r="R40" s="120"/>
-      <c r="S40" s="130"/>
+      <c r="Q40" s="137"/>
+      <c r="R40" s="136"/>
+      <c r="S40" s="135"/>
       <c r="T40" s="85"/>
     </row>
     <row r="41" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -5276,9 +5138,9 @@
       <c r="P41" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q41" s="114"/>
-      <c r="R41" s="120"/>
-      <c r="S41" s="130"/>
+      <c r="Q41" s="137"/>
+      <c r="R41" s="136"/>
+      <c r="S41" s="135"/>
       <c r="T41" s="85"/>
     </row>
     <row r="42" spans="1:20" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5445,13 +5307,13 @@
       <c r="P45" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q45" s="115" t="s">
+      <c r="Q45" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="R45" s="119" t="s">
+      <c r="R45" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="S45" s="124" t="s">
+      <c r="S45" s="115" t="s">
         <v>84</v>
       </c>
       <c r="T45" s="26"/>
@@ -5498,9 +5360,9 @@
       <c r="P46" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q46" s="115"/>
-      <c r="R46" s="119"/>
-      <c r="S46" s="125"/>
+      <c r="Q46" s="126"/>
+      <c r="R46" s="114"/>
+      <c r="S46" s="116"/>
       <c r="T46" s="26"/>
     </row>
     <row r="47" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -5545,9 +5407,9 @@
       <c r="P47" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q47" s="115"/>
-      <c r="R47" s="119"/>
-      <c r="S47" s="125"/>
+      <c r="Q47" s="126"/>
+      <c r="R47" s="114"/>
+      <c r="S47" s="116"/>
       <c r="T47" s="26"/>
     </row>
     <row r="48" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5624,13 +5486,13 @@
       <c r="P49" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q49" s="115" t="s">
+      <c r="Q49" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="R49" s="119" t="s">
+      <c r="R49" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="S49" s="124" t="s">
+      <c r="S49" s="115" t="s">
         <v>84</v>
       </c>
       <c r="T49" s="26"/>
@@ -5677,9 +5539,9 @@
       <c r="P50" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q50" s="115"/>
-      <c r="R50" s="119"/>
-      <c r="S50" s="125"/>
+      <c r="Q50" s="126"/>
+      <c r="R50" s="114"/>
+      <c r="S50" s="116"/>
       <c r="T50" s="26"/>
     </row>
     <row r="51" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -5724,9 +5586,9 @@
       <c r="P51" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q51" s="115"/>
-      <c r="R51" s="119"/>
-      <c r="S51" s="125"/>
+      <c r="Q51" s="126"/>
+      <c r="R51" s="114"/>
+      <c r="S51" s="116"/>
       <c r="T51" s="26"/>
     </row>
     <row r="52" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5825,7 +5687,7 @@
       <c r="S54" s="26"/>
       <c r="T54" s="26"/>
     </row>
-    <row r="55" spans="1:20" ht="149" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="36">
         <v>221.11</v>
       </c>
@@ -5875,10 +5737,10 @@
       <c r="Q55" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="R55" s="126" t="s">
+      <c r="R55" s="131" t="s">
         <v>179</v>
       </c>
-      <c r="S55" s="131" t="s">
+      <c r="S55" s="117" t="s">
         <v>183</v>
       </c>
       <c r="T55" s="42" t="s">
@@ -5935,8 +5797,8 @@
       <c r="Q56" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="R56" s="127"/>
-      <c r="S56" s="132"/>
+      <c r="R56" s="132"/>
+      <c r="S56" s="118"/>
       <c r="T56" s="26"/>
     </row>
     <row r="57" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5992,8 +5854,8 @@
       <c r="Q57" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="R57" s="128"/>
-      <c r="S57" s="133"/>
+      <c r="R57" s="133"/>
+      <c r="S57" s="119"/>
       <c r="T57" s="42" t="s">
         <v>182</v>
       </c>
@@ -6103,10 +5965,10 @@
       <c r="Q60" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R60" s="134" t="s">
+      <c r="R60" s="120" t="s">
         <v>179</v>
       </c>
-      <c r="S60" s="137" t="s">
+      <c r="S60" s="123" t="s">
         <v>352</v>
       </c>
       <c r="T60" s="90" t="s">
@@ -6152,8 +6014,8 @@
       <c r="Q61" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R61" s="135"/>
-      <c r="S61" s="138"/>
+      <c r="R61" s="121"/>
+      <c r="S61" s="124"/>
       <c r="T61" s="85"/>
     </row>
     <row r="62" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6210,8 +6072,8 @@
       <c r="Q62" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R62" s="135"/>
-      <c r="S62" s="138"/>
+      <c r="R62" s="121"/>
+      <c r="S62" s="124"/>
       <c r="T62" s="85"/>
     </row>
     <row r="63" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6268,8 +6130,8 @@
       <c r="Q63" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R63" s="136"/>
-      <c r="S63" s="139"/>
+      <c r="R63" s="122"/>
+      <c r="S63" s="125"/>
       <c r="T63" s="85"/>
     </row>
     <row r="64" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6359,10 +6221,10 @@
       <c r="Q65" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="R65" s="126" t="s">
+      <c r="R65" s="131" t="s">
         <v>179</v>
       </c>
-      <c r="S65" s="131" t="s">
+      <c r="S65" s="117" t="s">
         <v>183</v>
       </c>
       <c r="T65" s="26"/>
@@ -6395,8 +6257,8 @@
       <c r="O66" s="26"/>
       <c r="P66" s="26"/>
       <c r="Q66" s="42"/>
-      <c r="R66" s="127"/>
-      <c r="S66" s="132"/>
+      <c r="R66" s="132"/>
+      <c r="S66" s="118"/>
       <c r="T66" s="26"/>
     </row>
     <row r="67" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6456,8 +6318,8 @@
       <c r="Q67" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R67" s="127"/>
-      <c r="S67" s="132"/>
+      <c r="R67" s="132"/>
+      <c r="S67" s="118"/>
       <c r="T67" s="85"/>
     </row>
     <row r="68" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6513,8 +6375,8 @@
       <c r="Q68" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R68" s="128"/>
-      <c r="S68" s="133"/>
+      <c r="R68" s="133"/>
+      <c r="S68" s="119"/>
       <c r="T68" s="85"/>
     </row>
     <row r="69" spans="1:20" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6668,7 +6530,7 @@
         <v>3</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D72" s="19" t="str">
         <f t="shared" si="1"/>
@@ -6699,7 +6561,7 @@
         <v>4</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D73" s="19" t="str">
         <f>REPT("   ", B73*2) &amp; C73</f>
@@ -6709,10 +6571,10 @@
         <v>351</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H73" s="24"/>
       <c r="I73" s="69">
@@ -6739,13 +6601,13 @@
       <c r="Q73" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="R73" s="116" t="s">
+      <c r="R73" s="112" t="s">
         <v>353</v>
       </c>
-      <c r="S73" s="121" t="s">
+      <c r="S73" s="128" t="s">
         <v>355</v>
       </c>
-      <c r="T73" s="116"/>
+      <c r="T73" s="112"/>
     </row>
     <row r="74" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30">
@@ -6756,7 +6618,7 @@
         <v>4</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D74" s="19" t="str">
         <f t="shared" si="1"/>
@@ -6766,10 +6628,10 @@
         <v>351</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H74" s="24"/>
       <c r="I74" s="69">
@@ -6795,9 +6657,9 @@
       <c r="Q74" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="R74" s="118"/>
-      <c r="S74" s="122"/>
-      <c r="T74" s="118"/>
+      <c r="R74" s="113"/>
+      <c r="S74" s="129"/>
+      <c r="T74" s="113"/>
     </row>
     <row r="75" spans="1:20" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30">
@@ -6808,7 +6670,7 @@
         <v>4</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D75" s="19" t="str">
         <f t="shared" ref="D75" si="3">REPT("   ", B75*2) &amp; C75</f>
@@ -6818,10 +6680,10 @@
         <v>351</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H75" s="24"/>
       <c r="I75" s="69">
@@ -6831,7 +6693,7 @@
         <v>356</v>
       </c>
       <c r="K75" s="42" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L75" s="26"/>
       <c r="M75" s="26"/>
@@ -6848,7 +6710,7 @@
         <v>348</v>
       </c>
       <c r="R75" s="93" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S75" s="94"/>
       <c r="T75" s="93"/>
@@ -6893,10 +6755,10 @@
         <v>74</v>
       </c>
       <c r="Q76" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="R76" s="42" t="s">
         <v>361</v>
-      </c>
-      <c r="R76" s="42" t="s">
-        <v>362</v>
       </c>
       <c r="S76" s="26"/>
       <c r="T76" s="26"/>
@@ -6942,7 +6804,7 @@
         <v>4</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D78" s="19" t="str">
         <f t="shared" si="1"/>
@@ -6952,10 +6814,10 @@
         <v>350</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H78" s="24"/>
       <c r="I78" s="69">
@@ -6965,7 +6827,7 @@
         <v>177</v>
       </c>
       <c r="K78" s="42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L78" s="26"/>
       <c r="M78" s="26" t="s">
@@ -6979,10 +6841,10 @@
         <v>74</v>
       </c>
       <c r="Q78" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="R78" s="93" t="s">
         <v>374</v>
-      </c>
-      <c r="R78" s="93" t="s">
-        <v>375</v>
       </c>
       <c r="S78" s="26"/>
       <c r="T78" s="26"/>
@@ -7003,7 +6865,7 @@
         <v>4</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D79" s="19" t="str">
         <f t="shared" ref="D79" si="5">REPT("   ", B79*2) &amp; C79</f>
@@ -7013,10 +6875,10 @@
         <v>350</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H79" s="24"/>
       <c r="I79" s="69">
@@ -7026,7 +6888,7 @@
         <v>177</v>
       </c>
       <c r="K79" s="42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L79" s="26"/>
       <c r="M79" s="26" t="s">
@@ -7040,10 +6902,10 @@
         <v>74</v>
       </c>
       <c r="Q79" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="R79" s="93" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="S79" s="26"/>
       <c r="T79" s="26"/>
@@ -7067,10 +6929,10 @@
         <v>350</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H80" s="24"/>
       <c r="I80" s="69">
@@ -7080,7 +6942,7 @@
         <v>177</v>
       </c>
       <c r="K80" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L80" s="26"/>
       <c r="M80" s="26" t="s">
@@ -7094,10 +6956,10 @@
         <v>74</v>
       </c>
       <c r="Q80" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="R80" s="93" t="s">
         <v>374</v>
-      </c>
-      <c r="R80" s="93" t="s">
-        <v>375</v>
       </c>
       <c r="S80" s="26"/>
       <c r="T80" s="26"/>
@@ -7128,10 +6990,10 @@
         <v>350</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H81" s="24"/>
       <c r="I81" s="69">
@@ -7141,7 +7003,7 @@
         <v>177</v>
       </c>
       <c r="K81" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L81" s="26"/>
       <c r="M81" s="26" t="s">
@@ -7155,10 +7017,10 @@
         <v>74</v>
       </c>
       <c r="Q81" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="R81" s="93" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="S81" s="26"/>
       <c r="T81" s="26"/>
@@ -7256,7 +7118,7 @@
         <v>177</v>
       </c>
       <c r="K84" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L84" s="26">
         <f>L56</f>
@@ -7275,7 +7137,7 @@
         <v>77</v>
       </c>
       <c r="Q84" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R84" s="26"/>
       <c r="S84" s="26"/>
@@ -7310,7 +7172,7 @@
         <v>177</v>
       </c>
       <c r="K85" s="42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L85" s="26">
         <f>L84</f>
@@ -7329,7 +7191,7 @@
         <v>77</v>
       </c>
       <c r="Q85" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R85" s="26"/>
       <c r="S85" s="26"/>
@@ -7372,7 +7234,7 @@
         <v>74</v>
       </c>
       <c r="Q86" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="R86" s="26"/>
       <c r="S86" s="26"/>
@@ -7422,7 +7284,7 @@
         <v>74</v>
       </c>
       <c r="Q87" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="R87" s="26"/>
       <c r="S87" s="26"/>
@@ -7465,7 +7327,7 @@
         <v>77</v>
       </c>
       <c r="Q88" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="R88" s="26"/>
       <c r="S88" s="26"/>
@@ -7582,10 +7444,10 @@
         <v>74</v>
       </c>
       <c r="Q91" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R91" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S91" s="26"/>
       <c r="T91" s="26"/>
@@ -7670,10 +7532,10 @@
         <v>74</v>
       </c>
       <c r="Q93" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="R93" s="42" t="s">
         <v>383</v>
-      </c>
-      <c r="R93" s="42" t="s">
-        <v>384</v>
       </c>
       <c r="S93" s="26"/>
       <c r="T93" s="26"/>
@@ -7738,7 +7600,7 @@
         <v>177</v>
       </c>
       <c r="K95" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L95" s="26"/>
       <c r="M95" s="26"/>
@@ -7749,11 +7611,11 @@
       <c r="P95" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q95" s="116" t="s">
+      <c r="Q95" s="112" t="s">
+        <v>387</v>
+      </c>
+      <c r="R95" s="112" t="s">
         <v>388</v>
-      </c>
-      <c r="R95" s="116" t="s">
-        <v>389</v>
       </c>
       <c r="S95" s="26"/>
       <c r="T95" s="26"/>
@@ -7786,7 +7648,7 @@
         <v>177</v>
       </c>
       <c r="K96" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L96" s="26"/>
       <c r="M96" s="26"/>
@@ -7797,8 +7659,8 @@
       <c r="P96" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q96" s="117"/>
-      <c r="R96" s="117"/>
+      <c r="Q96" s="127"/>
+      <c r="R96" s="127"/>
       <c r="S96" s="26"/>
       <c r="T96" s="26"/>
     </row>
@@ -7827,10 +7689,10 @@
         <v>184.2</v>
       </c>
       <c r="J97" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K97" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L97" s="26"/>
       <c r="M97" s="26"/>
@@ -7843,8 +7705,8 @@
       <c r="P97" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q97" s="117"/>
-      <c r="R97" s="117"/>
+      <c r="Q97" s="127"/>
+      <c r="R97" s="127"/>
       <c r="S97" s="26"/>
       <c r="T97" s="26"/>
     </row>
@@ -7867,10 +7729,10 @@
         <v>350</v>
       </c>
       <c r="F98" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="G98" s="23" t="s">
         <v>391</v>
-      </c>
-      <c r="G98" s="23" t="s">
-        <v>392</v>
       </c>
       <c r="H98" s="23"/>
       <c r="I98" s="23">
@@ -7880,7 +7742,7 @@
         <v>177</v>
       </c>
       <c r="K98" s="42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L98" s="26"/>
       <c r="M98" s="26"/>
@@ -7891,8 +7753,8 @@
       <c r="P98" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q98" s="117"/>
-      <c r="R98" s="117"/>
+      <c r="Q98" s="127"/>
+      <c r="R98" s="127"/>
       <c r="S98" s="26"/>
       <c r="T98" s="26"/>
     </row>
@@ -7922,10 +7784,10 @@
         <v>350</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G99" s="23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H99" s="23"/>
       <c r="I99" s="23">
@@ -7935,7 +7797,7 @@
         <v>177</v>
       </c>
       <c r="K99" s="42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L99" s="26"/>
       <c r="M99" s="26"/>
@@ -7946,8 +7808,8 @@
       <c r="P99" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q99" s="118"/>
-      <c r="R99" s="118"/>
+      <c r="Q99" s="113"/>
+      <c r="R99" s="113"/>
       <c r="S99" s="26"/>
       <c r="T99" s="26"/>
     </row>
@@ -7987,10 +7849,10 @@
         <v>74</v>
       </c>
       <c r="Q100" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="R100" s="42" t="s">
         <v>393</v>
-      </c>
-      <c r="R100" s="42" t="s">
-        <v>394</v>
       </c>
       <c r="S100" s="26"/>
       <c r="T100" s="26"/>
@@ -8000,7 +7862,14 @@
         <v>30</v>
       </c>
       <c r="B101" s="17">
-        <f t="shared" si="8"/>
+        <f>IF(ISNUMBER(A101),
+    IF(AND(A101=INT(A101), MOD(A101, 10) = 0), 0,
+        IF(AND(A101=INT(A101), LEN(A101)=2), 1,
+            IF(AND(A101=INT(A101), LEN(A101)=3), 2,
+                LEN(A101) - FIND(".", A101) + 2)
+        )
+    ),
+"")</f>
         <v>0</v>
       </c>
       <c r="C101" s="37" t="s">
@@ -8027,7 +7896,7 @@
       <c r="S101" s="29"/>
       <c r="T101" s="29"/>
     </row>
-    <row r="102" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="29">
         <v>31</v>
       </c>
@@ -8035,39 +7904,24 @@
         <v>1</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D102" s="19" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">      Factory &amp; field indirect costs</v>
       </c>
-      <c r="E102" s="19" t="s">
-        <v>351</v>
-      </c>
+      <c r="E102" s="19"/>
       <c r="F102" s="19"/>
       <c r="G102" s="19"/>
       <c r="H102" s="29"/>
-      <c r="I102" s="147">
-        <f>MARVEL_Cost!C56/(MARVEL_Cost!C6+MARVEL_Cost!C13+MARVEL_Cost!C45)</f>
-        <v>6.5389932052543287E-2</v>
-      </c>
-      <c r="J102" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="K102" s="42" t="s">
-        <v>404</v>
-      </c>
+      <c r="I102" s="111"/>
+      <c r="J102" s="26"/>
+      <c r="K102" s="42"/>
       <c r="L102" s="29"/>
-      <c r="M102" s="29" t="s">
-        <v>405</v>
-      </c>
+      <c r="M102" s="29"/>
       <c r="N102" s="29"/>
-      <c r="O102" s="26">
-        <v>2024</v>
-      </c>
-      <c r="P102" s="26" t="s">
-        <v>406</v>
-      </c>
+      <c r="O102" s="26"/>
+      <c r="P102" s="26"/>
       <c r="Q102" s="98"/>
       <c r="R102" s="29"/>
       <c r="S102" s="29"/>
@@ -8081,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D103" s="19" t="str">
         <f t="shared" si="9"/>
@@ -8097,8 +7951,8 @@
       <c r="L103" s="29"/>
       <c r="M103" s="29"/>
       <c r="N103" s="29"/>
-      <c r="O103" s="29"/>
-      <c r="P103" s="29"/>
+      <c r="O103" s="26"/>
+      <c r="P103" s="26"/>
       <c r="Q103" s="98"/>
       <c r="R103" s="29"/>
       <c r="S103" s="29"/>
@@ -8134,14 +7988,14 @@
       <c r="L104" s="24"/>
       <c r="M104" s="24"/>
       <c r="N104" s="24"/>
-      <c r="O104" s="24">
+      <c r="O104" s="26">
         <v>2024</v>
       </c>
       <c r="P104" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="Q104" s="111" t="s">
-        <v>380</v>
+      <c r="Q104" s="138" t="s">
+        <v>379</v>
       </c>
       <c r="R104" s="24"/>
       <c r="S104" s="24"/>
@@ -8183,13 +8037,13 @@
       <c r="L105" s="24"/>
       <c r="M105" s="24"/>
       <c r="N105" s="24"/>
-      <c r="O105" s="24">
+      <c r="O105" s="26">
         <v>2024</v>
       </c>
       <c r="P105" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="Q105" s="112"/>
+      <c r="Q105" s="139"/>
       <c r="R105" s="24"/>
       <c r="S105" s="24"/>
       <c r="T105" s="24"/>
@@ -8236,7 +8090,7 @@
       <c r="P106" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q106" s="112"/>
+      <c r="Q106" s="139"/>
       <c r="R106" s="26"/>
       <c r="S106" s="26"/>
       <c r="T106" s="26"/>
@@ -8278,7 +8132,7 @@
       <c r="P107" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q107" s="113"/>
+      <c r="Q107" s="140"/>
       <c r="R107" s="26"/>
       <c r="S107" s="26"/>
       <c r="T107" s="26"/>
@@ -8293,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D108" s="19" t="str">
         <f t="shared" si="9"/>
@@ -8326,7 +8180,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D109" s="19" t="str">
         <f t="shared" si="9"/>
@@ -8354,7 +8208,7 @@
         <v>72</v>
       </c>
       <c r="Q109" s="99" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="R109" s="26"/>
       <c r="S109" s="26"/>
@@ -8788,7 +8642,7 @@
     </row>
     <row r="123" spans="1:21" s="100" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="101" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B123" s="102" t="str">
         <f t="shared" ref="B123:B124" si="12">IF(ISNUMBER(A123),
@@ -8802,7 +8656,7 @@
         <v/>
       </c>
       <c r="C123" s="103" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D123" s="104" t="str">
         <f>C123</f>
@@ -8825,16 +8679,16 @@
       <c r="S123" s="107"/>
       <c r="T123" s="107"/>
     </row>
-    <row r="124" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="101" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B124" s="109" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="C124" s="103" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D124" s="103" t="str">
         <f>C124</f>
@@ -8857,66 +8711,21 @@
       <c r="S124" s="109"/>
       <c r="T124" s="109"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A125" s="109"/>
-      <c r="B125" s="109"/>
-      <c r="C125" s="109"/>
-      <c r="D125" s="110"/>
-      <c r="E125" s="110"/>
-      <c r="F125" s="110"/>
-      <c r="G125" s="110"/>
-      <c r="H125" s="109"/>
-      <c r="I125" s="109"/>
-      <c r="J125" s="109"/>
-      <c r="K125" s="109"/>
-      <c r="L125" s="109"/>
-      <c r="M125" s="109"/>
-      <c r="N125" s="109"/>
-      <c r="O125" s="109"/>
-      <c r="P125" s="109"/>
-      <c r="Q125" s="109"/>
-      <c r="R125" s="109"/>
-      <c r="S125" s="109"/>
-      <c r="T125" s="109"/>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A126" s="109"/>
-      <c r="B126" s="109"/>
-      <c r="C126" s="109"/>
-      <c r="D126" s="110"/>
-      <c r="E126" s="110"/>
-      <c r="F126" s="110"/>
-      <c r="G126" s="110"/>
-      <c r="H126" s="109"/>
-      <c r="I126" s="109"/>
-      <c r="J126" s="109"/>
-      <c r="K126" s="109"/>
-      <c r="L126" s="109"/>
-      <c r="M126" s="109"/>
-      <c r="N126" s="109"/>
-      <c r="O126" s="109"/>
-      <c r="P126" s="109"/>
-      <c r="Q126" s="109"/>
-      <c r="R126" s="109"/>
-      <c r="S126" s="109"/>
-      <c r="T126" s="109"/>
-    </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="T73:T74"/>
-    <mergeCell ref="R45:R47"/>
-    <mergeCell ref="R49:R51"/>
-    <mergeCell ref="S45:S47"/>
-    <mergeCell ref="S49:S51"/>
-    <mergeCell ref="S65:S68"/>
-    <mergeCell ref="R60:R63"/>
-    <mergeCell ref="S60:S63"/>
-    <mergeCell ref="Q15:Q17"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="R15:R17"/>
-    <mergeCell ref="S15:S17"/>
+    <mergeCell ref="Q104:Q107"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="Q45:Q47"/>
+    <mergeCell ref="Q49:Q51"/>
+    <mergeCell ref="Q95:Q99"/>
+    <mergeCell ref="R24:R26"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="R34:R36"/>
+    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="Q34:Q36"/>
     <mergeCell ref="R95:R99"/>
     <mergeCell ref="R73:R74"/>
     <mergeCell ref="S73:S74"/>
@@ -8933,162 +8742,177 @@
     <mergeCell ref="S55:S57"/>
     <mergeCell ref="S39:S41"/>
     <mergeCell ref="R20:R22"/>
-    <mergeCell ref="R24:R26"/>
-    <mergeCell ref="R30:R32"/>
-    <mergeCell ref="R34:R36"/>
-    <mergeCell ref="R39:R41"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="Q24:Q26"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="Q34:Q36"/>
-    <mergeCell ref="Q104:Q107"/>
-    <mergeCell ref="Q39:Q41"/>
-    <mergeCell ref="Q45:Q47"/>
-    <mergeCell ref="Q49:Q51"/>
-    <mergeCell ref="Q95:Q99"/>
+    <mergeCell ref="Q15:Q17"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="S15:S17"/>
+    <mergeCell ref="T73:T74"/>
+    <mergeCell ref="R45:R47"/>
+    <mergeCell ref="R49:R51"/>
+    <mergeCell ref="S45:S47"/>
+    <mergeCell ref="S49:S51"/>
+    <mergeCell ref="S65:S68"/>
+    <mergeCell ref="R60:R63"/>
+    <mergeCell ref="S60:S63"/>
   </mergeCells>
-  <conditionalFormatting sqref="A124 L102:N102 Q102:T102">
-    <cfRule type="expression" dxfId="95" priority="29">
-      <formula>$B102=3</formula>
+  <conditionalFormatting sqref="A73:F75 L95:T95 L96:P96 S96:T100 I97:P97 A100:R100 R104:T109">
+    <cfRule type="expression" dxfId="75" priority="108">
+      <formula>$B73=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="30">
-      <formula>$B102=2</formula>
+    <cfRule type="expression" dxfId="74" priority="107">
+      <formula>$B73&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="31">
-      <formula>$B102&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="32">
-      <formula>$B102=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73:F75 L95:T95 L96:P96 S96:T100 I97:P97 A100:R100 A101:T101 A104:P109 R104:T109 A103:T103 A102:H102">
-    <cfRule type="expression" dxfId="91" priority="97">
-      <formula>$B73=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="98">
+    <cfRule type="expression" dxfId="73" priority="106">
       <formula>$B73=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="99">
-      <formula>$B73&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="100">
-      <formula>$B73=0</formula>
+    <cfRule type="expression" dxfId="72" priority="105">
+      <formula>$B73=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:H97">
-    <cfRule type="expression" dxfId="87" priority="61">
-      <formula>$B95=3</formula>
+    <cfRule type="expression" dxfId="71" priority="72">
+      <formula>$B95=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="62">
+    <cfRule type="expression" dxfId="70" priority="71">
+      <formula>$B95&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="70">
       <formula>$B95=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="63">
-      <formula>$B95&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="64">
-      <formula>$B95=0</formula>
+    <cfRule type="expression" dxfId="68" priority="69">
+      <formula>$B95=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:I81">
-    <cfRule type="expression" dxfId="83" priority="85">
-      <formula>$B77=3</formula>
+    <cfRule type="expression" dxfId="67" priority="96">
+      <formula>$B77=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="86">
+    <cfRule type="expression" dxfId="66" priority="95">
+      <formula>$B77&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="94">
       <formula>$B77=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="87">
-      <formula>$B77&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="88">
-      <formula>$B77=0</formula>
+    <cfRule type="expression" dxfId="64" priority="93">
+      <formula>$B77=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:P99">
-    <cfRule type="expression" dxfId="79" priority="45">
+    <cfRule type="expression" dxfId="63" priority="53">
       <formula>$B98=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="46">
+    <cfRule type="expression" dxfId="62" priority="56">
+      <formula>$B98=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="55">
+      <formula>$B98&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="54">
       <formula>$B98=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="47">
-      <formula>$B98&lt;2</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102:P109">
+    <cfRule type="expression" dxfId="59" priority="1">
+      <formula>$B102=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="48">
-      <formula>$B98=0</formula>
+    <cfRule type="expression" dxfId="58" priority="2">
+      <formula>$B102=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="4">
+      <formula>$B102=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="3">
+      <formula>$B102&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:S72">
-    <cfRule type="expression" dxfId="75" priority="101">
-      <formula>$B72=3</formula>
+    <cfRule type="expression" dxfId="55" priority="112">
+      <formula>$B72=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="102">
+    <cfRule type="expression" dxfId="54" priority="111">
+      <formula>$B72&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="110">
       <formula>$B72=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="103">
-      <formula>$B72&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="104">
-      <formula>$B72=0</formula>
+    <cfRule type="expression" dxfId="52" priority="109">
+      <formula>$B72=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T71 T72:T75 H73:R73 H74:Q74 G75:Q75 A76:T76 K77:T77 S78:T81">
-    <cfRule type="expression" dxfId="71" priority="105">
-      <formula>$B1=3</formula>
+    <cfRule type="expression" dxfId="51" priority="116">
+      <formula>$B1=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="106">
+    <cfRule type="expression" dxfId="50" priority="115">
+      <formula>$B1&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="114">
       <formula>$B1=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="107">
-      <formula>$B1&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="108">
-      <formula>$B1=0</formula>
+    <cfRule type="expression" dxfId="48" priority="113">
+      <formula>$B1=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:T94">
-    <cfRule type="expression" dxfId="67" priority="65">
+    <cfRule type="expression" dxfId="47" priority="75">
+      <formula>$B82&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="74">
+      <formula>$B82=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="73">
       <formula>$B82=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="66">
-      <formula>$B82=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="67">
-      <formula>$B82&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="68">
+    <cfRule type="expression" dxfId="44" priority="76">
       <formula>$B82=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A101:T101 A124">
+    <cfRule type="expression" dxfId="43" priority="39">
+      <formula>$B101&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="38">
+      <formula>$B101=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="40">
+      <formula>$B101=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="37">
+      <formula>$B101=3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A110:T123">
-    <cfRule type="expression" dxfId="63" priority="33">
+    <cfRule type="expression" dxfId="39" priority="41">
       <formula>$B110=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="34">
-      <formula>$B110=2</formula>
+    <cfRule type="expression" dxfId="38" priority="44">
+      <formula>$B110=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="35">
+    <cfRule type="expression" dxfId="37" priority="43">
       <formula>$B110&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="36">
-      <formula>$B110=0</formula>
+    <cfRule type="expression" dxfId="36" priority="42">
+      <formula>$B110=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124:D124">
-    <cfRule type="expression" dxfId="59" priority="25">
+    <cfRule type="expression" dxfId="35" priority="33">
       <formula>$B124=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="26">
-      <formula>$B124=2</formula>
+    <cfRule type="expression" dxfId="34" priority="36">
+      <formula>$B124=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="27">
+    <cfRule type="expression" dxfId="33" priority="35">
       <formula>$B124&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="28">
-      <formula>$B124=0</formula>
+    <cfRule type="expression" dxfId="32" priority="34">
+      <formula>$B124=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D123">
-    <cfRule type="colorScale" priority="152">
+    <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9098,199 +8922,135 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73:G74">
-    <cfRule type="expression" dxfId="55" priority="93">
+    <cfRule type="expression" dxfId="31" priority="101">
       <formula>$B73=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="94">
+    <cfRule type="expression" dxfId="30" priority="102">
       <formula>$B73=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="95">
+    <cfRule type="expression" dxfId="29" priority="103">
       <formula>$B73&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="96">
+    <cfRule type="expression" dxfId="28" priority="104">
       <formula>$B73=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95:K96">
-    <cfRule type="expression" dxfId="51" priority="57">
+    <cfRule type="expression" dxfId="27" priority="67">
+      <formula>$B95&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="68">
+      <formula>$B95=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="65">
       <formula>$B95=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="58">
+    <cfRule type="expression" dxfId="24" priority="66">
       <formula>$B95=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="59">
-      <formula>$B95&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="60">
-      <formula>$B95=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77 O101">
-    <cfRule type="expression" dxfId="47" priority="114">
-      <formula>$B78=3</formula>
+    <cfRule type="expression" dxfId="23" priority="125">
+      <formula>$B78=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="115">
-      <formula>$B78=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="116">
+    <cfRule type="expression" dxfId="22" priority="124">
       <formula>$B78&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="117">
-      <formula>$B78=0</formula>
+    <cfRule type="expression" dxfId="21" priority="123">
+      <formula>$B78=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K78:Q81">
-    <cfRule type="expression" dxfId="43" priority="81">
+    <cfRule type="expression" dxfId="20" priority="92">
+      <formula>$B78=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="90">
+      <formula>$B78=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="89">
       <formula>$B78=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="82">
-      <formula>$B78=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="83">
+    <cfRule type="expression" dxfId="17" priority="91">
       <formula>$B78&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="84">
-      <formula>$B78=0</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O101 J77">
+    <cfRule type="expression" dxfId="16" priority="122">
+      <formula>$B78=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q104">
-    <cfRule type="expression" dxfId="39" priority="41">
+    <cfRule type="expression" dxfId="15" priority="52">
+      <formula>$B104=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="50">
+      <formula>$B104=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="49">
       <formula>$B104=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="42">
-      <formula>$B104=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="43">
+    <cfRule type="expression" dxfId="12" priority="51">
       <formula>$B104&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="44">
-      <formula>$B104=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q108:Q109">
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="11" priority="48">
+      <formula>$B108=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="47">
+      <formula>$B108&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="46">
+      <formula>$B108=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="45">
       <formula>$B108=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
-      <formula>$B108=2</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q102:T103">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>$B102=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="39">
-      <formula>$B108&lt;2</formula>
+    <cfRule type="expression" dxfId="6" priority="10">
+      <formula>$B102=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="40">
-      <formula>$B108=0</formula>
+    <cfRule type="expression" dxfId="5" priority="11">
+      <formula>$B102&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="12">
+      <formula>$B102=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S73">
-    <cfRule type="expression" dxfId="31" priority="122">
+    <cfRule type="expression" dxfId="3" priority="130">
       <formula>$B72=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="123">
+    <cfRule type="expression" dxfId="2" priority="131">
       <formula>$B72=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="124">
+    <cfRule type="expression" dxfId="1" priority="132">
       <formula>$B72&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="125">
+    <cfRule type="expression" dxfId="0" priority="133">
       <formula>$B72=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I102">
-    <cfRule type="expression" dxfId="27" priority="21">
-      <formula>$B102=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
-      <formula>$B102=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="23">
-      <formula>$B102&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24">
-      <formula>$B102=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J102">
-    <cfRule type="expression" dxfId="23" priority="17">
-      <formula>$B102=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
-      <formula>$B102=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="19">
-      <formula>$B102&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>$B102=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K102">
-    <cfRule type="expression" dxfId="19" priority="13">
-      <formula>$B102=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
-      <formula>$B102=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="15">
-      <formula>$B102&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>$B102=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P102">
-    <cfRule type="expression" dxfId="11" priority="5">
-      <formula>$B102=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
-      <formula>$B102=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7">
-      <formula>$B102&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>$B102=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O102">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>$B102=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>$B102=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>$B102&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$B102=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="14">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I157:I186 H124:H148" xr:uid="{0D656B1C-36BB-D24C-9DF1-8575D533B58B}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I155:I184 H124:H146" xr:uid="{0D656B1C-36BB-D24C-9DF1-8575D533B58B}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P171:P215 O2:O101 O103:O215" xr:uid="{7C199008-9AB6-6549-A861-AD474C13E949}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P169:P213 O2:O101 O103:O213" xr:uid="{7C199008-9AB6-6549-A861-AD474C13E949}">
       <formula1>1950</formula1>
       <formula2>2025</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9 I11:I41 I45:I47 I49:I51 L1:L55 I55:I62 I64 L57:L63 L65:L70 I66:I71 H2:H86 H89:H90 H92:H94 I73:I99 H98:H123 L72:L1048576 I101:I156" xr:uid="{66ABF627-CC97-3E44-B6AC-09E441BED0CD}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9 I11:I41 I45:I47 I49:I51 L1:L55 I55:I62 I64 L57:L63 L65:L70 I66:I71 H2:H86 H89:H90 H92:H94 I73:I99 H98:H123 I101:I154 L72:L1048576" xr:uid="{66ABF627-CC97-3E44-B6AC-09E441BED0CD}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P124:P170" xr:uid="{F4F53CC5-25AF-5B42-8EEF-6E8D6F9FC73C}">
-      <formula1>"General, Labor, Material, Equipment,Lab and Mat and Equip"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K382:K392" xr:uid="{9E6037A9-5EC7-2945-A2FE-1723BA7DEE83}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K380:K390" xr:uid="{9E6037A9-5EC7-2945-A2FE-1723BA7DEE83}">
       <formula1>"Land Area, Power MWe, Excavation Volume,  Reactor Building Slab Roof Volume,	Reactor Building  Basement Volume, Reactor Building  Exterior Walls Volume,		Turbine Building Slab Roof Volume,	Turbine Building  Basement Volume,	Turbine Building  Exterior Wall"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 J124:J1048576" xr:uid="{EEDF1E2A-32DC-6242-8EBD-BD01BBD19C77}">
       <formula1>"$/acres, $/MWe, $/m^3, $/MWt"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M124:M148" xr:uid="{19C103B6-865E-F94F-B938-0317482E5B19}">
-      <formula1>"acres, MWe, m^3"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N124:N361" xr:uid="{6D536505-A5B6-E145-A4B9-9C3C8E6B8527}">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10 E14 E18:E19 E23 E27:E29 E33 E37:E38 E43:E44 E48 E52:E54 E59 E66 E71:E123" xr:uid="{E571E7A1-C2F9-2E4D-99A9-8FA0C5D45C39}">
       <formula1>"standard, nonstandard"</formula1>
@@ -9309,7 +9069,17 @@
       <formula1>"$/acres, $/MWe, $/m^3, $/MWt, $/Kg, $/Drum, $/(kg.sec), $/SWU, unitless"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P122" xr:uid="{17DDFD40-D97D-B64B-BD3B-AEAF52F6302C}">
-      <formula1>"N/A, General, Labor, Material, Equipment,Lab and Mat and Equip, 'Lab and Equip"</formula1>
+      <formula1>"NA, General, Labor, Material, Equipment,Lab and Mat and Equip, 'Lab and Equip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P124:P168" xr:uid="{F4F53CC5-25AF-5B42-8EEF-6E8D6F9FC73C}">
+      <formula1>"General, Labor, Material, Equipment,Lab and Mat and Equip"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M124:M146" xr:uid="{19C103B6-865E-F94F-B938-0317482E5B19}">
+      <formula1>"acres, MWe, m^3"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N124:N359" xr:uid="{6D536505-A5B6-E145-A4B9-9C3C8E6B8527}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -9327,7 +9097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAED81D3-2E1E-EB42-8F84-3B0F01FD7CDC}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="183" workbookViewId="0">
+    <sheetView zoomScale="183" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
     </sheetView>
   </sheetViews>
@@ -9340,20 +9110,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="143" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="140"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="143"/>
+      <c r="A2" s="141"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="144"/>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="62">
@@ -10261,12 +10031,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="145" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
     </row>
     <row r="3" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
@@ -10323,12 +10093,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="145" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="145"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="146"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="147"/>
     </row>
     <row r="8" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
@@ -10387,12 +10157,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="144" t="s">
+      <c r="A12" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="145"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="146"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="147"/>
     </row>
     <row r="13" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
@@ -10491,12 +10261,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="144" t="s">
+      <c r="A20" s="145" t="s">
         <v>276</v>
       </c>
-      <c r="B20" s="145"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="147"/>
     </row>
     <row r="21" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
@@ -10625,12 +10395,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="145" t="s">
         <v>289</v>
       </c>
-      <c r="B30" s="145"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="146"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="147"/>
     </row>
     <row r="31" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
@@ -10705,12 +10475,12 @@
       <c r="D36" s="60"/>
     </row>
     <row r="37" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="144" t="s">
+      <c r="A37" s="145" t="s">
         <v>296</v>
       </c>
-      <c r="B37" s="145"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="146"/>
+      <c r="B37" s="146"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="147"/>
     </row>
     <row r="38" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
@@ -10797,12 +10567,12 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="144" t="s">
+      <c r="A44" s="145" t="s">
         <v>309</v>
       </c>
-      <c r="B44" s="145"/>
-      <c r="C44" s="145"/>
-      <c r="D44" s="146"/>
+      <c r="B44" s="146"/>
+      <c r="C44" s="146"/>
+      <c r="D44" s="147"/>
     </row>
     <row r="45" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
@@ -10819,12 +10589,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="144" t="s">
+      <c r="A46" s="145" t="s">
         <v>312</v>
       </c>
-      <c r="B46" s="145"/>
-      <c r="C46" s="145"/>
-      <c r="D46" s="146"/>
+      <c r="B46" s="146"/>
+      <c r="C46" s="146"/>
+      <c r="D46" s="147"/>
     </row>
     <row r="47" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
@@ -10869,12 +10639,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="144" t="s">
+      <c r="A50" s="145" t="s">
         <v>319</v>
       </c>
-      <c r="B50" s="145"/>
-      <c r="C50" s="145"/>
-      <c r="D50" s="146"/>
+      <c r="B50" s="146"/>
+      <c r="C50" s="146"/>
+      <c r="D50" s="147"/>
     </row>
     <row r="51" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="54" t="s">
@@ -10925,16 +10695,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF46401-6828-1F49-B2C3-A6E5E28394B1}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="156" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -10959,9 +10730,7 @@
       <c r="G1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>406</v>
-      </c>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
@@ -10987,9 +10756,7 @@
         <f>AVERAGE(C2,E2)</f>
         <v>3.5077268631057317</v>
       </c>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -11016,9 +10783,7 @@
         <f t="shared" ref="G3:G41" si="1">AVERAGE(C3,E3)</f>
         <v>3.4091576629618658</v>
       </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -11045,9 +10810,7 @@
         <f t="shared" si="1"/>
         <v>3.3453365939328341</v>
       </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -11074,9 +10837,7 @@
         <f t="shared" si="1"/>
         <v>3.1996966340937996</v>
       </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -11103,9 +10864,7 @@
         <f t="shared" si="1"/>
         <v>3.0469579706202397</v>
       </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -11132,9 +10891,7 @@
         <f t="shared" si="1"/>
         <v>2.9415018835339906</v>
       </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -11161,9 +10918,7 @@
         <f t="shared" si="1"/>
         <v>2.8361039998658946</v>
       </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -11190,9 +10945,7 @@
         <f t="shared" si="1"/>
         <v>2.7325235034052247</v>
       </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -11219,9 +10972,7 @@
         <f t="shared" si="1"/>
         <v>2.6102364763135144</v>
       </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -11248,9 +10999,7 @@
         <f t="shared" si="1"/>
         <v>2.5262885305582738</v>
       </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -11277,9 +11026,7 @@
         <f t="shared" si="1"/>
         <v>2.4827907155103204</v>
       </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -11306,9 +11053,7 @@
         <f t="shared" si="1"/>
         <v>2.4262533008020304</v>
       </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -11335,9 +11080,7 @@
         <f t="shared" si="1"/>
         <v>2.3671474216595447</v>
       </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -11364,9 +11107,7 @@
         <f t="shared" si="1"/>
         <v>2.307052093528327</v>
       </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -11393,9 +11134,7 @@
         <f t="shared" si="1"/>
         <v>2.2643663875974873</v>
       </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -11422,9 +11161,7 @@
         <f t="shared" si="1"/>
         <v>2.2041708998292839</v>
       </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -11451,9 +11188,7 @@
         <f t="shared" si="1"/>
         <v>2.1214299408402955</v>
       </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
@@ -11480,9 +11215,7 @@
         <f t="shared" si="1"/>
         <v>2.0800427371143604</v>
       </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
@@ -11509,9 +11242,7 @@
         <f t="shared" si="1"/>
         <v>2.0294240285722087</v>
       </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -11538,9 +11269,7 @@
         <f t="shared" si="1"/>
         <v>1.9615140730224918</v>
       </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -11567,9 +11296,7 @@
         <f t="shared" si="1"/>
         <v>1.8908139941124174</v>
       </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -11596,9 +11323,7 @@
         <f t="shared" si="1"/>
         <v>1.7812582023870296</v>
       </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -11625,9 +11350,7 @@
         <f t="shared" si="1"/>
         <v>1.6698766116056492</v>
       </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -11654,9 +11377,7 @@
         <f t="shared" si="1"/>
         <v>1.6212060370241057</v>
       </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -11683,9 +11404,7 @@
         <f t="shared" si="1"/>
         <v>1.6018382421283412</v>
       </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
@@ -11712,9 +11431,7 @@
         <f t="shared" si="1"/>
         <v>1.599627378088782</v>
       </c>
-      <c r="H27" s="3">
-        <v>1</v>
-      </c>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
@@ -11741,9 +11458,7 @@
         <f t="shared" si="1"/>
         <v>1.555513512447007</v>
       </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
@@ -11770,9 +11485,7 @@
         <f t="shared" si="1"/>
         <v>1.489126368714752</v>
       </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -11799,9 +11512,7 @@
         <f t="shared" si="1"/>
         <v>1.4468538620411944</v>
       </c>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
@@ -11828,9 +11539,7 @@
         <f t="shared" si="1"/>
         <v>1.4086050826947987</v>
       </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
@@ -11857,9 +11566,7 @@
         <f t="shared" si="1"/>
         <v>1.3743420273513181</v>
       </c>
-      <c r="H32" s="3">
-        <v>1</v>
-      </c>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
@@ -11886,9 +11593,7 @@
         <f t="shared" si="1"/>
         <v>1.3499985236534209</v>
       </c>
-      <c r="H33" s="3">
-        <v>1</v>
-      </c>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
@@ -11915,9 +11620,7 @@
         <f t="shared" si="1"/>
         <v>1.3179687370712139</v>
       </c>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
@@ -11944,9 +11647,7 @@
         <f t="shared" si="1"/>
         <v>1.276830950870623</v>
       </c>
-      <c r="H35" s="3">
-        <v>1</v>
-      </c>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
@@ -11973,9 +11674,7 @@
         <f t="shared" si="1"/>
         <v>1.2415770326808417</v>
       </c>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
@@ -12002,9 +11701,7 @@
         <f t="shared" si="1"/>
         <v>1.2165134245854174</v>
       </c>
-      <c r="H37" s="3">
-        <v>1</v>
-      </c>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
@@ -12031,9 +11728,7 @@
         <f t="shared" si="1"/>
         <v>1.1715472467908044</v>
       </c>
-      <c r="H38" s="3">
-        <v>1</v>
-      </c>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
@@ -12060,9 +11755,7 @@
         <f t="shared" si="1"/>
         <v>1.0792357293864472</v>
       </c>
-      <c r="H39" s="3">
-        <v>1</v>
-      </c>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
@@ -12088,9 +11781,7 @@
         <f t="shared" si="1"/>
         <v>1.0172398620903442</v>
       </c>
-      <c r="H40" s="3">
-        <v>1</v>
-      </c>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
@@ -12116,9 +11807,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H41" s="3">
-        <v>1</v>
-      </c>
+      <c r="H41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cost/Cost_Database.xlsx
+++ b/cost/Cost_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannbn/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE22912-9392-C84A-B63C-2B8E3A9FA0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC55CF2-00E4-E140-8D46-3C15D721685B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Database" sheetId="2" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="399">
   <si>
     <t>Account</t>
   </si>
@@ -1495,18 +1495,6 @@
     <t>staff recruitment and training</t>
   </si>
   <si>
-    <t>OCC</t>
-  </si>
-  <si>
-    <t>Overnight Capital Cost</t>
-  </si>
-  <si>
-    <t>TCI</t>
-  </si>
-  <si>
-    <t>Total Capital Investment</t>
-  </si>
-  <si>
     <t>Unit Cost</t>
   </si>
 </sst>
@@ -1522,7 +1510,7 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1755,28 +1743,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1792,12 +1765,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1987,7 +1954,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2229,36 +2196,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="36" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="34" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2267,10 +2229,37 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2299,51 +2288,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2374,7 +2318,61 @@
     <cellStyle name="Normal 2" xfId="4" xr:uid="{E15291B7-9068-3147-AE9D-D55638463741}"/>
     <cellStyle name="Normal 2 5" xfId="3" xr:uid="{D5427F60-54E8-014E-9224-5454BAE094F2}"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="68">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2437,20 +2435,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2462,80 +2446,6 @@
           <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -2561,6 +2471,13 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2592,11 +2509,10 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -2606,42 +2522,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2661,27 +2544,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2695,55 +2558,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2761,10 +2576,31 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2781,20 +2617,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2803,14 +2625,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2824,7 +2639,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2837,7 +2652,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2851,7 +2666,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2864,7 +2679,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2878,7 +2693,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2887,6 +2702,81 @@
         <b/>
         <i val="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3306,11 +3196,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5330BDA-7164-B946-A942-FFAE4F744BBA}">
-  <dimension ref="A1:Z124"/>
+  <dimension ref="A1:Z122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="63" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102:XFD102"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3364,7 +3254,7 @@
         <v>357</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>50</v>
@@ -3490,10 +3380,10 @@
       <c r="Q3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="114" t="s">
+      <c r="R3" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="S3" s="130" t="s">
+      <c r="S3" s="113" t="s">
         <v>56</v>
       </c>
       <c r="T3" s="26"/>
@@ -3543,8 +3433,8 @@
       <c r="Q4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="114"/>
-      <c r="S4" s="130"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="113"/>
       <c r="T4" s="26"/>
     </row>
     <row r="5" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3586,10 +3476,10 @@
       <c r="Q5" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="114" t="s">
+      <c r="R5" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="S5" s="130" t="s">
+      <c r="S5" s="113" t="s">
         <v>59</v>
       </c>
       <c r="T5" s="26"/>
@@ -3632,8 +3522,8 @@
       <c r="Q6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="114"/>
-      <c r="S6" s="130"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="113"/>
       <c r="T6" s="26"/>
     </row>
     <row r="7" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3830,13 +3720,13 @@
       <c r="P11" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="126" t="s">
+      <c r="Q11" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="R11" s="114" t="s">
+      <c r="R11" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="S11" s="115" t="s">
+      <c r="S11" s="114" t="s">
         <v>84</v>
       </c>
       <c r="T11" s="26"/>
@@ -3890,9 +3780,9 @@
       <c r="P12" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="114"/>
-      <c r="S12" s="116"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="109"/>
+      <c r="S12" s="115"/>
       <c r="T12" s="26"/>
     </row>
     <row r="13" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3937,9 +3827,9 @@
       <c r="P13" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="114"/>
-      <c r="S13" s="116"/>
+      <c r="Q13" s="105"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="115"/>
       <c r="T13" s="26"/>
     </row>
     <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4015,13 +3905,13 @@
       <c r="P15" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q15" s="126" t="s">
+      <c r="Q15" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="114" t="s">
+      <c r="R15" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="S15" s="115" t="s">
+      <c r="S15" s="114" t="s">
         <v>84</v>
       </c>
       <c r="T15" s="26"/>
@@ -4068,9 +3958,9 @@
       <c r="P16" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="114"/>
-      <c r="S16" s="116"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="115"/>
       <c r="T16" s="26"/>
     </row>
     <row r="17" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4115,9 +4005,9 @@
       <c r="P17" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q17" s="126"/>
-      <c r="R17" s="114"/>
-      <c r="S17" s="116"/>
+      <c r="Q17" s="105"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="115"/>
       <c r="T17" s="26"/>
     </row>
     <row r="18" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4226,13 +4116,13 @@
       <c r="P20" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q20" s="126" t="s">
+      <c r="Q20" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="R20" s="114" t="s">
+      <c r="R20" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="S20" s="115" t="s">
+      <c r="S20" s="114" t="s">
         <v>84</v>
       </c>
       <c r="T20" s="26"/>
@@ -4279,9 +4169,9 @@
       <c r="P21" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q21" s="126"/>
-      <c r="R21" s="114"/>
-      <c r="S21" s="116"/>
+      <c r="Q21" s="105"/>
+      <c r="R21" s="109"/>
+      <c r="S21" s="115"/>
       <c r="T21" s="26"/>
     </row>
     <row r="22" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4326,9 +4216,9 @@
       <c r="P22" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="126"/>
-      <c r="R22" s="114"/>
-      <c r="S22" s="116"/>
+      <c r="Q22" s="105"/>
+      <c r="R22" s="109"/>
+      <c r="S22" s="115"/>
       <c r="T22" s="26"/>
     </row>
     <row r="23" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4405,13 +4295,13 @@
       <c r="P24" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q24" s="126" t="s">
+      <c r="Q24" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="R24" s="114" t="s">
+      <c r="R24" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="115" t="s">
+      <c r="S24" s="114" t="s">
         <v>84</v>
       </c>
       <c r="T24" s="26"/>
@@ -4458,9 +4348,9 @@
       <c r="P25" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q25" s="126"/>
-      <c r="R25" s="114"/>
-      <c r="S25" s="116"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="109"/>
+      <c r="S25" s="115"/>
       <c r="T25" s="26"/>
     </row>
     <row r="26" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4505,9 +4395,9 @@
       <c r="P26" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="114"/>
-      <c r="S26" s="116"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="109"/>
+      <c r="S26" s="115"/>
       <c r="T26" s="26"/>
     </row>
     <row r="27" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4648,13 +4538,13 @@
       <c r="P30" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q30" s="137" t="s">
+      <c r="Q30" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="R30" s="136" t="s">
+      <c r="R30" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="S30" s="134" t="s">
+      <c r="S30" s="119" t="s">
         <v>84</v>
       </c>
       <c r="T30" s="85"/>
@@ -4701,9 +4591,9 @@
       <c r="P31" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q31" s="137"/>
-      <c r="R31" s="136"/>
-      <c r="S31" s="135"/>
+      <c r="Q31" s="104"/>
+      <c r="R31" s="110"/>
+      <c r="S31" s="120"/>
       <c r="T31" s="85"/>
     </row>
     <row r="32" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -4748,9 +4638,9 @@
       <c r="P32" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q32" s="137"/>
-      <c r="R32" s="136"/>
-      <c r="S32" s="135"/>
+      <c r="Q32" s="104"/>
+      <c r="R32" s="110"/>
+      <c r="S32" s="120"/>
       <c r="T32" s="85"/>
     </row>
     <row r="33" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4827,13 +4717,13 @@
       <c r="P34" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q34" s="137" t="s">
+      <c r="Q34" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="R34" s="136" t="s">
+      <c r="R34" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="S34" s="134" t="s">
+      <c r="S34" s="119" t="s">
         <v>84</v>
       </c>
       <c r="T34" s="85"/>
@@ -4880,9 +4770,9 @@
       <c r="P35" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q35" s="137"/>
-      <c r="R35" s="136"/>
-      <c r="S35" s="135"/>
+      <c r="Q35" s="104"/>
+      <c r="R35" s="110"/>
+      <c r="S35" s="120"/>
       <c r="T35" s="85"/>
     </row>
     <row r="36" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -4927,9 +4817,9 @@
       <c r="P36" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q36" s="137"/>
-      <c r="R36" s="136"/>
-      <c r="S36" s="135"/>
+      <c r="Q36" s="104"/>
+      <c r="R36" s="110"/>
+      <c r="S36" s="120"/>
       <c r="T36" s="85"/>
     </row>
     <row r="37" spans="1:20" ht="30" thickBot="1" x14ac:dyDescent="0.25">
@@ -5038,13 +4928,13 @@
       <c r="P39" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q39" s="137" t="s">
+      <c r="Q39" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="R39" s="136" t="s">
+      <c r="R39" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="S39" s="134" t="s">
+      <c r="S39" s="119" t="s">
         <v>84</v>
       </c>
       <c r="T39" s="85"/>
@@ -5091,9 +4981,9 @@
       <c r="P40" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q40" s="137"/>
-      <c r="R40" s="136"/>
-      <c r="S40" s="135"/>
+      <c r="Q40" s="104"/>
+      <c r="R40" s="110"/>
+      <c r="S40" s="120"/>
       <c r="T40" s="85"/>
     </row>
     <row r="41" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -5138,9 +5028,9 @@
       <c r="P41" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q41" s="137"/>
-      <c r="R41" s="136"/>
-      <c r="S41" s="135"/>
+      <c r="Q41" s="104"/>
+      <c r="R41" s="110"/>
+      <c r="S41" s="120"/>
       <c r="T41" s="85"/>
     </row>
     <row r="42" spans="1:20" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5307,13 +5197,13 @@
       <c r="P45" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q45" s="126" t="s">
+      <c r="Q45" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="R45" s="114" t="s">
+      <c r="R45" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="S45" s="115" t="s">
+      <c r="S45" s="114" t="s">
         <v>84</v>
       </c>
       <c r="T45" s="26"/>
@@ -5360,9 +5250,9 @@
       <c r="P46" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q46" s="126"/>
-      <c r="R46" s="114"/>
-      <c r="S46" s="116"/>
+      <c r="Q46" s="105"/>
+      <c r="R46" s="109"/>
+      <c r="S46" s="115"/>
       <c r="T46" s="26"/>
     </row>
     <row r="47" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -5407,9 +5297,9 @@
       <c r="P47" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q47" s="126"/>
-      <c r="R47" s="114"/>
-      <c r="S47" s="116"/>
+      <c r="Q47" s="105"/>
+      <c r="R47" s="109"/>
+      <c r="S47" s="115"/>
       <c r="T47" s="26"/>
     </row>
     <row r="48" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5486,13 +5376,13 @@
       <c r="P49" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q49" s="126" t="s">
+      <c r="Q49" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="R49" s="114" t="s">
+      <c r="R49" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="S49" s="115" t="s">
+      <c r="S49" s="114" t="s">
         <v>84</v>
       </c>
       <c r="T49" s="26"/>
@@ -5539,9 +5429,9 @@
       <c r="P50" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q50" s="126"/>
-      <c r="R50" s="114"/>
-      <c r="S50" s="116"/>
+      <c r="Q50" s="105"/>
+      <c r="R50" s="109"/>
+      <c r="S50" s="115"/>
       <c r="T50" s="26"/>
     </row>
     <row r="51" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -5586,9 +5476,9 @@
       <c r="P51" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q51" s="126"/>
-      <c r="R51" s="114"/>
-      <c r="S51" s="116"/>
+      <c r="Q51" s="105"/>
+      <c r="R51" s="109"/>
+      <c r="S51" s="115"/>
       <c r="T51" s="26"/>
     </row>
     <row r="52" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5737,10 +5627,10 @@
       <c r="Q55" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="R55" s="131" t="s">
+      <c r="R55" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="S55" s="117" t="s">
+      <c r="S55" s="121" t="s">
         <v>183</v>
       </c>
       <c r="T55" s="42" t="s">
@@ -5797,8 +5687,8 @@
       <c r="Q56" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="R56" s="132"/>
-      <c r="S56" s="118"/>
+      <c r="R56" s="117"/>
+      <c r="S56" s="122"/>
       <c r="T56" s="26"/>
     </row>
     <row r="57" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5854,8 +5744,8 @@
       <c r="Q57" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="R57" s="133"/>
-      <c r="S57" s="119"/>
+      <c r="R57" s="118"/>
+      <c r="S57" s="123"/>
       <c r="T57" s="42" t="s">
         <v>182</v>
       </c>
@@ -5965,10 +5855,10 @@
       <c r="Q60" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R60" s="120" t="s">
+      <c r="R60" s="124" t="s">
         <v>179</v>
       </c>
-      <c r="S60" s="123" t="s">
+      <c r="S60" s="127" t="s">
         <v>352</v>
       </c>
       <c r="T60" s="90" t="s">
@@ -6014,8 +5904,8 @@
       <c r="Q61" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R61" s="121"/>
-      <c r="S61" s="124"/>
+      <c r="R61" s="125"/>
+      <c r="S61" s="128"/>
       <c r="T61" s="85"/>
     </row>
     <row r="62" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6072,8 +5962,8 @@
       <c r="Q62" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R62" s="121"/>
-      <c r="S62" s="124"/>
+      <c r="R62" s="125"/>
+      <c r="S62" s="128"/>
       <c r="T62" s="85"/>
     </row>
     <row r="63" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6130,8 +6020,8 @@
       <c r="Q63" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R63" s="122"/>
-      <c r="S63" s="125"/>
+      <c r="R63" s="126"/>
+      <c r="S63" s="129"/>
       <c r="T63" s="85"/>
     </row>
     <row r="64" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6221,10 +6111,10 @@
       <c r="Q65" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="R65" s="131" t="s">
+      <c r="R65" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="S65" s="117" t="s">
+      <c r="S65" s="121" t="s">
         <v>183</v>
       </c>
       <c r="T65" s="26"/>
@@ -6257,8 +6147,8 @@
       <c r="O66" s="26"/>
       <c r="P66" s="26"/>
       <c r="Q66" s="42"/>
-      <c r="R66" s="132"/>
-      <c r="S66" s="118"/>
+      <c r="R66" s="117"/>
+      <c r="S66" s="122"/>
       <c r="T66" s="26"/>
     </row>
     <row r="67" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6318,8 +6208,8 @@
       <c r="Q67" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R67" s="132"/>
-      <c r="S67" s="118"/>
+      <c r="R67" s="117"/>
+      <c r="S67" s="122"/>
       <c r="T67" s="85"/>
     </row>
     <row r="68" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6375,8 +6265,8 @@
       <c r="Q68" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R68" s="133"/>
-      <c r="S68" s="119"/>
+      <c r="R68" s="118"/>
+      <c r="S68" s="123"/>
       <c r="T68" s="85"/>
     </row>
     <row r="69" spans="1:20" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6601,13 +6491,13 @@
       <c r="Q73" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="R73" s="112" t="s">
+      <c r="R73" s="106" t="s">
         <v>353</v>
       </c>
-      <c r="S73" s="128" t="s">
+      <c r="S73" s="111" t="s">
         <v>355</v>
       </c>
-      <c r="T73" s="112"/>
+      <c r="T73" s="106"/>
     </row>
     <row r="74" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30">
@@ -6657,9 +6547,9 @@
       <c r="Q74" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="R74" s="113"/>
-      <c r="S74" s="129"/>
-      <c r="T74" s="113"/>
+      <c r="R74" s="108"/>
+      <c r="S74" s="112"/>
+      <c r="T74" s="108"/>
     </row>
     <row r="75" spans="1:20" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30">
@@ -7611,10 +7501,10 @@
       <c r="P95" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q95" s="112" t="s">
+      <c r="Q95" s="106" t="s">
         <v>387</v>
       </c>
-      <c r="R95" s="112" t="s">
+      <c r="R95" s="106" t="s">
         <v>388</v>
       </c>
       <c r="S95" s="26"/>
@@ -7659,8 +7549,8 @@
       <c r="P96" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q96" s="127"/>
-      <c r="R96" s="127"/>
+      <c r="Q96" s="107"/>
+      <c r="R96" s="107"/>
       <c r="S96" s="26"/>
       <c r="T96" s="26"/>
     </row>
@@ -7705,8 +7595,8 @@
       <c r="P97" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q97" s="127"/>
-      <c r="R97" s="127"/>
+      <c r="Q97" s="107"/>
+      <c r="R97" s="107"/>
       <c r="S97" s="26"/>
       <c r="T97" s="26"/>
     </row>
@@ -7753,8 +7643,8 @@
       <c r="P98" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q98" s="127"/>
-      <c r="R98" s="127"/>
+      <c r="Q98" s="107"/>
+      <c r="R98" s="107"/>
       <c r="S98" s="26"/>
       <c r="T98" s="26"/>
     </row>
@@ -7808,8 +7698,8 @@
       <c r="P99" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q99" s="113"/>
-      <c r="R99" s="113"/>
+      <c r="Q99" s="108"/>
+      <c r="R99" s="108"/>
       <c r="S99" s="26"/>
       <c r="T99" s="26"/>
     </row>
@@ -7914,7 +7804,7 @@
       <c r="F102" s="19"/>
       <c r="G102" s="19"/>
       <c r="H102" s="29"/>
-      <c r="I102" s="111"/>
+      <c r="I102" s="100"/>
       <c r="J102" s="26"/>
       <c r="K102" s="42"/>
       <c r="L102" s="29"/>
@@ -7994,7 +7884,7 @@
       <c r="P104" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="Q104" s="138" t="s">
+      <c r="Q104" s="101" t="s">
         <v>379</v>
       </c>
       <c r="R104" s="24"/>
@@ -8043,7 +7933,7 @@
       <c r="P105" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="Q105" s="139"/>
+      <c r="Q105" s="102"/>
       <c r="R105" s="24"/>
       <c r="S105" s="24"/>
       <c r="T105" s="24"/>
@@ -8090,7 +7980,7 @@
       <c r="P106" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q106" s="139"/>
+      <c r="Q106" s="102"/>
       <c r="R106" s="26"/>
       <c r="S106" s="26"/>
       <c r="T106" s="26"/>
@@ -8132,7 +8022,7 @@
       <c r="P107" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q107" s="140"/>
+      <c r="Q107" s="103"/>
       <c r="R107" s="26"/>
       <c r="S107" s="26"/>
       <c r="T107" s="26"/>
@@ -8640,92 +8530,22 @@
       <c r="S122" s="26"/>
       <c r="T122" s="26"/>
     </row>
-    <row r="123" spans="1:21" s="100" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="101" t="s">
-        <v>398</v>
-      </c>
-      <c r="B123" s="102" t="str">
-        <f t="shared" ref="B123:B124" si="12">IF(ISNUMBER(A123),
-    IF(AND(A123=INT(A123), MOD(A123, 10) = 0), 0,
-        IF(AND(A123=INT(A123), LEN(A123)=2), 1,
-            IF(AND(A123=INT(A123), LEN(A123)=3), 2,
-                LEN(A123) - FIND(".", A123) + 2)
-        )
-    ),
-"")</f>
-        <v/>
-      </c>
-      <c r="C123" s="103" t="s">
-        <v>399</v>
-      </c>
-      <c r="D123" s="104" t="str">
-        <f>C123</f>
-        <v>Overnight Capital Cost</v>
-      </c>
-      <c r="E123" s="104"/>
-      <c r="F123" s="104"/>
-      <c r="G123" s="104"/>
-      <c r="H123" s="105"/>
-      <c r="I123" s="106"/>
-      <c r="J123" s="107"/>
-      <c r="K123" s="108"/>
-      <c r="L123" s="107"/>
-      <c r="M123" s="107"/>
-      <c r="N123" s="107"/>
-      <c r="O123" s="107"/>
-      <c r="P123" s="107"/>
-      <c r="Q123" s="108"/>
-      <c r="R123" s="107"/>
-      <c r="S123" s="107"/>
-      <c r="T123" s="107"/>
-    </row>
-    <row r="124" spans="1:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="101" t="s">
-        <v>400</v>
-      </c>
-      <c r="B124" s="109" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="C124" s="103" t="s">
-        <v>401</v>
-      </c>
-      <c r="D124" s="103" t="str">
-        <f>C124</f>
-        <v>Total Capital Investment</v>
-      </c>
-      <c r="E124" s="110"/>
-      <c r="F124" s="110"/>
-      <c r="G124" s="110"/>
-      <c r="H124" s="109"/>
-      <c r="I124" s="109"/>
-      <c r="J124" s="109"/>
-      <c r="K124" s="109"/>
-      <c r="L124" s="109"/>
-      <c r="M124" s="109"/>
-      <c r="N124" s="109"/>
-      <c r="O124" s="109"/>
-      <c r="P124" s="109"/>
-      <c r="Q124" s="109"/>
-      <c r="R124" s="109"/>
-      <c r="S124" s="109"/>
-      <c r="T124" s="109"/>
-    </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="Q104:Q107"/>
-    <mergeCell ref="Q39:Q41"/>
-    <mergeCell ref="Q45:Q47"/>
-    <mergeCell ref="Q49:Q51"/>
-    <mergeCell ref="Q95:Q99"/>
-    <mergeCell ref="R24:R26"/>
-    <mergeCell ref="R30:R32"/>
-    <mergeCell ref="R34:R36"/>
-    <mergeCell ref="R39:R41"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="Q24:Q26"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="Q34:Q36"/>
+    <mergeCell ref="T73:T74"/>
+    <mergeCell ref="R45:R47"/>
+    <mergeCell ref="R49:R51"/>
+    <mergeCell ref="S45:S47"/>
+    <mergeCell ref="S49:S51"/>
+    <mergeCell ref="S65:S68"/>
+    <mergeCell ref="R60:R63"/>
+    <mergeCell ref="S60:S63"/>
+    <mergeCell ref="Q15:Q17"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="S15:S17"/>
     <mergeCell ref="R95:R99"/>
     <mergeCell ref="R73:R74"/>
     <mergeCell ref="S73:S74"/>
@@ -8742,177 +8562,148 @@
     <mergeCell ref="S55:S57"/>
     <mergeCell ref="S39:S41"/>
     <mergeCell ref="R20:R22"/>
-    <mergeCell ref="Q15:Q17"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="R15:R17"/>
-    <mergeCell ref="S15:S17"/>
-    <mergeCell ref="T73:T74"/>
-    <mergeCell ref="R45:R47"/>
-    <mergeCell ref="R49:R51"/>
-    <mergeCell ref="S45:S47"/>
-    <mergeCell ref="S49:S51"/>
-    <mergeCell ref="S65:S68"/>
-    <mergeCell ref="R60:R63"/>
-    <mergeCell ref="S60:S63"/>
+    <mergeCell ref="R24:R26"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="R34:R36"/>
+    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="Q34:Q36"/>
+    <mergeCell ref="Q104:Q107"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="Q45:Q47"/>
+    <mergeCell ref="Q49:Q51"/>
+    <mergeCell ref="Q95:Q99"/>
   </mergeCells>
-  <conditionalFormatting sqref="A73:F75 L95:T95 L96:P96 S96:T100 I97:P97 A100:R100 R104:T109">
-    <cfRule type="expression" dxfId="75" priority="108">
-      <formula>$B73=0</formula>
+  <conditionalFormatting sqref="A73:F75 L95:T95 L96:P96 S96:T100 I97:P97 A100:R100 R104:T109 A110:T122">
+    <cfRule type="expression" dxfId="67" priority="105">
+      <formula>$B73=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="107">
+    <cfRule type="expression" dxfId="66" priority="106">
+      <formula>$B73=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="107">
       <formula>$B73&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="106">
-      <formula>$B73=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="105">
-      <formula>$B73=3</formula>
+    <cfRule type="expression" dxfId="64" priority="108">
+      <formula>$B73=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:H97">
-    <cfRule type="expression" dxfId="71" priority="72">
-      <formula>$B95=0</formula>
+    <cfRule type="expression" dxfId="63" priority="69">
+      <formula>$B95=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="71">
+    <cfRule type="expression" dxfId="62" priority="70">
+      <formula>$B95=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="71">
       <formula>$B95&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="70">
-      <formula>$B95=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="69">
-      <formula>$B95=3</formula>
+    <cfRule type="expression" dxfId="60" priority="72">
+      <formula>$B95=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:I81">
-    <cfRule type="expression" dxfId="67" priority="96">
-      <formula>$B77=0</formula>
+    <cfRule type="expression" dxfId="59" priority="93">
+      <formula>$B77=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="95">
+    <cfRule type="expression" dxfId="58" priority="94">
+      <formula>$B77=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="95">
       <formula>$B77&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="94">
-      <formula>$B77=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="93">
-      <formula>$B77=3</formula>
+    <cfRule type="expression" dxfId="56" priority="96">
+      <formula>$B77=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:P99">
-    <cfRule type="expression" dxfId="63" priority="53">
+    <cfRule type="expression" dxfId="55" priority="53">
       <formula>$B98=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="56">
-      <formula>$B98=0</formula>
+    <cfRule type="expression" dxfId="54" priority="54">
+      <formula>$B98=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="55">
+    <cfRule type="expression" dxfId="53" priority="55">
       <formula>$B98&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="54">
-      <formula>$B98=2</formula>
+    <cfRule type="expression" dxfId="52" priority="56">
+      <formula>$B98=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:P109">
-    <cfRule type="expression" dxfId="59" priority="1">
+    <cfRule type="expression" dxfId="51" priority="1">
       <formula>$B102=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>$B102=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="4">
+    <cfRule type="expression" dxfId="49" priority="3">
+      <formula>$B102&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="4">
       <formula>$B102=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="3">
-      <formula>$B102&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:S72">
-    <cfRule type="expression" dxfId="55" priority="112">
-      <formula>$B72=0</formula>
+    <cfRule type="expression" dxfId="47" priority="109">
+      <formula>$B72=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="111">
+    <cfRule type="expression" dxfId="46" priority="110">
+      <formula>$B72=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="111">
       <formula>$B72&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="110">
-      <formula>$B72=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="109">
-      <formula>$B72=3</formula>
+    <cfRule type="expression" dxfId="44" priority="112">
+      <formula>$B72=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T71 T72:T75 H73:R73 H74:Q74 G75:Q75 A76:T76 K77:T77 S78:T81">
-    <cfRule type="expression" dxfId="51" priority="116">
-      <formula>$B1=0</formula>
+    <cfRule type="expression" dxfId="43" priority="113">
+      <formula>$B1=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="115">
+    <cfRule type="expression" dxfId="42" priority="114">
+      <formula>$B1=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="115">
       <formula>$B1&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="114">
-      <formula>$B1=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="113">
-      <formula>$B1=3</formula>
+    <cfRule type="expression" dxfId="40" priority="116">
+      <formula>$B1=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:T94">
-    <cfRule type="expression" dxfId="47" priority="75">
+    <cfRule type="expression" dxfId="39" priority="73">
+      <formula>$B82=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="74">
+      <formula>$B82=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="75">
       <formula>$B82&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="74">
-      <formula>$B82=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="73">
-      <formula>$B82=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="76">
+    <cfRule type="expression" dxfId="36" priority="76">
       <formula>$B82=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101:T101 A124">
-    <cfRule type="expression" dxfId="43" priority="39">
+  <conditionalFormatting sqref="A101:T101">
+    <cfRule type="expression" dxfId="35" priority="37">
+      <formula>$B101=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="38">
+      <formula>$B101=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="39">
       <formula>$B101&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="38">
-      <formula>$B101=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="40">
+    <cfRule type="expression" dxfId="32" priority="40">
       <formula>$B101=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="37">
-      <formula>$B101=3</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A110:T123">
-    <cfRule type="expression" dxfId="39" priority="41">
-      <formula>$B110=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="44">
-      <formula>$B110=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="43">
-      <formula>$B110&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="42">
-      <formula>$B110=2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C124:D124">
-    <cfRule type="expression" dxfId="35" priority="33">
-      <formula>$B124=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="36">
-      <formula>$B124=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="35">
-      <formula>$B124&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="34">
-      <formula>$B124=2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D123">
-    <cfRule type="colorScale" priority="160">
+  <conditionalFormatting sqref="D2:D122">
+    <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8936,42 +8727,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95:K96">
-    <cfRule type="expression" dxfId="27" priority="67">
+    <cfRule type="expression" dxfId="27" priority="65">
+      <formula>$B95=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="66">
+      <formula>$B95=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="67">
       <formula>$B95&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="68">
+    <cfRule type="expression" dxfId="24" priority="68">
       <formula>$B95=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="65">
-      <formula>$B95=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="66">
-      <formula>$B95=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77 O101">
-    <cfRule type="expression" dxfId="23" priority="125">
-      <formula>$B78=0</formula>
+    <cfRule type="expression" dxfId="23" priority="123">
+      <formula>$B78=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="124">
       <formula>$B78&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="123">
-      <formula>$B78=2</formula>
+    <cfRule type="expression" dxfId="21" priority="125">
+      <formula>$B78=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K78:Q81">
-    <cfRule type="expression" dxfId="20" priority="92">
-      <formula>$B78=0</formula>
+    <cfRule type="expression" dxfId="20" priority="89">
+      <formula>$B78=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="90">
       <formula>$B78=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="89">
-      <formula>$B78=3</formula>
+    <cfRule type="expression" dxfId="18" priority="91">
+      <formula>$B78&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="91">
-      <formula>$B78&lt;2</formula>
+    <cfRule type="expression" dxfId="17" priority="92">
+      <formula>$B78=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O101 J77">
@@ -8980,31 +8771,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q104">
-    <cfRule type="expression" dxfId="15" priority="52">
-      <formula>$B104=0</formula>
+    <cfRule type="expression" dxfId="15" priority="49">
+      <formula>$B104=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="50">
       <formula>$B104=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="49">
-      <formula>$B104=3</formula>
+    <cfRule type="expression" dxfId="13" priority="51">
+      <formula>$B104&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="51">
-      <formula>$B104&lt;2</formula>
+    <cfRule type="expression" dxfId="12" priority="52">
+      <formula>$B104=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q108:Q109">
-    <cfRule type="expression" dxfId="11" priority="48">
-      <formula>$B108=0</formula>
+    <cfRule type="expression" dxfId="11" priority="45">
+      <formula>$B108=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="47">
+    <cfRule type="expression" dxfId="10" priority="46">
+      <formula>$B108=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="47">
       <formula>$B108&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="46">
-      <formula>$B108=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="45">
-      <formula>$B108=3</formula>
+    <cfRule type="expression" dxfId="8" priority="48">
+      <formula>$B108=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q102:T103">
@@ -9035,49 +8826,37 @@
       <formula>$B72=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="14">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I155:I184 H124:H146" xr:uid="{0D656B1C-36BB-D24C-9DF1-8575D533B58B}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P169:P213 O2:O101 O103:O213" xr:uid="{7C199008-9AB6-6549-A861-AD474C13E949}">
+  <dataValidations count="10">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O101 O103:O122 O123:P130" xr:uid="{7C199008-9AB6-6549-A861-AD474C13E949}">
       <formula1>1950</formula1>
       <formula2>2025</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9 I11:I41 I45:I47 I49:I51 L1:L55 I55:I62 I64 L57:L63 L65:L70 I66:I71 H2:H86 H89:H90 H92:H94 I73:I99 H98:H123 I101:I154 L72:L1048576" xr:uid="{66ABF627-CC97-3E44-B6AC-09E441BED0CD}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9 I11:I41 I45:I47 I49:I51 L1:L55 I55:I62 I64 L57:L63 L65:L70 I66:I71 H2:H86 H89:H90 H92:H94 I73:I99 H98:H122 I101:I122 L72:L1048576" xr:uid="{66ABF627-CC97-3E44-B6AC-09E441BED0CD}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K380:K390" xr:uid="{9E6037A9-5EC7-2945-A2FE-1723BA7DEE83}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K297:K307" xr:uid="{9E6037A9-5EC7-2945-A2FE-1723BA7DEE83}">
       <formula1>"Land Area, Power MWe, Excavation Volume,  Reactor Building Slab Roof Volume,	Reactor Building  Basement Volume, Reactor Building  Exterior Walls Volume,		Turbine Building Slab Roof Volume,	Turbine Building  Basement Volume,	Turbine Building  Exterior Wall"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 J124:J1048576" xr:uid="{EEDF1E2A-32DC-6242-8EBD-BD01BBD19C77}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 J123:J1048576" xr:uid="{EEDF1E2A-32DC-6242-8EBD-BD01BBD19C77}">
       <formula1>"$/acres, $/MWe, $/m^3, $/MWt"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10 E14 E18:E19 E23 E27:E29 E33 E37:E38 E43:E44 E48 E52:E54 E59 E66 E71:E123" xr:uid="{E571E7A1-C2F9-2E4D-99A9-8FA0C5D45C39}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10 E14 E18:E19 E23 E27:E29 E33 E37:E38 E43:E44 E48 E52:E54 E59 E66 E71:E122" xr:uid="{E571E7A1-C2F9-2E4D-99A9-8FA0C5D45C39}">
       <formula1>"standard, nonstandard"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N123" xr:uid="{1C0096F5-23AB-5A48-8F14-E27BC72A38A6}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N122" xr:uid="{1C0096F5-23AB-5A48-8F14-E27BC72A38A6}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M123" xr:uid="{127B7473-9D01-354E-A3BD-12180E660A5C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M122" xr:uid="{127B7473-9D01-354E-A3BD-12180E660A5C}">
       <formula1>"acres, MWe, m^3, MWt, Kg, Drums, kW, $"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P123" xr:uid="{7E44D5D7-AB3F-D340-AE9A-F65BCE5B6A48}">
-      <formula1>"General, Labor, Material, Equipment,Lab and Mat and Equip, 'Lab and Equip"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J123" xr:uid="{0FCCEC2F-487A-5A42-9C52-ED538456C753}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J122" xr:uid="{0FCCEC2F-487A-5A42-9C52-ED538456C753}">
       <formula1>"$/acres, $/MWe, $/m^3, $/MWt, $/Kg, $/Drum, $/(kg.sec), $/SWU, unitless"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P122" xr:uid="{17DDFD40-D97D-B64B-BD3B-AEAF52F6302C}">
       <formula1>"NA, General, Labor, Material, Equipment,Lab and Mat and Equip, 'Lab and Equip"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P124:P168" xr:uid="{F4F53CC5-25AF-5B42-8EEF-6E8D6F9FC73C}">
-      <formula1>"General, Labor, Material, Equipment,Lab and Mat and Equip"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M124:M146" xr:uid="{19C103B6-865E-F94F-B938-0317482E5B19}">
-      <formula1>"acres, MWe, m^3"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N124:N359" xr:uid="{6D536505-A5B6-E145-A4B9-9C3C8E6B8527}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N123:N276" xr:uid="{6D536505-A5B6-E145-A4B9-9C3C8E6B8527}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -9110,20 +8889,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="130" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="143" t="s">
+      <c r="C1" s="132" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="141"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="144"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="133"/>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="62">
@@ -10031,12 +9810,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="134" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
     </row>
     <row r="3" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
@@ -10093,12 +9872,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="145" t="s">
+      <c r="A7" s="134" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="147"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="136"/>
     </row>
     <row r="8" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
@@ -10157,12 +9936,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="145" t="s">
+      <c r="A12" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="146"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="147"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="136"/>
     </row>
     <row r="13" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
@@ -10261,12 +10040,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="145" t="s">
+      <c r="A20" s="134" t="s">
         <v>276</v>
       </c>
-      <c r="B20" s="146"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="147"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="136"/>
     </row>
     <row r="21" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
@@ -10395,12 +10174,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="145" t="s">
+      <c r="A30" s="134" t="s">
         <v>289</v>
       </c>
-      <c r="B30" s="146"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="147"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="136"/>
     </row>
     <row r="31" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
@@ -10475,12 +10254,12 @@
       <c r="D36" s="60"/>
     </row>
     <row r="37" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="145" t="s">
+      <c r="A37" s="134" t="s">
         <v>296</v>
       </c>
-      <c r="B37" s="146"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="147"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="136"/>
     </row>
     <row r="38" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
@@ -10567,12 +10346,12 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="145" t="s">
+      <c r="A44" s="134" t="s">
         <v>309</v>
       </c>
-      <c r="B44" s="146"/>
-      <c r="C44" s="146"/>
-      <c r="D44" s="147"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="136"/>
     </row>
     <row r="45" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
@@ -10589,12 +10368,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="145" t="s">
+      <c r="A46" s="134" t="s">
         <v>312</v>
       </c>
-      <c r="B46" s="146"/>
-      <c r="C46" s="146"/>
-      <c r="D46" s="147"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="136"/>
     </row>
     <row r="47" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
@@ -10639,12 +10418,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="145" t="s">
+      <c r="A50" s="134" t="s">
         <v>319</v>
       </c>
-      <c r="B50" s="146"/>
-      <c r="C50" s="146"/>
-      <c r="D50" s="147"/>
+      <c r="B50" s="135"/>
+      <c r="C50" s="135"/>
+      <c r="D50" s="136"/>
     </row>
     <row r="51" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="54" t="s">

--- a/cost/Cost_Database.xlsx
+++ b/cost/Cost_Database.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannbn/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC55CF2-00E4-E140-8D46-3C15D721685B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692ACE91-ADA2-F441-8D30-877F9DB982BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Database" sheetId="2" r:id="rId1"/>
     <sheet name="MARVEL_Cost" sheetId="4" r:id="rId2"/>
     <sheet name="Design Variables" sheetId="6" r:id="rId3"/>
     <sheet name="Inflation Adjustment" sheetId="3" r:id="rId4"/>
+    <sheet name="Economics Parameters" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="CRF">#REF!</definedName>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="416">
   <si>
     <t>Account</t>
   </si>
@@ -1496,6 +1497,57 @@
   </si>
   <si>
     <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>indirect to direct field-related cost</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>$/FTE</t>
+  </si>
+  <si>
+    <t>Number of Operators</t>
+  </si>
+  <si>
+    <t>de Candido, I., A. Al Rashdan, A. Abou-Jaoude, and J. Buongiorno. 2024. “Assessment of Technoeconomic Opportunities in Automation for Nuclear Microreactors.” Nuclear Science and Engineering, 1–20. https://doi.org/10.1080/00295639.2024.2372511.</t>
+  </si>
+  <si>
+    <t>Work Hours Per Shift</t>
+  </si>
+  <si>
+    <t>Reactors Monitored Per Operator</t>
+  </si>
+  <si>
+    <t>Operation Mode</t>
+  </si>
+  <si>
+    <t>Autonomous</t>
+  </si>
+  <si>
+    <t>Security Staff Per Shift</t>
+  </si>
+  <si>
+    <t>FTEs Per Onsite Operator (24/7)</t>
+  </si>
+  <si>
+    <t>FTEs Per Offsite Operator (24/7)</t>
+  </si>
+  <si>
+    <t>FTEs Per Security Staff (24/7)</t>
+  </si>
+  <si>
+    <t>Hours Per FTE</t>
+  </si>
+  <si>
+    <t>Maintenance to Direct Cost Ratio</t>
+  </si>
+  <si>
+    <t>$/MWeHour</t>
+  </si>
+  <si>
+    <t>Annual Electricity Production</t>
   </si>
 </sst>
 </file>
@@ -1954,7 +2006,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2202,25 +2254,12 @@
     <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2229,37 +2268,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2288,6 +2300,51 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2318,12 +2375,174 @@
     <cellStyle name="Normal 2" xfId="4" xr:uid="{E15291B7-9068-3147-AE9D-D55638463741}"/>
     <cellStyle name="Normal 2 5" xfId="3" xr:uid="{D5427F60-54E8-014E-9224-5454BAE094F2}"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="85">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2369,9 +2588,15 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2392,6 +2617,60 @@
           <bgColor rgb="FFFFFFBA"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -2430,9 +2709,83 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2462,22 +2815,16 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFFFFBA"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2490,7 +2837,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2504,7 +2858,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2517,7 +2871,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2531,7 +2885,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2544,7 +2898,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2558,7 +2912,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2571,7 +2925,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2585,7 +2939,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2594,189 +2948,6 @@
         <b/>
         <i val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3198,9 +3369,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5330BDA-7164-B946-A942-FFAE4F744BBA}">
   <dimension ref="A1:Z122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="63" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C126" sqref="C126"/>
+      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3210,7 +3381,7 @@
     <col min="3" max="3" width="29.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="41.83203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="7" customWidth="1"/>
     <col min="7" max="7" width="10" style="7" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="6" customWidth="1"/>
     <col min="9" max="9" width="11" style="6" customWidth="1"/>
@@ -3380,10 +3551,10 @@
       <c r="Q3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="109" t="s">
+      <c r="R3" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="S3" s="113" t="s">
+      <c r="S3" s="122" t="s">
         <v>56</v>
       </c>
       <c r="T3" s="26"/>
@@ -3433,8 +3604,8 @@
       <c r="Q4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="109"/>
-      <c r="S4" s="113"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="122"/>
       <c r="T4" s="26"/>
     </row>
     <row r="5" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3476,10 +3647,10 @@
       <c r="Q5" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="109" t="s">
+      <c r="R5" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="S5" s="113" t="s">
+      <c r="S5" s="122" t="s">
         <v>59</v>
       </c>
       <c r="T5" s="26"/>
@@ -3522,8 +3693,8 @@
       <c r="Q6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="109"/>
-      <c r="S6" s="113"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="122"/>
       <c r="T6" s="26"/>
     </row>
     <row r="7" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3720,13 +3891,13 @@
       <c r="P11" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="105" t="s">
+      <c r="Q11" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="R11" s="109" t="s">
+      <c r="R11" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="S11" s="114" t="s">
+      <c r="S11" s="107" t="s">
         <v>84</v>
       </c>
       <c r="T11" s="26"/>
@@ -3780,9 +3951,9 @@
       <c r="P12" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" s="105"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="115"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="108"/>
       <c r="T12" s="26"/>
     </row>
     <row r="13" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3827,9 +3998,9 @@
       <c r="P13" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="105"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="115"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="108"/>
       <c r="T13" s="26"/>
     </row>
     <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3905,13 +4076,13 @@
       <c r="P15" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q15" s="105" t="s">
+      <c r="Q15" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="109" t="s">
+      <c r="R15" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="S15" s="114" t="s">
+      <c r="S15" s="107" t="s">
         <v>84</v>
       </c>
       <c r="T15" s="26"/>
@@ -3958,9 +4129,9 @@
       <c r="P16" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="115"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="108"/>
       <c r="T16" s="26"/>
     </row>
     <row r="17" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4005,9 +4176,9 @@
       <c r="P17" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q17" s="105"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="115"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="106"/>
+      <c r="S17" s="108"/>
       <c r="T17" s="26"/>
     </row>
     <row r="18" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4116,13 +4287,13 @@
       <c r="P20" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q20" s="105" t="s">
+      <c r="Q20" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="R20" s="109" t="s">
+      <c r="R20" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="S20" s="114" t="s">
+      <c r="S20" s="107" t="s">
         <v>84</v>
       </c>
       <c r="T20" s="26"/>
@@ -4169,9 +4340,9 @@
       <c r="P21" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q21" s="105"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="115"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="106"/>
+      <c r="S21" s="108"/>
       <c r="T21" s="26"/>
     </row>
     <row r="22" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4216,9 +4387,9 @@
       <c r="P22" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="105"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="115"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="106"/>
+      <c r="S22" s="108"/>
       <c r="T22" s="26"/>
     </row>
     <row r="23" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4295,13 +4466,13 @@
       <c r="P24" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q24" s="105" t="s">
+      <c r="Q24" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="R24" s="109" t="s">
+      <c r="R24" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="114" t="s">
+      <c r="S24" s="107" t="s">
         <v>84</v>
       </c>
       <c r="T24" s="26"/>
@@ -4348,9 +4519,9 @@
       <c r="P25" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q25" s="105"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="115"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="108"/>
       <c r="T25" s="26"/>
     </row>
     <row r="26" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4395,9 +4566,9 @@
       <c r="P26" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q26" s="105"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="115"/>
+      <c r="Q26" s="118"/>
+      <c r="R26" s="106"/>
+      <c r="S26" s="108"/>
       <c r="T26" s="26"/>
     </row>
     <row r="27" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4538,13 +4709,13 @@
       <c r="P30" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q30" s="104" t="s">
+      <c r="Q30" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="R30" s="110" t="s">
+      <c r="R30" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="S30" s="119" t="s">
+      <c r="S30" s="126" t="s">
         <v>84</v>
       </c>
       <c r="T30" s="85"/>
@@ -4591,9 +4762,9 @@
       <c r="P31" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="110"/>
-      <c r="S31" s="120"/>
+      <c r="Q31" s="129"/>
+      <c r="R31" s="128"/>
+      <c r="S31" s="127"/>
       <c r="T31" s="85"/>
     </row>
     <row r="32" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -4638,9 +4809,9 @@
       <c r="P32" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="110"/>
-      <c r="S32" s="120"/>
+      <c r="Q32" s="129"/>
+      <c r="R32" s="128"/>
+      <c r="S32" s="127"/>
       <c r="T32" s="85"/>
     </row>
     <row r="33" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4717,13 +4888,13 @@
       <c r="P34" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q34" s="104" t="s">
+      <c r="Q34" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="R34" s="110" t="s">
+      <c r="R34" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="S34" s="119" t="s">
+      <c r="S34" s="126" t="s">
         <v>84</v>
       </c>
       <c r="T34" s="85"/>
@@ -4770,9 +4941,9 @@
       <c r="P35" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q35" s="104"/>
-      <c r="R35" s="110"/>
-      <c r="S35" s="120"/>
+      <c r="Q35" s="129"/>
+      <c r="R35" s="128"/>
+      <c r="S35" s="127"/>
       <c r="T35" s="85"/>
     </row>
     <row r="36" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -4817,9 +4988,9 @@
       <c r="P36" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q36" s="104"/>
-      <c r="R36" s="110"/>
-      <c r="S36" s="120"/>
+      <c r="Q36" s="129"/>
+      <c r="R36" s="128"/>
+      <c r="S36" s="127"/>
       <c r="T36" s="85"/>
     </row>
     <row r="37" spans="1:20" ht="30" thickBot="1" x14ac:dyDescent="0.25">
@@ -4928,13 +5099,13 @@
       <c r="P39" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q39" s="104" t="s">
+      <c r="Q39" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="R39" s="110" t="s">
+      <c r="R39" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="S39" s="119" t="s">
+      <c r="S39" s="126" t="s">
         <v>84</v>
       </c>
       <c r="T39" s="85"/>
@@ -4981,9 +5152,9 @@
       <c r="P40" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q40" s="104"/>
-      <c r="R40" s="110"/>
-      <c r="S40" s="120"/>
+      <c r="Q40" s="129"/>
+      <c r="R40" s="128"/>
+      <c r="S40" s="127"/>
       <c r="T40" s="85"/>
     </row>
     <row r="41" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -5028,9 +5199,9 @@
       <c r="P41" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q41" s="104"/>
-      <c r="R41" s="110"/>
-      <c r="S41" s="120"/>
+      <c r="Q41" s="129"/>
+      <c r="R41" s="128"/>
+      <c r="S41" s="127"/>
       <c r="T41" s="85"/>
     </row>
     <row r="42" spans="1:20" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5197,13 +5368,13 @@
       <c r="P45" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q45" s="105" t="s">
+      <c r="Q45" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="R45" s="109" t="s">
+      <c r="R45" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="S45" s="114" t="s">
+      <c r="S45" s="107" t="s">
         <v>84</v>
       </c>
       <c r="T45" s="26"/>
@@ -5250,9 +5421,9 @@
       <c r="P46" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q46" s="105"/>
-      <c r="R46" s="109"/>
-      <c r="S46" s="115"/>
+      <c r="Q46" s="118"/>
+      <c r="R46" s="106"/>
+      <c r="S46" s="108"/>
       <c r="T46" s="26"/>
     </row>
     <row r="47" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -5297,9 +5468,9 @@
       <c r="P47" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q47" s="105"/>
-      <c r="R47" s="109"/>
-      <c r="S47" s="115"/>
+      <c r="Q47" s="118"/>
+      <c r="R47" s="106"/>
+      <c r="S47" s="108"/>
       <c r="T47" s="26"/>
     </row>
     <row r="48" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5376,13 +5547,13 @@
       <c r="P49" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q49" s="105" t="s">
+      <c r="Q49" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="R49" s="109" t="s">
+      <c r="R49" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="S49" s="114" t="s">
+      <c r="S49" s="107" t="s">
         <v>84</v>
       </c>
       <c r="T49" s="26"/>
@@ -5429,9 +5600,9 @@
       <c r="P50" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q50" s="105"/>
-      <c r="R50" s="109"/>
-      <c r="S50" s="115"/>
+      <c r="Q50" s="118"/>
+      <c r="R50" s="106"/>
+      <c r="S50" s="108"/>
       <c r="T50" s="26"/>
     </row>
     <row r="51" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -5476,9 +5647,9 @@
       <c r="P51" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q51" s="105"/>
-      <c r="R51" s="109"/>
-      <c r="S51" s="115"/>
+      <c r="Q51" s="118"/>
+      <c r="R51" s="106"/>
+      <c r="S51" s="108"/>
       <c r="T51" s="26"/>
     </row>
     <row r="52" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5627,10 +5798,10 @@
       <c r="Q55" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="R55" s="116" t="s">
+      <c r="R55" s="123" t="s">
         <v>179</v>
       </c>
-      <c r="S55" s="121" t="s">
+      <c r="S55" s="109" t="s">
         <v>183</v>
       </c>
       <c r="T55" s="42" t="s">
@@ -5687,8 +5858,8 @@
       <c r="Q56" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="R56" s="117"/>
-      <c r="S56" s="122"/>
+      <c r="R56" s="124"/>
+      <c r="S56" s="110"/>
       <c r="T56" s="26"/>
     </row>
     <row r="57" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5744,8 +5915,8 @@
       <c r="Q57" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="R57" s="118"/>
-      <c r="S57" s="123"/>
+      <c r="R57" s="125"/>
+      <c r="S57" s="111"/>
       <c r="T57" s="42" t="s">
         <v>182</v>
       </c>
@@ -5855,10 +6026,10 @@
       <c r="Q60" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R60" s="124" t="s">
+      <c r="R60" s="112" t="s">
         <v>179</v>
       </c>
-      <c r="S60" s="127" t="s">
+      <c r="S60" s="115" t="s">
         <v>352</v>
       </c>
       <c r="T60" s="90" t="s">
@@ -5904,8 +6075,8 @@
       <c r="Q61" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R61" s="125"/>
-      <c r="S61" s="128"/>
+      <c r="R61" s="113"/>
+      <c r="S61" s="116"/>
       <c r="T61" s="85"/>
     </row>
     <row r="62" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5962,8 +6133,8 @@
       <c r="Q62" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R62" s="125"/>
-      <c r="S62" s="128"/>
+      <c r="R62" s="113"/>
+      <c r="S62" s="116"/>
       <c r="T62" s="85"/>
     </row>
     <row r="63" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6020,8 +6191,8 @@
       <c r="Q63" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R63" s="126"/>
-      <c r="S63" s="129"/>
+      <c r="R63" s="114"/>
+      <c r="S63" s="117"/>
       <c r="T63" s="85"/>
     </row>
     <row r="64" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6111,10 +6282,10 @@
       <c r="Q65" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="R65" s="116" t="s">
+      <c r="R65" s="123" t="s">
         <v>179</v>
       </c>
-      <c r="S65" s="121" t="s">
+      <c r="S65" s="109" t="s">
         <v>183</v>
       </c>
       <c r="T65" s="26"/>
@@ -6147,8 +6318,8 @@
       <c r="O66" s="26"/>
       <c r="P66" s="26"/>
       <c r="Q66" s="42"/>
-      <c r="R66" s="117"/>
-      <c r="S66" s="122"/>
+      <c r="R66" s="124"/>
+      <c r="S66" s="110"/>
       <c r="T66" s="26"/>
     </row>
     <row r="67" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6208,8 +6379,8 @@
       <c r="Q67" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R67" s="117"/>
-      <c r="S67" s="122"/>
+      <c r="R67" s="124"/>
+      <c r="S67" s="110"/>
       <c r="T67" s="85"/>
     </row>
     <row r="68" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6265,8 +6436,8 @@
       <c r="Q68" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R68" s="118"/>
-      <c r="S68" s="123"/>
+      <c r="R68" s="125"/>
+      <c r="S68" s="111"/>
       <c r="T68" s="85"/>
     </row>
     <row r="69" spans="1:20" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6491,13 +6662,13 @@
       <c r="Q73" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="R73" s="106" t="s">
+      <c r="R73" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="S73" s="111" t="s">
+      <c r="S73" s="120" t="s">
         <v>355</v>
       </c>
-      <c r="T73" s="106"/>
+      <c r="T73" s="104"/>
     </row>
     <row r="74" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30">
@@ -6547,9 +6718,9 @@
       <c r="Q74" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="R74" s="108"/>
-      <c r="S74" s="112"/>
-      <c r="T74" s="108"/>
+      <c r="R74" s="105"/>
+      <c r="S74" s="121"/>
+      <c r="T74" s="105"/>
     </row>
     <row r="75" spans="1:20" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30">
@@ -7501,10 +7672,10 @@
       <c r="P95" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q95" s="106" t="s">
+      <c r="Q95" s="104" t="s">
         <v>387</v>
       </c>
-      <c r="R95" s="106" t="s">
+      <c r="R95" s="104" t="s">
         <v>388</v>
       </c>
       <c r="S95" s="26"/>
@@ -7549,8 +7720,8 @@
       <c r="P96" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q96" s="107"/>
-      <c r="R96" s="107"/>
+      <c r="Q96" s="119"/>
+      <c r="R96" s="119"/>
       <c r="S96" s="26"/>
       <c r="T96" s="26"/>
     </row>
@@ -7595,8 +7766,8 @@
       <c r="P97" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q97" s="107"/>
-      <c r="R97" s="107"/>
+      <c r="Q97" s="119"/>
+      <c r="R97" s="119"/>
       <c r="S97" s="26"/>
       <c r="T97" s="26"/>
     </row>
@@ -7643,8 +7814,8 @@
       <c r="P98" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q98" s="107"/>
-      <c r="R98" s="107"/>
+      <c r="Q98" s="119"/>
+      <c r="R98" s="119"/>
       <c r="S98" s="26"/>
       <c r="T98" s="26"/>
     </row>
@@ -7698,8 +7869,8 @@
       <c r="P99" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q99" s="108"/>
-      <c r="R99" s="108"/>
+      <c r="Q99" s="105"/>
+      <c r="R99" s="105"/>
       <c r="S99" s="26"/>
       <c r="T99" s="26"/>
     </row>
@@ -7884,7 +8055,7 @@
       <c r="P104" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="Q104" s="101" t="s">
+      <c r="Q104" s="130" t="s">
         <v>379</v>
       </c>
       <c r="R104" s="24"/>
@@ -7933,7 +8104,7 @@
       <c r="P105" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="Q105" s="102"/>
+      <c r="Q105" s="131"/>
       <c r="R105" s="24"/>
       <c r="S105" s="24"/>
       <c r="T105" s="24"/>
@@ -7980,7 +8151,7 @@
       <c r="P106" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q106" s="102"/>
+      <c r="Q106" s="131"/>
       <c r="R106" s="26"/>
       <c r="S106" s="26"/>
       <c r="T106" s="26"/>
@@ -8022,7 +8193,7 @@
       <c r="P107" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q107" s="103"/>
+      <c r="Q107" s="132"/>
       <c r="R107" s="26"/>
       <c r="S107" s="26"/>
       <c r="T107" s="26"/>
@@ -8237,7 +8408,7 @@
       <c r="T113" s="26"/>
       <c r="U113" s="12"/>
     </row>
-    <row r="114" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="36">
         <v>711</v>
       </c>
@@ -8252,20 +8423,36 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve">            Operators </v>
       </c>
-      <c r="E114" s="19"/>
+      <c r="E114" s="19" t="s">
+        <v>351</v>
+      </c>
       <c r="F114" s="19"/>
       <c r="G114" s="19"/>
       <c r="H114" s="24"/>
-      <c r="I114" s="69"/>
-      <c r="J114" s="26"/>
-      <c r="K114" s="42"/>
+      <c r="I114" s="69">
+        <v>178500</v>
+      </c>
+      <c r="J114" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="K114" s="42" t="s">
+        <v>402</v>
+      </c>
       <c r="L114" s="26"/>
       <c r="M114" s="26"/>
-      <c r="N114" s="26"/>
-      <c r="O114" s="26"/>
-      <c r="P114" s="26"/>
+      <c r="N114" s="26">
+        <v>1</v>
+      </c>
+      <c r="O114" s="26">
+        <v>2024</v>
+      </c>
+      <c r="P114" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="Q114" s="42"/>
-      <c r="R114" s="26"/>
+      <c r="R114" s="102" t="s">
+        <v>403</v>
+      </c>
       <c r="S114" s="26"/>
       <c r="T114" s="26"/>
       <c r="U114" s="12"/>
@@ -8285,25 +8472,45 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve">            Remote Monitoring Technicians </v>
       </c>
-      <c r="E115" s="19"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
+      <c r="E115" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="F115" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="G115" s="19" t="s">
+        <v>407</v>
+      </c>
       <c r="H115" s="24"/>
-      <c r="I115" s="69"/>
-      <c r="J115" s="26"/>
-      <c r="K115" s="42"/>
+      <c r="I115" s="69">
+        <v>178500</v>
+      </c>
+      <c r="J115" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="K115" s="42" t="s">
+        <v>405</v>
+      </c>
       <c r="L115" s="26"/>
       <c r="M115" s="26"/>
-      <c r="N115" s="26"/>
-      <c r="O115" s="26"/>
-      <c r="P115" s="26"/>
+      <c r="N115" s="26">
+        <v>1</v>
+      </c>
+      <c r="O115" s="26">
+        <v>2024</v>
+      </c>
+      <c r="P115" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="Q115" s="42"/>
-      <c r="R115" s="26"/>
+      <c r="R115" s="102" t="s">
+        <v>403</v>
+      </c>
       <c r="S115" s="26"/>
       <c r="T115" s="26"/>
       <c r="U115" s="12"/>
     </row>
-    <row r="116" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="36">
         <v>713</v>
       </c>
@@ -8318,20 +8525,36 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve">            Security Staff </v>
       </c>
-      <c r="E116" s="19"/>
+      <c r="E116" s="19" t="s">
+        <v>351</v>
+      </c>
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
       <c r="H116" s="24"/>
-      <c r="I116" s="69"/>
-      <c r="J116" s="26"/>
-      <c r="K116" s="42"/>
+      <c r="I116" s="69">
+        <v>178500</v>
+      </c>
+      <c r="J116" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="K116" s="42" t="s">
+        <v>408</v>
+      </c>
       <c r="L116" s="26"/>
       <c r="M116" s="26"/>
-      <c r="N116" s="26"/>
-      <c r="O116" s="26"/>
-      <c r="P116" s="26"/>
+      <c r="N116" s="26">
+        <v>1</v>
+      </c>
+      <c r="O116" s="26">
+        <v>2024</v>
+      </c>
+      <c r="P116" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="Q116" s="42"/>
-      <c r="R116" s="26"/>
+      <c r="R116" s="102" t="s">
+        <v>403</v>
+      </c>
       <c r="S116" s="26"/>
       <c r="T116" s="26"/>
       <c r="U116" s="12"/>
@@ -8384,20 +8607,37 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve">      Annualized Decommissioning Cost</v>
       </c>
-      <c r="E118" s="19"/>
+      <c r="E118" s="19" t="s">
+        <v>351</v>
+      </c>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
       <c r="H118" s="24"/>
-      <c r="I118" s="69"/>
-      <c r="J118" s="26"/>
-      <c r="K118" s="42"/>
+      <c r="I118" s="69">
+        <f>1000*1144</f>
+        <v>1144000</v>
+      </c>
+      <c r="J118" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="K118" s="23" t="s">
+        <v>71</v>
+      </c>
       <c r="L118" s="26"/>
       <c r="M118" s="26"/>
-      <c r="N118" s="26"/>
-      <c r="O118" s="26"/>
-      <c r="P118" s="26"/>
+      <c r="N118" s="26">
+        <v>1</v>
+      </c>
+      <c r="O118" s="26">
+        <v>2024</v>
+      </c>
+      <c r="P118" s="103" t="s">
+        <v>85</v>
+      </c>
       <c r="Q118" s="42"/>
-      <c r="R118" s="26"/>
+      <c r="R118" t="s">
+        <v>344</v>
+      </c>
       <c r="S118" s="26"/>
       <c r="T118" s="26"/>
       <c r="U118" s="12"/>
@@ -8434,7 +8674,7 @@
       <c r="S119" s="17"/>
       <c r="T119" s="17"/>
     </row>
-    <row r="120" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="21">
         <v>81</v>
       </c>
@@ -8449,20 +8689,36 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve">      Refueling Operations</v>
       </c>
-      <c r="E120" s="19"/>
+      <c r="E120" s="19" t="s">
+        <v>351</v>
+      </c>
       <c r="F120" s="19"/>
       <c r="G120" s="19"/>
       <c r="H120" s="24"/>
-      <c r="I120" s="69"/>
-      <c r="J120" s="26"/>
-      <c r="K120" s="42"/>
+      <c r="I120" s="69">
+        <v>178500</v>
+      </c>
+      <c r="J120" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="K120" s="42" t="s">
+        <v>402</v>
+      </c>
       <c r="L120" s="26"/>
       <c r="M120" s="26"/>
-      <c r="N120" s="26"/>
-      <c r="O120" s="26"/>
-      <c r="P120" s="26"/>
+      <c r="N120" s="26">
+        <v>1</v>
+      </c>
+      <c r="O120" s="26">
+        <v>2024</v>
+      </c>
+      <c r="P120" s="103" t="s">
+        <v>72</v>
+      </c>
       <c r="Q120" s="42"/>
-      <c r="R120" s="26"/>
+      <c r="R120" s="102" t="s">
+        <v>403</v>
+      </c>
       <c r="S120" s="26"/>
       <c r="T120" s="26"/>
     </row>
@@ -8498,7 +8754,7 @@
       <c r="S121" s="26"/>
       <c r="T121" s="26"/>
     </row>
-    <row r="122" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="21">
         <v>83</v>
       </c>
@@ -8513,18 +8769,32 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve">      Spent Fuel Management</v>
       </c>
-      <c r="E122" s="19"/>
+      <c r="E122" s="19" t="s">
+        <v>350</v>
+      </c>
       <c r="F122" s="19"/>
       <c r="G122" s="19"/>
       <c r="H122" s="24"/>
-      <c r="I122" s="69"/>
-      <c r="J122" s="26"/>
-      <c r="K122" s="42"/>
+      <c r="I122" s="69">
+        <v>1</v>
+      </c>
+      <c r="J122" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="K122" s="42" t="s">
+        <v>415</v>
+      </c>
       <c r="L122" s="26"/>
       <c r="M122" s="26"/>
-      <c r="N122" s="26"/>
-      <c r="O122" s="26"/>
-      <c r="P122" s="26"/>
+      <c r="N122" s="26">
+        <v>1</v>
+      </c>
+      <c r="O122" s="26">
+        <v>2024</v>
+      </c>
+      <c r="P122" s="26" t="s">
+        <v>77</v>
+      </c>
       <c r="Q122" s="42"/>
       <c r="R122" s="26"/>
       <c r="S122" s="26"/>
@@ -8532,20 +8802,19 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="T73:T74"/>
-    <mergeCell ref="R45:R47"/>
-    <mergeCell ref="R49:R51"/>
-    <mergeCell ref="S45:S47"/>
-    <mergeCell ref="S49:S51"/>
-    <mergeCell ref="S65:S68"/>
-    <mergeCell ref="R60:R63"/>
-    <mergeCell ref="S60:S63"/>
-    <mergeCell ref="Q15:Q17"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="R15:R17"/>
-    <mergeCell ref="S15:S17"/>
+    <mergeCell ref="Q104:Q107"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="Q45:Q47"/>
+    <mergeCell ref="Q49:Q51"/>
+    <mergeCell ref="Q95:Q99"/>
+    <mergeCell ref="R24:R26"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="R34:R36"/>
+    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="Q34:Q36"/>
     <mergeCell ref="R95:R99"/>
     <mergeCell ref="R73:R74"/>
     <mergeCell ref="S73:S74"/>
@@ -8562,148 +8831,163 @@
     <mergeCell ref="S55:S57"/>
     <mergeCell ref="S39:S41"/>
     <mergeCell ref="R20:R22"/>
-    <mergeCell ref="R24:R26"/>
-    <mergeCell ref="R30:R32"/>
-    <mergeCell ref="R34:R36"/>
-    <mergeCell ref="R39:R41"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="Q24:Q26"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="Q34:Q36"/>
-    <mergeCell ref="Q104:Q107"/>
-    <mergeCell ref="Q39:Q41"/>
-    <mergeCell ref="Q45:Q47"/>
-    <mergeCell ref="Q49:Q51"/>
-    <mergeCell ref="Q95:Q99"/>
+    <mergeCell ref="Q15:Q17"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="S15:S17"/>
+    <mergeCell ref="T73:T74"/>
+    <mergeCell ref="R45:R47"/>
+    <mergeCell ref="R49:R51"/>
+    <mergeCell ref="S45:S47"/>
+    <mergeCell ref="S49:S51"/>
+    <mergeCell ref="S65:S68"/>
+    <mergeCell ref="R60:R63"/>
+    <mergeCell ref="S60:S63"/>
   </mergeCells>
-  <conditionalFormatting sqref="A73:F75 L95:T95 L96:P96 S96:T100 I97:P97 A100:R100 R104:T109 A110:T122">
-    <cfRule type="expression" dxfId="67" priority="105">
-      <formula>$B73=3</formula>
+  <conditionalFormatting sqref="A73:F75 L95:T95 L96:P96 S96:T100 I97:P97 A100:R100 R104:T109 A110:T113 A114:H115 A116:J116 A117:T117 S118:T118 A119:T119 A121:T122 A120:J120 L120:Q120 S120:T120">
+    <cfRule type="expression" dxfId="84" priority="140">
+      <formula>$B73=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="106">
+    <cfRule type="expression" dxfId="83" priority="139">
+      <formula>$B73&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="138">
       <formula>$B73=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="107">
-      <formula>$B73&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="108">
-      <formula>$B73=0</formula>
+    <cfRule type="expression" dxfId="81" priority="137">
+      <formula>$B73=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:H97">
-    <cfRule type="expression" dxfId="63" priority="69">
-      <formula>$B95=3</formula>
+    <cfRule type="expression" dxfId="80" priority="104">
+      <formula>$B95=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="70">
+    <cfRule type="expression" dxfId="79" priority="103">
+      <formula>$B95&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="102">
       <formula>$B95=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="71">
-      <formula>$B95&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="72">
-      <formula>$B95=0</formula>
+    <cfRule type="expression" dxfId="77" priority="101">
+      <formula>$B95=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:I81">
-    <cfRule type="expression" dxfId="59" priority="93">
-      <formula>$B77=3</formula>
+    <cfRule type="expression" dxfId="76" priority="128">
+      <formula>$B77=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="94">
+    <cfRule type="expression" dxfId="75" priority="127">
+      <formula>$B77&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="126">
       <formula>$B77=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="95">
-      <formula>$B77&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="96">
-      <formula>$B77=0</formula>
+    <cfRule type="expression" dxfId="73" priority="125">
+      <formula>$B77=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:P99">
-    <cfRule type="expression" dxfId="55" priority="53">
-      <formula>$B98=3</formula>
+    <cfRule type="expression" dxfId="72" priority="88">
+      <formula>$B98=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="54">
+    <cfRule type="expression" dxfId="71" priority="87">
+      <formula>$B98&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="86">
       <formula>$B98=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="55">
-      <formula>$B98&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="56">
-      <formula>$B98=0</formula>
+    <cfRule type="expression" dxfId="69" priority="85">
+      <formula>$B98=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:P109">
-    <cfRule type="expression" dxfId="51" priority="1">
+    <cfRule type="expression" dxfId="68" priority="33">
       <formula>$B102=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="2">
+    <cfRule type="expression" dxfId="67" priority="36">
+      <formula>$B102=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="35">
+      <formula>$B102&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="34">
       <formula>$B102=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="3">
-      <formula>$B102&lt;2</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118:Q118">
+    <cfRule type="expression" dxfId="64" priority="5">
+      <formula>$B118=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="4">
-      <formula>$B102=0</formula>
+    <cfRule type="expression" dxfId="63" priority="6">
+      <formula>$B118=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="7">
+      <formula>$B118&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="8">
+      <formula>$B118=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:S72">
-    <cfRule type="expression" dxfId="47" priority="109">
-      <formula>$B72=3</formula>
+    <cfRule type="expression" dxfId="60" priority="144">
+      <formula>$B72=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="110">
+    <cfRule type="expression" dxfId="59" priority="143">
+      <formula>$B72&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="142">
       <formula>$B72=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="111">
-      <formula>$B72&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="112">
-      <formula>$B72=0</formula>
+    <cfRule type="expression" dxfId="57" priority="141">
+      <formula>$B72=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T71 T72:T75 H73:R73 H74:Q74 G75:Q75 A76:T76 K77:T77 S78:T81">
-    <cfRule type="expression" dxfId="43" priority="113">
-      <formula>$B1=3</formula>
+    <cfRule type="expression" dxfId="56" priority="148">
+      <formula>$B1=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="114">
+    <cfRule type="expression" dxfId="55" priority="147">
+      <formula>$B1&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="146">
       <formula>$B1=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="115">
-      <formula>$B1&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="116">
-      <formula>$B1=0</formula>
+    <cfRule type="expression" dxfId="53" priority="145">
+      <formula>$B1=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:T94">
-    <cfRule type="expression" dxfId="39" priority="73">
+    <cfRule type="expression" dxfId="52" priority="105">
       <formula>$B82=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="74">
-      <formula>$B82=2</formula>
+    <cfRule type="expression" dxfId="51" priority="108">
+      <formula>$B82=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="75">
+    <cfRule type="expression" dxfId="50" priority="107">
       <formula>$B82&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="76">
-      <formula>$B82=0</formula>
+    <cfRule type="expression" dxfId="49" priority="106">
+      <formula>$B82=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:T101">
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="48" priority="69">
       <formula>$B101=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
+    <cfRule type="expression" dxfId="47" priority="70">
       <formula>$B101=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="39">
+    <cfRule type="expression" dxfId="46" priority="71">
       <formula>$B101&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="40">
+    <cfRule type="expression" dxfId="45" priority="72">
       <formula>$B101=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D122">
-    <cfRule type="colorScale" priority="165">
+    <cfRule type="colorScale" priority="197">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8713,125 +8997,176 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73:G74">
-    <cfRule type="expression" dxfId="31" priority="101">
+    <cfRule type="expression" dxfId="44" priority="133">
       <formula>$B73=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="102">
+    <cfRule type="expression" dxfId="43" priority="136">
+      <formula>$B73=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="135">
+      <formula>$B73&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="134">
       <formula>$B73=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="103">
-      <formula>$B73&lt;2</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I114:J115">
+    <cfRule type="expression" dxfId="40" priority="20">
+      <formula>$B115=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="104">
-      <formula>$B73=0</formula>
+    <cfRule type="expression" dxfId="39" priority="19">
+      <formula>$B115&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="18">
+      <formula>$B115=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="17">
+      <formula>$B115=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95:K96">
-    <cfRule type="expression" dxfId="27" priority="65">
+    <cfRule type="expression" dxfId="36" priority="97">
       <formula>$B95=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="66">
+    <cfRule type="expression" dxfId="35" priority="98">
       <formula>$B95=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="67">
+    <cfRule type="expression" dxfId="34" priority="99">
       <formula>$B95&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="68">
+    <cfRule type="expression" dxfId="33" priority="100">
       <formula>$B95=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77 O101">
-    <cfRule type="expression" dxfId="23" priority="123">
-      <formula>$B78=2</formula>
+    <cfRule type="expression" dxfId="32" priority="157">
+      <formula>$B78=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="124">
+    <cfRule type="expression" dxfId="31" priority="156">
       <formula>$B78&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="125">
-      <formula>$B78=0</formula>
+    <cfRule type="expression" dxfId="30" priority="155">
+      <formula>$B78=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K78:Q81">
-    <cfRule type="expression" dxfId="20" priority="89">
+    <cfRule type="expression" dxfId="29" priority="123">
+      <formula>$B78&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="124">
+      <formula>$B78=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="121">
       <formula>$B78=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="90">
+    <cfRule type="expression" dxfId="26" priority="122">
       <formula>$B78=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="91">
-      <formula>$B78&lt;2</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K114:Q116 S114:T116">
+    <cfRule type="expression" dxfId="25" priority="11">
+      <formula>$B114&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="92">
-      <formula>$B78=0</formula>
+    <cfRule type="expression" dxfId="24" priority="9">
+      <formula>$B114=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="10">
+      <formula>$B114=2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K114:Q116">
+    <cfRule type="expression" dxfId="22" priority="12">
+      <formula>$B114=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O101 J77">
-    <cfRule type="expression" dxfId="16" priority="122">
+    <cfRule type="expression" dxfId="21" priority="154">
       <formula>$B78=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q104">
-    <cfRule type="expression" dxfId="15" priority="49">
+    <cfRule type="expression" dxfId="20" priority="84">
+      <formula>$B104=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="81">
       <formula>$B104=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="50">
+    <cfRule type="expression" dxfId="18" priority="82">
       <formula>$B104=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="51">
+    <cfRule type="expression" dxfId="17" priority="83">
       <formula>$B104&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="52">
-      <formula>$B104=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q108:Q109">
-    <cfRule type="expression" dxfId="11" priority="45">
-      <formula>$B108=3</formula>
+    <cfRule type="expression" dxfId="16" priority="80">
+      <formula>$B108=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="46">
+    <cfRule type="expression" dxfId="15" priority="79">
+      <formula>$B108&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="78">
       <formula>$B108=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="47">
-      <formula>$B108&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="48">
-      <formula>$B108=0</formula>
+    <cfRule type="expression" dxfId="13" priority="77">
+      <formula>$B108=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q102:T103">
-    <cfRule type="expression" dxfId="7" priority="9">
-      <formula>$B102=3</formula>
+    <cfRule type="expression" dxfId="12" priority="44">
+      <formula>$B102=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="11" priority="43">
+      <formula>$B102&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="42">
       <formula>$B102=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="11">
-      <formula>$B102&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="12">
-      <formula>$B102=0</formula>
+    <cfRule type="expression" dxfId="9" priority="41">
+      <formula>$B102=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S73">
-    <cfRule type="expression" dxfId="3" priority="130">
+    <cfRule type="expression" dxfId="8" priority="162">
       <formula>$B72=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="131">
+    <cfRule type="expression" dxfId="7" priority="165">
+      <formula>$B72=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="164">
+      <formula>$B72&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="163">
       <formula>$B72=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="132">
-      <formula>$B72&lt;2</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S114:T116">
+    <cfRule type="expression" dxfId="4" priority="28">
+      <formula>$B114=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="133">
-      <formula>$B72=0</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K120">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$B120=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$B120=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$B120&lt;2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K120">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>$B120=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="10">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O101 O103:O122 O123:P130" xr:uid="{7C199008-9AB6-6549-A861-AD474C13E949}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O101 O123:P130 O103:O122" xr:uid="{7C199008-9AB6-6549-A861-AD474C13E949}">
       <formula1>1950</formula1>
       <formula2>2025</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9 I11:I41 I45:I47 I49:I51 L1:L55 I55:I62 I64 L57:L63 L65:L70 I66:I71 H2:H86 H89:H90 H92:H94 I73:I99 H98:H122 I101:I122 L72:L1048576" xr:uid="{66ABF627-CC97-3E44-B6AC-09E441BED0CD}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9 I11:I41 I45:I47 I49:I51 L1:L55 I55:I62 I64 L57:L63 L65:L70 I66:I71 H2:H86 H89:H90 H92:H94 I73:I99 H98:H122 L72:L1048576 I101:I122" xr:uid="{66ABF627-CC97-3E44-B6AC-09E441BED0CD}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K297:K307" xr:uid="{9E6037A9-5EC7-2945-A2FE-1723BA7DEE83}">
@@ -8850,15 +9185,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M122" xr:uid="{127B7473-9D01-354E-A3BD-12180E660A5C}">
       <formula1>"acres, MWe, m^3, MWt, Kg, Drums, kW, $"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J122" xr:uid="{0FCCEC2F-487A-5A42-9C52-ED538456C753}">
-      <formula1>"$/acres, $/MWe, $/m^3, $/MWt, $/Kg, $/Drum, $/(kg.sec), $/SWU, unitless"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P122" xr:uid="{17DDFD40-D97D-B64B-BD3B-AEAF52F6302C}">
       <formula1>"NA, General, Labor, Material, Equipment,Lab and Mat and Equip, 'Lab and Equip"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N123:N276" xr:uid="{6D536505-A5B6-E145-A4B9-9C3C8E6B8527}">
       <formula1>0</formula1>
       <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J122" xr:uid="{0FCCEC2F-487A-5A42-9C52-ED538456C753}">
+      <formula1>"$/MWeHour,$/FTE, $/acres, $/MWe, $/m^3, $/MWt, $/Kg, $/Drum, $/(kg.sec), $/SWU, unitless"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -8876,7 +9211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAED81D3-2E1E-EB42-8F84-3B0F01FD7CDC}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView zoomScale="183" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="183" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
     </sheetView>
   </sheetViews>
@@ -8889,20 +9224,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="133" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="132" t="s">
+      <c r="C1" s="135" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="130"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="133"/>
+      <c r="A2" s="133"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="136"/>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="62">
@@ -9810,12 +10145,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="139"/>
     </row>
     <row r="3" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
@@ -9872,12 +10207,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="137" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="139"/>
     </row>
     <row r="8" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
@@ -9936,12 +10271,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="135"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="136"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="139"/>
     </row>
     <row r="13" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
@@ -10040,12 +10375,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="134" t="s">
+      <c r="A20" s="137" t="s">
         <v>276</v>
       </c>
-      <c r="B20" s="135"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="136"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="139"/>
     </row>
     <row r="21" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
@@ -10174,12 +10509,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="134" t="s">
+      <c r="A30" s="137" t="s">
         <v>289</v>
       </c>
-      <c r="B30" s="135"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="136"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="139"/>
     </row>
     <row r="31" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
@@ -10254,12 +10589,12 @@
       <c r="D36" s="60"/>
     </row>
     <row r="37" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="134" t="s">
+      <c r="A37" s="137" t="s">
         <v>296</v>
       </c>
-      <c r="B37" s="135"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="136"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="139"/>
     </row>
     <row r="38" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
@@ -10346,12 +10681,12 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="134" t="s">
+      <c r="A44" s="137" t="s">
         <v>309</v>
       </c>
-      <c r="B44" s="135"/>
-      <c r="C44" s="135"/>
-      <c r="D44" s="136"/>
+      <c r="B44" s="138"/>
+      <c r="C44" s="138"/>
+      <c r="D44" s="139"/>
     </row>
     <row r="45" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
@@ -10368,12 +10703,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="134" t="s">
+      <c r="A46" s="137" t="s">
         <v>312</v>
       </c>
-      <c r="B46" s="135"/>
-      <c r="C46" s="135"/>
-      <c r="D46" s="136"/>
+      <c r="B46" s="138"/>
+      <c r="C46" s="138"/>
+      <c r="D46" s="139"/>
     </row>
     <row r="47" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
@@ -10418,12 +10753,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="134" t="s">
+      <c r="A50" s="137" t="s">
         <v>319</v>
       </c>
-      <c r="B50" s="135"/>
-      <c r="C50" s="135"/>
-      <c r="D50" s="136"/>
+      <c r="B50" s="138"/>
+      <c r="C50" s="138"/>
+      <c r="D50" s="139"/>
     </row>
     <row r="51" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="54" t="s">
@@ -11592,4 +11927,89 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A358A137-1626-9343-A399-452BA3D3C6F7}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView zoomScale="164" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="101" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="101" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B2" s="4">
+        <f>MARVEL_Cost!C56/(MARVEL_Cost!C6+MARVEL_Cost!C13+MARVEL_Cost!C45)</f>
+        <v>6.5389932052543287E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B8">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/cost/Cost_Database.xlsx
+++ b/cost/Cost_Database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannbn/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692ACE91-ADA2-F441-8D30-877F9DB982BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772FDCFA-964E-6246-B56B-2622D447C2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1240,12 +1240,6 @@
     <t>WEP</t>
   </si>
   <si>
-    <t>In Vessel Shielding Mass</t>
-  </si>
-  <si>
-    <t>Out Of Vessel Shielding Mass</t>
-  </si>
-  <si>
     <t>ZrH</t>
   </si>
   <si>
@@ -1548,6 +1542,12 @@
   </si>
   <si>
     <t>Annual Electricity Production</t>
+  </si>
+  <si>
+    <t>In Vessel Shield Mass</t>
+  </si>
+  <si>
+    <t>Out Of Vessel Shield Mass</t>
   </si>
 </sst>
 </file>
@@ -2260,6 +2260,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2268,10 +2286,37 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2300,51 +2345,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2383,108 +2383,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2512,15 +2410,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2574,7 +2466,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2597,6 +2489,249 @@
         <b/>
         <i val="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2655,13 +2790,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -2671,33 +2799,6 @@
         <b/>
         <i val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2721,26 +2822,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFBA"/>
@@ -2750,7 +2831,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2815,11 +2896,10 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -2829,15 +2909,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFFFFBA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2851,27 +2925,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2885,61 +2939,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3369,9 +3369,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5330BDA-7164-B946-A942-FFAE4F744BBA}">
   <dimension ref="A1:Z122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="63" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="63" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3413,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>329</v>
@@ -3422,10 +3422,10 @@
         <v>330</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>50</v>
@@ -3523,7 +3523,7 @@
         <v xml:space="preserve">      Land Cost</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -3551,10 +3551,10 @@
       <c r="Q3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="106" t="s">
+      <c r="R3" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="S3" s="122" t="s">
+      <c r="S3" s="116" t="s">
         <v>56</v>
       </c>
       <c r="T3" s="26"/>
@@ -3575,7 +3575,7 @@
         <v xml:space="preserve">      Site Permits</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -3604,8 +3604,8 @@
       <c r="Q4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="106"/>
-      <c r="S4" s="122"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="116"/>
       <c r="T4" s="26"/>
     </row>
     <row r="5" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3624,7 +3624,7 @@
         <v xml:space="preserve">      Plant Licensing</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -3647,10 +3647,10 @@
       <c r="Q5" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="106" t="s">
+      <c r="R5" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="S5" s="122" t="s">
+      <c r="S5" s="116" t="s">
         <v>59</v>
       </c>
       <c r="T5" s="26"/>
@@ -3671,7 +3671,7 @@
         <v xml:space="preserve">      Plant Permits</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -3693,8 +3693,8 @@
       <c r="Q6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="106"/>
-      <c r="S6" s="122"/>
+      <c r="R6" s="112"/>
+      <c r="S6" s="116"/>
       <c r="T6" s="26"/>
     </row>
     <row r="7" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3713,7 +3713,7 @@
         <v xml:space="preserve">      Plant Studies</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -3865,7 +3865,7 @@
         <v xml:space="preserve">                  Cleaning and Grubbing</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -3891,13 +3891,13 @@
       <c r="P11" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="118" t="s">
+      <c r="Q11" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="R11" s="106" t="s">
+      <c r="R11" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="S11" s="107" t="s">
+      <c r="S11" s="117" t="s">
         <v>84</v>
       </c>
       <c r="T11" s="26"/>
@@ -3925,7 +3925,7 @@
         <v xml:space="preserve">                  Stripping Topsoil</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -3951,9 +3951,9 @@
       <c r="P12" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="108"/>
+      <c r="Q12" s="108"/>
+      <c r="R12" s="112"/>
+      <c r="S12" s="118"/>
       <c r="T12" s="26"/>
     </row>
     <row r="13" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3972,7 +3972,7 @@
         <v xml:space="preserve">                  Excavation</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -3998,9 +3998,9 @@
       <c r="P13" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="108"/>
+      <c r="Q13" s="108"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="118"/>
       <c r="T13" s="26"/>
     </row>
     <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4051,7 +4051,7 @@
         <v xml:space="preserve">                  Reactor Building Slab Roof</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="27"/>
@@ -4076,13 +4076,13 @@
       <c r="P15" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q15" s="118" t="s">
+      <c r="Q15" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="106" t="s">
+      <c r="R15" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="S15" s="107" t="s">
+      <c r="S15" s="117" t="s">
         <v>84</v>
       </c>
       <c r="T15" s="26"/>
@@ -4103,7 +4103,7 @@
         <v xml:space="preserve">                  Reactor Building Basement</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -4129,9 +4129,9 @@
       <c r="P16" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="108"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="112"/>
+      <c r="S16" s="118"/>
       <c r="T16" s="26"/>
     </row>
     <row r="17" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4150,7 +4150,7 @@
         <v xml:space="preserve">                  Reactor Building Walls</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -4176,9 +4176,9 @@
       <c r="P17" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="108"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="112"/>
+      <c r="S17" s="118"/>
       <c r="T17" s="26"/>
     </row>
     <row r="18" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4261,7 +4261,7 @@
         <v xml:space="preserve">                        Energy Conversion Building Slab Roof</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -4287,13 +4287,13 @@
       <c r="P20" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q20" s="118" t="s">
+      <c r="Q20" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="R20" s="106" t="s">
+      <c r="R20" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="S20" s="107" t="s">
+      <c r="S20" s="117" t="s">
         <v>84</v>
       </c>
       <c r="T20" s="26"/>
@@ -4314,7 +4314,7 @@
         <v xml:space="preserve">                        Energy Conversion Building Basement</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -4340,9 +4340,9 @@
       <c r="P21" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="106"/>
-      <c r="S21" s="108"/>
+      <c r="Q21" s="108"/>
+      <c r="R21" s="112"/>
+      <c r="S21" s="118"/>
       <c r="T21" s="26"/>
     </row>
     <row r="22" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4361,7 +4361,7 @@
         <v xml:space="preserve">                        Energy Conversion Building Walls</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -4387,9 +4387,9 @@
       <c r="P22" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="106"/>
-      <c r="S22" s="108"/>
+      <c r="Q22" s="108"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="118"/>
       <c r="T22" s="26"/>
     </row>
     <row r="23" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4440,7 +4440,7 @@
         <v xml:space="preserve">                        Control Building Slab Roof</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -4466,13 +4466,13 @@
       <c r="P24" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q24" s="118" t="s">
+      <c r="Q24" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="R24" s="106" t="s">
+      <c r="R24" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="107" t="s">
+      <c r="S24" s="117" t="s">
         <v>84</v>
       </c>
       <c r="T24" s="26"/>
@@ -4493,7 +4493,7 @@
         <v xml:space="preserve">                        Control Building Basement</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -4519,9 +4519,9 @@
       <c r="P25" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="106"/>
-      <c r="S25" s="108"/>
+      <c r="Q25" s="108"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="118"/>
       <c r="T25" s="26"/>
     </row>
     <row r="26" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4540,7 +4540,7 @@
         <v xml:space="preserve">                        Control Building Walls</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -4566,9 +4566,9 @@
       <c r="P26" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="106"/>
-      <c r="S26" s="108"/>
+      <c r="Q26" s="108"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="118"/>
       <c r="T26" s="26"/>
     </row>
     <row r="27" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4683,7 +4683,7 @@
         <v xml:space="preserve">                              Refueling Building Slab Roof</v>
       </c>
       <c r="E30" s="80" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F30" s="80"/>
       <c r="G30" s="80"/>
@@ -4709,13 +4709,13 @@
       <c r="P30" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q30" s="129" t="s">
+      <c r="Q30" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="R30" s="128" t="s">
+      <c r="R30" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="S30" s="126" t="s">
+      <c r="S30" s="122" t="s">
         <v>84</v>
       </c>
       <c r="T30" s="85"/>
@@ -4736,7 +4736,7 @@
         <v xml:space="preserve">                              Refueling Building Basement</v>
       </c>
       <c r="E31" s="80" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F31" s="80"/>
       <c r="G31" s="80"/>
@@ -4762,9 +4762,9 @@
       <c r="P31" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q31" s="129"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="127"/>
+      <c r="Q31" s="107"/>
+      <c r="R31" s="113"/>
+      <c r="S31" s="123"/>
       <c r="T31" s="85"/>
     </row>
     <row r="32" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -4783,7 +4783,7 @@
         <v xml:space="preserve">                              Refueling Building Walls</v>
       </c>
       <c r="E32" s="80" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F32" s="80"/>
       <c r="G32" s="80"/>
@@ -4809,9 +4809,9 @@
       <c r="P32" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q32" s="129"/>
-      <c r="R32" s="128"/>
-      <c r="S32" s="127"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="113"/>
+      <c r="S32" s="123"/>
       <c r="T32" s="85"/>
     </row>
     <row r="33" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4862,7 +4862,7 @@
         <v xml:space="preserve">                              Spent Fuel Building Slab Roof</v>
       </c>
       <c r="E34" s="80" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F34" s="80"/>
       <c r="G34" s="80"/>
@@ -4888,13 +4888,13 @@
       <c r="P34" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q34" s="129" t="s">
+      <c r="Q34" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="R34" s="128" t="s">
+      <c r="R34" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="S34" s="126" t="s">
+      <c r="S34" s="122" t="s">
         <v>84</v>
       </c>
       <c r="T34" s="85"/>
@@ -4915,7 +4915,7 @@
         <v xml:space="preserve">                              Spent Fuel Building Basement</v>
       </c>
       <c r="E35" s="80" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F35" s="80"/>
       <c r="G35" s="80"/>
@@ -4941,9 +4941,9 @@
       <c r="P35" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q35" s="129"/>
-      <c r="R35" s="128"/>
-      <c r="S35" s="127"/>
+      <c r="Q35" s="107"/>
+      <c r="R35" s="113"/>
+      <c r="S35" s="123"/>
       <c r="T35" s="85"/>
     </row>
     <row r="36" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -4962,7 +4962,7 @@
         <v xml:space="preserve">                              Spent Fuel Building Walls</v>
       </c>
       <c r="E36" s="80" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F36" s="80"/>
       <c r="G36" s="80"/>
@@ -4988,9 +4988,9 @@
       <c r="P36" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q36" s="129"/>
-      <c r="R36" s="128"/>
-      <c r="S36" s="127"/>
+      <c r="Q36" s="107"/>
+      <c r="R36" s="113"/>
+      <c r="S36" s="123"/>
       <c r="T36" s="85"/>
     </row>
     <row r="37" spans="1:20" ht="30" thickBot="1" x14ac:dyDescent="0.25">
@@ -5073,7 +5073,7 @@
         <v xml:space="preserve">                              Emergency Building Slab Roof</v>
       </c>
       <c r="E39" s="80" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F39" s="80"/>
       <c r="G39" s="80"/>
@@ -5099,13 +5099,13 @@
       <c r="P39" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q39" s="129" t="s">
+      <c r="Q39" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="R39" s="128" t="s">
+      <c r="R39" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="S39" s="126" t="s">
+      <c r="S39" s="122" t="s">
         <v>84</v>
       </c>
       <c r="T39" s="85"/>
@@ -5126,7 +5126,7 @@
         <v xml:space="preserve">                              Emergency Building Basement</v>
       </c>
       <c r="E40" s="80" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F40" s="80"/>
       <c r="G40" s="80"/>
@@ -5152,9 +5152,9 @@
       <c r="P40" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q40" s="129"/>
-      <c r="R40" s="128"/>
-      <c r="S40" s="127"/>
+      <c r="Q40" s="107"/>
+      <c r="R40" s="113"/>
+      <c r="S40" s="123"/>
       <c r="T40" s="85"/>
     </row>
     <row r="41" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -5173,7 +5173,7 @@
         <v xml:space="preserve">                              Emergency Building Walls</v>
       </c>
       <c r="E41" s="80" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F41" s="80"/>
       <c r="G41" s="80"/>
@@ -5199,9 +5199,9 @@
       <c r="P41" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q41" s="129"/>
-      <c r="R41" s="128"/>
-      <c r="S41" s="127"/>
+      <c r="Q41" s="107"/>
+      <c r="R41" s="113"/>
+      <c r="S41" s="123"/>
       <c r="T41" s="85"/>
     </row>
     <row r="42" spans="1:20" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5220,7 +5220,7 @@
         <v xml:space="preserve">                        Diesel Generator</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
@@ -5342,7 +5342,7 @@
         <v xml:space="preserve">                        Storage Building Slab Roof</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
@@ -5368,13 +5368,13 @@
       <c r="P45" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q45" s="118" t="s">
+      <c r="Q45" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="R45" s="106" t="s">
+      <c r="R45" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="S45" s="107" t="s">
+      <c r="S45" s="117" t="s">
         <v>84</v>
       </c>
       <c r="T45" s="26"/>
@@ -5395,7 +5395,7 @@
         <v xml:space="preserve">                        Storage Building Basement</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
@@ -5421,9 +5421,9 @@
       <c r="P46" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q46" s="118"/>
-      <c r="R46" s="106"/>
-      <c r="S46" s="108"/>
+      <c r="Q46" s="108"/>
+      <c r="R46" s="112"/>
+      <c r="S46" s="118"/>
       <c r="T46" s="26"/>
     </row>
     <row r="47" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -5442,7 +5442,7 @@
         <v xml:space="preserve">                        Storage Building Walls</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
@@ -5468,9 +5468,9 @@
       <c r="P47" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q47" s="118"/>
-      <c r="R47" s="106"/>
-      <c r="S47" s="108"/>
+      <c r="Q47" s="108"/>
+      <c r="R47" s="112"/>
+      <c r="S47" s="118"/>
       <c r="T47" s="26"/>
     </row>
     <row r="48" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5521,7 +5521,7 @@
         <v xml:space="preserve">                        Radwaste Building Slab Roof</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
@@ -5547,13 +5547,13 @@
       <c r="P49" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q49" s="118" t="s">
+      <c r="Q49" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="R49" s="106" t="s">
+      <c r="R49" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="S49" s="107" t="s">
+      <c r="S49" s="117" t="s">
         <v>84</v>
       </c>
       <c r="T49" s="26"/>
@@ -5574,7 +5574,7 @@
         <v xml:space="preserve">                        Radwaste Building Basement</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
@@ -5600,9 +5600,9 @@
       <c r="P50" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q50" s="118"/>
-      <c r="R50" s="106"/>
-      <c r="S50" s="108"/>
+      <c r="Q50" s="108"/>
+      <c r="R50" s="112"/>
+      <c r="S50" s="118"/>
       <c r="T50" s="26"/>
     </row>
     <row r="51" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -5621,7 +5621,7 @@
         <v xml:space="preserve">                        Radwaste Building Walls</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
@@ -5647,9 +5647,9 @@
       <c r="P51" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q51" s="118"/>
-      <c r="R51" s="106"/>
-      <c r="S51" s="108"/>
+      <c r="Q51" s="108"/>
+      <c r="R51" s="112"/>
+      <c r="S51" s="118"/>
       <c r="T51" s="26"/>
     </row>
     <row r="52" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5764,7 +5764,7 @@
         <v xml:space="preserve">                        Reactor Support</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
@@ -5798,10 +5798,10 @@
       <c r="Q55" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="R55" s="123" t="s">
+      <c r="R55" s="119" t="s">
         <v>179</v>
       </c>
-      <c r="S55" s="109" t="s">
+      <c r="S55" s="124" t="s">
         <v>183</v>
       </c>
       <c r="T55" s="42" t="s">
@@ -5824,7 +5824,7 @@
         <v xml:space="preserve">                        Outer Vessel Structure</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
@@ -5858,8 +5858,8 @@
       <c r="Q56" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="R56" s="124"/>
-      <c r="S56" s="110"/>
+      <c r="R56" s="120"/>
+      <c r="S56" s="125"/>
       <c r="T56" s="26"/>
     </row>
     <row r="57" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5878,7 +5878,7 @@
         <v xml:space="preserve">                        Inner Vessel Structure</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
@@ -5915,8 +5915,8 @@
       <c r="Q57" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="R57" s="125"/>
-      <c r="S57" s="111"/>
+      <c r="R57" s="121"/>
+      <c r="S57" s="126"/>
       <c r="T57" s="42" t="s">
         <v>182</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v xml:space="preserve">                              Reactivity Control System Fabrication</v>
       </c>
       <c r="E60" s="80" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F60" s="80"/>
       <c r="G60" s="80"/>
@@ -6026,11 +6026,11 @@
       <c r="Q60" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R60" s="112" t="s">
+      <c r="R60" s="127" t="s">
         <v>179</v>
       </c>
-      <c r="S60" s="115" t="s">
-        <v>352</v>
+      <c r="S60" s="130" t="s">
+        <v>350</v>
       </c>
       <c r="T60" s="90" t="s">
         <v>188</v>
@@ -6052,7 +6052,7 @@
         <v xml:space="preserve">                              Installation</v>
       </c>
       <c r="E61" s="80" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F61" s="80"/>
       <c r="G61" s="80"/>
@@ -6075,8 +6075,8 @@
       <c r="Q61" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R61" s="113"/>
-      <c r="S61" s="116"/>
+      <c r="R61" s="128"/>
+      <c r="S61" s="131"/>
       <c r="T61" s="85"/>
     </row>
     <row r="62" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6095,7 +6095,7 @@
         <v xml:space="preserve">                              Control Drums Materials (Absorber)</v>
       </c>
       <c r="E62" s="80" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F62" s="80" t="s">
         <v>332</v>
@@ -6133,8 +6133,8 @@
       <c r="Q62" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R62" s="113"/>
-      <c r="S62" s="116"/>
+      <c r="R62" s="128"/>
+      <c r="S62" s="131"/>
       <c r="T62" s="85"/>
     </row>
     <row r="63" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6153,7 +6153,7 @@
         <v xml:space="preserve">                              Control Drums Materials (Reflector)</v>
       </c>
       <c r="E63" s="80" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F63" s="80" t="s">
         <v>331</v>
@@ -6191,8 +6191,8 @@
       <c r="Q63" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R63" s="114"/>
-      <c r="S63" s="117"/>
+      <c r="R63" s="129"/>
+      <c r="S63" s="132"/>
       <c r="T63" s="85"/>
     </row>
     <row r="64" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6211,7 +6211,7 @@
         <v xml:space="preserve">                  Non-Fuel Core Internals</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
@@ -6241,7 +6241,7 @@
         <v xml:space="preserve">                        Reflector</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F65" s="19" t="s">
         <v>13</v>
@@ -6282,10 +6282,10 @@
       <c r="Q65" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="R65" s="123" t="s">
+      <c r="R65" s="119" t="s">
         <v>179</v>
       </c>
-      <c r="S65" s="109" t="s">
+      <c r="S65" s="124" t="s">
         <v>183</v>
       </c>
       <c r="T65" s="26"/>
@@ -6318,8 +6318,8 @@
       <c r="O66" s="26"/>
       <c r="P66" s="26"/>
       <c r="Q66" s="42"/>
-      <c r="R66" s="124"/>
-      <c r="S66" s="110"/>
+      <c r="R66" s="120"/>
+      <c r="S66" s="125"/>
       <c r="T66" s="26"/>
     </row>
     <row r="67" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6338,7 +6338,7 @@
         <v xml:space="preserve">                              In Vessel Shield Materials</v>
       </c>
       <c r="E67" s="80" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F67" s="80" t="s">
         <v>335</v>
@@ -6358,7 +6358,7 @@
         <v>177</v>
       </c>
       <c r="K67" s="90" t="s">
-        <v>338</v>
+        <v>414</v>
       </c>
       <c r="L67" s="85">
         <f>L62</f>
@@ -6379,8 +6379,8 @@
       <c r="Q67" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R67" s="124"/>
-      <c r="S67" s="110"/>
+      <c r="R67" s="120"/>
+      <c r="S67" s="125"/>
       <c r="T67" s="85"/>
     </row>
     <row r="68" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6399,7 +6399,7 @@
         <v xml:space="preserve">                              Out The Vessel Shield Materials</v>
       </c>
       <c r="E68" s="80" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F68" s="80" t="s">
         <v>336</v>
@@ -6415,7 +6415,7 @@
         <v>177</v>
       </c>
       <c r="K68" s="90" t="s">
-        <v>339</v>
+        <v>415</v>
       </c>
       <c r="L68" s="85">
         <f>'Design Variables'!B43</f>
@@ -6436,8 +6436,8 @@
       <c r="Q68" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="R68" s="125"/>
-      <c r="S68" s="111"/>
+      <c r="R68" s="121"/>
+      <c r="S68" s="126"/>
       <c r="T68" s="85"/>
     </row>
     <row r="69" spans="1:20" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6456,13 +6456,13 @@
         <v xml:space="preserve">                        Moderator</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F69" s="19" t="s">
         <v>203</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H69" s="24"/>
       <c r="I69" s="69">
@@ -6472,7 +6472,7 @@
         <v>177</v>
       </c>
       <c r="K69" s="42" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M69" s="26" t="s">
         <v>176</v>
@@ -6485,10 +6485,10 @@
         <v>73</v>
       </c>
       <c r="Q69" s="42" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="R69" s="73" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="S69" s="75"/>
       <c r="T69" s="26"/>
@@ -6509,13 +6509,13 @@
         <v xml:space="preserve">            Moderator</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F70" s="19" t="s">
         <v>203</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H70" s="24"/>
       <c r="I70" s="69">
@@ -6525,7 +6525,7 @@
         <v>177</v>
       </c>
       <c r="K70" s="42" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M70" s="26" t="s">
         <v>176</v>
@@ -6538,7 +6538,7 @@
         <v>73</v>
       </c>
       <c r="Q70" s="76" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="R70" s="74"/>
       <c r="S70" s="75"/>
@@ -6591,7 +6591,7 @@
         <v>3</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D72" s="19" t="str">
         <f t="shared" si="1"/>
@@ -6622,20 +6622,20 @@
         <v>4</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D73" s="19" t="str">
         <f>REPT("   ", B73*2) &amp; C73</f>
         <v xml:space="preserve">                        Primary Pump</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H73" s="24"/>
       <c r="I73" s="69">
@@ -6643,10 +6643,10 @@
         <v>8818.5</v>
       </c>
       <c r="J73" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K73" s="42" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L73" s="26"/>
       <c r="M73" s="26"/>
@@ -6660,15 +6660,15 @@
         <v>74</v>
       </c>
       <c r="Q73" s="42" t="s">
-        <v>354</v>
-      </c>
-      <c r="R73" s="104" t="s">
+        <v>352</v>
+      </c>
+      <c r="R73" s="109" t="s">
+        <v>351</v>
+      </c>
+      <c r="S73" s="114" t="s">
         <v>353</v>
       </c>
-      <c r="S73" s="120" t="s">
-        <v>355</v>
-      </c>
-      <c r="T73" s="104"/>
+      <c r="T73" s="109"/>
     </row>
     <row r="74" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30">
@@ -6679,30 +6679,30 @@
         <v>4</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D74" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Secondary Pump</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H74" s="24"/>
       <c r="I74" s="69">
         <v>705.48</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K74" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L74" s="26"/>
       <c r="M74" s="26"/>
@@ -6716,11 +6716,11 @@
         <v>74</v>
       </c>
       <c r="Q74" s="42" t="s">
-        <v>348</v>
-      </c>
-      <c r="R74" s="105"/>
-      <c r="S74" s="121"/>
-      <c r="T74" s="105"/>
+        <v>346</v>
+      </c>
+      <c r="R74" s="111"/>
+      <c r="S74" s="115"/>
+      <c r="T74" s="111"/>
     </row>
     <row r="75" spans="1:20" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30">
@@ -6731,30 +6731,30 @@
         <v>4</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D75" s="19" t="str">
         <f t="shared" ref="D75" si="3">REPT("   ", B75*2) &amp; C75</f>
         <v xml:space="preserve">                        Compressor</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H75" s="24"/>
       <c r="I75" s="69">
         <v>44.71</v>
       </c>
       <c r="J75" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K75" s="42" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L75" s="26"/>
       <c r="M75" s="26"/>
@@ -6768,10 +6768,10 @@
         <v>74</v>
       </c>
       <c r="Q75" s="42" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="R75" s="93" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="S75" s="94"/>
       <c r="T75" s="93"/>
@@ -6792,7 +6792,7 @@
         <v xml:space="preserve">                  Reactor Heat Transfer Piping System</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
@@ -6816,10 +6816,10 @@
         <v>74</v>
       </c>
       <c r="Q76" s="42" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="R76" s="42" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="S76" s="26"/>
       <c r="T76" s="26"/>
@@ -6865,20 +6865,20 @@
         <v>4</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D78" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Primary Heat Exchanger</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H78" s="24"/>
       <c r="I78" s="69">
@@ -6888,7 +6888,7 @@
         <v>177</v>
       </c>
       <c r="K78" s="42" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L78" s="26"/>
       <c r="M78" s="26" t="s">
@@ -6902,10 +6902,10 @@
         <v>74</v>
       </c>
       <c r="Q78" s="42" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="R78" s="93" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="S78" s="26"/>
       <c r="T78" s="26"/>
@@ -6926,20 +6926,20 @@
         <v>4</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D79" s="19" t="str">
         <f t="shared" ref="D79" si="5">REPT("   ", B79*2) &amp; C79</f>
         <v xml:space="preserve">                        Primary Heat Exchanger</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H79" s="24"/>
       <c r="I79" s="69">
@@ -6949,7 +6949,7 @@
         <v>177</v>
       </c>
       <c r="K79" s="42" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L79" s="26"/>
       <c r="M79" s="26" t="s">
@@ -6963,10 +6963,10 @@
         <v>74</v>
       </c>
       <c r="Q79" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="R79" s="93" t="s">
         <v>373</v>
-      </c>
-      <c r="R79" s="93" t="s">
-        <v>375</v>
       </c>
       <c r="S79" s="26"/>
       <c r="T79" s="26"/>
@@ -6987,13 +6987,13 @@
         <v xml:space="preserve">                        Secondary Heat Exchanger</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H80" s="24"/>
       <c r="I80" s="69">
@@ -7003,7 +7003,7 @@
         <v>177</v>
       </c>
       <c r="K80" s="42" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L80" s="26"/>
       <c r="M80" s="26" t="s">
@@ -7017,10 +7017,10 @@
         <v>74</v>
       </c>
       <c r="Q80" s="42" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="R80" s="93" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="S80" s="26"/>
       <c r="T80" s="26"/>
@@ -7048,13 +7048,13 @@
         <v xml:space="preserve">                        Secondary Heat Exchanger</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H81" s="24"/>
       <c r="I81" s="69">
@@ -7064,7 +7064,7 @@
         <v>177</v>
       </c>
       <c r="K81" s="42" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L81" s="26"/>
       <c r="M81" s="26" t="s">
@@ -7078,10 +7078,10 @@
         <v>74</v>
       </c>
       <c r="Q81" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="R81" s="93" t="s">
         <v>373</v>
-      </c>
-      <c r="R81" s="93" t="s">
-        <v>375</v>
       </c>
       <c r="S81" s="26"/>
       <c r="T81" s="26"/>
@@ -7166,7 +7166,7 @@
         <v xml:space="preserve">                        Rvacs (Cooling Vessel)</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F84" s="19"/>
       <c r="G84" s="23"/>
@@ -7179,7 +7179,7 @@
         <v>177</v>
       </c>
       <c r="K84" s="42" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L84" s="26">
         <f>L56</f>
@@ -7198,7 +7198,7 @@
         <v>77</v>
       </c>
       <c r="Q84" s="42" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="R84" s="26"/>
       <c r="S84" s="26"/>
@@ -7220,7 +7220,7 @@
         <v xml:space="preserve">                        Rvacs (Intake Vessel)</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F85" s="19"/>
       <c r="G85" s="23"/>
@@ -7233,7 +7233,7 @@
         <v>177</v>
       </c>
       <c r="K85" s="42" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L85" s="26">
         <f>L84</f>
@@ -7252,7 +7252,7 @@
         <v>77</v>
       </c>
       <c r="Q85" s="42" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="R85" s="26"/>
       <c r="S85" s="26"/>
@@ -7274,7 +7274,7 @@
         <v xml:space="preserve">            Other Reactor Plant Equipment</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F86" s="19"/>
       <c r="G86" s="23"/>
@@ -7295,7 +7295,7 @@
         <v>74</v>
       </c>
       <c r="Q86" s="42" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="R86" s="26"/>
       <c r="S86" s="26"/>
@@ -7324,7 +7324,7 @@
         <v xml:space="preserve">            Reactor Instrumentation and Control (I&amp;C)</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F87" s="19"/>
       <c r="G87" s="23"/>
@@ -7345,7 +7345,7 @@
         <v>74</v>
       </c>
       <c r="Q87" s="42" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="R87" s="26"/>
       <c r="S87" s="26"/>
@@ -7367,7 +7367,7 @@
         <v xml:space="preserve">            Reactor Plant Miscellaneous Items</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F88" s="19"/>
       <c r="G88" s="23"/>
@@ -7388,7 +7388,7 @@
         <v>77</v>
       </c>
       <c r="Q88" s="42" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="R88" s="26"/>
       <c r="S88" s="26"/>
@@ -7474,7 +7474,7 @@
         <v xml:space="preserve">                  Electricity Generation Systems</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F91" s="19"/>
       <c r="G91" s="23"/>
@@ -7505,10 +7505,10 @@
         <v>74</v>
       </c>
       <c r="Q91" s="42" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="R91" s="42" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="S91" s="26"/>
       <c r="T91" s="26"/>
@@ -7561,7 +7561,7 @@
         <v xml:space="preserve">            Power and Control Cables and Wiring</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F93" s="19"/>
       <c r="G93" s="23"/>
@@ -7593,10 +7593,10 @@
         <v>74</v>
       </c>
       <c r="Q93" s="42" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="R93" s="42" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="S93" s="26"/>
       <c r="T93" s="26"/>
@@ -7649,7 +7649,7 @@
         <v xml:space="preserve">            First Core Mining</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F95" s="19"/>
       <c r="G95" s="23"/>
@@ -7661,7 +7661,7 @@
         <v>177</v>
       </c>
       <c r="K95" s="23" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L95" s="26"/>
       <c r="M95" s="26"/>
@@ -7672,11 +7672,11 @@
       <c r="P95" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q95" s="104" t="s">
-        <v>387</v>
-      </c>
-      <c r="R95" s="104" t="s">
-        <v>388</v>
+      <c r="Q95" s="109" t="s">
+        <v>385</v>
+      </c>
+      <c r="R95" s="109" t="s">
+        <v>386</v>
       </c>
       <c r="S95" s="26"/>
       <c r="T95" s="26"/>
@@ -7697,7 +7697,7 @@
         <v xml:space="preserve">            First Core Conversion </v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F96" s="19"/>
       <c r="G96" s="23"/>
@@ -7709,7 +7709,7 @@
         <v>177</v>
       </c>
       <c r="K96" s="23" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L96" s="26"/>
       <c r="M96" s="26"/>
@@ -7720,8 +7720,8 @@
       <c r="P96" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q96" s="119"/>
-      <c r="R96" s="119"/>
+      <c r="Q96" s="110"/>
+      <c r="R96" s="110"/>
       <c r="S96" s="26"/>
       <c r="T96" s="26"/>
     </row>
@@ -7741,7 +7741,7 @@
         <v xml:space="preserve">            First Core Enrichment </v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F97" s="19"/>
       <c r="G97" s="23"/>
@@ -7750,10 +7750,10 @@
         <v>184.2</v>
       </c>
       <c r="J97" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="K97" s="42" t="s">
         <v>384</v>
-      </c>
-      <c r="K97" s="42" t="s">
-        <v>386</v>
       </c>
       <c r="L97" s="26"/>
       <c r="M97" s="26"/>
@@ -7766,8 +7766,8 @@
       <c r="P97" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q97" s="119"/>
-      <c r="R97" s="119"/>
+      <c r="Q97" s="110"/>
+      <c r="R97" s="110"/>
       <c r="S97" s="26"/>
       <c r="T97" s="26"/>
     </row>
@@ -7787,13 +7787,13 @@
         <v xml:space="preserve">            First Core Fuel Assembly Fabrication </v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G98" s="23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H98" s="23"/>
       <c r="I98" s="23">
@@ -7803,7 +7803,7 @@
         <v>177</v>
       </c>
       <c r="K98" s="42" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L98" s="26"/>
       <c r="M98" s="26"/>
@@ -7814,8 +7814,8 @@
       <c r="P98" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q98" s="119"/>
-      <c r="R98" s="119"/>
+      <c r="Q98" s="110"/>
+      <c r="R98" s="110"/>
       <c r="S98" s="26"/>
       <c r="T98" s="26"/>
     </row>
@@ -7842,13 +7842,13 @@
         <v xml:space="preserve">            First Core Fuel Assembly Fabrication </v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G99" s="23" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H99" s="23"/>
       <c r="I99" s="23">
@@ -7858,7 +7858,7 @@
         <v>177</v>
       </c>
       <c r="K99" s="42" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L99" s="26"/>
       <c r="M99" s="26"/>
@@ -7869,8 +7869,8 @@
       <c r="P99" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q99" s="105"/>
-      <c r="R99" s="105"/>
+      <c r="Q99" s="111"/>
+      <c r="R99" s="111"/>
       <c r="S99" s="26"/>
       <c r="T99" s="26"/>
     </row>
@@ -7890,7 +7890,7 @@
         <v xml:space="preserve">      Miscellaneous Equipment (Cranes)</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F100" s="19"/>
       <c r="G100" s="19"/>
@@ -7910,10 +7910,10 @@
         <v>74</v>
       </c>
       <c r="Q100" s="42" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="R100" s="42" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="S100" s="26"/>
       <c r="T100" s="26"/>
@@ -7965,7 +7965,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D102" s="19" t="str">
         <f t="shared" si="9"/>
@@ -7996,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D103" s="19" t="str">
         <f t="shared" si="9"/>
@@ -8035,7 +8035,7 @@
         <v xml:space="preserve">      Startup Costs</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
@@ -8055,8 +8055,8 @@
       <c r="P104" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="Q104" s="130" t="s">
-        <v>379</v>
+      <c r="Q104" s="104" t="s">
+        <v>377</v>
       </c>
       <c r="R104" s="24"/>
       <c r="S104" s="24"/>
@@ -8084,7 +8084,7 @@
         <v xml:space="preserve">      Shipping and Transportation Costs</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F105" s="19"/>
       <c r="G105" s="19"/>
@@ -8104,7 +8104,7 @@
       <c r="P105" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="Q105" s="131"/>
+      <c r="Q105" s="105"/>
       <c r="R105" s="24"/>
       <c r="S105" s="24"/>
       <c r="T105" s="24"/>
@@ -8131,7 +8131,7 @@
         <v xml:space="preserve">      Engineering Services</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F106" s="19"/>
       <c r="G106" s="19"/>
@@ -8151,7 +8151,7 @@
       <c r="P106" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q106" s="131"/>
+      <c r="Q106" s="105"/>
       <c r="R106" s="26"/>
       <c r="S106" s="26"/>
       <c r="T106" s="26"/>
@@ -8173,7 +8173,7 @@
         <v xml:space="preserve">      PM/CM Services</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F107" s="19"/>
       <c r="G107" s="19"/>
@@ -8193,7 +8193,7 @@
       <c r="P107" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q107" s="132"/>
+      <c r="Q107" s="106"/>
       <c r="R107" s="26"/>
       <c r="S107" s="26"/>
       <c r="T107" s="26"/>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D108" s="19" t="str">
         <f t="shared" si="9"/>
@@ -8241,14 +8241,14 @@
         <v>1</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D109" s="19" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">      staff recruitment and training</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F109" s="19"/>
       <c r="G109" s="19"/>
@@ -8269,7 +8269,7 @@
         <v>72</v>
       </c>
       <c r="Q109" s="99" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="R109" s="26"/>
       <c r="S109" s="26"/>
@@ -8424,7 +8424,7 @@
         <v xml:space="preserve">            Operators </v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F114" s="19"/>
       <c r="G114" s="19"/>
@@ -8433,10 +8433,10 @@
         <v>178500</v>
       </c>
       <c r="J114" s="26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K114" s="42" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L114" s="26"/>
       <c r="M114" s="26"/>
@@ -8451,7 +8451,7 @@
       </c>
       <c r="Q114" s="42"/>
       <c r="R114" s="102" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S114" s="26"/>
       <c r="T114" s="26"/>
@@ -8473,23 +8473,23 @@
         <v xml:space="preserve">            Remote Monitoring Technicians </v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G115" s="19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H115" s="24"/>
       <c r="I115" s="69">
         <v>178500</v>
       </c>
       <c r="J115" s="26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K115" s="42" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L115" s="26"/>
       <c r="M115" s="26"/>
@@ -8504,7 +8504,7 @@
       </c>
       <c r="Q115" s="42"/>
       <c r="R115" s="102" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S115" s="26"/>
       <c r="T115" s="26"/>
@@ -8526,7 +8526,7 @@
         <v xml:space="preserve">            Security Staff </v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
@@ -8535,10 +8535,10 @@
         <v>178500</v>
       </c>
       <c r="J116" s="26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K116" s="42" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L116" s="26"/>
       <c r="M116" s="26"/>
@@ -8553,7 +8553,7 @@
       </c>
       <c r="Q116" s="42"/>
       <c r="R116" s="102" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S116" s="26"/>
       <c r="T116" s="26"/>
@@ -8608,7 +8608,7 @@
         <v xml:space="preserve">      Annualized Decommissioning Cost</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="Q118" s="42"/>
       <c r="R118" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="S118" s="26"/>
       <c r="T118" s="26"/>
@@ -8690,7 +8690,7 @@
         <v xml:space="preserve">      Refueling Operations</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F120" s="19"/>
       <c r="G120" s="19"/>
@@ -8699,10 +8699,10 @@
         <v>178500</v>
       </c>
       <c r="J120" s="26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K120" s="42" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L120" s="26"/>
       <c r="M120" s="26"/>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="Q120" s="42"/>
       <c r="R120" s="102" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S120" s="26"/>
       <c r="T120" s="26"/>
@@ -8770,7 +8770,7 @@
         <v xml:space="preserve">      Spent Fuel Management</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F122" s="19"/>
       <c r="G122" s="19"/>
@@ -8779,10 +8779,10 @@
         <v>1</v>
       </c>
       <c r="J122" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K122" s="42" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L122" s="26"/>
       <c r="M122" s="26"/>
@@ -8802,19 +8802,20 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="Q104:Q107"/>
-    <mergeCell ref="Q39:Q41"/>
-    <mergeCell ref="Q45:Q47"/>
-    <mergeCell ref="Q49:Q51"/>
-    <mergeCell ref="Q95:Q99"/>
-    <mergeCell ref="R24:R26"/>
-    <mergeCell ref="R30:R32"/>
-    <mergeCell ref="R34:R36"/>
-    <mergeCell ref="R39:R41"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="Q24:Q26"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="Q34:Q36"/>
+    <mergeCell ref="T73:T74"/>
+    <mergeCell ref="R45:R47"/>
+    <mergeCell ref="R49:R51"/>
+    <mergeCell ref="S45:S47"/>
+    <mergeCell ref="S49:S51"/>
+    <mergeCell ref="S65:S68"/>
+    <mergeCell ref="R60:R63"/>
+    <mergeCell ref="S60:S63"/>
+    <mergeCell ref="Q15:Q17"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="S15:S17"/>
     <mergeCell ref="R95:R99"/>
     <mergeCell ref="R73:R74"/>
     <mergeCell ref="S73:S74"/>
@@ -8831,61 +8832,60 @@
     <mergeCell ref="S55:S57"/>
     <mergeCell ref="S39:S41"/>
     <mergeCell ref="R20:R22"/>
-    <mergeCell ref="Q15:Q17"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="R15:R17"/>
-    <mergeCell ref="S15:S17"/>
-    <mergeCell ref="T73:T74"/>
-    <mergeCell ref="R45:R47"/>
-    <mergeCell ref="R49:R51"/>
-    <mergeCell ref="S45:S47"/>
-    <mergeCell ref="S49:S51"/>
-    <mergeCell ref="S65:S68"/>
-    <mergeCell ref="R60:R63"/>
-    <mergeCell ref="S60:S63"/>
+    <mergeCell ref="R24:R26"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="R34:R36"/>
+    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="Q34:Q36"/>
+    <mergeCell ref="Q104:Q107"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="Q45:Q47"/>
+    <mergeCell ref="Q49:Q51"/>
+    <mergeCell ref="Q95:Q99"/>
   </mergeCells>
-  <conditionalFormatting sqref="A73:F75 L95:T95 L96:P96 S96:T100 I97:P97 A100:R100 R104:T109 A110:T113 A114:H115 A116:J116 A117:T117 S118:T118 A119:T119 A121:T122 A120:J120 L120:Q120 S120:T120">
+  <conditionalFormatting sqref="A73:F75 L95:T95 L96:P96 S96:T100 I97:P97 A100:R100 R104:T109 A110:T113 A114:H115 A116:J116 A117:T117 S118:T118 A119:T119 S120:T120 A121:T122">
     <cfRule type="expression" dxfId="84" priority="140">
       <formula>$B73=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="139">
-      <formula>$B73&lt;2</formula>
+    <cfRule type="expression" dxfId="83" priority="137">
+      <formula>$B73=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="82" priority="138">
       <formula>$B73=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="137">
-      <formula>$B73=3</formula>
+    <cfRule type="expression" dxfId="81" priority="139">
+      <formula>$B73&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:H97">
-    <cfRule type="expression" dxfId="80" priority="104">
-      <formula>$B95=0</formula>
+    <cfRule type="expression" dxfId="80" priority="101">
+      <formula>$B95=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="103">
+    <cfRule type="expression" dxfId="79" priority="102">
+      <formula>$B95=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="103">
       <formula>$B95&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="102">
-      <formula>$B95=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="101">
-      <formula>$B95=3</formula>
+    <cfRule type="expression" dxfId="77" priority="104">
+      <formula>$B95=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:I81">
-    <cfRule type="expression" dxfId="76" priority="128">
-      <formula>$B77=0</formula>
+    <cfRule type="expression" dxfId="76" priority="125">
+      <formula>$B77=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="127">
+    <cfRule type="expression" dxfId="75" priority="126">
+      <formula>$B77=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="127">
       <formula>$B77&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="126">
-      <formula>$B77=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="125">
-      <formula>$B77=3</formula>
+    <cfRule type="expression" dxfId="73" priority="128">
+      <formula>$B77=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:P99">
@@ -8903,86 +8903,100 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:P109">
-    <cfRule type="expression" dxfId="68" priority="33">
+    <cfRule type="expression" dxfId="68" priority="36">
+      <formula>$B102=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="33">
       <formula>$B102=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="36">
-      <formula>$B102=0</formula>
+    <cfRule type="expression" dxfId="66" priority="34">
+      <formula>$B102=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="35">
+    <cfRule type="expression" dxfId="65" priority="35">
       <formula>$B102&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="34">
-      <formula>$B102=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:Q118">
-    <cfRule type="expression" dxfId="64" priority="5">
+    <cfRule type="expression" dxfId="64" priority="6">
+      <formula>$B118=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="5">
       <formula>$B118=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="6">
-      <formula>$B118=2</formula>
+    <cfRule type="expression" dxfId="62" priority="8">
+      <formula>$B118=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="7">
+    <cfRule type="expression" dxfId="61" priority="7">
       <formula>$B118&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="8">
-      <formula>$B118=0</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120:Q120">
+    <cfRule type="expression" dxfId="60" priority="4">
+      <formula>$B120=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="3">
+      <formula>$B120&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="2">
+      <formula>$B120=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="1">
+      <formula>$B120=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:S72">
-    <cfRule type="expression" dxfId="60" priority="144">
-      <formula>$B72=0</formula>
+    <cfRule type="expression" dxfId="56" priority="141">
+      <formula>$B72=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="143">
+    <cfRule type="expression" dxfId="55" priority="142">
+      <formula>$B72=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="143">
       <formula>$B72&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="142">
-      <formula>$B72=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="141">
-      <formula>$B72=3</formula>
+    <cfRule type="expression" dxfId="53" priority="144">
+      <formula>$B72=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T71 T72:T75 H73:R73 H74:Q74 G75:Q75 A76:T76 K77:T77 S78:T81">
-    <cfRule type="expression" dxfId="56" priority="148">
-      <formula>$B1=0</formula>
+    <cfRule type="expression" dxfId="52" priority="145">
+      <formula>$B1=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="147">
+    <cfRule type="expression" dxfId="51" priority="146">
+      <formula>$B1=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="147">
       <formula>$B1&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="146">
-      <formula>$B1=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="145">
-      <formula>$B1=3</formula>
+    <cfRule type="expression" dxfId="49" priority="148">
+      <formula>$B1=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:T94">
-    <cfRule type="expression" dxfId="52" priority="105">
-      <formula>$B82=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="108">
+    <cfRule type="expression" dxfId="48" priority="108">
       <formula>$B82=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="107">
+    <cfRule type="expression" dxfId="47" priority="107">
       <formula>$B82&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="106">
+    <cfRule type="expression" dxfId="46" priority="106">
       <formula>$B82=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="105">
+      <formula>$B82=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:T101">
-    <cfRule type="expression" dxfId="48" priority="69">
+    <cfRule type="expression" dxfId="44" priority="69">
       <formula>$B101=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="70">
+    <cfRule type="expression" dxfId="43" priority="70">
       <formula>$B101=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="71">
+    <cfRule type="expression" dxfId="42" priority="71">
       <formula>$B101&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="72">
+    <cfRule type="expression" dxfId="41" priority="72">
       <formula>$B101=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8997,168 +9011,152 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73:G74">
-    <cfRule type="expression" dxfId="44" priority="133">
+    <cfRule type="expression" dxfId="40" priority="133">
       <formula>$B73=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="136">
+    <cfRule type="expression" dxfId="39" priority="136">
       <formula>$B73=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="135">
+    <cfRule type="expression" dxfId="38" priority="135">
       <formula>$B73&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="134">
+    <cfRule type="expression" dxfId="37" priority="134">
       <formula>$B73=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114:J115">
-    <cfRule type="expression" dxfId="40" priority="20">
-      <formula>$B115=0</formula>
+    <cfRule type="expression" dxfId="36" priority="17">
+      <formula>$B115=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="19">
+    <cfRule type="expression" dxfId="35" priority="18">
+      <formula>$B115=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="19">
       <formula>$B115&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="18">
-      <formula>$B115=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="17">
-      <formula>$B115=3</formula>
+    <cfRule type="expression" dxfId="33" priority="20">
+      <formula>$B115=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95:K96">
-    <cfRule type="expression" dxfId="36" priority="97">
-      <formula>$B95=3</formula>
+    <cfRule type="expression" dxfId="32" priority="99">
+      <formula>$B95&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="98">
+    <cfRule type="expression" dxfId="31" priority="100">
+      <formula>$B95=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="98">
       <formula>$B95=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="99">
-      <formula>$B95&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="100">
-      <formula>$B95=0</formula>
+    <cfRule type="expression" dxfId="29" priority="97">
+      <formula>$B95=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77 O101">
-    <cfRule type="expression" dxfId="32" priority="157">
+    <cfRule type="expression" dxfId="28" priority="157">
       <formula>$B78=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="156">
+    <cfRule type="expression" dxfId="27" priority="156">
       <formula>$B78&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="155">
+    <cfRule type="expression" dxfId="26" priority="155">
       <formula>$B78=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K78:Q81">
-    <cfRule type="expression" dxfId="29" priority="123">
+    <cfRule type="expression" dxfId="25" priority="122">
+      <formula>$B78=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="123">
       <formula>$B78&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="124">
+    <cfRule type="expression" dxfId="23" priority="124">
       <formula>$B78=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="121">
+    <cfRule type="expression" dxfId="22" priority="121">
       <formula>$B78=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="122">
-      <formula>$B78=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K114:Q116 S114:T116">
-    <cfRule type="expression" dxfId="25" priority="11">
-      <formula>$B114&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>$B114=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>$B114=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="11">
+      <formula>$B114&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K114:Q116">
-    <cfRule type="expression" dxfId="22" priority="12">
+    <cfRule type="expression" dxfId="18" priority="12">
       <formula>$B114=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O101 J77">
-    <cfRule type="expression" dxfId="21" priority="154">
+    <cfRule type="expression" dxfId="17" priority="154">
       <formula>$B78=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q104">
-    <cfRule type="expression" dxfId="20" priority="84">
+    <cfRule type="expression" dxfId="16" priority="84">
       <formula>$B104=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="81">
-      <formula>$B104=3</formula>
+    <cfRule type="expression" dxfId="15" priority="83">
+      <formula>$B104&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="82">
+    <cfRule type="expression" dxfId="14" priority="82">
       <formula>$B104=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="83">
-      <formula>$B104&lt;2</formula>
+    <cfRule type="expression" dxfId="13" priority="81">
+      <formula>$B104=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q108:Q109">
-    <cfRule type="expression" dxfId="16" priority="80">
+    <cfRule type="expression" dxfId="12" priority="80">
       <formula>$B108=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="79">
-      <formula>$B108&lt;2</formula>
+    <cfRule type="expression" dxfId="11" priority="77">
+      <formula>$B108=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="78">
+    <cfRule type="expression" dxfId="10" priority="78">
       <formula>$B108=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="77">
-      <formula>$B108=3</formula>
+    <cfRule type="expression" dxfId="9" priority="79">
+      <formula>$B108&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q102:T103">
-    <cfRule type="expression" dxfId="12" priority="44">
+    <cfRule type="expression" dxfId="8" priority="41">
+      <formula>$B102=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="42">
+      <formula>$B102=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="44">
       <formula>$B102=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="43">
+    <cfRule type="expression" dxfId="5" priority="43">
       <formula>$B102&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="42">
-      <formula>$B102=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="41">
-      <formula>$B102=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S73">
-    <cfRule type="expression" dxfId="8" priority="162">
+    <cfRule type="expression" dxfId="4" priority="162">
       <formula>$B72=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="165">
-      <formula>$B72=0</formula>
+    <cfRule type="expression" dxfId="3" priority="163">
+      <formula>$B72=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="164">
+    <cfRule type="expression" dxfId="2" priority="164">
       <formula>$B72&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="163">
-      <formula>$B72=2</formula>
+    <cfRule type="expression" dxfId="1" priority="165">
+      <formula>$B72=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S114:T116">
-    <cfRule type="expression" dxfId="4" priority="28">
+    <cfRule type="expression" dxfId="0" priority="28">
       <formula>$B114=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K120">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$B120=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$B120=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$B120&lt;2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K120">
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>$B120=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="10">
@@ -11945,7 +11943,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="101" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B1" s="101" t="s">
         <v>242</v>
@@ -11953,7 +11951,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B2" s="4">
         <f>MARVEL_Cost!C56/(MARVEL_Cost!C6+MARVEL_Cost!C13+MARVEL_Cost!C45)</f>
@@ -11962,7 +11960,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -11970,7 +11968,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -11978,7 +11976,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -11986,7 +11984,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B6">
         <v>1800</v>
@@ -11994,7 +11992,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -12002,7 +12000,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B8">
         <v>0.01</v>

--- a/cost/Cost_Database.xlsx
+++ b/cost/Cost_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannbn/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772FDCFA-964E-6246-B56B-2622D447C2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4D3DE2-507A-2F42-BDB5-24B527F1C85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,9 +378,6 @@
     <t>Turbine Building Basement Volume</t>
   </si>
   <si>
-    <t>Turbine Building Exterior Wall</t>
-  </si>
-  <si>
     <t>Control Building Basement Volume</t>
   </si>
   <si>
@@ -1548,6 +1545,9 @@
   </si>
   <si>
     <t>Out Of Vessel Shield Mass</t>
+  </si>
+  <si>
+    <t>Turbine Building Exterior Walls Volume</t>
   </si>
 </sst>
 </file>
@@ -2260,24 +2260,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2286,37 +2268,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2345,6 +2300,51 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3370,8 +3370,8 @@
   <dimension ref="A1:Z122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="63" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3404,28 +3404,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>330</v>
-      </c>
       <c r="H1" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>50</v>
@@ -3523,7 +3523,7 @@
         <v xml:space="preserve">      Land Cost</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -3551,10 +3551,10 @@
       <c r="Q3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="112" t="s">
-        <v>142</v>
-      </c>
-      <c r="S3" s="116" t="s">
+      <c r="R3" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="S3" s="122" t="s">
         <v>56</v>
       </c>
       <c r="T3" s="26"/>
@@ -3575,7 +3575,7 @@
         <v xml:space="preserve">      Site Permits</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -3604,8 +3604,8 @@
       <c r="Q4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="112"/>
-      <c r="S4" s="116"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="122"/>
       <c r="T4" s="26"/>
     </row>
     <row r="5" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3624,7 +3624,7 @@
         <v xml:space="preserve">      Plant Licensing</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -3647,10 +3647,10 @@
       <c r="Q5" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="112" t="s">
-        <v>143</v>
-      </c>
-      <c r="S5" s="116" t="s">
+      <c r="R5" s="106" t="s">
+        <v>142</v>
+      </c>
+      <c r="S5" s="122" t="s">
         <v>59</v>
       </c>
       <c r="T5" s="26"/>
@@ -3664,14 +3664,14 @@
         <v>1</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">      Plant Permits</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -3693,8 +3693,8 @@
       <c r="Q6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="112"/>
-      <c r="S6" s="116"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="122"/>
       <c r="T6" s="26"/>
     </row>
     <row r="7" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3713,7 +3713,7 @@
         <v xml:space="preserve">      Plant Studies</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -3737,7 +3737,7 @@
         <v>60</v>
       </c>
       <c r="R7" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S7" s="26" t="s">
         <v>61</v>
@@ -3826,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="19" t="str">
         <f t="shared" si="1"/>
@@ -3858,14 +3858,14 @@
         <v>3</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                  Cleaning and Grubbing</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -3891,13 +3891,13 @@
       <c r="P11" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="108" t="s">
+      <c r="Q11" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="R11" s="112" t="s">
+      <c r="R11" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="S11" s="117" t="s">
+      <c r="S11" s="107" t="s">
         <v>84</v>
       </c>
       <c r="T11" s="26"/>
@@ -3918,14 +3918,14 @@
         <v>3</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                  Stripping Topsoil</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -3951,9 +3951,9 @@
       <c r="P12" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="112"/>
-      <c r="S12" s="118"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="108"/>
       <c r="T12" s="26"/>
     </row>
     <row r="13" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3965,14 +3965,14 @@
         <v>3</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                  Excavation</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -3998,9 +3998,9 @@
       <c r="P13" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="118"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="108"/>
       <c r="T13" s="26"/>
     </row>
     <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4044,14 +4044,14 @@
         <v>3</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                  Reactor Building Slab Roof</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="27"/>
@@ -4076,13 +4076,13 @@
       <c r="P15" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q15" s="108" t="s">
+      <c r="Q15" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="112" t="s">
+      <c r="R15" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="S15" s="117" t="s">
+      <c r="S15" s="107" t="s">
         <v>84</v>
       </c>
       <c r="T15" s="26"/>
@@ -4096,14 +4096,14 @@
         <v>3</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                  Reactor Building Basement</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -4129,9 +4129,9 @@
       <c r="P16" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="112"/>
-      <c r="S16" s="118"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="108"/>
       <c r="T16" s="26"/>
     </row>
     <row r="17" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4143,14 +4143,14 @@
         <v>3</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="19" t="str">
         <f>REPT("   ", B17*2) &amp; C17</f>
         <v xml:space="preserve">                  Reactor Building Walls</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -4176,9 +4176,9 @@
       <c r="P17" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q17" s="108"/>
-      <c r="R17" s="112"/>
-      <c r="S17" s="118"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="106"/>
+      <c r="S17" s="108"/>
       <c r="T17" s="26"/>
     </row>
     <row r="18" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4190,7 +4190,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" s="19" t="str">
         <f t="shared" si="1"/>
@@ -4222,7 +4222,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D19" s="19" t="str">
         <f t="shared" si="1"/>
@@ -4254,14 +4254,14 @@
         <v>4</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D20" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Energy Conversion Building Slab Roof</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -4287,13 +4287,13 @@
       <c r="P20" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q20" s="108" t="s">
+      <c r="Q20" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="R20" s="112" t="s">
+      <c r="R20" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="S20" s="117" t="s">
+      <c r="S20" s="107" t="s">
         <v>84</v>
       </c>
       <c r="T20" s="26"/>
@@ -4307,14 +4307,14 @@
         <v>4</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="19" t="str">
         <f>REPT("   ", B21*2) &amp; C21</f>
         <v xml:space="preserve">                        Energy Conversion Building Basement</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -4340,9 +4340,9 @@
       <c r="P21" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="112"/>
-      <c r="S21" s="118"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="106"/>
+      <c r="S21" s="108"/>
       <c r="T21" s="26"/>
     </row>
     <row r="22" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4354,14 +4354,14 @@
         <v>4</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Energy Conversion Building Walls</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -4374,7 +4374,7 @@
         <v>79</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>94</v>
+        <v>415</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="23" t="s">
@@ -4387,9 +4387,9 @@
       <c r="P22" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="112"/>
-      <c r="S22" s="118"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="106"/>
+      <c r="S22" s="108"/>
       <c r="T22" s="26"/>
     </row>
     <row r="23" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4401,7 +4401,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" s="19" t="str">
         <f t="shared" si="1"/>
@@ -4433,14 +4433,14 @@
         <v>4</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Control Building Slab Roof</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -4466,13 +4466,13 @@
       <c r="P24" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q24" s="108" t="s">
+      <c r="Q24" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="R24" s="112" t="s">
+      <c r="R24" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="117" t="s">
+      <c r="S24" s="107" t="s">
         <v>84</v>
       </c>
       <c r="T24" s="26"/>
@@ -4486,14 +4486,14 @@
         <v>4</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D25" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Control Building Basement</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -4506,7 +4506,7 @@
         <v>79</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="23" t="s">
@@ -4519,9 +4519,9 @@
       <c r="P25" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q25" s="108"/>
-      <c r="R25" s="112"/>
-      <c r="S25" s="118"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="108"/>
       <c r="T25" s="26"/>
     </row>
     <row r="26" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4533,14 +4533,14 @@
         <v>4</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D26" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Control Building Walls</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -4553,7 +4553,7 @@
         <v>79</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="23" t="s">
@@ -4566,9 +4566,9 @@
       <c r="P26" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q26" s="108"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="118"/>
+      <c r="Q26" s="118"/>
+      <c r="R26" s="106"/>
+      <c r="S26" s="108"/>
       <c r="T26" s="26"/>
     </row>
     <row r="27" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4612,7 +4612,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" s="19" t="str">
         <f t="shared" si="1"/>
@@ -4644,7 +4644,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D29" s="19" t="str">
         <f t="shared" si="1"/>
@@ -4676,14 +4676,14 @@
         <v>5</v>
       </c>
       <c r="C30" s="79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D30" s="80" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                              Refueling Building Slab Roof</v>
       </c>
       <c r="E30" s="80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F30" s="80"/>
       <c r="G30" s="80"/>
@@ -4709,13 +4709,13 @@
       <c r="P30" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q30" s="107" t="s">
+      <c r="Q30" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="R30" s="113" t="s">
+      <c r="R30" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="S30" s="122" t="s">
+      <c r="S30" s="126" t="s">
         <v>84</v>
       </c>
       <c r="T30" s="85"/>
@@ -4729,14 +4729,14 @@
         <v>5</v>
       </c>
       <c r="C31" s="79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" s="80" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                              Refueling Building Basement</v>
       </c>
       <c r="E31" s="80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F31" s="80"/>
       <c r="G31" s="80"/>
@@ -4749,7 +4749,7 @@
         <v>79</v>
       </c>
       <c r="K31" s="84" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L31" s="81"/>
       <c r="M31" s="83" t="s">
@@ -4762,9 +4762,9 @@
       <c r="P31" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q31" s="107"/>
-      <c r="R31" s="113"/>
-      <c r="S31" s="123"/>
+      <c r="Q31" s="129"/>
+      <c r="R31" s="128"/>
+      <c r="S31" s="127"/>
       <c r="T31" s="85"/>
     </row>
     <row r="32" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -4776,14 +4776,14 @@
         <v>5</v>
       </c>
       <c r="C32" s="79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D32" s="80" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                              Refueling Building Walls</v>
       </c>
       <c r="E32" s="80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F32" s="80"/>
       <c r="G32" s="80"/>
@@ -4796,7 +4796,7 @@
         <v>79</v>
       </c>
       <c r="K32" s="84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L32" s="81"/>
       <c r="M32" s="83" t="s">
@@ -4809,9 +4809,9 @@
       <c r="P32" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q32" s="107"/>
-      <c r="R32" s="113"/>
-      <c r="S32" s="123"/>
+      <c r="Q32" s="129"/>
+      <c r="R32" s="128"/>
+      <c r="S32" s="127"/>
       <c r="T32" s="85"/>
     </row>
     <row r="33" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4823,7 +4823,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D33" s="19" t="str">
         <f t="shared" si="1"/>
@@ -4855,14 +4855,14 @@
         <v>5</v>
       </c>
       <c r="C34" s="79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="80" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                              Spent Fuel Building Slab Roof</v>
       </c>
       <c r="E34" s="80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F34" s="80"/>
       <c r="G34" s="80"/>
@@ -4888,13 +4888,13 @@
       <c r="P34" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q34" s="107" t="s">
+      <c r="Q34" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="R34" s="113" t="s">
+      <c r="R34" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="S34" s="122" t="s">
+      <c r="S34" s="126" t="s">
         <v>84</v>
       </c>
       <c r="T34" s="85"/>
@@ -4908,14 +4908,14 @@
         <v>5</v>
       </c>
       <c r="C35" s="79" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" s="80" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                              Spent Fuel Building Basement</v>
       </c>
       <c r="E35" s="80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F35" s="80"/>
       <c r="G35" s="80"/>
@@ -4928,7 +4928,7 @@
         <v>79</v>
       </c>
       <c r="K35" s="84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L35" s="81"/>
       <c r="M35" s="83" t="s">
@@ -4941,9 +4941,9 @@
       <c r="P35" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q35" s="107"/>
-      <c r="R35" s="113"/>
-      <c r="S35" s="123"/>
+      <c r="Q35" s="129"/>
+      <c r="R35" s="128"/>
+      <c r="S35" s="127"/>
       <c r="T35" s="85"/>
     </row>
     <row r="36" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -4955,14 +4955,14 @@
         <v>5</v>
       </c>
       <c r="C36" s="79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="80" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                              Spent Fuel Building Walls</v>
       </c>
       <c r="E36" s="80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F36" s="80"/>
       <c r="G36" s="80"/>
@@ -4975,7 +4975,7 @@
         <v>79</v>
       </c>
       <c r="K36" s="84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L36" s="81"/>
       <c r="M36" s="83" t="s">
@@ -4988,9 +4988,9 @@
       <c r="P36" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q36" s="107"/>
-      <c r="R36" s="113"/>
-      <c r="S36" s="123"/>
+      <c r="Q36" s="129"/>
+      <c r="R36" s="128"/>
+      <c r="S36" s="127"/>
       <c r="T36" s="85"/>
     </row>
     <row r="37" spans="1:20" ht="30" thickBot="1" x14ac:dyDescent="0.25">
@@ -5002,7 +5002,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D37" s="19" t="str">
         <f t="shared" si="1"/>
@@ -5034,7 +5034,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D38" s="19" t="str">
         <f t="shared" si="1"/>
@@ -5066,14 +5066,14 @@
         <v>5</v>
       </c>
       <c r="C39" s="79" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D39" s="80" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                              Emergency Building Slab Roof</v>
       </c>
       <c r="E39" s="80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F39" s="80"/>
       <c r="G39" s="80"/>
@@ -5086,7 +5086,7 @@
         <v>79</v>
       </c>
       <c r="K39" s="84" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L39" s="81"/>
       <c r="M39" s="83" t="s">
@@ -5099,13 +5099,13 @@
       <c r="P39" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q39" s="107" t="s">
+      <c r="Q39" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="R39" s="113" t="s">
+      <c r="R39" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="S39" s="122" t="s">
+      <c r="S39" s="126" t="s">
         <v>84</v>
       </c>
       <c r="T39" s="85"/>
@@ -5119,14 +5119,14 @@
         <v>5</v>
       </c>
       <c r="C40" s="79" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D40" s="80" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                              Emergency Building Basement</v>
       </c>
       <c r="E40" s="80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F40" s="80"/>
       <c r="G40" s="80"/>
@@ -5139,7 +5139,7 @@
         <v>79</v>
       </c>
       <c r="K40" s="84" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L40" s="81"/>
       <c r="M40" s="83" t="s">
@@ -5152,9 +5152,9 @@
       <c r="P40" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q40" s="107"/>
-      <c r="R40" s="113"/>
-      <c r="S40" s="123"/>
+      <c r="Q40" s="129"/>
+      <c r="R40" s="128"/>
+      <c r="S40" s="127"/>
       <c r="T40" s="85"/>
     </row>
     <row r="41" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -5166,14 +5166,14 @@
         <v>5</v>
       </c>
       <c r="C41" s="79" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D41" s="80" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                              Emergency Building Walls</v>
       </c>
       <c r="E41" s="80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F41" s="80"/>
       <c r="G41" s="80"/>
@@ -5186,7 +5186,7 @@
         <v>79</v>
       </c>
       <c r="K41" s="84" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L41" s="81"/>
       <c r="M41" s="83" t="s">
@@ -5199,9 +5199,9 @@
       <c r="P41" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q41" s="107"/>
-      <c r="R41" s="113"/>
-      <c r="S41" s="123"/>
+      <c r="Q41" s="129"/>
+      <c r="R41" s="128"/>
+      <c r="S41" s="127"/>
       <c r="T41" s="85"/>
     </row>
     <row r="42" spans="1:20" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5213,14 +5213,14 @@
         <v>4</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D42" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Diesel Generator</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
@@ -5230,17 +5230,17 @@
         <v>2717311.5662650601</v>
       </c>
       <c r="J42" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="K42" s="25" t="s">
         <v>156</v>
-      </c>
-      <c r="K42" s="25" t="s">
-        <v>157</v>
       </c>
       <c r="L42" s="23">
         <f>'Design Variables'!B3/1000</f>
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N42" s="23">
         <v>0.7</v>
@@ -5252,13 +5252,13 @@
         <v>74</v>
       </c>
       <c r="Q42" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="R42" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="R42" s="25" t="s">
+      <c r="S42" s="39" t="s">
         <v>159</v>
-      </c>
-      <c r="S42" s="39" t="s">
-        <v>160</v>
       </c>
       <c r="T42" s="26"/>
     </row>
@@ -5271,7 +5271,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D43" s="19" t="str">
         <f t="shared" si="1"/>
@@ -5303,7 +5303,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D44" s="19" t="str">
         <f t="shared" si="1"/>
@@ -5335,14 +5335,14 @@
         <v>4</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D45" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Storage Building Slab Roof</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
@@ -5355,7 +5355,7 @@
         <v>79</v>
       </c>
       <c r="K45" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L45" s="23"/>
       <c r="M45" s="23" t="s">
@@ -5368,13 +5368,13 @@
       <c r="P45" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q45" s="108" t="s">
+      <c r="Q45" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="R45" s="112" t="s">
+      <c r="R45" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="S45" s="117" t="s">
+      <c r="S45" s="107" t="s">
         <v>84</v>
       </c>
       <c r="T45" s="26"/>
@@ -5388,14 +5388,14 @@
         <v>4</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D46" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Storage Building Basement</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
@@ -5408,7 +5408,7 @@
         <v>79</v>
       </c>
       <c r="K46" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L46" s="23"/>
       <c r="M46" s="23" t="s">
@@ -5421,9 +5421,9 @@
       <c r="P46" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q46" s="108"/>
-      <c r="R46" s="112"/>
-      <c r="S46" s="118"/>
+      <c r="Q46" s="118"/>
+      <c r="R46" s="106"/>
+      <c r="S46" s="108"/>
       <c r="T46" s="26"/>
     </row>
     <row r="47" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -5435,14 +5435,14 @@
         <v>4</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D47" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Storage Building Walls</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
@@ -5455,7 +5455,7 @@
         <v>79</v>
       </c>
       <c r="K47" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L47" s="23"/>
       <c r="M47" s="23" t="s">
@@ -5468,9 +5468,9 @@
       <c r="P47" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q47" s="108"/>
-      <c r="R47" s="112"/>
-      <c r="S47" s="118"/>
+      <c r="Q47" s="118"/>
+      <c r="R47" s="106"/>
+      <c r="S47" s="108"/>
       <c r="T47" s="26"/>
     </row>
     <row r="48" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5482,7 +5482,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D48" s="19" t="str">
         <f t="shared" si="1"/>
@@ -5514,14 +5514,14 @@
         <v>4</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D49" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Radwaste Building Slab Roof</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
@@ -5534,7 +5534,7 @@
         <v>79</v>
       </c>
       <c r="K49" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L49" s="23"/>
       <c r="M49" s="23" t="s">
@@ -5547,13 +5547,13 @@
       <c r="P49" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q49" s="108" t="s">
+      <c r="Q49" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="R49" s="112" t="s">
+      <c r="R49" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="S49" s="117" t="s">
+      <c r="S49" s="107" t="s">
         <v>84</v>
       </c>
       <c r="T49" s="26"/>
@@ -5567,14 +5567,14 @@
         <v>4</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D50" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Radwaste Building Basement</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
@@ -5587,7 +5587,7 @@
         <v>79</v>
       </c>
       <c r="K50" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L50" s="23"/>
       <c r="M50" s="23" t="s">
@@ -5600,9 +5600,9 @@
       <c r="P50" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q50" s="108"/>
-      <c r="R50" s="112"/>
-      <c r="S50" s="118"/>
+      <c r="Q50" s="118"/>
+      <c r="R50" s="106"/>
+      <c r="S50" s="108"/>
       <c r="T50" s="26"/>
     </row>
     <row r="51" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -5614,14 +5614,14 @@
         <v>4</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D51" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Radwaste Building Walls</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
@@ -5634,7 +5634,7 @@
         <v>79</v>
       </c>
       <c r="K51" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L51" s="23"/>
       <c r="M51" s="23" t="s">
@@ -5647,9 +5647,9 @@
       <c r="P51" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q51" s="108"/>
-      <c r="R51" s="112"/>
-      <c r="S51" s="118"/>
+      <c r="Q51" s="118"/>
+      <c r="R51" s="106"/>
+      <c r="S51" s="108"/>
       <c r="T51" s="26"/>
     </row>
     <row r="52" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5725,7 +5725,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D54" s="19" t="str">
         <f t="shared" si="1"/>
@@ -5757,14 +5757,14 @@
         <v>4</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D55" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Reactor Support</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
@@ -5774,17 +5774,17 @@
         <v>311.55798937474458</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K55" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L55" s="26">
         <f>1000*('Design Variables'!B52+'Design Variables'!B49)</f>
         <v>2447</v>
       </c>
       <c r="M55" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N55" s="26">
         <v>1</v>
@@ -5796,16 +5796,16 @@
         <v>77</v>
       </c>
       <c r="Q55" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="R55" s="123" t="s">
         <v>178</v>
       </c>
-      <c r="R55" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="S55" s="124" t="s">
-        <v>183</v>
+      <c r="S55" s="109" t="s">
+        <v>182</v>
       </c>
       <c r="T55" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5817,14 +5817,14 @@
         <v>4</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D56" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Outer Vessel Structure</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
@@ -5834,17 +5834,17 @@
         <v>757.20768746061754</v>
       </c>
       <c r="J56" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K56" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L56" s="8">
         <f>'Design Variables'!B52*1000</f>
         <v>1587</v>
       </c>
       <c r="M56" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N56" s="26">
         <v>1</v>
@@ -5856,10 +5856,10 @@
         <v>77</v>
       </c>
       <c r="Q56" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="R56" s="120"/>
-      <c r="S56" s="125"/>
+        <v>177</v>
+      </c>
+      <c r="R56" s="124"/>
+      <c r="S56" s="110"/>
       <c r="T56" s="26"/>
     </row>
     <row r="57" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5871,14 +5871,14 @@
         <v>4</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D57" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Inner Vessel Structure</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
@@ -5891,17 +5891,17 @@
         <v>1768.3558139534885</v>
       </c>
       <c r="J57" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K57" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L57" s="26">
         <f>1000*'Design Variables'!B49</f>
         <v>860</v>
       </c>
       <c r="M57" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N57" s="26">
         <v>1</v>
@@ -5913,12 +5913,12 @@
         <v>77</v>
       </c>
       <c r="Q57" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="R57" s="121"/>
-      <c r="S57" s="126"/>
+        <v>177</v>
+      </c>
+      <c r="R57" s="125"/>
+      <c r="S57" s="111"/>
       <c r="T57" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D58" s="19" t="str">
         <f t="shared" si="1"/>
@@ -5962,7 +5962,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D59" s="19" t="str">
         <f t="shared" si="1"/>
@@ -6001,7 +6001,7 @@
         <v xml:space="preserve">                              Reactivity Control System Fabrication</v>
       </c>
       <c r="E60" s="80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F60" s="80"/>
       <c r="G60" s="80"/>
@@ -6024,16 +6024,16 @@
         <v>77</v>
       </c>
       <c r="Q60" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="R60" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="R60" s="127" t="s">
-        <v>179</v>
-      </c>
-      <c r="S60" s="130" t="s">
-        <v>350</v>
+      <c r="S60" s="115" t="s">
+        <v>349</v>
       </c>
       <c r="T60" s="90" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="86" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6045,14 +6045,14 @@
         <v>5</v>
       </c>
       <c r="C61" s="87" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D61" s="80" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                              Installation</v>
       </c>
       <c r="E61" s="80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F61" s="80"/>
       <c r="G61" s="80"/>
@@ -6073,10 +6073,10 @@
         <v>85</v>
       </c>
       <c r="Q61" s="90" t="s">
-        <v>178</v>
-      </c>
-      <c r="R61" s="128"/>
-      <c r="S61" s="131"/>
+        <v>177</v>
+      </c>
+      <c r="R61" s="113"/>
+      <c r="S61" s="116"/>
       <c r="T61" s="85"/>
     </row>
     <row r="62" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6088,20 +6088,20 @@
         <v>5</v>
       </c>
       <c r="C62" s="87" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="80" t="str">
         <f>REPT("   ", B62*2) &amp; C62</f>
         <v xml:space="preserve">                              Control Drums Materials (Absorber)</v>
       </c>
       <c r="E62" s="80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F62" s="80" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G62" s="80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H62" s="88"/>
       <c r="I62" s="89">
@@ -6109,17 +6109,17 @@
         <v>14285.714285714286</v>
       </c>
       <c r="J62" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K62" s="90" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L62" s="85">
         <f>'Design Variables'!B28+'Design Variables'!B29</f>
         <v>28</v>
       </c>
       <c r="M62" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N62" s="85">
         <v>1</v>
@@ -6131,10 +6131,10 @@
         <v>73</v>
       </c>
       <c r="Q62" s="90" t="s">
-        <v>178</v>
-      </c>
-      <c r="R62" s="128"/>
-      <c r="S62" s="131"/>
+        <v>177</v>
+      </c>
+      <c r="R62" s="113"/>
+      <c r="S62" s="116"/>
       <c r="T62" s="85"/>
     </row>
     <row r="63" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6146,20 +6146,20 @@
         <v>5</v>
       </c>
       <c r="C63" s="87" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="80" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                              Control Drums Materials (Reflector)</v>
       </c>
       <c r="E63" s="80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F63" s="80" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G63" s="80" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H63" s="88"/>
       <c r="I63" s="92">
@@ -6167,17 +6167,17 @@
         <v>10062.893081761007</v>
       </c>
       <c r="J63" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K63" s="90" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L63" s="85">
         <f>'Design Variables'!B17</f>
         <v>318</v>
       </c>
       <c r="M63" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N63" s="85">
         <v>1</v>
@@ -6189,10 +6189,10 @@
         <v>73</v>
       </c>
       <c r="Q63" s="90" t="s">
-        <v>178</v>
-      </c>
-      <c r="R63" s="129"/>
-      <c r="S63" s="132"/>
+        <v>177</v>
+      </c>
+      <c r="R63" s="114"/>
+      <c r="S63" s="117"/>
       <c r="T63" s="85"/>
     </row>
     <row r="64" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6204,14 +6204,14 @@
         <v>3</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D64" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                  Non-Fuel Core Internals</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
@@ -6241,13 +6241,13 @@
         <v xml:space="preserve">                        Reflector</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F65" s="19" t="s">
         <v>13</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H65" s="24">
         <f>MARVEL_Cost!C29</f>
@@ -6258,17 +6258,17 @@
         <v>10062.893081761007</v>
       </c>
       <c r="J65" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K65" s="42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L65" s="26">
         <f>'Design Variables'!B17</f>
         <v>318</v>
       </c>
       <c r="M65" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N65" s="26">
         <v>1</v>
@@ -6280,13 +6280,13 @@
         <v>73</v>
       </c>
       <c r="Q65" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="R65" s="123" t="s">
         <v>178</v>
       </c>
-      <c r="R65" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="S65" s="124" t="s">
-        <v>183</v>
+      <c r="S65" s="109" t="s">
+        <v>182</v>
       </c>
       <c r="T65" s="26"/>
     </row>
@@ -6318,8 +6318,8 @@
       <c r="O66" s="26"/>
       <c r="P66" s="26"/>
       <c r="Q66" s="42"/>
-      <c r="R66" s="120"/>
-      <c r="S66" s="125"/>
+      <c r="R66" s="124"/>
+      <c r="S66" s="110"/>
       <c r="T66" s="26"/>
     </row>
     <row r="67" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6331,20 +6331,20 @@
         <v>5</v>
       </c>
       <c r="C67" s="87" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D67" s="80" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                              In Vessel Shield Materials</v>
       </c>
       <c r="E67" s="80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F67" s="80" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G67" s="80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H67" s="88">
         <f>MARVEL_Cost!C30</f>
@@ -6355,17 +6355,17 @@
         <v>14285.714285714286</v>
       </c>
       <c r="J67" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K67" s="90" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L67" s="85">
         <f>L62</f>
         <v>28</v>
       </c>
       <c r="M67" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N67" s="85">
         <v>1</v>
@@ -6377,10 +6377,10 @@
         <v>73</v>
       </c>
       <c r="Q67" s="90" t="s">
-        <v>178</v>
-      </c>
-      <c r="R67" s="120"/>
-      <c r="S67" s="125"/>
+        <v>177</v>
+      </c>
+      <c r="R67" s="124"/>
+      <c r="S67" s="110"/>
       <c r="T67" s="85"/>
     </row>
     <row r="68" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6392,37 +6392,37 @@
         <v>5</v>
       </c>
       <c r="C68" s="87" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D68" s="80" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                              Out The Vessel Shield Materials</v>
       </c>
       <c r="E68" s="80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F68" s="80" t="s">
+        <v>335</v>
+      </c>
+      <c r="G68" s="80" t="s">
         <v>336</v>
-      </c>
-      <c r="G68" s="80" t="s">
-        <v>337</v>
       </c>
       <c r="H68" s="88"/>
       <c r="I68" s="89">
         <v>20</v>
       </c>
       <c r="J68" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K68" s="90" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L68" s="85">
         <f>'Design Variables'!B43</f>
         <v>925.3</v>
       </c>
       <c r="M68" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N68" s="85">
         <v>1</v>
@@ -6434,10 +6434,10 @@
         <v>73</v>
       </c>
       <c r="Q68" s="90" t="s">
-        <v>178</v>
-      </c>
-      <c r="R68" s="121"/>
-      <c r="S68" s="126"/>
+        <v>177</v>
+      </c>
+      <c r="R68" s="125"/>
+      <c r="S68" s="111"/>
       <c r="T68" s="85"/>
     </row>
     <row r="69" spans="1:20" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6449,33 +6449,33 @@
         <v>4</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="19" t="str">
         <f>REPT("   ", B70*2) &amp; C69</f>
         <v xml:space="preserve">                        Moderator</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H69" s="24"/>
       <c r="I69" s="69">
         <v>1520</v>
       </c>
       <c r="J69" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K69" s="42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M69" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N69" s="26"/>
       <c r="O69" s="26">
@@ -6485,10 +6485,10 @@
         <v>73</v>
       </c>
       <c r="Q69" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="R69" s="73" t="s">
         <v>341</v>
-      </c>
-      <c r="R69" s="73" t="s">
-        <v>342</v>
       </c>
       <c r="S69" s="75"/>
       <c r="T69" s="26"/>
@@ -6502,33 +6502,33 @@
         <v>4</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="19" t="str">
         <f>REPT("   ", B71*2) &amp; C70</f>
         <v xml:space="preserve">            Moderator</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H70" s="24"/>
       <c r="I70" s="69">
         <v>75</v>
       </c>
       <c r="J70" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K70" s="42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M70" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N70" s="26"/>
       <c r="O70" s="26">
@@ -6538,7 +6538,7 @@
         <v>73</v>
       </c>
       <c r="Q70" s="76" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R70" s="74"/>
       <c r="S70" s="75"/>
@@ -6591,7 +6591,7 @@
         <v>3</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D72" s="19" t="str">
         <f t="shared" si="1"/>
@@ -6622,20 +6622,20 @@
         <v>4</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D73" s="19" t="str">
         <f>REPT("   ", B73*2) &amp; C73</f>
         <v xml:space="preserve">                        Primary Pump</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H73" s="24"/>
       <c r="I73" s="69">
@@ -6643,10 +6643,10 @@
         <v>8818.5</v>
       </c>
       <c r="J73" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K73" s="42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L73" s="26"/>
       <c r="M73" s="26"/>
@@ -6660,15 +6660,15 @@
         <v>74</v>
       </c>
       <c r="Q73" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="R73" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="S73" s="120" t="s">
         <v>352</v>
       </c>
-      <c r="R73" s="109" t="s">
-        <v>351</v>
-      </c>
-      <c r="S73" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="T73" s="109"/>
+      <c r="T73" s="104"/>
     </row>
     <row r="74" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30">
@@ -6679,30 +6679,30 @@
         <v>4</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D74" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Secondary Pump</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H74" s="24"/>
       <c r="I74" s="69">
         <v>705.48</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K74" s="42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L74" s="26"/>
       <c r="M74" s="26"/>
@@ -6716,11 +6716,11 @@
         <v>74</v>
       </c>
       <c r="Q74" s="42" t="s">
-        <v>346</v>
-      </c>
-      <c r="R74" s="111"/>
-      <c r="S74" s="115"/>
-      <c r="T74" s="111"/>
+        <v>345</v>
+      </c>
+      <c r="R74" s="105"/>
+      <c r="S74" s="121"/>
+      <c r="T74" s="105"/>
     </row>
     <row r="75" spans="1:20" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30">
@@ -6731,30 +6731,30 @@
         <v>4</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D75" s="19" t="str">
         <f t="shared" ref="D75" si="3">REPT("   ", B75*2) &amp; C75</f>
         <v xml:space="preserve">                        Compressor</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H75" s="24"/>
       <c r="I75" s="69">
         <v>44.71</v>
       </c>
       <c r="J75" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K75" s="42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L75" s="26"/>
       <c r="M75" s="26"/>
@@ -6768,10 +6768,10 @@
         <v>74</v>
       </c>
       <c r="Q75" s="42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R75" s="93" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S75" s="94"/>
       <c r="T75" s="93"/>
@@ -6792,7 +6792,7 @@
         <v xml:space="preserve">                  Reactor Heat Transfer Piping System</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
@@ -6816,10 +6816,10 @@
         <v>74</v>
       </c>
       <c r="Q76" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="R76" s="42" t="s">
         <v>358</v>
-      </c>
-      <c r="R76" s="42" t="s">
-        <v>359</v>
       </c>
       <c r="S76" s="26"/>
       <c r="T76" s="26"/>
@@ -6865,34 +6865,34 @@
         <v>4</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D78" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Primary Heat Exchanger</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H78" s="24"/>
       <c r="I78" s="69">
         <v>50</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K78" s="42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L78" s="26"/>
       <c r="M78" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N78" s="26"/>
       <c r="O78" s="26">
@@ -6902,10 +6902,10 @@
         <v>74</v>
       </c>
       <c r="Q78" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="R78" s="93" t="s">
         <v>371</v>
-      </c>
-      <c r="R78" s="93" t="s">
-        <v>372</v>
       </c>
       <c r="S78" s="26"/>
       <c r="T78" s="26"/>
@@ -6926,34 +6926,34 @@
         <v>4</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D79" s="19" t="str">
         <f t="shared" ref="D79" si="5">REPT("   ", B79*2) &amp; C79</f>
         <v xml:space="preserve">                        Primary Heat Exchanger</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H79" s="24"/>
       <c r="I79" s="69">
         <v>120</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K79" s="42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L79" s="26"/>
       <c r="M79" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N79" s="26"/>
       <c r="O79" s="26">
@@ -6963,10 +6963,10 @@
         <v>74</v>
       </c>
       <c r="Q79" s="42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R79" s="93" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="S79" s="26"/>
       <c r="T79" s="26"/>
@@ -6987,27 +6987,27 @@
         <v xml:space="preserve">                        Secondary Heat Exchanger</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H80" s="24"/>
       <c r="I80" s="69">
         <v>50</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K80" s="42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L80" s="26"/>
       <c r="M80" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N80" s="26"/>
       <c r="O80" s="26">
@@ -7017,10 +7017,10 @@
         <v>74</v>
       </c>
       <c r="Q80" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="R80" s="93" t="s">
         <v>371</v>
-      </c>
-      <c r="R80" s="93" t="s">
-        <v>372</v>
       </c>
       <c r="S80" s="26"/>
       <c r="T80" s="26"/>
@@ -7048,27 +7048,27 @@
         <v xml:space="preserve">                        Secondary Heat Exchanger</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H81" s="24"/>
       <c r="I81" s="69">
         <v>120</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K81" s="42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L81" s="26"/>
       <c r="M81" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N81" s="26"/>
       <c r="O81" s="26">
@@ -7078,10 +7078,10 @@
         <v>74</v>
       </c>
       <c r="Q81" s="42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R81" s="93" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="S81" s="26"/>
       <c r="T81" s="26"/>
@@ -7127,7 +7127,7 @@
         <v>3</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D83" s="19" t="str">
         <f t="shared" si="1"/>
@@ -7159,14 +7159,14 @@
         <v>4</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D84" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Rvacs (Cooling Vessel)</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F84" s="19"/>
       <c r="G84" s="23"/>
@@ -7176,17 +7176,17 @@
         <v>757.20768746061754</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K84" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L84" s="26">
         <f>L56</f>
         <v>1587</v>
       </c>
       <c r="M84" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N84" s="26">
         <v>1</v>
@@ -7198,7 +7198,7 @@
         <v>77</v>
       </c>
       <c r="Q84" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R84" s="26"/>
       <c r="S84" s="26"/>
@@ -7213,14 +7213,14 @@
         <v>4</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D85" s="19" t="str">
         <f>REPT("   ", B85*2) &amp; C85</f>
         <v xml:space="preserve">                        Rvacs (Intake Vessel)</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F85" s="19"/>
       <c r="G85" s="23"/>
@@ -7230,17 +7230,17 @@
         <v>757.20768746061754</v>
       </c>
       <c r="J85" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K85" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L85" s="26">
         <f>L84</f>
         <v>1587</v>
       </c>
       <c r="M85" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N85" s="26">
         <v>1</v>
@@ -7252,7 +7252,7 @@
         <v>77</v>
       </c>
       <c r="Q85" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R85" s="26"/>
       <c r="S85" s="26"/>
@@ -7267,14 +7267,14 @@
         <v>2</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D86" s="19" t="str">
         <f>REPT("   ", B86*2) &amp; C86</f>
         <v xml:space="preserve">            Other Reactor Plant Equipment</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F86" s="19"/>
       <c r="G86" s="23"/>
@@ -7295,7 +7295,7 @@
         <v>74</v>
       </c>
       <c r="Q86" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R86" s="26"/>
       <c r="S86" s="26"/>
@@ -7324,7 +7324,7 @@
         <v xml:space="preserve">            Reactor Instrumentation and Control (I&amp;C)</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F87" s="19"/>
       <c r="G87" s="23"/>
@@ -7345,7 +7345,7 @@
         <v>74</v>
       </c>
       <c r="Q87" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R87" s="26"/>
       <c r="S87" s="26"/>
@@ -7360,14 +7360,14 @@
         <v>2</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D88" s="19" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">            Reactor Plant Miscellaneous Items</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F88" s="19"/>
       <c r="G88" s="23"/>
@@ -7388,7 +7388,7 @@
         <v>77</v>
       </c>
       <c r="Q88" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R88" s="26"/>
       <c r="S88" s="26"/>
@@ -7467,14 +7467,14 @@
         <v>3</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D91" s="19" t="str">
         <f>REPT("   ", B91*2) &amp; C91</f>
         <v xml:space="preserve">                  Electricity Generation Systems</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F91" s="19"/>
       <c r="G91" s="23"/>
@@ -7505,10 +7505,10 @@
         <v>74</v>
       </c>
       <c r="Q91" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R91" s="42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="S91" s="26"/>
       <c r="T91" s="26"/>
@@ -7554,14 +7554,14 @@
         <v>2</v>
       </c>
       <c r="C93" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D93" s="19" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">            Power and Control Cables and Wiring</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F93" s="19"/>
       <c r="G93" s="23"/>
@@ -7593,10 +7593,10 @@
         <v>74</v>
       </c>
       <c r="Q93" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="R93" s="42" t="s">
         <v>380</v>
-      </c>
-      <c r="R93" s="42" t="s">
-        <v>381</v>
       </c>
       <c r="S93" s="26"/>
       <c r="T93" s="26"/>
@@ -7649,7 +7649,7 @@
         <v xml:space="preserve">            First Core Mining</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F95" s="19"/>
       <c r="G95" s="23"/>
@@ -7658,10 +7658,10 @@
         <v>184</v>
       </c>
       <c r="J95" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K95" s="23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L95" s="26"/>
       <c r="M95" s="26"/>
@@ -7672,11 +7672,11 @@
       <c r="P95" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q95" s="109" t="s">
+      <c r="Q95" s="104" t="s">
+        <v>384</v>
+      </c>
+      <c r="R95" s="104" t="s">
         <v>385</v>
-      </c>
-      <c r="R95" s="109" t="s">
-        <v>386</v>
       </c>
       <c r="S95" s="26"/>
       <c r="T95" s="26"/>
@@ -7697,7 +7697,7 @@
         <v xml:space="preserve">            First Core Conversion </v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F96" s="19"/>
       <c r="G96" s="23"/>
@@ -7706,10 +7706,10 @@
         <v>15.1</v>
       </c>
       <c r="J96" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K96" s="23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L96" s="26"/>
       <c r="M96" s="26"/>
@@ -7720,8 +7720,8 @@
       <c r="P96" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q96" s="110"/>
-      <c r="R96" s="110"/>
+      <c r="Q96" s="119"/>
+      <c r="R96" s="119"/>
       <c r="S96" s="26"/>
       <c r="T96" s="26"/>
     </row>
@@ -7741,7 +7741,7 @@
         <v xml:space="preserve">            First Core Enrichment </v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F97" s="19"/>
       <c r="G97" s="23"/>
@@ -7750,10 +7750,10 @@
         <v>184.2</v>
       </c>
       <c r="J97" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K97" s="42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L97" s="26"/>
       <c r="M97" s="26"/>
@@ -7766,8 +7766,8 @@
       <c r="P97" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q97" s="110"/>
-      <c r="R97" s="110"/>
+      <c r="Q97" s="119"/>
+      <c r="R97" s="119"/>
       <c r="S97" s="26"/>
       <c r="T97" s="26"/>
     </row>
@@ -7787,23 +7787,23 @@
         <v xml:space="preserve">            First Core Fuel Assembly Fabrication </v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F98" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="G98" s="23" t="s">
         <v>388</v>
-      </c>
-      <c r="G98" s="23" t="s">
-        <v>389</v>
       </c>
       <c r="H98" s="23"/>
       <c r="I98" s="23">
         <v>1520</v>
       </c>
       <c r="J98" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K98" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L98" s="26"/>
       <c r="M98" s="26"/>
@@ -7814,8 +7814,8 @@
       <c r="P98" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q98" s="110"/>
-      <c r="R98" s="110"/>
+      <c r="Q98" s="119"/>
+      <c r="R98" s="119"/>
       <c r="S98" s="26"/>
       <c r="T98" s="26"/>
     </row>
@@ -7842,23 +7842,23 @@
         <v xml:space="preserve">            First Core Fuel Assembly Fabrication </v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G99" s="23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H99" s="23"/>
       <c r="I99" s="23">
         <v>10000</v>
       </c>
       <c r="J99" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K99" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L99" s="26"/>
       <c r="M99" s="26"/>
@@ -7869,8 +7869,8 @@
       <c r="P99" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q99" s="111"/>
-      <c r="R99" s="111"/>
+      <c r="Q99" s="105"/>
+      <c r="R99" s="105"/>
       <c r="S99" s="26"/>
       <c r="T99" s="26"/>
     </row>
@@ -7883,14 +7883,14 @@
         <v>1</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D100" s="19" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">      Miscellaneous Equipment (Cranes)</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F100" s="19"/>
       <c r="G100" s="19"/>
@@ -7910,10 +7910,10 @@
         <v>74</v>
       </c>
       <c r="Q100" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="R100" s="42" t="s">
         <v>390</v>
-      </c>
-      <c r="R100" s="42" t="s">
-        <v>391</v>
       </c>
       <c r="S100" s="26"/>
       <c r="T100" s="26"/>
@@ -7965,7 +7965,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D102" s="19" t="str">
         <f t="shared" si="9"/>
@@ -7996,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D103" s="19" t="str">
         <f t="shared" si="9"/>
@@ -8035,7 +8035,7 @@
         <v xml:space="preserve">      Startup Costs</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
@@ -8055,8 +8055,8 @@
       <c r="P104" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="Q104" s="104" t="s">
-        <v>377</v>
+      <c r="Q104" s="130" t="s">
+        <v>376</v>
       </c>
       <c r="R104" s="24"/>
       <c r="S104" s="24"/>
@@ -8084,7 +8084,7 @@
         <v xml:space="preserve">      Shipping and Transportation Costs</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F105" s="19"/>
       <c r="G105" s="19"/>
@@ -8104,7 +8104,7 @@
       <c r="P105" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="Q105" s="105"/>
+      <c r="Q105" s="131"/>
       <c r="R105" s="24"/>
       <c r="S105" s="24"/>
       <c r="T105" s="24"/>
@@ -8131,7 +8131,7 @@
         <v xml:space="preserve">      Engineering Services</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F106" s="19"/>
       <c r="G106" s="19"/>
@@ -8151,7 +8151,7 @@
       <c r="P106" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q106" s="105"/>
+      <c r="Q106" s="131"/>
       <c r="R106" s="26"/>
       <c r="S106" s="26"/>
       <c r="T106" s="26"/>
@@ -8166,14 +8166,14 @@
         <v>1</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D107" s="19" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">      PM/CM Services</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F107" s="19"/>
       <c r="G107" s="19"/>
@@ -8193,7 +8193,7 @@
       <c r="P107" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q107" s="106"/>
+      <c r="Q107" s="132"/>
       <c r="R107" s="26"/>
       <c r="S107" s="26"/>
       <c r="T107" s="26"/>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D108" s="19" t="str">
         <f t="shared" si="9"/>
@@ -8241,14 +8241,14 @@
         <v>1</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D109" s="19" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">      staff recruitment and training</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F109" s="19"/>
       <c r="G109" s="19"/>
@@ -8269,7 +8269,7 @@
         <v>72</v>
       </c>
       <c r="Q109" s="99" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R109" s="26"/>
       <c r="S109" s="26"/>
@@ -8424,7 +8424,7 @@
         <v xml:space="preserve">            Operators </v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F114" s="19"/>
       <c r="G114" s="19"/>
@@ -8433,10 +8433,10 @@
         <v>178500</v>
       </c>
       <c r="J114" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="K114" s="42" t="s">
         <v>399</v>
-      </c>
-      <c r="K114" s="42" t="s">
-        <v>400</v>
       </c>
       <c r="L114" s="26"/>
       <c r="M114" s="26"/>
@@ -8451,7 +8451,7 @@
       </c>
       <c r="Q114" s="42"/>
       <c r="R114" s="102" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="S114" s="26"/>
       <c r="T114" s="26"/>
@@ -8473,23 +8473,23 @@
         <v xml:space="preserve">            Remote Monitoring Technicians </v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F115" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="G115" s="19" t="s">
         <v>404</v>
-      </c>
-      <c r="G115" s="19" t="s">
-        <v>405</v>
       </c>
       <c r="H115" s="24"/>
       <c r="I115" s="69">
         <v>178500</v>
       </c>
       <c r="J115" s="26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K115" s="42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L115" s="26"/>
       <c r="M115" s="26"/>
@@ -8504,7 +8504,7 @@
       </c>
       <c r="Q115" s="42"/>
       <c r="R115" s="102" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="S115" s="26"/>
       <c r="T115" s="26"/>
@@ -8526,7 +8526,7 @@
         <v xml:space="preserve">            Security Staff </v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
@@ -8535,10 +8535,10 @@
         <v>178500</v>
       </c>
       <c r="J116" s="26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K116" s="42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L116" s="26"/>
       <c r="M116" s="26"/>
@@ -8553,7 +8553,7 @@
       </c>
       <c r="Q116" s="42"/>
       <c r="R116" s="102" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="S116" s="26"/>
       <c r="T116" s="26"/>
@@ -8608,7 +8608,7 @@
         <v xml:space="preserve">      Annualized Decommissioning Cost</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="Q118" s="42"/>
       <c r="R118" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S118" s="26"/>
       <c r="T118" s="26"/>
@@ -8690,7 +8690,7 @@
         <v xml:space="preserve">      Refueling Operations</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F120" s="19"/>
       <c r="G120" s="19"/>
@@ -8699,10 +8699,10 @@
         <v>178500</v>
       </c>
       <c r="J120" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="K120" s="42" t="s">
         <v>399</v>
-      </c>
-      <c r="K120" s="42" t="s">
-        <v>400</v>
       </c>
       <c r="L120" s="26"/>
       <c r="M120" s="26"/>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="Q120" s="42"/>
       <c r="R120" s="102" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="S120" s="26"/>
       <c r="T120" s="26"/>
@@ -8770,7 +8770,7 @@
         <v xml:space="preserve">      Spent Fuel Management</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F122" s="19"/>
       <c r="G122" s="19"/>
@@ -8779,10 +8779,10 @@
         <v>1</v>
       </c>
       <c r="J122" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="K122" s="42" t="s">
         <v>412</v>
-      </c>
-      <c r="K122" s="42" t="s">
-        <v>413</v>
       </c>
       <c r="L122" s="26"/>
       <c r="M122" s="26"/>
@@ -8802,20 +8802,19 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="T73:T74"/>
-    <mergeCell ref="R45:R47"/>
-    <mergeCell ref="R49:R51"/>
-    <mergeCell ref="S45:S47"/>
-    <mergeCell ref="S49:S51"/>
-    <mergeCell ref="S65:S68"/>
-    <mergeCell ref="R60:R63"/>
-    <mergeCell ref="S60:S63"/>
-    <mergeCell ref="Q15:Q17"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="R15:R17"/>
-    <mergeCell ref="S15:S17"/>
+    <mergeCell ref="Q104:Q107"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="Q45:Q47"/>
+    <mergeCell ref="Q49:Q51"/>
+    <mergeCell ref="Q95:Q99"/>
+    <mergeCell ref="R24:R26"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="R34:R36"/>
+    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="Q34:Q36"/>
     <mergeCell ref="R95:R99"/>
     <mergeCell ref="R73:R74"/>
     <mergeCell ref="S73:S74"/>
@@ -8832,19 +8831,20 @@
     <mergeCell ref="S55:S57"/>
     <mergeCell ref="S39:S41"/>
     <mergeCell ref="R20:R22"/>
-    <mergeCell ref="R24:R26"/>
-    <mergeCell ref="R30:R32"/>
-    <mergeCell ref="R34:R36"/>
-    <mergeCell ref="R39:R41"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="Q24:Q26"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="Q34:Q36"/>
-    <mergeCell ref="Q104:Q107"/>
-    <mergeCell ref="Q39:Q41"/>
-    <mergeCell ref="Q45:Q47"/>
-    <mergeCell ref="Q49:Q51"/>
-    <mergeCell ref="Q95:Q99"/>
+    <mergeCell ref="Q15:Q17"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="S15:S17"/>
+    <mergeCell ref="T73:T74"/>
+    <mergeCell ref="R45:R47"/>
+    <mergeCell ref="R49:R51"/>
+    <mergeCell ref="S45:S47"/>
+    <mergeCell ref="S49:S51"/>
+    <mergeCell ref="S65:S68"/>
+    <mergeCell ref="R60:R63"/>
+    <mergeCell ref="S60:S63"/>
   </mergeCells>
   <conditionalFormatting sqref="A73:F75 L95:T95 L96:P96 S96:T100 I97:P97 A100:R100 R104:T109 A110:T113 A114:H115 A116:J116 A117:T117 S118:T118 A119:T119 S120:T120 A121:T122">
     <cfRule type="expression" dxfId="84" priority="140">
@@ -9223,13 +9223,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="133" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B1" s="134" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="135" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -9290,7 +9290,7 @@
         <v>211</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" s="45"/>
     </row>
@@ -9310,7 +9310,7 @@
         <v>213</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="45"/>
     </row>
@@ -9331,7 +9331,7 @@
         <v>214.7</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C11" s="45">
         <v>225536.86</v>
@@ -9343,7 +9343,7 @@
         <v>217</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" s="45"/>
     </row>
@@ -9376,7 +9376,7 @@
         <v>221.1</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" s="45">
         <f>C16+C17+C18</f>
@@ -9388,7 +9388,7 @@
         <v>221.11</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C16" s="45">
         <v>762382.4</v>
@@ -9399,7 +9399,7 @@
         <v>221.12</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C17" s="45">
         <v>1201688.6000000001</v>
@@ -9410,7 +9410,7 @@
         <v>221.13</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C18" s="45">
         <v>40781</v>
@@ -9421,7 +9421,7 @@
         <v>221.2</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C19" s="45">
         <f>C20</f>
@@ -9433,7 +9433,7 @@
         <v>221.21</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C20" s="45">
         <f>SUM(C21:C23)</f>
@@ -9457,7 +9457,7 @@
         <v>221.21199999999999</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="45">
         <v>322663</v>
@@ -9468,7 +9468,7 @@
         <v>221.21299999999999</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C23" s="45">
         <v>400000</v>
@@ -9479,7 +9479,7 @@
         <v>221.214</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -9487,7 +9487,7 @@
         <v>221.3</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C25" s="45">
         <f>C26+C30+C31</f>
@@ -9510,7 +9510,7 @@
         <v>221.31100000000001</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C27" s="45">
         <v>3200000</v>
@@ -9521,7 +9521,7 @@
         <v>221.31200000000001</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C28" s="45">
         <v>850000</v>
@@ -9532,7 +9532,7 @@
         <v>221.31299999999999</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C29" s="45">
         <v>120231</v>
@@ -9554,7 +9554,7 @@
         <v>221.33</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C31" s="45">
         <v>0</v>
@@ -9562,7 +9562,7 @@
     </row>
     <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="63" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B32" s="44" t="s">
         <v>15</v>
@@ -9577,7 +9577,7 @@
         <v>222.1</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C33" s="45">
         <v>0</v>
@@ -9588,7 +9588,7 @@
         <v>222.2</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C34" s="45">
         <v>4890230.5999999996</v>
@@ -9599,7 +9599,7 @@
         <v>222.21</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C35" s="45">
         <v>1520786</v>
@@ -9610,7 +9610,7 @@
         <v>222.22</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C36" s="45">
         <v>3341486</v>
@@ -9621,7 +9621,7 @@
         <v>222.23</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C37" s="45">
         <v>27958.6</v>
@@ -9643,7 +9643,7 @@
         <v>222.4</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C39" s="45">
         <v>0</v>
@@ -9654,7 +9654,7 @@
         <v>222.5</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C40" s="45">
         <v>1018720</v>
@@ -9662,19 +9662,19 @@
     </row>
     <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" s="44" t="s">
         <v>209</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>210</v>
       </c>
       <c r="C41" s="45"/>
     </row>
     <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="B42" s="44" t="s">
         <v>211</v>
-      </c>
-      <c r="B42" s="44" t="s">
-        <v>212</v>
       </c>
       <c r="C42" s="45">
         <v>456297</v>
@@ -9682,7 +9682,7 @@
     </row>
     <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="63" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B43" s="44" t="s">
         <v>20</v>
@@ -9693,10 +9693,10 @@
     </row>
     <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" s="44" t="s">
         <v>214</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>215</v>
       </c>
       <c r="C44" s="45">
         <v>30960</v>
@@ -9707,7 +9707,7 @@
         <v>23</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C45" s="45">
         <f>C46</f>
@@ -9731,7 +9731,7 @@
         <v>232.1</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C47" s="45">
         <v>0</v>
@@ -9751,10 +9751,10 @@
     </row>
     <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="B49" s="44" t="s">
         <v>218</v>
-      </c>
-      <c r="B49" s="44" t="s">
-        <v>219</v>
       </c>
       <c r="C49" s="45">
         <v>1627.02</v>
@@ -9762,10 +9762,10 @@
     </row>
     <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" s="44" t="s">
         <v>220</v>
-      </c>
-      <c r="B50" s="44" t="s">
-        <v>221</v>
       </c>
       <c r="C50" s="45">
         <v>0</v>
@@ -9773,10 +9773,10 @@
     </row>
     <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" s="44" t="s">
         <v>222</v>
-      </c>
-      <c r="B51" s="44" t="s">
-        <v>223</v>
       </c>
       <c r="C51" s="45">
         <v>71788.600000000006</v>
@@ -9796,7 +9796,7 @@
     </row>
     <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B53" s="44" t="s">
         <v>28</v>
@@ -9810,7 +9810,7 @@
         <v>26</v>
       </c>
       <c r="B54" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C54" s="45"/>
     </row>
@@ -9843,7 +9843,7 @@
         <v>317</v>
       </c>
       <c r="B57" s="44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C57" s="45">
         <v>1333020.8</v>
@@ -9866,7 +9866,7 @@
         <v>331</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C59" s="45">
         <f>C60+C61</f>
@@ -9878,7 +9878,7 @@
         <v>331.3</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C60" s="45">
         <v>215000</v>
@@ -9889,7 +9889,7 @@
         <v>331.5</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C61" s="45">
         <v>2192166.4000000004</v>
@@ -9912,7 +9912,7 @@
         <v>341</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C63" s="45">
         <v>1635355.7999999998</v>
@@ -9923,7 +9923,7 @@
         <v>345</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C64" s="45">
         <v>29927</v>
@@ -9946,7 +9946,7 @@
         <v>351</v>
       </c>
       <c r="B66" s="44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C66" s="45">
         <v>257261.4</v>
@@ -9957,7 +9957,7 @@
         <v>352</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C67" s="45">
         <v>363052.18773783161</v>
@@ -9968,7 +9968,7 @@
         <v>36</v>
       </c>
       <c r="B68" s="44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C68" s="45">
         <f>C69+C70</f>
@@ -9980,7 +9980,7 @@
         <v>361</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C69" s="45"/>
     </row>
@@ -9989,7 +9989,7 @@
         <v>362</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C70" s="45">
         <v>416958.9359999997</v>
@@ -10000,7 +10000,7 @@
         <v>40</v>
       </c>
       <c r="B71" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C71" s="47">
         <f>C72</f>
@@ -10012,7 +10012,7 @@
         <v>41</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C72" s="45">
         <v>4169765</v>
@@ -10023,7 +10023,7 @@
         <v>50</v>
       </c>
       <c r="B73" s="46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C73" s="47">
         <f>C74</f>
@@ -10035,7 +10035,7 @@
         <v>54</v>
       </c>
       <c r="B74" s="44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C74" s="45">
         <v>16408781.6</v>
@@ -10058,7 +10058,7 @@
         <v>61</v>
       </c>
       <c r="B76" s="44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C76" s="45">
         <v>6160606</v>
@@ -10089,10 +10089,10 @@
     </row>
     <row r="79" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A79" s="48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C79" s="45">
         <v>33779050.138262168</v>
@@ -10130,21 +10130,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="52" t="s">
         <v>241</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>242</v>
       </c>
       <c r="C1" s="52" t="s">
         <v>66</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B2" s="138"/>
       <c r="C2" s="138"/>
@@ -10152,61 +10152,61 @@
     </row>
     <row r="3" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B3" s="8">
         <v>83</v>
       </c>
       <c r="C3" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="55" t="s">
         <v>246</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4" s="8">
         <v>20</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D4" s="55"/>
     </row>
     <row r="5" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B5" s="8">
         <v>5.5</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" s="8">
         <v>16.5</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="137" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B7" s="138"/>
       <c r="C7" s="138"/>
@@ -10214,58 +10214,58 @@
     </row>
     <row r="8" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" s="8">
         <v>145.30000000000001</v>
       </c>
       <c r="C8" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="55" t="s">
         <v>255</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B9" s="8">
         <v>30</v>
       </c>
       <c r="C9" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="55" t="s">
         <v>258</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B10" s="8">
         <v>19.75</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B11" s="8">
         <v>36</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
@@ -10278,103 +10278,103 @@
     </row>
     <row r="13" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="55" t="s">
         <v>265</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>247</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B14" s="8">
         <v>124</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B15" s="8">
         <v>1</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B16" s="8">
         <v>818.4</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B17" s="8">
         <v>318</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D17" s="55"/>
     </row>
     <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B18" s="8">
         <v>570</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B19" s="8">
         <v>1.9E-2</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="137" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B20" s="138"/>
       <c r="C20" s="138"/>
@@ -10382,133 +10382,133 @@
     </row>
     <row r="21" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B21" s="8">
         <v>4</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B22" s="8">
         <v>1</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B23" s="8">
         <v>124</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B24" s="8">
         <v>1</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B25" s="8">
         <v>880.8</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B26" s="8">
         <v>309</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B27" s="8">
         <v>49.2</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B28" s="8">
         <v>14</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B29" s="8">
         <v>14</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="137" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B30" s="138"/>
       <c r="C30" s="138"/>
@@ -10516,69 +10516,69 @@
     </row>
     <row r="31" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B31" s="8">
         <v>5</v>
       </c>
       <c r="C31" s="56"/>
       <c r="D31" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="54" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B32" s="8">
         <v>2</v>
       </c>
       <c r="C32" s="56"/>
       <c r="D32" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B33" s="8">
         <v>9</v>
       </c>
       <c r="C33" s="56"/>
       <c r="D33" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B34" s="8">
         <v>213</v>
       </c>
       <c r="C34" s="56"/>
       <c r="D34" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="61" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B35" s="58">
         <v>48</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D35" s="60" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="61" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B36" s="58">
         <v>277</v>
@@ -10588,7 +10588,7 @@
     </row>
     <row r="37" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="137" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B37" s="138"/>
       <c r="C37" s="138"/>
@@ -10596,91 +10596,91 @@
     </row>
     <row r="38" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B38" s="8">
         <v>54.2</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B39" s="8">
         <v>56.3</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="54" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B40" s="8">
         <v>39.700000000000003</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="54" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B41" s="8">
         <v>95.3</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="54" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B42" s="8">
         <v>2571.9</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="54" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B43" s="8">
         <v>925.3</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="137" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B44" s="138"/>
       <c r="C44" s="138"/>
@@ -10688,21 +10688,21 @@
     </row>
     <row r="45" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B45" s="8">
         <v>8.3000000000000007</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="137" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B46" s="138"/>
       <c r="C46" s="138"/>
@@ -10710,49 +10710,49 @@
     </row>
     <row r="47" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B47" s="8">
         <v>156</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D47" s="55" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B48" s="8">
         <v>4</v>
       </c>
       <c r="C48" s="55" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D48" s="55" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="54" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B49" s="8">
         <v>0.86</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="137" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B50" s="138"/>
       <c r="C50" s="138"/>
@@ -10760,30 +10760,30 @@
     </row>
     <row r="51" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B51" s="8">
         <v>1.1100000000000001</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D51" s="55" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="54" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B52" s="8">
         <v>1.587</v>
       </c>
       <c r="C52" s="55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D52" s="55" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -11943,15 +11943,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="101" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B1" s="101" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B2" s="4">
         <f>MARVEL_Cost!C56/(MARVEL_Cost!C6+MARVEL_Cost!C13+MARVEL_Cost!C45)</f>
@@ -11960,7 +11960,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -11968,7 +11968,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -11976,7 +11976,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -11984,7 +11984,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B6">
         <v>1800</v>
@@ -11992,7 +11992,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -12000,7 +12000,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B8">
         <v>0.01</v>

--- a/cost/Cost_Database.xlsx
+++ b/cost/Cost_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannbn/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4D3DE2-507A-2F42-BDB5-24B527F1C85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D387D633-FDB0-B74E-B474-FD67EC8F5F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Database" sheetId="2" r:id="rId1"/>
@@ -54,6 +54,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={1B3BEBC6-8301-0940-8823-166952F6D7FC}</author>
+    <author>tc={F26C2C60-5554-7C46-A2DA-9CC485CDD5A5}</author>
     <author>tc={6A4E3BDC-584F-1346-BF51-598A89836273}</author>
     <author>tc={368934F8-D933-024D-9355-5B191B79D6E7}</author>
   </authors>
@@ -67,7 +68,16 @@
 </t>
       </text>
     </comment>
-    <comment ref="L67" authorId="1" shapeId="0" xr:uid="{6A4E3BDC-584F-1346-BF51-598A89836273}">
+    <comment ref="L64" authorId="1" shapeId="0" xr:uid="{F26C2C60-5554-7C46-A2DA-9CC485CDD5A5}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Since the cost of the BeO of the drums was not available, the cost of the BeO reflector is divided by its mass to get a unit cost for the BeO
+</t>
+      </text>
+    </comment>
+    <comment ref="L69" authorId="2" shapeId="0" xr:uid="{6A4E3BDC-584F-1346-BF51-598A89836273}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -75,7 +85,7 @@
     Cost data about B4C are based on the B4C of the control drums</t>
       </text>
     </comment>
-    <comment ref="J73" authorId="2" shapeId="0" xr:uid="{368934F8-D933-024D-9355-5B191B79D6E7}">
+    <comment ref="J75" authorId="3" shapeId="0" xr:uid="{368934F8-D933-024D-9355-5B191B79D6E7}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -89,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="417">
   <si>
     <t>Account</t>
   </si>
@@ -1548,6 +1558,9 @@
   </si>
   <si>
     <t>Turbine Building Exterior Walls Volume</t>
+  </si>
+  <si>
+    <t>Be</t>
   </si>
 </sst>
 </file>
@@ -2006,7 +2019,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2259,6 +2272,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2410,31 +2429,10 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2466,7 +2464,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2476,19 +2474,6 @@
           <bgColor rgb="FFFFFFBA"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -2554,100 +2539,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2680,9 +2571,15 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2692,19 +2589,6 @@
           <bgColor rgb="FFFFFFBA"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2761,58 +2645,10 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2834,39 +2670,6 @@
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2923,6 +2726,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
@@ -2948,6 +2757,216 @@
         <b/>
         <i val="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3355,10 +3374,14 @@
     <text xml:space="preserve">Since the cost of the BeO of the drums was not available, the cost of the BeO reflector is divided by its mass to get a unit cost for the BeO
 </text>
   </threadedComment>
-  <threadedComment ref="L67" dT="2025-05-27T17:51:06.88" personId="{84112BF8-C915-7B4B-BE8E-B816F75B981C}" id="{6A4E3BDC-584F-1346-BF51-598A89836273}">
+  <threadedComment ref="L64" dT="2025-05-24T19:25:31.03" personId="{84112BF8-C915-7B4B-BE8E-B816F75B981C}" id="{F26C2C60-5554-7C46-A2DA-9CC485CDD5A5}">
+    <text xml:space="preserve">Since the cost of the BeO of the drums was not available, the cost of the BeO reflector is divided by its mass to get a unit cost for the BeO
+</text>
+  </threadedComment>
+  <threadedComment ref="L69" dT="2025-05-27T17:51:06.88" personId="{84112BF8-C915-7B4B-BE8E-B816F75B981C}" id="{6A4E3BDC-584F-1346-BF51-598A89836273}">
     <text>Cost data about B4C are based on the B4C of the control drums</text>
   </threadedComment>
-  <threadedComment ref="J73" dT="2025-05-27T22:16:31.29" personId="{84112BF8-C915-7B4B-BE8E-B816F75B981C}" id="{368934F8-D933-024D-9355-5B191B79D6E7}">
+  <threadedComment ref="J75" dT="2025-05-27T22:16:31.29" personId="{84112BF8-C915-7B4B-BE8E-B816F75B981C}" id="{368934F8-D933-024D-9355-5B191B79D6E7}">
     <text xml:space="preserve">The primary pump needs to be expensive!!
 </text>
   </threadedComment>
@@ -3367,11 +3390,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5330BDA-7164-B946-A942-FFAE4F744BBA}">
-  <dimension ref="A1:Z122"/>
+  <dimension ref="A1:Z124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="63" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="63" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3505,7 +3528,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="17">
-        <f t="shared" ref="B3:B86" si="0">IF(ISNUMBER(A3),
+        <f t="shared" ref="B3:B88" si="0">IF(ISNUMBER(A3),
     IF(AND(A3=INT(A3), MOD(A3, 10) = 0), 0,
         IF(AND(A3=INT(A3), LEN(A3)=2), 1,
             IF(AND(A3=INT(A3), LEN(A3)=3), 2,
@@ -3519,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="19" t="str">
-        <f t="shared" ref="D3:D84" si="1">REPT("   ", B3*2) &amp; C3</f>
+        <f t="shared" ref="D3:D86" si="1">REPT("   ", B3*2) &amp; C3</f>
         <v xml:space="preserve">      Land Cost</v>
       </c>
       <c r="E3" s="19" t="s">
@@ -3551,10 +3574,10 @@
       <c r="Q3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="106" t="s">
+      <c r="R3" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="S3" s="122" t="s">
+      <c r="S3" s="124" t="s">
         <v>56</v>
       </c>
       <c r="T3" s="26"/>
@@ -3604,8 +3627,8 @@
       <c r="Q4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="106"/>
-      <c r="S4" s="122"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="124"/>
       <c r="T4" s="26"/>
     </row>
     <row r="5" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3647,10 +3670,10 @@
       <c r="Q5" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="106" t="s">
+      <c r="R5" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="S5" s="122" t="s">
+      <c r="S5" s="124" t="s">
         <v>59</v>
       </c>
       <c r="T5" s="26"/>
@@ -3693,8 +3716,8 @@
       <c r="Q6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="106"/>
-      <c r="S6" s="122"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="124"/>
       <c r="T6" s="26"/>
     </row>
     <row r="7" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3891,13 +3914,13 @@
       <c r="P11" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="118" t="s">
+      <c r="Q11" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="R11" s="106" t="s">
+      <c r="R11" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="S11" s="107" t="s">
+      <c r="S11" s="109" t="s">
         <v>84</v>
       </c>
       <c r="T11" s="26"/>
@@ -3951,9 +3974,9 @@
       <c r="P12" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="108"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="108"/>
+      <c r="S12" s="110"/>
       <c r="T12" s="26"/>
     </row>
     <row r="13" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3998,9 +4021,9 @@
       <c r="P13" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="108"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="110"/>
       <c r="T13" s="26"/>
     </row>
     <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4076,13 +4099,13 @@
       <c r="P15" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q15" s="118" t="s">
+      <c r="Q15" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="106" t="s">
+      <c r="R15" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="S15" s="107" t="s">
+      <c r="S15" s="109" t="s">
         <v>84</v>
       </c>
       <c r="T15" s="26"/>
@@ -4129,9 +4152,9 @@
       <c r="P16" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="108"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="108"/>
+      <c r="S16" s="110"/>
       <c r="T16" s="26"/>
     </row>
     <row r="17" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4176,9 +4199,9 @@
       <c r="P17" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="108"/>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="110"/>
       <c r="T17" s="26"/>
     </row>
     <row r="18" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4287,13 +4310,13 @@
       <c r="P20" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q20" s="118" t="s">
+      <c r="Q20" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="R20" s="106" t="s">
+      <c r="R20" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="S20" s="107" t="s">
+      <c r="S20" s="109" t="s">
         <v>84</v>
       </c>
       <c r="T20" s="26"/>
@@ -4340,9 +4363,9 @@
       <c r="P21" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="106"/>
-      <c r="S21" s="108"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="108"/>
+      <c r="S21" s="110"/>
       <c r="T21" s="26"/>
     </row>
     <row r="22" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4387,9 +4410,9 @@
       <c r="P22" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="106"/>
-      <c r="S22" s="108"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="108"/>
+      <c r="S22" s="110"/>
       <c r="T22" s="26"/>
     </row>
     <row r="23" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4466,13 +4489,13 @@
       <c r="P24" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q24" s="118" t="s">
+      <c r="Q24" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="R24" s="106" t="s">
+      <c r="R24" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="107" t="s">
+      <c r="S24" s="109" t="s">
         <v>84</v>
       </c>
       <c r="T24" s="26"/>
@@ -4519,9 +4542,9 @@
       <c r="P25" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="106"/>
-      <c r="S25" s="108"/>
+      <c r="Q25" s="120"/>
+      <c r="R25" s="108"/>
+      <c r="S25" s="110"/>
       <c r="T25" s="26"/>
     </row>
     <row r="26" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4566,9 +4589,9 @@
       <c r="P26" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="106"/>
-      <c r="S26" s="108"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="108"/>
+      <c r="S26" s="110"/>
       <c r="T26" s="26"/>
     </row>
     <row r="27" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4709,13 +4732,13 @@
       <c r="P30" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q30" s="129" t="s">
+      <c r="Q30" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="R30" s="128" t="s">
+      <c r="R30" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="S30" s="126" t="s">
+      <c r="S30" s="128" t="s">
         <v>84</v>
       </c>
       <c r="T30" s="85"/>
@@ -4762,9 +4785,9 @@
       <c r="P31" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q31" s="129"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="127"/>
+      <c r="Q31" s="131"/>
+      <c r="R31" s="130"/>
+      <c r="S31" s="129"/>
       <c r="T31" s="85"/>
     </row>
     <row r="32" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -4809,9 +4832,9 @@
       <c r="P32" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q32" s="129"/>
-      <c r="R32" s="128"/>
-      <c r="S32" s="127"/>
+      <c r="Q32" s="131"/>
+      <c r="R32" s="130"/>
+      <c r="S32" s="129"/>
       <c r="T32" s="85"/>
     </row>
     <row r="33" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4888,13 +4911,13 @@
       <c r="P34" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q34" s="129" t="s">
+      <c r="Q34" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="R34" s="128" t="s">
+      <c r="R34" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="S34" s="126" t="s">
+      <c r="S34" s="128" t="s">
         <v>84</v>
       </c>
       <c r="T34" s="85"/>
@@ -4941,9 +4964,9 @@
       <c r="P35" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q35" s="129"/>
-      <c r="R35" s="128"/>
-      <c r="S35" s="127"/>
+      <c r="Q35" s="131"/>
+      <c r="R35" s="130"/>
+      <c r="S35" s="129"/>
       <c r="T35" s="85"/>
     </row>
     <row r="36" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -4988,9 +5011,9 @@
       <c r="P36" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q36" s="129"/>
-      <c r="R36" s="128"/>
-      <c r="S36" s="127"/>
+      <c r="Q36" s="131"/>
+      <c r="R36" s="130"/>
+      <c r="S36" s="129"/>
       <c r="T36" s="85"/>
     </row>
     <row r="37" spans="1:20" ht="30" thickBot="1" x14ac:dyDescent="0.25">
@@ -5099,13 +5122,13 @@
       <c r="P39" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q39" s="129" t="s">
+      <c r="Q39" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="R39" s="128" t="s">
+      <c r="R39" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="S39" s="126" t="s">
+      <c r="S39" s="128" t="s">
         <v>84</v>
       </c>
       <c r="T39" s="85"/>
@@ -5152,9 +5175,9 @@
       <c r="P40" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q40" s="129"/>
-      <c r="R40" s="128"/>
-      <c r="S40" s="127"/>
+      <c r="Q40" s="131"/>
+      <c r="R40" s="130"/>
+      <c r="S40" s="129"/>
       <c r="T40" s="85"/>
     </row>
     <row r="41" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -5199,9 +5222,9 @@
       <c r="P41" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q41" s="129"/>
-      <c r="R41" s="128"/>
-      <c r="S41" s="127"/>
+      <c r="Q41" s="131"/>
+      <c r="R41" s="130"/>
+      <c r="S41" s="129"/>
       <c r="T41" s="85"/>
     </row>
     <row r="42" spans="1:20" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5368,13 +5391,13 @@
       <c r="P45" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q45" s="118" t="s">
+      <c r="Q45" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="R45" s="106" t="s">
+      <c r="R45" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="S45" s="107" t="s">
+      <c r="S45" s="109" t="s">
         <v>84</v>
       </c>
       <c r="T45" s="26"/>
@@ -5421,9 +5444,9 @@
       <c r="P46" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q46" s="118"/>
-      <c r="R46" s="106"/>
-      <c r="S46" s="108"/>
+      <c r="Q46" s="120"/>
+      <c r="R46" s="108"/>
+      <c r="S46" s="110"/>
       <c r="T46" s="26"/>
     </row>
     <row r="47" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -5468,9 +5491,9 @@
       <c r="P47" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q47" s="118"/>
-      <c r="R47" s="106"/>
-      <c r="S47" s="108"/>
+      <c r="Q47" s="120"/>
+      <c r="R47" s="108"/>
+      <c r="S47" s="110"/>
       <c r="T47" s="26"/>
     </row>
     <row r="48" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5547,13 +5570,13 @@
       <c r="P49" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q49" s="118" t="s">
+      <c r="Q49" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="R49" s="106" t="s">
+      <c r="R49" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="S49" s="107" t="s">
+      <c r="S49" s="109" t="s">
         <v>84</v>
       </c>
       <c r="T49" s="26"/>
@@ -5600,9 +5623,9 @@
       <c r="P50" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q50" s="118"/>
-      <c r="R50" s="106"/>
-      <c r="S50" s="108"/>
+      <c r="Q50" s="120"/>
+      <c r="R50" s="108"/>
+      <c r="S50" s="110"/>
       <c r="T50" s="26"/>
     </row>
     <row r="51" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -5647,9 +5670,9 @@
       <c r="P51" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q51" s="118"/>
-      <c r="R51" s="106"/>
-      <c r="S51" s="108"/>
+      <c r="Q51" s="120"/>
+      <c r="R51" s="108"/>
+      <c r="S51" s="110"/>
       <c r="T51" s="26"/>
     </row>
     <row r="52" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5798,10 +5821,10 @@
       <c r="Q55" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R55" s="123" t="s">
+      <c r="R55" s="125" t="s">
         <v>178</v>
       </c>
-      <c r="S55" s="109" t="s">
+      <c r="S55" s="111" t="s">
         <v>182</v>
       </c>
       <c r="T55" s="42" t="s">
@@ -5858,8 +5881,8 @@
       <c r="Q56" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R56" s="124"/>
-      <c r="S56" s="110"/>
+      <c r="R56" s="126"/>
+      <c r="S56" s="112"/>
       <c r="T56" s="26"/>
     </row>
     <row r="57" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5915,8 +5938,8 @@
       <c r="Q57" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R57" s="125"/>
-      <c r="S57" s="111"/>
+      <c r="R57" s="127"/>
+      <c r="S57" s="113"/>
       <c r="T57" s="42" t="s">
         <v>181</v>
       </c>
@@ -6026,10 +6049,10 @@
       <c r="Q60" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R60" s="112" t="s">
+      <c r="R60" s="114" t="s">
         <v>178</v>
       </c>
-      <c r="S60" s="115" t="s">
+      <c r="S60" s="117" t="s">
         <v>349</v>
       </c>
       <c r="T60" s="90" t="s">
@@ -6075,8 +6098,8 @@
       <c r="Q61" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R61" s="113"/>
-      <c r="S61" s="116"/>
+      <c r="R61" s="115"/>
+      <c r="S61" s="118"/>
       <c r="T61" s="85"/>
     </row>
     <row r="62" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6133,8 +6156,8 @@
       <c r="Q62" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R62" s="113"/>
-      <c r="S62" s="116"/>
+      <c r="R62" s="115"/>
+      <c r="S62" s="118"/>
       <c r="T62" s="85"/>
     </row>
     <row r="63" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6191,575 +6214,597 @@
       <c r="Q63" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R63" s="114"/>
-      <c r="S63" s="117"/>
+      <c r="R63" s="116"/>
+      <c r="S63" s="119"/>
       <c r="T63" s="85"/>
     </row>
-    <row r="64" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="36">
+    <row r="64" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="77">
+        <v>221.214</v>
+      </c>
+      <c r="B64" s="78">
+        <f t="shared" ref="B64" si="2">IF(ISNUMBER(A64),
+    IF(AND(A64=INT(A64), MOD(A64, 10) = 0), 0,
+        IF(AND(A64=INT(A64), LEN(A64)=2), 1,
+            IF(AND(A64=INT(A64), LEN(A64)=3), 2,
+                LEN(A64) - FIND(".", A64) + 2)
+        )
+    ),
+"")</f>
+        <v>5</v>
+      </c>
+      <c r="C64" s="87" t="s">
+        <v>185</v>
+      </c>
+      <c r="D64" s="80" t="str">
+        <f t="shared" ref="D64" si="3">REPT("   ", B64*2) &amp; C64</f>
+        <v xml:space="preserve">                              Control Drums Materials (Reflector)</v>
+      </c>
+      <c r="E64" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="F64" s="80" t="s">
+        <v>330</v>
+      </c>
+      <c r="G64" s="80" t="s">
+        <v>416</v>
+      </c>
+      <c r="H64" s="88"/>
+      <c r="I64" s="92">
+        <f>MARVEL_Cost!C28/L64</f>
+        <v>44736.84210526316</v>
+      </c>
+      <c r="J64" s="85" t="s">
+        <v>176</v>
+      </c>
+      <c r="K64" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="L64" s="85">
+        <f>1000*'Design Variables'!B19</f>
+        <v>19</v>
+      </c>
+      <c r="M64" s="85" t="s">
+        <v>175</v>
+      </c>
+      <c r="N64" s="85">
+        <v>1</v>
+      </c>
+      <c r="O64" s="85">
+        <v>2024</v>
+      </c>
+      <c r="P64" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q64" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="R64" s="104"/>
+      <c r="S64" s="105"/>
+      <c r="T64" s="85"/>
+    </row>
+    <row r="65" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="36">
         <v>221.3</v>
       </c>
-      <c r="B64" s="17">
+      <c r="B65" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C64" s="37" t="s">
+      <c r="C65" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="D64" s="19" t="str">
+      <c r="D65" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                  Non-Fuel Core Internals</v>
       </c>
-      <c r="E64" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="69"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="26"/>
-      <c r="P64" s="26"/>
-      <c r="Q64" s="42"/>
-      <c r="R64" s="26"/>
-      <c r="S64" s="26"/>
-      <c r="T64" s="26"/>
-    </row>
-    <row r="65" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="36">
-        <v>221.31</v>
-      </c>
-      <c r="B65" s="17">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C65" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">                        Reflector</v>
-      </c>
       <c r="E65" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="F65" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="H65" s="24">
-        <f>MARVEL_Cost!C29</f>
-        <v>120231</v>
-      </c>
-      <c r="I65" s="70">
-        <f>MARVEL_Cost!C27/L65</f>
-        <v>10062.893081761007</v>
-      </c>
-      <c r="J65" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="K65" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="L65" s="26">
-        <f>'Design Variables'!B17</f>
-        <v>318</v>
-      </c>
-      <c r="M65" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="N65" s="26">
-        <v>1</v>
-      </c>
-      <c r="O65" s="26">
-        <v>2024</v>
-      </c>
-      <c r="P65" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q65" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="R65" s="123" t="s">
-        <v>178</v>
-      </c>
-      <c r="S65" s="109" t="s">
-        <v>182</v>
-      </c>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="69"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="26"/>
+      <c r="P65" s="26"/>
+      <c r="Q65" s="42"/>
+      <c r="R65" s="26"/>
+      <c r="S65" s="26"/>
       <c r="T65" s="26"/>
     </row>
     <row r="66" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="36">
-        <v>221.32</v>
+        <v>221.31</v>
       </c>
       <c r="B66" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66" s="19" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">                        Reflector</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="H66" s="24">
+        <f>MARVEL_Cost!C29</f>
+        <v>120231</v>
+      </c>
+      <c r="I66" s="70">
+        <f>MARVEL_Cost!C27/L66</f>
+        <v>10062.893081761007</v>
+      </c>
+      <c r="J66" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="K66" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="L66" s="26">
+        <f>'Design Variables'!B17</f>
+        <v>318</v>
+      </c>
+      <c r="M66" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="N66" s="26">
+        <v>1</v>
+      </c>
+      <c r="O66" s="26">
+        <v>2024</v>
+      </c>
+      <c r="P66" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q66" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="R66" s="125" t="s">
+        <v>178</v>
+      </c>
+      <c r="S66" s="111" t="s">
+        <v>182</v>
+      </c>
+      <c r="T66" s="26"/>
+    </row>
+    <row r="67" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="36">
+        <v>221.31</v>
+      </c>
+      <c r="B67" s="17">
+        <f t="shared" ref="B67" si="4">IF(ISNUMBER(A67),
+    IF(AND(A67=INT(A67), MOD(A67, 10) = 0), 0,
+        IF(AND(A67=INT(A67), LEN(A67)=2), 1,
+            IF(AND(A67=INT(A67), LEN(A67)=3), 2,
+                LEN(A67) - FIND(".", A67) + 2)
+        )
+    ),
+"")</f>
+        <v>4</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="19" t="str">
+        <f t="shared" ref="D67" si="5">REPT("   ", B67*2) &amp; C67</f>
+        <v xml:space="preserve">                        Reflector</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="H67" s="24"/>
+      <c r="I67" s="70">
+        <f>I64</f>
+        <v>44736.84210526316</v>
+      </c>
+      <c r="J67" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="K67" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="L67" s="26">
+        <f>L64</f>
+        <v>19</v>
+      </c>
+      <c r="M67" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="N67" s="26">
+        <v>1</v>
+      </c>
+      <c r="O67" s="26">
+        <v>2024</v>
+      </c>
+      <c r="P67" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q67" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="R67" s="126"/>
+      <c r="S67" s="112"/>
+      <c r="T67" s="26"/>
+    </row>
+    <row r="68" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="36">
+        <v>221.32</v>
+      </c>
+      <c r="B68" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="19" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">                        Shield</v>
       </c>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="69"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="42"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="26"/>
-      <c r="P66" s="26"/>
-      <c r="Q66" s="42"/>
-      <c r="R66" s="124"/>
-      <c r="S66" s="110"/>
-      <c r="T66" s="26"/>
-    </row>
-    <row r="67" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="77">
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="69"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="42"/>
+      <c r="R68" s="126"/>
+      <c r="S68" s="112"/>
+      <c r="T68" s="26"/>
+    </row>
+    <row r="69" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="77">
         <v>221.321</v>
       </c>
-      <c r="B67" s="78">
+      <c r="B69" s="78">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C67" s="87" t="s">
+      <c r="C69" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="D67" s="80" t="str">
+      <c r="D69" s="80" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                              In Vessel Shield Materials</v>
       </c>
-      <c r="E67" s="80" t="s">
+      <c r="E69" s="80" t="s">
         <v>347</v>
       </c>
-      <c r="F67" s="80" t="s">
+      <c r="F69" s="80" t="s">
         <v>334</v>
       </c>
-      <c r="G67" s="80" t="s">
+      <c r="G69" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="H67" s="88">
+      <c r="H69" s="88">
         <f>MARVEL_Cost!C30</f>
         <v>647990.6</v>
       </c>
-      <c r="I67" s="89">
+      <c r="I69" s="89">
         <f>I62</f>
         <v>14285.714285714286</v>
       </c>
-      <c r="J67" s="85" t="s">
+      <c r="J69" s="85" t="s">
         <v>176</v>
       </c>
-      <c r="K67" s="90" t="s">
+      <c r="K69" s="90" t="s">
         <v>413</v>
       </c>
-      <c r="L67" s="85">
+      <c r="L69" s="85">
         <f>L62</f>
         <v>28</v>
       </c>
-      <c r="M67" s="85" t="s">
+      <c r="M69" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="N67" s="85">
+      <c r="N69" s="85">
         <v>1</v>
       </c>
-      <c r="O67" s="85">
+      <c r="O69" s="85">
         <v>2024</v>
       </c>
-      <c r="P67" s="85" t="s">
+      <c r="P69" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="Q67" s="90" t="s">
+      <c r="Q69" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R67" s="124"/>
-      <c r="S67" s="110"/>
-      <c r="T67" s="85"/>
-    </row>
-    <row r="68" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="77">
+      <c r="R69" s="126"/>
+      <c r="S69" s="112"/>
+      <c r="T69" s="85"/>
+    </row>
+    <row r="70" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="77">
         <v>221.322</v>
       </c>
-      <c r="B68" s="78">
+      <c r="B70" s="78">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C68" s="87" t="s">
+      <c r="C70" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="80" t="str">
+      <c r="D70" s="80" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                              Out The Vessel Shield Materials</v>
       </c>
-      <c r="E68" s="80" t="s">
+      <c r="E70" s="80" t="s">
         <v>347</v>
       </c>
-      <c r="F68" s="80" t="s">
+      <c r="F70" s="80" t="s">
         <v>335</v>
       </c>
-      <c r="G68" s="80" t="s">
+      <c r="G70" s="80" t="s">
         <v>336</v>
       </c>
-      <c r="H68" s="88"/>
-      <c r="I68" s="89">
+      <c r="H70" s="88"/>
+      <c r="I70" s="89">
         <v>20</v>
       </c>
-      <c r="J68" s="85" t="s">
+      <c r="J70" s="85" t="s">
         <v>176</v>
       </c>
-      <c r="K68" s="90" t="s">
+      <c r="K70" s="90" t="s">
         <v>414</v>
       </c>
-      <c r="L68" s="85">
+      <c r="L70" s="85">
         <f>'Design Variables'!B43</f>
         <v>925.3</v>
       </c>
-      <c r="M68" s="85" t="s">
+      <c r="M70" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="N68" s="85">
+      <c r="N70" s="85">
         <v>1</v>
       </c>
-      <c r="O68" s="85">
+      <c r="O70" s="85">
         <v>2024</v>
       </c>
-      <c r="P68" s="85" t="s">
+      <c r="P70" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="Q68" s="90" t="s">
+      <c r="Q70" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R68" s="125"/>
-      <c r="S68" s="111"/>
-      <c r="T68" s="85"/>
-    </row>
-    <row r="69" spans="1:20" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="36">
+      <c r="R70" s="127"/>
+      <c r="S70" s="113"/>
+      <c r="T70" s="85"/>
+    </row>
+    <row r="71" spans="1:20" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="36">
         <v>221.33</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B71" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C69" s="37" t="s">
+      <c r="C71" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="D69" s="19" t="str">
-        <f>REPT("   ", B70*2) &amp; C69</f>
+      <c r="D71" s="19" t="str">
+        <f>REPT("   ", B72*2) &amp; C71</f>
         <v xml:space="preserve">                        Moderator</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E71" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="F69" s="19" t="s">
+      <c r="F71" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="G69" s="19" t="s">
+      <c r="G71" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="H69" s="24"/>
-      <c r="I69" s="69">
+      <c r="H71" s="24"/>
+      <c r="I71" s="69">
         <v>1520</v>
       </c>
-      <c r="J69" s="26" t="s">
+      <c r="J71" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="K69" s="42" t="s">
+      <c r="K71" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="M69" s="26" t="s">
+      <c r="M71" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="N69" s="26"/>
-      <c r="O69" s="26">
+      <c r="N71" s="26"/>
+      <c r="O71" s="26">
         <v>2017</v>
       </c>
-      <c r="P69" s="26" t="s">
+      <c r="P71" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q69" s="42" t="s">
+      <c r="Q71" s="42" t="s">
         <v>340</v>
       </c>
-      <c r="R69" s="73" t="s">
+      <c r="R71" s="73" t="s">
         <v>341</v>
       </c>
-      <c r="S69" s="75"/>
-      <c r="T69" s="26"/>
-    </row>
-    <row r="70" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="36">
+      <c r="S71" s="75"/>
+      <c r="T71" s="26"/>
+    </row>
+    <row r="72" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="36">
         <v>221.33</v>
       </c>
-      <c r="B70" s="17">
+      <c r="B72" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C70" s="37" t="s">
+      <c r="C72" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="D70" s="19" t="str">
-        <f>REPT("   ", B71*2) &amp; C70</f>
+      <c r="D72" s="19" t="str">
+        <f>REPT("   ", B73*2) &amp; C72</f>
         <v xml:space="preserve">            Moderator</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E72" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="F70" s="19" t="s">
+      <c r="F72" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="G70" s="19" t="s">
+      <c r="G72" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="H70" s="24"/>
-      <c r="I70" s="69">
+      <c r="H72" s="24"/>
+      <c r="I72" s="69">
         <v>75</v>
       </c>
-      <c r="J70" s="26" t="s">
+      <c r="J72" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="K70" s="42" t="s">
+      <c r="K72" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="M70" s="26" t="s">
+      <c r="M72" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="N70" s="26"/>
-      <c r="O70" s="26">
+      <c r="N72" s="26"/>
+      <c r="O72" s="26">
         <v>2024</v>
       </c>
-      <c r="P70" s="26" t="s">
+      <c r="P72" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q70" s="76" t="s">
+      <c r="Q72" s="76" t="s">
         <v>342</v>
       </c>
-      <c r="R70" s="74"/>
-      <c r="S70" s="75"/>
-      <c r="T70" s="26"/>
-    </row>
-    <row r="71" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="36">
+      <c r="R72" s="74"/>
+      <c r="S72" s="75"/>
+      <c r="T72" s="26"/>
+    </row>
+    <row r="73" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="36">
         <v>222</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B73" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C71" s="37" t="s">
+      <c r="C73" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="19" t="str">
+      <c r="D73" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">            Main Heat Transport System</v>
       </c>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="69"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="42"/>
-      <c r="M71" s="26"/>
-      <c r="N71" s="26"/>
-      <c r="O71" s="26"/>
-      <c r="P71" s="26"/>
-      <c r="Q71" s="42"/>
-      <c r="R71" s="74"/>
-      <c r="S71" s="26"/>
-      <c r="T71" s="26"/>
-    </row>
-    <row r="72" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="36">
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="69"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="42"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="74"/>
+      <c r="S73" s="26"/>
+      <c r="T73" s="26"/>
+    </row>
+    <row r="74" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="36">
         <v>222.1</v>
       </c>
-      <c r="B72" s="17">
-        <f t="shared" ref="B72:B78" si="2">IF(ISNUMBER(A72),
-    IF(AND(A72=INT(A72), MOD(A72, 10) = 0), 0,
-        IF(AND(A72=INT(A72), LEN(A72)=2), 1,
-            IF(AND(A72=INT(A72), LEN(A72)=3), 2,
-                LEN(A72) - FIND(".", A72) + 2)
+      <c r="B74" s="17">
+        <f t="shared" ref="B74:B80" si="6">IF(ISNUMBER(A74),
+    IF(AND(A74=INT(A74), MOD(A74, 10) = 0), 0,
+        IF(AND(A74=INT(A74), LEN(A74)=2), 1,
+            IF(AND(A74=INT(A74), LEN(A74)=3), 2,
+                LEN(A74) - FIND(".", A74) + 2)
         )
     ),
 "")</f>
         <v>3</v>
       </c>
-      <c r="C72" s="37" t="s">
+      <c r="C74" s="37" t="s">
         <v>360</v>
       </c>
-      <c r="D72" s="19" t="str">
+      <c r="D74" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                  Fluid Circulation Drive System</v>
       </c>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="24"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="26"/>
-      <c r="P72" s="26"/>
-      <c r="Q72" s="42"/>
-      <c r="R72" s="26"/>
-      <c r="S72" s="26"/>
-      <c r="T72" s="26"/>
-    </row>
-    <row r="73" spans="1:20" ht="61" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="30">
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="24"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="26"/>
+      <c r="Q74" s="42"/>
+      <c r="R74" s="26"/>
+      <c r="S74" s="26"/>
+      <c r="T74" s="26"/>
+    </row>
+    <row r="75" spans="1:20" ht="61" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="30">
         <v>222.11</v>
       </c>
-      <c r="B73" s="17">
-        <f t="shared" si="2"/>
+      <c r="B75" s="17">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C73" s="37" t="s">
+      <c r="C75" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="D73" s="19" t="str">
-        <f>REPT("   ", B73*2) &amp; C73</f>
+      <c r="D75" s="19" t="str">
+        <f>REPT("   ", B75*2) &amp; C75</f>
         <v xml:space="preserve">                        Primary Pump</v>
       </c>
-      <c r="E73" s="19" t="s">
+      <c r="E75" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="F73" s="19" t="s">
+      <c r="F75" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="G73" s="19" t="s">
+      <c r="G75" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="H73" s="24"/>
-      <c r="I73" s="69">
+      <c r="H75" s="24"/>
+      <c r="I75" s="69">
         <f>12.5*705.48</f>
         <v>8818.5</v>
       </c>
-      <c r="J73" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="K73" s="42" t="s">
-        <v>343</v>
-      </c>
-      <c r="L73" s="26"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="26">
-        <v>0.71</v>
-      </c>
-      <c r="O73" s="26">
-        <v>2003</v>
-      </c>
-      <c r="P73" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q73" s="42" t="s">
-        <v>351</v>
-      </c>
-      <c r="R73" s="104" t="s">
-        <v>350</v>
-      </c>
-      <c r="S73" s="120" t="s">
-        <v>352</v>
-      </c>
-      <c r="T73" s="104"/>
-    </row>
-    <row r="74" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="30">
-        <v>222.12</v>
-      </c>
-      <c r="B74" s="17">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>355</v>
-      </c>
-      <c r="D74" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">                        Secondary Pump</v>
-      </c>
-      <c r="E74" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="F74" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="G74" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="H74" s="24"/>
-      <c r="I74" s="69">
-        <v>705.48</v>
-      </c>
-      <c r="J74" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="K74" s="42" t="s">
-        <v>344</v>
-      </c>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="26">
-        <v>0.71</v>
-      </c>
-      <c r="O74" s="26">
-        <v>2003</v>
-      </c>
-      <c r="P74" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q74" s="42" t="s">
-        <v>345</v>
-      </c>
-      <c r="R74" s="105"/>
-      <c r="S74" s="121"/>
-      <c r="T74" s="105"/>
-    </row>
-    <row r="75" spans="1:20" ht="76" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="30">
-        <v>222.13</v>
-      </c>
-      <c r="B75" s="17">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>361</v>
-      </c>
-      <c r="D75" s="19" t="str">
-        <f t="shared" ref="D75" si="3">REPT("   ", B75*2) &amp; C75</f>
-        <v xml:space="preserve">                        Compressor</v>
-      </c>
-      <c r="E75" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="G75" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="H75" s="24"/>
-      <c r="I75" s="69">
-        <v>44.71</v>
-      </c>
       <c r="J75" s="26" t="s">
         <v>353</v>
       </c>
       <c r="K75" s="42" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="L75" s="26"/>
       <c r="M75" s="26"/>
       <c r="N75" s="26">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="O75" s="26">
         <v>2003</v>
@@ -6768,223 +6813,216 @@
         <v>74</v>
       </c>
       <c r="Q75" s="42" t="s">
-        <v>345</v>
-      </c>
-      <c r="R75" s="93" t="s">
-        <v>363</v>
-      </c>
-      <c r="S75" s="94"/>
-      <c r="T75" s="93"/>
-    </row>
-    <row r="76" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="36">
-        <v>222.2</v>
+        <v>351</v>
+      </c>
+      <c r="R75" s="106" t="s">
+        <v>350</v>
+      </c>
+      <c r="S75" s="122" t="s">
+        <v>352</v>
+      </c>
+      <c r="T75" s="106"/>
+    </row>
+    <row r="76" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="30">
+        <v>222.12</v>
       </c>
       <c r="B76" s="17">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>16</v>
+        <v>355</v>
       </c>
       <c r="D76" s="19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                  Reactor Heat Transfer Piping System</v>
+        <v xml:space="preserve">                        Secondary Pump</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
+        <v>348</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>365</v>
+      </c>
       <c r="H76" s="24"/>
       <c r="I76" s="69">
-        <v>20000</v>
+        <v>705.48</v>
       </c>
       <c r="J76" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="K76" s="23" t="s">
-        <v>71</v>
+        <v>353</v>
+      </c>
+      <c r="K76" s="42" t="s">
+        <v>344</v>
       </c>
       <c r="L76" s="26"/>
       <c r="M76" s="26"/>
-      <c r="N76" s="26"/>
+      <c r="N76" s="26">
+        <v>0.71</v>
+      </c>
       <c r="O76" s="26">
-        <v>2017</v>
+        <v>2003</v>
       </c>
       <c r="P76" s="26" t="s">
         <v>74</v>
       </c>
       <c r="Q76" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="R76" s="107"/>
+      <c r="S76" s="123"/>
+      <c r="T76" s="107"/>
+    </row>
+    <row r="77" spans="1:20" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="30">
+        <v>222.13</v>
+      </c>
+      <c r="B77" s="17">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="D77" s="19" t="str">
+        <f t="shared" ref="D77" si="7">REPT("   ", B77*2) &amp; C77</f>
+        <v xml:space="preserve">                        Compressor</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="G77" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="H77" s="24"/>
+      <c r="I77" s="69">
+        <v>44.71</v>
+      </c>
+      <c r="J77" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="K77" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26">
+        <v>1</v>
+      </c>
+      <c r="O77" s="26">
+        <v>2003</v>
+      </c>
+      <c r="P77" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q77" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="R77" s="93" t="s">
+        <v>363</v>
+      </c>
+      <c r="S77" s="94"/>
+      <c r="T77" s="93"/>
+    </row>
+    <row r="78" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="36">
+        <v>222.2</v>
+      </c>
+      <c r="B78" s="17">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">                  Reactor Heat Transfer Piping System</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="69">
+        <v>20000</v>
+      </c>
+      <c r="J78" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="K78" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="26">
+        <v>2017</v>
+      </c>
+      <c r="P78" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q78" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="R76" s="42" t="s">
+      <c r="R78" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="S76" s="26"/>
-      <c r="T76" s="26"/>
-    </row>
-    <row r="77" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="36">
+      <c r="S78" s="26"/>
+      <c r="T78" s="26"/>
+    </row>
+    <row r="79" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="36">
         <v>222.3</v>
       </c>
-      <c r="B77" s="17">
-        <f t="shared" si="2"/>
+      <c r="B79" s="17">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="C77" s="37" t="s">
+      <c r="C79" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="19" t="str">
+      <c r="D79" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                  Heat Exchangers</v>
       </c>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="69"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="42"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="26"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="26"/>
-      <c r="P77" s="26"/>
-      <c r="Q77" s="42"/>
-      <c r="R77" s="26"/>
-      <c r="S77" s="26"/>
-      <c r="T77" s="26"/>
-    </row>
-    <row r="78" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="36">
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="69"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="26"/>
+      <c r="P79" s="26"/>
+      <c r="Q79" s="42"/>
+      <c r="R79" s="26"/>
+      <c r="S79" s="26"/>
+      <c r="T79" s="26"/>
+    </row>
+    <row r="80" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="36">
         <v>222.31</v>
       </c>
-      <c r="B78" s="17">
-        <f t="shared" si="2"/>
+      <c r="B80" s="17">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C78" s="37" t="s">
+      <c r="C80" s="37" t="s">
         <v>367</v>
       </c>
-      <c r="D78" s="19" t="str">
+      <c r="D80" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Primary Heat Exchanger</v>
-      </c>
-      <c r="E78" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="F78" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="G78" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="H78" s="24"/>
-      <c r="I78" s="69">
-        <v>50</v>
-      </c>
-      <c r="J78" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="K78" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="L78" s="26"/>
-      <c r="M78" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="N78" s="26"/>
-      <c r="O78" s="26">
-        <v>2004</v>
-      </c>
-      <c r="P78" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q78" s="42" t="s">
-        <v>370</v>
-      </c>
-      <c r="R78" s="93" t="s">
-        <v>371</v>
-      </c>
-      <c r="S78" s="26"/>
-      <c r="T78" s="26"/>
-    </row>
-    <row r="79" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="36">
-        <v>222.31</v>
-      </c>
-      <c r="B79" s="17">
-        <f t="shared" ref="B79" si="4">IF(ISNUMBER(A79),
-    IF(AND(A79=INT(A79), MOD(A79, 10) = 0), 0,
-        IF(AND(A79=INT(A79), LEN(A79)=2), 1,
-            IF(AND(A79=INT(A79), LEN(A79)=3), 2,
-                LEN(A79) - FIND(".", A79) + 2)
-        )
-    ),
-"")</f>
-        <v>4</v>
-      </c>
-      <c r="C79" s="37" t="s">
-        <v>367</v>
-      </c>
-      <c r="D79" s="19" t="str">
-        <f t="shared" ref="D79" si="5">REPT("   ", B79*2) &amp; C79</f>
-        <v xml:space="preserve">                        Primary Heat Exchanger</v>
-      </c>
-      <c r="E79" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="G79" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="H79" s="24"/>
-      <c r="I79" s="69">
-        <v>120</v>
-      </c>
-      <c r="J79" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="K79" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="L79" s="26"/>
-      <c r="M79" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="N79" s="26"/>
-      <c r="O79" s="26">
-        <v>2013</v>
-      </c>
-      <c r="P79" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q79" s="42" t="s">
-        <v>370</v>
-      </c>
-      <c r="R79" s="93" t="s">
-        <v>372</v>
-      </c>
-      <c r="S79" s="26"/>
-      <c r="T79" s="26"/>
-    </row>
-    <row r="80" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="36">
-        <v>222.32</v>
-      </c>
-      <c r="B80" s="17">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C80" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">                        Secondary Heat Exchanger</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>347</v>
@@ -7003,7 +7041,7 @@
         <v>176</v>
       </c>
       <c r="K80" s="42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L80" s="26"/>
       <c r="M80" s="26" t="s">
@@ -7027,10 +7065,10 @@
     </row>
     <row r="81" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36">
-        <v>222.32</v>
+        <v>222.31</v>
       </c>
       <c r="B81" s="17">
-        <f t="shared" ref="B81" si="6">IF(ISNUMBER(A81),
+        <f t="shared" ref="B81" si="8">IF(ISNUMBER(A81),
     IF(AND(A81=INT(A81), MOD(A81, 10) = 0), 0,
         IF(AND(A81=INT(A81), LEN(A81)=2), 1,
             IF(AND(A81=INT(A81), LEN(A81)=3), 2,
@@ -7041,11 +7079,11 @@
         <v>4</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>18</v>
+        <v>367</v>
       </c>
       <c r="D81" s="19" t="str">
-        <f t="shared" ref="D81" si="7">REPT("   ", B81*2) &amp; C81</f>
-        <v xml:space="preserve">                        Secondary Heat Exchanger</v>
+        <f t="shared" ref="D81" si="9">REPT("   ", B81*2) &amp; C81</f>
+        <v xml:space="preserve">                        Primary Heat Exchanger</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>347</v>
@@ -7064,7 +7102,7 @@
         <v>176</v>
       </c>
       <c r="K81" s="42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L81" s="26"/>
       <c r="M81" s="26" t="s">
@@ -7086,285 +7124,307 @@
       <c r="S81" s="26"/>
       <c r="T81" s="26"/>
     </row>
-    <row r="82" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="36">
-        <v>223</v>
+        <v>222.32</v>
       </c>
       <c r="B82" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D82" s="19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">            Safety Systems</v>
-      </c>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
+        <v xml:space="preserve">                        Secondary Heat Exchanger</v>
+      </c>
+      <c r="E82" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>366</v>
+      </c>
       <c r="H82" s="24"/>
-      <c r="I82" s="69"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="42"/>
+      <c r="I82" s="69">
+        <v>50</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="K82" s="42" t="s">
+        <v>369</v>
+      </c>
       <c r="L82" s="26"/>
-      <c r="M82" s="26"/>
+      <c r="M82" s="26" t="s">
+        <v>175</v>
+      </c>
       <c r="N82" s="26"/>
-      <c r="O82" s="26"/>
-      <c r="P82" s="26"/>
-      <c r="Q82" s="42"/>
-      <c r="R82" s="26"/>
+      <c r="O82" s="26">
+        <v>2004</v>
+      </c>
+      <c r="P82" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q82" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="R82" s="93" t="s">
+        <v>371</v>
+      </c>
       <c r="S82" s="26"/>
       <c r="T82" s="26"/>
     </row>
-    <row r="83" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="36">
-        <v>223.2</v>
+        <v>222.32</v>
       </c>
       <c r="B83" s="17">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="B83" si="10">IF(ISNUMBER(A83),
+    IF(AND(A83=INT(A83), MOD(A83, 10) = 0), 0,
+        IF(AND(A83=INT(A83), LEN(A83)=2), 1,
+            IF(AND(A83=INT(A83), LEN(A83)=3), 2,
+                LEN(A83) - FIND(".", A83) + 2)
+        )
+    ),
+"")</f>
+        <v>4</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="D83" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">                  Reactor Cavity Cooling System (Rvacs)</v>
-      </c>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
+        <f t="shared" ref="D83" si="11">REPT("   ", B83*2) &amp; C83</f>
+        <v xml:space="preserve">                        Secondary Heat Exchanger</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="G83" s="19" t="s">
+        <v>362</v>
+      </c>
       <c r="H83" s="24"/>
-      <c r="I83" s="69"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="42"/>
+      <c r="I83" s="69">
+        <v>120</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="K83" s="42" t="s">
+        <v>369</v>
+      </c>
       <c r="L83" s="26"/>
-      <c r="M83" s="26"/>
+      <c r="M83" s="26" t="s">
+        <v>175</v>
+      </c>
       <c r="N83" s="26"/>
-      <c r="O83" s="26"/>
-      <c r="P83" s="26"/>
-      <c r="Q83" s="42"/>
-      <c r="R83" s="26"/>
+      <c r="O83" s="26">
+        <v>2013</v>
+      </c>
+      <c r="P83" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q83" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="R83" s="93" t="s">
+        <v>372</v>
+      </c>
       <c r="S83" s="26"/>
       <c r="T83" s="26"/>
     </row>
-    <row r="84" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="36">
-        <v>223.21</v>
+        <v>223</v>
       </c>
       <c r="B84" s="17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="D84" s="19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                        Rvacs (Cooling Vessel)</v>
-      </c>
-      <c r="E84" s="19" t="s">
-        <v>347</v>
-      </c>
+        <v xml:space="preserve">            Safety Systems</v>
+      </c>
+      <c r="E84" s="19"/>
       <c r="F84" s="19"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="69">
-        <f>I56</f>
-        <v>757.20768746061754</v>
-      </c>
-      <c r="J84" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="K84" s="42" t="s">
-        <v>373</v>
-      </c>
-      <c r="L84" s="26">
-        <f>L56</f>
-        <v>1587</v>
-      </c>
-      <c r="M84" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="N84" s="26">
-        <v>1</v>
-      </c>
-      <c r="O84" s="26">
-        <v>2024</v>
-      </c>
-      <c r="P84" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q84" s="42" t="s">
-        <v>375</v>
-      </c>
+      <c r="G84" s="19"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="69"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="26"/>
+      <c r="M84" s="26"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="26"/>
+      <c r="P84" s="26"/>
+      <c r="Q84" s="42"/>
       <c r="R84" s="26"/>
       <c r="S84" s="26"/>
       <c r="T84" s="26"/>
     </row>
-    <row r="85" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="36">
-        <v>223.22</v>
+        <v>223.2</v>
       </c>
       <c r="B85" s="17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D85" s="19" t="str">
-        <f>REPT("   ", B85*2) &amp; C85</f>
-        <v xml:space="preserve">                        Rvacs (Intake Vessel)</v>
-      </c>
-      <c r="E85" s="19" t="s">
-        <v>347</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">                  Reactor Cavity Cooling System (Rvacs)</v>
+      </c>
+      <c r="E85" s="19"/>
       <c r="F85" s="19"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="69">
-        <f>I84</f>
-        <v>757.20768746061754</v>
-      </c>
-      <c r="J85" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="K85" s="42" t="s">
-        <v>374</v>
-      </c>
-      <c r="L85" s="26">
-        <f>L84</f>
-        <v>1587</v>
-      </c>
-      <c r="M85" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="N85" s="26">
-        <v>1</v>
-      </c>
-      <c r="O85" s="26">
-        <v>2024</v>
-      </c>
-      <c r="P85" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q85" s="42" t="s">
-        <v>375</v>
-      </c>
+      <c r="G85" s="19"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="69"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="26"/>
+      <c r="N85" s="26"/>
+      <c r="O85" s="26"/>
+      <c r="P85" s="26"/>
+      <c r="Q85" s="42"/>
       <c r="R85" s="26"/>
       <c r="S85" s="26"/>
       <c r="T85" s="26"/>
     </row>
     <row r="86" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="36">
-        <v>226</v>
+        <v>223.21</v>
       </c>
       <c r="B86" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>211</v>
+        <v>138</v>
       </c>
       <c r="D86" s="19" t="str">
-        <f>REPT("   ", B86*2) &amp; C86</f>
-        <v xml:space="preserve">            Other Reactor Plant Equipment</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">                        Rvacs (Cooling Vessel)</v>
       </c>
       <c r="E86" s="19" t="s">
         <v>347</v>
       </c>
       <c r="F86" s="19"/>
       <c r="G86" s="23"/>
-      <c r="H86" s="95">
-        <f>MARVEL_Cost!C42</f>
-        <v>456297</v>
-      </c>
-      <c r="I86" s="69"/>
-      <c r="J86" s="26"/>
-      <c r="K86" s="42"/>
-      <c r="L86" s="26"/>
-      <c r="M86" s="26"/>
-      <c r="N86" s="26"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="69">
+        <f>I56</f>
+        <v>757.20768746061754</v>
+      </c>
+      <c r="J86" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="K86" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="L86" s="26">
+        <f>L56</f>
+        <v>1587</v>
+      </c>
+      <c r="M86" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="N86" s="26">
+        <v>1</v>
+      </c>
       <c r="O86" s="26">
         <v>2024</v>
       </c>
       <c r="P86" s="26" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q86" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R86" s="26"/>
       <c r="S86" s="26"/>
       <c r="T86" s="26"/>
     </row>
-    <row r="87" spans="1:20" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="36">
-        <v>227</v>
+        <v>223.22</v>
       </c>
       <c r="B87" s="17">
-        <f t="shared" ref="B87:B122" si="8">IF(ISNUMBER(A87),
-    IF(AND(A87=INT(A87), MOD(A87, 10) = 0), 0,
-        IF(AND(A87=INT(A87), LEN(A87)=2), 1,
-            IF(AND(A87=INT(A87), LEN(A87)=3), 2,
-                LEN(A87) - FIND(".", A87) + 2)
-        )
-    ),
-"")</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="D87" s="19" t="str">
-        <f t="shared" ref="D87:D122" si="9">REPT("   ", B87*2) &amp; C87</f>
-        <v xml:space="preserve">            Reactor Instrumentation and Control (I&amp;C)</v>
+        <f>REPT("   ", B87*2) &amp; C87</f>
+        <v xml:space="preserve">                        Rvacs (Intake Vessel)</v>
       </c>
       <c r="E87" s="19" t="s">
         <v>347</v>
       </c>
       <c r="F87" s="19"/>
       <c r="G87" s="23"/>
-      <c r="H87" s="95">
-        <f>MARVEL_Cost!C43</f>
-        <v>2253208.37</v>
-      </c>
-      <c r="I87" s="69"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="42"/>
-      <c r="L87" s="26"/>
-      <c r="M87" s="26"/>
-      <c r="N87" s="26"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="69">
+        <f>I86</f>
+        <v>757.20768746061754</v>
+      </c>
+      <c r="J87" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="K87" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="L87" s="26">
+        <f>L86</f>
+        <v>1587</v>
+      </c>
+      <c r="M87" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="N87" s="26">
+        <v>1</v>
+      </c>
       <c r="O87" s="26">
         <v>2024</v>
       </c>
       <c r="P87" s="26" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q87" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R87" s="26"/>
       <c r="S87" s="26"/>
       <c r="T87" s="26"/>
     </row>
-    <row r="88" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="36">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B88" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D88" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">            Reactor Plant Miscellaneous Items</v>
+        <f>REPT("   ", B88*2) &amp; C88</f>
+        <v xml:space="preserve">            Other Reactor Plant Equipment</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>347</v>
@@ -7372,8 +7432,8 @@
       <c r="F88" s="19"/>
       <c r="G88" s="23"/>
       <c r="H88" s="95">
-        <f>MARVEL_Cost!C44</f>
-        <v>30960</v>
+        <f>MARVEL_Cost!C42</f>
+        <v>456297</v>
       </c>
       <c r="I88" s="69"/>
       <c r="J88" s="26"/>
@@ -7385,7 +7445,7 @@
         <v>2024</v>
       </c>
       <c r="P88" s="26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q88" s="42" t="s">
         <v>376</v>
@@ -7394,139 +7454,145 @@
       <c r="S88" s="26"/>
       <c r="T88" s="26"/>
     </row>
-    <row r="89" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="21">
-        <v>23</v>
+    <row r="89" spans="1:20" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="36">
+        <v>227</v>
       </c>
       <c r="B89" s="17">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" ref="B89:B124" si="12">IF(ISNUMBER(A89),
+    IF(AND(A89=INT(A89), MOD(A89, 10) = 0), 0,
+        IF(AND(A89=INT(A89), LEN(A89)=2), 1,
+            IF(AND(A89=INT(A89), LEN(A89)=3), 2,
+                LEN(A89) - FIND(".", A89) + 2)
+        )
+    ),
+"")</f>
+        <v>2</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D89" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">      Energy Conversion System </v>
-      </c>
-      <c r="E89" s="19"/>
+        <f t="shared" ref="D89:D124" si="13">REPT("   ", B89*2) &amp; C89</f>
+        <v xml:space="preserve">            Reactor Instrumentation and Control (I&amp;C)</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="F89" s="19"/>
       <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
+      <c r="H89" s="95">
+        <f>MARVEL_Cost!C43</f>
+        <v>2253208.37</v>
+      </c>
       <c r="I89" s="69"/>
       <c r="J89" s="26"/>
       <c r="K89" s="42"/>
       <c r="L89" s="26"/>
       <c r="M89" s="26"/>
       <c r="N89" s="26"/>
-      <c r="O89" s="26"/>
-      <c r="P89" s="26"/>
-      <c r="Q89" s="42"/>
+      <c r="O89" s="26">
+        <v>2024</v>
+      </c>
+      <c r="P89" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q89" s="42" t="s">
+        <v>376</v>
+      </c>
       <c r="R89" s="26"/>
       <c r="S89" s="26"/>
       <c r="T89" s="26"/>
     </row>
     <row r="90" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="36">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B90" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="D90" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">            Energy Applications</v>
-      </c>
-      <c r="E90" s="19"/>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">            Reactor Plant Miscellaneous Items</v>
+      </c>
+      <c r="E90" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="F90" s="19"/>
       <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
+      <c r="H90" s="95">
+        <f>MARVEL_Cost!C44</f>
+        <v>30960</v>
+      </c>
       <c r="I90" s="69"/>
       <c r="J90" s="26"/>
       <c r="K90" s="42"/>
       <c r="L90" s="26"/>
       <c r="M90" s="26"/>
       <c r="N90" s="26"/>
-      <c r="O90" s="26"/>
-      <c r="P90" s="26"/>
-      <c r="Q90" s="42"/>
+      <c r="O90" s="26">
+        <v>2024</v>
+      </c>
+      <c r="P90" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q90" s="42" t="s">
+        <v>376</v>
+      </c>
       <c r="R90" s="26"/>
       <c r="S90" s="26"/>
       <c r="T90" s="26"/>
     </row>
-    <row r="91" spans="1:20" ht="211" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="36">
-        <v>232.1</v>
+    <row r="91" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="21">
+        <v>23</v>
       </c>
       <c r="B91" s="17">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="D91" s="19" t="str">
-        <f>REPT("   ", B91*2) &amp; C91</f>
-        <v xml:space="preserve">                  Electricity Generation Systems</v>
-      </c>
-      <c r="E91" s="19" t="s">
-        <v>347</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      Energy Conversion System </v>
+      </c>
+      <c r="E91" s="19"/>
       <c r="F91" s="19"/>
       <c r="G91" s="23"/>
       <c r="H91" s="23"/>
-      <c r="I91" s="96">
-        <f>23310000/L91</f>
-        <v>2331000</v>
-      </c>
-      <c r="J91" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="K91" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="L91" s="26">
-        <v>10</v>
-      </c>
-      <c r="M91" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="N91" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="O91" s="26">
-        <v>2017</v>
-      </c>
-      <c r="P91" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q91" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="R91" s="42" t="s">
-        <v>377</v>
-      </c>
+      <c r="I91" s="69"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="26"/>
+      <c r="N91" s="26"/>
+      <c r="O91" s="26"/>
+      <c r="P91" s="26"/>
+      <c r="Q91" s="42"/>
+      <c r="R91" s="26"/>
       <c r="S91" s="26"/>
       <c r="T91" s="26"/>
     </row>
     <row r="92" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="21">
-        <v>24</v>
+      <c r="A92" s="36">
+        <v>232</v>
       </c>
       <c r="B92" s="17">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D92" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">      Electrical Equipment</v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">            Energy Applications</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
@@ -7545,20 +7611,20 @@
       <c r="S92" s="26"/>
       <c r="T92" s="26"/>
     </row>
-    <row r="93" spans="1:20" ht="121" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="21">
-        <v>246</v>
+    <row r="93" spans="1:20" ht="211" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="36">
+        <v>232.1</v>
       </c>
       <c r="B93" s="17">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="C93" s="44" t="s">
-        <v>222</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>216</v>
       </c>
       <c r="D93" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">            Power and Control Cables and Wiring</v>
+        <f>REPT("   ", B93*2) &amp; C93</f>
+        <v xml:space="preserve">                  Electricity Generation Systems</v>
       </c>
       <c r="E93" s="19" t="s">
         <v>347</v>
@@ -7566,9 +7632,9 @@
       <c r="F93" s="19"/>
       <c r="G93" s="23"/>
       <c r="H93" s="23"/>
-      <c r="I93" s="69">
-        <f>MARVEL_Cost!C51/L93</f>
-        <v>3589430</v>
+      <c r="I93" s="96">
+        <f>23310000/L93</f>
+        <v>2331000</v>
       </c>
       <c r="J93" s="26" t="s">
         <v>67</v>
@@ -7577,8 +7643,7 @@
         <v>71</v>
       </c>
       <c r="L93" s="26">
-        <f>'Design Variables'!B4/1000</f>
-        <v>0.02</v>
+        <v>10</v>
       </c>
       <c r="M93" s="26" t="s">
         <v>69</v>
@@ -7587,34 +7652,34 @@
         <v>0.7</v>
       </c>
       <c r="O93" s="26">
-        <v>2024</v>
+        <v>2017</v>
       </c>
       <c r="P93" s="26" t="s">
         <v>74</v>
       </c>
       <c r="Q93" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R93" s="42" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="S93" s="26"/>
       <c r="T93" s="26"/>
     </row>
     <row r="94" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B94" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D94" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">      Initial Fuel Inventory</v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      Electrical Equipment</v>
       </c>
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
@@ -7633,20 +7698,20 @@
       <c r="S94" s="26"/>
       <c r="T94" s="26"/>
     </row>
-    <row r="95" spans="1:20" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="36">
-        <v>251</v>
+    <row r="95" spans="1:20" ht="121" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="21">
+        <v>246</v>
       </c>
       <c r="B95" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="C95" s="37" t="s">
-        <v>25</v>
+      <c r="C95" s="44" t="s">
+        <v>222</v>
       </c>
       <c r="D95" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">            First Core Mining</v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">            Power and Control Cables and Wiring</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>347</v>
@@ -7654,276 +7719,265 @@
       <c r="F95" s="19"/>
       <c r="G95" s="23"/>
       <c r="H95" s="23"/>
-      <c r="I95" s="23">
-        <v>184</v>
+      <c r="I95" s="69">
+        <f>MARVEL_Cost!C51/L95</f>
+        <v>3589430</v>
       </c>
       <c r="J95" s="26" t="s">
-        <v>176</v>
+        <v>67</v>
       </c>
       <c r="K95" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="L95" s="26"/>
-      <c r="M95" s="26"/>
-      <c r="N95" s="26"/>
+        <v>71</v>
+      </c>
+      <c r="L95" s="26">
+        <f>'Design Variables'!B4/1000</f>
+        <v>0.02</v>
+      </c>
+      <c r="M95" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="N95" s="23">
+        <v>0.7</v>
+      </c>
       <c r="O95" s="26">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="P95" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q95" s="104" t="s">
-        <v>384</v>
-      </c>
-      <c r="R95" s="104" t="s">
-        <v>385</v>
+        <v>74</v>
+      </c>
+      <c r="Q95" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="R95" s="42" t="s">
+        <v>380</v>
       </c>
       <c r="S95" s="26"/>
       <c r="T95" s="26"/>
     </row>
     <row r="96" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="36">
-        <v>252</v>
+      <c r="A96" s="21">
+        <v>25</v>
       </c>
       <c r="B96" s="17">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D96" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">            First Core Conversion </v>
-      </c>
-      <c r="E96" s="19" t="s">
-        <v>347</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      Initial Fuel Inventory</v>
+      </c>
+      <c r="E96" s="19"/>
       <c r="F96" s="19"/>
       <c r="G96" s="23"/>
       <c r="H96" s="23"/>
-      <c r="I96" s="23">
-        <v>15.1</v>
-      </c>
-      <c r="J96" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="K96" s="23" t="s">
-        <v>382</v>
-      </c>
+      <c r="I96" s="69"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="42"/>
       <c r="L96" s="26"/>
       <c r="M96" s="26"/>
       <c r="N96" s="26"/>
-      <c r="O96" s="26">
-        <v>2022</v>
-      </c>
-      <c r="P96" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q96" s="119"/>
-      <c r="R96" s="119"/>
+      <c r="O96" s="26"/>
+      <c r="P96" s="26"/>
+      <c r="Q96" s="42"/>
+      <c r="R96" s="26"/>
       <c r="S96" s="26"/>
       <c r="T96" s="26"/>
     </row>
-    <row r="97" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="36">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B97" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D97" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">            First Core Enrichment </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">            First Core Mining</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F97" s="19"/>
       <c r="G97" s="23"/>
       <c r="H97" s="23"/>
       <c r="I97" s="23">
-        <v>184.2</v>
+        <v>184</v>
       </c>
       <c r="J97" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="K97" s="42" t="s">
-        <v>383</v>
+        <v>176</v>
+      </c>
+      <c r="K97" s="23" t="s">
+        <v>382</v>
       </c>
       <c r="L97" s="26"/>
       <c r="M97" s="26"/>
-      <c r="N97" s="26">
-        <v>1</v>
-      </c>
+      <c r="N97" s="26"/>
       <c r="O97" s="26">
         <v>2022</v>
       </c>
       <c r="P97" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q97" s="119"/>
-      <c r="R97" s="119"/>
+      <c r="Q97" s="106" t="s">
+        <v>384</v>
+      </c>
+      <c r="R97" s="106" t="s">
+        <v>385</v>
+      </c>
       <c r="S97" s="26"/>
       <c r="T97" s="26"/>
     </row>
     <row r="98" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="36">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B98" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D98" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">            First Core Fuel Assembly Fabrication </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">            First Core Conversion </v>
       </c>
       <c r="E98" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="F98" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="G98" s="23" t="s">
-        <v>388</v>
-      </c>
+      <c r="F98" s="19"/>
+      <c r="G98" s="23"/>
       <c r="H98" s="23"/>
       <c r="I98" s="23">
-        <v>1520</v>
+        <v>15.1</v>
       </c>
       <c r="J98" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="K98" s="42" t="s">
-        <v>386</v>
+      <c r="K98" s="23" t="s">
+        <v>382</v>
       </c>
       <c r="L98" s="26"/>
       <c r="M98" s="26"/>
       <c r="N98" s="26"/>
       <c r="O98" s="26">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="P98" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q98" s="119"/>
-      <c r="R98" s="119"/>
+      <c r="Q98" s="121"/>
+      <c r="R98" s="121"/>
       <c r="S98" s="26"/>
       <c r="T98" s="26"/>
     </row>
     <row r="99" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B99" s="17">
-        <f t="shared" ref="B99" si="10">IF(ISNUMBER(A99),
-    IF(AND(A99=INT(A99), MOD(A99, 10) = 0), 0,
-        IF(AND(A99=INT(A99), LEN(A99)=2), 1,
-            IF(AND(A99=INT(A99), LEN(A99)=3), 2,
-                LEN(A99) - FIND(".", A99) + 2)
-        )
-    ),
-"")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" s="19" t="str">
-        <f t="shared" ref="D99" si="11">REPT("   ", B99*2) &amp; C99</f>
-        <v xml:space="preserve">            First Core Fuel Assembly Fabrication </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">            First Core Enrichment </v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="F99" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="G99" s="23" t="s">
-        <v>365</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="F99" s="19"/>
+      <c r="G99" s="23"/>
       <c r="H99" s="23"/>
       <c r="I99" s="23">
-        <v>10000</v>
+        <v>184.2</v>
       </c>
       <c r="J99" s="26" t="s">
-        <v>176</v>
+        <v>381</v>
       </c>
       <c r="K99" s="42" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L99" s="26"/>
       <c r="M99" s="26"/>
-      <c r="N99" s="26"/>
+      <c r="N99" s="26">
+        <v>1</v>
+      </c>
       <c r="O99" s="26">
-        <v>2009</v>
+        <v>2022</v>
       </c>
       <c r="P99" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q99" s="105"/>
-      <c r="R99" s="105"/>
+      <c r="Q99" s="121"/>
+      <c r="R99" s="121"/>
       <c r="S99" s="26"/>
       <c r="T99" s="26"/>
     </row>
-    <row r="100" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="21">
-        <v>26</v>
+    <row r="100" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="36">
+        <v>254</v>
       </c>
       <c r="B100" s="17">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="D100" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">      Miscellaneous Equipment (Cranes)</v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">            First Core Fuel Assembly Fabrication </v>
       </c>
       <c r="E100" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="69">
-        <v>1000000</v>
-      </c>
-      <c r="I100" s="26"/>
-      <c r="J100" s="26"/>
-      <c r="K100" s="42"/>
+      <c r="F100" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="G100" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="H100" s="23"/>
+      <c r="I100" s="23">
+        <v>1520</v>
+      </c>
+      <c r="J100" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="K100" s="42" t="s">
+        <v>386</v>
+      </c>
       <c r="L100" s="26"/>
       <c r="M100" s="26"/>
       <c r="N100" s="26"/>
       <c r="O100" s="26">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="P100" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q100" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="R100" s="42" t="s">
-        <v>390</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="Q100" s="121"/>
+      <c r="R100" s="121"/>
       <c r="S100" s="26"/>
       <c r="T100" s="26"/>
     </row>
     <row r="101" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="29">
-        <v>30</v>
+      <c r="A101" s="36">
+        <v>254</v>
       </c>
       <c r="B101" s="17">
-        <f>IF(ISNUMBER(A101),
+        <f t="shared" ref="B101" si="14">IF(ISNUMBER(A101),
     IF(AND(A101=INT(A101), MOD(A101, 10) = 0), 0,
         IF(AND(A101=INT(A101), LEN(A101)=2), 1,
             IF(AND(A101=INT(A101), LEN(A101)=3), 2,
@@ -7931,76 +7985,113 @@
         )
     ),
 "")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D101" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v>Capitalized Indirect Services Cost</v>
-      </c>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="20"/>
-      <c r="J101" s="29"/>
-      <c r="K101" s="29"/>
-      <c r="L101" s="29"/>
-      <c r="M101" s="29"/>
-      <c r="N101" s="29"/>
-      <c r="O101" s="29"/>
-      <c r="P101" s="29"/>
-      <c r="Q101" s="29"/>
-      <c r="R101" s="29"/>
-      <c r="S101" s="29"/>
-      <c r="T101" s="29"/>
-    </row>
-    <row r="102" spans="1:26" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="29">
-        <v>31</v>
+        <f t="shared" ref="D101" si="15">REPT("   ", B101*2) &amp; C101</f>
+        <v xml:space="preserve">            First Core Fuel Assembly Fabrication </v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="F101" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="G101" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="H101" s="23"/>
+      <c r="I101" s="23">
+        <v>10000</v>
+      </c>
+      <c r="J101" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="K101" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="L101" s="26"/>
+      <c r="M101" s="26"/>
+      <c r="N101" s="26"/>
+      <c r="O101" s="26">
+        <v>2009</v>
+      </c>
+      <c r="P101" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q101" s="107"/>
+      <c r="R101" s="107"/>
+      <c r="S101" s="26"/>
+      <c r="T101" s="26"/>
+    </row>
+    <row r="102" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="21">
+        <v>26</v>
       </c>
       <c r="B102" s="17">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>391</v>
+        <v>140</v>
       </c>
       <c r="D102" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">      Factory &amp; field indirect costs</v>
-      </c>
-      <c r="E102" s="19"/>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      Miscellaneous Equipment (Cranes)</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="F102" s="19"/>
       <c r="G102" s="19"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="100"/>
+      <c r="H102" s="69">
+        <v>1000000</v>
+      </c>
+      <c r="I102" s="26"/>
       <c r="J102" s="26"/>
       <c r="K102" s="42"/>
-      <c r="L102" s="29"/>
-      <c r="M102" s="29"/>
-      <c r="N102" s="29"/>
-      <c r="O102" s="26"/>
-      <c r="P102" s="26"/>
-      <c r="Q102" s="98"/>
-      <c r="R102" s="29"/>
-      <c r="S102" s="29"/>
-      <c r="T102" s="29"/>
+      <c r="L102" s="26"/>
+      <c r="M102" s="26"/>
+      <c r="N102" s="26"/>
+      <c r="O102" s="26">
+        <v>2021</v>
+      </c>
+      <c r="P102" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q102" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="R102" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="S102" s="26"/>
+      <c r="T102" s="26"/>
     </row>
     <row r="103" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="29">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B103" s="17">
-        <v>1</v>
+        <f>IF(ISNUMBER(A103),
+    IF(AND(A103=INT(A103), MOD(A103, 10) = 0), 0,
+        IF(AND(A103=INT(A103), LEN(A103)=2), 1,
+            IF(AND(A103=INT(A103), LEN(A103)=3), 2,
+                LEN(A103) - FIND(".", A103) + 2)
+        )
+    ),
+"")</f>
+        <v>0</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>392</v>
+        <v>29</v>
       </c>
       <c r="D103" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">      Factory and construction supervision</v>
+        <f t="shared" si="13"/>
+        <v>Capitalized Indirect Services Cost</v>
       </c>
       <c r="E103" s="19"/>
       <c r="F103" s="19"/>
@@ -8012,123 +8103,89 @@
       <c r="L103" s="29"/>
       <c r="M103" s="29"/>
       <c r="N103" s="29"/>
-      <c r="O103" s="26"/>
-      <c r="P103" s="26"/>
-      <c r="Q103" s="98"/>
+      <c r="O103" s="29"/>
+      <c r="P103" s="29"/>
+      <c r="Q103" s="29"/>
       <c r="R103" s="29"/>
       <c r="S103" s="29"/>
       <c r="T103" s="29"/>
     </row>
-    <row r="104" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="21">
-        <v>33</v>
+    <row r="104" spans="1:26" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="29">
+        <v>31</v>
       </c>
       <c r="B104" s="17">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>31</v>
+        <v>391</v>
       </c>
       <c r="D104" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">      Startup Costs</v>
-      </c>
-      <c r="E104" s="19" t="s">
-        <v>347</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      Factory &amp; field indirect costs</v>
+      </c>
+      <c r="E104" s="19"/>
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
-      <c r="H104" s="24">
-        <f>MARVEL_Cost!C58</f>
-        <v>2407166.4000000004</v>
-      </c>
-      <c r="I104" s="66"/>
-      <c r="J104" s="24"/>
-      <c r="K104" s="31"/>
-      <c r="L104" s="24"/>
-      <c r="M104" s="24"/>
-      <c r="N104" s="24"/>
-      <c r="O104" s="26">
-        <v>2024</v>
-      </c>
-      <c r="P104" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q104" s="130" t="s">
-        <v>376</v>
-      </c>
-      <c r="R104" s="24"/>
-      <c r="S104" s="24"/>
-      <c r="T104" s="24"/>
-      <c r="U104" s="12"/>
-      <c r="V104" s="12"/>
-      <c r="W104" s="12"/>
-      <c r="X104" s="12"/>
-      <c r="Y104" s="12"/>
-      <c r="Z104" s="12"/>
-    </row>
-    <row r="105" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="21">
-        <v>34</v>
+      <c r="H104" s="29"/>
+      <c r="I104" s="100"/>
+      <c r="J104" s="26"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="29"/>
+      <c r="M104" s="29"/>
+      <c r="N104" s="29"/>
+      <c r="O104" s="26"/>
+      <c r="P104" s="26"/>
+      <c r="Q104" s="98"/>
+      <c r="R104" s="29"/>
+      <c r="S104" s="29"/>
+      <c r="T104" s="29"/>
+    </row>
+    <row r="105" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="29">
+        <v>32</v>
       </c>
       <c r="B105" s="17">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>32</v>
+        <v>392</v>
       </c>
       <c r="D105" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">      Shipping and Transportation Costs</v>
-      </c>
-      <c r="E105" s="19" t="s">
-        <v>347</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      Factory and construction supervision</v>
+      </c>
+      <c r="E105" s="19"/>
       <c r="F105" s="19"/>
       <c r="G105" s="19"/>
-      <c r="H105" s="24">
-        <f>MARVEL_Cost!C62</f>
-        <v>1665282.7999999998</v>
-      </c>
-      <c r="I105" s="66"/>
-      <c r="J105" s="24"/>
-      <c r="K105" s="31"/>
-      <c r="L105" s="24"/>
-      <c r="M105" s="24"/>
-      <c r="N105" s="24"/>
-      <c r="O105" s="26">
-        <v>2024</v>
-      </c>
-      <c r="P105" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q105" s="131"/>
-      <c r="R105" s="24"/>
-      <c r="S105" s="24"/>
-      <c r="T105" s="24"/>
-      <c r="U105" s="12"/>
-      <c r="V105" s="12"/>
-      <c r="W105" s="12"/>
-      <c r="X105" s="12"/>
-      <c r="Y105" s="12"/>
-      <c r="Z105" s="12"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="29"/>
+      <c r="L105" s="29"/>
+      <c r="M105" s="29"/>
+      <c r="N105" s="29"/>
+      <c r="O105" s="26"/>
+      <c r="P105" s="26"/>
+      <c r="Q105" s="98"/>
+      <c r="R105" s="29"/>
+      <c r="S105" s="29"/>
+      <c r="T105" s="29"/>
     </row>
     <row r="106" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="21">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B106" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D106" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">      Engineering Services</v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      Startup Costs</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>347</v>
@@ -8136,41 +8193,48 @@
       <c r="F106" s="19"/>
       <c r="G106" s="19"/>
       <c r="H106" s="24">
-        <f>MARVEL_Cost!C65</f>
-        <v>620313.58773783164</v>
-      </c>
-      <c r="I106" s="69"/>
-      <c r="J106" s="26"/>
-      <c r="K106" s="42"/>
-      <c r="L106" s="26"/>
-      <c r="M106" s="26"/>
-      <c r="N106" s="26"/>
+        <f>MARVEL_Cost!C58</f>
+        <v>2407166.4000000004</v>
+      </c>
+      <c r="I106" s="66"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="31"/>
+      <c r="L106" s="24"/>
+      <c r="M106" s="24"/>
+      <c r="N106" s="24"/>
       <c r="O106" s="26">
         <v>2024</v>
       </c>
-      <c r="P106" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q106" s="131"/>
-      <c r="R106" s="26"/>
-      <c r="S106" s="26"/>
-      <c r="T106" s="26"/>
+      <c r="P106" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q106" s="132" t="s">
+        <v>376</v>
+      </c>
+      <c r="R106" s="24"/>
+      <c r="S106" s="24"/>
+      <c r="T106" s="24"/>
       <c r="U106" s="12"/>
-    </row>
-    <row r="107" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V106" s="12"/>
+      <c r="W106" s="12"/>
+      <c r="X106" s="12"/>
+      <c r="Y106" s="12"/>
+      <c r="Z106" s="12"/>
+    </row>
+    <row r="107" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="21">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B107" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="D107" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">      PM/CM Services</v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      Shipping and Transportation Costs</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>347</v>
@@ -8178,55 +8242,69 @@
       <c r="F107" s="19"/>
       <c r="G107" s="19"/>
       <c r="H107" s="24">
-        <f>MARVEL_Cost!C68</f>
-        <v>416958.9359999997</v>
-      </c>
-      <c r="I107" s="69"/>
-      <c r="J107" s="26"/>
-      <c r="K107" s="42"/>
-      <c r="L107" s="26"/>
-      <c r="M107" s="26"/>
-      <c r="N107" s="26"/>
+        <f>MARVEL_Cost!C62</f>
+        <v>1665282.7999999998</v>
+      </c>
+      <c r="I107" s="66"/>
+      <c r="J107" s="24"/>
+      <c r="K107" s="31"/>
+      <c r="L107" s="24"/>
+      <c r="M107" s="24"/>
+      <c r="N107" s="24"/>
       <c r="O107" s="26">
         <v>2024</v>
       </c>
-      <c r="P107" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q107" s="132"/>
-      <c r="R107" s="26"/>
-      <c r="S107" s="26"/>
-      <c r="T107" s="26"/>
+      <c r="P107" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q107" s="133"/>
+      <c r="R107" s="24"/>
+      <c r="S107" s="24"/>
+      <c r="T107" s="24"/>
       <c r="U107" s="12"/>
+      <c r="V107" s="12"/>
+      <c r="W107" s="12"/>
+      <c r="X107" s="12"/>
+      <c r="Y107" s="12"/>
+      <c r="Z107" s="12"/>
     </row>
     <row r="108" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B108" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>393</v>
+        <v>33</v>
       </c>
       <c r="D108" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v>Capitalized training costs</v>
-      </c>
-      <c r="E108" s="19"/>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      Engineering Services</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="F108" s="19"/>
       <c r="G108" s="19"/>
-      <c r="H108" s="24"/>
+      <c r="H108" s="24">
+        <f>MARVEL_Cost!C65</f>
+        <v>620313.58773783164</v>
+      </c>
       <c r="I108" s="69"/>
       <c r="J108" s="26"/>
       <c r="K108" s="42"/>
       <c r="L108" s="26"/>
       <c r="M108" s="26"/>
       <c r="N108" s="26"/>
-      <c r="O108" s="26"/>
-      <c r="P108" s="26"/>
-      <c r="Q108" s="29"/>
+      <c r="O108" s="26">
+        <v>2024</v>
+      </c>
+      <c r="P108" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q108" s="133"/>
       <c r="R108" s="26"/>
       <c r="S108" s="26"/>
       <c r="T108" s="26"/>
@@ -8234,18 +8312,18 @@
     </row>
     <row r="109" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="21">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B109" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>394</v>
+        <v>233</v>
       </c>
       <c r="D109" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">      staff recruitment and training</v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      PM/CM Services</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>347</v>
@@ -8253,8 +8331,8 @@
       <c r="F109" s="19"/>
       <c r="G109" s="19"/>
       <c r="H109" s="24">
-        <f>MARVEL_Cost!C72</f>
-        <v>4169765</v>
+        <f>MARVEL_Cost!C68</f>
+        <v>416958.9359999997</v>
       </c>
       <c r="I109" s="69"/>
       <c r="J109" s="26"/>
@@ -8268,127 +8346,136 @@
       <c r="P109" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q109" s="99" t="s">
-        <v>376</v>
-      </c>
+      <c r="Q109" s="134"/>
       <c r="R109" s="26"/>
       <c r="S109" s="26"/>
       <c r="T109" s="26"/>
       <c r="U109" s="12"/>
     </row>
     <row r="110" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="29">
-        <v>60</v>
+      <c r="A110" s="21">
+        <v>40</v>
       </c>
       <c r="B110" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>34</v>
+        <v>393</v>
       </c>
       <c r="D110" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">Capitalized Financial Costs </v>
+        <f t="shared" si="13"/>
+        <v>Capitalized training costs</v>
       </c>
       <c r="E110" s="19"/>
       <c r="F110" s="19"/>
       <c r="G110" s="19"/>
-      <c r="H110" s="29"/>
-      <c r="I110" s="20"/>
-      <c r="J110" s="29"/>
-      <c r="K110" s="29"/>
-      <c r="L110" s="29"/>
-      <c r="M110" s="29"/>
-      <c r="N110" s="29"/>
-      <c r="O110" s="29"/>
-      <c r="P110" s="29"/>
+      <c r="H110" s="24"/>
+      <c r="I110" s="69"/>
+      <c r="J110" s="26"/>
+      <c r="K110" s="42"/>
+      <c r="L110" s="26"/>
+      <c r="M110" s="26"/>
+      <c r="N110" s="26"/>
+      <c r="O110" s="26"/>
+      <c r="P110" s="26"/>
       <c r="Q110" s="29"/>
-      <c r="R110" s="29"/>
-      <c r="S110" s="29"/>
-      <c r="T110" s="29"/>
+      <c r="R110" s="26"/>
+      <c r="S110" s="26"/>
+      <c r="T110" s="26"/>
       <c r="U110" s="12"/>
     </row>
     <row r="111" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="21">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B111" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>35</v>
+        <v>394</v>
       </c>
       <c r="D111" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">      Interest</v>
-      </c>
-      <c r="E111" s="19"/>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      staff recruitment and training</v>
+      </c>
+      <c r="E111" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="F111" s="19"/>
       <c r="G111" s="19"/>
-      <c r="H111" s="24"/>
+      <c r="H111" s="24">
+        <f>MARVEL_Cost!C72</f>
+        <v>4169765</v>
+      </c>
       <c r="I111" s="69"/>
       <c r="J111" s="26"/>
       <c r="K111" s="42"/>
       <c r="L111" s="26"/>
       <c r="M111" s="26"/>
       <c r="N111" s="26"/>
-      <c r="O111" s="26"/>
-      <c r="P111" s="26"/>
-      <c r="Q111" s="42"/>
+      <c r="O111" s="26">
+        <v>2024</v>
+      </c>
+      <c r="P111" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q111" s="99" t="s">
+        <v>376</v>
+      </c>
       <c r="R111" s="26"/>
       <c r="S111" s="26"/>
       <c r="T111" s="26"/>
       <c r="U111" s="12"/>
     </row>
     <row r="112" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="16">
-        <v>70</v>
+      <c r="A112" s="29">
+        <v>60</v>
       </c>
       <c r="B112" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="C112" s="43" t="s">
-        <v>36</v>
+      <c r="C112" s="37" t="s">
+        <v>34</v>
       </c>
       <c r="D112" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">Annualized O&amp;M Cost </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">Capitalized Financial Costs </v>
       </c>
       <c r="E112" s="19"/>
       <c r="F112" s="19"/>
       <c r="G112" s="19"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="17"/>
-      <c r="K112" s="20"/>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="20"/>
-      <c r="R112" s="17"/>
-      <c r="S112" s="17"/>
-      <c r="T112" s="17"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="29"/>
+      <c r="L112" s="29"/>
+      <c r="M112" s="29"/>
+      <c r="N112" s="29"/>
+      <c r="O112" s="29"/>
+      <c r="P112" s="29"/>
+      <c r="Q112" s="29"/>
+      <c r="R112" s="29"/>
+      <c r="S112" s="29"/>
+      <c r="T112" s="29"/>
       <c r="U112" s="12"/>
     </row>
     <row r="113" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="21">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B113" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D113" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">      O&amp;M Staff</v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      Interest</v>
       </c>
       <c r="E113" s="19"/>
       <c r="F113" s="19"/>
@@ -8408,122 +8495,86 @@
       <c r="T113" s="26"/>
       <c r="U113" s="12"/>
     </row>
-    <row r="114" spans="1:21" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="36">
-        <v>711</v>
+    <row r="114" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="16">
+        <v>70</v>
       </c>
       <c r="B114" s="17">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="C114" s="37" t="s">
-        <v>38</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C114" s="43" t="s">
+        <v>36</v>
       </c>
       <c r="D114" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">            Operators </v>
-      </c>
-      <c r="E114" s="19" t="s">
-        <v>348</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">Annualized O&amp;M Cost </v>
+      </c>
+      <c r="E114" s="19"/>
       <c r="F114" s="19"/>
       <c r="G114" s="19"/>
-      <c r="H114" s="24"/>
-      <c r="I114" s="69">
-        <v>178500</v>
-      </c>
-      <c r="J114" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="K114" s="42" t="s">
-        <v>399</v>
-      </c>
-      <c r="L114" s="26"/>
-      <c r="M114" s="26"/>
-      <c r="N114" s="26">
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="20"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="20"/>
+      <c r="R114" s="17"/>
+      <c r="S114" s="17"/>
+      <c r="T114" s="17"/>
+      <c r="U114" s="12"/>
+    </row>
+    <row r="115" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="21">
+        <v>71</v>
+      </c>
+      <c r="B115" s="17">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="O114" s="26">
-        <v>2024</v>
-      </c>
-      <c r="P114" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q114" s="42"/>
-      <c r="R114" s="102" t="s">
-        <v>400</v>
-      </c>
-      <c r="S114" s="26"/>
-      <c r="T114" s="26"/>
-      <c r="U114" s="12"/>
-    </row>
-    <row r="115" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="36">
-        <v>712</v>
-      </c>
-      <c r="B115" s="17">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
       <c r="C115" s="37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D115" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">            Remote Monitoring Technicians </v>
-      </c>
-      <c r="E115" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="F115" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="G115" s="19" t="s">
-        <v>404</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      O&amp;M Staff</v>
+      </c>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
       <c r="H115" s="24"/>
-      <c r="I115" s="69">
-        <v>178500</v>
-      </c>
-      <c r="J115" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="K115" s="42" t="s">
-        <v>402</v>
-      </c>
+      <c r="I115" s="69"/>
+      <c r="J115" s="26"/>
+      <c r="K115" s="42"/>
       <c r="L115" s="26"/>
       <c r="M115" s="26"/>
-      <c r="N115" s="26">
-        <v>1</v>
-      </c>
-      <c r="O115" s="26">
-        <v>2024</v>
-      </c>
-      <c r="P115" s="26" t="s">
-        <v>72</v>
-      </c>
+      <c r="N115" s="26"/>
+      <c r="O115" s="26"/>
+      <c r="P115" s="26"/>
       <c r="Q115" s="42"/>
-      <c r="R115" s="102" t="s">
-        <v>400</v>
-      </c>
+      <c r="R115" s="26"/>
       <c r="S115" s="26"/>
       <c r="T115" s="26"/>
       <c r="U115" s="12"/>
     </row>
-    <row r="116" spans="1:21" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="36">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B116" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C116" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D116" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">            Security Staff </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">            Operators </v>
       </c>
       <c r="E116" s="19" t="s">
         <v>348</v>
@@ -8538,7 +8589,7 @@
         <v>398</v>
       </c>
       <c r="K116" s="42" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="L116" s="26"/>
       <c r="M116" s="26"/>
@@ -8559,53 +8610,73 @@
       <c r="T116" s="26"/>
       <c r="U116" s="12"/>
     </row>
-    <row r="117" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="21">
-        <v>75</v>
+    <row r="117" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="36">
+        <v>712</v>
       </c>
       <c r="B117" s="17">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D117" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">      Capital Plant Expenditures</v>
-      </c>
-      <c r="E117" s="19"/>
-      <c r="F117" s="19"/>
-      <c r="G117" s="19"/>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">            Remote Monitoring Technicians </v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="F117" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="G117" s="19" t="s">
+        <v>404</v>
+      </c>
       <c r="H117" s="24"/>
-      <c r="I117" s="69"/>
-      <c r="J117" s="26"/>
-      <c r="K117" s="42"/>
+      <c r="I117" s="69">
+        <v>178500</v>
+      </c>
+      <c r="J117" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="K117" s="42" t="s">
+        <v>402</v>
+      </c>
       <c r="L117" s="26"/>
       <c r="M117" s="26"/>
-      <c r="N117" s="26"/>
-      <c r="O117" s="26"/>
-      <c r="P117" s="26"/>
+      <c r="N117" s="26">
+        <v>1</v>
+      </c>
+      <c r="O117" s="26">
+        <v>2024</v>
+      </c>
+      <c r="P117" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="Q117" s="42"/>
-      <c r="R117" s="26"/>
+      <c r="R117" s="102" t="s">
+        <v>400</v>
+      </c>
       <c r="S117" s="26"/>
       <c r="T117" s="26"/>
       <c r="U117" s="12"/>
     </row>
-    <row r="118" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="21">
-        <v>78</v>
+    <row r="118" spans="1:21" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="36">
+        <v>713</v>
       </c>
       <c r="B118" s="17">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="C118" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D118" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">      Annualized Decommissioning Cost</v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">            Security Staff </v>
       </c>
       <c r="E118" s="19" t="s">
         <v>348</v>
@@ -8614,14 +8685,13 @@
       <c r="G118" s="19"/>
       <c r="H118" s="24"/>
       <c r="I118" s="69">
-        <f>1000*1144</f>
-        <v>1144000</v>
+        <v>178500</v>
       </c>
       <c r="J118" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="K118" s="23" t="s">
-        <v>71</v>
+        <v>398</v>
+      </c>
+      <c r="K118" s="42" t="s">
+        <v>405</v>
       </c>
       <c r="L118" s="26"/>
       <c r="M118" s="26"/>
@@ -8631,63 +8701,64 @@
       <c r="O118" s="26">
         <v>2024</v>
       </c>
-      <c r="P118" s="103" t="s">
-        <v>85</v>
+      <c r="P118" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="Q118" s="42"/>
-      <c r="R118" t="s">
-        <v>341</v>
+      <c r="R118" s="102" t="s">
+        <v>400</v>
       </c>
       <c r="S118" s="26"/>
       <c r="T118" s="26"/>
       <c r="U118" s="12"/>
     </row>
     <row r="119" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="16">
-        <v>80</v>
+      <c r="A119" s="21">
+        <v>75</v>
       </c>
       <c r="B119" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C119" s="43" t="s">
-        <v>43</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C119" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="D119" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v>Annualized Fuel Cost</v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      Capital Plant Expenditures</v>
       </c>
       <c r="E119" s="19"/>
       <c r="F119" s="19"/>
       <c r="G119" s="19"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="17"/>
-      <c r="K119" s="20"/>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="20"/>
-      <c r="R119" s="17"/>
-      <c r="S119" s="17"/>
-      <c r="T119" s="17"/>
-    </row>
-    <row r="120" spans="1:21" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H119" s="24"/>
+      <c r="I119" s="69"/>
+      <c r="J119" s="26"/>
+      <c r="K119" s="42"/>
+      <c r="L119" s="26"/>
+      <c r="M119" s="26"/>
+      <c r="N119" s="26"/>
+      <c r="O119" s="26"/>
+      <c r="P119" s="26"/>
+      <c r="Q119" s="42"/>
+      <c r="R119" s="26"/>
+      <c r="S119" s="26"/>
+      <c r="T119" s="26"/>
+      <c r="U119" s="12"/>
+    </row>
+    <row r="120" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="21">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B120" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C120" s="37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D120" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">      Refueling Operations</v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      Annualized Decommissioning Cost</v>
       </c>
       <c r="E120" s="19" t="s">
         <v>348</v>
@@ -8696,13 +8767,14 @@
       <c r="G120" s="19"/>
       <c r="H120" s="24"/>
       <c r="I120" s="69">
-        <v>178500</v>
+        <f>1000*1144</f>
+        <v>1144000</v>
       </c>
       <c r="J120" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="K120" s="42" t="s">
-        <v>399</v>
+        <v>67</v>
+      </c>
+      <c r="K120" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="L120" s="26"/>
       <c r="M120" s="26"/>
@@ -8713,76 +8785,77 @@
         <v>2024</v>
       </c>
       <c r="P120" s="103" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="Q120" s="42"/>
-      <c r="R120" s="102" t="s">
-        <v>400</v>
+      <c r="R120" t="s">
+        <v>341</v>
       </c>
       <c r="S120" s="26"/>
       <c r="T120" s="26"/>
+      <c r="U120" s="12"/>
     </row>
     <row r="121" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="21">
-        <v>82</v>
+      <c r="A121" s="16">
+        <v>80</v>
       </c>
       <c r="B121" s="17">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="C121" s="37" t="s">
-        <v>45</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C121" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="D121" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">      Additional Nuclear Fuel</v>
+        <f t="shared" si="13"/>
+        <v>Annualized Fuel Cost</v>
       </c>
       <c r="E121" s="19"/>
       <c r="F121" s="19"/>
       <c r="G121" s="19"/>
-      <c r="H121" s="24"/>
-      <c r="I121" s="69"/>
-      <c r="J121" s="26"/>
-      <c r="K121" s="42"/>
-      <c r="L121" s="26"/>
-      <c r="M121" s="26"/>
-      <c r="N121" s="26"/>
-      <c r="O121" s="26"/>
-      <c r="P121" s="26"/>
-      <c r="Q121" s="42"/>
-      <c r="R121" s="26"/>
-      <c r="S121" s="26"/>
-      <c r="T121" s="26"/>
-    </row>
-    <row r="122" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="20"/>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="20"/>
+      <c r="R121" s="17"/>
+      <c r="S121" s="17"/>
+      <c r="T121" s="17"/>
+    </row>
+    <row r="122" spans="1:21" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="21">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B122" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C122" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D122" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">      Spent Fuel Management</v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      Refueling Operations</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F122" s="19"/>
       <c r="G122" s="19"/>
       <c r="H122" s="24"/>
       <c r="I122" s="69">
-        <v>1</v>
+        <v>178500</v>
       </c>
       <c r="J122" s="26" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="K122" s="42" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="L122" s="26"/>
       <c r="M122" s="26"/>
@@ -8792,21 +8865,101 @@
       <c r="O122" s="26">
         <v>2024</v>
       </c>
-      <c r="P122" s="26" t="s">
-        <v>77</v>
+      <c r="P122" s="103" t="s">
+        <v>72</v>
       </c>
       <c r="Q122" s="42"/>
-      <c r="R122" s="26"/>
+      <c r="R122" s="102" t="s">
+        <v>400</v>
+      </c>
       <c r="S122" s="26"/>
       <c r="T122" s="26"/>
     </row>
+    <row r="123" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="21">
+        <v>82</v>
+      </c>
+      <c r="B123" s="17">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C123" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D123" s="19" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      Additional Nuclear Fuel</v>
+      </c>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="69"/>
+      <c r="J123" s="26"/>
+      <c r="K123" s="42"/>
+      <c r="L123" s="26"/>
+      <c r="M123" s="26"/>
+      <c r="N123" s="26"/>
+      <c r="O123" s="26"/>
+      <c r="P123" s="26"/>
+      <c r="Q123" s="42"/>
+      <c r="R123" s="26"/>
+      <c r="S123" s="26"/>
+      <c r="T123" s="26"/>
+    </row>
+    <row r="124" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="21">
+        <v>83</v>
+      </c>
+      <c r="B124" s="17">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C124" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D124" s="19" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      Spent Fuel Management</v>
+      </c>
+      <c r="E124" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="69">
+        <v>1</v>
+      </c>
+      <c r="J124" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="K124" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="L124" s="26"/>
+      <c r="M124" s="26"/>
+      <c r="N124" s="26">
+        <v>1</v>
+      </c>
+      <c r="O124" s="26">
+        <v>2024</v>
+      </c>
+      <c r="P124" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q124" s="42"/>
+      <c r="R124" s="26"/>
+      <c r="S124" s="26"/>
+      <c r="T124" s="26"/>
+    </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="Q104:Q107"/>
+    <mergeCell ref="Q106:Q109"/>
     <mergeCell ref="Q39:Q41"/>
     <mergeCell ref="Q45:Q47"/>
     <mergeCell ref="Q49:Q51"/>
-    <mergeCell ref="Q95:Q99"/>
+    <mergeCell ref="Q97:Q101"/>
     <mergeCell ref="R24:R26"/>
     <mergeCell ref="R30:R32"/>
     <mergeCell ref="R34:R36"/>
@@ -8815,15 +8968,15 @@
     <mergeCell ref="Q24:Q26"/>
     <mergeCell ref="Q30:Q32"/>
     <mergeCell ref="Q34:Q36"/>
-    <mergeCell ref="R95:R99"/>
-    <mergeCell ref="R73:R74"/>
-    <mergeCell ref="S73:S74"/>
+    <mergeCell ref="R97:R101"/>
+    <mergeCell ref="R75:R76"/>
+    <mergeCell ref="S75:S76"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="S20:S22"/>
-    <mergeCell ref="R65:R68"/>
+    <mergeCell ref="R66:R70"/>
     <mergeCell ref="S24:S26"/>
     <mergeCell ref="S30:S32"/>
     <mergeCell ref="S34:S36"/>
@@ -8837,128 +8990,128 @@
     <mergeCell ref="S11:S13"/>
     <mergeCell ref="R15:R17"/>
     <mergeCell ref="S15:S17"/>
-    <mergeCell ref="T73:T74"/>
+    <mergeCell ref="T75:T76"/>
     <mergeCell ref="R45:R47"/>
     <mergeCell ref="R49:R51"/>
     <mergeCell ref="S45:S47"/>
     <mergeCell ref="S49:S51"/>
-    <mergeCell ref="S65:S68"/>
+    <mergeCell ref="S66:S70"/>
     <mergeCell ref="R60:R63"/>
     <mergeCell ref="S60:S63"/>
   </mergeCells>
-  <conditionalFormatting sqref="A73:F75 L95:T95 L96:P96 S96:T100 I97:P97 A100:R100 R104:T109 A110:T113 A114:H115 A116:J116 A117:T117 S118:T118 A119:T119 S120:T120 A121:T122">
-    <cfRule type="expression" dxfId="84" priority="140">
-      <formula>$B73=0</formula>
+  <conditionalFormatting sqref="A75:F77 L97:T97 L98:P98 S98:T102 I99:P99 A102:R102 R106:T111 A112:T115 A116:H117 A118:J118 A119:T119 S120:T120 A121:T121 S122:T122 A123:T124">
+    <cfRule type="expression" dxfId="84" priority="137">
+      <formula>$B75=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="137">
-      <formula>$B73=3</formula>
+    <cfRule type="expression" dxfId="83" priority="138">
+      <formula>$B75=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="138">
-      <formula>$B73=2</formula>
+    <cfRule type="expression" dxfId="82" priority="139">
+      <formula>$B75&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="139">
-      <formula>$B73&lt;2</formula>
+    <cfRule type="expression" dxfId="81" priority="140">
+      <formula>$B75=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A95:H97">
+  <conditionalFormatting sqref="A97:H99">
     <cfRule type="expression" dxfId="80" priority="101">
-      <formula>$B95=3</formula>
+      <formula>$B97=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="79" priority="102">
-      <formula>$B95=2</formula>
+      <formula>$B97=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="78" priority="103">
-      <formula>$B95&lt;2</formula>
+      <formula>$B97&lt;2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="77" priority="104">
-      <formula>$B95=0</formula>
+      <formula>$B97=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77:I81">
+  <conditionalFormatting sqref="A79:I83">
     <cfRule type="expression" dxfId="76" priority="125">
-      <formula>$B77=3</formula>
+      <formula>$B79=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="75" priority="126">
-      <formula>$B77=2</formula>
+      <formula>$B79=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="74" priority="127">
-      <formula>$B77&lt;2</formula>
+      <formula>$B79&lt;2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="73" priority="128">
-      <formula>$B77=0</formula>
+      <formula>$B79=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A98:P99">
-    <cfRule type="expression" dxfId="72" priority="88">
-      <formula>$B98=0</formula>
+  <conditionalFormatting sqref="A100:P101">
+    <cfRule type="expression" dxfId="72" priority="85">
+      <formula>$B100=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="87">
-      <formula>$B98&lt;2</formula>
+    <cfRule type="expression" dxfId="71" priority="86">
+      <formula>$B100=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="86">
-      <formula>$B98=2</formula>
+    <cfRule type="expression" dxfId="70" priority="87">
+      <formula>$B100&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="85">
-      <formula>$B98=3</formula>
+    <cfRule type="expression" dxfId="69" priority="88">
+      <formula>$B100=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A102:P109">
-    <cfRule type="expression" dxfId="68" priority="36">
-      <formula>$B102=0</formula>
+  <conditionalFormatting sqref="A104:P111">
+    <cfRule type="expression" dxfId="68" priority="33">
+      <formula>$B104=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="33">
-      <formula>$B102=3</formula>
+    <cfRule type="expression" dxfId="67" priority="34">
+      <formula>$B104=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="34">
-      <formula>$B102=2</formula>
+    <cfRule type="expression" dxfId="66" priority="35">
+      <formula>$B104&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="35">
-      <formula>$B102&lt;2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A118:Q118">
-    <cfRule type="expression" dxfId="64" priority="6">
-      <formula>$B118=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="5">
-      <formula>$B118=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="8">
-      <formula>$B118=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="7">
-      <formula>$B118&lt;2</formula>
+    <cfRule type="expression" dxfId="65" priority="36">
+      <formula>$B104=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:Q120">
-    <cfRule type="expression" dxfId="60" priority="4">
+    <cfRule type="expression" dxfId="64" priority="5">
+      <formula>$B120=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="6">
+      <formula>$B120=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="7">
+      <formula>$B120&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="8">
       <formula>$B120=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="3">
-      <formula>$B120&lt;2</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A122:Q122">
+    <cfRule type="expression" dxfId="60" priority="1">
+      <formula>$B122=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="2">
-      <formula>$B120=2</formula>
+    <cfRule type="expression" dxfId="59" priority="2">
+      <formula>$B122=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="1">
-      <formula>$B120=3</formula>
+    <cfRule type="expression" dxfId="58" priority="3">
+      <formula>$B122&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="4">
+      <formula>$B122=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:S72">
+  <conditionalFormatting sqref="A74:S74">
     <cfRule type="expression" dxfId="56" priority="141">
-      <formula>$B72=3</formula>
+      <formula>$B74=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="55" priority="142">
-      <formula>$B72=2</formula>
+      <formula>$B74=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="54" priority="143">
-      <formula>$B72&lt;2</formula>
+      <formula>$B74&lt;2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="53" priority="144">
-      <formula>$B72=0</formula>
+      <formula>$B74=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:T71 T72:T75 H73:R73 H74:Q74 G75:Q75 A76:T76 K77:T77 S78:T81">
+  <conditionalFormatting sqref="T74:T77 H75:R75 H76:Q76 G77:Q77 A78:T78 K79:T79 S80:T83 A1:T73">
     <cfRule type="expression" dxfId="52" priority="145">
       <formula>$B1=3</formula>
     </cfRule>
@@ -8972,35 +9125,35 @@
       <formula>$B1=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:T94">
-    <cfRule type="expression" dxfId="48" priority="108">
-      <formula>$B82=0</formula>
+  <conditionalFormatting sqref="A84:T96">
+    <cfRule type="expression" dxfId="48" priority="105">
+      <formula>$B84=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="107">
-      <formula>$B82&lt;2</formula>
+    <cfRule type="expression" dxfId="47" priority="106">
+      <formula>$B84=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="106">
-      <formula>$B82=2</formula>
+    <cfRule type="expression" dxfId="46" priority="107">
+      <formula>$B84&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="105">
-      <formula>$B82=3</formula>
+    <cfRule type="expression" dxfId="45" priority="108">
+      <formula>$B84=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101:T101">
+  <conditionalFormatting sqref="A103:T103">
     <cfRule type="expression" dxfId="44" priority="69">
-      <formula>$B101=3</formula>
+      <formula>$B103=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="43" priority="70">
-      <formula>$B101=2</formula>
+      <formula>$B103=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="42" priority="71">
-      <formula>$B101&lt;2</formula>
+      <formula>$B103&lt;2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="41" priority="72">
-      <formula>$B101=0</formula>
+      <formula>$B103=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D122">
+  <conditionalFormatting sqref="D2:D124">
     <cfRule type="colorScale" priority="197">
       <colorScale>
         <cfvo type="min"/>
@@ -9010,194 +9163,194 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G73:G74">
+  <conditionalFormatting sqref="G75:G76">
     <cfRule type="expression" dxfId="40" priority="133">
-      <formula>$B73=3</formula>
+      <formula>$B75=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="136">
-      <formula>$B73=0</formula>
+    <cfRule type="expression" dxfId="39" priority="134">
+      <formula>$B75=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="38" priority="135">
-      <formula>$B73&lt;2</formula>
+      <formula>$B75&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="134">
-      <formula>$B73=2</formula>
+    <cfRule type="expression" dxfId="37" priority="136">
+      <formula>$B75=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I114:J115">
+  <conditionalFormatting sqref="I116:J117">
     <cfRule type="expression" dxfId="36" priority="17">
-      <formula>$B115=3</formula>
+      <formula>$B117=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="35" priority="18">
-      <formula>$B115=2</formula>
+      <formula>$B117=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="19">
-      <formula>$B115&lt;2</formula>
+      <formula>$B117&lt;2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="20">
-      <formula>$B115=0</formula>
+      <formula>$B117=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I95:K96">
-    <cfRule type="expression" dxfId="32" priority="99">
-      <formula>$B95&lt;2</formula>
+  <conditionalFormatting sqref="I97:K98">
+    <cfRule type="expression" dxfId="32" priority="97">
+      <formula>$B97=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="100">
-      <formula>$B95=0</formula>
+    <cfRule type="expression" dxfId="31" priority="98">
+      <formula>$B97=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="98">
-      <formula>$B95=2</formula>
+    <cfRule type="expression" dxfId="30" priority="99">
+      <formula>$B97&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="97">
-      <formula>$B95=3</formula>
+    <cfRule type="expression" dxfId="29" priority="100">
+      <formula>$B97=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J77 O101">
-    <cfRule type="expression" dxfId="28" priority="157">
-      <formula>$B78=0</formula>
+  <conditionalFormatting sqref="J79 O103">
+    <cfRule type="expression" dxfId="28" priority="155">
+      <formula>$B80=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="27" priority="156">
-      <formula>$B78&lt;2</formula>
+      <formula>$B80&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="155">
-      <formula>$B78=2</formula>
+    <cfRule type="expression" dxfId="26" priority="157">
+      <formula>$B80=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K78:Q81">
-    <cfRule type="expression" dxfId="25" priority="122">
-      <formula>$B78=2</formula>
+  <conditionalFormatting sqref="K80:Q83">
+    <cfRule type="expression" dxfId="25" priority="121">
+      <formula>$B80=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="123">
-      <formula>$B78&lt;2</formula>
+    <cfRule type="expression" dxfId="24" priority="122">
+      <formula>$B80=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="124">
-      <formula>$B78=0</formula>
+    <cfRule type="expression" dxfId="23" priority="123">
+      <formula>$B80&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="121">
-      <formula>$B78=3</formula>
+    <cfRule type="expression" dxfId="22" priority="124">
+      <formula>$B80=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K114:Q116 S114:T116">
+  <conditionalFormatting sqref="K116:Q118 S116:T118">
     <cfRule type="expression" dxfId="21" priority="9">
-      <formula>$B114=3</formula>
+      <formula>$B116=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="10">
-      <formula>$B114=2</formula>
+      <formula>$B116=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="11">
-      <formula>$B114&lt;2</formula>
+      <formula>$B116&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K114:Q116">
+  <conditionalFormatting sqref="K116:Q118">
     <cfRule type="expression" dxfId="18" priority="12">
-      <formula>$B114=0</formula>
+      <formula>$B116=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O101 J77">
+  <conditionalFormatting sqref="O103 J79">
     <cfRule type="expression" dxfId="17" priority="154">
-      <formula>$B78=3</formula>
+      <formula>$B80=3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q104">
-    <cfRule type="expression" dxfId="16" priority="84">
+  <conditionalFormatting sqref="Q106">
+    <cfRule type="expression" dxfId="16" priority="81">
+      <formula>$B106=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="82">
+      <formula>$B106=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="83">
+      <formula>$B106&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="84">
+      <formula>$B106=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q110:Q111">
+    <cfRule type="expression" dxfId="12" priority="77">
+      <formula>$B110=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="78">
+      <formula>$B110=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="79">
+      <formula>$B110&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="80">
+      <formula>$B110=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q104:T105">
+    <cfRule type="expression" dxfId="8" priority="41">
+      <formula>$B104=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="42">
+      <formula>$B104=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="43">
+      <formula>$B104&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="44">
       <formula>$B104=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="83">
-      <formula>$B104&lt;2</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S75">
+    <cfRule type="expression" dxfId="4" priority="162">
+      <formula>$B74=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="82">
-      <formula>$B104=2</formula>
+    <cfRule type="expression" dxfId="3" priority="163">
+      <formula>$B74=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="81">
-      <formula>$B104=3</formula>
+    <cfRule type="expression" dxfId="2" priority="164">
+      <formula>$B74&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="165">
+      <formula>$B74=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q108:Q109">
-    <cfRule type="expression" dxfId="12" priority="80">
-      <formula>$B108=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="77">
-      <formula>$B108=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="78">
-      <formula>$B108=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="79">
-      <formula>$B108&lt;2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q102:T103">
-    <cfRule type="expression" dxfId="8" priority="41">
-      <formula>$B102=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="42">
-      <formula>$B102=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="44">
-      <formula>$B102=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="43">
-      <formula>$B102&lt;2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S73">
-    <cfRule type="expression" dxfId="4" priority="162">
-      <formula>$B72=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="163">
-      <formula>$B72=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="164">
-      <formula>$B72&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="165">
-      <formula>$B72=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S114:T116">
+  <conditionalFormatting sqref="S116:T118">
     <cfRule type="expression" dxfId="0" priority="28">
-      <formula>$B114=0</formula>
+      <formula>$B116=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="10">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O101 O123:P130 O103:O122" xr:uid="{7C199008-9AB6-6549-A861-AD474C13E949}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O105:O124 O125:P132 O2:O103" xr:uid="{7C199008-9AB6-6549-A861-AD474C13E949}">
       <formula1>1950</formula1>
       <formula2>2025</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9 I11:I41 I45:I47 I49:I51 L1:L55 I55:I62 I64 L57:L63 L65:L70 I66:I71 H2:H86 H89:H90 H92:H94 I73:I99 H98:H122 L72:L1048576 I101:I122" xr:uid="{66ABF627-CC97-3E44-B6AC-09E441BED0CD}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9 I11:I41 I45:I47 I49:I51 L1:L55 I55:I62 I65 I68:I73 I103:I124 H91:H92 H94:H96 I75:I101 H100:H124 L74:L1048576 L57:L64 H2:H88 L66:L72" xr:uid="{66ABF627-CC97-3E44-B6AC-09E441BED0CD}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K297:K307" xr:uid="{9E6037A9-5EC7-2945-A2FE-1723BA7DEE83}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K299:K309" xr:uid="{9E6037A9-5EC7-2945-A2FE-1723BA7DEE83}">
       <formula1>"Land Area, Power MWe, Excavation Volume,  Reactor Building Slab Roof Volume,	Reactor Building  Basement Volume, Reactor Building  Exterior Walls Volume,		Turbine Building Slab Roof Volume,	Turbine Building  Basement Volume,	Turbine Building  Exterior Wall"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 J123:J1048576" xr:uid="{EEDF1E2A-32DC-6242-8EBD-BD01BBD19C77}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 J125:J1048576" xr:uid="{EEDF1E2A-32DC-6242-8EBD-BD01BBD19C77}">
       <formula1>"$/acres, $/MWe, $/m^3, $/MWt"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10 E14 E18:E19 E23 E27:E29 E33 E37:E38 E43:E44 E48 E52:E54 E59 E66 E71:E122" xr:uid="{E571E7A1-C2F9-2E4D-99A9-8FA0C5D45C39}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10 E14 E18:E19 E23 E27:E29 E33 E37:E38 E43:E44 E48 E52:E54 E59 E68 E73:E124" xr:uid="{E571E7A1-C2F9-2E4D-99A9-8FA0C5D45C39}">
       <formula1>"standard, nonstandard"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N122" xr:uid="{1C0096F5-23AB-5A48-8F14-E27BC72A38A6}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N124" xr:uid="{1C0096F5-23AB-5A48-8F14-E27BC72A38A6}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M122" xr:uid="{127B7473-9D01-354E-A3BD-12180E660A5C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M124" xr:uid="{127B7473-9D01-354E-A3BD-12180E660A5C}">
       <formula1>"acres, MWe, m^3, MWt, Kg, Drums, kW, $"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P122" xr:uid="{17DDFD40-D97D-B64B-BD3B-AEAF52F6302C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P124" xr:uid="{17DDFD40-D97D-B64B-BD3B-AEAF52F6302C}">
       <formula1>"NA, General, Labor, Material, Equipment,Lab and Mat and Equip, 'Lab and Equip"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N123:N276" xr:uid="{6D536505-A5B6-E145-A4B9-9C3C8E6B8527}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N125:N278" xr:uid="{6D536505-A5B6-E145-A4B9-9C3C8E6B8527}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J122" xr:uid="{0FCCEC2F-487A-5A42-9C52-ED538456C753}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J124" xr:uid="{0FCCEC2F-487A-5A42-9C52-ED538456C753}">
       <formula1>"$/MWeHour,$/FTE, $/acres, $/MWe, $/m^3, $/MWt, $/Kg, $/Drum, $/(kg.sec), $/SWU, unitless"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S3" r:id="rId1" xr:uid="{BA0D9C81-F547-414C-A28F-25DA56C7D1AB}"/>
     <hyperlink ref="S42" r:id="rId2" display="https://inldigitallibrary.inl.gov/sites/sti/sti/Sort_129862.pdf_x000a__x000a_" xr:uid="{0C5690C1-ED1C-8647-B6EB-55013768C9A4}"/>
-    <hyperlink ref="S73" r:id="rId3" display="https://www.sciencedirect.com/science/article/pii/S1290072903000218" xr:uid="{FB986645-DAA7-E546-AB13-44635CD5B6AC}"/>
+    <hyperlink ref="S75" r:id="rId3" display="https://www.sciencedirect.com/science/article/pii/S1290072903000218" xr:uid="{FB986645-DAA7-E546-AB13-44635CD5B6AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9209,8 +9362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAED81D3-2E1E-EB42-8F84-3B0F01FD7CDC}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="183" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:XFD72"/>
+    <sheetView topLeftCell="A15" zoomScale="192" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9222,20 +9375,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="135" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="137" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="133"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="136"/>
+      <c r="A2" s="135"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="138"/>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="62">
@@ -10115,8 +10268,8 @@
   </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView zoomScale="225" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A9" zoomScale="225" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -10143,12 +10296,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="139" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="139"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="141"/>
     </row>
     <row r="3" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
@@ -10205,12 +10358,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="139" t="s">
         <v>252</v>
       </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="139"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="141"/>
     </row>
     <row r="8" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
@@ -10269,12 +10422,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="137" t="s">
+      <c r="A12" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="139"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="141"/>
     </row>
     <row r="13" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
@@ -10373,12 +10526,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="137" t="s">
+      <c r="A20" s="139" t="s">
         <v>275</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="139"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="141"/>
     </row>
     <row r="21" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
@@ -10507,12 +10660,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="137" t="s">
+      <c r="A30" s="139" t="s">
         <v>288</v>
       </c>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="139"/>
+      <c r="B30" s="140"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="141"/>
     </row>
     <row r="31" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
@@ -10587,12 +10740,12 @@
       <c r="D36" s="60"/>
     </row>
     <row r="37" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="137" t="s">
+      <c r="A37" s="139" t="s">
         <v>295</v>
       </c>
-      <c r="B37" s="138"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="139"/>
+      <c r="B37" s="140"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="141"/>
     </row>
     <row r="38" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
@@ -10679,12 +10832,12 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="137" t="s">
+      <c r="A44" s="139" t="s">
         <v>308</v>
       </c>
-      <c r="B44" s="138"/>
-      <c r="C44" s="138"/>
-      <c r="D44" s="139"/>
+      <c r="B44" s="140"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="141"/>
     </row>
     <row r="45" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
@@ -10701,12 +10854,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="137" t="s">
+      <c r="A46" s="139" t="s">
         <v>311</v>
       </c>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="139"/>
+      <c r="B46" s="140"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="141"/>
     </row>
     <row r="47" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
@@ -10751,12 +10904,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="137" t="s">
+      <c r="A50" s="139" t="s">
         <v>318</v>
       </c>
-      <c r="B50" s="138"/>
-      <c r="C50" s="138"/>
-      <c r="D50" s="139"/>
+      <c r="B50" s="140"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="141"/>
     </row>
     <row r="51" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="54" t="s">

--- a/cost/Cost_Database.xlsx
+++ b/cost/Cost_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannbn/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D387D633-FDB0-B74E-B474-FD67EC8F5F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A2598A-FF6D-554C-AA6E-51CFD281026F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="419">
   <si>
     <t>Account</t>
   </si>
@@ -1236,12 +1236,6 @@
   </si>
   <si>
     <t>Reflector Mass</t>
-  </si>
-  <si>
-    <t>In Vessel Shielding Material</t>
-  </si>
-  <si>
-    <t>Out Of Vessel Shielding Material</t>
   </si>
   <si>
     <t>WEP</t>
@@ -1562,6 +1556,18 @@
   <si>
     <t>Be</t>
   </si>
+  <si>
+    <t>In Vessel Shield Material</t>
+  </si>
+  <si>
+    <t>Out Of Vessel Shield Material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al-Dawood, Khaldoon and Hanna, Botros and Balla, Sai and de Oliveira, Rodrigo and Garcia, Samuel and McCarthy, Dan and Bolisetti, Chandrakanth and Lindley, Ben and Abou-Jaoude, Abdalla, Open-Source Microreactor Design Models for Technoeconomic Assessment. </t>
+  </si>
+  <si>
+    <t>https://papers.ssrn.com/sol3/papers.cfm?abstract_id=5163464</t>
+  </si>
 </sst>
 </file>
 
@@ -1575,7 +1581,7 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1807,12 +1813,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2019,7 +2019,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2261,9 +2261,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2394,39 +2391,12 @@
     <cellStyle name="Normal 2" xfId="4" xr:uid="{E15291B7-9068-3147-AE9D-D55638463741}"/>
     <cellStyle name="Normal 2 5" xfId="3" xr:uid="{D5427F60-54E8-014E-9224-5454BAE094F2}"/>
   </cellStyles>
-  <dxfs count="85">
+  <dxfs count="81">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3393,8 +3363,8 @@
   <dimension ref="A1:Z124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="63" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3436,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>328</v>
@@ -3445,10 +3415,10 @@
         <v>329</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>50</v>
@@ -3546,7 +3516,7 @@
         <v xml:space="preserve">      Land Cost</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -3574,10 +3544,10 @@
       <c r="Q3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="108" t="s">
+      <c r="R3" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="S3" s="124" t="s">
+      <c r="S3" s="123" t="s">
         <v>56</v>
       </c>
       <c r="T3" s="26"/>
@@ -3598,7 +3568,7 @@
         <v xml:space="preserve">      Site Permits</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -3627,8 +3597,8 @@
       <c r="Q4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="108"/>
-      <c r="S4" s="124"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="123"/>
       <c r="T4" s="26"/>
     </row>
     <row r="5" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3647,7 +3617,7 @@
         <v xml:space="preserve">      Plant Licensing</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -3670,10 +3640,10 @@
       <c r="Q5" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="108" t="s">
+      <c r="R5" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="S5" s="124" t="s">
+      <c r="S5" s="123" t="s">
         <v>59</v>
       </c>
       <c r="T5" s="26"/>
@@ -3694,7 +3664,7 @@
         <v xml:space="preserve">      Plant Permits</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -3716,8 +3686,8 @@
       <c r="Q6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="108"/>
-      <c r="S6" s="124"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="123"/>
       <c r="T6" s="26"/>
     </row>
     <row r="7" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3736,7 +3706,7 @@
         <v xml:space="preserve">      Plant Studies</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -3888,7 +3858,7 @@
         <v xml:space="preserve">                  Cleaning and Grubbing</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -3914,13 +3884,13 @@
       <c r="P11" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="120" t="s">
+      <c r="Q11" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="R11" s="108" t="s">
+      <c r="R11" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="S11" s="109" t="s">
+      <c r="S11" s="108" t="s">
         <v>84</v>
       </c>
       <c r="T11" s="26"/>
@@ -3948,7 +3918,7 @@
         <v xml:space="preserve">                  Stripping Topsoil</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -3974,9 +3944,9 @@
       <c r="P12" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="110"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="109"/>
       <c r="T12" s="26"/>
     </row>
     <row r="13" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3995,7 +3965,7 @@
         <v xml:space="preserve">                  Excavation</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -4021,9 +3991,9 @@
       <c r="P13" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="120"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="110"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="109"/>
       <c r="T13" s="26"/>
     </row>
     <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4074,7 +4044,7 @@
         <v xml:space="preserve">                  Reactor Building Slab Roof</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="27"/>
@@ -4099,13 +4069,13 @@
       <c r="P15" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q15" s="120" t="s">
+      <c r="Q15" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="108" t="s">
+      <c r="R15" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="S15" s="109" t="s">
+      <c r="S15" s="108" t="s">
         <v>84</v>
       </c>
       <c r="T15" s="26"/>
@@ -4126,7 +4096,7 @@
         <v xml:space="preserve">                  Reactor Building Basement</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -4152,9 +4122,9 @@
       <c r="P16" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="108"/>
-      <c r="S16" s="110"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="107"/>
+      <c r="S16" s="109"/>
       <c r="T16" s="26"/>
     </row>
     <row r="17" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4173,7 +4143,7 @@
         <v xml:space="preserve">                  Reactor Building Walls</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -4199,9 +4169,9 @@
       <c r="P17" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q17" s="120"/>
-      <c r="R17" s="108"/>
-      <c r="S17" s="110"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="109"/>
       <c r="T17" s="26"/>
     </row>
     <row r="18" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4284,7 +4254,7 @@
         <v xml:space="preserve">                        Energy Conversion Building Slab Roof</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -4310,13 +4280,13 @@
       <c r="P20" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q20" s="120" t="s">
+      <c r="Q20" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="R20" s="108" t="s">
+      <c r="R20" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="S20" s="109" t="s">
+      <c r="S20" s="108" t="s">
         <v>84</v>
       </c>
       <c r="T20" s="26"/>
@@ -4337,7 +4307,7 @@
         <v xml:space="preserve">                        Energy Conversion Building Basement</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -4363,9 +4333,9 @@
       <c r="P21" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q21" s="120"/>
-      <c r="R21" s="108"/>
-      <c r="S21" s="110"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="109"/>
       <c r="T21" s="26"/>
     </row>
     <row r="22" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4384,7 +4354,7 @@
         <v xml:space="preserve">                        Energy Conversion Building Walls</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -4397,7 +4367,7 @@
         <v>79</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="23" t="s">
@@ -4410,9 +4380,9 @@
       <c r="P22" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="120"/>
-      <c r="R22" s="108"/>
-      <c r="S22" s="110"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="107"/>
+      <c r="S22" s="109"/>
       <c r="T22" s="26"/>
     </row>
     <row r="23" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4463,7 +4433,7 @@
         <v xml:space="preserve">                        Control Building Slab Roof</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -4489,13 +4459,13 @@
       <c r="P24" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q24" s="120" t="s">
+      <c r="Q24" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="R24" s="108" t="s">
+      <c r="R24" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="109" t="s">
+      <c r="S24" s="108" t="s">
         <v>84</v>
       </c>
       <c r="T24" s="26"/>
@@ -4516,7 +4486,7 @@
         <v xml:space="preserve">                        Control Building Basement</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -4542,9 +4512,9 @@
       <c r="P25" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q25" s="120"/>
-      <c r="R25" s="108"/>
-      <c r="S25" s="110"/>
+      <c r="Q25" s="119"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="109"/>
       <c r="T25" s="26"/>
     </row>
     <row r="26" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -4563,7 +4533,7 @@
         <v xml:space="preserve">                        Control Building Walls</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -4589,9 +4559,9 @@
       <c r="P26" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="108"/>
-      <c r="S26" s="110"/>
+      <c r="Q26" s="119"/>
+      <c r="R26" s="107"/>
+      <c r="S26" s="109"/>
       <c r="T26" s="26"/>
     </row>
     <row r="27" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4706,7 +4676,7 @@
         <v xml:space="preserve">                              Refueling Building Slab Roof</v>
       </c>
       <c r="E30" s="80" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F30" s="80"/>
       <c r="G30" s="80"/>
@@ -4732,13 +4702,13 @@
       <c r="P30" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q30" s="131" t="s">
+      <c r="Q30" s="130" t="s">
         <v>82</v>
       </c>
-      <c r="R30" s="130" t="s">
+      <c r="R30" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="S30" s="128" t="s">
+      <c r="S30" s="127" t="s">
         <v>84</v>
       </c>
       <c r="T30" s="85"/>
@@ -4759,7 +4729,7 @@
         <v xml:space="preserve">                              Refueling Building Basement</v>
       </c>
       <c r="E31" s="80" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F31" s="80"/>
       <c r="G31" s="80"/>
@@ -4785,9 +4755,9 @@
       <c r="P31" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="130"/>
-      <c r="S31" s="129"/>
+      <c r="Q31" s="130"/>
+      <c r="R31" s="129"/>
+      <c r="S31" s="128"/>
       <c r="T31" s="85"/>
     </row>
     <row r="32" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -4806,7 +4776,7 @@
         <v xml:space="preserve">                              Refueling Building Walls</v>
       </c>
       <c r="E32" s="80" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F32" s="80"/>
       <c r="G32" s="80"/>
@@ -4832,9 +4802,9 @@
       <c r="P32" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q32" s="131"/>
-      <c r="R32" s="130"/>
-      <c r="S32" s="129"/>
+      <c r="Q32" s="130"/>
+      <c r="R32" s="129"/>
+      <c r="S32" s="128"/>
       <c r="T32" s="85"/>
     </row>
     <row r="33" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4885,7 +4855,7 @@
         <v xml:space="preserve">                              Spent Fuel Building Slab Roof</v>
       </c>
       <c r="E34" s="80" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F34" s="80"/>
       <c r="G34" s="80"/>
@@ -4911,13 +4881,13 @@
       <c r="P34" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q34" s="131" t="s">
+      <c r="Q34" s="130" t="s">
         <v>82</v>
       </c>
-      <c r="R34" s="130" t="s">
+      <c r="R34" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="S34" s="128" t="s">
+      <c r="S34" s="127" t="s">
         <v>84</v>
       </c>
       <c r="T34" s="85"/>
@@ -4938,7 +4908,7 @@
         <v xml:space="preserve">                              Spent Fuel Building Basement</v>
       </c>
       <c r="E35" s="80" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F35" s="80"/>
       <c r="G35" s="80"/>
@@ -4964,9 +4934,9 @@
       <c r="P35" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q35" s="131"/>
-      <c r="R35" s="130"/>
-      <c r="S35" s="129"/>
+      <c r="Q35" s="130"/>
+      <c r="R35" s="129"/>
+      <c r="S35" s="128"/>
       <c r="T35" s="85"/>
     </row>
     <row r="36" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -4985,7 +4955,7 @@
         <v xml:space="preserve">                              Spent Fuel Building Walls</v>
       </c>
       <c r="E36" s="80" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F36" s="80"/>
       <c r="G36" s="80"/>
@@ -5011,9 +4981,9 @@
       <c r="P36" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q36" s="131"/>
-      <c r="R36" s="130"/>
-      <c r="S36" s="129"/>
+      <c r="Q36" s="130"/>
+      <c r="R36" s="129"/>
+      <c r="S36" s="128"/>
       <c r="T36" s="85"/>
     </row>
     <row r="37" spans="1:20" ht="30" thickBot="1" x14ac:dyDescent="0.25">
@@ -5096,7 +5066,7 @@
         <v xml:space="preserve">                              Emergency Building Slab Roof</v>
       </c>
       <c r="E39" s="80" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F39" s="80"/>
       <c r="G39" s="80"/>
@@ -5122,13 +5092,13 @@
       <c r="P39" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q39" s="131" t="s">
+      <c r="Q39" s="130" t="s">
         <v>82</v>
       </c>
-      <c r="R39" s="130" t="s">
+      <c r="R39" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="S39" s="128" t="s">
+      <c r="S39" s="127" t="s">
         <v>84</v>
       </c>
       <c r="T39" s="85"/>
@@ -5149,7 +5119,7 @@
         <v xml:space="preserve">                              Emergency Building Basement</v>
       </c>
       <c r="E40" s="80" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F40" s="80"/>
       <c r="G40" s="80"/>
@@ -5175,9 +5145,9 @@
       <c r="P40" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q40" s="131"/>
-      <c r="R40" s="130"/>
-      <c r="S40" s="129"/>
+      <c r="Q40" s="130"/>
+      <c r="R40" s="129"/>
+      <c r="S40" s="128"/>
       <c r="T40" s="85"/>
     </row>
     <row r="41" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
@@ -5196,7 +5166,7 @@
         <v xml:space="preserve">                              Emergency Building Walls</v>
       </c>
       <c r="E41" s="80" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F41" s="80"/>
       <c r="G41" s="80"/>
@@ -5222,9 +5192,9 @@
       <c r="P41" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q41" s="131"/>
-      <c r="R41" s="130"/>
-      <c r="S41" s="129"/>
+      <c r="Q41" s="130"/>
+      <c r="R41" s="129"/>
+      <c r="S41" s="128"/>
       <c r="T41" s="85"/>
     </row>
     <row r="42" spans="1:20" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5243,7 +5213,7 @@
         <v xml:space="preserve">                        Diesel Generator</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
@@ -5365,7 +5335,7 @@
         <v xml:space="preserve">                        Storage Building Slab Roof</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
@@ -5391,13 +5361,13 @@
       <c r="P45" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q45" s="120" t="s">
+      <c r="Q45" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="R45" s="108" t="s">
+      <c r="R45" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="S45" s="109" t="s">
+      <c r="S45" s="108" t="s">
         <v>84</v>
       </c>
       <c r="T45" s="26"/>
@@ -5418,7 +5388,7 @@
         <v xml:space="preserve">                        Storage Building Basement</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
@@ -5444,9 +5414,9 @@
       <c r="P46" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q46" s="120"/>
-      <c r="R46" s="108"/>
-      <c r="S46" s="110"/>
+      <c r="Q46" s="119"/>
+      <c r="R46" s="107"/>
+      <c r="S46" s="109"/>
       <c r="T46" s="26"/>
     </row>
     <row r="47" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -5465,7 +5435,7 @@
         <v xml:space="preserve">                        Storage Building Walls</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
@@ -5491,9 +5461,9 @@
       <c r="P47" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q47" s="120"/>
-      <c r="R47" s="108"/>
-      <c r="S47" s="110"/>
+      <c r="Q47" s="119"/>
+      <c r="R47" s="107"/>
+      <c r="S47" s="109"/>
       <c r="T47" s="26"/>
     </row>
     <row r="48" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5544,7 +5514,7 @@
         <v xml:space="preserve">                        Radwaste Building Slab Roof</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
@@ -5570,13 +5540,13 @@
       <c r="P49" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q49" s="120" t="s">
+      <c r="Q49" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="R49" s="108" t="s">
+      <c r="R49" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="S49" s="109" t="s">
+      <c r="S49" s="108" t="s">
         <v>84</v>
       </c>
       <c r="T49" s="26"/>
@@ -5597,7 +5567,7 @@
         <v xml:space="preserve">                        Radwaste Building Basement</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
@@ -5623,9 +5593,9 @@
       <c r="P50" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q50" s="120"/>
-      <c r="R50" s="108"/>
-      <c r="S50" s="110"/>
+      <c r="Q50" s="119"/>
+      <c r="R50" s="107"/>
+      <c r="S50" s="109"/>
       <c r="T50" s="26"/>
     </row>
     <row r="51" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
@@ -5644,7 +5614,7 @@
         <v xml:space="preserve">                        Radwaste Building Walls</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
@@ -5670,9 +5640,9 @@
       <c r="P51" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q51" s="120"/>
-      <c r="R51" s="108"/>
-      <c r="S51" s="110"/>
+      <c r="Q51" s="119"/>
+      <c r="R51" s="107"/>
+      <c r="S51" s="109"/>
       <c r="T51" s="26"/>
     </row>
     <row r="52" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5787,7 +5757,7 @@
         <v xml:space="preserve">                        Reactor Support</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
@@ -5821,10 +5791,10 @@
       <c r="Q55" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R55" s="125" t="s">
+      <c r="R55" s="124" t="s">
         <v>178</v>
       </c>
-      <c r="S55" s="111" t="s">
+      <c r="S55" s="110" t="s">
         <v>182</v>
       </c>
       <c r="T55" s="42" t="s">
@@ -5847,7 +5817,7 @@
         <v xml:space="preserve">                        Outer Vessel Structure</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
@@ -5881,8 +5851,8 @@
       <c r="Q56" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R56" s="126"/>
-      <c r="S56" s="112"/>
+      <c r="R56" s="125"/>
+      <c r="S56" s="111"/>
       <c r="T56" s="26"/>
     </row>
     <row r="57" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5901,7 +5871,7 @@
         <v xml:space="preserve">                        Inner Vessel Structure</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
@@ -5938,8 +5908,8 @@
       <c r="Q57" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R57" s="127"/>
-      <c r="S57" s="113"/>
+      <c r="R57" s="126"/>
+      <c r="S57" s="112"/>
       <c r="T57" s="42" t="s">
         <v>181</v>
       </c>
@@ -6024,7 +5994,7 @@
         <v xml:space="preserve">                              Reactivity Control System Fabrication</v>
       </c>
       <c r="E60" s="80" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F60" s="80"/>
       <c r="G60" s="80"/>
@@ -6049,11 +6019,11 @@
       <c r="Q60" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R60" s="114" t="s">
+      <c r="R60" s="113" t="s">
         <v>178</v>
       </c>
-      <c r="S60" s="117" t="s">
-        <v>349</v>
+      <c r="S60" s="116" t="s">
+        <v>347</v>
       </c>
       <c r="T60" s="90" t="s">
         <v>187</v>
@@ -6075,7 +6045,7 @@
         <v xml:space="preserve">                              Installation</v>
       </c>
       <c r="E61" s="80" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F61" s="80"/>
       <c r="G61" s="80"/>
@@ -6098,8 +6068,8 @@
       <c r="Q61" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R61" s="115"/>
-      <c r="S61" s="118"/>
+      <c r="R61" s="114"/>
+      <c r="S61" s="117"/>
       <c r="T61" s="85"/>
     </row>
     <row r="62" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6118,7 +6088,7 @@
         <v xml:space="preserve">                              Control Drums Materials (Absorber)</v>
       </c>
       <c r="E62" s="80" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F62" s="80" t="s">
         <v>331</v>
@@ -6156,8 +6126,8 @@
       <c r="Q62" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R62" s="115"/>
-      <c r="S62" s="118"/>
+      <c r="R62" s="114"/>
+      <c r="S62" s="117"/>
       <c r="T62" s="85"/>
     </row>
     <row r="63" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6176,7 +6146,7 @@
         <v xml:space="preserve">                              Control Drums Materials (Reflector)</v>
       </c>
       <c r="E63" s="80" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F63" s="80" t="s">
         <v>330</v>
@@ -6214,8 +6184,8 @@
       <c r="Q63" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R63" s="116"/>
-      <c r="S63" s="119"/>
+      <c r="R63" s="115"/>
+      <c r="S63" s="118"/>
       <c r="T63" s="85"/>
     </row>
     <row r="64" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6241,13 +6211,13 @@
         <v xml:space="preserve">                              Control Drums Materials (Reflector)</v>
       </c>
       <c r="E64" s="80" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F64" s="80" t="s">
         <v>330</v>
       </c>
       <c r="G64" s="80" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H64" s="88"/>
       <c r="I64" s="92">
@@ -6279,8 +6249,8 @@
       <c r="Q64" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R64" s="104"/>
-      <c r="S64" s="105"/>
+      <c r="R64" s="103"/>
+      <c r="S64" s="104"/>
       <c r="T64" s="85"/>
     </row>
     <row r="65" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6299,7 +6269,7 @@
         <v xml:space="preserve">                  Non-Fuel Core Internals</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
@@ -6329,7 +6299,7 @@
         <v xml:space="preserve">                        Reflector</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F66" s="19" t="s">
         <v>13</v>
@@ -6370,10 +6340,10 @@
       <c r="Q66" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R66" s="125" t="s">
+      <c r="R66" s="124" t="s">
         <v>178</v>
       </c>
-      <c r="S66" s="111" t="s">
+      <c r="S66" s="110" t="s">
         <v>182</v>
       </c>
       <c r="T66" s="26"/>
@@ -6401,13 +6371,13 @@
         <v xml:space="preserve">                        Reflector</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F67" s="19" t="s">
         <v>13</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H67" s="24"/>
       <c r="I67" s="70">
@@ -6439,8 +6409,8 @@
       <c r="Q67" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R67" s="126"/>
-      <c r="S67" s="112"/>
+      <c r="R67" s="125"/>
+      <c r="S67" s="111"/>
       <c r="T67" s="26"/>
     </row>
     <row r="68" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6471,8 +6441,8 @@
       <c r="O68" s="26"/>
       <c r="P68" s="26"/>
       <c r="Q68" s="42"/>
-      <c r="R68" s="126"/>
-      <c r="S68" s="112"/>
+      <c r="R68" s="125"/>
+      <c r="S68" s="111"/>
       <c r="T68" s="26"/>
     </row>
     <row r="69" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6491,10 +6461,10 @@
         <v xml:space="preserve">                              In Vessel Shield Materials</v>
       </c>
       <c r="E69" s="80" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F69" s="80" t="s">
-        <v>334</v>
+        <v>415</v>
       </c>
       <c r="G69" s="80" t="s">
         <v>189</v>
@@ -6511,7 +6481,7 @@
         <v>176</v>
       </c>
       <c r="K69" s="90" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="L69" s="85">
         <f>L62</f>
@@ -6532,8 +6502,8 @@
       <c r="Q69" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R69" s="126"/>
-      <c r="S69" s="112"/>
+      <c r="R69" s="125"/>
+      <c r="S69" s="111"/>
       <c r="T69" s="85"/>
     </row>
     <row r="70" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6552,13 +6522,13 @@
         <v xml:space="preserve">                              Out The Vessel Shield Materials</v>
       </c>
       <c r="E70" s="80" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F70" s="80" t="s">
-        <v>335</v>
+        <v>416</v>
       </c>
       <c r="G70" s="80" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H70" s="88"/>
       <c r="I70" s="89">
@@ -6568,7 +6538,7 @@
         <v>176</v>
       </c>
       <c r="K70" s="90" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L70" s="85">
         <f>'Design Variables'!B43</f>
@@ -6589,8 +6559,8 @@
       <c r="Q70" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R70" s="127"/>
-      <c r="S70" s="113"/>
+      <c r="R70" s="126"/>
+      <c r="S70" s="112"/>
       <c r="T70" s="85"/>
     </row>
     <row r="71" spans="1:20" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6609,13 +6579,13 @@
         <v xml:space="preserve">                        Moderator</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F71" s="19" t="s">
         <v>202</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H71" s="24"/>
       <c r="I71" s="69">
@@ -6625,7 +6595,7 @@
         <v>176</v>
       </c>
       <c r="K71" s="42" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M71" s="26" t="s">
         <v>175</v>
@@ -6638,10 +6608,10 @@
         <v>73</v>
       </c>
       <c r="Q71" s="42" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="R71" s="73" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="S71" s="75"/>
       <c r="T71" s="26"/>
@@ -6662,13 +6632,13 @@
         <v xml:space="preserve">            Moderator</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F72" s="19" t="s">
         <v>202</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H72" s="24"/>
       <c r="I72" s="69">
@@ -6678,7 +6648,7 @@
         <v>176</v>
       </c>
       <c r="K72" s="42" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M72" s="26" t="s">
         <v>175</v>
@@ -6691,7 +6661,7 @@
         <v>73</v>
       </c>
       <c r="Q72" s="76" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="R72" s="74"/>
       <c r="S72" s="75"/>
@@ -6744,7 +6714,7 @@
         <v>3</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D74" s="19" t="str">
         <f t="shared" si="1"/>
@@ -6775,20 +6745,20 @@
         <v>4</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D75" s="19" t="str">
         <f>REPT("   ", B75*2) &amp; C75</f>
         <v xml:space="preserve">                        Primary Pump</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H75" s="24"/>
       <c r="I75" s="69">
@@ -6796,10 +6766,10 @@
         <v>8818.5</v>
       </c>
       <c r="J75" s="26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K75" s="42" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L75" s="26"/>
       <c r="M75" s="26"/>
@@ -6813,15 +6783,15 @@
         <v>74</v>
       </c>
       <c r="Q75" s="42" t="s">
-        <v>351</v>
-      </c>
-      <c r="R75" s="106" t="s">
+        <v>349</v>
+      </c>
+      <c r="R75" s="105" t="s">
+        <v>348</v>
+      </c>
+      <c r="S75" s="121" t="s">
         <v>350</v>
       </c>
-      <c r="S75" s="122" t="s">
-        <v>352</v>
-      </c>
-      <c r="T75" s="106"/>
+      <c r="T75" s="105"/>
     </row>
     <row r="76" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="30">
@@ -6832,30 +6802,30 @@
         <v>4</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D76" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Secondary Pump</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H76" s="24"/>
       <c r="I76" s="69">
         <v>705.48</v>
       </c>
       <c r="J76" s="26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K76" s="42" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L76" s="26"/>
       <c r="M76" s="26"/>
@@ -6869,11 +6839,11 @@
         <v>74</v>
       </c>
       <c r="Q76" s="42" t="s">
-        <v>345</v>
-      </c>
-      <c r="R76" s="107"/>
-      <c r="S76" s="123"/>
-      <c r="T76" s="107"/>
+        <v>343</v>
+      </c>
+      <c r="R76" s="106"/>
+      <c r="S76" s="122"/>
+      <c r="T76" s="106"/>
     </row>
     <row r="77" spans="1:20" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="30">
@@ -6884,30 +6854,30 @@
         <v>4</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D77" s="19" t="str">
         <f t="shared" ref="D77" si="7">REPT("   ", B77*2) &amp; C77</f>
         <v xml:space="preserve">                        Compressor</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H77" s="24"/>
       <c r="I77" s="69">
         <v>44.71</v>
       </c>
       <c r="J77" s="26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K77" s="42" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L77" s="26"/>
       <c r="M77" s="26"/>
@@ -6921,10 +6891,10 @@
         <v>74</v>
       </c>
       <c r="Q77" s="42" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="R77" s="93" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="S77" s="94"/>
       <c r="T77" s="93"/>
@@ -6945,7 +6915,7 @@
         <v xml:space="preserve">                  Reactor Heat Transfer Piping System</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
@@ -6969,10 +6939,10 @@
         <v>74</v>
       </c>
       <c r="Q78" s="42" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R78" s="42" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="S78" s="26"/>
       <c r="T78" s="26"/>
@@ -7018,20 +6988,20 @@
         <v>4</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D80" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Primary Heat Exchanger</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H80" s="24"/>
       <c r="I80" s="69">
@@ -7041,7 +7011,7 @@
         <v>176</v>
       </c>
       <c r="K80" s="42" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L80" s="26"/>
       <c r="M80" s="26" t="s">
@@ -7055,10 +7025,10 @@
         <v>74</v>
       </c>
       <c r="Q80" s="42" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="R80" s="93" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="S80" s="26"/>
       <c r="T80" s="26"/>
@@ -7079,20 +7049,20 @@
         <v>4</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D81" s="19" t="str">
         <f t="shared" ref="D81" si="9">REPT("   ", B81*2) &amp; C81</f>
         <v xml:space="preserve">                        Primary Heat Exchanger</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H81" s="24"/>
       <c r="I81" s="69">
@@ -7102,7 +7072,7 @@
         <v>176</v>
       </c>
       <c r="K81" s="42" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L81" s="26"/>
       <c r="M81" s="26" t="s">
@@ -7116,10 +7086,10 @@
         <v>74</v>
       </c>
       <c r="Q81" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="R81" s="93" t="s">
         <v>370</v>
-      </c>
-      <c r="R81" s="93" t="s">
-        <v>372</v>
       </c>
       <c r="S81" s="26"/>
       <c r="T81" s="26"/>
@@ -7140,13 +7110,13 @@
         <v xml:space="preserve">                        Secondary Heat Exchanger</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H82" s="24"/>
       <c r="I82" s="69">
@@ -7156,7 +7126,7 @@
         <v>176</v>
       </c>
       <c r="K82" s="42" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L82" s="26"/>
       <c r="M82" s="26" t="s">
@@ -7170,10 +7140,10 @@
         <v>74</v>
       </c>
       <c r="Q82" s="42" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="R82" s="93" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="S82" s="26"/>
       <c r="T82" s="26"/>
@@ -7201,13 +7171,13 @@
         <v xml:space="preserve">                        Secondary Heat Exchanger</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H83" s="24"/>
       <c r="I83" s="69">
@@ -7217,7 +7187,7 @@
         <v>176</v>
       </c>
       <c r="K83" s="42" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L83" s="26"/>
       <c r="M83" s="26" t="s">
@@ -7231,10 +7201,10 @@
         <v>74</v>
       </c>
       <c r="Q83" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="R83" s="93" t="s">
         <v>370</v>
-      </c>
-      <c r="R83" s="93" t="s">
-        <v>372</v>
       </c>
       <c r="S83" s="26"/>
       <c r="T83" s="26"/>
@@ -7319,7 +7289,7 @@
         <v xml:space="preserve">                        Rvacs (Cooling Vessel)</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F86" s="19"/>
       <c r="G86" s="23"/>
@@ -7332,7 +7302,7 @@
         <v>176</v>
       </c>
       <c r="K86" s="42" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L86" s="26">
         <f>L56</f>
@@ -7351,7 +7321,7 @@
         <v>77</v>
       </c>
       <c r="Q86" s="42" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="R86" s="26"/>
       <c r="S86" s="26"/>
@@ -7373,7 +7343,7 @@
         <v xml:space="preserve">                        Rvacs (Intake Vessel)</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F87" s="19"/>
       <c r="G87" s="23"/>
@@ -7386,7 +7356,7 @@
         <v>176</v>
       </c>
       <c r="K87" s="42" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L87" s="26">
         <f>L86</f>
@@ -7405,7 +7375,7 @@
         <v>77</v>
       </c>
       <c r="Q87" s="42" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="R87" s="26"/>
       <c r="S87" s="26"/>
@@ -7427,7 +7397,7 @@
         <v xml:space="preserve">            Other Reactor Plant Equipment</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F88" s="19"/>
       <c r="G88" s="23"/>
@@ -7448,7 +7418,7 @@
         <v>74</v>
       </c>
       <c r="Q88" s="42" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R88" s="26"/>
       <c r="S88" s="26"/>
@@ -7477,7 +7447,7 @@
         <v xml:space="preserve">            Reactor Instrumentation and Control (I&amp;C)</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F89" s="19"/>
       <c r="G89" s="23"/>
@@ -7498,7 +7468,7 @@
         <v>74</v>
       </c>
       <c r="Q89" s="42" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R89" s="26"/>
       <c r="S89" s="26"/>
@@ -7520,7 +7490,7 @@
         <v xml:space="preserve">            Reactor Plant Miscellaneous Items</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F90" s="19"/>
       <c r="G90" s="23"/>
@@ -7541,7 +7511,7 @@
         <v>77</v>
       </c>
       <c r="Q90" s="42" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R90" s="26"/>
       <c r="S90" s="26"/>
@@ -7627,7 +7597,7 @@
         <v xml:space="preserve">                  Electricity Generation Systems</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F93" s="19"/>
       <c r="G93" s="23"/>
@@ -7658,10 +7628,10 @@
         <v>74</v>
       </c>
       <c r="Q93" s="42" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="R93" s="42" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="S93" s="26"/>
       <c r="T93" s="26"/>
@@ -7714,7 +7684,7 @@
         <v xml:space="preserve">            Power and Control Cables and Wiring</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F95" s="19"/>
       <c r="G95" s="23"/>
@@ -7746,10 +7716,10 @@
         <v>74</v>
       </c>
       <c r="Q95" s="42" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="R95" s="42" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="S95" s="26"/>
       <c r="T95" s="26"/>
@@ -7802,7 +7772,7 @@
         <v xml:space="preserve">            First Core Mining</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F97" s="19"/>
       <c r="G97" s="23"/>
@@ -7814,7 +7784,7 @@
         <v>176</v>
       </c>
       <c r="K97" s="23" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L97" s="26"/>
       <c r="M97" s="26"/>
@@ -7825,11 +7795,11 @@
       <c r="P97" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q97" s="106" t="s">
-        <v>384</v>
-      </c>
-      <c r="R97" s="106" t="s">
-        <v>385</v>
+      <c r="Q97" s="105" t="s">
+        <v>382</v>
+      </c>
+      <c r="R97" s="105" t="s">
+        <v>383</v>
       </c>
       <c r="S97" s="26"/>
       <c r="T97" s="26"/>
@@ -7850,7 +7820,7 @@
         <v xml:space="preserve">            First Core Conversion </v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F98" s="19"/>
       <c r="G98" s="23"/>
@@ -7862,7 +7832,7 @@
         <v>176</v>
       </c>
       <c r="K98" s="23" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L98" s="26"/>
       <c r="M98" s="26"/>
@@ -7873,8 +7843,8 @@
       <c r="P98" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q98" s="121"/>
-      <c r="R98" s="121"/>
+      <c r="Q98" s="120"/>
+      <c r="R98" s="120"/>
       <c r="S98" s="26"/>
       <c r="T98" s="26"/>
     </row>
@@ -7894,7 +7864,7 @@
         <v xml:space="preserve">            First Core Enrichment </v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F99" s="19"/>
       <c r="G99" s="23"/>
@@ -7903,10 +7873,10 @@
         <v>184.2</v>
       </c>
       <c r="J99" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="K99" s="42" t="s">
         <v>381</v>
-      </c>
-      <c r="K99" s="42" t="s">
-        <v>383</v>
       </c>
       <c r="L99" s="26"/>
       <c r="M99" s="26"/>
@@ -7919,8 +7889,8 @@
       <c r="P99" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q99" s="121"/>
-      <c r="R99" s="121"/>
+      <c r="Q99" s="120"/>
+      <c r="R99" s="120"/>
       <c r="S99" s="26"/>
       <c r="T99" s="26"/>
     </row>
@@ -7940,13 +7910,13 @@
         <v xml:space="preserve">            First Core Fuel Assembly Fabrication </v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G100" s="23" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H100" s="23"/>
       <c r="I100" s="23">
@@ -7956,7 +7926,7 @@
         <v>176</v>
       </c>
       <c r="K100" s="42" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L100" s="26"/>
       <c r="M100" s="26"/>
@@ -7967,8 +7937,8 @@
       <c r="P100" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q100" s="121"/>
-      <c r="R100" s="121"/>
+      <c r="Q100" s="120"/>
+      <c r="R100" s="120"/>
       <c r="S100" s="26"/>
       <c r="T100" s="26"/>
     </row>
@@ -7995,13 +7965,13 @@
         <v xml:space="preserve">            First Core Fuel Assembly Fabrication </v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G101" s="23" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H101" s="23"/>
       <c r="I101" s="23">
@@ -8011,7 +7981,7 @@
         <v>176</v>
       </c>
       <c r="K101" s="42" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L101" s="26"/>
       <c r="M101" s="26"/>
@@ -8022,8 +7992,8 @@
       <c r="P101" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q101" s="107"/>
-      <c r="R101" s="107"/>
+      <c r="Q101" s="106"/>
+      <c r="R101" s="106"/>
       <c r="S101" s="26"/>
       <c r="T101" s="26"/>
     </row>
@@ -8043,7 +8013,7 @@
         <v xml:space="preserve">      Miscellaneous Equipment (Cranes)</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F102" s="19"/>
       <c r="G102" s="19"/>
@@ -8063,10 +8033,10 @@
         <v>74</v>
       </c>
       <c r="Q102" s="42" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="R102" s="42" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="S102" s="26"/>
       <c r="T102" s="26"/>
@@ -8118,7 +8088,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D104" s="19" t="str">
         <f t="shared" si="13"/>
@@ -8128,7 +8098,7 @@
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
       <c r="H104" s="29"/>
-      <c r="I104" s="100"/>
+      <c r="I104" s="99"/>
       <c r="J104" s="26"/>
       <c r="K104" s="42"/>
       <c r="L104" s="29"/>
@@ -8149,7 +8119,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D105" s="19" t="str">
         <f t="shared" si="13"/>
@@ -8188,7 +8158,7 @@
         <v xml:space="preserve">      Startup Costs</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F106" s="19"/>
       <c r="G106" s="19"/>
@@ -8208,8 +8178,8 @@
       <c r="P106" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="Q106" s="132" t="s">
-        <v>376</v>
+      <c r="Q106" s="131" t="s">
+        <v>374</v>
       </c>
       <c r="R106" s="24"/>
       <c r="S106" s="24"/>
@@ -8237,7 +8207,7 @@
         <v xml:space="preserve">      Shipping and Transportation Costs</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F107" s="19"/>
       <c r="G107" s="19"/>
@@ -8257,7 +8227,7 @@
       <c r="P107" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="Q107" s="133"/>
+      <c r="Q107" s="132"/>
       <c r="R107" s="24"/>
       <c r="S107" s="24"/>
       <c r="T107" s="24"/>
@@ -8284,7 +8254,7 @@
         <v xml:space="preserve">      Engineering Services</v>
       </c>
       <c r="E108" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F108" s="19"/>
       <c r="G108" s="19"/>
@@ -8304,7 +8274,7 @@
       <c r="P108" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q108" s="133"/>
+      <c r="Q108" s="132"/>
       <c r="R108" s="26"/>
       <c r="S108" s="26"/>
       <c r="T108" s="26"/>
@@ -8326,7 +8296,7 @@
         <v xml:space="preserve">      PM/CM Services</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F109" s="19"/>
       <c r="G109" s="19"/>
@@ -8346,7 +8316,7 @@
       <c r="P109" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q109" s="134"/>
+      <c r="Q109" s="133"/>
       <c r="R109" s="26"/>
       <c r="S109" s="26"/>
       <c r="T109" s="26"/>
@@ -8361,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D110" s="19" t="str">
         <f t="shared" si="13"/>
@@ -8385,7 +8355,7 @@
       <c r="T110" s="26"/>
       <c r="U110" s="12"/>
     </row>
-    <row r="111" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="21">
         <v>41</v>
       </c>
@@ -8394,20 +8364,19 @@
         <v>1</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D111" s="19" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">      staff recruitment and training</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F111" s="19"/>
       <c r="G111" s="19"/>
       <c r="H111" s="24">
-        <f>MARVEL_Cost!C72</f>
-        <v>4169765</v>
+        <v>300000</v>
       </c>
       <c r="I111" s="69"/>
       <c r="J111" s="26"/>
@@ -8421,11 +8390,13 @@
       <c r="P111" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q111" s="99" t="s">
-        <v>376</v>
-      </c>
-      <c r="R111" s="26"/>
-      <c r="S111" s="26"/>
+      <c r="Q111" s="29"/>
+      <c r="R111" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="S111" s="26" t="s">
+        <v>418</v>
+      </c>
       <c r="T111" s="26"/>
       <c r="U111" s="12"/>
     </row>
@@ -8577,7 +8548,7 @@
         <v xml:space="preserve">            Operators </v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
@@ -8586,10 +8557,10 @@
         <v>178500</v>
       </c>
       <c r="J116" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K116" s="42" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L116" s="26"/>
       <c r="M116" s="26"/>
@@ -8603,8 +8574,8 @@
         <v>72</v>
       </c>
       <c r="Q116" s="42"/>
-      <c r="R116" s="102" t="s">
-        <v>400</v>
+      <c r="R116" s="101" t="s">
+        <v>398</v>
       </c>
       <c r="S116" s="26"/>
       <c r="T116" s="26"/>
@@ -8626,23 +8597,23 @@
         <v xml:space="preserve">            Remote Monitoring Technicians </v>
       </c>
       <c r="E117" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H117" s="24"/>
       <c r="I117" s="69">
         <v>178500</v>
       </c>
       <c r="J117" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K117" s="42" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L117" s="26"/>
       <c r="M117" s="26"/>
@@ -8656,8 +8627,8 @@
         <v>72</v>
       </c>
       <c r="Q117" s="42"/>
-      <c r="R117" s="102" t="s">
-        <v>400</v>
+      <c r="R117" s="101" t="s">
+        <v>398</v>
       </c>
       <c r="S117" s="26"/>
       <c r="T117" s="26"/>
@@ -8679,7 +8650,7 @@
         <v xml:space="preserve">            Security Staff </v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
@@ -8688,10 +8659,10 @@
         <v>178500</v>
       </c>
       <c r="J118" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K118" s="42" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L118" s="26"/>
       <c r="M118" s="26"/>
@@ -8705,8 +8676,8 @@
         <v>72</v>
       </c>
       <c r="Q118" s="42"/>
-      <c r="R118" s="102" t="s">
-        <v>400</v>
+      <c r="R118" s="101" t="s">
+        <v>398</v>
       </c>
       <c r="S118" s="26"/>
       <c r="T118" s="26"/>
@@ -8761,7 +8732,7 @@
         <v xml:space="preserve">      Annualized Decommissioning Cost</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F120" s="19"/>
       <c r="G120" s="19"/>
@@ -8784,12 +8755,12 @@
       <c r="O120" s="26">
         <v>2024</v>
       </c>
-      <c r="P120" s="103" t="s">
+      <c r="P120" s="102" t="s">
         <v>85</v>
       </c>
       <c r="Q120" s="42"/>
       <c r="R120" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="S120" s="26"/>
       <c r="T120" s="26"/>
@@ -8843,7 +8814,7 @@
         <v xml:space="preserve">      Refueling Operations</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F122" s="19"/>
       <c r="G122" s="19"/>
@@ -8852,10 +8823,10 @@
         <v>178500</v>
       </c>
       <c r="J122" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K122" s="42" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L122" s="26"/>
       <c r="M122" s="26"/>
@@ -8865,12 +8836,12 @@
       <c r="O122" s="26">
         <v>2024</v>
       </c>
-      <c r="P122" s="103" t="s">
+      <c r="P122" s="102" t="s">
         <v>72</v>
       </c>
       <c r="Q122" s="42"/>
-      <c r="R122" s="102" t="s">
-        <v>400</v>
+      <c r="R122" s="101" t="s">
+        <v>398</v>
       </c>
       <c r="S122" s="26"/>
       <c r="T122" s="26"/>
@@ -8923,7 +8894,7 @@
         <v xml:space="preserve">      Spent Fuel Management</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F124" s="19"/>
       <c r="G124" s="19"/>
@@ -8932,10 +8903,10 @@
         <v>1</v>
       </c>
       <c r="J124" s="26" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K124" s="42" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L124" s="26"/>
       <c r="M124" s="26"/>
@@ -8999,157 +8970,157 @@
     <mergeCell ref="R60:R63"/>
     <mergeCell ref="S60:S63"/>
   </mergeCells>
-  <conditionalFormatting sqref="A75:F77 L97:T97 L98:P98 S98:T102 I99:P99 A102:R102 R106:T111 A112:T115 A116:H117 A118:J118 A119:T119 S120:T120 A121:T121 S122:T122 A123:T124">
-    <cfRule type="expression" dxfId="84" priority="137">
+  <conditionalFormatting sqref="A75:F77 L97:T97 L98:P98 S98:T102 I99:P99 A102:R102 A112:T115 A116:H117 A118:J118 A119:T119 S120:T120 A121:T121 S122:T122 A123:T124 R106:T111 Q110:Q111">
+    <cfRule type="expression" dxfId="80" priority="137">
       <formula>$B75=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="138">
+    <cfRule type="expression" dxfId="79" priority="138">
       <formula>$B75=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="139">
+    <cfRule type="expression" dxfId="78" priority="139">
       <formula>$B75&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="140">
+    <cfRule type="expression" dxfId="77" priority="140">
       <formula>$B75=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:H99">
-    <cfRule type="expression" dxfId="80" priority="101">
+    <cfRule type="expression" dxfId="76" priority="101">
       <formula>$B97=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="102">
+    <cfRule type="expression" dxfId="75" priority="102">
       <formula>$B97=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="103">
+    <cfRule type="expression" dxfId="74" priority="103">
       <formula>$B97&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="104">
+    <cfRule type="expression" dxfId="73" priority="104">
       <formula>$B97=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79:I83">
-    <cfRule type="expression" dxfId="76" priority="125">
+    <cfRule type="expression" dxfId="72" priority="125">
       <formula>$B79=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="126">
+    <cfRule type="expression" dxfId="71" priority="126">
       <formula>$B79=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="127">
+    <cfRule type="expression" dxfId="70" priority="127">
       <formula>$B79&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="128">
+    <cfRule type="expression" dxfId="69" priority="128">
       <formula>$B79=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:P101">
-    <cfRule type="expression" dxfId="72" priority="85">
+    <cfRule type="expression" dxfId="68" priority="85">
       <formula>$B100=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="86">
+    <cfRule type="expression" dxfId="67" priority="86">
       <formula>$B100=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="87">
+    <cfRule type="expression" dxfId="66" priority="87">
       <formula>$B100&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="88">
+    <cfRule type="expression" dxfId="65" priority="88">
       <formula>$B100=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:P111">
-    <cfRule type="expression" dxfId="68" priority="33">
+    <cfRule type="expression" dxfId="64" priority="33">
       <formula>$B104=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="34">
+    <cfRule type="expression" dxfId="63" priority="34">
       <formula>$B104=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="35">
+    <cfRule type="expression" dxfId="62" priority="35">
       <formula>$B104&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="36">
+    <cfRule type="expression" dxfId="61" priority="36">
       <formula>$B104=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:Q120">
-    <cfRule type="expression" dxfId="64" priority="5">
+    <cfRule type="expression" dxfId="60" priority="5">
       <formula>$B120=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="6">
+    <cfRule type="expression" dxfId="59" priority="6">
       <formula>$B120=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="7">
+    <cfRule type="expression" dxfId="58" priority="7">
       <formula>$B120&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="8">
+    <cfRule type="expression" dxfId="57" priority="8">
       <formula>$B120=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122:Q122">
-    <cfRule type="expression" dxfId="60" priority="1">
+    <cfRule type="expression" dxfId="56" priority="1">
       <formula>$B122=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="2">
+    <cfRule type="expression" dxfId="55" priority="2">
       <formula>$B122=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="3">
+    <cfRule type="expression" dxfId="54" priority="3">
       <formula>$B122&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="4">
+    <cfRule type="expression" dxfId="53" priority="4">
       <formula>$B122=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:S74">
-    <cfRule type="expression" dxfId="56" priority="141">
+    <cfRule type="expression" dxfId="52" priority="141">
       <formula>$B74=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="142">
+    <cfRule type="expression" dxfId="51" priority="142">
       <formula>$B74=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="143">
+    <cfRule type="expression" dxfId="50" priority="143">
       <formula>$B74&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="144">
+    <cfRule type="expression" dxfId="49" priority="144">
       <formula>$B74=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T74:T77 H75:R75 H76:Q76 G77:Q77 A78:T78 K79:T79 S80:T83 A1:T73">
-    <cfRule type="expression" dxfId="52" priority="145">
+  <conditionalFormatting sqref="A1:T73 T74:T77 H75:R75 H76:Q76 G77:Q77 A78:T78 K79:T79 S80:T83">
+    <cfRule type="expression" dxfId="48" priority="145">
       <formula>$B1=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="146">
+    <cfRule type="expression" dxfId="47" priority="146">
       <formula>$B1=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="147">
+    <cfRule type="expression" dxfId="46" priority="147">
       <formula>$B1&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="148">
+    <cfRule type="expression" dxfId="45" priority="148">
       <formula>$B1=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:T96">
-    <cfRule type="expression" dxfId="48" priority="105">
+    <cfRule type="expression" dxfId="44" priority="105">
       <formula>$B84=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="106">
+    <cfRule type="expression" dxfId="43" priority="106">
       <formula>$B84=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="107">
+    <cfRule type="expression" dxfId="42" priority="107">
       <formula>$B84&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="108">
+    <cfRule type="expression" dxfId="41" priority="108">
       <formula>$B84=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:T103">
-    <cfRule type="expression" dxfId="44" priority="69">
+    <cfRule type="expression" dxfId="40" priority="69">
       <formula>$B103=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="70">
+    <cfRule type="expression" dxfId="39" priority="70">
       <formula>$B103=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="71">
+    <cfRule type="expression" dxfId="38" priority="71">
       <formula>$B103&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="72">
+    <cfRule type="expression" dxfId="37" priority="72">
       <formula>$B103=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9164,119 +9135,105 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75:G76">
-    <cfRule type="expression" dxfId="40" priority="133">
+    <cfRule type="expression" dxfId="36" priority="133">
       <formula>$B75=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="134">
+    <cfRule type="expression" dxfId="35" priority="134">
       <formula>$B75=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="135">
+    <cfRule type="expression" dxfId="34" priority="135">
       <formula>$B75&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="136">
+    <cfRule type="expression" dxfId="33" priority="136">
       <formula>$B75=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116:J117">
-    <cfRule type="expression" dxfId="36" priority="17">
+    <cfRule type="expression" dxfId="32" priority="17">
       <formula>$B117=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="18">
+    <cfRule type="expression" dxfId="31" priority="18">
       <formula>$B117=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="19">
+    <cfRule type="expression" dxfId="30" priority="19">
       <formula>$B117&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="20">
+    <cfRule type="expression" dxfId="29" priority="20">
       <formula>$B117=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97:K98">
-    <cfRule type="expression" dxfId="32" priority="97">
+    <cfRule type="expression" dxfId="28" priority="97">
       <formula>$B97=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="98">
+    <cfRule type="expression" dxfId="27" priority="98">
       <formula>$B97=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="99">
+    <cfRule type="expression" dxfId="26" priority="99">
       <formula>$B97&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="100">
+    <cfRule type="expression" dxfId="25" priority="100">
       <formula>$B97=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J79 O103">
-    <cfRule type="expression" dxfId="28" priority="155">
+    <cfRule type="expression" dxfId="24" priority="155">
       <formula>$B80=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="156">
+    <cfRule type="expression" dxfId="23" priority="156">
       <formula>$B80&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="157">
+    <cfRule type="expression" dxfId="22" priority="157">
       <formula>$B80=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K80:Q83">
-    <cfRule type="expression" dxfId="25" priority="121">
+    <cfRule type="expression" dxfId="21" priority="121">
       <formula>$B80=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="122">
+    <cfRule type="expression" dxfId="20" priority="122">
       <formula>$B80=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="123">
+    <cfRule type="expression" dxfId="19" priority="123">
       <formula>$B80&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="124">
+    <cfRule type="expression" dxfId="18" priority="124">
       <formula>$B80=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K116:Q118 S116:T118">
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>$B116=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>$B116=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="15" priority="11">
       <formula>$B116&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K116:Q118">
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>$B116=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O103 J79">
-    <cfRule type="expression" dxfId="17" priority="154">
+    <cfRule type="expression" dxfId="13" priority="154">
       <formula>$B80=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q106">
-    <cfRule type="expression" dxfId="16" priority="81">
+    <cfRule type="expression" dxfId="12" priority="81">
       <formula>$B106=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="82">
+    <cfRule type="expression" dxfId="11" priority="82">
       <formula>$B106=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="83">
+    <cfRule type="expression" dxfId="10" priority="83">
       <formula>$B106&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="84">
+    <cfRule type="expression" dxfId="9" priority="84">
       <formula>$B106=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q110:Q111">
-    <cfRule type="expression" dxfId="12" priority="77">
-      <formula>$B110=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="78">
-      <formula>$B110=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="79">
-      <formula>$B110&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="80">
-      <formula>$B110=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q104:T105">
@@ -9362,8 +9319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAED81D3-2E1E-EB42-8F84-3B0F01FD7CDC}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="192" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A67" zoomScale="192" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9375,20 +9332,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="134" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="136" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="135"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="138"/>
+      <c r="A2" s="134"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="137"/>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="62">
@@ -10296,12 +10253,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="138" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="141"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="140"/>
     </row>
     <row r="3" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
@@ -10358,12 +10315,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="138" t="s">
         <v>252</v>
       </c>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="140"/>
     </row>
     <row r="8" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
@@ -10422,12 +10379,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="140"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="141"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="140"/>
     </row>
     <row r="13" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
@@ -10526,12 +10483,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="139" t="s">
+      <c r="A20" s="138" t="s">
         <v>275</v>
       </c>
-      <c r="B20" s="140"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="141"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="140"/>
     </row>
     <row r="21" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
@@ -10660,12 +10617,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="139" t="s">
+      <c r="A30" s="138" t="s">
         <v>288</v>
       </c>
-      <c r="B30" s="140"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="141"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="140"/>
     </row>
     <row r="31" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
@@ -10740,12 +10697,12 @@
       <c r="D36" s="60"/>
     </row>
     <row r="37" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="139" t="s">
+      <c r="A37" s="138" t="s">
         <v>295</v>
       </c>
-      <c r="B37" s="140"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="141"/>
+      <c r="B37" s="139"/>
+      <c r="C37" s="139"/>
+      <c r="D37" s="140"/>
     </row>
     <row r="38" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
@@ -10832,12 +10789,12 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="139" t="s">
+      <c r="A44" s="138" t="s">
         <v>308</v>
       </c>
-      <c r="B44" s="140"/>
-      <c r="C44" s="140"/>
-      <c r="D44" s="141"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="140"/>
     </row>
     <row r="45" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
@@ -10854,12 +10811,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="139" t="s">
+      <c r="A46" s="138" t="s">
         <v>311</v>
       </c>
-      <c r="B46" s="140"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="141"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="139"/>
+      <c r="D46" s="140"/>
     </row>
     <row r="47" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
@@ -10904,12 +10861,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="139" t="s">
+      <c r="A50" s="138" t="s">
         <v>318</v>
       </c>
-      <c r="B50" s="140"/>
-      <c r="C50" s="140"/>
-      <c r="D50" s="141"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="140"/>
     </row>
     <row r="51" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="54" t="s">
@@ -12094,17 +12051,17 @@
     <col min="2" max="2" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
-        <v>397</v>
-      </c>
-      <c r="B1" s="101" t="s">
+    <row r="1" spans="1:2" s="100" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="100" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="100" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B2" s="4">
         <f>MARVEL_Cost!C56/(MARVEL_Cost!C6+MARVEL_Cost!C13+MARVEL_Cost!C45)</f>
@@ -12113,7 +12070,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -12121,7 +12078,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -12129,7 +12086,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -12137,7 +12094,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B6">
         <v>1800</v>
@@ -12145,7 +12102,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -12153,7 +12110,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B8">
         <v>0.01</v>

--- a/cost/Cost_Database.xlsx
+++ b/cost/Cost_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannbn/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A2598A-FF6D-554C-AA6E-51CFD281026F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E81F21-968A-EC4F-B5F1-97401D01F92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Database" sheetId="2" r:id="rId1"/>
@@ -57,6 +57,7 @@
     <author>tc={F26C2C60-5554-7C46-A2DA-9CC485CDD5A5}</author>
     <author>tc={6A4E3BDC-584F-1346-BF51-598A89836273}</author>
     <author>tc={368934F8-D933-024D-9355-5B191B79D6E7}</author>
+    <author>tc={6E7B8F31-3BA2-6E43-928D-71FCFDC70463}</author>
   </authors>
   <commentList>
     <comment ref="L63" authorId="0" shapeId="0" xr:uid="{1B3BEBC6-8301-0940-8823-166952F6D7FC}">
@@ -94,12 +95,21 @@
 </t>
       </text>
     </comment>
+    <comment ref="H107" authorId="4" shapeId="0" xr:uid="{6E7B8F31-3BA2-6E43-928D-71FCFDC70463}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The cost is multiplied by 0.5 since the
+ shipping included international shipping</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="431">
   <si>
     <t>Account</t>
   </si>
@@ -1567,6 +1577,42 @@
   </si>
   <si>
     <t>https://papers.ssrn.com/sol3/papers.cfm?abstract_id=5163464</t>
+  </si>
+  <si>
+    <t>FOAK to NOAK Multiplier Type</t>
+  </si>
+  <si>
+    <t>No Learning</t>
+  </si>
+  <si>
+    <t>Onsite Learning</t>
+  </si>
+  <si>
+    <t>Factory Primary Structure</t>
+  </si>
+  <si>
+    <t>Factory Drums</t>
+  </si>
+  <si>
+    <t>Factory Other</t>
+  </si>
+  <si>
+    <t>NRC Website</t>
+  </si>
+  <si>
+    <t>https://www.nrc.gov/about-nrc/regulatory/licensing/general-fee-questions.pdf</t>
+  </si>
+  <si>
+    <t>Licensing Learning</t>
+  </si>
+  <si>
+    <t>Assumed Onsite Learning Rate</t>
+  </si>
+  <si>
+    <t>FOAK to NOAK Multipliers</t>
+  </si>
+  <si>
+    <t>Assumed Number Of Units For Onsite Learning</t>
   </si>
 </sst>
 </file>
@@ -2019,7 +2065,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2275,6 +2321,9 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2383,6 +2432,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2391,12 +2443,13 @@
     <cellStyle name="Normal 2" xfId="4" xr:uid="{E15291B7-9068-3147-AE9D-D55638463741}"/>
     <cellStyle name="Normal 2 5" xfId="3" xr:uid="{D5427F60-54E8-014E-9224-5454BAE094F2}"/>
   </cellStyles>
-  <dxfs count="81">
+  <dxfs count="85">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2419,11 +2472,10 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2487,10 +2539,348 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2549,7 +2939,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2559,6 +2949,19 @@
           <bgColor rgb="FFFFFFBA"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2588,15 +2991,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2610,7 +3007,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2619,324 +3016,6 @@
         <b/>
         <i val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3355,16 +3434,20 @@
     <text xml:space="preserve">The primary pump needs to be expensive!!
 </text>
   </threadedComment>
+  <threadedComment ref="H107" dT="2025-06-19T23:17:33.50" personId="{84112BF8-C915-7B4B-BE8E-B816F75B981C}" id="{6E7B8F31-3BA2-6E43-928D-71FCFDC70463}">
+    <text>The cost is multiplied by 0.5 since the
+ shipping included international shipping</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5330BDA-7164-B946-A942-FFAE4F744BBA}">
-  <dimension ref="A1:Z124"/>
+  <dimension ref="A1:X124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="63" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="150" zoomScaleNormal="63" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U122" sqref="U122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3389,10 +3472,11 @@
     <col min="18" max="18" width="37.1640625" style="6" customWidth="1"/>
     <col min="19" max="19" width="81.1640625" style="6" customWidth="1"/>
     <col min="20" max="20" width="18.6640625" style="6" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="6"/>
+    <col min="21" max="21" width="16" style="6" customWidth="1"/>
+    <col min="22" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="10" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="10" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3453,8 +3537,11 @@
       <c r="T1" s="13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" s="11" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U1" s="10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>10</v>
       </c>
@@ -3492,8 +3579,9 @@
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
-    </row>
-    <row r="3" spans="1:20" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" spans="1:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>11</v>
       </c>
@@ -3544,15 +3632,18 @@
       <c r="Q3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="107" t="s">
+      <c r="R3" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="S3" s="123" t="s">
+      <c r="S3" s="124" t="s">
         <v>56</v>
       </c>
       <c r="T3" s="26"/>
-    </row>
-    <row r="4" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U3" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>12</v>
       </c>
@@ -3597,11 +3688,14 @@
       <c r="Q4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="107"/>
-      <c r="S4" s="123"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="124"/>
       <c r="T4" s="26"/>
-    </row>
-    <row r="5" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U4" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>13</v>
       </c>
@@ -3622,8 +3716,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="27">
-        <f>50*1000000</f>
-        <v>50000000</v>
+        <v>45000000</v>
       </c>
       <c r="I5" s="66"/>
       <c r="J5" s="24"/>
@@ -3632,23 +3725,26 @@
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
       <c r="O5" s="23">
-        <v>2009</v>
+        <v>2024</v>
       </c>
       <c r="P5" s="23" t="s">
         <v>72</v>
       </c>
       <c r="Q5" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="R5" s="107" t="s">
-        <v>142</v>
-      </c>
-      <c r="S5" s="123" t="s">
-        <v>59</v>
+        <v>425</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>426</v>
       </c>
       <c r="T5" s="26"/>
-    </row>
-    <row r="6" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>14</v>
       </c>
@@ -3686,11 +3782,18 @@
       <c r="Q6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="107"/>
-      <c r="S6" s="123"/>
+      <c r="R6" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="S6" s="105" t="s">
+        <v>59</v>
+      </c>
       <c r="T6" s="26"/>
-    </row>
-    <row r="7" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U6" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>15</v>
       </c>
@@ -3738,8 +3841,11 @@
       <c r="T7" s="23" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U7" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>20</v>
       </c>
@@ -3778,7 +3884,7 @@
       <c r="S8" s="29"/>
       <c r="T8" s="29"/>
     </row>
-    <row r="9" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>21</v>
       </c>
@@ -3810,7 +3916,7 @@
       <c r="S9" s="5"/>
       <c r="T9" s="26"/>
     </row>
-    <row r="10" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
         <v>211</v>
       </c>
@@ -3842,7 +3948,7 @@
       <c r="S10" s="5"/>
       <c r="T10" s="26"/>
     </row>
-    <row r="11" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>211.1</v>
       </c>
@@ -3884,18 +3990,21 @@
       <c r="P11" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="119" t="s">
+      <c r="Q11" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="R11" s="107" t="s">
+      <c r="R11" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="S11" s="108" t="s">
+      <c r="S11" s="109" t="s">
         <v>84</v>
       </c>
       <c r="T11" s="26"/>
-    </row>
-    <row r="12" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U11" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
         <v>211.2</v>
       </c>
@@ -3944,12 +4053,15 @@
       <c r="P12" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="109"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="108"/>
+      <c r="S12" s="110"/>
       <c r="T12" s="26"/>
-    </row>
-    <row r="13" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U12" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>211.3</v>
       </c>
@@ -3991,12 +4103,15 @@
       <c r="P13" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="109"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="110"/>
       <c r="T13" s="26"/>
-    </row>
-    <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U13" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
         <v>212</v>
       </c>
@@ -4028,7 +4143,7 @@
       <c r="S14" s="26"/>
       <c r="T14" s="26"/>
     </row>
-    <row r="15" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>212.1</v>
       </c>
@@ -4069,18 +4184,21 @@
       <c r="P15" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q15" s="119" t="s">
+      <c r="Q15" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="107" t="s">
+      <c r="R15" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="S15" s="108" t="s">
+      <c r="S15" s="109" t="s">
         <v>84</v>
       </c>
       <c r="T15" s="26"/>
-    </row>
-    <row r="16" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U15" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>212.2</v>
       </c>
@@ -4122,12 +4240,15 @@
       <c r="P16" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="107"/>
-      <c r="S16" s="109"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="108"/>
+      <c r="S16" s="110"/>
       <c r="T16" s="26"/>
-    </row>
-    <row r="17" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U16" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>212.3</v>
       </c>
@@ -4169,12 +4290,15 @@
       <c r="P17" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="109"/>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="110"/>
       <c r="T17" s="26"/>
-    </row>
-    <row r="18" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U17" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>213</v>
       </c>
@@ -4206,7 +4330,7 @@
       <c r="S18" s="35"/>
       <c r="T18" s="26"/>
     </row>
-    <row r="19" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>213.1</v>
       </c>
@@ -4238,7 +4362,7 @@
       <c r="S19" s="35"/>
       <c r="T19" s="26"/>
     </row>
-    <row r="20" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>213.11</v>
       </c>
@@ -4280,18 +4404,21 @@
       <c r="P20" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q20" s="119" t="s">
+      <c r="Q20" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="R20" s="107" t="s">
+      <c r="R20" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="S20" s="108" t="s">
+      <c r="S20" s="109" t="s">
         <v>84</v>
       </c>
       <c r="T20" s="26"/>
-    </row>
-    <row r="21" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U20" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>213.12</v>
       </c>
@@ -4333,12 +4460,15 @@
       <c r="P21" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="109"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="108"/>
+      <c r="S21" s="110"/>
       <c r="T21" s="26"/>
-    </row>
-    <row r="22" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U21" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>213.13</v>
       </c>
@@ -4380,12 +4510,15 @@
       <c r="P22" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="109"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="108"/>
+      <c r="S22" s="110"/>
       <c r="T22" s="26"/>
-    </row>
-    <row r="23" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U22" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <v>213.2</v>
       </c>
@@ -4417,7 +4550,7 @@
       <c r="S23" s="35"/>
       <c r="T23" s="26"/>
     </row>
-    <row r="24" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <v>213.21</v>
       </c>
@@ -4459,18 +4592,21 @@
       <c r="P24" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q24" s="119" t="s">
+      <c r="Q24" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="R24" s="107" t="s">
+      <c r="R24" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="108" t="s">
+      <c r="S24" s="109" t="s">
         <v>84</v>
       </c>
       <c r="T24" s="26"/>
-    </row>
-    <row r="25" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U24" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
         <v>213.22</v>
       </c>
@@ -4512,12 +4648,15 @@
       <c r="P25" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="107"/>
-      <c r="S25" s="109"/>
+      <c r="Q25" s="120"/>
+      <c r="R25" s="108"/>
+      <c r="S25" s="110"/>
       <c r="T25" s="26"/>
-    </row>
-    <row r="26" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U25" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
         <v>213.23</v>
       </c>
@@ -4559,12 +4698,15 @@
       <c r="P26" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="107"/>
-      <c r="S26" s="109"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="108"/>
+      <c r="S26" s="110"/>
       <c r="T26" s="26"/>
-    </row>
-    <row r="27" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U26" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
         <v>214</v>
       </c>
@@ -4596,7 +4738,7 @@
       <c r="S27" s="26"/>
       <c r="T27" s="26"/>
     </row>
-    <row r="28" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36">
         <v>214.1</v>
       </c>
@@ -4628,7 +4770,7 @@
       <c r="S28" s="26"/>
       <c r="T28" s="26"/>
     </row>
-    <row r="29" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
         <v>214.11</v>
       </c>
@@ -4660,7 +4802,7 @@
       <c r="S29" s="26"/>
       <c r="T29" s="26"/>
     </row>
-    <row r="30" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="77">
         <v>214.11099999999999</v>
       </c>
@@ -4702,18 +4844,21 @@
       <c r="P30" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q30" s="130" t="s">
+      <c r="Q30" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="R30" s="129" t="s">
+      <c r="R30" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="S30" s="127" t="s">
+      <c r="S30" s="128" t="s">
         <v>84</v>
       </c>
       <c r="T30" s="85"/>
-    </row>
-    <row r="31" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="U30" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="77">
         <v>214.11199999999999</v>
       </c>
@@ -4755,12 +4900,15 @@
       <c r="P31" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q31" s="130"/>
-      <c r="R31" s="129"/>
-      <c r="S31" s="128"/>
+      <c r="Q31" s="131"/>
+      <c r="R31" s="130"/>
+      <c r="S31" s="129"/>
       <c r="T31" s="85"/>
-    </row>
-    <row r="32" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="U31" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="77">
         <v>214.113</v>
       </c>
@@ -4802,12 +4950,15 @@
       <c r="P32" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q32" s="130"/>
-      <c r="R32" s="129"/>
-      <c r="S32" s="128"/>
+      <c r="Q32" s="131"/>
+      <c r="R32" s="130"/>
+      <c r="S32" s="129"/>
       <c r="T32" s="85"/>
-    </row>
-    <row r="33" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U32" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
         <v>214.12</v>
       </c>
@@ -4839,7 +4990,7 @@
       <c r="S33" s="26"/>
       <c r="T33" s="26"/>
     </row>
-    <row r="34" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="77">
         <v>214.12100000000001</v>
       </c>
@@ -4881,18 +5032,21 @@
       <c r="P34" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q34" s="130" t="s">
+      <c r="Q34" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="R34" s="129" t="s">
+      <c r="R34" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="S34" s="127" t="s">
+      <c r="S34" s="128" t="s">
         <v>84</v>
       </c>
       <c r="T34" s="85"/>
-    </row>
-    <row r="35" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="U34" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="77">
         <v>214.12200000000001</v>
       </c>
@@ -4934,12 +5088,15 @@
       <c r="P35" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q35" s="130"/>
-      <c r="R35" s="129"/>
-      <c r="S35" s="128"/>
+      <c r="Q35" s="131"/>
+      <c r="R35" s="130"/>
+      <c r="S35" s="129"/>
       <c r="T35" s="85"/>
-    </row>
-    <row r="36" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="U35" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="77">
         <v>214.12299999999999</v>
       </c>
@@ -4981,12 +5138,15 @@
       <c r="P36" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q36" s="130"/>
-      <c r="R36" s="129"/>
-      <c r="S36" s="128"/>
+      <c r="Q36" s="131"/>
+      <c r="R36" s="130"/>
+      <c r="S36" s="129"/>
       <c r="T36" s="85"/>
-    </row>
-    <row r="37" spans="1:20" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U36" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="36">
         <v>214.7</v>
       </c>
@@ -5018,7 +5178,7 @@
       <c r="S37" s="26"/>
       <c r="T37" s="26"/>
     </row>
-    <row r="38" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
         <v>214.71</v>
       </c>
@@ -5050,7 +5210,7 @@
       <c r="S38" s="26"/>
       <c r="T38" s="26"/>
     </row>
-    <row r="39" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="77">
         <v>214.71100000000001</v>
       </c>
@@ -5092,18 +5252,21 @@
       <c r="P39" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q39" s="130" t="s">
+      <c r="Q39" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="R39" s="129" t="s">
+      <c r="R39" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="S39" s="127" t="s">
+      <c r="S39" s="128" t="s">
         <v>84</v>
       </c>
       <c r="T39" s="85"/>
-    </row>
-    <row r="40" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="U39" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="77">
         <v>214.71199999999999</v>
       </c>
@@ -5145,12 +5308,15 @@
       <c r="P40" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q40" s="130"/>
-      <c r="R40" s="129"/>
-      <c r="S40" s="128"/>
+      <c r="Q40" s="131"/>
+      <c r="R40" s="130"/>
+      <c r="S40" s="129"/>
       <c r="T40" s="85"/>
-    </row>
-    <row r="41" spans="1:20" s="86" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="U40" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="77">
         <v>214.71299999999999</v>
       </c>
@@ -5192,12 +5358,15 @@
       <c r="P41" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q41" s="130"/>
-      <c r="R41" s="129"/>
-      <c r="S41" s="128"/>
+      <c r="Q41" s="131"/>
+      <c r="R41" s="130"/>
+      <c r="S41" s="129"/>
       <c r="T41" s="85"/>
-    </row>
-    <row r="42" spans="1:20" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U41" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36">
         <v>214.72</v>
       </c>
@@ -5254,8 +5423,11 @@
         <v>159</v>
       </c>
       <c r="T42" s="26"/>
-    </row>
-    <row r="43" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U42" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="36">
         <v>215</v>
       </c>
@@ -5287,7 +5459,7 @@
       <c r="S43" s="39"/>
       <c r="T43" s="26"/>
     </row>
-    <row r="44" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="36">
         <v>215.1</v>
       </c>
@@ -5319,7 +5491,7 @@
       <c r="S44" s="39"/>
       <c r="T44" s="26"/>
     </row>
-    <row r="45" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="36">
         <v>215.11</v>
       </c>
@@ -5361,18 +5533,21 @@
       <c r="P45" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q45" s="119" t="s">
+      <c r="Q45" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="R45" s="107" t="s">
+      <c r="R45" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="S45" s="108" t="s">
+      <c r="S45" s="109" t="s">
         <v>84</v>
       </c>
       <c r="T45" s="26"/>
-    </row>
-    <row r="46" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U45" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="36">
         <v>215.12</v>
       </c>
@@ -5414,12 +5589,15 @@
       <c r="P46" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q46" s="119"/>
-      <c r="R46" s="107"/>
-      <c r="S46" s="109"/>
+      <c r="Q46" s="120"/>
+      <c r="R46" s="108"/>
+      <c r="S46" s="110"/>
       <c r="T46" s="26"/>
-    </row>
-    <row r="47" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U46" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="36">
         <v>215.13</v>
       </c>
@@ -5461,12 +5639,15 @@
       <c r="P47" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q47" s="119"/>
-      <c r="R47" s="107"/>
-      <c r="S47" s="109"/>
+      <c r="Q47" s="120"/>
+      <c r="R47" s="108"/>
+      <c r="S47" s="110"/>
       <c r="T47" s="26"/>
-    </row>
-    <row r="48" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U47" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
         <v>215.4</v>
       </c>
@@ -5498,7 +5679,7 @@
       <c r="S48" s="39"/>
       <c r="T48" s="26"/>
     </row>
-    <row r="49" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="36">
         <v>215.41</v>
       </c>
@@ -5540,18 +5721,21 @@
       <c r="P49" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q49" s="119" t="s">
+      <c r="Q49" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="R49" s="107" t="s">
+      <c r="R49" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="S49" s="108" t="s">
+      <c r="S49" s="109" t="s">
         <v>84</v>
       </c>
       <c r="T49" s="26"/>
-    </row>
-    <row r="50" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U49" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
         <v>215.42</v>
       </c>
@@ -5593,12 +5777,15 @@
       <c r="P50" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q50" s="119"/>
-      <c r="R50" s="107"/>
-      <c r="S50" s="109"/>
+      <c r="Q50" s="120"/>
+      <c r="R50" s="108"/>
+      <c r="S50" s="110"/>
       <c r="T50" s="26"/>
-    </row>
-    <row r="51" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U50" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="36">
         <v>215.43</v>
       </c>
@@ -5640,12 +5827,15 @@
       <c r="P51" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q51" s="119"/>
-      <c r="R51" s="107"/>
-      <c r="S51" s="109"/>
+      <c r="Q51" s="120"/>
+      <c r="R51" s="108"/>
+      <c r="S51" s="110"/>
       <c r="T51" s="26"/>
-    </row>
-    <row r="52" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U51" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>22</v>
       </c>
@@ -5677,7 +5867,7 @@
       <c r="S52" s="26"/>
       <c r="T52" s="26"/>
     </row>
-    <row r="53" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="36">
         <v>221</v>
       </c>
@@ -5709,7 +5899,7 @@
       <c r="S53" s="26"/>
       <c r="T53" s="26"/>
     </row>
-    <row r="54" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="36">
         <v>221.1</v>
       </c>
@@ -5741,7 +5931,7 @@
       <c r="S54" s="26"/>
       <c r="T54" s="26"/>
     </row>
-    <row r="55" spans="1:20" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="36">
         <v>221.11</v>
       </c>
@@ -5791,17 +5981,20 @@
       <c r="Q55" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R55" s="124" t="s">
+      <c r="R55" s="125" t="s">
         <v>178</v>
       </c>
-      <c r="S55" s="110" t="s">
+      <c r="S55" s="111" t="s">
         <v>182</v>
       </c>
       <c r="T55" s="42" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U55" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="36">
         <v>221.12</v>
       </c>
@@ -5851,11 +6044,14 @@
       <c r="Q56" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R56" s="125"/>
-      <c r="S56" s="111"/>
+      <c r="R56" s="126"/>
+      <c r="S56" s="112"/>
       <c r="T56" s="26"/>
-    </row>
-    <row r="57" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="36">
         <v>221.13</v>
       </c>
@@ -5908,13 +6104,16 @@
       <c r="Q57" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R57" s="126"/>
-      <c r="S57" s="112"/>
+      <c r="R57" s="127"/>
+      <c r="S57" s="113"/>
       <c r="T57" s="42" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="36">
         <v>221.2</v>
       </c>
@@ -5946,7 +6145,7 @@
       <c r="S58" s="26"/>
       <c r="T58" s="26"/>
     </row>
-    <row r="59" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="36">
         <v>221.21</v>
       </c>
@@ -5978,7 +6177,7 @@
       <c r="S59" s="26"/>
       <c r="T59" s="26"/>
     </row>
-    <row r="60" spans="1:20" s="86" customFormat="1" ht="40" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" s="86" customFormat="1" ht="40" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="77">
         <v>221.21100000000001</v>
       </c>
@@ -6019,17 +6218,20 @@
       <c r="Q60" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R60" s="113" t="s">
+      <c r="R60" s="114" t="s">
         <v>178</v>
       </c>
-      <c r="S60" s="116" t="s">
+      <c r="S60" s="117" t="s">
         <v>347</v>
       </c>
       <c r="T60" s="90" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" s="86" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="U60" s="86" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" s="86" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="77">
         <v>221.21199999999999</v>
       </c>
@@ -6068,11 +6270,14 @@
       <c r="Q61" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R61" s="114"/>
-      <c r="S61" s="117"/>
+      <c r="R61" s="115"/>
+      <c r="S61" s="118"/>
       <c r="T61" s="85"/>
-    </row>
-    <row r="62" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="U61" s="86" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="77">
         <v>221.21299999999999</v>
       </c>
@@ -6126,11 +6331,14 @@
       <c r="Q62" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R62" s="114"/>
-      <c r="S62" s="117"/>
+      <c r="R62" s="115"/>
+      <c r="S62" s="118"/>
       <c r="T62" s="85"/>
-    </row>
-    <row r="63" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="U62" s="86" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="77">
         <v>221.214</v>
       </c>
@@ -6184,11 +6392,14 @@
       <c r="Q63" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R63" s="115"/>
-      <c r="S63" s="118"/>
+      <c r="R63" s="116"/>
+      <c r="S63" s="119"/>
       <c r="T63" s="85"/>
-    </row>
-    <row r="64" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="U63" s="86" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="77">
         <v>221.214</v>
       </c>
@@ -6252,8 +6463,11 @@
       <c r="R64" s="103"/>
       <c r="S64" s="104"/>
       <c r="T64" s="85"/>
-    </row>
-    <row r="65" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U64" s="86" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="36">
         <v>221.3</v>
       </c>
@@ -6283,7 +6497,7 @@
       <c r="S65" s="26"/>
       <c r="T65" s="26"/>
     </row>
-    <row r="66" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="36">
         <v>221.31</v>
       </c>
@@ -6340,15 +6554,18 @@
       <c r="Q66" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R66" s="124" t="s">
+      <c r="R66" s="125" t="s">
         <v>178</v>
       </c>
-      <c r="S66" s="110" t="s">
+      <c r="S66" s="111" t="s">
         <v>182</v>
       </c>
       <c r="T66" s="26"/>
-    </row>
-    <row r="67" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U66" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="36">
         <v>221.31</v>
       </c>
@@ -6409,11 +6626,14 @@
       <c r="Q67" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R67" s="125"/>
-      <c r="S67" s="111"/>
+      <c r="R67" s="126"/>
+      <c r="S67" s="112"/>
       <c r="T67" s="26"/>
-    </row>
-    <row r="68" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U67" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="36">
         <v>221.32</v>
       </c>
@@ -6441,11 +6661,11 @@
       <c r="O68" s="26"/>
       <c r="P68" s="26"/>
       <c r="Q68" s="42"/>
-      <c r="R68" s="125"/>
-      <c r="S68" s="111"/>
+      <c r="R68" s="126"/>
+      <c r="S68" s="112"/>
       <c r="T68" s="26"/>
     </row>
-    <row r="69" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="77">
         <v>221.321</v>
       </c>
@@ -6502,11 +6722,14 @@
       <c r="Q69" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R69" s="125"/>
-      <c r="S69" s="111"/>
+      <c r="R69" s="126"/>
+      <c r="S69" s="112"/>
       <c r="T69" s="85"/>
-    </row>
-    <row r="70" spans="1:20" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="U69" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="77">
         <v>221.322</v>
       </c>
@@ -6559,11 +6782,14 @@
       <c r="Q70" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R70" s="126"/>
-      <c r="S70" s="112"/>
+      <c r="R70" s="127"/>
+      <c r="S70" s="113"/>
       <c r="T70" s="85"/>
-    </row>
-    <row r="71" spans="1:20" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U70" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="36">
         <v>221.33</v>
       </c>
@@ -6615,8 +6841,11 @@
       </c>
       <c r="S71" s="75"/>
       <c r="T71" s="26"/>
-    </row>
-    <row r="72" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U71" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="36">
         <v>221.33</v>
       </c>
@@ -6666,8 +6895,11 @@
       <c r="R72" s="74"/>
       <c r="S72" s="75"/>
       <c r="T72" s="26"/>
-    </row>
-    <row r="73" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U72" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="36">
         <v>222</v>
       </c>
@@ -6698,7 +6930,7 @@
       <c r="S73" s="26"/>
       <c r="T73" s="26"/>
     </row>
-    <row r="74" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="36">
         <v>222.1</v>
       </c>
@@ -6736,7 +6968,7 @@
       <c r="S74" s="26"/>
       <c r="T74" s="26"/>
     </row>
-    <row r="75" spans="1:20" ht="61" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" ht="61" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30">
         <v>222.11</v>
       </c>
@@ -6785,15 +7017,18 @@
       <c r="Q75" s="42" t="s">
         <v>349</v>
       </c>
-      <c r="R75" s="105" t="s">
+      <c r="R75" s="106" t="s">
         <v>348</v>
       </c>
-      <c r="S75" s="121" t="s">
+      <c r="S75" s="122" t="s">
         <v>350</v>
       </c>
-      <c r="T75" s="105"/>
-    </row>
-    <row r="76" spans="1:20" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T75" s="106"/>
+      <c r="U75" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="30">
         <v>222.12</v>
       </c>
@@ -6841,11 +7076,14 @@
       <c r="Q76" s="42" t="s">
         <v>343</v>
       </c>
-      <c r="R76" s="106"/>
-      <c r="S76" s="122"/>
-      <c r="T76" s="106"/>
-    </row>
-    <row r="77" spans="1:20" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R76" s="107"/>
+      <c r="S76" s="123"/>
+      <c r="T76" s="107"/>
+      <c r="U76" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="30">
         <v>222.13</v>
       </c>
@@ -6898,8 +7136,11 @@
       </c>
       <c r="S77" s="94"/>
       <c r="T77" s="93"/>
-    </row>
-    <row r="78" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U77" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="36">
         <v>222.2</v>
       </c>
@@ -6946,8 +7187,11 @@
       </c>
       <c r="S78" s="26"/>
       <c r="T78" s="26"/>
-    </row>
-    <row r="79" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U78" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="36">
         <v>222.3</v>
       </c>
@@ -6979,7 +7223,7 @@
       <c r="S79" s="26"/>
       <c r="T79" s="26"/>
     </row>
-    <row r="80" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="36">
         <v>222.31</v>
       </c>
@@ -7032,8 +7276,11 @@
       </c>
       <c r="S80" s="26"/>
       <c r="T80" s="26"/>
-    </row>
-    <row r="81" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U80" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36">
         <v>222.31</v>
       </c>
@@ -7093,8 +7340,11 @@
       </c>
       <c r="S81" s="26"/>
       <c r="T81" s="26"/>
-    </row>
-    <row r="82" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U81" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="36">
         <v>222.32</v>
       </c>
@@ -7147,8 +7397,11 @@
       </c>
       <c r="S82" s="26"/>
       <c r="T82" s="26"/>
-    </row>
-    <row r="83" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U82" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="36">
         <v>222.32</v>
       </c>
@@ -7208,8 +7461,11 @@
       </c>
       <c r="S83" s="26"/>
       <c r="T83" s="26"/>
-    </row>
-    <row r="84" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U83" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="36">
         <v>223</v>
       </c>
@@ -7241,7 +7497,7 @@
       <c r="S84" s="26"/>
       <c r="T84" s="26"/>
     </row>
-    <row r="85" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="36">
         <v>223.2</v>
       </c>
@@ -7273,7 +7529,7 @@
       <c r="S85" s="26"/>
       <c r="T85" s="26"/>
     </row>
-    <row r="86" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="36">
         <v>223.21</v>
       </c>
@@ -7326,8 +7582,11 @@
       <c r="R86" s="26"/>
       <c r="S86" s="26"/>
       <c r="T86" s="26"/>
-    </row>
-    <row r="87" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U86" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="36">
         <v>223.22</v>
       </c>
@@ -7380,8 +7639,11 @@
       <c r="R87" s="26"/>
       <c r="S87" s="26"/>
       <c r="T87" s="26"/>
-    </row>
-    <row r="88" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U87" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="36">
         <v>226</v>
       </c>
@@ -7423,8 +7685,11 @@
       <c r="R88" s="26"/>
       <c r="S88" s="26"/>
       <c r="T88" s="26"/>
-    </row>
-    <row r="89" spans="1:20" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U88" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="36">
         <v>227</v>
       </c>
@@ -7473,8 +7738,11 @@
       <c r="R89" s="26"/>
       <c r="S89" s="26"/>
       <c r="T89" s="26"/>
-    </row>
-    <row r="90" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U89" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="36">
         <v>228</v>
       </c>
@@ -7516,8 +7784,11 @@
       <c r="R90" s="26"/>
       <c r="S90" s="26"/>
       <c r="T90" s="26"/>
-    </row>
-    <row r="91" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U90" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="21">
         <v>23</v>
       </c>
@@ -7549,7 +7820,7 @@
       <c r="S91" s="26"/>
       <c r="T91" s="26"/>
     </row>
-    <row r="92" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="36">
         <v>232</v>
       </c>
@@ -7581,7 +7852,7 @@
       <c r="S92" s="26"/>
       <c r="T92" s="26"/>
     </row>
-    <row r="93" spans="1:20" ht="211" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="211" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="36">
         <v>232.1</v>
       </c>
@@ -7635,8 +7906,11 @@
       </c>
       <c r="S93" s="26"/>
       <c r="T93" s="26"/>
-    </row>
-    <row r="94" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U93" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21">
         <v>24</v>
       </c>
@@ -7668,7 +7942,7 @@
       <c r="S94" s="26"/>
       <c r="T94" s="26"/>
     </row>
-    <row r="95" spans="1:20" ht="121" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="121" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21">
         <v>246</v>
       </c>
@@ -7723,8 +7997,11 @@
       </c>
       <c r="S95" s="26"/>
       <c r="T95" s="26"/>
-    </row>
-    <row r="96" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U95" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="21">
         <v>25</v>
       </c>
@@ -7756,7 +8033,7 @@
       <c r="S96" s="26"/>
       <c r="T96" s="26"/>
     </row>
-    <row r="97" spans="1:26" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="36">
         <v>251</v>
       </c>
@@ -7795,16 +8072,19 @@
       <c r="P97" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q97" s="105" t="s">
+      <c r="Q97" s="106" t="s">
         <v>382</v>
       </c>
-      <c r="R97" s="105" t="s">
+      <c r="R97" s="106" t="s">
         <v>383</v>
       </c>
       <c r="S97" s="26"/>
       <c r="T97" s="26"/>
-    </row>
-    <row r="98" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U97" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="36">
         <v>252</v>
       </c>
@@ -7843,12 +8123,15 @@
       <c r="P98" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q98" s="120"/>
-      <c r="R98" s="120"/>
+      <c r="Q98" s="121"/>
+      <c r="R98" s="121"/>
       <c r="S98" s="26"/>
       <c r="T98" s="26"/>
-    </row>
-    <row r="99" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U98" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36">
         <v>253</v>
       </c>
@@ -7889,12 +8172,15 @@
       <c r="P99" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q99" s="120"/>
-      <c r="R99" s="120"/>
+      <c r="Q99" s="121"/>
+      <c r="R99" s="121"/>
       <c r="S99" s="26"/>
       <c r="T99" s="26"/>
-    </row>
-    <row r="100" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U99" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="36">
         <v>254</v>
       </c>
@@ -7937,12 +8223,15 @@
       <c r="P100" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q100" s="120"/>
-      <c r="R100" s="120"/>
+      <c r="Q100" s="121"/>
+      <c r="R100" s="121"/>
       <c r="S100" s="26"/>
       <c r="T100" s="26"/>
-    </row>
-    <row r="101" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U100" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="36">
         <v>254</v>
       </c>
@@ -7992,12 +8281,15 @@
       <c r="P101" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q101" s="106"/>
-      <c r="R101" s="106"/>
+      <c r="Q101" s="107"/>
+      <c r="R101" s="107"/>
       <c r="S101" s="26"/>
       <c r="T101" s="26"/>
-    </row>
-    <row r="102" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U101" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21">
         <v>26</v>
       </c>
@@ -8040,8 +8332,11 @@
       </c>
       <c r="S102" s="26"/>
       <c r="T102" s="26"/>
-    </row>
-    <row r="103" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U102" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="29">
         <v>30</v>
       </c>
@@ -8080,7 +8375,7 @@
       <c r="S103" s="29"/>
       <c r="T103" s="29"/>
     </row>
-    <row r="104" spans="1:26" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="29">
         <v>31</v>
       </c>
@@ -8111,7 +8406,7 @@
       <c r="S104" s="29"/>
       <c r="T104" s="29"/>
     </row>
-    <row r="105" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="29">
         <v>32</v>
       </c>
@@ -8142,7 +8437,7 @@
       <c r="S105" s="29"/>
       <c r="T105" s="29"/>
     </row>
-    <row r="106" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="21">
         <v>33</v>
       </c>
@@ -8178,20 +8473,20 @@
       <c r="P106" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="Q106" s="131" t="s">
+      <c r="Q106" s="132" t="s">
         <v>374</v>
       </c>
       <c r="R106" s="24"/>
       <c r="S106" s="24"/>
       <c r="T106" s="24"/>
-      <c r="U106" s="12"/>
+      <c r="U106" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="V106" s="12"/>
       <c r="W106" s="12"/>
       <c r="X106" s="12"/>
-      <c r="Y106" s="12"/>
-      <c r="Z106" s="12"/>
-    </row>
-    <row r="107" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="21">
         <v>34</v>
       </c>
@@ -8212,8 +8507,8 @@
       <c r="F107" s="19"/>
       <c r="G107" s="19"/>
       <c r="H107" s="24">
-        <f>MARVEL_Cost!C62</f>
-        <v>1665282.7999999998</v>
+        <f>0.5*MARVEL_Cost!C62</f>
+        <v>832641.39999999991</v>
       </c>
       <c r="I107" s="66"/>
       <c r="J107" s="24"/>
@@ -8227,18 +8522,18 @@
       <c r="P107" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="Q107" s="132"/>
+      <c r="Q107" s="133"/>
       <c r="R107" s="24"/>
       <c r="S107" s="24"/>
       <c r="T107" s="24"/>
-      <c r="U107" s="12"/>
+      <c r="U107" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="V107" s="12"/>
       <c r="W107" s="12"/>
       <c r="X107" s="12"/>
-      <c r="Y107" s="12"/>
-      <c r="Z107" s="12"/>
-    </row>
-    <row r="108" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21">
         <v>35</v>
       </c>
@@ -8274,13 +8569,15 @@
       <c r="P108" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q108" s="132"/>
+      <c r="Q108" s="133"/>
       <c r="R108" s="26"/>
       <c r="S108" s="26"/>
       <c r="T108" s="26"/>
-      <c r="U108" s="12"/>
-    </row>
-    <row r="109" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U108" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="21">
         <v>36</v>
       </c>
@@ -8316,13 +8613,15 @@
       <c r="P109" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q109" s="133"/>
+      <c r="Q109" s="134"/>
       <c r="R109" s="26"/>
       <c r="S109" s="26"/>
       <c r="T109" s="26"/>
-      <c r="U109" s="12"/>
-    </row>
-    <row r="110" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U109" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21">
         <v>40</v>
       </c>
@@ -8355,7 +8654,7 @@
       <c r="T110" s="26"/>
       <c r="U110" s="12"/>
     </row>
-    <row r="111" spans="1:26" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="21">
         <v>41</v>
       </c>
@@ -8398,9 +8697,11 @@
         <v>418</v>
       </c>
       <c r="T111" s="26"/>
-      <c r="U111" s="12"/>
-    </row>
-    <row r="112" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U111" s="12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="29">
         <v>60</v>
       </c>
@@ -8579,7 +8880,9 @@
       </c>
       <c r="S116" s="26"/>
       <c r="T116" s="26"/>
-      <c r="U116" s="12"/>
+      <c r="U116" s="12" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="117" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="36">
@@ -8632,7 +8935,9 @@
       </c>
       <c r="S117" s="26"/>
       <c r="T117" s="26"/>
-      <c r="U117" s="12"/>
+      <c r="U117" s="12" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="118" spans="1:21" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="36">
@@ -8681,7 +8986,9 @@
       </c>
       <c r="S118" s="26"/>
       <c r="T118" s="26"/>
-      <c r="U118" s="12"/>
+      <c r="U118" s="12" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="119" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="21">
@@ -8764,7 +9071,9 @@
       </c>
       <c r="S120" s="26"/>
       <c r="T120" s="26"/>
-      <c r="U120" s="12"/>
+      <c r="U120" s="12" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="121" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="16">
@@ -8845,6 +9154,9 @@
       </c>
       <c r="S122" s="26"/>
       <c r="T122" s="26"/>
+      <c r="U122" s="6" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="123" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="21">
@@ -8877,6 +9189,9 @@
       <c r="R123" s="26"/>
       <c r="S123" s="26"/>
       <c r="T123" s="26"/>
+      <c r="U123" s="6" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="124" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="21">
@@ -8923,16 +9238,17 @@
       <c r="R124" s="26"/>
       <c r="S124" s="26"/>
       <c r="T124" s="26"/>
+      <c r="U124" s="6" t="s">
+        <v>420</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="41">
     <mergeCell ref="Q106:Q109"/>
     <mergeCell ref="Q39:Q41"/>
     <mergeCell ref="Q45:Q47"/>
     <mergeCell ref="Q49:Q51"/>
     <mergeCell ref="Q97:Q101"/>
-    <mergeCell ref="R24:R26"/>
-    <mergeCell ref="R30:R32"/>
     <mergeCell ref="R34:R36"/>
     <mergeCell ref="R39:R41"/>
     <mergeCell ref="Q20:Q22"/>
@@ -8944,8 +9260,6 @@
     <mergeCell ref="S75:S76"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
     <mergeCell ref="S20:S22"/>
     <mergeCell ref="R66:R70"/>
     <mergeCell ref="S24:S26"/>
@@ -8955,6 +9269,8 @@
     <mergeCell ref="S55:S57"/>
     <mergeCell ref="S39:S41"/>
     <mergeCell ref="R20:R22"/>
+    <mergeCell ref="R24:R26"/>
+    <mergeCell ref="R30:R32"/>
     <mergeCell ref="Q15:Q17"/>
     <mergeCell ref="Q11:Q13"/>
     <mergeCell ref="R11:R13"/>
@@ -8970,162 +9286,148 @@
     <mergeCell ref="R60:R63"/>
     <mergeCell ref="S60:S63"/>
   </mergeCells>
-  <conditionalFormatting sqref="A75:F77 L97:T97 L98:P98 S98:T102 I99:P99 A102:R102 A112:T115 A116:H117 A118:J118 A119:T119 S120:T120 A121:T121 S122:T122 A123:T124 R106:T111 Q110:Q111">
-    <cfRule type="expression" dxfId="80" priority="137">
-      <formula>$B75=3</formula>
+  <conditionalFormatting sqref="A97:H99">
+    <cfRule type="expression" dxfId="84" priority="108">
+      <formula>$B97=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="138">
-      <formula>$B75=2</formula>
+    <cfRule type="expression" dxfId="83" priority="107">
+      <formula>$B97&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="139">
-      <formula>$B75&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="140">
-      <formula>$B75=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97:H99">
-    <cfRule type="expression" dxfId="76" priority="101">
-      <formula>$B97=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="102">
+    <cfRule type="expression" dxfId="82" priority="106">
       <formula>$B97=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="103">
-      <formula>$B97&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="104">
-      <formula>$B97=0</formula>
+    <cfRule type="expression" dxfId="81" priority="105">
+      <formula>$B97=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79:I83">
-    <cfRule type="expression" dxfId="72" priority="125">
+    <cfRule type="expression" dxfId="80" priority="129">
       <formula>$B79=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="126">
+    <cfRule type="expression" dxfId="79" priority="130">
       <formula>$B79=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="127">
+    <cfRule type="expression" dxfId="78" priority="131">
       <formula>$B79&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="128">
+    <cfRule type="expression" dxfId="77" priority="132">
       <formula>$B79=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:P101">
-    <cfRule type="expression" dxfId="68" priority="85">
-      <formula>$B100=3</formula>
+    <cfRule type="expression" dxfId="76" priority="92">
+      <formula>$B100=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="86">
+    <cfRule type="expression" dxfId="75" priority="91">
+      <formula>$B100&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="90">
       <formula>$B100=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="87">
-      <formula>$B100&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="88">
-      <formula>$B100=0</formula>
+    <cfRule type="expression" dxfId="73" priority="89">
+      <formula>$B100=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:P111">
-    <cfRule type="expression" dxfId="64" priority="33">
+    <cfRule type="expression" dxfId="72" priority="40">
+      <formula>$B104=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="37">
       <formula>$B104=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="34">
+    <cfRule type="expression" dxfId="70" priority="38">
       <formula>$B104=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="35">
+    <cfRule type="expression" dxfId="69" priority="39">
       <formula>$B104&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="36">
-      <formula>$B104=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:Q120">
-    <cfRule type="expression" dxfId="60" priority="5">
+    <cfRule type="expression" dxfId="68" priority="12">
+      <formula>$B120=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="9">
       <formula>$B120=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="6">
+    <cfRule type="expression" dxfId="66" priority="10">
       <formula>$B120=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="7">
+    <cfRule type="expression" dxfId="65" priority="11">
       <formula>$B120&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="8">
-      <formula>$B120=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122:Q122">
-    <cfRule type="expression" dxfId="56" priority="1">
+    <cfRule type="expression" dxfId="64" priority="5">
       <formula>$B122=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="2">
+    <cfRule type="expression" dxfId="63" priority="6">
       <formula>$B122=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="3">
+    <cfRule type="expression" dxfId="62" priority="7">
       <formula>$B122&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="4">
+    <cfRule type="expression" dxfId="61" priority="8">
       <formula>$B122=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:S74">
-    <cfRule type="expression" dxfId="52" priority="141">
+    <cfRule type="expression" dxfId="60" priority="148">
+      <formula>$B74=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="147">
+      <formula>$B74&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="146">
+      <formula>$B74=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="145">
       <formula>$B74=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="142">
-      <formula>$B74=2</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:T4 A5:R6 T5:T6 A7:T73 A75:F77 L97:T97 L98:P98 S98:T102 I99:P99 A102:R102 R106:T111 Q110:Q111 A112:T115 A116:H117 A118:J118 A119:T119 S120:T120 A121:T121 S122:T122 A123:T124">
+    <cfRule type="expression" dxfId="56" priority="143">
+      <formula>$B1&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="143">
-      <formula>$B74&lt;2</formula>
+    <cfRule type="expression" dxfId="55" priority="142">
+      <formula>$B1=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="144">
-      <formula>$B74=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:T73 T74:T77 H75:R75 H76:Q76 G77:Q77 A78:T78 K79:T79 S80:T83">
-    <cfRule type="expression" dxfId="48" priority="145">
+    <cfRule type="expression" dxfId="54" priority="141">
       <formula>$B1=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="146">
-      <formula>$B1=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="147">
-      <formula>$B1&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="148">
+    <cfRule type="expression" dxfId="53" priority="144">
       <formula>$B1=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:T96">
-    <cfRule type="expression" dxfId="44" priority="105">
+    <cfRule type="expression" dxfId="52" priority="109">
       <formula>$B84=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="106">
-      <formula>$B84=2</formula>
+    <cfRule type="expression" dxfId="51" priority="112">
+      <formula>$B84=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="107">
+    <cfRule type="expression" dxfId="50" priority="111">
       <formula>$B84&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="108">
-      <formula>$B84=0</formula>
+    <cfRule type="expression" dxfId="49" priority="110">
+      <formula>$B84=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:T103">
-    <cfRule type="expression" dxfId="40" priority="69">
+    <cfRule type="expression" dxfId="48" priority="76">
+      <formula>$B103=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="74">
+      <formula>$B103=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="73">
       <formula>$B103=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="70">
-      <formula>$B103=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="71">
+    <cfRule type="expression" dxfId="45" priority="75">
       <formula>$B103&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="72">
-      <formula>$B103=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D124">
-    <cfRule type="colorScale" priority="197">
+    <cfRule type="colorScale" priority="201">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9135,141 +9437,169 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75:G76">
-    <cfRule type="expression" dxfId="36" priority="133">
+    <cfRule type="expression" dxfId="44" priority="137">
       <formula>$B75=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="134">
+    <cfRule type="expression" dxfId="43" priority="138">
       <formula>$B75=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="135">
+    <cfRule type="expression" dxfId="42" priority="139">
       <formula>$B75&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="136">
+    <cfRule type="expression" dxfId="41" priority="140">
       <formula>$B75=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116:J117">
-    <cfRule type="expression" dxfId="32" priority="17">
-      <formula>$B117=3</formula>
+    <cfRule type="expression" dxfId="40" priority="24">
+      <formula>$B117=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="18">
+    <cfRule type="expression" dxfId="39" priority="23">
+      <formula>$B117&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="22">
       <formula>$B117=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="19">
-      <formula>$B117&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="20">
-      <formula>$B117=0</formula>
+    <cfRule type="expression" dxfId="37" priority="21">
+      <formula>$B117=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97:K98">
-    <cfRule type="expression" dxfId="28" priority="97">
-      <formula>$B97=3</formula>
+    <cfRule type="expression" dxfId="36" priority="103">
+      <formula>$B97&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="98">
+    <cfRule type="expression" dxfId="35" priority="104">
+      <formula>$B97=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="102">
       <formula>$B97=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="99">
-      <formula>$B97&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="100">
-      <formula>$B97=0</formula>
+    <cfRule type="expression" dxfId="33" priority="101">
+      <formula>$B97=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J79 O103">
-    <cfRule type="expression" dxfId="24" priority="155">
-      <formula>$B80=2</formula>
+    <cfRule type="expression" dxfId="32" priority="161">
+      <formula>$B80=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="156">
+    <cfRule type="expression" dxfId="31" priority="160">
       <formula>$B80&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="157">
-      <formula>$B80=0</formula>
+    <cfRule type="expression" dxfId="30" priority="159">
+      <formula>$B80=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K80:Q83">
-    <cfRule type="expression" dxfId="21" priority="121">
+    <cfRule type="expression" dxfId="29" priority="125">
       <formula>$B80=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="122">
+    <cfRule type="expression" dxfId="28" priority="126">
       <formula>$B80=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="123">
+    <cfRule type="expression" dxfId="27" priority="127">
       <formula>$B80&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="124">
+    <cfRule type="expression" dxfId="26" priority="128">
       <formula>$B80=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K116:Q118 S116:T118">
-    <cfRule type="expression" dxfId="17" priority="9">
-      <formula>$B116=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="25" priority="14">
       <formula>$B116=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="11">
+    <cfRule type="expression" dxfId="24" priority="15">
       <formula>$B116&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="13">
+      <formula>$B116=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K116:Q118">
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="22" priority="16">
       <formula>$B116=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O103 J79">
-    <cfRule type="expression" dxfId="13" priority="154">
+    <cfRule type="expression" dxfId="21" priority="158">
       <formula>$B80=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q106">
-    <cfRule type="expression" dxfId="12" priority="81">
+    <cfRule type="expression" dxfId="20" priority="88">
+      <formula>$B106=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="85">
       <formula>$B106=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="82">
-      <formula>$B106=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="83">
+    <cfRule type="expression" dxfId="18" priority="87">
       <formula>$B106&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="84">
-      <formula>$B106=0</formula>
+    <cfRule type="expression" dxfId="17" priority="86">
+      <formula>$B106=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q104:T105">
-    <cfRule type="expression" dxfId="8" priority="41">
+    <cfRule type="expression" dxfId="16" priority="48">
+      <formula>$B104=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="47">
+      <formula>$B104&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="46">
+      <formula>$B104=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="45">
       <formula>$B104=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="42">
-      <formula>$B104=2</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5">
+    <cfRule type="expression" dxfId="12" priority="1">
+      <formula>$B5=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="43">
-      <formula>$B104&lt;2</formula>
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>$B5=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="44">
-      <formula>$B104=0</formula>
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>$B5&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>$B5=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S75">
-    <cfRule type="expression" dxfId="4" priority="162">
-      <formula>$B74=3</formula>
+  <conditionalFormatting sqref="S6 S75">
+    <cfRule type="expression" dxfId="8" priority="166">
+      <formula>$B5=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="163">
-      <formula>$B74=2</formula>
+    <cfRule type="expression" dxfId="7" priority="167">
+      <formula>$B5=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="164">
-      <formula>$B74&lt;2</formula>
+    <cfRule type="expression" dxfId="6" priority="168">
+      <formula>$B5&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="165">
-      <formula>$B74=0</formula>
+    <cfRule type="expression" dxfId="5" priority="169">
+      <formula>$B5=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S116:T118">
-    <cfRule type="expression" dxfId="0" priority="28">
+    <cfRule type="expression" dxfId="4" priority="32">
       <formula>$B116=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="10">
+  <conditionalFormatting sqref="T74:T77 H75:R75 H76:Q76 G77:Q77 A78:T78 K79:T79 S80:T83">
+    <cfRule type="expression" dxfId="3" priority="150">
+      <formula>$B74=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="151">
+      <formula>$B74&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="152">
+      <formula>$B74=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="149">
+      <formula>$B74=3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O105:O124 O125:P132 O2:O103" xr:uid="{7C199008-9AB6-6549-A861-AD474C13E949}">
       <formula1>1950</formula1>
       <formula2>2025</formula2>
@@ -9303,6 +9633,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J124" xr:uid="{0FCCEC2F-487A-5A42-9C52-ED538456C753}">
       <formula1>"$/MWeHour,$/FTE, $/acres, $/MWe, $/m^3, $/MWt, $/Kg, $/Drum, $/(kg.sec), $/SWU, unitless"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U124" xr:uid="{8C851931-DD22-6940-94BD-3E222B1E11BE}">
+      <formula1>"No Learning, Onsite Learning, Factory Primary Structure, Factory Drums, Factory Other, Licensing Learning"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S3" r:id="rId1" xr:uid="{BA0D9C81-F547-414C-A28F-25DA56C7D1AB}"/>
@@ -9332,20 +9665,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="135" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="137" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="134"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="137"/>
+      <c r="A2" s="135"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="138"/>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="62">
@@ -10253,12 +10586,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="139" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="141"/>
     </row>
     <row r="3" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
@@ -10315,12 +10648,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="139" t="s">
         <v>252</v>
       </c>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="140"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="141"/>
     </row>
     <row r="8" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
@@ -10379,12 +10712,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="140"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="141"/>
     </row>
     <row r="13" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
@@ -10483,12 +10816,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="138" t="s">
+      <c r="A20" s="139" t="s">
         <v>275</v>
       </c>
-      <c r="B20" s="139"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="140"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="141"/>
     </row>
     <row r="21" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
@@ -10617,12 +10950,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="138" t="s">
+      <c r="A30" s="139" t="s">
         <v>288</v>
       </c>
-      <c r="B30" s="139"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="140"/>
+      <c r="B30" s="140"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="141"/>
     </row>
     <row r="31" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
@@ -10697,12 +11030,12 @@
       <c r="D36" s="60"/>
     </row>
     <row r="37" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="138" t="s">
+      <c r="A37" s="139" t="s">
         <v>295</v>
       </c>
-      <c r="B37" s="139"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="140"/>
+      <c r="B37" s="140"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="141"/>
     </row>
     <row r="38" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
@@ -10789,12 +11122,12 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="138" t="s">
+      <c r="A44" s="139" t="s">
         <v>308</v>
       </c>
-      <c r="B44" s="139"/>
-      <c r="C44" s="139"/>
-      <c r="D44" s="140"/>
+      <c r="B44" s="140"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="141"/>
     </row>
     <row r="45" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
@@ -10811,12 +11144,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="138" t="s">
+      <c r="A46" s="139" t="s">
         <v>311</v>
       </c>
-      <c r="B46" s="139"/>
-      <c r="C46" s="139"/>
-      <c r="D46" s="140"/>
+      <c r="B46" s="140"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="141"/>
     </row>
     <row r="47" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
@@ -10861,12 +11194,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="138" t="s">
+      <c r="A50" s="139" t="s">
         <v>318</v>
       </c>
-      <c r="B50" s="139"/>
-      <c r="C50" s="139"/>
-      <c r="D50" s="140"/>
+      <c r="B50" s="140"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="141"/>
     </row>
     <row r="51" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="54" t="s">
@@ -12039,19 +12372,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A358A137-1626-9343-A399-452BA3D3C6F7}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView zoomScale="164" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
     <col min="2" max="2" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="100" t="s">
         <v>395</v>
       </c>
@@ -12059,7 +12392,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>394</v>
       </c>
@@ -12068,7 +12401,7 @@
         <v>6.5389932052543287E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>404</v>
       </c>
@@ -12076,7 +12409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>405</v>
       </c>
@@ -12084,7 +12417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>406</v>
       </c>
@@ -12092,7 +12425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>407</v>
       </c>
@@ -12100,7 +12433,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>399</v>
       </c>
@@ -12108,7 +12441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>408</v>
       </c>
@@ -12116,7 +12449,78 @@
         <v>0.01</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="142" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="142"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B12">
+        <v>0.6</v>
+      </c>
+      <c r="C12" s="142"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="86" t="s">
+        <v>423</v>
+      </c>
+      <c r="B13">
+        <v>0.4</v>
+      </c>
+      <c r="C13" s="142"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B14">
+        <v>0.3</v>
+      </c>
+      <c r="C14" s="142"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C10:C14"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A14" xr:uid="{CF33C35E-6228-1344-B339-BF1C0841C758}">
+      <formula1>"No Learning, Onsite Learning, Factory Primary Structure, Factory Drums, Factory Other, Licensing Learning"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/cost/Cost_Database.xlsx
+++ b/cost/Cost_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannbn/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E81F21-968A-EC4F-B5F1-97401D01F92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2BFDAA-E146-F641-9E87-5E03007BC27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="443">
   <si>
     <t>Account</t>
   </si>
@@ -1614,20 +1614,57 @@
   <si>
     <t>Assumed Number Of Units For Onsite Learning</t>
   </si>
+  <si>
+    <t>Exponent Min</t>
+  </si>
+  <si>
+    <t>Exponent Max</t>
+  </si>
+  <si>
+    <t>Exponent std</t>
+  </si>
+  <si>
+    <t>Fixed Cost Low End</t>
+  </si>
+  <si>
+    <t>Fixed Cost High End</t>
+  </si>
+  <si>
+    <t>Unit Cost Low End</t>
+  </si>
+  <si>
+    <t>Unit Cost High End</t>
+  </si>
+  <si>
+    <t>Fixed Cost Distribution</t>
+  </si>
+  <si>
+    <t>Lognormal</t>
+  </si>
+  <si>
+    <t>Unit Cost Distribution</t>
+  </si>
+  <si>
+    <t>Exponent Distribution</t>
+  </si>
+  <si>
+    <t>Truncated Normal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1859,6 +1896,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF383A42"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2065,7 +2108,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2324,19 +2367,65 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2366,51 +2455,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2435,6 +2479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3443,11 +3488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5330BDA-7164-B946-A942-FFAE4F744BBA}">
-  <dimension ref="A1:X124"/>
+  <dimension ref="A1:AH124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="150" zoomScaleNormal="63" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U122" sqref="U122"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="63" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3472,11 +3517,18 @@
     <col min="18" max="18" width="37.1640625" style="6" customWidth="1"/>
     <col min="19" max="19" width="81.1640625" style="6" customWidth="1"/>
     <col min="20" max="20" width="18.6640625" style="6" customWidth="1"/>
-    <col min="21" max="21" width="16" style="6" customWidth="1"/>
-    <col min="22" max="16384" width="10.83203125" style="6"/>
+    <col min="21" max="22" width="16" style="6" customWidth="1"/>
+    <col min="23" max="24" width="13.6640625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="10.83203125" style="6"/>
+    <col min="26" max="27" width="14.33203125" style="6" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" style="6" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" style="6" customWidth="1"/>
+    <col min="30" max="30" width="10.83203125" style="6"/>
+    <col min="31" max="31" width="14.33203125" style="6" customWidth="1"/>
+    <col min="32" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="10" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3540,8 +3592,38 @@
       <c r="U1" s="10" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V1" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>10</v>
       </c>
@@ -3580,8 +3662,19 @@
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
       <c r="U2" s="6"/>
-    </row>
-    <row r="3" spans="1:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AH2" s="144"/>
+    </row>
+    <row r="3" spans="1:34" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>11</v>
       </c>
@@ -3618,11 +3711,15 @@
       <c r="K3" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="24"/>
+      <c r="L3" s="24">
+        <v>1</v>
+      </c>
       <c r="M3" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="23"/>
+      <c r="N3" s="23">
+        <v>1</v>
+      </c>
       <c r="O3" s="23">
         <v>2022</v>
       </c>
@@ -3632,18 +3729,53 @@
       <c r="Q3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="108" t="s">
+      <c r="R3" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="S3" s="124" t="s">
+      <c r="S3" s="119" t="s">
         <v>56</v>
       </c>
       <c r="T3" s="26"/>
       <c r="U3" s="6" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="6">
+        <f t="shared" ref="V3:V4" si="2">0.9*H3</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="6">
+        <f t="shared" ref="W3:W66" si="3">1.3*H3</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y3" s="6">
+        <f t="shared" ref="Y3:Y8" si="4">0.9*I3</f>
+        <v>3420</v>
+      </c>
+      <c r="Z3" s="6">
+        <f t="shared" ref="Z3:Z8" si="5">1.3*I3</f>
+        <v>4940</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH3" s="144"/>
+    </row>
+    <row r="4" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>12</v>
       </c>
@@ -3674,11 +3806,15 @@
       <c r="K4" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="24"/>
+      <c r="L4" s="24">
+        <v>1</v>
+      </c>
       <c r="M4" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="23"/>
+      <c r="N4" s="23">
+        <v>0.7</v>
+      </c>
       <c r="O4" s="23">
         <v>2022</v>
       </c>
@@ -3688,14 +3824,49 @@
       <c r="Q4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="108"/>
-      <c r="S4" s="124"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="119"/>
       <c r="T4" s="26"/>
       <c r="U4" s="6" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V4" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y4" s="6">
+        <f t="shared" si="4"/>
+        <v>9027</v>
+      </c>
+      <c r="Z4" s="6">
+        <f t="shared" si="5"/>
+        <v>13039</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH4" s="144"/>
+    </row>
+    <row r="5" spans="1:34" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>13</v>
       </c>
@@ -3743,8 +3914,43 @@
       <c r="U5" s="6" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="106">
+        <f>0.9*H5</f>
+        <v>40500000</v>
+      </c>
+      <c r="W5" s="6">
+        <f t="shared" si="3"/>
+        <v>58500000</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y5" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH5" s="144"/>
+    </row>
+    <row r="6" spans="1:34" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>14</v>
       </c>
@@ -3792,8 +3998,43 @@
       <c r="U6" s="6" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V6" s="106">
+        <f t="shared" ref="V6:V69" si="6">0.9*H6</f>
+        <v>2700000</v>
+      </c>
+      <c r="W6" s="6">
+        <f t="shared" si="3"/>
+        <v>3900000</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y6" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH6" s="144"/>
+    </row>
+    <row r="7" spans="1:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>15</v>
       </c>
@@ -3844,8 +4085,43 @@
       <c r="U7" s="6" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V7" s="106">
+        <f t="shared" si="6"/>
+        <v>4689405.9000000004</v>
+      </c>
+      <c r="W7" s="6">
+        <f t="shared" si="3"/>
+        <v>6773586.2999999998</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y7" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH7" s="144"/>
+    </row>
+    <row r="8" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>20</v>
       </c>
@@ -3883,8 +4159,13 @@
       <c r="R8" s="29"/>
       <c r="S8" s="29"/>
       <c r="T8" s="29"/>
-    </row>
-    <row r="9" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V8" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="144"/>
+    </row>
+    <row r="9" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>21</v>
       </c>
@@ -3915,8 +4196,13 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="26"/>
-    </row>
-    <row r="10" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V9" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="144"/>
+    </row>
+    <row r="10" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
         <v>211</v>
       </c>
@@ -3947,8 +4233,13 @@
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="26"/>
-    </row>
-    <row r="11" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V10" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="144"/>
+    </row>
+    <row r="11" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>211.1</v>
       </c>
@@ -3979,32 +4270,71 @@
       <c r="K11" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
       <c r="M11" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="N11" s="5"/>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
       <c r="O11" s="23">
         <v>2024</v>
       </c>
       <c r="P11" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="120" t="s">
+      <c r="Q11" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="R11" s="108" t="s">
+      <c r="R11" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="S11" s="109" t="s">
+      <c r="S11" s="120" t="s">
         <v>84</v>
       </c>
       <c r="T11" s="26"/>
       <c r="U11" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V11" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y11" s="6">
+        <f t="shared" ref="Y9:Y72" si="7">0.9*I11</f>
+        <v>5276.5914600000006</v>
+      </c>
+      <c r="Z11" s="6">
+        <f t="shared" ref="Z9:Z72" si="8">1.3*I11</f>
+        <v>7621.7432200000012</v>
+      </c>
+      <c r="AA11" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH11" s="144"/>
+    </row>
+    <row r="12" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
         <v>211.2</v>
       </c>
@@ -4042,26 +4372,65 @@
       <c r="K12" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
       <c r="M12" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="N12" s="5"/>
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
       <c r="O12" s="23">
         <v>2024</v>
       </c>
       <c r="P12" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="110"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="118"/>
+      <c r="S12" s="121"/>
       <c r="T12" s="26"/>
       <c r="U12" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V12" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y12" s="6">
+        <f t="shared" si="7"/>
+        <v>3070.5443999999998</v>
+      </c>
+      <c r="Z12" s="6">
+        <f t="shared" si="8"/>
+        <v>4435.2308000000003</v>
+      </c>
+      <c r="AA12" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH12" s="144"/>
+    </row>
+    <row r="13" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>211.3</v>
       </c>
@@ -4092,26 +4461,65 @@
       <c r="K13" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
       <c r="M13" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N13" s="5"/>
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
       <c r="O13" s="23">
         <v>2024</v>
       </c>
       <c r="P13" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="120"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="110"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="121"/>
       <c r="T13" s="26"/>
       <c r="U13" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V13" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y13" s="6">
+        <f t="shared" si="7"/>
+        <v>28.803599999999999</v>
+      </c>
+      <c r="Z13" s="6">
+        <f t="shared" si="8"/>
+        <v>41.605199999999996</v>
+      </c>
+      <c r="AA13" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH13" s="144"/>
+    </row>
+    <row r="14" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
         <v>212</v>
       </c>
@@ -4142,8 +4550,13 @@
       <c r="R14" s="23"/>
       <c r="S14" s="26"/>
       <c r="T14" s="26"/>
-    </row>
-    <row r="15" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V14" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="144"/>
+    </row>
+    <row r="15" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>212.1</v>
       </c>
@@ -4173,32 +4586,71 @@
       <c r="K15" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="5"/>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
       <c r="M15" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N15" s="5"/>
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
       <c r="O15" s="23">
         <v>2024</v>
       </c>
       <c r="P15" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q15" s="120" t="s">
+      <c r="Q15" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="108" t="s">
+      <c r="R15" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="S15" s="109" t="s">
+      <c r="S15" s="120" t="s">
         <v>84</v>
       </c>
       <c r="T15" s="26"/>
       <c r="U15" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V15" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y15" s="6">
+        <f t="shared" si="7"/>
+        <v>1652.4</v>
+      </c>
+      <c r="Z15" s="6">
+        <f t="shared" si="8"/>
+        <v>2386.8000000000002</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB15" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH15" s="144"/>
+    </row>
+    <row r="16" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>212.2</v>
       </c>
@@ -4229,26 +4681,65 @@
       <c r="K16" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
       <c r="M16" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N16" s="5"/>
+      <c r="N16" s="5">
+        <v>1</v>
+      </c>
       <c r="O16" s="23">
         <v>2024</v>
       </c>
       <c r="P16" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="108"/>
-      <c r="S16" s="110"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="121"/>
       <c r="T16" s="26"/>
       <c r="U16" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V16" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y16" s="6">
+        <f t="shared" si="7"/>
+        <v>1299.7502999999999</v>
+      </c>
+      <c r="Z16" s="6">
+        <f t="shared" si="8"/>
+        <v>1877.4170999999999</v>
+      </c>
+      <c r="AA16" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH16" s="144"/>
+    </row>
+    <row r="17" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>212.3</v>
       </c>
@@ -4279,26 +4770,65 @@
       <c r="K17" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="L17" s="5"/>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
       <c r="M17" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N17" s="5"/>
+      <c r="N17" s="5">
+        <v>1</v>
+      </c>
       <c r="O17" s="23">
         <v>2024</v>
       </c>
       <c r="P17" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q17" s="120"/>
-      <c r="R17" s="108"/>
-      <c r="S17" s="110"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="121"/>
       <c r="T17" s="26"/>
       <c r="U17" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V17" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y17" s="6">
+        <f t="shared" si="7"/>
+        <v>993.10617000000013</v>
+      </c>
+      <c r="Z17" s="6">
+        <f t="shared" si="8"/>
+        <v>1434.4866900000002</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH17" s="144"/>
+    </row>
+    <row r="18" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>213</v>
       </c>
@@ -4329,8 +4859,10 @@
       <c r="R18" s="25"/>
       <c r="S18" s="35"/>
       <c r="T18" s="26"/>
-    </row>
-    <row r="19" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V18" s="106"/>
+      <c r="AH18" s="144"/>
+    </row>
+    <row r="19" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>213.1</v>
       </c>
@@ -4361,8 +4893,10 @@
       <c r="R19" s="25"/>
       <c r="S19" s="35"/>
       <c r="T19" s="26"/>
-    </row>
-    <row r="20" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V19" s="106"/>
+      <c r="AH19" s="144"/>
+    </row>
+    <row r="20" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>213.11</v>
       </c>
@@ -4393,32 +4927,71 @@
       <c r="K20" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="L20" s="5"/>
+      <c r="L20" s="5">
+        <v>1</v>
+      </c>
       <c r="M20" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N20" s="5"/>
+      <c r="N20" s="5">
+        <v>1</v>
+      </c>
       <c r="O20" s="23">
         <v>2024</v>
       </c>
       <c r="P20" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q20" s="120" t="s">
+      <c r="Q20" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="R20" s="108" t="s">
+      <c r="R20" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="S20" s="109" t="s">
+      <c r="S20" s="120" t="s">
         <v>84</v>
       </c>
       <c r="T20" s="26"/>
       <c r="U20" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V20" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y20" s="6">
+        <f t="shared" si="7"/>
+        <v>1652.4</v>
+      </c>
+      <c r="Z20" s="6">
+        <f t="shared" si="8"/>
+        <v>2386.8000000000002</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB20" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH20" s="144"/>
+    </row>
+    <row r="21" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>213.12</v>
       </c>
@@ -4449,26 +5022,65 @@
       <c r="K21" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="L21" s="5"/>
+      <c r="L21" s="5">
+        <v>1</v>
+      </c>
       <c r="M21" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N21" s="5"/>
+      <c r="N21" s="5">
+        <v>1</v>
+      </c>
       <c r="O21" s="23">
         <v>2024</v>
       </c>
       <c r="P21" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q21" s="120"/>
-      <c r="R21" s="108"/>
-      <c r="S21" s="110"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="121"/>
       <c r="T21" s="26"/>
       <c r="U21" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V21" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y21" s="6">
+        <f t="shared" si="7"/>
+        <v>1299.7502999999999</v>
+      </c>
+      <c r="Z21" s="6">
+        <f t="shared" si="8"/>
+        <v>1877.4170999999999</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB21" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH21" s="144"/>
+    </row>
+    <row r="22" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>213.13</v>
       </c>
@@ -4499,26 +5111,65 @@
       <c r="K22" s="25" t="s">
         <v>413</v>
       </c>
-      <c r="L22" s="5"/>
+      <c r="L22" s="5">
+        <v>1</v>
+      </c>
       <c r="M22" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N22" s="5"/>
+      <c r="N22" s="5">
+        <v>1</v>
+      </c>
       <c r="O22" s="23">
         <v>2024</v>
       </c>
       <c r="P22" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="120"/>
-      <c r="R22" s="108"/>
-      <c r="S22" s="110"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="118"/>
+      <c r="S22" s="121"/>
       <c r="T22" s="26"/>
       <c r="U22" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V22" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y22" s="6">
+        <f t="shared" si="7"/>
+        <v>993.10617000000013</v>
+      </c>
+      <c r="Z22" s="6">
+        <f t="shared" si="8"/>
+        <v>1434.4866900000002</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB22" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH22" s="144"/>
+    </row>
+    <row r="23" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <v>213.2</v>
       </c>
@@ -4549,8 +5200,13 @@
       <c r="R23" s="25"/>
       <c r="S23" s="35"/>
       <c r="T23" s="26"/>
-    </row>
-    <row r="24" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V23" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="144"/>
+    </row>
+    <row r="24" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <v>213.21</v>
       </c>
@@ -4581,32 +5237,71 @@
       <c r="K24" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="L24" s="5"/>
+      <c r="L24" s="5">
+        <v>1</v>
+      </c>
       <c r="M24" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N24" s="5"/>
+      <c r="N24" s="5">
+        <v>1</v>
+      </c>
       <c r="O24" s="23">
         <v>2024</v>
       </c>
       <c r="P24" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q24" s="120" t="s">
+      <c r="Q24" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="R24" s="108" t="s">
+      <c r="R24" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="109" t="s">
+      <c r="S24" s="120" t="s">
         <v>84</v>
       </c>
       <c r="T24" s="26"/>
       <c r="U24" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V24" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y24" s="6">
+        <f t="shared" si="7"/>
+        <v>1652.4</v>
+      </c>
+      <c r="Z24" s="6">
+        <f t="shared" si="8"/>
+        <v>2386.8000000000002</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB24" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH24" s="144"/>
+    </row>
+    <row r="25" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
         <v>213.22</v>
       </c>
@@ -4637,26 +5332,65 @@
       <c r="K25" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="L25" s="5"/>
+      <c r="L25" s="5">
+        <v>1</v>
+      </c>
       <c r="M25" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N25" s="5"/>
+      <c r="N25" s="5">
+        <v>1</v>
+      </c>
       <c r="O25" s="23">
         <v>2024</v>
       </c>
       <c r="P25" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q25" s="120"/>
-      <c r="R25" s="108"/>
-      <c r="S25" s="110"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="121"/>
       <c r="T25" s="26"/>
       <c r="U25" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V25" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y25" s="6">
+        <f t="shared" si="7"/>
+        <v>1299.7502999999999</v>
+      </c>
+      <c r="Z25" s="6">
+        <f t="shared" si="8"/>
+        <v>1877.4170999999999</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB25" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH25" s="144"/>
+    </row>
+    <row r="26" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
         <v>213.23</v>
       </c>
@@ -4687,26 +5421,65 @@
       <c r="K26" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="L26" s="5"/>
+      <c r="L26" s="5">
+        <v>1</v>
+      </c>
       <c r="M26" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N26" s="5"/>
+      <c r="N26" s="5">
+        <v>1</v>
+      </c>
       <c r="O26" s="23">
         <v>2024</v>
       </c>
       <c r="P26" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="108"/>
-      <c r="S26" s="110"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="118"/>
+      <c r="S26" s="121"/>
       <c r="T26" s="26"/>
       <c r="U26" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V26" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y26" s="6">
+        <f t="shared" si="7"/>
+        <v>993.10617000000013</v>
+      </c>
+      <c r="Z26" s="6">
+        <f t="shared" si="8"/>
+        <v>1434.4866900000002</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB26" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH26" s="144"/>
+    </row>
+    <row r="27" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
         <v>214</v>
       </c>
@@ -4737,8 +5510,13 @@
       <c r="R27" s="23"/>
       <c r="S27" s="26"/>
       <c r="T27" s="26"/>
-    </row>
-    <row r="28" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V27" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="144"/>
+    </row>
+    <row r="28" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36">
         <v>214.1</v>
       </c>
@@ -4769,8 +5547,13 @@
       <c r="R28" s="23"/>
       <c r="S28" s="26"/>
       <c r="T28" s="26"/>
-    </row>
-    <row r="29" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V28" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="144"/>
+    </row>
+    <row r="29" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
         <v>214.11</v>
       </c>
@@ -4801,8 +5584,13 @@
       <c r="R29" s="23"/>
       <c r="S29" s="26"/>
       <c r="T29" s="26"/>
-    </row>
-    <row r="30" spans="1:21" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V29" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="144"/>
+    </row>
+    <row r="30" spans="1:34" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="77">
         <v>214.11099999999999</v>
       </c>
@@ -4833,32 +5621,50 @@
       <c r="K30" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="L30" s="81"/>
+      <c r="L30" s="81">
+        <v>1</v>
+      </c>
       <c r="M30" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="N30" s="81"/>
+      <c r="N30" s="81">
+        <v>1</v>
+      </c>
       <c r="O30" s="83">
         <v>2024</v>
       </c>
       <c r="P30" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q30" s="131" t="s">
+      <c r="Q30" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="R30" s="130" t="s">
+      <c r="R30" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="S30" s="128" t="s">
+      <c r="S30" s="125" t="s">
         <v>84</v>
       </c>
       <c r="T30" s="85"/>
       <c r="U30" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V30" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AH30" s="144"/>
+    </row>
+    <row r="31" spans="1:34" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="77">
         <v>214.11199999999999</v>
       </c>
@@ -4889,26 +5695,65 @@
       <c r="K31" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="L31" s="81"/>
+      <c r="L31" s="81">
+        <v>1</v>
+      </c>
       <c r="M31" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="N31" s="81"/>
+      <c r="N31" s="81">
+        <v>1</v>
+      </c>
       <c r="O31" s="83">
         <v>2024</v>
       </c>
       <c r="P31" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="130"/>
-      <c r="S31" s="129"/>
+      <c r="Q31" s="110"/>
+      <c r="R31" s="115"/>
+      <c r="S31" s="126"/>
       <c r="T31" s="85"/>
       <c r="U31" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V31" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y31" s="6">
+        <f t="shared" si="7"/>
+        <v>1299.7502999999999</v>
+      </c>
+      <c r="Z31" s="6">
+        <f t="shared" si="8"/>
+        <v>1877.4170999999999</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB31" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH31" s="144"/>
+    </row>
+    <row r="32" spans="1:34" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="77">
         <v>214.113</v>
       </c>
@@ -4939,26 +5784,65 @@
       <c r="K32" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="L32" s="81"/>
+      <c r="L32" s="81">
+        <v>1</v>
+      </c>
       <c r="M32" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="N32" s="81"/>
+      <c r="N32" s="81">
+        <v>1</v>
+      </c>
       <c r="O32" s="83">
         <v>2024</v>
       </c>
       <c r="P32" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q32" s="131"/>
-      <c r="R32" s="130"/>
-      <c r="S32" s="129"/>
+      <c r="Q32" s="110"/>
+      <c r="R32" s="115"/>
+      <c r="S32" s="126"/>
       <c r="T32" s="85"/>
       <c r="U32" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V32" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X32" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y32" s="6">
+        <f t="shared" si="7"/>
+        <v>993.10617000000013</v>
+      </c>
+      <c r="Z32" s="6">
+        <f t="shared" si="8"/>
+        <v>1434.4866900000002</v>
+      </c>
+      <c r="AA32" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB32" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC32" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH32" s="144"/>
+    </row>
+    <row r="33" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
         <v>214.12</v>
       </c>
@@ -4989,8 +5873,13 @@
       <c r="R33" s="23"/>
       <c r="S33" s="26"/>
       <c r="T33" s="26"/>
-    </row>
-    <row r="34" spans="1:21" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V33" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="144"/>
+    </row>
+    <row r="34" spans="1:34" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="77">
         <v>214.12100000000001</v>
       </c>
@@ -5021,32 +5910,71 @@
       <c r="K34" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="L34" s="81"/>
+      <c r="L34" s="81">
+        <v>1</v>
+      </c>
       <c r="M34" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="N34" s="81"/>
+      <c r="N34" s="81">
+        <v>1</v>
+      </c>
       <c r="O34" s="83">
         <v>2024</v>
       </c>
       <c r="P34" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q34" s="131" t="s">
+      <c r="Q34" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="R34" s="130" t="s">
+      <c r="R34" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="S34" s="128" t="s">
+      <c r="S34" s="125" t="s">
         <v>84</v>
       </c>
       <c r="T34" s="85"/>
       <c r="U34" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V34" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X34" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y34" s="6">
+        <f t="shared" si="7"/>
+        <v>1652.4</v>
+      </c>
+      <c r="Z34" s="6">
+        <f t="shared" si="8"/>
+        <v>2386.8000000000002</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB34" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC34" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH34" s="144"/>
+    </row>
+    <row r="35" spans="1:34" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="77">
         <v>214.12200000000001</v>
       </c>
@@ -5077,26 +6005,65 @@
       <c r="K35" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="L35" s="81"/>
+      <c r="L35" s="81">
+        <v>1</v>
+      </c>
       <c r="M35" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="N35" s="81"/>
+      <c r="N35" s="81">
+        <v>1</v>
+      </c>
       <c r="O35" s="83">
         <v>2024</v>
       </c>
       <c r="P35" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q35" s="131"/>
-      <c r="R35" s="130"/>
-      <c r="S35" s="129"/>
+      <c r="Q35" s="110"/>
+      <c r="R35" s="115"/>
+      <c r="S35" s="126"/>
       <c r="T35" s="85"/>
       <c r="U35" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V35" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y35" s="6">
+        <f t="shared" si="7"/>
+        <v>1299.7502999999999</v>
+      </c>
+      <c r="Z35" s="6">
+        <f t="shared" si="8"/>
+        <v>1877.4170999999999</v>
+      </c>
+      <c r="AA35" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB35" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC35" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH35" s="144"/>
+    </row>
+    <row r="36" spans="1:34" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="77">
         <v>214.12299999999999</v>
       </c>
@@ -5127,26 +6094,65 @@
       <c r="K36" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="L36" s="81"/>
+      <c r="L36" s="81">
+        <v>1</v>
+      </c>
       <c r="M36" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="N36" s="81"/>
+      <c r="N36" s="81">
+        <v>1</v>
+      </c>
       <c r="O36" s="83">
         <v>2024</v>
       </c>
       <c r="P36" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q36" s="131"/>
-      <c r="R36" s="130"/>
-      <c r="S36" s="129"/>
+      <c r="Q36" s="110"/>
+      <c r="R36" s="115"/>
+      <c r="S36" s="126"/>
       <c r="T36" s="85"/>
       <c r="U36" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V36" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y36" s="6">
+        <f t="shared" si="7"/>
+        <v>993.10617000000013</v>
+      </c>
+      <c r="Z36" s="6">
+        <f t="shared" si="8"/>
+        <v>1434.4866900000002</v>
+      </c>
+      <c r="AA36" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB36" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC36" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH36" s="144"/>
+    </row>
+    <row r="37" spans="1:34" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="36">
         <v>214.7</v>
       </c>
@@ -5177,8 +6183,13 @@
       <c r="R37" s="23"/>
       <c r="S37" s="26"/>
       <c r="T37" s="26"/>
-    </row>
-    <row r="38" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V37" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="144"/>
+    </row>
+    <row r="38" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
         <v>214.71</v>
       </c>
@@ -5209,8 +6220,13 @@
       <c r="R38" s="23"/>
       <c r="S38" s="26"/>
       <c r="T38" s="26"/>
-    </row>
-    <row r="39" spans="1:21" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V38" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH38" s="144"/>
+    </row>
+    <row r="39" spans="1:34" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="77">
         <v>214.71100000000001</v>
       </c>
@@ -5241,32 +6257,71 @@
       <c r="K39" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="L39" s="81"/>
+      <c r="L39" s="81">
+        <v>1</v>
+      </c>
       <c r="M39" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="N39" s="81"/>
+      <c r="N39" s="81">
+        <v>1</v>
+      </c>
       <c r="O39" s="83">
         <v>2024</v>
       </c>
       <c r="P39" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q39" s="131" t="s">
+      <c r="Q39" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="R39" s="130" t="s">
+      <c r="R39" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="S39" s="128" t="s">
+      <c r="S39" s="125" t="s">
         <v>84</v>
       </c>
       <c r="T39" s="85"/>
       <c r="U39" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V39" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X39" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y39" s="6">
+        <f t="shared" si="7"/>
+        <v>1652.4</v>
+      </c>
+      <c r="Z39" s="6">
+        <f t="shared" si="8"/>
+        <v>2386.8000000000002</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB39" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC39" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH39" s="144"/>
+    </row>
+    <row r="40" spans="1:34" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="77">
         <v>214.71199999999999</v>
       </c>
@@ -5297,26 +6352,65 @@
       <c r="K40" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="L40" s="81"/>
+      <c r="L40" s="81">
+        <v>1</v>
+      </c>
       <c r="M40" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="N40" s="81"/>
+      <c r="N40" s="81">
+        <v>1</v>
+      </c>
       <c r="O40" s="83">
         <v>2024</v>
       </c>
       <c r="P40" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q40" s="131"/>
-      <c r="R40" s="130"/>
-      <c r="S40" s="129"/>
+      <c r="Q40" s="110"/>
+      <c r="R40" s="115"/>
+      <c r="S40" s="126"/>
       <c r="T40" s="85"/>
       <c r="U40" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V40" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y40" s="6">
+        <f t="shared" si="7"/>
+        <v>1299.7502999999999</v>
+      </c>
+      <c r="Z40" s="6">
+        <f t="shared" si="8"/>
+        <v>1877.4170999999999</v>
+      </c>
+      <c r="AA40" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB40" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC40" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH40" s="144"/>
+    </row>
+    <row r="41" spans="1:34" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="77">
         <v>214.71299999999999</v>
       </c>
@@ -5347,26 +6441,65 @@
       <c r="K41" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="L41" s="81"/>
+      <c r="L41" s="81">
+        <v>1</v>
+      </c>
       <c r="M41" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="N41" s="81"/>
+      <c r="N41" s="81">
+        <v>1</v>
+      </c>
       <c r="O41" s="83">
         <v>2024</v>
       </c>
       <c r="P41" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q41" s="131"/>
-      <c r="R41" s="130"/>
-      <c r="S41" s="129"/>
+      <c r="Q41" s="110"/>
+      <c r="R41" s="115"/>
+      <c r="S41" s="126"/>
       <c r="T41" s="85"/>
       <c r="U41" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V41" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y41" s="6">
+        <f t="shared" si="7"/>
+        <v>993.10617000000013</v>
+      </c>
+      <c r="Z41" s="6">
+        <f t="shared" si="8"/>
+        <v>1434.4866900000002</v>
+      </c>
+      <c r="AA41" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB41" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC41" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH41" s="144"/>
+    </row>
+    <row r="42" spans="1:34" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36">
         <v>214.72</v>
       </c>
@@ -5426,8 +6559,43 @@
       <c r="U42" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V42" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y42" s="6">
+        <f t="shared" si="7"/>
+        <v>2445580.4096385543</v>
+      </c>
+      <c r="Z42" s="6">
+        <f t="shared" si="8"/>
+        <v>3532505.0361445784</v>
+      </c>
+      <c r="AA42" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB42" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC42" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH42" s="144"/>
+    </row>
+    <row r="43" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="36">
         <v>215</v>
       </c>
@@ -5458,8 +6626,13 @@
       <c r="R43" s="25"/>
       <c r="S43" s="39"/>
       <c r="T43" s="26"/>
-    </row>
-    <row r="44" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V43" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH43" s="144"/>
+    </row>
+    <row r="44" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="36">
         <v>215.1</v>
       </c>
@@ -5490,8 +6663,13 @@
       <c r="R44" s="25"/>
       <c r="S44" s="39"/>
       <c r="T44" s="26"/>
-    </row>
-    <row r="45" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V44" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH44" s="144"/>
+    </row>
+    <row r="45" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="36">
         <v>215.11</v>
       </c>
@@ -5522,32 +6700,71 @@
       <c r="K45" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="L45" s="23"/>
+      <c r="L45" s="23">
+        <v>1</v>
+      </c>
       <c r="M45" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N45" s="23"/>
+      <c r="N45" s="23">
+        <v>1</v>
+      </c>
       <c r="O45" s="23">
         <v>2024</v>
       </c>
       <c r="P45" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q45" s="120" t="s">
+      <c r="Q45" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="R45" s="108" t="s">
+      <c r="R45" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="S45" s="109" t="s">
+      <c r="S45" s="120" t="s">
         <v>84</v>
       </c>
       <c r="T45" s="26"/>
       <c r="U45" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V45" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y45" s="6">
+        <f t="shared" si="7"/>
+        <v>1652.4</v>
+      </c>
+      <c r="Z45" s="6">
+        <f t="shared" si="8"/>
+        <v>2386.8000000000002</v>
+      </c>
+      <c r="AA45" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB45" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC45" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH45" s="144"/>
+    </row>
+    <row r="46" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="36">
         <v>215.12</v>
       </c>
@@ -5578,26 +6795,65 @@
       <c r="K46" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="L46" s="23"/>
+      <c r="L46" s="23">
+        <v>1</v>
+      </c>
       <c r="M46" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N46" s="23"/>
+      <c r="N46" s="23">
+        <v>1</v>
+      </c>
       <c r="O46" s="23">
         <v>2024</v>
       </c>
       <c r="P46" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q46" s="120"/>
-      <c r="R46" s="108"/>
-      <c r="S46" s="110"/>
+      <c r="Q46" s="111"/>
+      <c r="R46" s="118"/>
+      <c r="S46" s="121"/>
       <c r="T46" s="26"/>
       <c r="U46" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V46" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y46" s="6">
+        <f t="shared" si="7"/>
+        <v>1299.7502999999999</v>
+      </c>
+      <c r="Z46" s="6">
+        <f t="shared" si="8"/>
+        <v>1877.4170999999999</v>
+      </c>
+      <c r="AA46" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB46" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC46" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH46" s="144"/>
+    </row>
+    <row r="47" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="36">
         <v>215.13</v>
       </c>
@@ -5628,26 +6884,65 @@
       <c r="K47" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="L47" s="23"/>
+      <c r="L47" s="23">
+        <v>1</v>
+      </c>
       <c r="M47" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N47" s="23"/>
+      <c r="N47" s="23">
+        <v>1</v>
+      </c>
       <c r="O47" s="23">
         <v>2024</v>
       </c>
       <c r="P47" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q47" s="120"/>
-      <c r="R47" s="108"/>
-      <c r="S47" s="110"/>
+      <c r="Q47" s="111"/>
+      <c r="R47" s="118"/>
+      <c r="S47" s="121"/>
       <c r="T47" s="26"/>
       <c r="U47" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V47" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W47" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X47" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y47" s="6">
+        <f t="shared" si="7"/>
+        <v>993.10617000000013</v>
+      </c>
+      <c r="Z47" s="6">
+        <f t="shared" si="8"/>
+        <v>1434.4866900000002</v>
+      </c>
+      <c r="AA47" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB47" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC47" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH47" s="144"/>
+    </row>
+    <row r="48" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
         <v>215.4</v>
       </c>
@@ -5678,8 +6973,13 @@
       <c r="R48" s="25"/>
       <c r="S48" s="39"/>
       <c r="T48" s="26"/>
-    </row>
-    <row r="49" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V48" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH48" s="144"/>
+    </row>
+    <row r="49" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="36">
         <v>215.41</v>
       </c>
@@ -5710,32 +7010,71 @@
       <c r="K49" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="L49" s="23"/>
+      <c r="L49" s="23">
+        <v>1</v>
+      </c>
       <c r="M49" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N49" s="23"/>
+      <c r="N49" s="23">
+        <v>1</v>
+      </c>
       <c r="O49" s="23">
         <v>2024</v>
       </c>
       <c r="P49" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q49" s="120" t="s">
+      <c r="Q49" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="R49" s="108" t="s">
+      <c r="R49" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="S49" s="109" t="s">
+      <c r="S49" s="120" t="s">
         <v>84</v>
       </c>
       <c r="T49" s="26"/>
       <c r="U49" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V49" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y49" s="6">
+        <f t="shared" si="7"/>
+        <v>1652.4</v>
+      </c>
+      <c r="Z49" s="6">
+        <f t="shared" si="8"/>
+        <v>2386.8000000000002</v>
+      </c>
+      <c r="AA49" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB49" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC49" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH49" s="144"/>
+    </row>
+    <row r="50" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
         <v>215.42</v>
       </c>
@@ -5766,26 +7105,65 @@
       <c r="K50" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="L50" s="23"/>
+      <c r="L50" s="23">
+        <v>1</v>
+      </c>
       <c r="M50" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N50" s="23"/>
+      <c r="N50" s="23">
+        <v>1</v>
+      </c>
       <c r="O50" s="23">
         <v>2024</v>
       </c>
       <c r="P50" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q50" s="120"/>
-      <c r="R50" s="108"/>
-      <c r="S50" s="110"/>
+      <c r="Q50" s="111"/>
+      <c r="R50" s="118"/>
+      <c r="S50" s="121"/>
       <c r="T50" s="26"/>
       <c r="U50" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V50" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W50" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X50" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y50" s="6">
+        <f t="shared" si="7"/>
+        <v>1299.7502999999999</v>
+      </c>
+      <c r="Z50" s="6">
+        <f t="shared" si="8"/>
+        <v>1877.4170999999999</v>
+      </c>
+      <c r="AA50" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB50" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC50" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH50" s="144"/>
+    </row>
+    <row r="51" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="36">
         <v>215.43</v>
       </c>
@@ -5816,26 +7194,65 @@
       <c r="K51" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="L51" s="23"/>
+      <c r="L51" s="23">
+        <v>1</v>
+      </c>
       <c r="M51" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N51" s="23"/>
+      <c r="N51" s="23">
+        <v>1</v>
+      </c>
       <c r="O51" s="23">
         <v>2024</v>
       </c>
       <c r="P51" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q51" s="120"/>
-      <c r="R51" s="108"/>
-      <c r="S51" s="110"/>
+      <c r="Q51" s="111"/>
+      <c r="R51" s="118"/>
+      <c r="S51" s="121"/>
       <c r="T51" s="26"/>
       <c r="U51" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V51" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W51" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X51" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y51" s="6">
+        <f t="shared" si="7"/>
+        <v>993.10617000000013</v>
+      </c>
+      <c r="Z51" s="6">
+        <f t="shared" si="8"/>
+        <v>1434.4866900000002</v>
+      </c>
+      <c r="AA51" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB51" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC51" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH51" s="144"/>
+    </row>
+    <row r="52" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>22</v>
       </c>
@@ -5866,8 +7283,13 @@
       <c r="R52" s="26"/>
       <c r="S52" s="26"/>
       <c r="T52" s="26"/>
-    </row>
-    <row r="53" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V52" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH52" s="144"/>
+    </row>
+    <row r="53" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="36">
         <v>221</v>
       </c>
@@ -5898,8 +7320,13 @@
       <c r="R53" s="26"/>
       <c r="S53" s="26"/>
       <c r="T53" s="26"/>
-    </row>
-    <row r="54" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V53" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH53" s="144"/>
+    </row>
+    <row r="54" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="36">
         <v>221.1</v>
       </c>
@@ -5930,8 +7357,13 @@
       <c r="R54" s="26"/>
       <c r="S54" s="26"/>
       <c r="T54" s="26"/>
-    </row>
-    <row r="55" spans="1:21" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V54" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH54" s="144"/>
+    </row>
+    <row r="55" spans="1:34" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="36">
         <v>221.11</v>
       </c>
@@ -5981,10 +7413,10 @@
       <c r="Q55" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R55" s="125" t="s">
+      <c r="R55" s="122" t="s">
         <v>178</v>
       </c>
-      <c r="S55" s="111" t="s">
+      <c r="S55" s="127" t="s">
         <v>182</v>
       </c>
       <c r="T55" s="42" t="s">
@@ -5993,8 +7425,43 @@
       <c r="U55" s="6" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V55" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X55" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y55" s="6">
+        <f t="shared" si="7"/>
+        <v>280.40219043727012</v>
+      </c>
+      <c r="Z55" s="6">
+        <f t="shared" si="8"/>
+        <v>405.02538618716795</v>
+      </c>
+      <c r="AA55" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB55" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC55" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD55" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH55" s="144"/>
+    </row>
+    <row r="56" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="36">
         <v>221.12</v>
       </c>
@@ -6044,14 +7511,49 @@
       <c r="Q56" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R56" s="126"/>
-      <c r="S56" s="112"/>
+      <c r="R56" s="123"/>
+      <c r="S56" s="128"/>
       <c r="T56" s="26"/>
       <c r="U56" s="6" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V56" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W56" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X56" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y56" s="6">
+        <f t="shared" si="7"/>
+        <v>681.48691871455583</v>
+      </c>
+      <c r="Z56" s="6">
+        <f t="shared" si="8"/>
+        <v>984.36999369880277</v>
+      </c>
+      <c r="AA56" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB56" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC56" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD56" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH56" s="144"/>
+    </row>
+    <row r="57" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="36">
         <v>221.13</v>
       </c>
@@ -6104,16 +7606,51 @@
       <c r="Q57" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R57" s="127"/>
-      <c r="S57" s="113"/>
+      <c r="R57" s="124"/>
+      <c r="S57" s="129"/>
       <c r="T57" s="42" t="s">
         <v>181</v>
       </c>
       <c r="U57" s="6" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V57" s="106">
+        <f t="shared" si="6"/>
+        <v>3032500.14</v>
+      </c>
+      <c r="W57" s="6">
+        <f t="shared" si="3"/>
+        <v>4380277.9800000004</v>
+      </c>
+      <c r="X57" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y57" s="6">
+        <f t="shared" si="7"/>
+        <v>1591.5202325581397</v>
+      </c>
+      <c r="Z57" s="6">
+        <f t="shared" si="8"/>
+        <v>2298.8625581395349</v>
+      </c>
+      <c r="AA57" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB57" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC57" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH57" s="144"/>
+    </row>
+    <row r="58" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="36">
         <v>221.2</v>
       </c>
@@ -6144,8 +7681,13 @@
       <c r="R58" s="26"/>
       <c r="S58" s="26"/>
       <c r="T58" s="26"/>
-    </row>
-    <row r="59" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V58" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH58" s="144"/>
+    </row>
+    <row r="59" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="36">
         <v>221.21</v>
       </c>
@@ -6176,8 +7718,13 @@
       <c r="R59" s="26"/>
       <c r="S59" s="26"/>
       <c r="T59" s="26"/>
-    </row>
-    <row r="60" spans="1:21" s="86" customFormat="1" ht="40" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="V59" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH59" s="144"/>
+    </row>
+    <row r="60" spans="1:34" s="86" customFormat="1" ht="41" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="77">
         <v>221.21100000000001</v>
       </c>
@@ -6206,9 +7753,7 @@
       <c r="K60" s="90"/>
       <c r="L60" s="85"/>
       <c r="M60" s="85"/>
-      <c r="N60" s="85">
-        <v>1</v>
-      </c>
+      <c r="N60" s="85"/>
       <c r="O60" s="85">
         <v>2024</v>
       </c>
@@ -6218,10 +7763,10 @@
       <c r="Q60" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R60" s="114" t="s">
+      <c r="R60" s="130" t="s">
         <v>178</v>
       </c>
-      <c r="S60" s="117" t="s">
+      <c r="S60" s="133" t="s">
         <v>347</v>
       </c>
       <c r="T60" s="90" t="s">
@@ -6230,8 +7775,43 @@
       <c r="U60" s="86" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" s="86" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="V60" s="106">
+        <f t="shared" si="6"/>
+        <v>1252404</v>
+      </c>
+      <c r="W60" s="6">
+        <f t="shared" si="3"/>
+        <v>1809028</v>
+      </c>
+      <c r="X60" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y60" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z60" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA60" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB60" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC60" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH60" s="144"/>
+    </row>
+    <row r="61" spans="1:34" s="86" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="77">
         <v>221.21199999999999</v>
       </c>
@@ -6270,14 +7850,49 @@
       <c r="Q61" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R61" s="115"/>
-      <c r="S61" s="118"/>
+      <c r="R61" s="131"/>
+      <c r="S61" s="134"/>
       <c r="T61" s="85"/>
       <c r="U61" s="86" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="V61" s="106">
+        <f t="shared" si="6"/>
+        <v>290396.7</v>
+      </c>
+      <c r="W61" s="6">
+        <f t="shared" si="3"/>
+        <v>419461.9</v>
+      </c>
+      <c r="X61" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y61" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z61" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA61" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB61" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC61" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH61" s="144"/>
+    </row>
+    <row r="62" spans="1:34" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="77">
         <v>221.21299999999999</v>
       </c>
@@ -6331,14 +7946,49 @@
       <c r="Q62" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R62" s="115"/>
-      <c r="S62" s="118"/>
+      <c r="R62" s="131"/>
+      <c r="S62" s="134"/>
       <c r="T62" s="85"/>
       <c r="U62" s="86" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="V62" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W62" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X62" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y62" s="6">
+        <f t="shared" si="7"/>
+        <v>12857.142857142859</v>
+      </c>
+      <c r="Z62" s="6">
+        <f t="shared" si="8"/>
+        <v>18571.428571428572</v>
+      </c>
+      <c r="AA62" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB62" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC62" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD62" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH62" s="144"/>
+    </row>
+    <row r="63" spans="1:34" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="77">
         <v>221.214</v>
       </c>
@@ -6392,19 +8042,54 @@
       <c r="Q63" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R63" s="116"/>
-      <c r="S63" s="119"/>
+      <c r="R63" s="132"/>
+      <c r="S63" s="135"/>
       <c r="T63" s="85"/>
       <c r="U63" s="86" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="V63" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W63" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X63" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y63" s="6">
+        <f t="shared" si="7"/>
+        <v>9056.6037735849059</v>
+      </c>
+      <c r="Z63" s="6">
+        <f t="shared" si="8"/>
+        <v>13081.761006289309</v>
+      </c>
+      <c r="AA63" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB63" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC63" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD63" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH63" s="144"/>
+    </row>
+    <row r="64" spans="1:34" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="77">
         <v>221.214</v>
       </c>
       <c r="B64" s="78">
-        <f t="shared" ref="B64" si="2">IF(ISNUMBER(A64),
+        <f t="shared" ref="B64" si="9">IF(ISNUMBER(A64),
     IF(AND(A64=INT(A64), MOD(A64, 10) = 0), 0,
         IF(AND(A64=INT(A64), LEN(A64)=2), 1,
             IF(AND(A64=INT(A64), LEN(A64)=3), 2,
@@ -6418,7 +8103,7 @@
         <v>185</v>
       </c>
       <c r="D64" s="80" t="str">
-        <f t="shared" ref="D64" si="3">REPT("   ", B64*2) &amp; C64</f>
+        <f t="shared" ref="D64" si="10">REPT("   ", B64*2) &amp; C64</f>
         <v xml:space="preserve">                              Control Drums Materials (Reflector)</v>
       </c>
       <c r="E64" s="80" t="s">
@@ -6466,8 +8151,43 @@
       <c r="U64" s="86" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V64" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W64" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X64" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y64" s="6">
+        <f t="shared" si="7"/>
+        <v>40263.157894736847</v>
+      </c>
+      <c r="Z64" s="6">
+        <f t="shared" si="8"/>
+        <v>58157.894736842107</v>
+      </c>
+      <c r="AA64" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB64" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC64" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD64" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH64" s="144"/>
+    </row>
+    <row r="65" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="36">
         <v>221.3</v>
       </c>
@@ -6496,8 +8216,43 @@
       <c r="R65" s="26"/>
       <c r="S65" s="26"/>
       <c r="T65" s="26"/>
-    </row>
-    <row r="66" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V65" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W65" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X65" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y65" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z65" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA65" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB65" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC65" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH65" s="144"/>
+    </row>
+    <row r="66" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="36">
         <v>221.31</v>
       </c>
@@ -6554,23 +8309,58 @@
       <c r="Q66" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R66" s="125" t="s">
+      <c r="R66" s="122" t="s">
         <v>178</v>
       </c>
-      <c r="S66" s="111" t="s">
+      <c r="S66" s="127" t="s">
         <v>182</v>
       </c>
       <c r="T66" s="26"/>
       <c r="U66" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V66" s="106">
+        <f t="shared" si="6"/>
+        <v>108207.90000000001</v>
+      </c>
+      <c r="W66" s="6">
+        <f t="shared" si="3"/>
+        <v>156300.30000000002</v>
+      </c>
+      <c r="X66" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y66" s="6">
+        <f t="shared" si="7"/>
+        <v>9056.6037735849059</v>
+      </c>
+      <c r="Z66" s="6">
+        <f t="shared" si="8"/>
+        <v>13081.761006289309</v>
+      </c>
+      <c r="AA66" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB66" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC66" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD66" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH66" s="144"/>
+    </row>
+    <row r="67" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="36">
         <v>221.31</v>
       </c>
       <c r="B67" s="17">
-        <f t="shared" ref="B67" si="4">IF(ISNUMBER(A67),
+        <f t="shared" ref="B67" si="11">IF(ISNUMBER(A67),
     IF(AND(A67=INT(A67), MOD(A67, 10) = 0), 0,
         IF(AND(A67=INT(A67), LEN(A67)=2), 1,
             IF(AND(A67=INT(A67), LEN(A67)=3), 2,
@@ -6584,7 +8374,7 @@
         <v>13</v>
       </c>
       <c r="D67" s="19" t="str">
-        <f t="shared" ref="D67" si="5">REPT("   ", B67*2) &amp; C67</f>
+        <f t="shared" ref="D67" si="12">REPT("   ", B67*2) &amp; C67</f>
         <v xml:space="preserve">                        Reflector</v>
       </c>
       <c r="E67" s="19" t="s">
@@ -6626,14 +8416,49 @@
       <c r="Q67" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R67" s="126"/>
-      <c r="S67" s="112"/>
+      <c r="R67" s="123"/>
+      <c r="S67" s="128"/>
       <c r="T67" s="26"/>
       <c r="U67" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V67" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W67" s="6">
+        <f t="shared" ref="W67:W124" si="13">1.3*H67</f>
+        <v>0</v>
+      </c>
+      <c r="X67" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y67" s="6">
+        <f t="shared" si="7"/>
+        <v>40263.157894736847</v>
+      </c>
+      <c r="Z67" s="6">
+        <f t="shared" si="8"/>
+        <v>58157.894736842107</v>
+      </c>
+      <c r="AA67" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB67" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC67" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD67" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH67" s="144"/>
+    </row>
+    <row r="68" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="36">
         <v>221.32</v>
       </c>
@@ -6661,11 +8486,13 @@
       <c r="O68" s="26"/>
       <c r="P68" s="26"/>
       <c r="Q68" s="42"/>
-      <c r="R68" s="126"/>
-      <c r="S68" s="112"/>
+      <c r="R68" s="123"/>
+      <c r="S68" s="128"/>
       <c r="T68" s="26"/>
-    </row>
-    <row r="69" spans="1:21" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V68" s="106"/>
+      <c r="AH68" s="144"/>
+    </row>
+    <row r="69" spans="1:34" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="77">
         <v>221.321</v>
       </c>
@@ -6722,14 +8549,49 @@
       <c r="Q69" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R69" s="126"/>
-      <c r="S69" s="112"/>
+      <c r="R69" s="123"/>
+      <c r="S69" s="128"/>
       <c r="T69" s="85"/>
       <c r="U69" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V69" s="106">
+        <f t="shared" si="6"/>
+        <v>583191.54</v>
+      </c>
+      <c r="W69" s="6">
+        <f t="shared" si="13"/>
+        <v>842387.78</v>
+      </c>
+      <c r="X69" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y69" s="6">
+        <f t="shared" si="7"/>
+        <v>12857.142857142859</v>
+      </c>
+      <c r="Z69" s="6">
+        <f t="shared" si="8"/>
+        <v>18571.428571428572</v>
+      </c>
+      <c r="AA69" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB69" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC69" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD69" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH69" s="144"/>
+    </row>
+    <row r="70" spans="1:34" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="77">
         <v>221.322</v>
       </c>
@@ -6782,14 +8644,49 @@
       <c r="Q70" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R70" s="127"/>
-      <c r="S70" s="113"/>
+      <c r="R70" s="124"/>
+      <c r="S70" s="129"/>
       <c r="T70" s="85"/>
       <c r="U70" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V70" s="106">
+        <f t="shared" ref="V70:V124" si="14">0.9*H70</f>
+        <v>0</v>
+      </c>
+      <c r="W70" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X70" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y70" s="6">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="Z70" s="6">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="AA70" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB70" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC70" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD70" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH70" s="144"/>
+    </row>
+    <row r="71" spans="1:34" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="36">
         <v>221.33</v>
       </c>
@@ -6823,10 +8720,15 @@
       <c r="K71" s="42" t="s">
         <v>337</v>
       </c>
+      <c r="L71" s="6">
+        <v>1</v>
+      </c>
       <c r="M71" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="N71" s="26"/>
+      <c r="N71" s="26">
+        <v>1</v>
+      </c>
       <c r="O71" s="26">
         <v>2017</v>
       </c>
@@ -6844,8 +8746,43 @@
       <c r="U71" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V71" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W71" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X71" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y71" s="6">
+        <f t="shared" si="7"/>
+        <v>1368</v>
+      </c>
+      <c r="Z71" s="6">
+        <f t="shared" si="8"/>
+        <v>1976</v>
+      </c>
+      <c r="AA71" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB71" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC71" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD71" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH71" s="144"/>
+    </row>
+    <row r="72" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="36">
         <v>221.33</v>
       </c>
@@ -6879,10 +8816,15 @@
       <c r="K72" s="42" t="s">
         <v>337</v>
       </c>
+      <c r="L72" s="6">
+        <v>1</v>
+      </c>
       <c r="M72" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="N72" s="26"/>
+      <c r="N72" s="26">
+        <v>1</v>
+      </c>
       <c r="O72" s="26">
         <v>2024</v>
       </c>
@@ -6898,8 +8840,43 @@
       <c r="U72" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V72" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W72" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X72" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y72" s="6">
+        <f t="shared" si="7"/>
+        <v>67.5</v>
+      </c>
+      <c r="Z72" s="6">
+        <f t="shared" si="8"/>
+        <v>97.5</v>
+      </c>
+      <c r="AA72" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB72" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC72" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD72" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH72" s="144"/>
+    </row>
+    <row r="73" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="36">
         <v>222</v>
       </c>
@@ -6929,13 +8906,18 @@
       <c r="R73" s="74"/>
       <c r="S73" s="26"/>
       <c r="T73" s="26"/>
-    </row>
-    <row r="74" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V73" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH73" s="144"/>
+    </row>
+    <row r="74" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="36">
         <v>222.1</v>
       </c>
       <c r="B74" s="17">
-        <f t="shared" ref="B74:B80" si="6">IF(ISNUMBER(A74),
+        <f t="shared" ref="B74:B80" si="15">IF(ISNUMBER(A74),
     IF(AND(A74=INT(A74), MOD(A74, 10) = 0), 0,
         IF(AND(A74=INT(A74), LEN(A74)=2), 1,
             IF(AND(A74=INT(A74), LEN(A74)=3), 2,
@@ -6967,13 +8949,18 @@
       <c r="R74" s="26"/>
       <c r="S74" s="26"/>
       <c r="T74" s="26"/>
-    </row>
-    <row r="75" spans="1:21" ht="61" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V74" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH74" s="144"/>
+    </row>
+    <row r="75" spans="1:34" ht="61" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30">
         <v>222.11</v>
       </c>
       <c r="B75" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="C75" s="37" t="s">
@@ -7017,23 +9004,58 @@
       <c r="Q75" s="42" t="s">
         <v>349</v>
       </c>
-      <c r="R75" s="106" t="s">
+      <c r="R75" s="112" t="s">
         <v>348</v>
       </c>
-      <c r="S75" s="122" t="s">
+      <c r="S75" s="116" t="s">
         <v>350</v>
       </c>
-      <c r="T75" s="106"/>
+      <c r="T75" s="112"/>
       <c r="U75" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V75" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W75" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X75" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y75" s="6">
+        <f t="shared" ref="Y73:Y124" si="16">0.9*I75</f>
+        <v>7936.6500000000005</v>
+      </c>
+      <c r="Z75" s="6">
+        <f t="shared" ref="Z73:Z124" si="17">1.3*I75</f>
+        <v>11464.050000000001</v>
+      </c>
+      <c r="AA75" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB75" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC75" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD75" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH75" s="144"/>
+    </row>
+    <row r="76" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="30">
         <v>222.12</v>
       </c>
       <c r="B76" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="C76" s="37" t="s">
@@ -7076,26 +9098,61 @@
       <c r="Q76" s="42" t="s">
         <v>343</v>
       </c>
-      <c r="R76" s="107"/>
-      <c r="S76" s="123"/>
-      <c r="T76" s="107"/>
+      <c r="R76" s="114"/>
+      <c r="S76" s="117"/>
+      <c r="T76" s="114"/>
       <c r="U76" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V76" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W76" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X76" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y76" s="6">
+        <f t="shared" si="16"/>
+        <v>634.93200000000002</v>
+      </c>
+      <c r="Z76" s="6">
+        <f t="shared" si="17"/>
+        <v>917.12400000000002</v>
+      </c>
+      <c r="AA76" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB76" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC76" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD76" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH76" s="144"/>
+    </row>
+    <row r="77" spans="1:34" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="30">
         <v>222.13</v>
       </c>
       <c r="B77" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="C77" s="37" t="s">
         <v>359</v>
       </c>
       <c r="D77" s="19" t="str">
-        <f t="shared" ref="D77" si="7">REPT("   ", B77*2) &amp; C77</f>
+        <f t="shared" ref="D77" si="18">REPT("   ", B77*2) &amp; C77</f>
         <v xml:space="preserve">                        Compressor</v>
       </c>
       <c r="E77" s="19" t="s">
@@ -7139,13 +9196,48 @@
       <c r="U77" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V77" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W77" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X77" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y77" s="6">
+        <f t="shared" si="16"/>
+        <v>40.239000000000004</v>
+      </c>
+      <c r="Z77" s="6">
+        <f t="shared" si="17"/>
+        <v>58.123000000000005</v>
+      </c>
+      <c r="AA77" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB77" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC77" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD77" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH77" s="144"/>
+    </row>
+    <row r="78" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="36">
         <v>222.2</v>
       </c>
       <c r="B78" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C78" s="37" t="s">
@@ -7190,13 +9282,48 @@
       <c r="U78" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V78" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W78" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X78" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y78" s="6">
+        <f t="shared" si="16"/>
+        <v>18000</v>
+      </c>
+      <c r="Z78" s="6">
+        <f t="shared" si="17"/>
+        <v>26000</v>
+      </c>
+      <c r="AA78" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB78" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC78" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD78" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE78" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH78" s="144"/>
+    </row>
+    <row r="79" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="36">
         <v>222.3</v>
       </c>
       <c r="B79" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C79" s="37" t="s">
@@ -7222,13 +9349,18 @@
       <c r="R79" s="26"/>
       <c r="S79" s="26"/>
       <c r="T79" s="26"/>
-    </row>
-    <row r="80" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V79" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH79" s="144"/>
+    </row>
+    <row r="80" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="36">
         <v>222.31</v>
       </c>
       <c r="B80" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="C80" s="37" t="s">
@@ -7257,11 +9389,15 @@
       <c r="K80" s="42" t="s">
         <v>366</v>
       </c>
-      <c r="L80" s="26"/>
+      <c r="L80" s="26">
+        <v>1</v>
+      </c>
       <c r="M80" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="N80" s="26"/>
+      <c r="N80" s="26">
+        <v>1</v>
+      </c>
       <c r="O80" s="26">
         <v>2004</v>
       </c>
@@ -7279,13 +9415,48 @@
       <c r="U80" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V80" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W80" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X80" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y80" s="6">
+        <f t="shared" si="16"/>
+        <v>45</v>
+      </c>
+      <c r="Z80" s="6">
+        <f t="shared" si="17"/>
+        <v>65</v>
+      </c>
+      <c r="AA80" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB80" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC80" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD80" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE80" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH80" s="144"/>
+    </row>
+    <row r="81" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36">
         <v>222.31</v>
       </c>
       <c r="B81" s="17">
-        <f t="shared" ref="B81" si="8">IF(ISNUMBER(A81),
+        <f t="shared" ref="B81" si="19">IF(ISNUMBER(A81),
     IF(AND(A81=INT(A81), MOD(A81, 10) = 0), 0,
         IF(AND(A81=INT(A81), LEN(A81)=2), 1,
             IF(AND(A81=INT(A81), LEN(A81)=3), 2,
@@ -7299,7 +9470,7 @@
         <v>365</v>
       </c>
       <c r="D81" s="19" t="str">
-        <f t="shared" ref="D81" si="9">REPT("   ", B81*2) &amp; C81</f>
+        <f t="shared" ref="D81" si="20">REPT("   ", B81*2) &amp; C81</f>
         <v xml:space="preserve">                        Primary Heat Exchanger</v>
       </c>
       <c r="E81" s="19" t="s">
@@ -7321,11 +9492,15 @@
       <c r="K81" s="42" t="s">
         <v>366</v>
       </c>
-      <c r="L81" s="26"/>
+      <c r="L81" s="26">
+        <v>1</v>
+      </c>
       <c r="M81" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="N81" s="26"/>
+      <c r="N81" s="26">
+        <v>1</v>
+      </c>
       <c r="O81" s="26">
         <v>2013</v>
       </c>
@@ -7343,8 +9518,43 @@
       <c r="U81" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V81" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W81" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X81" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y81" s="6">
+        <f t="shared" si="16"/>
+        <v>108</v>
+      </c>
+      <c r="Z81" s="6">
+        <f t="shared" si="17"/>
+        <v>156</v>
+      </c>
+      <c r="AA81" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB81" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC81" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD81" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH81" s="144"/>
+    </row>
+    <row r="82" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="36">
         <v>222.32</v>
       </c>
@@ -7378,11 +9588,15 @@
       <c r="K82" s="42" t="s">
         <v>367</v>
       </c>
-      <c r="L82" s="26"/>
+      <c r="L82" s="26">
+        <v>1</v>
+      </c>
       <c r="M82" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="N82" s="26"/>
+      <c r="N82" s="26">
+        <v>1</v>
+      </c>
       <c r="O82" s="26">
         <v>2004</v>
       </c>
@@ -7400,13 +9614,48 @@
       <c r="U82" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V82" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W82" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X82" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y82" s="6">
+        <f t="shared" si="16"/>
+        <v>45</v>
+      </c>
+      <c r="Z82" s="6">
+        <f t="shared" si="17"/>
+        <v>65</v>
+      </c>
+      <c r="AA82" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB82" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC82" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD82" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE82" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH82" s="144"/>
+    </row>
+    <row r="83" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="36">
         <v>222.32</v>
       </c>
       <c r="B83" s="17">
-        <f t="shared" ref="B83" si="10">IF(ISNUMBER(A83),
+        <f t="shared" ref="B83" si="21">IF(ISNUMBER(A83),
     IF(AND(A83=INT(A83), MOD(A83, 10) = 0), 0,
         IF(AND(A83=INT(A83), LEN(A83)=2), 1,
             IF(AND(A83=INT(A83), LEN(A83)=3), 2,
@@ -7420,7 +9669,7 @@
         <v>18</v>
       </c>
       <c r="D83" s="19" t="str">
-        <f t="shared" ref="D83" si="11">REPT("   ", B83*2) &amp; C83</f>
+        <f t="shared" ref="D83" si="22">REPT("   ", B83*2) &amp; C83</f>
         <v xml:space="preserve">                        Secondary Heat Exchanger</v>
       </c>
       <c r="E83" s="19" t="s">
@@ -7442,11 +9691,15 @@
       <c r="K83" s="42" t="s">
         <v>367</v>
       </c>
-      <c r="L83" s="26"/>
+      <c r="L83" s="26">
+        <v>1</v>
+      </c>
       <c r="M83" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="N83" s="26"/>
+      <c r="N83" s="26">
+        <v>1</v>
+      </c>
       <c r="O83" s="26">
         <v>2013</v>
       </c>
@@ -7464,8 +9717,43 @@
       <c r="U83" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V83" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W83" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X83" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y83" s="6">
+        <f t="shared" si="16"/>
+        <v>108</v>
+      </c>
+      <c r="Z83" s="6">
+        <f t="shared" si="17"/>
+        <v>156</v>
+      </c>
+      <c r="AA83" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB83" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC83" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD83" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH83" s="144"/>
+    </row>
+    <row r="84" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="36">
         <v>223</v>
       </c>
@@ -7496,8 +9784,13 @@
       <c r="R84" s="26"/>
       <c r="S84" s="26"/>
       <c r="T84" s="26"/>
-    </row>
-    <row r="85" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V84" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH84" s="144"/>
+    </row>
+    <row r="85" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="36">
         <v>223.2</v>
       </c>
@@ -7528,8 +9821,13 @@
       <c r="R85" s="26"/>
       <c r="S85" s="26"/>
       <c r="T85" s="26"/>
-    </row>
-    <row r="86" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V85" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH85" s="144"/>
+    </row>
+    <row r="86" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="36">
         <v>223.21</v>
       </c>
@@ -7585,8 +9883,43 @@
       <c r="U86" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V86" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W86" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X86" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y86" s="6">
+        <f t="shared" si="16"/>
+        <v>681.48691871455583</v>
+      </c>
+      <c r="Z86" s="6">
+        <f t="shared" si="17"/>
+        <v>984.36999369880277</v>
+      </c>
+      <c r="AA86" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB86" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC86" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD86" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH86" s="144"/>
+    </row>
+    <row r="87" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="36">
         <v>223.22</v>
       </c>
@@ -7642,8 +9975,43 @@
       <c r="U87" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V87" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W87" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X87" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y87" s="6">
+        <f t="shared" si="16"/>
+        <v>681.48691871455583</v>
+      </c>
+      <c r="Z87" s="6">
+        <f t="shared" si="17"/>
+        <v>984.36999369880277</v>
+      </c>
+      <c r="AA87" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB87" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC87" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD87" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH87" s="144"/>
+    </row>
+    <row r="88" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="36">
         <v>226</v>
       </c>
@@ -7688,13 +10056,48 @@
       <c r="U88" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V88" s="106">
+        <f t="shared" si="14"/>
+        <v>410667.3</v>
+      </c>
+      <c r="W88" s="6">
+        <f t="shared" si="13"/>
+        <v>593186.1</v>
+      </c>
+      <c r="X88" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y88" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z88" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA88" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB88" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC88" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD88" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH88" s="144"/>
+    </row>
+    <row r="89" spans="1:34" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="36">
         <v>227</v>
       </c>
       <c r="B89" s="17">
-        <f t="shared" ref="B89:B124" si="12">IF(ISNUMBER(A89),
+        <f t="shared" ref="B89:B124" si="23">IF(ISNUMBER(A89),
     IF(AND(A89=INT(A89), MOD(A89, 10) = 0), 0,
         IF(AND(A89=INT(A89), LEN(A89)=2), 1,
             IF(AND(A89=INT(A89), LEN(A89)=3), 2,
@@ -7708,7 +10111,7 @@
         <v>20</v>
       </c>
       <c r="D89" s="19" t="str">
-        <f t="shared" ref="D89:D124" si="13">REPT("   ", B89*2) &amp; C89</f>
+        <f t="shared" ref="D89:D124" si="24">REPT("   ", B89*2) &amp; C89</f>
         <v xml:space="preserve">            Reactor Instrumentation and Control (I&amp;C)</v>
       </c>
       <c r="E89" s="19" t="s">
@@ -7741,20 +10144,55 @@
       <c r="U89" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V89" s="106">
+        <f t="shared" si="14"/>
+        <v>2027887.5330000001</v>
+      </c>
+      <c r="W89" s="6">
+        <f t="shared" si="13"/>
+        <v>2929170.8810000001</v>
+      </c>
+      <c r="X89" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y89" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z89" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA89" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB89" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC89" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD89" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH89" s="144"/>
+    </row>
+    <row r="90" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="36">
         <v>228</v>
       </c>
       <c r="B90" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="C90" s="37" t="s">
         <v>214</v>
       </c>
       <c r="D90" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">            Reactor Plant Miscellaneous Items</v>
       </c>
       <c r="E90" s="19" t="s">
@@ -7787,20 +10225,55 @@
       <c r="U90" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V90" s="106">
+        <f t="shared" si="14"/>
+        <v>27864</v>
+      </c>
+      <c r="W90" s="6">
+        <f t="shared" si="13"/>
+        <v>40248</v>
+      </c>
+      <c r="X90" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y90" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z90" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA90" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB90" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC90" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD90" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE90" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH90" s="144"/>
+    </row>
+    <row r="91" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="21">
         <v>23</v>
       </c>
       <c r="B91" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C91" s="37" t="s">
         <v>21</v>
       </c>
       <c r="D91" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">      Energy Conversion System </v>
       </c>
       <c r="E91" s="19"/>
@@ -7819,20 +10292,29 @@
       <c r="R91" s="26"/>
       <c r="S91" s="26"/>
       <c r="T91" s="26"/>
-    </row>
-    <row r="92" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V91" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W91" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH91" s="144"/>
+    </row>
+    <row r="92" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="36">
         <v>232</v>
       </c>
       <c r="B92" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="C92" s="37" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">            Energy Applications</v>
       </c>
       <c r="E92" s="19"/>
@@ -7851,13 +10333,22 @@
       <c r="R92" s="26"/>
       <c r="S92" s="26"/>
       <c r="T92" s="26"/>
-    </row>
-    <row r="93" spans="1:21" ht="211" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V92" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W92" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH92" s="144"/>
+    </row>
+    <row r="93" spans="1:34" ht="211" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="36">
         <v>232.1</v>
       </c>
       <c r="B93" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="C93" s="37" t="s">
@@ -7909,20 +10400,55 @@
       <c r="U93" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V93" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W93" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X93" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y93" s="6">
+        <f t="shared" si="16"/>
+        <v>2097900</v>
+      </c>
+      <c r="Z93" s="6">
+        <f t="shared" si="17"/>
+        <v>3030300</v>
+      </c>
+      <c r="AA93" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB93" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC93" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD93" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH93" s="144"/>
+    </row>
+    <row r="94" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21">
         <v>24</v>
       </c>
       <c r="B94" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C94" s="37" t="s">
         <v>23</v>
       </c>
       <c r="D94" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">      Electrical Equipment</v>
       </c>
       <c r="E94" s="19"/>
@@ -7941,20 +10467,25 @@
       <c r="R94" s="26"/>
       <c r="S94" s="26"/>
       <c r="T94" s="26"/>
-    </row>
-    <row r="95" spans="1:21" ht="121" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V94" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH94" s="144"/>
+    </row>
+    <row r="95" spans="1:34" ht="121" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21">
         <v>246</v>
       </c>
       <c r="B95" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="C95" s="44" t="s">
         <v>222</v>
       </c>
       <c r="D95" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">            Power and Control Cables and Wiring</v>
       </c>
       <c r="E95" s="19" t="s">
@@ -8000,20 +10531,55 @@
       <c r="U95" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V95" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W95" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X95" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y95" s="6">
+        <f t="shared" si="16"/>
+        <v>3230487</v>
+      </c>
+      <c r="Z95" s="6">
+        <f t="shared" si="17"/>
+        <v>4666259</v>
+      </c>
+      <c r="AA95" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB95" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC95" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD95" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE95" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH95" s="144"/>
+    </row>
+    <row r="96" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="21">
         <v>25</v>
       </c>
       <c r="B96" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C96" s="37" t="s">
         <v>24</v>
       </c>
       <c r="D96" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">      Initial Fuel Inventory</v>
       </c>
       <c r="E96" s="19"/>
@@ -8032,20 +10598,29 @@
       <c r="R96" s="26"/>
       <c r="S96" s="26"/>
       <c r="T96" s="26"/>
-    </row>
-    <row r="97" spans="1:24" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V96" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W96" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH96" s="144"/>
+    </row>
+    <row r="97" spans="1:34" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="36">
         <v>251</v>
       </c>
       <c r="B97" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="C97" s="37" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">            First Core Mining</v>
       </c>
       <c r="E97" s="19" t="s">
@@ -8063,19 +10638,23 @@
       <c r="K97" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="L97" s="26"/>
+      <c r="L97" s="26">
+        <v>1</v>
+      </c>
       <c r="M97" s="26"/>
-      <c r="N97" s="26"/>
+      <c r="N97" s="26">
+        <v>1</v>
+      </c>
       <c r="O97" s="26">
         <v>2022</v>
       </c>
       <c r="P97" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q97" s="106" t="s">
+      <c r="Q97" s="112" t="s">
         <v>382</v>
       </c>
-      <c r="R97" s="106" t="s">
+      <c r="R97" s="112" t="s">
         <v>383</v>
       </c>
       <c r="S97" s="26"/>
@@ -8083,20 +10662,55 @@
       <c r="U97" s="6" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V97" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W97" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X97" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y97" s="6">
+        <f t="shared" si="16"/>
+        <v>165.6</v>
+      </c>
+      <c r="Z97" s="6">
+        <f t="shared" si="17"/>
+        <v>239.20000000000002</v>
+      </c>
+      <c r="AA97" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB97" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC97" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD97" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH97" s="144"/>
+    </row>
+    <row r="98" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="36">
         <v>252</v>
       </c>
       <c r="B98" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="C98" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D98" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">            First Core Conversion </v>
       </c>
       <c r="E98" s="19" t="s">
@@ -8114,36 +10728,75 @@
       <c r="K98" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="L98" s="26"/>
+      <c r="L98" s="26">
+        <v>1</v>
+      </c>
       <c r="M98" s="26"/>
-      <c r="N98" s="26"/>
+      <c r="N98" s="26">
+        <v>1</v>
+      </c>
       <c r="O98" s="26">
         <v>2022</v>
       </c>
       <c r="P98" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q98" s="121"/>
-      <c r="R98" s="121"/>
+      <c r="Q98" s="113"/>
+      <c r="R98" s="113"/>
       <c r="S98" s="26"/>
       <c r="T98" s="26"/>
       <c r="U98" s="6" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V98" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W98" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X98" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y98" s="6">
+        <f t="shared" si="16"/>
+        <v>13.59</v>
+      </c>
+      <c r="Z98" s="6">
+        <f t="shared" si="17"/>
+        <v>19.63</v>
+      </c>
+      <c r="AA98" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB98" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC98" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD98" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH98" s="144"/>
+    </row>
+    <row r="99" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36">
         <v>253</v>
       </c>
       <c r="B99" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="C99" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D99" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">            First Core Enrichment </v>
       </c>
       <c r="E99" s="19" t="s">
@@ -8161,7 +10814,9 @@
       <c r="K99" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="L99" s="26"/>
+      <c r="L99" s="26">
+        <v>1</v>
+      </c>
       <c r="M99" s="26"/>
       <c r="N99" s="26">
         <v>1</v>
@@ -8172,27 +10827,62 @@
       <c r="P99" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q99" s="121"/>
-      <c r="R99" s="121"/>
+      <c r="Q99" s="113"/>
+      <c r="R99" s="113"/>
       <c r="S99" s="26"/>
       <c r="T99" s="26"/>
       <c r="U99" s="6" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V99" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W99" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X99" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y99" s="6">
+        <f t="shared" si="16"/>
+        <v>165.78</v>
+      </c>
+      <c r="Z99" s="6">
+        <f t="shared" si="17"/>
+        <v>239.45999999999998</v>
+      </c>
+      <c r="AA99" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB99" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC99" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD99" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH99" s="144"/>
+    </row>
+    <row r="100" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="36">
         <v>254</v>
       </c>
       <c r="B100" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="C100" s="37" t="s">
         <v>28</v>
       </c>
       <c r="D100" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">            First Core Fuel Assembly Fabrication </v>
       </c>
       <c r="E100" s="19" t="s">
@@ -8214,29 +10904,68 @@
       <c r="K100" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="L100" s="26"/>
+      <c r="L100" s="26">
+        <v>1</v>
+      </c>
       <c r="M100" s="26"/>
-      <c r="N100" s="26"/>
+      <c r="N100" s="26">
+        <v>1</v>
+      </c>
       <c r="O100" s="26">
         <v>2023</v>
       </c>
       <c r="P100" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q100" s="121"/>
-      <c r="R100" s="121"/>
+      <c r="Q100" s="113"/>
+      <c r="R100" s="113"/>
       <c r="S100" s="26"/>
       <c r="T100" s="26"/>
       <c r="U100" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V100" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W100" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X100" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y100" s="6">
+        <f t="shared" si="16"/>
+        <v>1368</v>
+      </c>
+      <c r="Z100" s="6">
+        <f t="shared" si="17"/>
+        <v>1976</v>
+      </c>
+      <c r="AA100" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB100" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC100" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD100" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH100" s="144"/>
+    </row>
+    <row r="101" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="36">
         <v>254</v>
       </c>
       <c r="B101" s="17">
-        <f t="shared" ref="B101" si="14">IF(ISNUMBER(A101),
+        <f t="shared" ref="B101" si="25">IF(ISNUMBER(A101),
     IF(AND(A101=INT(A101), MOD(A101, 10) = 0), 0,
         IF(AND(A101=INT(A101), LEN(A101)=2), 1,
             IF(AND(A101=INT(A101), LEN(A101)=3), 2,
@@ -8250,7 +10979,7 @@
         <v>28</v>
       </c>
       <c r="D101" s="19" t="str">
-        <f t="shared" ref="D101" si="15">REPT("   ", B101*2) &amp; C101</f>
+        <f t="shared" ref="D101" si="26">REPT("   ", B101*2) &amp; C101</f>
         <v xml:space="preserve">            First Core Fuel Assembly Fabrication </v>
       </c>
       <c r="E101" s="19" t="s">
@@ -8272,36 +11001,75 @@
       <c r="K101" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="L101" s="26"/>
+      <c r="L101" s="26">
+        <v>1</v>
+      </c>
       <c r="M101" s="26"/>
-      <c r="N101" s="26"/>
+      <c r="N101" s="26">
+        <v>1</v>
+      </c>
       <c r="O101" s="26">
         <v>2009</v>
       </c>
       <c r="P101" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q101" s="107"/>
-      <c r="R101" s="107"/>
+      <c r="Q101" s="114"/>
+      <c r="R101" s="114"/>
       <c r="S101" s="26"/>
       <c r="T101" s="26"/>
       <c r="U101" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="102" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V101" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W101" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X101" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y101" s="6">
+        <f t="shared" si="16"/>
+        <v>9000</v>
+      </c>
+      <c r="Z101" s="6">
+        <f t="shared" si="17"/>
+        <v>13000</v>
+      </c>
+      <c r="AA101" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB101" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC101" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD101" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH101" s="144"/>
+    </row>
+    <row r="102" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21">
         <v>26</v>
       </c>
       <c r="B102" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C102" s="37" t="s">
         <v>140</v>
       </c>
       <c r="D102" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">      Miscellaneous Equipment (Cranes)</v>
       </c>
       <c r="E102" s="19" t="s">
@@ -8335,8 +11103,43 @@
       <c r="U102" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="103" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V102" s="106">
+        <f t="shared" si="14"/>
+        <v>900000</v>
+      </c>
+      <c r="W102" s="6">
+        <f t="shared" si="13"/>
+        <v>1300000</v>
+      </c>
+      <c r="X102" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y102" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z102" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA102" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB102" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC102" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD102" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH102" s="144"/>
+    </row>
+    <row r="103" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="29">
         <v>30</v>
       </c>
@@ -8355,7 +11158,7 @@
         <v>29</v>
       </c>
       <c r="D103" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>Capitalized Indirect Services Cost</v>
       </c>
       <c r="E103" s="19"/>
@@ -8374,8 +11177,13 @@
       <c r="R103" s="29"/>
       <c r="S103" s="29"/>
       <c r="T103" s="29"/>
-    </row>
-    <row r="104" spans="1:24" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V103" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH103" s="144"/>
+    </row>
+    <row r="104" spans="1:34" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="29">
         <v>31</v>
       </c>
@@ -8386,7 +11194,7 @@
         <v>389</v>
       </c>
       <c r="D104" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">      Factory &amp; field indirect costs</v>
       </c>
       <c r="E104" s="19"/>
@@ -8405,8 +11213,13 @@
       <c r="R104" s="29"/>
       <c r="S104" s="29"/>
       <c r="T104" s="29"/>
-    </row>
-    <row r="105" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V104" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH104" s="144"/>
+    </row>
+    <row r="105" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="29">
         <v>32</v>
       </c>
@@ -8417,7 +11230,7 @@
         <v>390</v>
       </c>
       <c r="D105" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">      Factory and construction supervision</v>
       </c>
       <c r="E105" s="19"/>
@@ -8436,20 +11249,25 @@
       <c r="R105" s="29"/>
       <c r="S105" s="29"/>
       <c r="T105" s="29"/>
-    </row>
-    <row r="106" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V105" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH105" s="144"/>
+    </row>
+    <row r="106" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="21">
         <v>33</v>
       </c>
       <c r="B106" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C106" s="37" t="s">
         <v>31</v>
       </c>
       <c r="D106" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">      Startup Costs</v>
       </c>
       <c r="E106" s="19" t="s">
@@ -8473,7 +11291,7 @@
       <c r="P106" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="Q106" s="132" t="s">
+      <c r="Q106" s="107" t="s">
         <v>374</v>
       </c>
       <c r="R106" s="24"/>
@@ -8482,23 +11300,55 @@
       <c r="U106" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="V106" s="12"/>
-      <c r="W106" s="12"/>
-      <c r="X106" s="12"/>
-    </row>
-    <row r="107" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V106" s="106">
+        <f t="shared" si="14"/>
+        <v>2166449.7600000002</v>
+      </c>
+      <c r="W106" s="6">
+        <f t="shared" si="13"/>
+        <v>3129316.3200000008</v>
+      </c>
+      <c r="X106" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y106" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z106" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA106" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB106" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC106" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD106" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE106" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH106" s="144"/>
+    </row>
+    <row r="107" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="21">
         <v>34</v>
       </c>
       <c r="B107" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C107" s="37" t="s">
         <v>32</v>
       </c>
       <c r="D107" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">      Shipping and Transportation Costs</v>
       </c>
       <c r="E107" s="19" t="s">
@@ -8522,30 +11372,62 @@
       <c r="P107" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="Q107" s="133"/>
+      <c r="Q107" s="108"/>
       <c r="R107" s="24"/>
       <c r="S107" s="24"/>
       <c r="T107" s="24"/>
       <c r="U107" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="V107" s="12"/>
-      <c r="W107" s="12"/>
-      <c r="X107" s="12"/>
-    </row>
-    <row r="108" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V107" s="106">
+        <f t="shared" si="14"/>
+        <v>749377.25999999989</v>
+      </c>
+      <c r="W107" s="6">
+        <f t="shared" si="13"/>
+        <v>1082433.8199999998</v>
+      </c>
+      <c r="X107" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y107" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z107" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA107" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB107" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC107" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD107" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE107" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH107" s="144"/>
+    </row>
+    <row r="108" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21">
         <v>35</v>
       </c>
       <c r="B108" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C108" s="37" t="s">
         <v>33</v>
       </c>
       <c r="D108" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">      Engineering Services</v>
       </c>
       <c r="E108" s="19" t="s">
@@ -8569,27 +11451,62 @@
       <c r="P108" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q108" s="133"/>
+      <c r="Q108" s="108"/>
       <c r="R108" s="26"/>
       <c r="S108" s="26"/>
       <c r="T108" s="26"/>
       <c r="U108" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V108" s="106">
+        <f t="shared" si="14"/>
+        <v>558282.22896404844</v>
+      </c>
+      <c r="W108" s="6">
+        <f t="shared" si="13"/>
+        <v>806407.66405918112</v>
+      </c>
+      <c r="X108" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y108" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z108" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA108" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB108" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC108" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD108" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE108" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH108" s="144"/>
+    </row>
+    <row r="109" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="21">
         <v>36</v>
       </c>
       <c r="B109" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C109" s="37" t="s">
         <v>233</v>
       </c>
       <c r="D109" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">      PM/CM Services</v>
       </c>
       <c r="E109" s="19" t="s">
@@ -8613,27 +11530,62 @@
       <c r="P109" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q109" s="134"/>
+      <c r="Q109" s="109"/>
       <c r="R109" s="26"/>
       <c r="S109" s="26"/>
       <c r="T109" s="26"/>
       <c r="U109" s="6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="110" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V109" s="106">
+        <f t="shared" si="14"/>
+        <v>375263.04239999974</v>
+      </c>
+      <c r="W109" s="6">
+        <f t="shared" si="13"/>
+        <v>542046.61679999961</v>
+      </c>
+      <c r="X109" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y109" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z109" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA109" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB109" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC109" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD109" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE109" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH109" s="144"/>
+    </row>
+    <row r="110" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21">
         <v>40</v>
       </c>
       <c r="B110" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C110" s="37" t="s">
         <v>391</v>
       </c>
       <c r="D110" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>Capitalized training costs</v>
       </c>
       <c r="E110" s="19"/>
@@ -8653,20 +11605,25 @@
       <c r="S110" s="26"/>
       <c r="T110" s="26"/>
       <c r="U110" s="12"/>
-    </row>
-    <row r="111" spans="1:24" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V110" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH110" s="144"/>
+    </row>
+    <row r="111" spans="1:34" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="21">
         <v>41</v>
       </c>
       <c r="B111" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C111" s="37" t="s">
         <v>392</v>
       </c>
       <c r="D111" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">      staff recruitment and training</v>
       </c>
       <c r="E111" s="19" t="s">
@@ -8700,20 +11657,55 @@
       <c r="U111" s="12" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="112" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V111" s="106">
+        <f t="shared" si="14"/>
+        <v>270000</v>
+      </c>
+      <c r="W111" s="6">
+        <f t="shared" si="13"/>
+        <v>390000</v>
+      </c>
+      <c r="X111" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y111" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z111" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA111" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB111" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC111" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD111" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE111" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH111" s="144"/>
+    </row>
+    <row r="112" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="29">
         <v>60</v>
       </c>
       <c r="B112" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C112" s="37" t="s">
         <v>34</v>
       </c>
       <c r="D112" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">Capitalized Financial Costs </v>
       </c>
       <c r="E112" s="19"/>
@@ -8733,20 +11725,25 @@
       <c r="S112" s="29"/>
       <c r="T112" s="29"/>
       <c r="U112" s="12"/>
-    </row>
-    <row r="113" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V112" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH112" s="144"/>
+    </row>
+    <row r="113" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="21">
         <v>62</v>
       </c>
       <c r="B113" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C113" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D113" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">      Interest</v>
       </c>
       <c r="E113" s="19"/>
@@ -8766,20 +11763,25 @@
       <c r="S113" s="26"/>
       <c r="T113" s="26"/>
       <c r="U113" s="12"/>
-    </row>
-    <row r="114" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V113" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH113" s="144"/>
+    </row>
+    <row r="114" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="16">
         <v>70</v>
       </c>
       <c r="B114" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C114" s="43" t="s">
         <v>36</v>
       </c>
       <c r="D114" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">Annualized O&amp;M Cost </v>
       </c>
       <c r="E114" s="19"/>
@@ -8799,20 +11801,25 @@
       <c r="S114" s="17"/>
       <c r="T114" s="17"/>
       <c r="U114" s="12"/>
-    </row>
-    <row r="115" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V114" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH114" s="144"/>
+    </row>
+    <row r="115" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="21">
         <v>71</v>
       </c>
       <c r="B115" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C115" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D115" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">      O&amp;M Staff</v>
       </c>
       <c r="E115" s="19"/>
@@ -8832,20 +11839,25 @@
       <c r="S115" s="26"/>
       <c r="T115" s="26"/>
       <c r="U115" s="12"/>
-    </row>
-    <row r="116" spans="1:21" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V115" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH115" s="144"/>
+    </row>
+    <row r="116" spans="1:34" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="36">
         <v>711</v>
       </c>
       <c r="B116" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="C116" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D116" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">            Operators </v>
       </c>
       <c r="E116" s="19" t="s">
@@ -8883,20 +11895,55 @@
       <c r="U116" s="12" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="117" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V116" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W116" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X116" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y116" s="6">
+        <f t="shared" si="16"/>
+        <v>160650</v>
+      </c>
+      <c r="Z116" s="6">
+        <f t="shared" si="17"/>
+        <v>232050</v>
+      </c>
+      <c r="AA116" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB116" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC116" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD116" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE116" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH116" s="144"/>
+    </row>
+    <row r="117" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="36">
         <v>712</v>
       </c>
       <c r="B117" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="C117" s="37" t="s">
         <v>39</v>
       </c>
       <c r="D117" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">            Remote Monitoring Technicians </v>
       </c>
       <c r="E117" s="19" t="s">
@@ -8938,20 +11985,55 @@
       <c r="U117" s="12" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="118" spans="1:21" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V117" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W117" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X117" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y117" s="6">
+        <f t="shared" si="16"/>
+        <v>160650</v>
+      </c>
+      <c r="Z117" s="6">
+        <f t="shared" si="17"/>
+        <v>232050</v>
+      </c>
+      <c r="AA117" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB117" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC117" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD117" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE117" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH117" s="144"/>
+    </row>
+    <row r="118" spans="1:34" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="36">
         <v>713</v>
       </c>
       <c r="B118" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="C118" s="37" t="s">
         <v>40</v>
       </c>
       <c r="D118" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">            Security Staff </v>
       </c>
       <c r="E118" s="19" t="s">
@@ -8989,20 +12071,55 @@
       <c r="U118" s="12" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="119" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V118" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W118" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X118" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y118" s="6">
+        <f t="shared" si="16"/>
+        <v>160650</v>
+      </c>
+      <c r="Z118" s="6">
+        <f t="shared" si="17"/>
+        <v>232050</v>
+      </c>
+      <c r="AA118" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB118" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC118" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD118" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE118" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH118" s="144"/>
+    </row>
+    <row r="119" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="21">
         <v>75</v>
       </c>
       <c r="B119" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C119" s="37" t="s">
         <v>41</v>
       </c>
       <c r="D119" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">      Capital Plant Expenditures</v>
       </c>
       <c r="E119" s="19"/>
@@ -9022,20 +12139,25 @@
       <c r="S119" s="26"/>
       <c r="T119" s="26"/>
       <c r="U119" s="12"/>
-    </row>
-    <row r="120" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V119" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH119" s="144"/>
+    </row>
+    <row r="120" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="21">
         <v>78</v>
       </c>
       <c r="B120" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C120" s="37" t="s">
         <v>42</v>
       </c>
       <c r="D120" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">      Annualized Decommissioning Cost</v>
       </c>
       <c r="E120" s="19" t="s">
@@ -9074,20 +12196,55 @@
       <c r="U120" s="12" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V120" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W120" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X120" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y120" s="6">
+        <f t="shared" si="16"/>
+        <v>1029600</v>
+      </c>
+      <c r="Z120" s="6">
+        <f t="shared" si="17"/>
+        <v>1487200</v>
+      </c>
+      <c r="AA120" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB120" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC120" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD120" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE120" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH120" s="144"/>
+    </row>
+    <row r="121" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="16">
         <v>80</v>
       </c>
       <c r="B121" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C121" s="43" t="s">
         <v>43</v>
       </c>
       <c r="D121" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>Annualized Fuel Cost</v>
       </c>
       <c r="E121" s="19"/>
@@ -9106,20 +12263,25 @@
       <c r="R121" s="17"/>
       <c r="S121" s="17"/>
       <c r="T121" s="17"/>
-    </row>
-    <row r="122" spans="1:21" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V121" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH121" s="144"/>
+    </row>
+    <row r="122" spans="1:34" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="21">
         <v>81</v>
       </c>
       <c r="B122" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C122" s="37" t="s">
         <v>44</v>
       </c>
       <c r="D122" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">      Refueling Operations</v>
       </c>
       <c r="E122" s="19" t="s">
@@ -9157,20 +12319,55 @@
       <c r="U122" s="6" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="123" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V122" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W122" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X122" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y122" s="6">
+        <f t="shared" si="16"/>
+        <v>160650</v>
+      </c>
+      <c r="Z122" s="6">
+        <f t="shared" si="17"/>
+        <v>232050</v>
+      </c>
+      <c r="AA122" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB122" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC122" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD122" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE122" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH122" s="144"/>
+    </row>
+    <row r="123" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="21">
         <v>82</v>
       </c>
       <c r="B123" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C123" s="37" t="s">
         <v>45</v>
       </c>
       <c r="D123" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">      Additional Nuclear Fuel</v>
       </c>
       <c r="E123" s="19"/>
@@ -9192,20 +12389,22 @@
       <c r="U123" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="124" spans="1:21" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V123" s="106"/>
+      <c r="AH123" s="144"/>
+    </row>
+    <row r="124" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="21">
         <v>83</v>
       </c>
       <c r="B124" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C124" s="37" t="s">
         <v>46</v>
       </c>
       <c r="D124" s="19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">      Spent Fuel Management</v>
       </c>
       <c r="E124" s="19" t="s">
@@ -9241,20 +12440,58 @@
       <c r="U124" s="6" t="s">
         <v>420</v>
       </c>
+      <c r="V124" s="106">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W124" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X124" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y124" s="6">
+        <f t="shared" si="16"/>
+        <v>0.9</v>
+      </c>
+      <c r="Z124" s="6">
+        <f t="shared" si="17"/>
+        <v>1.3</v>
+      </c>
+      <c r="AA124" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB124" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC124" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD124" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE124" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH124" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="Q106:Q109"/>
-    <mergeCell ref="Q39:Q41"/>
-    <mergeCell ref="Q45:Q47"/>
-    <mergeCell ref="Q49:Q51"/>
-    <mergeCell ref="Q97:Q101"/>
-    <mergeCell ref="R34:R36"/>
-    <mergeCell ref="R39:R41"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="Q24:Q26"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="Q34:Q36"/>
+    <mergeCell ref="T75:T76"/>
+    <mergeCell ref="R45:R47"/>
+    <mergeCell ref="R49:R51"/>
+    <mergeCell ref="S45:S47"/>
+    <mergeCell ref="S49:S51"/>
+    <mergeCell ref="S66:S70"/>
+    <mergeCell ref="R60:R63"/>
+    <mergeCell ref="S60:S63"/>
+    <mergeCell ref="Q15:Q17"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="S15:S17"/>
     <mergeCell ref="R97:R101"/>
     <mergeCell ref="R75:R76"/>
     <mergeCell ref="S75:S76"/>
@@ -9271,20 +12508,17 @@
     <mergeCell ref="R20:R22"/>
     <mergeCell ref="R24:R26"/>
     <mergeCell ref="R30:R32"/>
-    <mergeCell ref="Q15:Q17"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="R15:R17"/>
-    <mergeCell ref="S15:S17"/>
-    <mergeCell ref="T75:T76"/>
-    <mergeCell ref="R45:R47"/>
-    <mergeCell ref="R49:R51"/>
-    <mergeCell ref="S45:S47"/>
-    <mergeCell ref="S49:S51"/>
-    <mergeCell ref="S66:S70"/>
-    <mergeCell ref="R60:R63"/>
-    <mergeCell ref="S60:S63"/>
+    <mergeCell ref="R34:R36"/>
+    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="Q34:Q36"/>
+    <mergeCell ref="Q106:Q109"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="Q45:Q47"/>
+    <mergeCell ref="Q49:Q51"/>
+    <mergeCell ref="Q97:Q101"/>
   </mergeCells>
   <conditionalFormatting sqref="A97:H99">
     <cfRule type="expression" dxfId="84" priority="108">
@@ -9665,20 +12899,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="136" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="136" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="137" t="s">
+      <c r="B1" s="137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="138" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="135"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="138"/>
+      <c r="A2" s="136"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="139"/>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="62">
@@ -10586,12 +13820,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="140" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="141"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
     </row>
     <row r="3" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
@@ -10648,12 +13882,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="140" t="s">
         <v>252</v>
       </c>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="142"/>
     </row>
     <row r="8" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
@@ -10712,12 +13946,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="140"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="141"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="142"/>
     </row>
     <row r="13" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
@@ -10816,12 +14050,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="139" t="s">
+      <c r="A20" s="140" t="s">
         <v>275</v>
       </c>
-      <c r="B20" s="140"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="141"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="142"/>
     </row>
     <row r="21" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
@@ -10950,12 +14184,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="139" t="s">
+      <c r="A30" s="140" t="s">
         <v>288</v>
       </c>
-      <c r="B30" s="140"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="141"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="142"/>
     </row>
     <row r="31" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
@@ -11030,12 +14264,12 @@
       <c r="D36" s="60"/>
     </row>
     <row r="37" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="139" t="s">
+      <c r="A37" s="140" t="s">
         <v>295</v>
       </c>
-      <c r="B37" s="140"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="141"/>
+      <c r="B37" s="141"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="142"/>
     </row>
     <row r="38" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
@@ -11122,12 +14356,12 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="139" t="s">
+      <c r="A44" s="140" t="s">
         <v>308</v>
       </c>
-      <c r="B44" s="140"/>
-      <c r="C44" s="140"/>
-      <c r="D44" s="141"/>
+      <c r="B44" s="141"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="142"/>
     </row>
     <row r="45" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
@@ -11144,12 +14378,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="139" t="s">
+      <c r="A46" s="140" t="s">
         <v>311</v>
       </c>
-      <c r="B46" s="140"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="141"/>
+      <c r="B46" s="141"/>
+      <c r="C46" s="141"/>
+      <c r="D46" s="142"/>
     </row>
     <row r="47" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
@@ -11194,12 +14428,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="139" t="s">
+      <c r="A50" s="140" t="s">
         <v>318</v>
       </c>
-      <c r="B50" s="140"/>
-      <c r="C50" s="140"/>
-      <c r="D50" s="141"/>
+      <c r="B50" s="141"/>
+      <c r="C50" s="141"/>
+      <c r="D50" s="142"/>
     </row>
     <row r="51" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="54" t="s">
@@ -12464,7 +15698,7 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="142" t="s">
+      <c r="C10" s="143" t="s">
         <v>429</v>
       </c>
     </row>
@@ -12475,7 +15709,7 @@
       <c r="B11">
         <v>0.5</v>
       </c>
-      <c r="C11" s="142"/>
+      <c r="C11" s="143"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
@@ -12484,7 +15718,7 @@
       <c r="B12">
         <v>0.6</v>
       </c>
-      <c r="C12" s="142"/>
+      <c r="C12" s="143"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="86" t="s">
@@ -12493,7 +15727,7 @@
       <c r="B13">
         <v>0.4</v>
       </c>
-      <c r="C13" s="142"/>
+      <c r="C13" s="143"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
@@ -12502,7 +15736,7 @@
       <c r="B14">
         <v>0.3</v>
       </c>
-      <c r="C14" s="142"/>
+      <c r="C14" s="143"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">

--- a/cost/Cost_Database.xlsx
+++ b/cost/Cost_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannbn/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2BFDAA-E146-F641-9E87-5E03007BC27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2578F5-210F-6047-9898-5EBC420FCE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Database" sheetId="2" r:id="rId1"/>
@@ -53,6 +53,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={1D24D34C-842E-414E-BE3E-0CF48975B672}</author>
     <author>tc={1B3BEBC6-8301-0940-8823-166952F6D7FC}</author>
     <author>tc={F26C2C60-5554-7C46-A2DA-9CC485CDD5A5}</author>
     <author>tc={6A4E3BDC-584F-1346-BF51-598A89836273}</author>
@@ -60,7 +61,15 @@
     <author>tc={6E7B8F31-3BA2-6E43-928D-71FCFDC70463}</author>
   </authors>
   <commentList>
-    <comment ref="L63" authorId="0" shapeId="0" xr:uid="{1B3BEBC6-8301-0940-8823-166952F6D7FC}">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{1D24D34C-842E-414E-BE3E-0CF48975B672}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    the average of two values in the NRC website</t>
+      </text>
+    </comment>
+    <comment ref="L63" authorId="1" shapeId="0" xr:uid="{1B3BEBC6-8301-0940-8823-166952F6D7FC}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -69,7 +78,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="L64" authorId="1" shapeId="0" xr:uid="{F26C2C60-5554-7C46-A2DA-9CC485CDD5A5}">
+    <comment ref="L64" authorId="2" shapeId="0" xr:uid="{F26C2C60-5554-7C46-A2DA-9CC485CDD5A5}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -78,7 +87,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="L69" authorId="2" shapeId="0" xr:uid="{6A4E3BDC-584F-1346-BF51-598A89836273}">
+    <comment ref="L69" authorId="3" shapeId="0" xr:uid="{6A4E3BDC-584F-1346-BF51-598A89836273}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -86,7 +95,7 @@
     Cost data about B4C are based on the B4C of the control drums</t>
       </text>
     </comment>
-    <comment ref="J75" authorId="3" shapeId="0" xr:uid="{368934F8-D933-024D-9355-5B191B79D6E7}">
+    <comment ref="J75" authorId="4" shapeId="0" xr:uid="{368934F8-D933-024D-9355-5B191B79D6E7}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -95,7 +104,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="H107" authorId="4" shapeId="0" xr:uid="{6E7B8F31-3BA2-6E43-928D-71FCFDC70463}">
+    <comment ref="H107" authorId="5" shapeId="0" xr:uid="{6E7B8F31-3BA2-6E43-928D-71FCFDC70463}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -109,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="444">
   <si>
     <t>Account</t>
   </si>
@@ -1650,6 +1659,9 @@
   <si>
     <t>Truncated Normal</t>
   </si>
+  <si>
+    <t>Uniform</t>
+  </si>
 </sst>
 </file>
 
@@ -1664,7 +1676,7 @@
     <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1902,6 +1914,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2108,7 +2126,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2368,64 +2386,20 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2455,6 +2429,51 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2479,7 +2498,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3464,6 +3485,9 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H5" dT="2025-06-23T14:18:30.15" personId="{84112BF8-C915-7B4B-BE8E-B816F75B981C}" id="{1D24D34C-842E-414E-BE3E-0CF48975B672}">
+    <text>the average of two values in the NRC website</text>
+  </threadedComment>
   <threadedComment ref="L63" dT="2025-05-24T19:25:31.03" personId="{84112BF8-C915-7B4B-BE8E-B816F75B981C}" id="{1B3BEBC6-8301-0940-8823-166952F6D7FC}">
     <text xml:space="preserve">Since the cost of the BeO of the drums was not available, the cost of the BeO reflector is divided by its mass to get a unit cost for the BeO
 </text>
@@ -3491,8 +3515,8 @@
   <dimension ref="A1:AH124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="63" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA6" sqref="AA6"/>
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3672,7 +3696,7 @@
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
       <c r="AE2" s="6"/>
-      <c r="AH2" s="144"/>
+      <c r="AH2" s="107"/>
     </row>
     <row r="3" spans="1:34" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
@@ -3729,10 +3753,10 @@
       <c r="Q3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="118" t="s">
+      <c r="R3" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="S3" s="119" t="s">
+      <c r="S3" s="126" t="s">
         <v>56</v>
       </c>
       <c r="T3" s="26"/>
@@ -3751,11 +3775,11 @@
         <v>439</v>
       </c>
       <c r="Y3" s="6">
-        <f t="shared" ref="Y3:Y8" si="4">0.9*I3</f>
+        <f t="shared" ref="Y3:Y7" si="4">0.9*I3</f>
         <v>3420</v>
       </c>
       <c r="Z3" s="6">
-        <f t="shared" ref="Z3:Z8" si="5">1.3*I3</f>
+        <f t="shared" ref="Z3:Z7" si="5">1.3*I3</f>
         <v>4940</v>
       </c>
       <c r="AA3" s="6" t="s">
@@ -3773,7 +3797,7 @@
       <c r="AE3" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH3" s="144"/>
+      <c r="AH3" s="107"/>
     </row>
     <row r="4" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
@@ -3824,8 +3848,8 @@
       <c r="Q4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="118"/>
-      <c r="S4" s="119"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="126"/>
       <c r="T4" s="26"/>
       <c r="U4" s="6" t="s">
         <v>420</v>
@@ -3864,7 +3888,7 @@
       <c r="AE4" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH4" s="144"/>
+      <c r="AH4" s="107"/>
     </row>
     <row r="5" spans="1:34" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
@@ -3887,7 +3911,8 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="27">
-        <v>45000000</v>
+        <f>1000000*(45+70)/2</f>
+        <v>57500000</v>
       </c>
       <c r="I5" s="66"/>
       <c r="J5" s="24"/>
@@ -3904,7 +3929,7 @@
       <c r="Q5" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="145" t="s">
         <v>426</v>
       </c>
       <c r="S5" s="17" t="s">
@@ -3915,15 +3940,15 @@
         <v>427</v>
       </c>
       <c r="V5" s="106">
-        <f>0.9*H5</f>
-        <v>40500000</v>
+        <f>45*1000000</f>
+        <v>45000000</v>
       </c>
       <c r="W5" s="6">
-        <f t="shared" si="3"/>
-        <v>58500000</v>
+        <f>70*1000000</f>
+        <v>70000000</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Y5" s="6">
         <f t="shared" si="4"/>
@@ -3948,7 +3973,7 @@
       <c r="AE5" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH5" s="144"/>
+      <c r="AH5" s="107"/>
     </row>
     <row r="6" spans="1:34" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
@@ -4032,7 +4057,7 @@
       <c r="AE6" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH6" s="144"/>
+      <c r="AH6" s="107"/>
     </row>
     <row r="7" spans="1:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
@@ -4119,7 +4144,7 @@
       <c r="AE7" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH7" s="144"/>
+      <c r="AH7" s="107"/>
     </row>
     <row r="8" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
@@ -4163,7 +4188,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH8" s="144"/>
+      <c r="AH8" s="107"/>
     </row>
     <row r="9" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -4200,7 +4225,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH9" s="144"/>
+      <c r="AH9" s="107"/>
     </row>
     <row r="10" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
@@ -4237,7 +4262,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH10" s="144"/>
+      <c r="AH10" s="107"/>
     </row>
     <row r="11" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -4285,13 +4310,13 @@
       <c r="P11" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="111" t="s">
+      <c r="Q11" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="R11" s="118" t="s">
+      <c r="R11" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="S11" s="120" t="s">
+      <c r="S11" s="111" t="s">
         <v>84</v>
       </c>
       <c r="T11" s="26"/>
@@ -4310,11 +4335,11 @@
         <v>439</v>
       </c>
       <c r="Y11" s="6">
-        <f t="shared" ref="Y9:Y72" si="7">0.9*I11</f>
+        <f t="shared" ref="Y11:Y72" si="7">0.9*I11</f>
         <v>5276.5914600000006</v>
       </c>
       <c r="Z11" s="6">
-        <f t="shared" ref="Z9:Z72" si="8">1.3*I11</f>
+        <f t="shared" ref="Z11:Z72" si="8">1.3*I11</f>
         <v>7621.7432200000012</v>
       </c>
       <c r="AA11" s="6" t="s">
@@ -4332,7 +4357,7 @@
       <c r="AE11" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH11" s="144"/>
+      <c r="AH11" s="107"/>
     </row>
     <row r="12" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
@@ -4387,9 +4412,9 @@
       <c r="P12" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="121"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="110"/>
+      <c r="S12" s="112"/>
       <c r="T12" s="26"/>
       <c r="U12" s="6" t="s">
         <v>421</v>
@@ -4428,7 +4453,7 @@
       <c r="AE12" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH12" s="144"/>
+      <c r="AH12" s="107"/>
     </row>
     <row r="13" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
@@ -4476,9 +4501,9 @@
       <c r="P13" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="121"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="110"/>
+      <c r="S13" s="112"/>
       <c r="T13" s="26"/>
       <c r="U13" s="6" t="s">
         <v>421</v>
@@ -4517,7 +4542,7 @@
       <c r="AE13" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH13" s="144"/>
+      <c r="AH13" s="107"/>
     </row>
     <row r="14" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
@@ -4554,7 +4579,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH14" s="144"/>
+      <c r="AH14" s="107"/>
     </row>
     <row r="15" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
@@ -4601,13 +4626,13 @@
       <c r="P15" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q15" s="111" t="s">
+      <c r="Q15" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="118" t="s">
+      <c r="R15" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="S15" s="120" t="s">
+      <c r="S15" s="111" t="s">
         <v>84</v>
       </c>
       <c r="T15" s="26"/>
@@ -4648,7 +4673,7 @@
       <c r="AE15" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH15" s="144"/>
+      <c r="AH15" s="107"/>
     </row>
     <row r="16" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
@@ -4696,9 +4721,9 @@
       <c r="P16" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="111"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="121"/>
+      <c r="Q16" s="122"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="112"/>
       <c r="T16" s="26"/>
       <c r="U16" s="6" t="s">
         <v>421</v>
@@ -4737,7 +4762,7 @@
       <c r="AE16" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH16" s="144"/>
+      <c r="AH16" s="107"/>
     </row>
     <row r="17" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
@@ -4785,9 +4810,9 @@
       <c r="P17" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q17" s="111"/>
-      <c r="R17" s="118"/>
-      <c r="S17" s="121"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="112"/>
       <c r="T17" s="26"/>
       <c r="U17" s="6" t="s">
         <v>421</v>
@@ -4826,7 +4851,7 @@
       <c r="AE17" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH17" s="144"/>
+      <c r="AH17" s="107"/>
     </row>
     <row r="18" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
@@ -4860,7 +4885,7 @@
       <c r="S18" s="35"/>
       <c r="T18" s="26"/>
       <c r="V18" s="106"/>
-      <c r="AH18" s="144"/>
+      <c r="AH18" s="107"/>
     </row>
     <row r="19" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
@@ -4894,7 +4919,7 @@
       <c r="S19" s="35"/>
       <c r="T19" s="26"/>
       <c r="V19" s="106"/>
-      <c r="AH19" s="144"/>
+      <c r="AH19" s="107"/>
     </row>
     <row r="20" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
@@ -4942,13 +4967,13 @@
       <c r="P20" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q20" s="111" t="s">
+      <c r="Q20" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="R20" s="118" t="s">
+      <c r="R20" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="S20" s="120" t="s">
+      <c r="S20" s="111" t="s">
         <v>84</v>
       </c>
       <c r="T20" s="26"/>
@@ -4989,7 +5014,7 @@
       <c r="AE20" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH20" s="144"/>
+      <c r="AH20" s="107"/>
     </row>
     <row r="21" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
@@ -5037,9 +5062,9 @@
       <c r="P21" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="121"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="112"/>
       <c r="T21" s="26"/>
       <c r="U21" s="6" t="s">
         <v>421</v>
@@ -5078,7 +5103,7 @@
       <c r="AE21" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH21" s="144"/>
+      <c r="AH21" s="107"/>
     </row>
     <row r="22" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
@@ -5126,9 +5151,9 @@
       <c r="P22" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="121"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="110"/>
+      <c r="S22" s="112"/>
       <c r="T22" s="26"/>
       <c r="U22" s="6" t="s">
         <v>421</v>
@@ -5167,7 +5192,7 @@
       <c r="AE22" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH22" s="144"/>
+      <c r="AH22" s="107"/>
     </row>
     <row r="23" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
@@ -5204,7 +5229,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH23" s="144"/>
+      <c r="AH23" s="107"/>
     </row>
     <row r="24" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
@@ -5252,13 +5277,13 @@
       <c r="P24" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q24" s="111" t="s">
+      <c r="Q24" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="R24" s="118" t="s">
+      <c r="R24" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="120" t="s">
+      <c r="S24" s="111" t="s">
         <v>84</v>
       </c>
       <c r="T24" s="26"/>
@@ -5299,7 +5324,7 @@
       <c r="AE24" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH24" s="144"/>
+      <c r="AH24" s="107"/>
     </row>
     <row r="25" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
@@ -5347,9 +5372,9 @@
       <c r="P25" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="121"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="112"/>
       <c r="T25" s="26"/>
       <c r="U25" s="6" t="s">
         <v>421</v>
@@ -5388,7 +5413,7 @@
       <c r="AE25" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH25" s="144"/>
+      <c r="AH25" s="107"/>
     </row>
     <row r="26" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
@@ -5436,9 +5461,9 @@
       <c r="P26" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="118"/>
-      <c r="S26" s="121"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="112"/>
       <c r="T26" s="26"/>
       <c r="U26" s="6" t="s">
         <v>421</v>
@@ -5477,7 +5502,7 @@
       <c r="AE26" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH26" s="144"/>
+      <c r="AH26" s="107"/>
     </row>
     <row r="27" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
@@ -5514,7 +5539,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH27" s="144"/>
+      <c r="AH27" s="107"/>
     </row>
     <row r="28" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36">
@@ -5551,7 +5576,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH28" s="144"/>
+      <c r="AH28" s="107"/>
     </row>
     <row r="29" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
@@ -5588,7 +5613,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH29" s="144"/>
+      <c r="AH29" s="107"/>
     </row>
     <row r="30" spans="1:34" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="77">
@@ -5636,13 +5661,13 @@
       <c r="P30" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q30" s="110" t="s">
+      <c r="Q30" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="R30" s="115" t="s">
+      <c r="R30" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="S30" s="125" t="s">
+      <c r="S30" s="130" t="s">
         <v>84</v>
       </c>
       <c r="T30" s="85"/>
@@ -5662,7 +5687,7 @@
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
       <c r="AE30" s="6"/>
-      <c r="AH30" s="144"/>
+      <c r="AH30" s="107"/>
     </row>
     <row r="31" spans="1:34" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="77">
@@ -5710,9 +5735,9 @@
       <c r="P31" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q31" s="110"/>
-      <c r="R31" s="115"/>
-      <c r="S31" s="126"/>
+      <c r="Q31" s="133"/>
+      <c r="R31" s="132"/>
+      <c r="S31" s="131"/>
       <c r="T31" s="85"/>
       <c r="U31" s="6" t="s">
         <v>421</v>
@@ -5751,7 +5776,7 @@
       <c r="AE31" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH31" s="144"/>
+      <c r="AH31" s="107"/>
     </row>
     <row r="32" spans="1:34" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="77">
@@ -5799,9 +5824,9 @@
       <c r="P32" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q32" s="110"/>
-      <c r="R32" s="115"/>
-      <c r="S32" s="126"/>
+      <c r="Q32" s="133"/>
+      <c r="R32" s="132"/>
+      <c r="S32" s="131"/>
       <c r="T32" s="85"/>
       <c r="U32" s="6" t="s">
         <v>421</v>
@@ -5840,7 +5865,7 @@
       <c r="AE32" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH32" s="144"/>
+      <c r="AH32" s="107"/>
     </row>
     <row r="33" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
@@ -5877,7 +5902,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH33" s="144"/>
+      <c r="AH33" s="107"/>
     </row>
     <row r="34" spans="1:34" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="77">
@@ -5925,13 +5950,13 @@
       <c r="P34" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q34" s="110" t="s">
+      <c r="Q34" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="R34" s="115" t="s">
+      <c r="R34" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="S34" s="125" t="s">
+      <c r="S34" s="130" t="s">
         <v>84</v>
       </c>
       <c r="T34" s="85"/>
@@ -5972,7 +5997,7 @@
       <c r="AE34" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH34" s="144"/>
+      <c r="AH34" s="107"/>
     </row>
     <row r="35" spans="1:34" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="77">
@@ -6020,9 +6045,9 @@
       <c r="P35" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q35" s="110"/>
-      <c r="R35" s="115"/>
-      <c r="S35" s="126"/>
+      <c r="Q35" s="133"/>
+      <c r="R35" s="132"/>
+      <c r="S35" s="131"/>
       <c r="T35" s="85"/>
       <c r="U35" s="6" t="s">
         <v>421</v>
@@ -6061,7 +6086,7 @@
       <c r="AE35" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH35" s="144"/>
+      <c r="AH35" s="107"/>
     </row>
     <row r="36" spans="1:34" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="77">
@@ -6109,9 +6134,9 @@
       <c r="P36" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q36" s="110"/>
-      <c r="R36" s="115"/>
-      <c r="S36" s="126"/>
+      <c r="Q36" s="133"/>
+      <c r="R36" s="132"/>
+      <c r="S36" s="131"/>
       <c r="T36" s="85"/>
       <c r="U36" s="6" t="s">
         <v>421</v>
@@ -6150,7 +6175,7 @@
       <c r="AE36" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH36" s="144"/>
+      <c r="AH36" s="107"/>
     </row>
     <row r="37" spans="1:34" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="36">
@@ -6187,7 +6212,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH37" s="144"/>
+      <c r="AH37" s="107"/>
     </row>
     <row r="38" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
@@ -6224,7 +6249,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH38" s="144"/>
+      <c r="AH38" s="107"/>
     </row>
     <row r="39" spans="1:34" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="77">
@@ -6272,13 +6297,13 @@
       <c r="P39" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q39" s="110" t="s">
+      <c r="Q39" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="R39" s="115" t="s">
+      <c r="R39" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="S39" s="125" t="s">
+      <c r="S39" s="130" t="s">
         <v>84</v>
       </c>
       <c r="T39" s="85"/>
@@ -6319,7 +6344,7 @@
       <c r="AE39" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH39" s="144"/>
+      <c r="AH39" s="107"/>
     </row>
     <row r="40" spans="1:34" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="77">
@@ -6367,9 +6392,9 @@
       <c r="P40" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q40" s="110"/>
-      <c r="R40" s="115"/>
-      <c r="S40" s="126"/>
+      <c r="Q40" s="133"/>
+      <c r="R40" s="132"/>
+      <c r="S40" s="131"/>
       <c r="T40" s="85"/>
       <c r="U40" s="6" t="s">
         <v>424</v>
@@ -6408,7 +6433,7 @@
       <c r="AE40" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH40" s="144"/>
+      <c r="AH40" s="107"/>
     </row>
     <row r="41" spans="1:34" s="86" customFormat="1" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="77">
@@ -6456,9 +6481,9 @@
       <c r="P41" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q41" s="110"/>
-      <c r="R41" s="115"/>
-      <c r="S41" s="126"/>
+      <c r="Q41" s="133"/>
+      <c r="R41" s="132"/>
+      <c r="S41" s="131"/>
       <c r="T41" s="85"/>
       <c r="U41" s="6" t="s">
         <v>424</v>
@@ -6497,7 +6522,7 @@
       <c r="AE41" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH41" s="144"/>
+      <c r="AH41" s="107"/>
     </row>
     <row r="42" spans="1:34" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36">
@@ -6593,7 +6618,7 @@
       <c r="AE42" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH42" s="144"/>
+      <c r="AH42" s="107"/>
     </row>
     <row r="43" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="36">
@@ -6630,7 +6655,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH43" s="144"/>
+      <c r="AH43" s="107"/>
     </row>
     <row r="44" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="36">
@@ -6667,7 +6692,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH44" s="144"/>
+      <c r="AH44" s="107"/>
     </row>
     <row r="45" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="36">
@@ -6715,13 +6740,13 @@
       <c r="P45" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q45" s="111" t="s">
+      <c r="Q45" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="R45" s="118" t="s">
+      <c r="R45" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="S45" s="120" t="s">
+      <c r="S45" s="111" t="s">
         <v>84</v>
       </c>
       <c r="T45" s="26"/>
@@ -6762,7 +6787,7 @@
       <c r="AE45" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH45" s="144"/>
+      <c r="AH45" s="107"/>
     </row>
     <row r="46" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="36">
@@ -6810,9 +6835,9 @@
       <c r="P46" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q46" s="111"/>
-      <c r="R46" s="118"/>
-      <c r="S46" s="121"/>
+      <c r="Q46" s="122"/>
+      <c r="R46" s="110"/>
+      <c r="S46" s="112"/>
       <c r="T46" s="26"/>
       <c r="U46" s="6" t="s">
         <v>421</v>
@@ -6851,7 +6876,7 @@
       <c r="AE46" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH46" s="144"/>
+      <c r="AH46" s="107"/>
     </row>
     <row r="47" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="36">
@@ -6899,9 +6924,9 @@
       <c r="P47" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q47" s="111"/>
-      <c r="R47" s="118"/>
-      <c r="S47" s="121"/>
+      <c r="Q47" s="122"/>
+      <c r="R47" s="110"/>
+      <c r="S47" s="112"/>
       <c r="T47" s="26"/>
       <c r="U47" s="6" t="s">
         <v>421</v>
@@ -6940,7 +6965,7 @@
       <c r="AE47" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH47" s="144"/>
+      <c r="AH47" s="107"/>
     </row>
     <row r="48" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
@@ -6977,7 +7002,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH48" s="144"/>
+      <c r="AH48" s="107"/>
     </row>
     <row r="49" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="36">
@@ -7025,13 +7050,13 @@
       <c r="P49" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q49" s="111" t="s">
+      <c r="Q49" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="R49" s="118" t="s">
+      <c r="R49" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="S49" s="120" t="s">
+      <c r="S49" s="111" t="s">
         <v>84</v>
       </c>
       <c r="T49" s="26"/>
@@ -7072,7 +7097,7 @@
       <c r="AE49" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH49" s="144"/>
+      <c r="AH49" s="107"/>
     </row>
     <row r="50" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
@@ -7120,9 +7145,9 @@
       <c r="P50" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q50" s="111"/>
-      <c r="R50" s="118"/>
-      <c r="S50" s="121"/>
+      <c r="Q50" s="122"/>
+      <c r="R50" s="110"/>
+      <c r="S50" s="112"/>
       <c r="T50" s="26"/>
       <c r="U50" s="6" t="s">
         <v>421</v>
@@ -7161,7 +7186,7 @@
       <c r="AE50" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH50" s="144"/>
+      <c r="AH50" s="107"/>
     </row>
     <row r="51" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="36">
@@ -7209,9 +7234,9 @@
       <c r="P51" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q51" s="111"/>
-      <c r="R51" s="118"/>
-      <c r="S51" s="121"/>
+      <c r="Q51" s="122"/>
+      <c r="R51" s="110"/>
+      <c r="S51" s="112"/>
       <c r="T51" s="26"/>
       <c r="U51" s="6" t="s">
         <v>421</v>
@@ -7250,7 +7275,7 @@
       <c r="AE51" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH51" s="144"/>
+      <c r="AH51" s="107"/>
     </row>
     <row r="52" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
@@ -7287,7 +7312,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH52" s="144"/>
+      <c r="AH52" s="107"/>
     </row>
     <row r="53" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="36">
@@ -7324,7 +7349,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH53" s="144"/>
+      <c r="AH53" s="107"/>
     </row>
     <row r="54" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="36">
@@ -7361,7 +7386,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH54" s="144"/>
+      <c r="AH54" s="107"/>
     </row>
     <row r="55" spans="1:34" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="36">
@@ -7413,10 +7438,10 @@
       <c r="Q55" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R55" s="122" t="s">
+      <c r="R55" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="S55" s="127" t="s">
+      <c r="S55" s="113" t="s">
         <v>182</v>
       </c>
       <c r="T55" s="42" t="s">
@@ -7459,7 +7484,7 @@
       <c r="AE55" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH55" s="144"/>
+      <c r="AH55" s="107"/>
     </row>
     <row r="56" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="36">
@@ -7511,8 +7536,8 @@
       <c r="Q56" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R56" s="123"/>
-      <c r="S56" s="128"/>
+      <c r="R56" s="128"/>
+      <c r="S56" s="114"/>
       <c r="T56" s="26"/>
       <c r="U56" s="6" t="s">
         <v>422</v>
@@ -7551,7 +7576,7 @@
       <c r="AE56" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH56" s="144"/>
+      <c r="AH56" s="107"/>
     </row>
     <row r="57" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="36">
@@ -7606,8 +7631,8 @@
       <c r="Q57" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R57" s="124"/>
-      <c r="S57" s="129"/>
+      <c r="R57" s="129"/>
+      <c r="S57" s="115"/>
       <c r="T57" s="42" t="s">
         <v>181</v>
       </c>
@@ -7648,7 +7673,7 @@
       <c r="AE57" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH57" s="144"/>
+      <c r="AH57" s="107"/>
     </row>
     <row r="58" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="36">
@@ -7685,7 +7710,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH58" s="144"/>
+      <c r="AH58" s="107"/>
     </row>
     <row r="59" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="36">
@@ -7722,7 +7747,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AH59" s="144"/>
+      <c r="AH59" s="107"/>
     </row>
     <row r="60" spans="1:34" s="86" customFormat="1" ht="41" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="77">
@@ -7763,10 +7788,10 @@
       <c r="Q60" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R60" s="130" t="s">
+      <c r="R60" s="116" t="s">
         <v>178</v>
       </c>
-      <c r="S60" s="133" t="s">
+      <c r="S60" s="119" t="s">
         <v>347</v>
       </c>
       <c r="T60" s="90" t="s">
@@ -7809,7 +7834,7 @@
       <c r="AE60" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH60" s="144"/>
+      <c r="AH60" s="107"/>
     </row>
     <row r="61" spans="1:34" s="86" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="77">
@@ -7850,8 +7875,8 @@
       <c r="Q61" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R61" s="131"/>
-      <c r="S61" s="134"/>
+      <c r="R61" s="117"/>
+      <c r="S61" s="120"/>
       <c r="T61" s="85"/>
       <c r="U61" s="86" t="s">
         <v>423</v>
@@ -7890,7 +7915,7 @@
       <c r="AE61" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH61" s="144"/>
+      <c r="AH61" s="107"/>
     </row>
     <row r="62" spans="1:34" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="77">
@@ -7946,8 +7971,8 @@
       <c r="Q62" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R62" s="131"/>
-      <c r="S62" s="134"/>
+      <c r="R62" s="117"/>
+      <c r="S62" s="120"/>
       <c r="T62" s="85"/>
       <c r="U62" s="86" t="s">
         <v>423</v>
@@ -7986,7 +8011,7 @@
       <c r="AE62" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH62" s="144"/>
+      <c r="AH62" s="107"/>
     </row>
     <row r="63" spans="1:34" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="77">
@@ -8042,8 +8067,8 @@
       <c r="Q63" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R63" s="132"/>
-      <c r="S63" s="135"/>
+      <c r="R63" s="118"/>
+      <c r="S63" s="121"/>
       <c r="T63" s="85"/>
       <c r="U63" s="86" t="s">
         <v>423</v>
@@ -8082,7 +8107,7 @@
       <c r="AE63" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH63" s="144"/>
+      <c r="AH63" s="107"/>
     </row>
     <row r="64" spans="1:34" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="77">
@@ -8185,7 +8210,7 @@
       <c r="AE64" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH64" s="144"/>
+      <c r="AH64" s="107"/>
     </row>
     <row r="65" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="36">
@@ -8250,7 +8275,7 @@
       <c r="AE65" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH65" s="144"/>
+      <c r="AH65" s="107"/>
     </row>
     <row r="66" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="36">
@@ -8309,10 +8334,10 @@
       <c r="Q66" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R66" s="122" t="s">
+      <c r="R66" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="S66" s="127" t="s">
+      <c r="S66" s="113" t="s">
         <v>182</v>
       </c>
       <c r="T66" s="26"/>
@@ -8353,7 +8378,7 @@
       <c r="AE66" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH66" s="144"/>
+      <c r="AH66" s="107"/>
     </row>
     <row r="67" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="36">
@@ -8416,8 +8441,8 @@
       <c r="Q67" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R67" s="123"/>
-      <c r="S67" s="128"/>
+      <c r="R67" s="128"/>
+      <c r="S67" s="114"/>
       <c r="T67" s="26"/>
       <c r="U67" s="6" t="s">
         <v>424</v>
@@ -8456,7 +8481,7 @@
       <c r="AE67" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH67" s="144"/>
+      <c r="AH67" s="107"/>
     </row>
     <row r="68" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="36">
@@ -8486,11 +8511,11 @@
       <c r="O68" s="26"/>
       <c r="P68" s="26"/>
       <c r="Q68" s="42"/>
-      <c r="R68" s="123"/>
-      <c r="S68" s="128"/>
+      <c r="R68" s="128"/>
+      <c r="S68" s="114"/>
       <c r="T68" s="26"/>
       <c r="V68" s="106"/>
-      <c r="AH68" s="144"/>
+      <c r="AH68" s="107"/>
     </row>
     <row r="69" spans="1:34" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="77">
@@ -8549,8 +8574,8 @@
       <c r="Q69" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R69" s="123"/>
-      <c r="S69" s="128"/>
+      <c r="R69" s="128"/>
+      <c r="S69" s="114"/>
       <c r="T69" s="85"/>
       <c r="U69" s="6" t="s">
         <v>424</v>
@@ -8589,7 +8614,7 @@
       <c r="AE69" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH69" s="144"/>
+      <c r="AH69" s="107"/>
     </row>
     <row r="70" spans="1:34" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="77">
@@ -8644,8 +8669,8 @@
       <c r="Q70" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R70" s="124"/>
-      <c r="S70" s="129"/>
+      <c r="R70" s="129"/>
+      <c r="S70" s="115"/>
       <c r="T70" s="85"/>
       <c r="U70" s="6" t="s">
         <v>424</v>
@@ -8684,7 +8709,7 @@
       <c r="AE70" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH70" s="144"/>
+      <c r="AH70" s="107"/>
     </row>
     <row r="71" spans="1:34" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="36">
@@ -8780,7 +8805,7 @@
       <c r="AE71" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH71" s="144"/>
+      <c r="AH71" s="107"/>
     </row>
     <row r="72" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="36">
@@ -8874,7 +8899,7 @@
       <c r="AE72" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH72" s="144"/>
+      <c r="AH72" s="107"/>
     </row>
     <row r="73" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="36">
@@ -8910,7 +8935,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AH73" s="144"/>
+      <c r="AH73" s="107"/>
     </row>
     <row r="74" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="36">
@@ -8953,7 +8978,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AH74" s="144"/>
+      <c r="AH74" s="107"/>
     </row>
     <row r="75" spans="1:34" ht="61" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30">
@@ -9004,13 +9029,13 @@
       <c r="Q75" s="42" t="s">
         <v>349</v>
       </c>
-      <c r="R75" s="112" t="s">
+      <c r="R75" s="108" t="s">
         <v>348</v>
       </c>
-      <c r="S75" s="116" t="s">
+      <c r="S75" s="124" t="s">
         <v>350</v>
       </c>
-      <c r="T75" s="112"/>
+      <c r="T75" s="108"/>
       <c r="U75" s="6" t="s">
         <v>424</v>
       </c>
@@ -9026,11 +9051,11 @@
         <v>439</v>
       </c>
       <c r="Y75" s="6">
-        <f t="shared" ref="Y73:Y124" si="16">0.9*I75</f>
+        <f t="shared" ref="Y75:Y124" si="16">0.9*I75</f>
         <v>7936.6500000000005</v>
       </c>
       <c r="Z75" s="6">
-        <f t="shared" ref="Z73:Z124" si="17">1.3*I75</f>
+        <f t="shared" ref="Z75:Z124" si="17">1.3*I75</f>
         <v>11464.050000000001</v>
       </c>
       <c r="AA75" s="6" t="s">
@@ -9048,7 +9073,7 @@
       <c r="AE75" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH75" s="144"/>
+      <c r="AH75" s="107"/>
     </row>
     <row r="76" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="30">
@@ -9098,9 +9123,9 @@
       <c r="Q76" s="42" t="s">
         <v>343</v>
       </c>
-      <c r="R76" s="114"/>
-      <c r="S76" s="117"/>
-      <c r="T76" s="114"/>
+      <c r="R76" s="109"/>
+      <c r="S76" s="125"/>
+      <c r="T76" s="109"/>
       <c r="U76" s="6" t="s">
         <v>424</v>
       </c>
@@ -9138,7 +9163,7 @@
       <c r="AE76" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH76" s="144"/>
+      <c r="AH76" s="107"/>
     </row>
     <row r="77" spans="1:34" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="30">
@@ -9230,7 +9255,7 @@
       <c r="AE77" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH77" s="144"/>
+      <c r="AH77" s="107"/>
     </row>
     <row r="78" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="36">
@@ -9316,7 +9341,7 @@
       <c r="AE78" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH78" s="144"/>
+      <c r="AH78" s="107"/>
     </row>
     <row r="79" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="36">
@@ -9353,7 +9378,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AH79" s="144"/>
+      <c r="AH79" s="107"/>
     </row>
     <row r="80" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="36">
@@ -9449,7 +9474,7 @@
       <c r="AE80" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH80" s="144"/>
+      <c r="AH80" s="107"/>
     </row>
     <row r="81" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36">
@@ -9552,7 +9577,7 @@
       <c r="AE81" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH81" s="144"/>
+      <c r="AH81" s="107"/>
     </row>
     <row r="82" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="36">
@@ -9648,7 +9673,7 @@
       <c r="AE82" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH82" s="144"/>
+      <c r="AH82" s="107"/>
     </row>
     <row r="83" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="36">
@@ -9751,7 +9776,7 @@
       <c r="AE83" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH83" s="144"/>
+      <c r="AH83" s="107"/>
     </row>
     <row r="84" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="36">
@@ -9788,7 +9813,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AH84" s="144"/>
+      <c r="AH84" s="107"/>
     </row>
     <row r="85" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="36">
@@ -9825,7 +9850,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AH85" s="144"/>
+      <c r="AH85" s="107"/>
     </row>
     <row r="86" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="36">
@@ -9917,7 +9942,7 @@
       <c r="AE86" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH86" s="144"/>
+      <c r="AH86" s="107"/>
     </row>
     <row r="87" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="36">
@@ -10009,7 +10034,7 @@
       <c r="AE87" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH87" s="144"/>
+      <c r="AH87" s="107"/>
     </row>
     <row r="88" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="36">
@@ -10090,7 +10115,7 @@
       <c r="AE88" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH88" s="144"/>
+      <c r="AH88" s="107"/>
     </row>
     <row r="89" spans="1:34" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="36">
@@ -10178,7 +10203,7 @@
       <c r="AE89" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH89" s="144"/>
+      <c r="AH89" s="107"/>
     </row>
     <row r="90" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="36">
@@ -10259,7 +10284,7 @@
       <c r="AE90" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH90" s="144"/>
+      <c r="AH90" s="107"/>
     </row>
     <row r="91" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="21">
@@ -10300,7 +10325,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AH91" s="144"/>
+      <c r="AH91" s="107"/>
     </row>
     <row r="92" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="36">
@@ -10341,7 +10366,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AH92" s="144"/>
+      <c r="AH92" s="107"/>
     </row>
     <row r="93" spans="1:34" ht="211" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="36">
@@ -10434,7 +10459,7 @@
       <c r="AE93" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH93" s="144"/>
+      <c r="AH93" s="107"/>
     </row>
     <row r="94" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21">
@@ -10471,7 +10496,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AH94" s="144"/>
+      <c r="AH94" s="107"/>
     </row>
     <row r="95" spans="1:34" ht="121" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21">
@@ -10565,7 +10590,7 @@
       <c r="AE95" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH95" s="144"/>
+      <c r="AH95" s="107"/>
     </row>
     <row r="96" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="21">
@@ -10606,7 +10631,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AH96" s="144"/>
+      <c r="AH96" s="107"/>
     </row>
     <row r="97" spans="1:34" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="36">
@@ -10651,10 +10676,10 @@
       <c r="P97" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q97" s="112" t="s">
+      <c r="Q97" s="108" t="s">
         <v>382</v>
       </c>
-      <c r="R97" s="112" t="s">
+      <c r="R97" s="108" t="s">
         <v>383</v>
       </c>
       <c r="S97" s="26"/>
@@ -10696,7 +10721,7 @@
       <c r="AE97" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH97" s="144"/>
+      <c r="AH97" s="107"/>
     </row>
     <row r="98" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="36">
@@ -10741,8 +10766,8 @@
       <c r="P98" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q98" s="113"/>
-      <c r="R98" s="113"/>
+      <c r="Q98" s="123"/>
+      <c r="R98" s="123"/>
       <c r="S98" s="26"/>
       <c r="T98" s="26"/>
       <c r="U98" s="6" t="s">
@@ -10782,7 +10807,7 @@
       <c r="AE98" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH98" s="144"/>
+      <c r="AH98" s="107"/>
     </row>
     <row r="99" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36">
@@ -10827,8 +10852,8 @@
       <c r="P99" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q99" s="113"/>
-      <c r="R99" s="113"/>
+      <c r="Q99" s="123"/>
+      <c r="R99" s="123"/>
       <c r="S99" s="26"/>
       <c r="T99" s="26"/>
       <c r="U99" s="6" t="s">
@@ -10868,7 +10893,7 @@
       <c r="AE99" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH99" s="144"/>
+      <c r="AH99" s="107"/>
     </row>
     <row r="100" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="36">
@@ -10917,8 +10942,8 @@
       <c r="P100" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q100" s="113"/>
-      <c r="R100" s="113"/>
+      <c r="Q100" s="123"/>
+      <c r="R100" s="123"/>
       <c r="S100" s="26"/>
       <c r="T100" s="26"/>
       <c r="U100" s="6" t="s">
@@ -10958,7 +10983,7 @@
       <c r="AE100" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH100" s="144"/>
+      <c r="AH100" s="107"/>
     </row>
     <row r="101" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="36">
@@ -11014,8 +11039,8 @@
       <c r="P101" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q101" s="114"/>
-      <c r="R101" s="114"/>
+      <c r="Q101" s="109"/>
+      <c r="R101" s="109"/>
       <c r="S101" s="26"/>
       <c r="T101" s="26"/>
       <c r="U101" s="6" t="s">
@@ -11055,7 +11080,7 @@
       <c r="AE101" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH101" s="144"/>
+      <c r="AH101" s="107"/>
     </row>
     <row r="102" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21">
@@ -11137,7 +11162,7 @@
       <c r="AE102" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH102" s="144"/>
+      <c r="AH102" s="107"/>
     </row>
     <row r="103" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="29">
@@ -11181,7 +11206,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AH103" s="144"/>
+      <c r="AH103" s="107"/>
     </row>
     <row r="104" spans="1:34" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="29">
@@ -11217,7 +11242,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AH104" s="144"/>
+      <c r="AH104" s="107"/>
     </row>
     <row r="105" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="29">
@@ -11253,7 +11278,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AH105" s="144"/>
+      <c r="AH105" s="107"/>
     </row>
     <row r="106" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="21">
@@ -11291,7 +11316,7 @@
       <c r="P106" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="Q106" s="107" t="s">
+      <c r="Q106" s="134" t="s">
         <v>374</v>
       </c>
       <c r="R106" s="24"/>
@@ -11334,7 +11359,7 @@
       <c r="AE106" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH106" s="144"/>
+      <c r="AH106" s="107"/>
     </row>
     <row r="107" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="21">
@@ -11372,7 +11397,7 @@
       <c r="P107" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="Q107" s="108"/>
+      <c r="Q107" s="135"/>
       <c r="R107" s="24"/>
       <c r="S107" s="24"/>
       <c r="T107" s="24"/>
@@ -11413,7 +11438,7 @@
       <c r="AE107" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH107" s="144"/>
+      <c r="AH107" s="107"/>
     </row>
     <row r="108" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21">
@@ -11451,7 +11476,7 @@
       <c r="P108" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q108" s="108"/>
+      <c r="Q108" s="135"/>
       <c r="R108" s="26"/>
       <c r="S108" s="26"/>
       <c r="T108" s="26"/>
@@ -11492,7 +11517,7 @@
       <c r="AE108" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH108" s="144"/>
+      <c r="AH108" s="107"/>
     </row>
     <row r="109" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="21">
@@ -11530,7 +11555,7 @@
       <c r="P109" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q109" s="109"/>
+      <c r="Q109" s="136"/>
       <c r="R109" s="26"/>
       <c r="S109" s="26"/>
       <c r="T109" s="26"/>
@@ -11571,7 +11596,7 @@
       <c r="AE109" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH109" s="144"/>
+      <c r="AH109" s="107"/>
     </row>
     <row r="110" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21">
@@ -11609,7 +11634,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AH110" s="144"/>
+      <c r="AH110" s="107"/>
     </row>
     <row r="111" spans="1:34" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="21">
@@ -11691,7 +11716,7 @@
       <c r="AE111" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH111" s="144"/>
+      <c r="AH111" s="107"/>
     </row>
     <row r="112" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="29">
@@ -11729,7 +11754,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AH112" s="144"/>
+      <c r="AH112" s="107"/>
     </row>
     <row r="113" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="21">
@@ -11767,7 +11792,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AH113" s="144"/>
+      <c r="AH113" s="107"/>
     </row>
     <row r="114" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="16">
@@ -11805,7 +11830,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AH114" s="144"/>
+      <c r="AH114" s="107"/>
     </row>
     <row r="115" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="21">
@@ -11843,7 +11868,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AH115" s="144"/>
+      <c r="AH115" s="107"/>
     </row>
     <row r="116" spans="1:34" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="36">
@@ -11929,7 +11954,7 @@
       <c r="AE116" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH116" s="144"/>
+      <c r="AH116" s="107"/>
     </row>
     <row r="117" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="36">
@@ -12019,7 +12044,7 @@
       <c r="AE117" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH117" s="144"/>
+      <c r="AH117" s="107"/>
     </row>
     <row r="118" spans="1:34" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="36">
@@ -12105,7 +12130,7 @@
       <c r="AE118" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH118" s="144"/>
+      <c r="AH118" s="107"/>
     </row>
     <row r="119" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="21">
@@ -12143,7 +12168,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AH119" s="144"/>
+      <c r="AH119" s="107"/>
     </row>
     <row r="120" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="21">
@@ -12230,7 +12255,7 @@
       <c r="AE120" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH120" s="144"/>
+      <c r="AH120" s="107"/>
     </row>
     <row r="121" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="16">
@@ -12267,7 +12292,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AH121" s="144"/>
+      <c r="AH121" s="107"/>
     </row>
     <row r="122" spans="1:34" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="21">
@@ -12353,7 +12378,7 @@
       <c r="AE122" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH122" s="144"/>
+      <c r="AH122" s="107"/>
     </row>
     <row r="123" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="21">
@@ -12390,7 +12415,7 @@
         <v>424</v>
       </c>
       <c r="V123" s="106"/>
-      <c r="AH123" s="144"/>
+      <c r="AH123" s="107"/>
     </row>
     <row r="124" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="21">
@@ -12474,24 +12499,21 @@
       <c r="AE124" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH124" s="144"/>
+      <c r="AH124" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="T75:T76"/>
-    <mergeCell ref="R45:R47"/>
-    <mergeCell ref="R49:R51"/>
-    <mergeCell ref="S45:S47"/>
-    <mergeCell ref="S49:S51"/>
-    <mergeCell ref="S66:S70"/>
-    <mergeCell ref="R60:R63"/>
-    <mergeCell ref="S60:S63"/>
-    <mergeCell ref="Q15:Q17"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="R15:R17"/>
-    <mergeCell ref="S15:S17"/>
+    <mergeCell ref="Q106:Q109"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="Q45:Q47"/>
+    <mergeCell ref="Q49:Q51"/>
+    <mergeCell ref="Q97:Q101"/>
+    <mergeCell ref="R34:R36"/>
+    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="Q34:Q36"/>
     <mergeCell ref="R97:R101"/>
     <mergeCell ref="R75:R76"/>
     <mergeCell ref="S75:S76"/>
@@ -12508,17 +12530,20 @@
     <mergeCell ref="R20:R22"/>
     <mergeCell ref="R24:R26"/>
     <mergeCell ref="R30:R32"/>
-    <mergeCell ref="R34:R36"/>
-    <mergeCell ref="R39:R41"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="Q24:Q26"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="Q34:Q36"/>
-    <mergeCell ref="Q106:Q109"/>
-    <mergeCell ref="Q39:Q41"/>
-    <mergeCell ref="Q45:Q47"/>
-    <mergeCell ref="Q49:Q51"/>
-    <mergeCell ref="Q97:Q101"/>
+    <mergeCell ref="Q15:Q17"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="S15:S17"/>
+    <mergeCell ref="T75:T76"/>
+    <mergeCell ref="R45:R47"/>
+    <mergeCell ref="R49:R51"/>
+    <mergeCell ref="S45:S47"/>
+    <mergeCell ref="S49:S51"/>
+    <mergeCell ref="S66:S70"/>
+    <mergeCell ref="R60:R63"/>
+    <mergeCell ref="S60:S63"/>
   </mergeCells>
   <conditionalFormatting sqref="A97:H99">
     <cfRule type="expression" dxfId="84" priority="108">
@@ -12875,10 +12900,11 @@
     <hyperlink ref="S3" r:id="rId1" xr:uid="{BA0D9C81-F547-414C-A28F-25DA56C7D1AB}"/>
     <hyperlink ref="S42" r:id="rId2" display="https://inldigitallibrary.inl.gov/sites/sti/sti/Sort_129862.pdf_x000a__x000a_" xr:uid="{0C5690C1-ED1C-8647-B6EB-55013768C9A4}"/>
     <hyperlink ref="S75" r:id="rId3" display="https://www.sciencedirect.com/science/article/pii/S1290072903000218" xr:uid="{FB986645-DAA7-E546-AB13-44635CD5B6AC}"/>
+    <hyperlink ref="R5" r:id="rId4" xr:uid="{F6784630-8313-6844-914B-DA218CBAB253}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -12899,20 +12925,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="137" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="137" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="138" t="s">
+      <c r="B1" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="139" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="136"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="139"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="140"/>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="62">
@@ -13820,12 +13846,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="141" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
     </row>
     <row r="3" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
@@ -13882,12 +13908,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="141" t="s">
         <v>252</v>
       </c>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="143"/>
     </row>
     <row r="8" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
@@ -13946,12 +13972,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="140" t="s">
+      <c r="A12" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="142"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="143"/>
     </row>
     <row r="13" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
@@ -14050,12 +14076,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="140" t="s">
+      <c r="A20" s="141" t="s">
         <v>275</v>
       </c>
-      <c r="B20" s="141"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="142"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="143"/>
     </row>
     <row r="21" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
@@ -14184,12 +14210,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="140" t="s">
+      <c r="A30" s="141" t="s">
         <v>288</v>
       </c>
-      <c r="B30" s="141"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="142"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="143"/>
     </row>
     <row r="31" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
@@ -14264,12 +14290,12 @@
       <c r="D36" s="60"/>
     </row>
     <row r="37" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="140" t="s">
+      <c r="A37" s="141" t="s">
         <v>295</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="142"/>
+      <c r="B37" s="142"/>
+      <c r="C37" s="142"/>
+      <c r="D37" s="143"/>
     </row>
     <row r="38" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
@@ -14356,12 +14382,12 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="140" t="s">
+      <c r="A44" s="141" t="s">
         <v>308</v>
       </c>
-      <c r="B44" s="141"/>
-      <c r="C44" s="141"/>
-      <c r="D44" s="142"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="142"/>
+      <c r="D44" s="143"/>
     </row>
     <row r="45" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
@@ -14378,12 +14404,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="140" t="s">
+      <c r="A46" s="141" t="s">
         <v>311</v>
       </c>
-      <c r="B46" s="141"/>
-      <c r="C46" s="141"/>
-      <c r="D46" s="142"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="142"/>
+      <c r="D46" s="143"/>
     </row>
     <row r="47" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
@@ -14428,12 +14454,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="140" t="s">
+      <c r="A50" s="141" t="s">
         <v>318</v>
       </c>
-      <c r="B50" s="141"/>
-      <c r="C50" s="141"/>
-      <c r="D50" s="142"/>
+      <c r="B50" s="142"/>
+      <c r="C50" s="142"/>
+      <c r="D50" s="143"/>
     </row>
     <row r="51" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="54" t="s">
@@ -15698,7 +15724,7 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="143" t="s">
+      <c r="C10" s="144" t="s">
         <v>429</v>
       </c>
     </row>
@@ -15709,7 +15735,7 @@
       <c r="B11">
         <v>0.5</v>
       </c>
-      <c r="C11" s="143"/>
+      <c r="C11" s="144"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
@@ -15718,7 +15744,7 @@
       <c r="B12">
         <v>0.6</v>
       </c>
-      <c r="C12" s="143"/>
+      <c r="C12" s="144"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="86" t="s">
@@ -15727,7 +15753,7 @@
       <c r="B13">
         <v>0.4</v>
       </c>
-      <c r="C13" s="143"/>
+      <c r="C13" s="144"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
@@ -15736,7 +15762,7 @@
       <c r="B14">
         <v>0.3</v>
       </c>
-      <c r="C14" s="143"/>
+      <c r="C14" s="144"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">

--- a/cost/Cost_Database.xlsx
+++ b/cost/Cost_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannbn/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2578F5-210F-6047-9898-5EBC420FCE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BB8940-7291-3A40-B496-870B4BFE4E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-1460" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Database" sheetId="2" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="L69" authorId="3" shapeId="0" xr:uid="{6A4E3BDC-584F-1346-BF51-598A89836273}">
+    <comment ref="L71" authorId="3" shapeId="0" xr:uid="{6A4E3BDC-584F-1346-BF51-598A89836273}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -95,7 +95,7 @@
     Cost data about B4C are based on the B4C of the control drums</t>
       </text>
     </comment>
-    <comment ref="J75" authorId="4" shapeId="0" xr:uid="{368934F8-D933-024D-9355-5B191B79D6E7}">
+    <comment ref="J77" authorId="4" shapeId="0" xr:uid="{368934F8-D933-024D-9355-5B191B79D6E7}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -104,7 +104,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="H107" authorId="5" shapeId="0" xr:uid="{6E7B8F31-3BA2-6E43-928D-71FCFDC70463}">
+    <comment ref="H109" authorId="5" shapeId="0" xr:uid="{6E7B8F31-3BA2-6E43-928D-71FCFDC70463}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="444">
   <si>
     <t>Account</t>
   </si>
@@ -1676,7 +1676,7 @@
     <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1912,12 +1912,6 @@
       <sz val="10"/>
       <color rgb="FF383A42"/>
       <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2387,6 +2381,9 @@
     </xf>
     <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2497,9 +2494,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3496,14 +3490,14 @@
     <text xml:space="preserve">Since the cost of the BeO of the drums was not available, the cost of the BeO reflector is divided by its mass to get a unit cost for the BeO
 </text>
   </threadedComment>
-  <threadedComment ref="L69" dT="2025-05-27T17:51:06.88" personId="{84112BF8-C915-7B4B-BE8E-B816F75B981C}" id="{6A4E3BDC-584F-1346-BF51-598A89836273}">
+  <threadedComment ref="L71" dT="2025-05-27T17:51:06.88" personId="{84112BF8-C915-7B4B-BE8E-B816F75B981C}" id="{6A4E3BDC-584F-1346-BF51-598A89836273}">
     <text>Cost data about B4C are based on the B4C of the control drums</text>
   </threadedComment>
-  <threadedComment ref="J75" dT="2025-05-27T22:16:31.29" personId="{84112BF8-C915-7B4B-BE8E-B816F75B981C}" id="{368934F8-D933-024D-9355-5B191B79D6E7}">
+  <threadedComment ref="J77" dT="2025-05-27T22:16:31.29" personId="{84112BF8-C915-7B4B-BE8E-B816F75B981C}" id="{368934F8-D933-024D-9355-5B191B79D6E7}">
     <text xml:space="preserve">The primary pump needs to be expensive!!
 </text>
   </threadedComment>
-  <threadedComment ref="H107" dT="2025-06-19T23:17:33.50" personId="{84112BF8-C915-7B4B-BE8E-B816F75B981C}" id="{6E7B8F31-3BA2-6E43-928D-71FCFDC70463}">
+  <threadedComment ref="H109" dT="2025-06-19T23:17:33.50" personId="{84112BF8-C915-7B4B-BE8E-B816F75B981C}" id="{6E7B8F31-3BA2-6E43-928D-71FCFDC70463}">
     <text>The cost is multiplied by 0.5 since the
  shipping included international shipping</text>
   </threadedComment>
@@ -3512,11 +3506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5330BDA-7164-B946-A942-FFAE4F744BBA}">
-  <dimension ref="A1:AH124"/>
+  <dimension ref="A1:AH126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="63" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="125" zoomScaleNormal="63" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3703,7 +3697,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="17">
-        <f t="shared" ref="B3:B88" si="0">IF(ISNUMBER(A3),
+        <f t="shared" ref="B3:B90" si="0">IF(ISNUMBER(A3),
     IF(AND(A3=INT(A3), MOD(A3, 10) = 0), 0,
         IF(AND(A3=INT(A3), LEN(A3)=2), 1,
             IF(AND(A3=INT(A3), LEN(A3)=3), 2,
@@ -3717,7 +3711,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="19" t="str">
-        <f t="shared" ref="D3:D86" si="1">REPT("   ", B3*2) &amp; C3</f>
+        <f t="shared" ref="D3:D88" si="1">REPT("   ", B3*2) &amp; C3</f>
         <v xml:space="preserve">      Land Cost</v>
       </c>
       <c r="E3" s="19" t="s">
@@ -3753,10 +3747,10 @@
       <c r="Q3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="110" t="s">
+      <c r="R3" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="S3" s="126" t="s">
+      <c r="S3" s="127" t="s">
         <v>56</v>
       </c>
       <c r="T3" s="26"/>
@@ -3768,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="6">
-        <f t="shared" ref="W3:W66" si="3">1.3*H3</f>
+        <f t="shared" ref="W3:W67" si="3">1.3*H3</f>
         <v>0</v>
       </c>
       <c r="X3" s="6" t="s">
@@ -3848,8 +3842,8 @@
       <c r="Q4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="110"/>
-      <c r="S4" s="126"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="127"/>
       <c r="T4" s="26"/>
       <c r="U4" s="6" t="s">
         <v>420</v>
@@ -3929,7 +3923,7 @@
       <c r="Q5" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="R5" s="145" t="s">
+      <c r="R5" s="108" t="s">
         <v>426</v>
       </c>
       <c r="S5" s="17" t="s">
@@ -4024,7 +4018,7 @@
         <v>420</v>
       </c>
       <c r="V6" s="106">
-        <f t="shared" ref="V6:V69" si="6">0.9*H6</f>
+        <f t="shared" ref="V6:V71" si="6">0.9*H6</f>
         <v>2700000</v>
       </c>
       <c r="W6" s="6">
@@ -4310,13 +4304,13 @@
       <c r="P11" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="122" t="s">
+      <c r="Q11" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="R11" s="110" t="s">
+      <c r="R11" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="S11" s="111" t="s">
+      <c r="S11" s="112" t="s">
         <v>84</v>
       </c>
       <c r="T11" s="26"/>
@@ -4335,11 +4329,11 @@
         <v>439</v>
       </c>
       <c r="Y11" s="6">
-        <f t="shared" ref="Y11:Y72" si="7">0.9*I11</f>
+        <f t="shared" ref="Y11:Y74" si="7">0.9*I11</f>
         <v>5276.5914600000006</v>
       </c>
       <c r="Z11" s="6">
-        <f t="shared" ref="Z11:Z72" si="8">1.3*I11</f>
+        <f t="shared" ref="Z11:Z74" si="8">1.3*I11</f>
         <v>7621.7432200000012</v>
       </c>
       <c r="AA11" s="6" t="s">
@@ -4412,9 +4406,9 @@
       <c r="P12" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" s="122"/>
-      <c r="R12" s="110"/>
-      <c r="S12" s="112"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="113"/>
       <c r="T12" s="26"/>
       <c r="U12" s="6" t="s">
         <v>421</v>
@@ -4501,9 +4495,9 @@
       <c r="P13" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="110"/>
-      <c r="S13" s="112"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="113"/>
       <c r="T13" s="26"/>
       <c r="U13" s="6" t="s">
         <v>421</v>
@@ -4626,13 +4620,13 @@
       <c r="P15" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q15" s="122" t="s">
+      <c r="Q15" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="110" t="s">
+      <c r="R15" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="S15" s="111" t="s">
+      <c r="S15" s="112" t="s">
         <v>84</v>
       </c>
       <c r="T15" s="26"/>
@@ -4721,9 +4715,9 @@
       <c r="P16" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="122"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="112"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="113"/>
       <c r="T16" s="26"/>
       <c r="U16" s="6" t="s">
         <v>421</v>
@@ -4810,9 +4804,9 @@
       <c r="P17" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q17" s="122"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="112"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="113"/>
       <c r="T17" s="26"/>
       <c r="U17" s="6" t="s">
         <v>421</v>
@@ -4967,13 +4961,13 @@
       <c r="P20" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q20" s="122" t="s">
+      <c r="Q20" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="R20" s="110" t="s">
+      <c r="R20" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="S20" s="111" t="s">
+      <c r="S20" s="112" t="s">
         <v>84</v>
       </c>
       <c r="T20" s="26"/>
@@ -5062,9 +5056,9 @@
       <c r="P21" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="110"/>
-      <c r="S21" s="112"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="113"/>
       <c r="T21" s="26"/>
       <c r="U21" s="6" t="s">
         <v>421</v>
@@ -5151,9 +5145,9 @@
       <c r="P22" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="122"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="112"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="113"/>
       <c r="T22" s="26"/>
       <c r="U22" s="6" t="s">
         <v>421</v>
@@ -5277,13 +5271,13 @@
       <c r="P24" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q24" s="122" t="s">
+      <c r="Q24" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="R24" s="110" t="s">
+      <c r="R24" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="111" t="s">
+      <c r="S24" s="112" t="s">
         <v>84</v>
       </c>
       <c r="T24" s="26"/>
@@ -5372,9 +5366,9 @@
       <c r="P25" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="112"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="113"/>
       <c r="T25" s="26"/>
       <c r="U25" s="6" t="s">
         <v>421</v>
@@ -5461,9 +5455,9 @@
       <c r="P26" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q26" s="122"/>
-      <c r="R26" s="110"/>
-      <c r="S26" s="112"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="113"/>
       <c r="T26" s="26"/>
       <c r="U26" s="6" t="s">
         <v>421</v>
@@ -5661,13 +5655,13 @@
       <c r="P30" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q30" s="133" t="s">
+      <c r="Q30" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="R30" s="132" t="s">
+      <c r="R30" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="S30" s="130" t="s">
+      <c r="S30" s="131" t="s">
         <v>84</v>
       </c>
       <c r="T30" s="85"/>
@@ -5735,9 +5729,9 @@
       <c r="P31" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q31" s="133"/>
-      <c r="R31" s="132"/>
-      <c r="S31" s="131"/>
+      <c r="Q31" s="134"/>
+      <c r="R31" s="133"/>
+      <c r="S31" s="132"/>
       <c r="T31" s="85"/>
       <c r="U31" s="6" t="s">
         <v>421</v>
@@ -5824,9 +5818,9 @@
       <c r="P32" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q32" s="133"/>
-      <c r="R32" s="132"/>
-      <c r="S32" s="131"/>
+      <c r="Q32" s="134"/>
+      <c r="R32" s="133"/>
+      <c r="S32" s="132"/>
       <c r="T32" s="85"/>
       <c r="U32" s="6" t="s">
         <v>421</v>
@@ -5950,13 +5944,13 @@
       <c r="P34" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q34" s="133" t="s">
+      <c r="Q34" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="R34" s="132" t="s">
+      <c r="R34" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="S34" s="130" t="s">
+      <c r="S34" s="131" t="s">
         <v>84</v>
       </c>
       <c r="T34" s="85"/>
@@ -6045,9 +6039,9 @@
       <c r="P35" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q35" s="133"/>
-      <c r="R35" s="132"/>
-      <c r="S35" s="131"/>
+      <c r="Q35" s="134"/>
+      <c r="R35" s="133"/>
+      <c r="S35" s="132"/>
       <c r="T35" s="85"/>
       <c r="U35" s="6" t="s">
         <v>421</v>
@@ -6134,9 +6128,9 @@
       <c r="P36" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q36" s="133"/>
-      <c r="R36" s="132"/>
-      <c r="S36" s="131"/>
+      <c r="Q36" s="134"/>
+      <c r="R36" s="133"/>
+      <c r="S36" s="132"/>
       <c r="T36" s="85"/>
       <c r="U36" s="6" t="s">
         <v>421</v>
@@ -6297,13 +6291,13 @@
       <c r="P39" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q39" s="133" t="s">
+      <c r="Q39" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="R39" s="132" t="s">
+      <c r="R39" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="S39" s="130" t="s">
+      <c r="S39" s="131" t="s">
         <v>84</v>
       </c>
       <c r="T39" s="85"/>
@@ -6392,9 +6386,9 @@
       <c r="P40" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Q40" s="133"/>
-      <c r="R40" s="132"/>
-      <c r="S40" s="131"/>
+      <c r="Q40" s="134"/>
+      <c r="R40" s="133"/>
+      <c r="S40" s="132"/>
       <c r="T40" s="85"/>
       <c r="U40" s="6" t="s">
         <v>424</v>
@@ -6481,9 +6475,9 @@
       <c r="P41" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Q41" s="133"/>
-      <c r="R41" s="132"/>
-      <c r="S41" s="131"/>
+      <c r="Q41" s="134"/>
+      <c r="R41" s="133"/>
+      <c r="S41" s="132"/>
       <c r="T41" s="85"/>
       <c r="U41" s="6" t="s">
         <v>424</v>
@@ -6740,13 +6734,13 @@
       <c r="P45" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q45" s="122" t="s">
+      <c r="Q45" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="R45" s="110" t="s">
+      <c r="R45" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="S45" s="111" t="s">
+      <c r="S45" s="112" t="s">
         <v>84</v>
       </c>
       <c r="T45" s="26"/>
@@ -6835,9 +6829,9 @@
       <c r="P46" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q46" s="122"/>
-      <c r="R46" s="110"/>
-      <c r="S46" s="112"/>
+      <c r="Q46" s="123"/>
+      <c r="R46" s="111"/>
+      <c r="S46" s="113"/>
       <c r="T46" s="26"/>
       <c r="U46" s="6" t="s">
         <v>421</v>
@@ -6924,9 +6918,9 @@
       <c r="P47" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q47" s="122"/>
-      <c r="R47" s="110"/>
-      <c r="S47" s="112"/>
+      <c r="Q47" s="123"/>
+      <c r="R47" s="111"/>
+      <c r="S47" s="113"/>
       <c r="T47" s="26"/>
       <c r="U47" s="6" t="s">
         <v>421</v>
@@ -7050,13 +7044,13 @@
       <c r="P49" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q49" s="122" t="s">
+      <c r="Q49" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="R49" s="110" t="s">
+      <c r="R49" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="S49" s="111" t="s">
+      <c r="S49" s="112" t="s">
         <v>84</v>
       </c>
       <c r="T49" s="26"/>
@@ -7145,9 +7139,9 @@
       <c r="P50" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q50" s="122"/>
-      <c r="R50" s="110"/>
-      <c r="S50" s="112"/>
+      <c r="Q50" s="123"/>
+      <c r="R50" s="111"/>
+      <c r="S50" s="113"/>
       <c r="T50" s="26"/>
       <c r="U50" s="6" t="s">
         <v>421</v>
@@ -7234,9 +7228,9 @@
       <c r="P51" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Q51" s="122"/>
-      <c r="R51" s="110"/>
-      <c r="S51" s="112"/>
+      <c r="Q51" s="123"/>
+      <c r="R51" s="111"/>
+      <c r="S51" s="113"/>
       <c r="T51" s="26"/>
       <c r="U51" s="6" t="s">
         <v>421</v>
@@ -7438,10 +7432,10 @@
       <c r="Q55" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R55" s="127" t="s">
+      <c r="R55" s="128" t="s">
         <v>178</v>
       </c>
-      <c r="S55" s="113" t="s">
+      <c r="S55" s="114" t="s">
         <v>182</v>
       </c>
       <c r="T55" s="42" t="s">
@@ -7536,8 +7530,8 @@
       <c r="Q56" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R56" s="128"/>
-      <c r="S56" s="114"/>
+      <c r="R56" s="129"/>
+      <c r="S56" s="115"/>
       <c r="T56" s="26"/>
       <c r="U56" s="6" t="s">
         <v>422</v>
@@ -7631,8 +7625,8 @@
       <c r="Q57" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R57" s="129"/>
-      <c r="S57" s="115"/>
+      <c r="R57" s="130"/>
+      <c r="S57" s="116"/>
       <c r="T57" s="42" t="s">
         <v>181</v>
       </c>
@@ -7788,10 +7782,10 @@
       <c r="Q60" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R60" s="116" t="s">
+      <c r="R60" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="S60" s="119" t="s">
+      <c r="S60" s="120" t="s">
         <v>347</v>
       </c>
       <c r="T60" s="90" t="s">
@@ -7875,8 +7869,8 @@
       <c r="Q61" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R61" s="117"/>
-      <c r="S61" s="120"/>
+      <c r="R61" s="118"/>
+      <c r="S61" s="121"/>
       <c r="T61" s="85"/>
       <c r="U61" s="86" t="s">
         <v>423</v>
@@ -7971,8 +7965,8 @@
       <c r="Q62" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R62" s="117"/>
-      <c r="S62" s="120"/>
+      <c r="R62" s="118"/>
+      <c r="S62" s="121"/>
       <c r="T62" s="85"/>
       <c r="U62" s="86" t="s">
         <v>423</v>
@@ -8067,8 +8061,8 @@
       <c r="Q63" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R63" s="118"/>
-      <c r="S63" s="121"/>
+      <c r="R63" s="119"/>
+      <c r="S63" s="122"/>
       <c r="T63" s="85"/>
       <c r="U63" s="86" t="s">
         <v>423</v>
@@ -8212,156 +8206,157 @@
       </c>
       <c r="AH64" s="107"/>
     </row>
-    <row r="65" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="36">
+    <row r="65" spans="1:34" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="77">
+        <v>221.214</v>
+      </c>
+      <c r="B65" s="78">
+        <f t="shared" ref="B65" si="11">IF(ISNUMBER(A65),
+    IF(AND(A65=INT(A65), MOD(A65, 10) = 0), 0,
+        IF(AND(A65=INT(A65), LEN(A65)=2), 1,
+            IF(AND(A65=INT(A65), LEN(A65)=3), 2,
+                LEN(A65) - FIND(".", A65) + 2)
+        )
+    ),
+"")</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="87" t="s">
+        <v>185</v>
+      </c>
+      <c r="D65" s="80" t="str">
+        <f t="shared" ref="D65" si="12">REPT("   ", B65*2) &amp; C65</f>
+        <v xml:space="preserve">                              Control Drums Materials (Reflector)</v>
+      </c>
+      <c r="E65" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="F65" s="80" t="s">
+        <v>330</v>
+      </c>
+      <c r="G65" s="80" t="str">
+        <f>G69</f>
+        <v>Graphite</v>
+      </c>
+      <c r="H65" s="88"/>
+      <c r="I65" s="92">
+        <f>I69</f>
+        <v>75</v>
+      </c>
+      <c r="J65" s="85" t="s">
+        <v>176</v>
+      </c>
+      <c r="K65" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="L65" s="85">
+        <v>1</v>
+      </c>
+      <c r="M65" s="85" t="s">
+        <v>175</v>
+      </c>
+      <c r="N65" s="85">
+        <v>1</v>
+      </c>
+      <c r="O65" s="85">
+        <v>2024</v>
+      </c>
+      <c r="P65" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q65" s="90" t="str">
+        <f>Q74</f>
+        <v xml:space="preserve"> ????????</v>
+      </c>
+      <c r="R65" s="103"/>
+      <c r="S65" s="104"/>
+      <c r="T65" s="85"/>
+      <c r="U65" s="86" t="s">
+        <v>423</v>
+      </c>
+      <c r="V65" s="106">
+        <f t="shared" ref="V65" si="13">0.9*H65</f>
+        <v>0</v>
+      </c>
+      <c r="W65" s="6">
+        <f t="shared" ref="W65" si="14">1.3*H65</f>
+        <v>0</v>
+      </c>
+      <c r="X65" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y65" s="6">
+        <f t="shared" ref="Y65" si="15">0.9*I65</f>
+        <v>67.5</v>
+      </c>
+      <c r="Z65" s="6">
+        <f t="shared" ref="Z65" si="16">1.3*I65</f>
+        <v>97.5</v>
+      </c>
+      <c r="AA65" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB65" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC65" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH65" s="107"/>
+    </row>
+    <row r="66" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="36">
         <v>221.3</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B66" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C65" s="37" t="s">
+      <c r="C66" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="D65" s="19" t="str">
+      <c r="D66" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                  Non-Fuel Core Internals</v>
       </c>
-      <c r="E65" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="69"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="26"/>
-      <c r="P65" s="26"/>
-      <c r="Q65" s="42"/>
-      <c r="R65" s="26"/>
-      <c r="S65" s="26"/>
-      <c r="T65" s="26"/>
-      <c r="V65" s="106">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W65" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X65" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y65" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z65" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA65" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB65" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="AC65" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD65" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE65" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="AH65" s="107"/>
-    </row>
-    <row r="66" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="36">
-        <v>221.31</v>
-      </c>
-      <c r="B66" s="17">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">                        Reflector</v>
-      </c>
       <c r="E66" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="F66" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="H66" s="24">
-        <f>MARVEL_Cost!C29</f>
-        <v>120231</v>
-      </c>
-      <c r="I66" s="70">
-        <f>MARVEL_Cost!C27/L66</f>
-        <v>10062.893081761007</v>
-      </c>
-      <c r="J66" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="K66" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="L66" s="26">
-        <f>'Design Variables'!B17</f>
-        <v>318</v>
-      </c>
-      <c r="M66" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="N66" s="26">
-        <v>1</v>
-      </c>
-      <c r="O66" s="26">
-        <v>2024</v>
-      </c>
-      <c r="P66" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q66" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="R66" s="127" t="s">
-        <v>178</v>
-      </c>
-      <c r="S66" s="113" t="s">
-        <v>182</v>
-      </c>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="69"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="26"/>
+      <c r="P66" s="26"/>
+      <c r="Q66" s="42"/>
+      <c r="R66" s="26"/>
+      <c r="S66" s="26"/>
       <c r="T66" s="26"/>
-      <c r="U66" s="6" t="s">
-        <v>424</v>
-      </c>
       <c r="V66" s="106">
         <f t="shared" si="6"/>
-        <v>108207.90000000001</v>
+        <v>0</v>
       </c>
       <c r="W66" s="6">
         <f t="shared" si="3"/>
-        <v>156300.30000000002</v>
+        <v>0</v>
       </c>
       <c r="X66" s="6" t="s">
         <v>439</v>
       </c>
       <c r="Y66" s="6">
         <f t="shared" si="7"/>
-        <v>9056.6037735849059</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="6">
         <f t="shared" si="8"/>
-        <v>13081.761006289309</v>
+        <v>0</v>
       </c>
       <c r="AA66" s="6" t="s">
         <v>439</v>
@@ -8385,824 +8380,847 @@
         <v>221.31</v>
       </c>
       <c r="B67" s="17">
-        <f t="shared" ref="B67" si="11">IF(ISNUMBER(A67),
-    IF(AND(A67=INT(A67), MOD(A67, 10) = 0), 0,
-        IF(AND(A67=INT(A67), LEN(A67)=2), 1,
-            IF(AND(A67=INT(A67), LEN(A67)=3), 2,
-                LEN(A67) - FIND(".", A67) + 2)
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">                        Reflector</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="H67" s="24">
+        <f>MARVEL_Cost!C29</f>
+        <v>120231</v>
+      </c>
+      <c r="I67" s="70">
+        <f>MARVEL_Cost!C27/L67</f>
+        <v>10062.893081761007</v>
+      </c>
+      <c r="J67" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="K67" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="L67" s="26">
+        <f>'Design Variables'!B17</f>
+        <v>318</v>
+      </c>
+      <c r="M67" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="N67" s="26">
+        <v>1</v>
+      </c>
+      <c r="O67" s="26">
+        <v>2024</v>
+      </c>
+      <c r="P67" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q67" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="R67" s="128" t="s">
+        <v>178</v>
+      </c>
+      <c r="S67" s="114" t="s">
+        <v>182</v>
+      </c>
+      <c r="T67" s="26"/>
+      <c r="U67" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="V67" s="106">
+        <f t="shared" si="6"/>
+        <v>108207.90000000001</v>
+      </c>
+      <c r="W67" s="6">
+        <f t="shared" si="3"/>
+        <v>156300.30000000002</v>
+      </c>
+      <c r="X67" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y67" s="6">
+        <f t="shared" si="7"/>
+        <v>9056.6037735849059</v>
+      </c>
+      <c r="Z67" s="6">
+        <f t="shared" si="8"/>
+        <v>13081.761006289309</v>
+      </c>
+      <c r="AA67" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB67" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC67" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD67" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH67" s="107"/>
+    </row>
+    <row r="68" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="36">
+        <v>221.31</v>
+      </c>
+      <c r="B68" s="17">
+        <f t="shared" ref="B68" si="17">IF(ISNUMBER(A68),
+    IF(AND(A68=INT(A68), MOD(A68, 10) = 0), 0,
+        IF(AND(A68=INT(A68), LEN(A68)=2), 1,
+            IF(AND(A68=INT(A68), LEN(A68)=3), 2,
+                LEN(A68) - FIND(".", A68) + 2)
         )
     ),
 "")</f>
         <v>4</v>
       </c>
-      <c r="C67" s="37" t="s">
+      <c r="C68" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D67" s="19" t="str">
-        <f t="shared" ref="D67" si="12">REPT("   ", B67*2) &amp; C67</f>
+      <c r="D68" s="19" t="str">
+        <f t="shared" ref="D68" si="18">REPT("   ", B68*2) &amp; C68</f>
         <v xml:space="preserve">                        Reflector</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="E68" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="F67" s="19" t="s">
+      <c r="F68" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="19" t="s">
+      <c r="G68" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="H67" s="24"/>
-      <c r="I67" s="70">
+      <c r="H68" s="24"/>
+      <c r="I68" s="70">
         <f>I64</f>
         <v>44736.84210526316</v>
       </c>
-      <c r="J67" s="26" t="s">
+      <c r="J68" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="K67" s="42" t="s">
+      <c r="K68" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="L67" s="26">
+      <c r="L68" s="26">
         <f>L64</f>
         <v>19</v>
       </c>
-      <c r="M67" s="26" t="s">
+      <c r="M68" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="N67" s="26">
-        <v>1</v>
-      </c>
-      <c r="O67" s="26">
+      <c r="N68" s="26">
+        <v>1</v>
+      </c>
+      <c r="O68" s="26">
         <v>2024</v>
       </c>
-      <c r="P67" s="26" t="s">
+      <c r="P68" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q67" s="42" t="s">
+      <c r="Q68" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="R67" s="128"/>
-      <c r="S67" s="114"/>
-      <c r="T67" s="26"/>
-      <c r="U67" s="6" t="s">
+      <c r="R68" s="129"/>
+      <c r="S68" s="115"/>
+      <c r="T68" s="26"/>
+      <c r="U68" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="V67" s="106">
+      <c r="V68" s="106">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W67" s="6">
-        <f t="shared" ref="W67:W124" si="13">1.3*H67</f>
-        <v>0</v>
-      </c>
-      <c r="X67" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y67" s="6">
+      <c r="W68" s="6">
+        <f t="shared" ref="W68:W126" si="19">1.3*H68</f>
+        <v>0</v>
+      </c>
+      <c r="X68" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y68" s="6">
         <f t="shared" si="7"/>
         <v>40263.157894736847</v>
       </c>
-      <c r="Z67" s="6">
+      <c r="Z68" s="6">
         <f t="shared" si="8"/>
         <v>58157.894736842107</v>
       </c>
-      <c r="AA67" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB67" s="6">
+      <c r="AA68" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB68" s="6">
         <v>0.1</v>
       </c>
-      <c r="AC67" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD67" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE67" s="6" t="s">
+      <c r="AC68" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD68" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH67" s="107"/>
-    </row>
-    <row r="68" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="36">
+      <c r="AH68" s="107"/>
+    </row>
+    <row r="69" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="36">
+        <v>221.31</v>
+      </c>
+      <c r="B69" s="17">
+        <f t="shared" ref="B69" si="20">IF(ISNUMBER(A69),
+    IF(AND(A69=INT(A69), MOD(A69, 10) = 0), 0,
+        IF(AND(A69=INT(A69), LEN(A69)=2), 1,
+            IF(AND(A69=INT(A69), LEN(A69)=3), 2,
+                LEN(A69) - FIND(".", A69) + 2)
+        )
+    ),
+"")</f>
+        <v>4</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="19" t="str">
+        <f t="shared" ref="D69" si="21">REPT("   ", B69*2) &amp; C69</f>
+        <v xml:space="preserve">                        Reflector</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="19" t="str">
+        <f>G74</f>
+        <v>Graphite</v>
+      </c>
+      <c r="H69" s="24"/>
+      <c r="I69" s="70">
+        <f>I74</f>
+        <v>75</v>
+      </c>
+      <c r="J69" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="K69" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="L69" s="26">
+        <v>1</v>
+      </c>
+      <c r="M69" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="N69" s="26">
+        <v>1</v>
+      </c>
+      <c r="O69" s="26">
+        <v>2024</v>
+      </c>
+      <c r="P69" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q69" s="42" t="str">
+        <f>Q74</f>
+        <v xml:space="preserve"> ????????</v>
+      </c>
+      <c r="R69" s="129"/>
+      <c r="S69" s="115"/>
+      <c r="T69" s="26"/>
+      <c r="U69" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="V69" s="106">
+        <f t="shared" ref="V69" si="22">0.9*H69</f>
+        <v>0</v>
+      </c>
+      <c r="W69" s="6">
+        <f t="shared" ref="W69" si="23">1.3*H69</f>
+        <v>0</v>
+      </c>
+      <c r="X69" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y69" s="6">
+        <f t="shared" ref="Y69" si="24">0.9*I69</f>
+        <v>67.5</v>
+      </c>
+      <c r="Z69" s="6">
+        <f t="shared" ref="Z69" si="25">1.3*I69</f>
+        <v>97.5</v>
+      </c>
+      <c r="AA69" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB69" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC69" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD69" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH69" s="107"/>
+    </row>
+    <row r="70" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="36">
         <v>221.32</v>
       </c>
-      <c r="B68" s="17">
+      <c r="B70" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C68" s="37" t="s">
+      <c r="C70" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="19" t="str">
+      <c r="D70" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                        Shield</v>
       </c>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="69"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="42"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="26"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="26"/>
-      <c r="P68" s="26"/>
-      <c r="Q68" s="42"/>
-      <c r="R68" s="128"/>
-      <c r="S68" s="114"/>
-      <c r="T68" s="26"/>
-      <c r="V68" s="106"/>
-      <c r="AH68" s="107"/>
-    </row>
-    <row r="69" spans="1:34" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="77">
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="69"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="26"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="26"/>
+      <c r="P70" s="26"/>
+      <c r="Q70" s="42"/>
+      <c r="R70" s="129"/>
+      <c r="S70" s="115"/>
+      <c r="T70" s="26"/>
+      <c r="V70" s="106"/>
+      <c r="AH70" s="107"/>
+    </row>
+    <row r="71" spans="1:34" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="77">
         <v>221.321</v>
       </c>
-      <c r="B69" s="78">
+      <c r="B71" s="78">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C69" s="87" t="s">
+      <c r="C71" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="D69" s="80" t="str">
+      <c r="D71" s="80" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                              In Vessel Shield Materials</v>
       </c>
-      <c r="E69" s="80" t="s">
+      <c r="E71" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="F69" s="80" t="s">
+      <c r="F71" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="G69" s="80" t="s">
+      <c r="G71" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="H69" s="88">
+      <c r="H71" s="88">
         <f>MARVEL_Cost!C30</f>
         <v>647990.6</v>
       </c>
-      <c r="I69" s="89">
+      <c r="I71" s="89">
         <f>I62</f>
         <v>14285.714285714286</v>
       </c>
-      <c r="J69" s="85" t="s">
+      <c r="J71" s="85" t="s">
         <v>176</v>
       </c>
-      <c r="K69" s="90" t="s">
+      <c r="K71" s="90" t="s">
         <v>411</v>
       </c>
-      <c r="L69" s="85">
+      <c r="L71" s="85">
         <f>L62</f>
         <v>28</v>
       </c>
-      <c r="M69" s="85" t="s">
+      <c r="M71" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="N69" s="85">
-        <v>1</v>
-      </c>
-      <c r="O69" s="85">
+      <c r="N71" s="85">
+        <v>1</v>
+      </c>
+      <c r="O71" s="85">
         <v>2024</v>
       </c>
-      <c r="P69" s="85" t="s">
+      <c r="P71" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="Q69" s="90" t="s">
+      <c r="Q71" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R69" s="128"/>
-      <c r="S69" s="114"/>
-      <c r="T69" s="85"/>
-      <c r="U69" s="6" t="s">
+      <c r="R71" s="129"/>
+      <c r="S71" s="115"/>
+      <c r="T71" s="85"/>
+      <c r="U71" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="V69" s="106">
+      <c r="V71" s="106">
         <f t="shared" si="6"/>
         <v>583191.54</v>
       </c>
-      <c r="W69" s="6">
-        <f t="shared" si="13"/>
+      <c r="W71" s="6">
+        <f t="shared" si="19"/>
         <v>842387.78</v>
       </c>
-      <c r="X69" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y69" s="6">
+      <c r="X71" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y71" s="6">
         <f t="shared" si="7"/>
         <v>12857.142857142859</v>
       </c>
-      <c r="Z69" s="6">
+      <c r="Z71" s="6">
         <f t="shared" si="8"/>
         <v>18571.428571428572</v>
       </c>
-      <c r="AA69" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB69" s="6">
+      <c r="AA71" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB71" s="6">
         <v>0.1</v>
       </c>
-      <c r="AC69" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD69" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE69" s="6" t="s">
+      <c r="AC71" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD71" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH69" s="107"/>
-    </row>
-    <row r="70" spans="1:34" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="77">
+      <c r="AH71" s="107"/>
+    </row>
+    <row r="72" spans="1:34" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="77">
         <v>221.322</v>
       </c>
-      <c r="B70" s="78">
+      <c r="B72" s="78">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C70" s="87" t="s">
+      <c r="C72" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="D70" s="80" t="str">
+      <c r="D72" s="80" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                              Out The Vessel Shield Materials</v>
       </c>
-      <c r="E70" s="80" t="s">
+      <c r="E72" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="F70" s="80" t="s">
+      <c r="F72" s="80" t="s">
         <v>416</v>
       </c>
-      <c r="G70" s="80" t="s">
+      <c r="G72" s="80" t="s">
         <v>334</v>
       </c>
-      <c r="H70" s="88"/>
-      <c r="I70" s="89">
+      <c r="H72" s="88"/>
+      <c r="I72" s="89">
         <v>20</v>
       </c>
-      <c r="J70" s="85" t="s">
+      <c r="J72" s="85" t="s">
         <v>176</v>
       </c>
-      <c r="K70" s="90" t="s">
+      <c r="K72" s="90" t="s">
         <v>412</v>
       </c>
-      <c r="L70" s="85">
+      <c r="L72" s="85">
         <f>'Design Variables'!B43</f>
         <v>925.3</v>
       </c>
-      <c r="M70" s="85" t="s">
+      <c r="M72" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="N70" s="85">
-        <v>1</v>
-      </c>
-      <c r="O70" s="85">
+      <c r="N72" s="85">
+        <v>1</v>
+      </c>
+      <c r="O72" s="85">
         <v>2024</v>
       </c>
-      <c r="P70" s="85" t="s">
+      <c r="P72" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="Q70" s="90" t="s">
+      <c r="Q72" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="R70" s="129"/>
-      <c r="S70" s="115"/>
-      <c r="T70" s="85"/>
-      <c r="U70" s="6" t="s">
+      <c r="R72" s="130"/>
+      <c r="S72" s="116"/>
+      <c r="T72" s="85"/>
+      <c r="U72" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="V70" s="106">
-        <f t="shared" ref="V70:V124" si="14">0.9*H70</f>
-        <v>0</v>
-      </c>
-      <c r="W70" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="X70" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y70" s="6">
+      <c r="V72" s="106">
+        <f t="shared" ref="V72:V126" si="26">0.9*H72</f>
+        <v>0</v>
+      </c>
+      <c r="W72" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X72" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y72" s="6">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="Z70" s="6">
+      <c r="Z72" s="6">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="AA70" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB70" s="6">
+      <c r="AA72" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB72" s="6">
         <v>0.1</v>
       </c>
-      <c r="AC70" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD70" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE70" s="6" t="s">
+      <c r="AC72" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD72" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH70" s="107"/>
-    </row>
-    <row r="71" spans="1:34" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="36">
+      <c r="AH72" s="107"/>
+    </row>
+    <row r="73" spans="1:34" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="36">
         <v>221.33</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B73" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C71" s="37" t="s">
+      <c r="C73" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="D71" s="19" t="str">
-        <f>REPT("   ", B72*2) &amp; C71</f>
+      <c r="D73" s="19" t="str">
+        <f>REPT("   ", B74*2) &amp; C73</f>
         <v xml:space="preserve">                        Moderator</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="E73" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="F71" s="19" t="s">
+      <c r="F73" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="G71" s="19" t="s">
+      <c r="G73" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="H71" s="24"/>
-      <c r="I71" s="69">
+      <c r="H73" s="24"/>
+      <c r="I73" s="69">
         <v>1520</v>
       </c>
-      <c r="J71" s="26" t="s">
+      <c r="J73" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="K71" s="42" t="s">
+      <c r="K73" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="L71" s="6">
-        <v>1</v>
-      </c>
-      <c r="M71" s="26" t="s">
+      <c r="L73" s="6">
+        <v>1</v>
+      </c>
+      <c r="M73" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="N71" s="26">
-        <v>1</v>
-      </c>
-      <c r="O71" s="26">
+      <c r="N73" s="26">
+        <v>1</v>
+      </c>
+      <c r="O73" s="26">
         <v>2017</v>
       </c>
-      <c r="P71" s="26" t="s">
+      <c r="P73" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q71" s="42" t="s">
+      <c r="Q73" s="42" t="s">
         <v>338</v>
       </c>
-      <c r="R71" s="73" t="s">
+      <c r="R73" s="73" t="s">
         <v>339</v>
       </c>
-      <c r="S71" s="75"/>
-      <c r="T71" s="26"/>
-      <c r="U71" s="6" t="s">
+      <c r="S73" s="75"/>
+      <c r="T73" s="26"/>
+      <c r="U73" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="V71" s="106">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W71" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="X71" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y71" s="6">
+      <c r="V73" s="106">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W73" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X73" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y73" s="6">
         <f t="shared" si="7"/>
         <v>1368</v>
       </c>
-      <c r="Z71" s="6">
+      <c r="Z73" s="6">
         <f t="shared" si="8"/>
         <v>1976</v>
       </c>
-      <c r="AA71" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB71" s="6">
+      <c r="AA73" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB73" s="6">
         <v>0.1</v>
       </c>
-      <c r="AC71" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD71" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE71" s="6" t="s">
+      <c r="AC73" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD73" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH71" s="107"/>
-    </row>
-    <row r="72" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="36">
+      <c r="AH73" s="107"/>
+    </row>
+    <row r="74" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="36">
         <v>221.33</v>
       </c>
-      <c r="B72" s="17">
+      <c r="B74" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C72" s="37" t="s">
+      <c r="C74" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="D72" s="19" t="str">
-        <f>REPT("   ", B73*2) &amp; C72</f>
+      <c r="D74" s="19" t="str">
+        <f>REPT("   ", B75*2) &amp; C74</f>
         <v xml:space="preserve">            Moderator</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E74" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="F72" s="19" t="s">
+      <c r="F74" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="G72" s="19" t="s">
+      <c r="G74" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="H72" s="24"/>
-      <c r="I72" s="69">
+      <c r="H74" s="24"/>
+      <c r="I74" s="69">
         <v>75</v>
       </c>
-      <c r="J72" s="26" t="s">
+      <c r="J74" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="K72" s="42" t="s">
+      <c r="K74" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="L72" s="6">
-        <v>1</v>
-      </c>
-      <c r="M72" s="26" t="s">
+      <c r="L74" s="6">
+        <v>1</v>
+      </c>
+      <c r="M74" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="N72" s="26">
-        <v>1</v>
-      </c>
-      <c r="O72" s="26">
+      <c r="N74" s="26">
+        <v>1</v>
+      </c>
+      <c r="O74" s="26">
         <v>2024</v>
       </c>
-      <c r="P72" s="26" t="s">
+      <c r="P74" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q72" s="76" t="s">
+      <c r="Q74" s="76" t="s">
         <v>340</v>
       </c>
-      <c r="R72" s="74"/>
-      <c r="S72" s="75"/>
-      <c r="T72" s="26"/>
-      <c r="U72" s="6" t="s">
+      <c r="R74" s="74"/>
+      <c r="S74" s="75"/>
+      <c r="T74" s="26"/>
+      <c r="U74" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="V72" s="106">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W72" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="X72" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y72" s="6">
+      <c r="V74" s="106">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W74" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X74" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y74" s="6">
         <f t="shared" si="7"/>
         <v>67.5</v>
       </c>
-      <c r="Z72" s="6">
+      <c r="Z74" s="6">
         <f t="shared" si="8"/>
         <v>97.5</v>
       </c>
-      <c r="AA72" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB72" s="6">
+      <c r="AA74" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB74" s="6">
         <v>0.1</v>
       </c>
-      <c r="AC72" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD72" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE72" s="6" t="s">
+      <c r="AC74" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD74" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AH72" s="107"/>
-    </row>
-    <row r="73" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="36">
+      <c r="AH74" s="107"/>
+    </row>
+    <row r="75" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="36">
         <v>222</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B75" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C73" s="37" t="s">
+      <c r="C75" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="19" t="str">
+      <c r="D75" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">            Main Heat Transport System</v>
       </c>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="69"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="42"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="26"/>
-      <c r="P73" s="26"/>
-      <c r="Q73" s="42"/>
-      <c r="R73" s="74"/>
-      <c r="S73" s="26"/>
-      <c r="T73" s="26"/>
-      <c r="V73" s="106">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AH73" s="107"/>
-    </row>
-    <row r="74" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="36">
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="69"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="42"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="26"/>
+      <c r="P75" s="26"/>
+      <c r="Q75" s="42"/>
+      <c r="R75" s="74"/>
+      <c r="S75" s="26"/>
+      <c r="T75" s="26"/>
+      <c r="V75" s="106">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AH75" s="107"/>
+    </row>
+    <row r="76" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="36">
         <v>222.1</v>
       </c>
-      <c r="B74" s="17">
-        <f t="shared" ref="B74:B80" si="15">IF(ISNUMBER(A74),
-    IF(AND(A74=INT(A74), MOD(A74, 10) = 0), 0,
-        IF(AND(A74=INT(A74), LEN(A74)=2), 1,
-            IF(AND(A74=INT(A74), LEN(A74)=3), 2,
-                LEN(A74) - FIND(".", A74) + 2)
+      <c r="B76" s="17">
+        <f t="shared" ref="B76:B82" si="27">IF(ISNUMBER(A76),
+    IF(AND(A76=INT(A76), MOD(A76, 10) = 0), 0,
+        IF(AND(A76=INT(A76), LEN(A76)=2), 1,
+            IF(AND(A76=INT(A76), LEN(A76)=3), 2,
+                LEN(A76) - FIND(".", A76) + 2)
         )
     ),
 "")</f>
         <v>3</v>
       </c>
-      <c r="C74" s="37" t="s">
+      <c r="C76" s="37" t="s">
         <v>358</v>
       </c>
-      <c r="D74" s="19" t="str">
+      <c r="D76" s="19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">                  Fluid Circulation Drive System</v>
       </c>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="24"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="42"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="26"/>
-      <c r="O74" s="26"/>
-      <c r="P74" s="26"/>
-      <c r="Q74" s="42"/>
-      <c r="R74" s="26"/>
-      <c r="S74" s="26"/>
-      <c r="T74" s="26"/>
-      <c r="V74" s="106">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AH74" s="107"/>
-    </row>
-    <row r="75" spans="1:34" ht="61" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="30">
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="24"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="26"/>
+      <c r="P76" s="26"/>
+      <c r="Q76" s="42"/>
+      <c r="R76" s="26"/>
+      <c r="S76" s="26"/>
+      <c r="T76" s="26"/>
+      <c r="V76" s="106">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AH76" s="107"/>
+    </row>
+    <row r="77" spans="1:34" ht="61" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="30">
         <v>222.11</v>
       </c>
-      <c r="B75" s="17">
-        <f t="shared" si="15"/>
+      <c r="B77" s="17">
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
-      <c r="C75" s="37" t="s">
+      <c r="C77" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="D75" s="19" t="str">
-        <f>REPT("   ", B75*2) &amp; C75</f>
+      <c r="D77" s="19" t="str">
+        <f>REPT("   ", B77*2) &amp; C77</f>
         <v xml:space="preserve">                        Primary Pump</v>
       </c>
-      <c r="E75" s="19" t="s">
+      <c r="E77" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="F75" s="19" t="s">
+      <c r="F77" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="G75" s="19" t="s">
+      <c r="G77" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="H75" s="24"/>
-      <c r="I75" s="69">
+      <c r="H77" s="24"/>
+      <c r="I77" s="69">
         <f>12.5*705.48</f>
         <v>8818.5</v>
       </c>
-      <c r="J75" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="K75" s="42" t="s">
-        <v>341</v>
-      </c>
-      <c r="L75" s="26"/>
-      <c r="M75" s="26"/>
-      <c r="N75" s="26">
-        <v>0.71</v>
-      </c>
-      <c r="O75" s="26">
-        <v>2003</v>
-      </c>
-      <c r="P75" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q75" s="42" t="s">
-        <v>349</v>
-      </c>
-      <c r="R75" s="108" t="s">
-        <v>348</v>
-      </c>
-      <c r="S75" s="124" t="s">
-        <v>350</v>
-      </c>
-      <c r="T75" s="108"/>
-      <c r="U75" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="V75" s="106">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W75" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="X75" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y75" s="6">
-        <f t="shared" ref="Y75:Y124" si="16">0.9*I75</f>
-        <v>7936.6500000000005</v>
-      </c>
-      <c r="Z75" s="6">
-        <f t="shared" ref="Z75:Z124" si="17">1.3*I75</f>
-        <v>11464.050000000001</v>
-      </c>
-      <c r="AA75" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB75" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="AC75" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD75" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE75" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="AH75" s="107"/>
-    </row>
-    <row r="76" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="30">
-        <v>222.12</v>
-      </c>
-      <c r="B76" s="17">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="D76" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">                        Secondary Pump</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="G76" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="H76" s="24"/>
-      <c r="I76" s="69">
-        <v>705.48</v>
-      </c>
-      <c r="J76" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="K76" s="42" t="s">
-        <v>342</v>
-      </c>
-      <c r="L76" s="26"/>
-      <c r="M76" s="26"/>
-      <c r="N76" s="26">
-        <v>0.71</v>
-      </c>
-      <c r="O76" s="26">
-        <v>2003</v>
-      </c>
-      <c r="P76" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q76" s="42" t="s">
-        <v>343</v>
-      </c>
-      <c r="R76" s="109"/>
-      <c r="S76" s="125"/>
-      <c r="T76" s="109"/>
-      <c r="U76" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="V76" s="106">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W76" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="X76" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y76" s="6">
-        <f t="shared" si="16"/>
-        <v>634.93200000000002</v>
-      </c>
-      <c r="Z76" s="6">
-        <f t="shared" si="17"/>
-        <v>917.12400000000002</v>
-      </c>
-      <c r="AA76" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB76" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="AC76" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD76" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE76" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="AH76" s="107"/>
-    </row>
-    <row r="77" spans="1:34" ht="76" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="30">
-        <v>222.13</v>
-      </c>
-      <c r="B77" s="17">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="D77" s="19" t="str">
-        <f t="shared" ref="D77" si="18">REPT("   ", B77*2) &amp; C77</f>
-        <v xml:space="preserve">                        Compressor</v>
-      </c>
-      <c r="E77" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="F77" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="G77" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="H77" s="24"/>
-      <c r="I77" s="69">
-        <v>44.71</v>
-      </c>
       <c r="J77" s="26" t="s">
         <v>351</v>
       </c>
       <c r="K77" s="42" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="L77" s="26"/>
       <c r="M77" s="26"/>
       <c r="N77" s="26">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="O77" s="26">
         <v>2003</v>
@@ -9211,34 +9229,36 @@
         <v>74</v>
       </c>
       <c r="Q77" s="42" t="s">
-        <v>343</v>
-      </c>
-      <c r="R77" s="93" t="s">
-        <v>361</v>
-      </c>
-      <c r="S77" s="94"/>
-      <c r="T77" s="93"/>
+        <v>349</v>
+      </c>
+      <c r="R77" s="109" t="s">
+        <v>348</v>
+      </c>
+      <c r="S77" s="125" t="s">
+        <v>350</v>
+      </c>
+      <c r="T77" s="109"/>
       <c r="U77" s="6" t="s">
         <v>424</v>
       </c>
       <c r="V77" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W77" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X77" s="6" t="s">
         <v>439</v>
       </c>
       <c r="Y77" s="6">
-        <f t="shared" si="16"/>
-        <v>40.239000000000004</v>
+        <f t="shared" ref="Y77:Y126" si="28">0.9*I77</f>
+        <v>7936.6500000000005</v>
       </c>
       <c r="Z77" s="6">
-        <f t="shared" si="17"/>
-        <v>58.123000000000005</v>
+        <f t="shared" ref="Z77:Z126" si="29">1.3*I77</f>
+        <v>11464.050000000001</v>
       </c>
       <c r="AA77" s="6" t="s">
         <v>439</v>
@@ -9257,74 +9277,78 @@
       </c>
       <c r="AH77" s="107"/>
     </row>
-    <row r="78" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="36">
-        <v>222.2</v>
+    <row r="78" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="30">
+        <v>222.12</v>
       </c>
       <c r="B78" s="17">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f t="shared" si="27"/>
+        <v>4</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>16</v>
+        <v>353</v>
       </c>
       <c r="D78" s="19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                  Reactor Heat Transfer Piping System</v>
+        <v xml:space="preserve">                        Secondary Pump</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
+        <v>346</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>363</v>
+      </c>
       <c r="H78" s="24"/>
       <c r="I78" s="69">
-        <v>20000</v>
+        <v>705.48</v>
       </c>
       <c r="J78" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="K78" s="23" t="s">
-        <v>71</v>
+        <v>351</v>
+      </c>
+      <c r="K78" s="42" t="s">
+        <v>342</v>
       </c>
       <c r="L78" s="26"/>
       <c r="M78" s="26"/>
-      <c r="N78" s="26"/>
+      <c r="N78" s="26">
+        <v>0.71</v>
+      </c>
       <c r="O78" s="26">
-        <v>2017</v>
+        <v>2003</v>
       </c>
       <c r="P78" s="26" t="s">
         <v>74</v>
       </c>
       <c r="Q78" s="42" t="s">
-        <v>355</v>
-      </c>
-      <c r="R78" s="42" t="s">
-        <v>356</v>
-      </c>
-      <c r="S78" s="26"/>
-      <c r="T78" s="26"/>
+        <v>343</v>
+      </c>
+      <c r="R78" s="110"/>
+      <c r="S78" s="126"/>
+      <c r="T78" s="110"/>
       <c r="U78" s="6" t="s">
         <v>424</v>
       </c>
       <c r="V78" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W78" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X78" s="6" t="s">
         <v>439</v>
       </c>
       <c r="Y78" s="6">
-        <f t="shared" si="16"/>
-        <v>18000</v>
+        <f t="shared" si="28"/>
+        <v>634.93200000000002</v>
       </c>
       <c r="Z78" s="6">
-        <f t="shared" si="17"/>
-        <v>26000</v>
+        <f t="shared" si="29"/>
+        <v>917.12400000000002</v>
       </c>
       <c r="AA78" s="6" t="s">
         <v>439</v>
@@ -9343,97 +9367,142 @@
       </c>
       <c r="AH78" s="107"/>
     </row>
-    <row r="79" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="36">
-        <v>222.3</v>
+    <row r="79" spans="1:34" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="30">
+        <v>222.13</v>
       </c>
       <c r="B79" s="17">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f t="shared" si="27"/>
+        <v>4</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>17</v>
+        <v>359</v>
       </c>
       <c r="D79" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">                  Heat Exchangers</v>
-      </c>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
+        <f t="shared" ref="D79" si="30">REPT("   ", B79*2) &amp; C79</f>
+        <v xml:space="preserve">                        Compressor</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="G79" s="19" t="s">
+        <v>360</v>
+      </c>
       <c r="H79" s="24"/>
-      <c r="I79" s="69"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="42"/>
+      <c r="I79" s="69">
+        <v>44.71</v>
+      </c>
+      <c r="J79" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="K79" s="42" t="s">
+        <v>362</v>
+      </c>
       <c r="L79" s="26"/>
       <c r="M79" s="26"/>
-      <c r="N79" s="26"/>
-      <c r="O79" s="26"/>
-      <c r="P79" s="26"/>
-      <c r="Q79" s="42"/>
-      <c r="R79" s="26"/>
-      <c r="S79" s="26"/>
-      <c r="T79" s="26"/>
+      <c r="N79" s="26">
+        <v>1</v>
+      </c>
+      <c r="O79" s="26">
+        <v>2003</v>
+      </c>
+      <c r="P79" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q79" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="R79" s="93" t="s">
+        <v>361</v>
+      </c>
+      <c r="S79" s="94"/>
+      <c r="T79" s="93"/>
+      <c r="U79" s="6" t="s">
+        <v>424</v>
+      </c>
       <c r="V79" s="106">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W79" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X79" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y79" s="6">
+        <f t="shared" si="28"/>
+        <v>40.239000000000004</v>
+      </c>
+      <c r="Z79" s="6">
+        <f t="shared" si="29"/>
+        <v>58.123000000000005</v>
+      </c>
+      <c r="AA79" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB79" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC79" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD79" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE79" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="AH79" s="107"/>
     </row>
     <row r="80" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="36">
-        <v>222.31</v>
+        <v>222.2</v>
       </c>
       <c r="B80" s="17">
-        <f t="shared" si="15"/>
-        <v>4</v>
+        <f t="shared" si="27"/>
+        <v>3</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>365</v>
+        <v>16</v>
       </c>
       <c r="D80" s="19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                        Primary Heat Exchanger</v>
+        <v xml:space="preserve">                  Reactor Heat Transfer Piping System</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="F80" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="G80" s="19" t="s">
-        <v>364</v>
-      </c>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
       <c r="H80" s="24"/>
       <c r="I80" s="69">
-        <v>50</v>
-      </c>
-      <c r="J80" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="K80" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="L80" s="26">
-        <v>1</v>
-      </c>
-      <c r="M80" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="N80" s="26">
-        <v>1</v>
-      </c>
+        <v>20000</v>
+      </c>
+      <c r="J80" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="K80" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="L80" s="26"/>
+      <c r="M80" s="26"/>
+      <c r="N80" s="26"/>
       <c r="O80" s="26">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="P80" s="26" t="s">
         <v>74</v>
       </c>
       <c r="Q80" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="R80" s="93" t="s">
-        <v>369</v>
+        <v>355</v>
+      </c>
+      <c r="R80" s="42" t="s">
+        <v>356</v>
       </c>
       <c r="S80" s="26"/>
       <c r="T80" s="26"/>
@@ -9441,23 +9510,23 @@
         <v>424</v>
       </c>
       <c r="V80" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W80" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X80" s="6" t="s">
         <v>439</v>
       </c>
       <c r="Y80" s="6">
-        <f t="shared" si="16"/>
-        <v>45</v>
+        <f t="shared" si="28"/>
+        <v>18000</v>
       </c>
       <c r="Z80" s="6">
-        <f t="shared" si="17"/>
-        <v>65</v>
+        <f t="shared" si="29"/>
+        <v>26000</v>
       </c>
       <c r="AA80" s="6" t="s">
         <v>439</v>
@@ -9476,123 +9545,57 @@
       </c>
       <c r="AH80" s="107"/>
     </row>
-    <row r="81" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36">
-        <v>222.31</v>
+        <v>222.3</v>
       </c>
       <c r="B81" s="17">
-        <f t="shared" ref="B81" si="19">IF(ISNUMBER(A81),
-    IF(AND(A81=INT(A81), MOD(A81, 10) = 0), 0,
-        IF(AND(A81=INT(A81), LEN(A81)=2), 1,
-            IF(AND(A81=INT(A81), LEN(A81)=3), 2,
-                LEN(A81) - FIND(".", A81) + 2)
-        )
-    ),
-"")</f>
-        <v>4</v>
+        <f t="shared" si="27"/>
+        <v>3</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>365</v>
+        <v>17</v>
       </c>
       <c r="D81" s="19" t="str">
-        <f t="shared" ref="D81" si="20">REPT("   ", B81*2) &amp; C81</f>
-        <v xml:space="preserve">                        Primary Heat Exchanger</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="F81" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="G81" s="19" t="s">
-        <v>360</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">                  Heat Exchangers</v>
+      </c>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
       <c r="H81" s="24"/>
-      <c r="I81" s="69">
-        <v>120</v>
-      </c>
-      <c r="J81" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="K81" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="L81" s="26">
-        <v>1</v>
-      </c>
-      <c r="M81" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="N81" s="26">
-        <v>1</v>
-      </c>
-      <c r="O81" s="26">
-        <v>2013</v>
-      </c>
-      <c r="P81" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q81" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="R81" s="93" t="s">
-        <v>370</v>
-      </c>
+      <c r="I81" s="69"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="26"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="26"/>
+      <c r="P81" s="26"/>
+      <c r="Q81" s="42"/>
+      <c r="R81" s="26"/>
       <c r="S81" s="26"/>
       <c r="T81" s="26"/>
-      <c r="U81" s="6" t="s">
-        <v>424</v>
-      </c>
       <c r="V81" s="106">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W81" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="X81" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y81" s="6">
-        <f t="shared" si="16"/>
-        <v>108</v>
-      </c>
-      <c r="Z81" s="6">
-        <f t="shared" si="17"/>
-        <v>156</v>
-      </c>
-      <c r="AA81" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB81" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="AC81" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD81" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE81" s="6" t="s">
-        <v>442</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="AH81" s="107"/>
     </row>
     <row r="82" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="36">
-        <v>222.32</v>
+        <v>222.31</v>
       </c>
       <c r="B82" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>18</v>
+        <v>365</v>
       </c>
       <c r="D82" s="19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                        Secondary Heat Exchanger</v>
+        <v xml:space="preserve">                        Primary Heat Exchanger</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>345</v>
@@ -9611,7 +9614,7 @@
         <v>176</v>
       </c>
       <c r="K82" s="42" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L82" s="26">
         <v>1</v>
@@ -9640,22 +9643,22 @@
         <v>424</v>
       </c>
       <c r="V82" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W82" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X82" s="6" t="s">
         <v>439</v>
       </c>
       <c r="Y82" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>45</v>
       </c>
       <c r="Z82" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>65</v>
       </c>
       <c r="AA82" s="6" t="s">
@@ -9677,10 +9680,10 @@
     </row>
     <row r="83" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="36">
-        <v>222.32</v>
+        <v>222.31</v>
       </c>
       <c r="B83" s="17">
-        <f t="shared" ref="B83" si="21">IF(ISNUMBER(A83),
+        <f t="shared" ref="B83" si="31">IF(ISNUMBER(A83),
     IF(AND(A83=INT(A83), MOD(A83, 10) = 0), 0,
         IF(AND(A83=INT(A83), LEN(A83)=2), 1,
             IF(AND(A83=INT(A83), LEN(A83)=3), 2,
@@ -9691,11 +9694,11 @@
         <v>4</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>18</v>
+        <v>365</v>
       </c>
       <c r="D83" s="19" t="str">
-        <f t="shared" ref="D83" si="22">REPT("   ", B83*2) &amp; C83</f>
-        <v xml:space="preserve">                        Secondary Heat Exchanger</v>
+        <f t="shared" ref="D83" si="32">REPT("   ", B83*2) &amp; C83</f>
+        <v xml:space="preserve">                        Primary Heat Exchanger</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>345</v>
@@ -9714,7 +9717,7 @@
         <v>176</v>
       </c>
       <c r="K83" s="42" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L83" s="26">
         <v>1</v>
@@ -9743,22 +9746,22 @@
         <v>424</v>
       </c>
       <c r="V83" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W83" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X83" s="6" t="s">
         <v>439</v>
       </c>
       <c r="Y83" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>108</v>
       </c>
       <c r="Z83" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>156</v>
       </c>
       <c r="AA83" s="6" t="s">
@@ -9778,302 +9781,328 @@
       </c>
       <c r="AH83" s="107"/>
     </row>
-    <row r="84" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="36">
-        <v>223</v>
+        <v>222.32</v>
       </c>
       <c r="B84" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D84" s="19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">            Safety Systems</v>
-      </c>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
+        <v xml:space="preserve">                        Secondary Heat Exchanger</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>364</v>
+      </c>
       <c r="H84" s="24"/>
-      <c r="I84" s="69"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="42"/>
-      <c r="L84" s="26"/>
-      <c r="M84" s="26"/>
-      <c r="N84" s="26"/>
-      <c r="O84" s="26"/>
-      <c r="P84" s="26"/>
-      <c r="Q84" s="42"/>
-      <c r="R84" s="26"/>
+      <c r="I84" s="69">
+        <v>50</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="K84" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="L84" s="26">
+        <v>1</v>
+      </c>
+      <c r="M84" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="N84" s="26">
+        <v>1</v>
+      </c>
+      <c r="O84" s="26">
+        <v>2004</v>
+      </c>
+      <c r="P84" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q84" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="R84" s="93" t="s">
+        <v>369</v>
+      </c>
       <c r="S84" s="26"/>
       <c r="T84" s="26"/>
+      <c r="U84" s="6" t="s">
+        <v>424</v>
+      </c>
       <c r="V84" s="106">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W84" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X84" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y84" s="6">
+        <f t="shared" si="28"/>
+        <v>45</v>
+      </c>
+      <c r="Z84" s="6">
+        <f t="shared" si="29"/>
+        <v>65</v>
+      </c>
+      <c r="AA84" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB84" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC84" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD84" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="AH84" s="107"/>
     </row>
-    <row r="85" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="36">
-        <v>223.2</v>
+        <v>222.32</v>
       </c>
       <c r="B85" s="17">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="B85" si="33">IF(ISNUMBER(A85),
+    IF(AND(A85=INT(A85), MOD(A85, 10) = 0), 0,
+        IF(AND(A85=INT(A85), LEN(A85)=2), 1,
+            IF(AND(A85=INT(A85), LEN(A85)=3), 2,
+                LEN(A85) - FIND(".", A85) + 2)
+        )
+    ),
+"")</f>
+        <v>4</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="D85" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">                  Reactor Cavity Cooling System (Rvacs)</v>
-      </c>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
+        <f t="shared" ref="D85" si="34">REPT("   ", B85*2) &amp; C85</f>
+        <v xml:space="preserve">                        Secondary Heat Exchanger</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="G85" s="19" t="s">
+        <v>360</v>
+      </c>
       <c r="H85" s="24"/>
-      <c r="I85" s="69"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="42"/>
-      <c r="L85" s="26"/>
-      <c r="M85" s="26"/>
-      <c r="N85" s="26"/>
-      <c r="O85" s="26"/>
-      <c r="P85" s="26"/>
-      <c r="Q85" s="42"/>
-      <c r="R85" s="26"/>
+      <c r="I85" s="69">
+        <v>120</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="K85" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="L85" s="26">
+        <v>1</v>
+      </c>
+      <c r="M85" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="N85" s="26">
+        <v>1</v>
+      </c>
+      <c r="O85" s="26">
+        <v>2013</v>
+      </c>
+      <c r="P85" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q85" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="R85" s="93" t="s">
+        <v>370</v>
+      </c>
       <c r="S85" s="26"/>
       <c r="T85" s="26"/>
+      <c r="U85" s="6" t="s">
+        <v>424</v>
+      </c>
       <c r="V85" s="106">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W85" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X85" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y85" s="6">
+        <f t="shared" si="28"/>
+        <v>108</v>
+      </c>
+      <c r="Z85" s="6">
+        <f t="shared" si="29"/>
+        <v>156</v>
+      </c>
+      <c r="AA85" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB85" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC85" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD85" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="AH85" s="107"/>
     </row>
-    <row r="86" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="36">
-        <v>223.21</v>
+        <v>223</v>
       </c>
       <c r="B86" s="17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="D86" s="19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                        Rvacs (Cooling Vessel)</v>
-      </c>
-      <c r="E86" s="19" t="s">
-        <v>345</v>
-      </c>
+        <v xml:space="preserve">            Safety Systems</v>
+      </c>
+      <c r="E86" s="19"/>
       <c r="F86" s="19"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="69">
-        <f>I56</f>
-        <v>757.20768746061754</v>
-      </c>
-      <c r="J86" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="K86" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="L86" s="26">
-        <f>L56</f>
-        <v>1587</v>
-      </c>
-      <c r="M86" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="N86" s="26">
-        <v>1</v>
-      </c>
-      <c r="O86" s="26">
-        <v>2024</v>
-      </c>
-      <c r="P86" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q86" s="42" t="s">
-        <v>373</v>
-      </c>
+      <c r="G86" s="19"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="69"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="26"/>
+      <c r="M86" s="26"/>
+      <c r="N86" s="26"/>
+      <c r="O86" s="26"/>
+      <c r="P86" s="26"/>
+      <c r="Q86" s="42"/>
       <c r="R86" s="26"/>
       <c r="S86" s="26"/>
       <c r="T86" s="26"/>
-      <c r="U86" s="6" t="s">
-        <v>424</v>
-      </c>
       <c r="V86" s="106">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W86" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="X86" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y86" s="6">
-        <f t="shared" si="16"/>
-        <v>681.48691871455583</v>
-      </c>
-      <c r="Z86" s="6">
-        <f t="shared" si="17"/>
-        <v>984.36999369880277</v>
-      </c>
-      <c r="AA86" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB86" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="AC86" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD86" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE86" s="6" t="s">
-        <v>442</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="AH86" s="107"/>
     </row>
-    <row r="87" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="36">
-        <v>223.22</v>
+        <v>223.2</v>
       </c>
       <c r="B87" s="17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D87" s="19" t="str">
-        <f>REPT("   ", B87*2) &amp; C87</f>
-        <v xml:space="preserve">                        Rvacs (Intake Vessel)</v>
-      </c>
-      <c r="E87" s="19" t="s">
-        <v>345</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">                  Reactor Cavity Cooling System (Rvacs)</v>
+      </c>
+      <c r="E87" s="19"/>
       <c r="F87" s="19"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="69">
-        <f>I86</f>
-        <v>757.20768746061754</v>
-      </c>
-      <c r="J87" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="K87" s="42" t="s">
-        <v>372</v>
-      </c>
-      <c r="L87" s="26">
-        <f>L86</f>
-        <v>1587</v>
-      </c>
-      <c r="M87" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="N87" s="26">
-        <v>1</v>
-      </c>
-      <c r="O87" s="26">
-        <v>2024</v>
-      </c>
-      <c r="P87" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q87" s="42" t="s">
-        <v>373</v>
-      </c>
+      <c r="G87" s="19"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="69"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="26"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="26"/>
+      <c r="P87" s="26"/>
+      <c r="Q87" s="42"/>
       <c r="R87" s="26"/>
       <c r="S87" s="26"/>
       <c r="T87" s="26"/>
-      <c r="U87" s="6" t="s">
-        <v>424</v>
-      </c>
       <c r="V87" s="106">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W87" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="X87" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y87" s="6">
-        <f t="shared" si="16"/>
-        <v>681.48691871455583</v>
-      </c>
-      <c r="Z87" s="6">
-        <f t="shared" si="17"/>
-        <v>984.36999369880277</v>
-      </c>
-      <c r="AA87" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB87" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="AC87" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD87" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE87" s="6" t="s">
-        <v>442</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="AH87" s="107"/>
     </row>
     <row r="88" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="36">
-        <v>226</v>
+        <v>223.21</v>
       </c>
       <c r="B88" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>211</v>
+        <v>138</v>
       </c>
       <c r="D88" s="19" t="str">
-        <f>REPT("   ", B88*2) &amp; C88</f>
-        <v xml:space="preserve">            Other Reactor Plant Equipment</v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">                        Rvacs (Cooling Vessel)</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>345</v>
       </c>
       <c r="F88" s="19"/>
       <c r="G88" s="23"/>
-      <c r="H88" s="95">
-        <f>MARVEL_Cost!C42</f>
-        <v>456297</v>
-      </c>
-      <c r="I88" s="69"/>
-      <c r="J88" s="26"/>
-      <c r="K88" s="42"/>
-      <c r="L88" s="26"/>
-      <c r="M88" s="26"/>
-      <c r="N88" s="26"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="69">
+        <f>I56</f>
+        <v>757.20768746061754</v>
+      </c>
+      <c r="J88" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="K88" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="L88" s="26">
+        <f>L56</f>
+        <v>1587</v>
+      </c>
+      <c r="M88" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="N88" s="26">
+        <v>1</v>
+      </c>
       <c r="O88" s="26">
         <v>2024</v>
       </c>
       <c r="P88" s="26" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q88" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="R88" s="26"/>
       <c r="S88" s="26"/>
@@ -10082,23 +10111,23 @@
         <v>424</v>
       </c>
       <c r="V88" s="106">
-        <f t="shared" si="14"/>
-        <v>410667.3</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="W88" s="6">
-        <f t="shared" si="13"/>
-        <v>593186.1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="X88" s="6" t="s">
         <v>439</v>
       </c>
       <c r="Y88" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>681.48691871455583</v>
       </c>
       <c r="Z88" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>984.36999369880277</v>
       </c>
       <c r="AA88" s="6" t="s">
         <v>439</v>
@@ -10117,51 +10146,55 @@
       </c>
       <c r="AH88" s="107"/>
     </row>
-    <row r="89" spans="1:34" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="36">
-        <v>227</v>
+        <v>223.22</v>
       </c>
       <c r="B89" s="17">
-        <f t="shared" ref="B89:B124" si="23">IF(ISNUMBER(A89),
-    IF(AND(A89=INT(A89), MOD(A89, 10) = 0), 0,
-        IF(AND(A89=INT(A89), LEN(A89)=2), 1,
-            IF(AND(A89=INT(A89), LEN(A89)=3), 2,
-                LEN(A89) - FIND(".", A89) + 2)
-        )
-    ),
-"")</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="D89" s="19" t="str">
-        <f t="shared" ref="D89:D124" si="24">REPT("   ", B89*2) &amp; C89</f>
-        <v xml:space="preserve">            Reactor Instrumentation and Control (I&amp;C)</v>
+        <f>REPT("   ", B89*2) &amp; C89</f>
+        <v xml:space="preserve">                        Rvacs (Intake Vessel)</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>345</v>
       </c>
       <c r="F89" s="19"/>
       <c r="G89" s="23"/>
-      <c r="H89" s="95">
-        <f>MARVEL_Cost!C43</f>
-        <v>2253208.37</v>
-      </c>
-      <c r="I89" s="69"/>
-      <c r="J89" s="26"/>
-      <c r="K89" s="42"/>
-      <c r="L89" s="26"/>
-      <c r="M89" s="26"/>
-      <c r="N89" s="26"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="69">
+        <f>I88</f>
+        <v>757.20768746061754</v>
+      </c>
+      <c r="J89" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="K89" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="L89" s="26">
+        <f>L88</f>
+        <v>1587</v>
+      </c>
+      <c r="M89" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="N89" s="26">
+        <v>1</v>
+      </c>
       <c r="O89" s="26">
         <v>2024</v>
       </c>
       <c r="P89" s="26" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q89" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="R89" s="26"/>
       <c r="S89" s="26"/>
@@ -10170,23 +10203,23 @@
         <v>424</v>
       </c>
       <c r="V89" s="106">
-        <f t="shared" si="14"/>
-        <v>2027887.5330000001</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="W89" s="6">
-        <f t="shared" si="13"/>
-        <v>2929170.8810000001</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="X89" s="6" t="s">
         <v>439</v>
       </c>
       <c r="Y89" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>681.48691871455583</v>
       </c>
       <c r="Z89" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>984.36999369880277</v>
       </c>
       <c r="AA89" s="6" t="s">
         <v>439</v>
@@ -10205,20 +10238,20 @@
       </c>
       <c r="AH89" s="107"/>
     </row>
-    <row r="90" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="36">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B90" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D90" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">            Reactor Plant Miscellaneous Items</v>
+        <f>REPT("   ", B90*2) &amp; C90</f>
+        <v xml:space="preserve">            Other Reactor Plant Equipment</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>345</v>
@@ -10226,8 +10259,8 @@
       <c r="F90" s="19"/>
       <c r="G90" s="23"/>
       <c r="H90" s="95">
-        <f>MARVEL_Cost!C44</f>
-        <v>30960</v>
+        <f>MARVEL_Cost!C42</f>
+        <v>456297</v>
       </c>
       <c r="I90" s="69"/>
       <c r="J90" s="26"/>
@@ -10239,7 +10272,7 @@
         <v>2024</v>
       </c>
       <c r="P90" s="26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q90" s="42" t="s">
         <v>374</v>
@@ -10251,22 +10284,22 @@
         <v>424</v>
       </c>
       <c r="V90" s="106">
-        <f t="shared" si="14"/>
-        <v>27864</v>
+        <f t="shared" si="26"/>
+        <v>410667.3</v>
       </c>
       <c r="W90" s="6">
-        <f t="shared" si="13"/>
-        <v>40248</v>
+        <f t="shared" si="19"/>
+        <v>593186.1</v>
       </c>
       <c r="X90" s="6" t="s">
         <v>439</v>
       </c>
       <c r="Y90" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Z90" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA90" s="6" t="s">
@@ -10286,195 +10319,230 @@
       </c>
       <c r="AH90" s="107"/>
     </row>
-    <row r="91" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="21">
-        <v>23</v>
+    <row r="91" spans="1:34" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="36">
+        <v>227</v>
       </c>
       <c r="B91" s="17">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" ref="B91:B126" si="35">IF(ISNUMBER(A91),
+    IF(AND(A91=INT(A91), MOD(A91, 10) = 0), 0,
+        IF(AND(A91=INT(A91), LEN(A91)=2), 1,
+            IF(AND(A91=INT(A91), LEN(A91)=3), 2,
+                LEN(A91) - FIND(".", A91) + 2)
+        )
+    ),
+"")</f>
+        <v>2</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D91" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">      Energy Conversion System </v>
-      </c>
-      <c r="E91" s="19"/>
+        <f t="shared" ref="D91:D126" si="36">REPT("   ", B91*2) &amp; C91</f>
+        <v xml:space="preserve">            Reactor Instrumentation and Control (I&amp;C)</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>345</v>
+      </c>
       <c r="F91" s="19"/>
       <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
+      <c r="H91" s="95">
+        <f>MARVEL_Cost!C43</f>
+        <v>2253208.37</v>
+      </c>
       <c r="I91" s="69"/>
       <c r="J91" s="26"/>
       <c r="K91" s="42"/>
       <c r="L91" s="26"/>
       <c r="M91" s="26"/>
       <c r="N91" s="26"/>
-      <c r="O91" s="26"/>
-      <c r="P91" s="26"/>
-      <c r="Q91" s="42"/>
+      <c r="O91" s="26">
+        <v>2024</v>
+      </c>
+      <c r="P91" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q91" s="42" t="s">
+        <v>374</v>
+      </c>
       <c r="R91" s="26"/>
       <c r="S91" s="26"/>
       <c r="T91" s="26"/>
+      <c r="U91" s="6" t="s">
+        <v>424</v>
+      </c>
       <c r="V91" s="106">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>2027887.5330000001</v>
       </c>
       <c r="W91" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>2929170.8810000001</v>
+      </c>
+      <c r="X91" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y91" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z91" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA91" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB91" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC91" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD91" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="AH91" s="107"/>
     </row>
     <row r="92" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="36">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B92" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="D92" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">            Energy Applications</v>
-      </c>
-      <c r="E92" s="19"/>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">            Reactor Plant Miscellaneous Items</v>
+      </c>
+      <c r="E92" s="19" t="s">
+        <v>345</v>
+      </c>
       <c r="F92" s="19"/>
       <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
+      <c r="H92" s="95">
+        <f>MARVEL_Cost!C44</f>
+        <v>30960</v>
+      </c>
       <c r="I92" s="69"/>
       <c r="J92" s="26"/>
       <c r="K92" s="42"/>
       <c r="L92" s="26"/>
       <c r="M92" s="26"/>
       <c r="N92" s="26"/>
-      <c r="O92" s="26"/>
-      <c r="P92" s="26"/>
-      <c r="Q92" s="42"/>
+      <c r="O92" s="26">
+        <v>2024</v>
+      </c>
+      <c r="P92" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q92" s="42" t="s">
+        <v>374</v>
+      </c>
       <c r="R92" s="26"/>
       <c r="S92" s="26"/>
       <c r="T92" s="26"/>
+      <c r="U92" s="6" t="s">
+        <v>424</v>
+      </c>
       <c r="V92" s="106">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>27864</v>
       </c>
       <c r="W92" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>40248</v>
+      </c>
+      <c r="X92" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y92" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z92" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA92" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB92" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC92" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD92" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="AH92" s="107"/>
     </row>
-    <row r="93" spans="1:34" ht="211" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="36">
-        <v>232.1</v>
+    <row r="93" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="21">
+        <v>23</v>
       </c>
       <c r="B93" s="17">
-        <f t="shared" si="23"/>
-        <v>3</v>
+        <f t="shared" si="35"/>
+        <v>1</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="D93" s="19" t="str">
-        <f>REPT("   ", B93*2) &amp; C93</f>
-        <v xml:space="preserve">                  Electricity Generation Systems</v>
-      </c>
-      <c r="E93" s="19" t="s">
-        <v>345</v>
-      </c>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">      Energy Conversion System </v>
+      </c>
+      <c r="E93" s="19"/>
       <c r="F93" s="19"/>
       <c r="G93" s="23"/>
       <c r="H93" s="23"/>
-      <c r="I93" s="96">
-        <f>23310000/L93</f>
-        <v>2331000</v>
-      </c>
-      <c r="J93" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="K93" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="L93" s="26">
-        <v>10</v>
-      </c>
-      <c r="M93" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="N93" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="O93" s="26">
-        <v>2017</v>
-      </c>
-      <c r="P93" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q93" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="R93" s="42" t="s">
-        <v>375</v>
-      </c>
+      <c r="I93" s="69"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="26"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="26"/>
+      <c r="P93" s="26"/>
+      <c r="Q93" s="42"/>
+      <c r="R93" s="26"/>
       <c r="S93" s="26"/>
       <c r="T93" s="26"/>
-      <c r="U93" s="6" t="s">
-        <v>424</v>
-      </c>
       <c r="V93" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W93" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="X93" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y93" s="6">
-        <f t="shared" si="16"/>
-        <v>2097900</v>
-      </c>
-      <c r="Z93" s="6">
-        <f t="shared" si="17"/>
-        <v>3030300</v>
-      </c>
-      <c r="AA93" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB93" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="AC93" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD93" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE93" s="6" t="s">
-        <v>442</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="AH93" s="107"/>
     </row>
     <row r="94" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="21">
-        <v>24</v>
+      <c r="A94" s="36">
+        <v>232</v>
       </c>
       <c r="B94" s="17">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>2</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D94" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">      Electrical Equipment</v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">            Energy Applications</v>
       </c>
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
@@ -10493,25 +10561,29 @@
       <c r="S94" s="26"/>
       <c r="T94" s="26"/>
       <c r="V94" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W94" s="6">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AH94" s="107"/>
     </row>
-    <row r="95" spans="1:34" ht="121" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="21">
-        <v>246</v>
+    <row r="95" spans="1:34" ht="211" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="36">
+        <v>232.1</v>
       </c>
       <c r="B95" s="17">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="C95" s="44" t="s">
-        <v>222</v>
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="C95" s="37" t="s">
+        <v>216</v>
       </c>
       <c r="D95" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">            Power and Control Cables and Wiring</v>
+        <f>REPT("   ", B95*2) &amp; C95</f>
+        <v xml:space="preserve">                  Electricity Generation Systems</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>345</v>
@@ -10519,9 +10591,9 @@
       <c r="F95" s="19"/>
       <c r="G95" s="23"/>
       <c r="H95" s="23"/>
-      <c r="I95" s="69">
-        <f>MARVEL_Cost!C51/L95</f>
-        <v>3589430</v>
+      <c r="I95" s="96">
+        <f>23310000/L95</f>
+        <v>2331000</v>
       </c>
       <c r="J95" s="26" t="s">
         <v>67</v>
@@ -10530,8 +10602,7 @@
         <v>71</v>
       </c>
       <c r="L95" s="26">
-        <f>'Design Variables'!B4/1000</f>
-        <v>0.02</v>
+        <v>10</v>
       </c>
       <c r="M95" s="26" t="s">
         <v>69</v>
@@ -10540,16 +10611,16 @@
         <v>0.7</v>
       </c>
       <c r="O95" s="26">
-        <v>2024</v>
+        <v>2017</v>
       </c>
       <c r="P95" s="26" t="s">
         <v>74</v>
       </c>
       <c r="Q95" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R95" s="42" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="S95" s="26"/>
       <c r="T95" s="26"/>
@@ -10557,23 +10628,23 @@
         <v>424</v>
       </c>
       <c r="V95" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W95" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X95" s="6" t="s">
         <v>439</v>
       </c>
       <c r="Y95" s="6">
-        <f t="shared" si="16"/>
-        <v>3230487</v>
+        <f t="shared" si="28"/>
+        <v>2097900</v>
       </c>
       <c r="Z95" s="6">
-        <f t="shared" si="17"/>
-        <v>4666259</v>
+        <f t="shared" si="29"/>
+        <v>3030300</v>
       </c>
       <c r="AA95" s="6" t="s">
         <v>439</v>
@@ -10594,18 +10665,18 @@
     </row>
     <row r="96" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="21">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B96" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D96" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">      Initial Fuel Inventory</v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">      Electrical Equipment</v>
       </c>
       <c r="E96" s="19"/>
       <c r="F96" s="19"/>
@@ -10624,29 +10695,25 @@
       <c r="S96" s="26"/>
       <c r="T96" s="26"/>
       <c r="V96" s="106">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W96" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AH96" s="107"/>
     </row>
-    <row r="97" spans="1:34" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="36">
-        <v>251</v>
+    <row r="97" spans="1:34" ht="121" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="21">
+        <v>246</v>
       </c>
       <c r="B97" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
-      <c r="C97" s="37" t="s">
-        <v>25</v>
+      <c r="C97" s="44" t="s">
+        <v>222</v>
       </c>
       <c r="D97" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">            First Core Mining</v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">            Power and Control Cables and Wiring</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>345</v>
@@ -10654,57 +10721,61 @@
       <c r="F97" s="19"/>
       <c r="G97" s="23"/>
       <c r="H97" s="23"/>
-      <c r="I97" s="23">
-        <v>184</v>
+      <c r="I97" s="69">
+        <f>MARVEL_Cost!C51/L97</f>
+        <v>3589430</v>
       </c>
       <c r="J97" s="26" t="s">
-        <v>176</v>
+        <v>67</v>
       </c>
       <c r="K97" s="23" t="s">
-        <v>380</v>
+        <v>71</v>
       </c>
       <c r="L97" s="26">
-        <v>1</v>
-      </c>
-      <c r="M97" s="26"/>
-      <c r="N97" s="26">
-        <v>1</v>
+        <f>'Design Variables'!B4/1000</f>
+        <v>0.02</v>
+      </c>
+      <c r="M97" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="N97" s="23">
+        <v>0.7</v>
       </c>
       <c r="O97" s="26">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="P97" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q97" s="108" t="s">
-        <v>382</v>
-      </c>
-      <c r="R97" s="108" t="s">
-        <v>383</v>
+        <v>74</v>
+      </c>
+      <c r="Q97" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="R97" s="42" t="s">
+        <v>378</v>
       </c>
       <c r="S97" s="26"/>
       <c r="T97" s="26"/>
       <c r="U97" s="6" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="V97" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W97" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X97" s="6" t="s">
         <v>439</v>
       </c>
       <c r="Y97" s="6">
-        <f t="shared" si="16"/>
-        <v>165.6</v>
+        <f t="shared" si="28"/>
+        <v>3230487</v>
       </c>
       <c r="Z97" s="6">
-        <f t="shared" si="17"/>
-        <v>239.20000000000002</v>
+        <f t="shared" si="29"/>
+        <v>4666259</v>
       </c>
       <c r="AA97" s="6" t="s">
         <v>439</v>
@@ -10724,120 +10795,75 @@
       <c r="AH97" s="107"/>
     </row>
     <row r="98" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="36">
-        <v>252</v>
+      <c r="A98" s="21">
+        <v>25</v>
       </c>
       <c r="B98" s="17">
-        <f t="shared" si="23"/>
-        <v>2</v>
+        <f t="shared" si="35"/>
+        <v>1</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D98" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">            First Core Conversion </v>
-      </c>
-      <c r="E98" s="19" t="s">
-        <v>345</v>
-      </c>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">      Initial Fuel Inventory</v>
+      </c>
+      <c r="E98" s="19"/>
       <c r="F98" s="19"/>
       <c r="G98" s="23"/>
       <c r="H98" s="23"/>
-      <c r="I98" s="23">
-        <v>15.1</v>
-      </c>
-      <c r="J98" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="K98" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="L98" s="26">
-        <v>1</v>
-      </c>
+      <c r="I98" s="69"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="42"/>
+      <c r="L98" s="26"/>
       <c r="M98" s="26"/>
-      <c r="N98" s="26">
-        <v>1</v>
-      </c>
-      <c r="O98" s="26">
-        <v>2022</v>
-      </c>
-      <c r="P98" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q98" s="123"/>
-      <c r="R98" s="123"/>
+      <c r="N98" s="26"/>
+      <c r="O98" s="26"/>
+      <c r="P98" s="26"/>
+      <c r="Q98" s="42"/>
+      <c r="R98" s="26"/>
       <c r="S98" s="26"/>
       <c r="T98" s="26"/>
-      <c r="U98" s="6" t="s">
-        <v>420</v>
-      </c>
       <c r="V98" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W98" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="X98" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y98" s="6">
-        <f t="shared" si="16"/>
-        <v>13.59</v>
-      </c>
-      <c r="Z98" s="6">
-        <f t="shared" si="17"/>
-        <v>19.63</v>
-      </c>
-      <c r="AA98" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB98" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="AC98" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD98" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE98" s="6" t="s">
-        <v>442</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="AH98" s="107"/>
     </row>
-    <row r="99" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B99" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D99" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">            First Core Enrichment </v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">            First Core Mining</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F99" s="19"/>
       <c r="G99" s="23"/>
       <c r="H99" s="23"/>
       <c r="I99" s="23">
-        <v>184.2</v>
+        <v>184</v>
       </c>
       <c r="J99" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="K99" s="42" t="s">
-        <v>381</v>
+        <v>176</v>
+      </c>
+      <c r="K99" s="23" t="s">
+        <v>380</v>
       </c>
       <c r="L99" s="26">
         <v>1</v>
@@ -10852,31 +10878,35 @@
       <c r="P99" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q99" s="123"/>
-      <c r="R99" s="123"/>
+      <c r="Q99" s="109" t="s">
+        <v>382</v>
+      </c>
+      <c r="R99" s="109" t="s">
+        <v>383</v>
+      </c>
       <c r="S99" s="26"/>
       <c r="T99" s="26"/>
       <c r="U99" s="6" t="s">
         <v>420</v>
       </c>
       <c r="V99" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W99" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X99" s="6" t="s">
         <v>439</v>
       </c>
       <c r="Y99" s="6">
-        <f t="shared" si="16"/>
-        <v>165.78</v>
+        <f t="shared" si="28"/>
+        <v>165.6</v>
       </c>
       <c r="Z99" s="6">
-        <f t="shared" si="17"/>
-        <v>239.45999999999998</v>
+        <f t="shared" si="29"/>
+        <v>239.20000000000002</v>
       </c>
       <c r="AA99" s="6" t="s">
         <v>439</v>
@@ -10897,37 +10927,33 @@
     </row>
     <row r="100" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="36">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B100" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D100" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">            First Core Fuel Assembly Fabrication </v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">            First Core Conversion </v>
       </c>
       <c r="E100" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="F100" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="G100" s="23" t="s">
-        <v>386</v>
-      </c>
+      <c r="F100" s="19"/>
+      <c r="G100" s="23"/>
       <c r="H100" s="23"/>
       <c r="I100" s="23">
-        <v>1520</v>
+        <v>15.1</v>
       </c>
       <c r="J100" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="K100" s="42" t="s">
-        <v>384</v>
+      <c r="K100" s="23" t="s">
+        <v>380</v>
       </c>
       <c r="L100" s="26">
         <v>1</v>
@@ -10937,36 +10963,36 @@
         <v>1</v>
       </c>
       <c r="O100" s="26">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="P100" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q100" s="123"/>
-      <c r="R100" s="123"/>
+      <c r="Q100" s="124"/>
+      <c r="R100" s="124"/>
       <c r="S100" s="26"/>
       <c r="T100" s="26"/>
       <c r="U100" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="V100" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W100" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X100" s="6" t="s">
         <v>439</v>
       </c>
       <c r="Y100" s="6">
-        <f t="shared" si="16"/>
-        <v>1368</v>
+        <f t="shared" si="28"/>
+        <v>13.59</v>
       </c>
       <c r="Z100" s="6">
-        <f t="shared" si="17"/>
-        <v>1976</v>
+        <f t="shared" si="29"/>
+        <v>19.63</v>
       </c>
       <c r="AA100" s="6" t="s">
         <v>439</v>
@@ -10987,44 +11013,33 @@
     </row>
     <row r="101" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="36">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B101" s="17">
-        <f t="shared" ref="B101" si="25">IF(ISNUMBER(A101),
-    IF(AND(A101=INT(A101), MOD(A101, 10) = 0), 0,
-        IF(AND(A101=INT(A101), LEN(A101)=2), 1,
-            IF(AND(A101=INT(A101), LEN(A101)=3), 2,
-                LEN(A101) - FIND(".", A101) + 2)
-        )
-    ),
-"")</f>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" s="19" t="str">
-        <f t="shared" ref="D101" si="26">REPT("   ", B101*2) &amp; C101</f>
-        <v xml:space="preserve">            First Core Fuel Assembly Fabrication </v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">            First Core Enrichment </v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="F101" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="G101" s="23" t="s">
-        <v>363</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="F101" s="19"/>
+      <c r="G101" s="23"/>
       <c r="H101" s="23"/>
       <c r="I101" s="23">
-        <v>10000</v>
+        <v>184.2</v>
       </c>
       <c r="J101" s="26" t="s">
-        <v>176</v>
+        <v>379</v>
       </c>
       <c r="K101" s="42" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L101" s="26">
         <v>1</v>
@@ -11034,36 +11049,36 @@
         <v>1</v>
       </c>
       <c r="O101" s="26">
-        <v>2009</v>
+        <v>2022</v>
       </c>
       <c r="P101" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q101" s="109"/>
-      <c r="R101" s="109"/>
+      <c r="Q101" s="124"/>
+      <c r="R101" s="124"/>
       <c r="S101" s="26"/>
       <c r="T101" s="26"/>
       <c r="U101" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="V101" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W101" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X101" s="6" t="s">
         <v>439</v>
       </c>
       <c r="Y101" s="6">
-        <f t="shared" si="16"/>
-        <v>9000</v>
+        <f t="shared" si="28"/>
+        <v>165.78</v>
       </c>
       <c r="Z101" s="6">
-        <f t="shared" si="17"/>
-        <v>13000</v>
+        <f t="shared" si="29"/>
+        <v>239.45999999999998</v>
       </c>
       <c r="AA101" s="6" t="s">
         <v>439</v>
@@ -11082,70 +11097,78 @@
       </c>
       <c r="AH101" s="107"/>
     </row>
-    <row r="102" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="21">
-        <v>26</v>
+    <row r="102" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="36">
+        <v>254</v>
       </c>
       <c r="B102" s="17">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>2</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="D102" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">      Miscellaneous Equipment (Cranes)</v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">            First Core Fuel Assembly Fabrication </v>
       </c>
       <c r="E102" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="69">
-        <v>1000000</v>
-      </c>
-      <c r="I102" s="26"/>
-      <c r="J102" s="26"/>
-      <c r="K102" s="42"/>
-      <c r="L102" s="26"/>
+      <c r="F102" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="G102" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="H102" s="23"/>
+      <c r="I102" s="23">
+        <v>1520</v>
+      </c>
+      <c r="J102" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="K102" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="L102" s="26">
+        <v>1</v>
+      </c>
       <c r="M102" s="26"/>
-      <c r="N102" s="26"/>
+      <c r="N102" s="26">
+        <v>1</v>
+      </c>
       <c r="O102" s="26">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="P102" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q102" s="42" t="s">
-        <v>387</v>
-      </c>
-      <c r="R102" s="42" t="s">
-        <v>388</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="Q102" s="124"/>
+      <c r="R102" s="124"/>
       <c r="S102" s="26"/>
       <c r="T102" s="26"/>
       <c r="U102" s="6" t="s">
         <v>424</v>
       </c>
       <c r="V102" s="106">
-        <f t="shared" si="14"/>
-        <v>900000</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="W102" s="6">
-        <f t="shared" si="13"/>
-        <v>1300000</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="X102" s="6" t="s">
         <v>439</v>
       </c>
       <c r="Y102" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>1368</v>
       </c>
       <c r="Z102" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>1976</v>
       </c>
       <c r="AA102" s="6" t="s">
         <v>439</v>
@@ -11165,11 +11188,11 @@
       <c r="AH102" s="107"/>
     </row>
     <row r="103" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="29">
-        <v>30</v>
+      <c r="A103" s="36">
+        <v>254</v>
       </c>
       <c r="B103" s="17">
-        <f>IF(ISNUMBER(A103),
+        <f t="shared" ref="B103" si="37">IF(ISNUMBER(A103),
     IF(AND(A103=INT(A103), MOD(A103, 10) = 0), 0,
         IF(AND(A103=INT(A103), LEN(A103)=2), 1,
             IF(AND(A103=INT(A103), LEN(A103)=3), 2,
@@ -11177,86 +11200,193 @@
         )
     ),
 "")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D103" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v>Capitalized Indirect Services Cost</v>
-      </c>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="20"/>
-      <c r="J103" s="29"/>
-      <c r="K103" s="29"/>
-      <c r="L103" s="29"/>
-      <c r="M103" s="29"/>
-      <c r="N103" s="29"/>
-      <c r="O103" s="29"/>
-      <c r="P103" s="29"/>
-      <c r="Q103" s="29"/>
-      <c r="R103" s="29"/>
-      <c r="S103" s="29"/>
-      <c r="T103" s="29"/>
+        <f t="shared" ref="D103" si="38">REPT("   ", B103*2) &amp; C103</f>
+        <v xml:space="preserve">            First Core Fuel Assembly Fabrication </v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F103" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="G103" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="H103" s="23"/>
+      <c r="I103" s="23">
+        <v>10000</v>
+      </c>
+      <c r="J103" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="K103" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="L103" s="26">
+        <v>1</v>
+      </c>
+      <c r="M103" s="26"/>
+      <c r="N103" s="26">
+        <v>1</v>
+      </c>
+      <c r="O103" s="26">
+        <v>2009</v>
+      </c>
+      <c r="P103" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q103" s="110"/>
+      <c r="R103" s="110"/>
+      <c r="S103" s="26"/>
+      <c r="T103" s="26"/>
+      <c r="U103" s="6" t="s">
+        <v>424</v>
+      </c>
       <c r="V103" s="106">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W103" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X103" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y103" s="6">
+        <f t="shared" si="28"/>
+        <v>9000</v>
+      </c>
+      <c r="Z103" s="6">
+        <f t="shared" si="29"/>
+        <v>13000</v>
+      </c>
+      <c r="AA103" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB103" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC103" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD103" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE103" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="AH103" s="107"/>
     </row>
-    <row r="104" spans="1:34" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="29">
-        <v>31</v>
+    <row r="104" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="21">
+        <v>26</v>
       </c>
       <c r="B104" s="17">
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>389</v>
+        <v>140</v>
       </c>
       <c r="D104" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">      Factory &amp; field indirect costs</v>
-      </c>
-      <c r="E104" s="19"/>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">      Miscellaneous Equipment (Cranes)</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>345</v>
+      </c>
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
-      <c r="H104" s="29"/>
-      <c r="I104" s="99"/>
+      <c r="H104" s="69">
+        <v>1000000</v>
+      </c>
+      <c r="I104" s="26"/>
       <c r="J104" s="26"/>
       <c r="K104" s="42"/>
-      <c r="L104" s="29"/>
-      <c r="M104" s="29"/>
-      <c r="N104" s="29"/>
-      <c r="O104" s="26"/>
-      <c r="P104" s="26"/>
-      <c r="Q104" s="98"/>
-      <c r="R104" s="29"/>
-      <c r="S104" s="29"/>
-      <c r="T104" s="29"/>
+      <c r="L104" s="26"/>
+      <c r="M104" s="26"/>
+      <c r="N104" s="26"/>
+      <c r="O104" s="26">
+        <v>2021</v>
+      </c>
+      <c r="P104" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q104" s="42" t="s">
+        <v>387</v>
+      </c>
+      <c r="R104" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="S104" s="26"/>
+      <c r="T104" s="26"/>
+      <c r="U104" s="6" t="s">
+        <v>424</v>
+      </c>
       <c r="V104" s="106">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>900000</v>
+      </c>
+      <c r="W104" s="6">
+        <f t="shared" si="19"/>
+        <v>1300000</v>
+      </c>
+      <c r="X104" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y104" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z104" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA104" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB104" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC104" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD104" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE104" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="AH104" s="107"/>
     </row>
     <row r="105" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="29">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B105" s="17">
-        <v>1</v>
+        <f>IF(ISNUMBER(A105),
+    IF(AND(A105=INT(A105), MOD(A105, 10) = 0), 0,
+        IF(AND(A105=INT(A105), LEN(A105)=2), 1,
+            IF(AND(A105=INT(A105), LEN(A105)=3), 2,
+                LEN(A105) - FIND(".", A105) + 2)
+        )
+    ),
+"")</f>
+        <v>0</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>390</v>
+        <v>29</v>
       </c>
       <c r="D105" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">      Factory and construction supervision</v>
+        <f t="shared" si="36"/>
+        <v>Capitalized Indirect Services Cost</v>
       </c>
       <c r="E105" s="19"/>
       <c r="F105" s="19"/>
@@ -11268,192 +11398,104 @@
       <c r="L105" s="29"/>
       <c r="M105" s="29"/>
       <c r="N105" s="29"/>
-      <c r="O105" s="26"/>
-      <c r="P105" s="26"/>
-      <c r="Q105" s="98"/>
+      <c r="O105" s="29"/>
+      <c r="P105" s="29"/>
+      <c r="Q105" s="29"/>
       <c r="R105" s="29"/>
       <c r="S105" s="29"/>
       <c r="T105" s="29"/>
       <c r="V105" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AH105" s="107"/>
     </row>
-    <row r="106" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="21">
-        <v>33</v>
+    <row r="106" spans="1:34" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="29">
+        <v>31</v>
       </c>
       <c r="B106" s="17">
-        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>31</v>
+        <v>389</v>
       </c>
       <c r="D106" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">      Startup Costs</v>
-      </c>
-      <c r="E106" s="19" t="s">
-        <v>345</v>
-      </c>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">      Factory &amp; field indirect costs</v>
+      </c>
+      <c r="E106" s="19"/>
       <c r="F106" s="19"/>
       <c r="G106" s="19"/>
-      <c r="H106" s="24">
-        <f>MARVEL_Cost!C58</f>
-        <v>2407166.4000000004</v>
-      </c>
-      <c r="I106" s="66"/>
-      <c r="J106" s="24"/>
-      <c r="K106" s="31"/>
-      <c r="L106" s="24"/>
-      <c r="M106" s="24"/>
-      <c r="N106" s="24"/>
-      <c r="O106" s="26">
-        <v>2024</v>
-      </c>
-      <c r="P106" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q106" s="134" t="s">
-        <v>374</v>
-      </c>
-      <c r="R106" s="24"/>
-      <c r="S106" s="24"/>
-      <c r="T106" s="24"/>
-      <c r="U106" s="6" t="s">
-        <v>421</v>
-      </c>
+      <c r="H106" s="29"/>
+      <c r="I106" s="99"/>
+      <c r="J106" s="26"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="29"/>
+      <c r="M106" s="29"/>
+      <c r="N106" s="29"/>
+      <c r="O106" s="26"/>
+      <c r="P106" s="26"/>
+      <c r="Q106" s="98"/>
+      <c r="R106" s="29"/>
+      <c r="S106" s="29"/>
+      <c r="T106" s="29"/>
       <c r="V106" s="106">
-        <f t="shared" si="14"/>
-        <v>2166449.7600000002</v>
-      </c>
-      <c r="W106" s="6">
-        <f t="shared" si="13"/>
-        <v>3129316.3200000008</v>
-      </c>
-      <c r="X106" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y106" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Z106" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA106" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB106" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="AC106" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD106" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE106" s="6" t="s">
-        <v>442</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="AH106" s="107"/>
     </row>
-    <row r="107" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="21">
-        <v>34</v>
+    <row r="107" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="29">
+        <v>32</v>
       </c>
       <c r="B107" s="17">
-        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>32</v>
+        <v>390</v>
       </c>
       <c r="D107" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">      Shipping and Transportation Costs</v>
-      </c>
-      <c r="E107" s="19" t="s">
-        <v>345</v>
-      </c>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">      Factory and construction supervision</v>
+      </c>
+      <c r="E107" s="19"/>
       <c r="F107" s="19"/>
       <c r="G107" s="19"/>
-      <c r="H107" s="24">
-        <f>0.5*MARVEL_Cost!C62</f>
-        <v>832641.39999999991</v>
-      </c>
-      <c r="I107" s="66"/>
-      <c r="J107" s="24"/>
-      <c r="K107" s="31"/>
-      <c r="L107" s="24"/>
-      <c r="M107" s="24"/>
-      <c r="N107" s="24"/>
-      <c r="O107" s="26">
-        <v>2024</v>
-      </c>
-      <c r="P107" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q107" s="135"/>
-      <c r="R107" s="24"/>
-      <c r="S107" s="24"/>
-      <c r="T107" s="24"/>
-      <c r="U107" s="6" t="s">
-        <v>421</v>
-      </c>
+      <c r="H107" s="29"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="29"/>
+      <c r="O107" s="26"/>
+      <c r="P107" s="26"/>
+      <c r="Q107" s="98"/>
+      <c r="R107" s="29"/>
+      <c r="S107" s="29"/>
+      <c r="T107" s="29"/>
       <c r="V107" s="106">
-        <f t="shared" si="14"/>
-        <v>749377.25999999989</v>
-      </c>
-      <c r="W107" s="6">
-        <f t="shared" si="13"/>
-        <v>1082433.8199999998</v>
-      </c>
-      <c r="X107" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y107" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Z107" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA107" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB107" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="AC107" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD107" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE107" s="6" t="s">
-        <v>442</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="AH107" s="107"/>
     </row>
     <row r="108" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B108" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D108" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">      Engineering Services</v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">      Startup Costs</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>345</v>
@@ -11461,45 +11503,47 @@
       <c r="F108" s="19"/>
       <c r="G108" s="19"/>
       <c r="H108" s="24">
-        <f>MARVEL_Cost!C65</f>
-        <v>620313.58773783164</v>
-      </c>
-      <c r="I108" s="69"/>
-      <c r="J108" s="26"/>
-      <c r="K108" s="42"/>
-      <c r="L108" s="26"/>
-      <c r="M108" s="26"/>
-      <c r="N108" s="26"/>
+        <f>MARVEL_Cost!C58</f>
+        <v>2407166.4000000004</v>
+      </c>
+      <c r="I108" s="66"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="31"/>
+      <c r="L108" s="24"/>
+      <c r="M108" s="24"/>
+      <c r="N108" s="24"/>
       <c r="O108" s="26">
         <v>2024</v>
       </c>
-      <c r="P108" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q108" s="135"/>
-      <c r="R108" s="26"/>
-      <c r="S108" s="26"/>
-      <c r="T108" s="26"/>
+      <c r="P108" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q108" s="135" t="s">
+        <v>374</v>
+      </c>
+      <c r="R108" s="24"/>
+      <c r="S108" s="24"/>
+      <c r="T108" s="24"/>
       <c r="U108" s="6" t="s">
         <v>421</v>
       </c>
       <c r="V108" s="106">
-        <f t="shared" si="14"/>
-        <v>558282.22896404844</v>
+        <f t="shared" si="26"/>
+        <v>2166449.7600000002</v>
       </c>
       <c r="W108" s="6">
-        <f t="shared" si="13"/>
-        <v>806407.66405918112</v>
+        <f t="shared" si="19"/>
+        <v>3129316.3200000008</v>
       </c>
       <c r="X108" s="6" t="s">
         <v>439</v>
       </c>
       <c r="Y108" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Z108" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA108" s="6" t="s">
@@ -11519,20 +11563,20 @@
       </c>
       <c r="AH108" s="107"/>
     </row>
-    <row r="109" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="21">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B109" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="D109" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">      PM/CM Services</v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">      Shipping and Transportation Costs</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>345</v>
@@ -11540,45 +11584,45 @@
       <c r="F109" s="19"/>
       <c r="G109" s="19"/>
       <c r="H109" s="24">
-        <f>MARVEL_Cost!C68</f>
-        <v>416958.9359999997</v>
-      </c>
-      <c r="I109" s="69"/>
-      <c r="J109" s="26"/>
-      <c r="K109" s="42"/>
-      <c r="L109" s="26"/>
-      <c r="M109" s="26"/>
-      <c r="N109" s="26"/>
+        <f>0.5*MARVEL_Cost!C62</f>
+        <v>832641.39999999991</v>
+      </c>
+      <c r="I109" s="66"/>
+      <c r="J109" s="24"/>
+      <c r="K109" s="31"/>
+      <c r="L109" s="24"/>
+      <c r="M109" s="24"/>
+      <c r="N109" s="24"/>
       <c r="O109" s="26">
         <v>2024</v>
       </c>
-      <c r="P109" s="26" t="s">
-        <v>72</v>
+      <c r="P109" s="97" t="s">
+        <v>85</v>
       </c>
       <c r="Q109" s="136"/>
-      <c r="R109" s="26"/>
-      <c r="S109" s="26"/>
-      <c r="T109" s="26"/>
+      <c r="R109" s="24"/>
+      <c r="S109" s="24"/>
+      <c r="T109" s="24"/>
       <c r="U109" s="6" t="s">
         <v>421</v>
       </c>
       <c r="V109" s="106">
-        <f t="shared" si="14"/>
-        <v>375263.04239999974</v>
+        <f t="shared" si="26"/>
+        <v>749377.25999999989</v>
       </c>
       <c r="W109" s="6">
-        <f t="shared" si="13"/>
-        <v>542046.61679999961</v>
+        <f t="shared" si="19"/>
+        <v>1082433.8199999998</v>
       </c>
       <c r="X109" s="6" t="s">
         <v>439</v>
       </c>
       <c r="Y109" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Z109" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA109" s="6" t="s">
@@ -11600,56 +11644,97 @@
     </row>
     <row r="110" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B110" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>1</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>391</v>
+        <v>33</v>
       </c>
       <c r="D110" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v>Capitalized training costs</v>
-      </c>
-      <c r="E110" s="19"/>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">      Engineering Services</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>345</v>
+      </c>
       <c r="F110" s="19"/>
       <c r="G110" s="19"/>
-      <c r="H110" s="24"/>
+      <c r="H110" s="24">
+        <f>MARVEL_Cost!C65</f>
+        <v>620313.58773783164</v>
+      </c>
       <c r="I110" s="69"/>
       <c r="J110" s="26"/>
       <c r="K110" s="42"/>
       <c r="L110" s="26"/>
       <c r="M110" s="26"/>
       <c r="N110" s="26"/>
-      <c r="O110" s="26"/>
-      <c r="P110" s="26"/>
-      <c r="Q110" s="29"/>
+      <c r="O110" s="26">
+        <v>2024</v>
+      </c>
+      <c r="P110" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q110" s="136"/>
       <c r="R110" s="26"/>
       <c r="S110" s="26"/>
       <c r="T110" s="26"/>
-      <c r="U110" s="12"/>
+      <c r="U110" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="V110" s="106">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>558282.22896404844</v>
+      </c>
+      <c r="W110" s="6">
+        <f t="shared" si="19"/>
+        <v>806407.66405918112</v>
+      </c>
+      <c r="X110" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y110" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z110" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA110" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB110" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC110" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD110" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE110" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="AH110" s="107"/>
     </row>
-    <row r="111" spans="1:34" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="21">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B111" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>392</v>
+        <v>233</v>
       </c>
       <c r="D111" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">      staff recruitment and training</v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">      PM/CM Services</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>345</v>
@@ -11657,7 +11742,8 @@
       <c r="F111" s="19"/>
       <c r="G111" s="19"/>
       <c r="H111" s="24">
-        <v>300000</v>
+        <f>MARVEL_Cost!C68</f>
+        <v>416958.9359999997</v>
       </c>
       <c r="I111" s="69"/>
       <c r="J111" s="26"/>
@@ -11671,34 +11757,30 @@
       <c r="P111" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q111" s="29"/>
-      <c r="R111" s="30" t="s">
-        <v>417</v>
-      </c>
-      <c r="S111" s="26" t="s">
-        <v>418</v>
-      </c>
+      <c r="Q111" s="137"/>
+      <c r="R111" s="26"/>
+      <c r="S111" s="26"/>
       <c r="T111" s="26"/>
-      <c r="U111" s="12" t="s">
-        <v>420</v>
+      <c r="U111" s="6" t="s">
+        <v>421</v>
       </c>
       <c r="V111" s="106">
-        <f t="shared" si="14"/>
-        <v>270000</v>
+        <f t="shared" si="26"/>
+        <v>375263.04239999974</v>
       </c>
       <c r="W111" s="6">
-        <f t="shared" si="13"/>
-        <v>390000</v>
+        <f t="shared" si="19"/>
+        <v>542046.61679999961</v>
       </c>
       <c r="X111" s="6" t="s">
         <v>439</v>
       </c>
       <c r="Y111" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Z111" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA111" s="6" t="s">
@@ -11719,133 +11801,177 @@
       <c r="AH111" s="107"/>
     </row>
     <row r="112" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="29">
-        <v>60</v>
+      <c r="A112" s="21">
+        <v>40</v>
       </c>
       <c r="B112" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>34</v>
+        <v>391</v>
       </c>
       <c r="D112" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Capitalized Financial Costs </v>
+        <f t="shared" si="36"/>
+        <v>Capitalized training costs</v>
       </c>
       <c r="E112" s="19"/>
       <c r="F112" s="19"/>
       <c r="G112" s="19"/>
-      <c r="H112" s="29"/>
-      <c r="I112" s="20"/>
-      <c r="J112" s="29"/>
-      <c r="K112" s="29"/>
-      <c r="L112" s="29"/>
-      <c r="M112" s="29"/>
-      <c r="N112" s="29"/>
-      <c r="O112" s="29"/>
-      <c r="P112" s="29"/>
+      <c r="H112" s="24"/>
+      <c r="I112" s="69"/>
+      <c r="J112" s="26"/>
+      <c r="K112" s="42"/>
+      <c r="L112" s="26"/>
+      <c r="M112" s="26"/>
+      <c r="N112" s="26"/>
+      <c r="O112" s="26"/>
+      <c r="P112" s="26"/>
       <c r="Q112" s="29"/>
-      <c r="R112" s="29"/>
-      <c r="S112" s="29"/>
-      <c r="T112" s="29"/>
+      <c r="R112" s="26"/>
+      <c r="S112" s="26"/>
+      <c r="T112" s="26"/>
       <c r="U112" s="12"/>
       <c r="V112" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AH112" s="107"/>
     </row>
-    <row r="113" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:34" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="21">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B113" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>35</v>
+        <v>392</v>
       </c>
       <c r="D113" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">      Interest</v>
-      </c>
-      <c r="E113" s="19"/>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">      staff recruitment and training</v>
+      </c>
+      <c r="E113" s="19" t="s">
+        <v>345</v>
+      </c>
       <c r="F113" s="19"/>
       <c r="G113" s="19"/>
-      <c r="H113" s="24"/>
+      <c r="H113" s="24">
+        <v>300000</v>
+      </c>
       <c r="I113" s="69"/>
       <c r="J113" s="26"/>
       <c r="K113" s="42"/>
       <c r="L113" s="26"/>
       <c r="M113" s="26"/>
       <c r="N113" s="26"/>
-      <c r="O113" s="26"/>
-      <c r="P113" s="26"/>
-      <c r="Q113" s="42"/>
-      <c r="R113" s="26"/>
-      <c r="S113" s="26"/>
+      <c r="O113" s="26">
+        <v>2024</v>
+      </c>
+      <c r="P113" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q113" s="29"/>
+      <c r="R113" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="S113" s="26" t="s">
+        <v>418</v>
+      </c>
       <c r="T113" s="26"/>
-      <c r="U113" s="12"/>
+      <c r="U113" s="12" t="s">
+        <v>420</v>
+      </c>
       <c r="V113" s="106">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>270000</v>
+      </c>
+      <c r="W113" s="6">
+        <f t="shared" si="19"/>
+        <v>390000</v>
+      </c>
+      <c r="X113" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y113" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z113" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA113" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB113" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC113" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD113" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE113" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="AH113" s="107"/>
     </row>
     <row r="114" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="16">
-        <v>70</v>
+      <c r="A114" s="29">
+        <v>60</v>
       </c>
       <c r="B114" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="C114" s="43" t="s">
-        <v>36</v>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C114" s="37" t="s">
+        <v>34</v>
       </c>
       <c r="D114" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Annualized O&amp;M Cost </v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">Capitalized Financial Costs </v>
       </c>
       <c r="E114" s="19"/>
       <c r="F114" s="19"/>
       <c r="G114" s="19"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="20"/>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="20"/>
-      <c r="R114" s="17"/>
-      <c r="S114" s="17"/>
-      <c r="T114" s="17"/>
+      <c r="H114" s="29"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="29"/>
+      <c r="K114" s="29"/>
+      <c r="L114" s="29"/>
+      <c r="M114" s="29"/>
+      <c r="N114" s="29"/>
+      <c r="O114" s="29"/>
+      <c r="P114" s="29"/>
+      <c r="Q114" s="29"/>
+      <c r="R114" s="29"/>
+      <c r="S114" s="29"/>
+      <c r="T114" s="29"/>
       <c r="U114" s="12"/>
       <c r="V114" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AH114" s="107"/>
     </row>
     <row r="115" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="21">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B115" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D115" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">      O&amp;M Staff</v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">      Interest</v>
       </c>
       <c r="E115" s="19"/>
       <c r="F115" s="19"/>
@@ -11865,201 +11991,101 @@
       <c r="T115" s="26"/>
       <c r="U115" s="12"/>
       <c r="V115" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AH115" s="107"/>
     </row>
-    <row r="116" spans="1:34" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="36">
-        <v>711</v>
+    <row r="116" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="16">
+        <v>70</v>
       </c>
       <c r="B116" s="17">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="C116" s="37" t="s">
-        <v>38</v>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C116" s="43" t="s">
+        <v>36</v>
       </c>
       <c r="D116" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">            Operators </v>
-      </c>
-      <c r="E116" s="19" t="s">
-        <v>346</v>
-      </c>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">Annualized O&amp;M Cost </v>
+      </c>
+      <c r="E116" s="19"/>
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="69">
-        <v>178500</v>
-      </c>
-      <c r="J116" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="K116" s="42" t="s">
-        <v>397</v>
-      </c>
-      <c r="L116" s="26"/>
-      <c r="M116" s="26"/>
-      <c r="N116" s="26">
-        <v>1</v>
-      </c>
-      <c r="O116" s="26">
-        <v>2024</v>
-      </c>
-      <c r="P116" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q116" s="42"/>
-      <c r="R116" s="101" t="s">
-        <v>398</v>
-      </c>
-      <c r="S116" s="26"/>
-      <c r="T116" s="26"/>
-      <c r="U116" s="12" t="s">
-        <v>420</v>
-      </c>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="20"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="20"/>
+      <c r="R116" s="17"/>
+      <c r="S116" s="17"/>
+      <c r="T116" s="17"/>
+      <c r="U116" s="12"/>
       <c r="V116" s="106">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W116" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="X116" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y116" s="6">
-        <f t="shared" si="16"/>
-        <v>160650</v>
-      </c>
-      <c r="Z116" s="6">
-        <f t="shared" si="17"/>
-        <v>232050</v>
-      </c>
-      <c r="AA116" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB116" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="AC116" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD116" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE116" s="6" t="s">
-        <v>442</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="AH116" s="107"/>
     </row>
-    <row r="117" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="36">
-        <v>712</v>
+    <row r="117" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="21">
+        <v>71</v>
       </c>
       <c r="B117" s="17">
-        <f t="shared" si="23"/>
-        <v>2</v>
+        <f t="shared" si="35"/>
+        <v>1</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D117" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">            Remote Monitoring Technicians </v>
-      </c>
-      <c r="E117" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="F117" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="G117" s="19" t="s">
-        <v>402</v>
-      </c>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">      O&amp;M Staff</v>
+      </c>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
       <c r="H117" s="24"/>
-      <c r="I117" s="69">
-        <v>178500</v>
-      </c>
-      <c r="J117" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="K117" s="42" t="s">
-        <v>400</v>
-      </c>
+      <c r="I117" s="69"/>
+      <c r="J117" s="26"/>
+      <c r="K117" s="42"/>
       <c r="L117" s="26"/>
       <c r="M117" s="26"/>
-      <c r="N117" s="26">
-        <v>1</v>
-      </c>
-      <c r="O117" s="26">
-        <v>2024</v>
-      </c>
-      <c r="P117" s="26" t="s">
-        <v>72</v>
-      </c>
+      <c r="N117" s="26"/>
+      <c r="O117" s="26"/>
+      <c r="P117" s="26"/>
       <c r="Q117" s="42"/>
-      <c r="R117" s="101" t="s">
-        <v>398</v>
-      </c>
+      <c r="R117" s="26"/>
       <c r="S117" s="26"/>
       <c r="T117" s="26"/>
-      <c r="U117" s="12" t="s">
-        <v>420</v>
-      </c>
+      <c r="U117" s="12"/>
       <c r="V117" s="106">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W117" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="X117" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y117" s="6">
-        <f t="shared" si="16"/>
-        <v>160650</v>
-      </c>
-      <c r="Z117" s="6">
-        <f t="shared" si="17"/>
-        <v>232050</v>
-      </c>
-      <c r="AA117" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB117" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="AC117" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD117" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE117" s="6" t="s">
-        <v>442</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="AH117" s="107"/>
     </row>
-    <row r="118" spans="1:34" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="36">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B118" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="C118" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D118" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">            Security Staff </v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">            Operators </v>
       </c>
       <c r="E118" s="19" t="s">
         <v>346</v>
@@ -12074,7 +12100,7 @@
         <v>396</v>
       </c>
       <c r="K118" s="42" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L118" s="26"/>
       <c r="M118" s="26"/>
@@ -12097,22 +12123,22 @@
         <v>420</v>
       </c>
       <c r="V118" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W118" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X118" s="6" t="s">
         <v>439</v>
       </c>
       <c r="Y118" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>160650</v>
       </c>
       <c r="Z118" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>232050</v>
       </c>
       <c r="AA118" s="6" t="s">
@@ -12132,58 +12158,110 @@
       </c>
       <c r="AH118" s="107"/>
     </row>
-    <row r="119" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="21">
-        <v>75</v>
+    <row r="119" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="36">
+        <v>712</v>
       </c>
       <c r="B119" s="17">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>2</v>
       </c>
       <c r="C119" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D119" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">      Capital Plant Expenditures</v>
-      </c>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">            Remote Monitoring Technicians </v>
+      </c>
+      <c r="E119" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="F119" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="G119" s="19" t="s">
+        <v>402</v>
+      </c>
       <c r="H119" s="24"/>
-      <c r="I119" s="69"/>
-      <c r="J119" s="26"/>
-      <c r="K119" s="42"/>
+      <c r="I119" s="69">
+        <v>178500</v>
+      </c>
+      <c r="J119" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="K119" s="42" t="s">
+        <v>400</v>
+      </c>
       <c r="L119" s="26"/>
       <c r="M119" s="26"/>
-      <c r="N119" s="26"/>
-      <c r="O119" s="26"/>
-      <c r="P119" s="26"/>
+      <c r="N119" s="26">
+        <v>1</v>
+      </c>
+      <c r="O119" s="26">
+        <v>2024</v>
+      </c>
+      <c r="P119" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="Q119" s="42"/>
-      <c r="R119" s="26"/>
+      <c r="R119" s="101" t="s">
+        <v>398</v>
+      </c>
       <c r="S119" s="26"/>
       <c r="T119" s="26"/>
-      <c r="U119" s="12"/>
+      <c r="U119" s="12" t="s">
+        <v>420</v>
+      </c>
       <c r="V119" s="106">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W119" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X119" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y119" s="6">
+        <f t="shared" si="28"/>
+        <v>160650</v>
+      </c>
+      <c r="Z119" s="6">
+        <f t="shared" si="29"/>
+        <v>232050</v>
+      </c>
+      <c r="AA119" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB119" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC119" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD119" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE119" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="AH119" s="107"/>
     </row>
-    <row r="120" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="21">
-        <v>78</v>
+    <row r="120" spans="1:34" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="36">
+        <v>713</v>
       </c>
       <c r="B120" s="17">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>2</v>
       </c>
       <c r="C120" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D120" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">      Annualized Decommissioning Cost</v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">            Security Staff </v>
       </c>
       <c r="E120" s="19" t="s">
         <v>346</v>
@@ -12192,14 +12270,13 @@
       <c r="G120" s="19"/>
       <c r="H120" s="24"/>
       <c r="I120" s="69">
-        <f>1000*1144</f>
-        <v>1144000</v>
+        <v>178500</v>
       </c>
       <c r="J120" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="K120" s="23" t="s">
-        <v>71</v>
+        <v>396</v>
+      </c>
+      <c r="K120" s="42" t="s">
+        <v>403</v>
       </c>
       <c r="L120" s="26"/>
       <c r="M120" s="26"/>
@@ -12209,12 +12286,12 @@
       <c r="O120" s="26">
         <v>2024</v>
       </c>
-      <c r="P120" s="102" t="s">
-        <v>85</v>
+      <c r="P120" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="Q120" s="42"/>
-      <c r="R120" t="s">
-        <v>339</v>
+      <c r="R120" s="101" t="s">
+        <v>398</v>
       </c>
       <c r="S120" s="26"/>
       <c r="T120" s="26"/>
@@ -12222,23 +12299,23 @@
         <v>420</v>
       </c>
       <c r="V120" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W120" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X120" s="6" t="s">
         <v>439</v>
       </c>
       <c r="Y120" s="6">
-        <f t="shared" si="16"/>
-        <v>1029600</v>
+        <f t="shared" si="28"/>
+        <v>160650</v>
       </c>
       <c r="Z120" s="6">
-        <f t="shared" si="17"/>
-        <v>1487200</v>
+        <f t="shared" si="29"/>
+        <v>232050</v>
       </c>
       <c r="AA120" s="6" t="s">
         <v>439</v>
@@ -12258,56 +12335,57 @@
       <c r="AH120" s="107"/>
     </row>
     <row r="121" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="16">
-        <v>80</v>
+      <c r="A121" s="21">
+        <v>75</v>
       </c>
       <c r="B121" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="C121" s="43" t="s">
-        <v>43</v>
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="C121" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="D121" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v>Annualized Fuel Cost</v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">      Capital Plant Expenditures</v>
       </c>
       <c r="E121" s="19"/>
       <c r="F121" s="19"/>
       <c r="G121" s="19"/>
-      <c r="H121" s="17"/>
-      <c r="I121" s="17"/>
-      <c r="J121" s="17"/>
-      <c r="K121" s="20"/>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="20"/>
-      <c r="R121" s="17"/>
-      <c r="S121" s="17"/>
-      <c r="T121" s="17"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="69"/>
+      <c r="J121" s="26"/>
+      <c r="K121" s="42"/>
+      <c r="L121" s="26"/>
+      <c r="M121" s="26"/>
+      <c r="N121" s="26"/>
+      <c r="O121" s="26"/>
+      <c r="P121" s="26"/>
+      <c r="Q121" s="42"/>
+      <c r="R121" s="26"/>
+      <c r="S121" s="26"/>
+      <c r="T121" s="26"/>
+      <c r="U121" s="12"/>
       <c r="V121" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AH121" s="107"/>
     </row>
-    <row r="122" spans="1:34" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="21">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B122" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="C122" s="37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D122" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">      Refueling Operations</v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">      Annualized Decommissioning Cost</v>
       </c>
       <c r="E122" s="19" t="s">
         <v>346</v>
@@ -12316,13 +12394,14 @@
       <c r="G122" s="19"/>
       <c r="H122" s="24"/>
       <c r="I122" s="69">
-        <v>178500</v>
+        <f>1000*1144</f>
+        <v>1144000</v>
       </c>
       <c r="J122" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="K122" s="42" t="s">
-        <v>397</v>
+        <v>67</v>
+      </c>
+      <c r="K122" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="L122" s="26"/>
       <c r="M122" s="26"/>
@@ -12333,35 +12412,35 @@
         <v>2024</v>
       </c>
       <c r="P122" s="102" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="Q122" s="42"/>
-      <c r="R122" s="101" t="s">
-        <v>398</v>
+      <c r="R122" t="s">
+        <v>339</v>
       </c>
       <c r="S122" s="26"/>
       <c r="T122" s="26"/>
-      <c r="U122" s="6" t="s">
+      <c r="U122" s="12" t="s">
         <v>420</v>
       </c>
       <c r="V122" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W122" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X122" s="6" t="s">
         <v>439</v>
       </c>
       <c r="Y122" s="6">
-        <f t="shared" si="16"/>
-        <v>160650</v>
+        <f t="shared" si="28"/>
+        <v>1029600</v>
       </c>
       <c r="Z122" s="6">
-        <f t="shared" si="17"/>
-        <v>232050</v>
+        <f t="shared" si="29"/>
+        <v>1487200</v>
       </c>
       <c r="AA122" s="6" t="s">
         <v>439</v>
@@ -12381,71 +12460,71 @@
       <c r="AH122" s="107"/>
     </row>
     <row r="123" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="21">
-        <v>82</v>
+      <c r="A123" s="16">
+        <v>80</v>
       </c>
       <c r="B123" s="17">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="C123" s="37" t="s">
-        <v>45</v>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C123" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="D123" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">      Additional Nuclear Fuel</v>
+        <f t="shared" si="36"/>
+        <v>Annualized Fuel Cost</v>
       </c>
       <c r="E123" s="19"/>
       <c r="F123" s="19"/>
       <c r="G123" s="19"/>
-      <c r="H123" s="24"/>
-      <c r="I123" s="69"/>
-      <c r="J123" s="26"/>
-      <c r="K123" s="42"/>
-      <c r="L123" s="26"/>
-      <c r="M123" s="26"/>
-      <c r="N123" s="26"/>
-      <c r="O123" s="26"/>
-      <c r="P123" s="26"/>
-      <c r="Q123" s="42"/>
-      <c r="R123" s="26"/>
-      <c r="S123" s="26"/>
-      <c r="T123" s="26"/>
-      <c r="U123" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="V123" s="106"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="20"/>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="20"/>
+      <c r="R123" s="17"/>
+      <c r="S123" s="17"/>
+      <c r="T123" s="17"/>
+      <c r="V123" s="106">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="AH123" s="107"/>
     </row>
-    <row r="124" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:34" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="21">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B124" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="C124" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D124" s="19" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">      Spent Fuel Management</v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">      Refueling Operations</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F124" s="19"/>
       <c r="G124" s="19"/>
       <c r="H124" s="24"/>
       <c r="I124" s="69">
-        <v>1</v>
+        <v>178500</v>
       </c>
       <c r="J124" s="26" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="K124" s="42" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="L124" s="26"/>
       <c r="M124" s="26"/>
@@ -12455,34 +12534,36 @@
       <c r="O124" s="26">
         <v>2024</v>
       </c>
-      <c r="P124" s="26" t="s">
-        <v>77</v>
+      <c r="P124" s="102" t="s">
+        <v>72</v>
       </c>
       <c r="Q124" s="42"/>
-      <c r="R124" s="26"/>
+      <c r="R124" s="101" t="s">
+        <v>398</v>
+      </c>
       <c r="S124" s="26"/>
       <c r="T124" s="26"/>
       <c r="U124" s="6" t="s">
         <v>420</v>
       </c>
       <c r="V124" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W124" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X124" s="6" t="s">
         <v>439</v>
       </c>
       <c r="Y124" s="6">
-        <f t="shared" si="16"/>
-        <v>0.9</v>
+        <f t="shared" si="28"/>
+        <v>160650</v>
       </c>
       <c r="Z124" s="6">
-        <f t="shared" si="17"/>
-        <v>1.3</v>
+        <f t="shared" si="29"/>
+        <v>232050</v>
       </c>
       <c r="AA124" s="6" t="s">
         <v>439</v>
@@ -12501,26 +12582,147 @@
       </c>
       <c r="AH124" s="107"/>
     </row>
+    <row r="125" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="21">
+        <v>82</v>
+      </c>
+      <c r="B125" s="17">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="C125" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D125" s="19" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">      Additional Nuclear Fuel</v>
+      </c>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="69"/>
+      <c r="J125" s="26"/>
+      <c r="K125" s="42"/>
+      <c r="L125" s="26"/>
+      <c r="M125" s="26"/>
+      <c r="N125" s="26"/>
+      <c r="O125" s="26"/>
+      <c r="P125" s="26"/>
+      <c r="Q125" s="42"/>
+      <c r="R125" s="26"/>
+      <c r="S125" s="26"/>
+      <c r="T125" s="26"/>
+      <c r="U125" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="V125" s="106"/>
+      <c r="AH125" s="107"/>
+    </row>
+    <row r="126" spans="1:34" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="21">
+        <v>83</v>
+      </c>
+      <c r="B126" s="17">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="C126" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D126" s="19" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">      Spent Fuel Management</v>
+      </c>
+      <c r="E126" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="69">
+        <v>1</v>
+      </c>
+      <c r="J126" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="K126" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="L126" s="26"/>
+      <c r="M126" s="26"/>
+      <c r="N126" s="26">
+        <v>1</v>
+      </c>
+      <c r="O126" s="26">
+        <v>2024</v>
+      </c>
+      <c r="P126" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q126" s="42"/>
+      <c r="R126" s="26"/>
+      <c r="S126" s="26"/>
+      <c r="T126" s="26"/>
+      <c r="U126" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="V126" s="106">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W126" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X126" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y126" s="6">
+        <f t="shared" si="28"/>
+        <v>0.9</v>
+      </c>
+      <c r="Z126" s="6">
+        <f t="shared" si="29"/>
+        <v>1.3</v>
+      </c>
+      <c r="AA126" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB126" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC126" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD126" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE126" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH126" s="107"/>
+    </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="Q106:Q109"/>
+    <mergeCell ref="Q108:Q111"/>
     <mergeCell ref="Q39:Q41"/>
     <mergeCell ref="Q45:Q47"/>
     <mergeCell ref="Q49:Q51"/>
-    <mergeCell ref="Q97:Q101"/>
+    <mergeCell ref="Q99:Q103"/>
     <mergeCell ref="R34:R36"/>
     <mergeCell ref="R39:R41"/>
     <mergeCell ref="Q20:Q22"/>
     <mergeCell ref="Q24:Q26"/>
     <mergeCell ref="Q30:Q32"/>
     <mergeCell ref="Q34:Q36"/>
-    <mergeCell ref="R97:R101"/>
-    <mergeCell ref="R75:R76"/>
-    <mergeCell ref="S75:S76"/>
+    <mergeCell ref="R99:R103"/>
+    <mergeCell ref="R77:R78"/>
+    <mergeCell ref="S77:S78"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="S20:S22"/>
-    <mergeCell ref="R66:R70"/>
+    <mergeCell ref="R67:R72"/>
     <mergeCell ref="S24:S26"/>
     <mergeCell ref="S30:S32"/>
     <mergeCell ref="S34:S36"/>
@@ -12536,114 +12738,114 @@
     <mergeCell ref="S11:S13"/>
     <mergeCell ref="R15:R17"/>
     <mergeCell ref="S15:S17"/>
-    <mergeCell ref="T75:T76"/>
+    <mergeCell ref="T77:T78"/>
     <mergeCell ref="R45:R47"/>
     <mergeCell ref="R49:R51"/>
     <mergeCell ref="S45:S47"/>
     <mergeCell ref="S49:S51"/>
-    <mergeCell ref="S66:S70"/>
+    <mergeCell ref="S67:S72"/>
     <mergeCell ref="R60:R63"/>
     <mergeCell ref="S60:S63"/>
   </mergeCells>
-  <conditionalFormatting sqref="A97:H99">
+  <conditionalFormatting sqref="A99:H101">
     <cfRule type="expression" dxfId="84" priority="108">
-      <formula>$B97=0</formula>
+      <formula>$B99=0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="83" priority="107">
-      <formula>$B97&lt;2</formula>
+      <formula>$B99&lt;2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="82" priority="106">
-      <formula>$B97=2</formula>
+      <formula>$B99=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="81" priority="105">
-      <formula>$B97=3</formula>
+      <formula>$B99=3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79:I83">
+  <conditionalFormatting sqref="A81:I85">
     <cfRule type="expression" dxfId="80" priority="129">
-      <formula>$B79=3</formula>
+      <formula>$B81=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="79" priority="130">
-      <formula>$B79=2</formula>
+      <formula>$B81=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="78" priority="131">
-      <formula>$B79&lt;2</formula>
+      <formula>$B81&lt;2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="77" priority="132">
-      <formula>$B79=0</formula>
+      <formula>$B81=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100:P101">
+  <conditionalFormatting sqref="A102:P103">
     <cfRule type="expression" dxfId="76" priority="92">
-      <formula>$B100=0</formula>
+      <formula>$B102=0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="75" priority="91">
-      <formula>$B100&lt;2</formula>
+      <formula>$B102&lt;2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="74" priority="90">
-      <formula>$B100=2</formula>
+      <formula>$B102=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="73" priority="89">
-      <formula>$B100=3</formula>
+      <formula>$B102=3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A104:P111">
+  <conditionalFormatting sqref="A106:P113">
     <cfRule type="expression" dxfId="72" priority="40">
-      <formula>$B104=0</formula>
+      <formula>$B106=0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="71" priority="37">
-      <formula>$B104=3</formula>
+      <formula>$B106=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="70" priority="38">
-      <formula>$B104=2</formula>
+      <formula>$B106=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="69" priority="39">
-      <formula>$B104&lt;2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A120:Q120">
-    <cfRule type="expression" dxfId="68" priority="12">
-      <formula>$B120=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="9">
-      <formula>$B120=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="10">
-      <formula>$B120=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="11">
-      <formula>$B120&lt;2</formula>
+      <formula>$B106&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122:Q122">
-    <cfRule type="expression" dxfId="64" priority="5">
+    <cfRule type="expression" dxfId="68" priority="12">
+      <formula>$B122=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="9">
       <formula>$B122=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="6">
+    <cfRule type="expression" dxfId="66" priority="10">
       <formula>$B122=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="7">
+    <cfRule type="expression" dxfId="65" priority="11">
       <formula>$B122&lt;2</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:Q124">
+    <cfRule type="expression" dxfId="64" priority="5">
+      <formula>$B124=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="6">
+      <formula>$B124=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="7">
+      <formula>$B124&lt;2</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="61" priority="8">
-      <formula>$B122=0</formula>
+      <formula>$B124=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74:S74">
+  <conditionalFormatting sqref="A76:S76">
     <cfRule type="expression" dxfId="60" priority="148">
-      <formula>$B74=0</formula>
+      <formula>$B76=0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="59" priority="147">
-      <formula>$B74&lt;2</formula>
+      <formula>$B76&lt;2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="58" priority="146">
-      <formula>$B74=2</formula>
+      <formula>$B76=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="57" priority="145">
-      <formula>$B74=3</formula>
+      <formula>$B76=3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:T4 A5:R6 T5:T6 A7:T73 A75:F77 L97:T97 L98:P98 S98:T102 I99:P99 A102:R102 R106:T111 Q110:Q111 A112:T115 A116:H117 A118:J118 A119:T119 S120:T120 A121:T121 S122:T122 A123:T124">
+  <conditionalFormatting sqref="A1:T4 A5:R6 T5:T6 A7:T75 A77:F79 L99:T99 L100:P100 S100:T104 I101:P101 A104:R104 R108:T113 Q112:Q113 A114:T117 A118:H119 A120:J120 A121:T121 S122:T122 A123:T123 S124:T124 A125:T126">
     <cfRule type="expression" dxfId="56" priority="143">
       <formula>$B1&lt;2</formula>
     </cfRule>
@@ -12657,35 +12859,35 @@
       <formula>$B1=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84:T96">
+  <conditionalFormatting sqref="A86:T98">
     <cfRule type="expression" dxfId="52" priority="109">
-      <formula>$B84=3</formula>
+      <formula>$B86=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="51" priority="112">
-      <formula>$B84=0</formula>
+      <formula>$B86=0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="50" priority="111">
-      <formula>$B84&lt;2</formula>
+      <formula>$B86&lt;2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="49" priority="110">
-      <formula>$B84=2</formula>
+      <formula>$B86=2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A103:T103">
+  <conditionalFormatting sqref="A105:T105">
     <cfRule type="expression" dxfId="48" priority="76">
-      <formula>$B103=0</formula>
+      <formula>$B105=0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="47" priority="74">
-      <formula>$B103=2</formula>
+      <formula>$B105=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="46" priority="73">
-      <formula>$B103=3</formula>
+      <formula>$B105=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="45" priority="75">
-      <formula>$B103&lt;2</formula>
+      <formula>$B105&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D124">
+  <conditionalFormatting sqref="D2:D126">
     <cfRule type="colorScale" priority="201">
       <colorScale>
         <cfvo type="min"/>
@@ -12695,120 +12897,120 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G75:G76">
+  <conditionalFormatting sqref="G77:G78">
     <cfRule type="expression" dxfId="44" priority="137">
-      <formula>$B75=3</formula>
+      <formula>$B77=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="43" priority="138">
-      <formula>$B75=2</formula>
+      <formula>$B77=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="42" priority="139">
-      <formula>$B75&lt;2</formula>
+      <formula>$B77&lt;2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="41" priority="140">
-      <formula>$B75=0</formula>
+      <formula>$B77=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I116:J117">
+  <conditionalFormatting sqref="I118:J119">
     <cfRule type="expression" dxfId="40" priority="24">
-      <formula>$B117=0</formula>
+      <formula>$B119=0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="39" priority="23">
-      <formula>$B117&lt;2</formula>
+      <formula>$B119&lt;2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="38" priority="22">
-      <formula>$B117=2</formula>
+      <formula>$B119=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="37" priority="21">
-      <formula>$B117=3</formula>
+      <formula>$B119=3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I97:K98">
+  <conditionalFormatting sqref="I99:K100">
     <cfRule type="expression" dxfId="36" priority="103">
-      <formula>$B97&lt;2</formula>
+      <formula>$B99&lt;2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="35" priority="104">
-      <formula>$B97=0</formula>
+      <formula>$B99=0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="102">
-      <formula>$B97=2</formula>
+      <formula>$B99=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="101">
-      <formula>$B97=3</formula>
+      <formula>$B99=3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J79 O103">
+  <conditionalFormatting sqref="J81 O105">
     <cfRule type="expression" dxfId="32" priority="161">
-      <formula>$B80=0</formula>
+      <formula>$B82=0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="31" priority="160">
-      <formula>$B80&lt;2</formula>
+      <formula>$B82&lt;2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="159">
-      <formula>$B80=2</formula>
+      <formula>$B82=2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K80:Q83">
+  <conditionalFormatting sqref="K82:Q85">
     <cfRule type="expression" dxfId="29" priority="125">
-      <formula>$B80=3</formula>
+      <formula>$B82=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="126">
-      <formula>$B80=2</formula>
+      <formula>$B82=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="27" priority="127">
-      <formula>$B80&lt;2</formula>
+      <formula>$B82&lt;2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="26" priority="128">
-      <formula>$B80=0</formula>
+      <formula>$B82=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K116:Q118 S116:T118">
+  <conditionalFormatting sqref="K118:Q120 S118:T120">
     <cfRule type="expression" dxfId="25" priority="14">
-      <formula>$B116=2</formula>
+      <formula>$B118=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="24" priority="15">
-      <formula>$B116&lt;2</formula>
+      <formula>$B118&lt;2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="23" priority="13">
-      <formula>$B116=3</formula>
+      <formula>$B118=3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K116:Q118">
+  <conditionalFormatting sqref="K118:Q120">
     <cfRule type="expression" dxfId="22" priority="16">
-      <formula>$B116=0</formula>
+      <formula>$B118=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O103 J79">
+  <conditionalFormatting sqref="O105 J81">
     <cfRule type="expression" dxfId="21" priority="158">
-      <formula>$B80=3</formula>
+      <formula>$B82=3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q106">
+  <conditionalFormatting sqref="Q108">
     <cfRule type="expression" dxfId="20" priority="88">
+      <formula>$B108=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="85">
+      <formula>$B108=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="87">
+      <formula>$B108&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="86">
+      <formula>$B108=2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q106:T107">
+    <cfRule type="expression" dxfId="16" priority="48">
       <formula>$B106=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="85">
-      <formula>$B106=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="87">
+    <cfRule type="expression" dxfId="15" priority="47">
       <formula>$B106&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="86">
+    <cfRule type="expression" dxfId="14" priority="46">
       <formula>$B106=2</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q104:T105">
-    <cfRule type="expression" dxfId="16" priority="48">
-      <formula>$B104=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="47">
-      <formula>$B104&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="46">
-      <formula>$B104=2</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="13" priority="45">
-      <formula>$B104=3</formula>
+      <formula>$B106=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
@@ -12825,7 +13027,7 @@
       <formula>$B5=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S6 S75">
+  <conditionalFormatting sqref="S6 S77">
     <cfRule type="expression" dxfId="8" priority="166">
       <formula>$B5=3</formula>
     </cfRule>
@@ -12839,67 +13041,67 @@
       <formula>$B5=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S116:T118">
+  <conditionalFormatting sqref="S118:T120">
     <cfRule type="expression" dxfId="4" priority="32">
-      <formula>$B116=0</formula>
+      <formula>$B118=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T74:T77 H75:R75 H76:Q76 G77:Q77 A78:T78 K79:T79 S80:T83">
+  <conditionalFormatting sqref="T76:T79 H77:R77 H78:Q78 G79:Q79 A80:T80 K81:T81 S82:T85">
     <cfRule type="expression" dxfId="3" priority="150">
-      <formula>$B74=2</formula>
+      <formula>$B76=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="151">
-      <formula>$B74&lt;2</formula>
+      <formula>$B76&lt;2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="152">
-      <formula>$B74=0</formula>
+      <formula>$B76=0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="149">
-      <formula>$B74=3</formula>
+      <formula>$B76=3</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O105:O124 O125:P132 O2:O103" xr:uid="{7C199008-9AB6-6549-A861-AD474C13E949}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O107:O126 O127:P134 O2:O105" xr:uid="{7C199008-9AB6-6549-A861-AD474C13E949}">
       <formula1>1950</formula1>
       <formula2>2025</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9 I11:I41 I45:I47 I49:I51 L1:L55 I55:I62 I65 I68:I73 I103:I124 H91:H92 H94:H96 I75:I101 H100:H124 L74:L1048576 L57:L64 H2:H88 L66:L72" xr:uid="{66ABF627-CC97-3E44-B6AC-09E441BED0CD}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9 I11:I41 I45:I47 I49:I51 L1:L55 I55:I62 I66 I70:I75 I105:I126 H93:H94 H96:H98 I77:I103 H102:H126 L76:L1048576 L67:L74 H2:H90 L57:L65" xr:uid="{66ABF627-CC97-3E44-B6AC-09E441BED0CD}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K299:K309" xr:uid="{9E6037A9-5EC7-2945-A2FE-1723BA7DEE83}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K301:K311" xr:uid="{9E6037A9-5EC7-2945-A2FE-1723BA7DEE83}">
       <formula1>"Land Area, Power MWe, Excavation Volume,  Reactor Building Slab Roof Volume,	Reactor Building  Basement Volume, Reactor Building  Exterior Walls Volume,		Turbine Building Slab Roof Volume,	Turbine Building  Basement Volume,	Turbine Building  Exterior Wall"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 J125:J1048576" xr:uid="{EEDF1E2A-32DC-6242-8EBD-BD01BBD19C77}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 J127:J1048576" xr:uid="{EEDF1E2A-32DC-6242-8EBD-BD01BBD19C77}">
       <formula1>"$/acres, $/MWe, $/m^3, $/MWt"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10 E14 E18:E19 E23 E27:E29 E33 E37:E38 E43:E44 E48 E52:E54 E59 E68 E73:E124" xr:uid="{E571E7A1-C2F9-2E4D-99A9-8FA0C5D45C39}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10 E14 E18:E19 E23 E27:E29 E33 E37:E38 E43:E44 E48 E52:E54 E59 E70 E75:E126" xr:uid="{E571E7A1-C2F9-2E4D-99A9-8FA0C5D45C39}">
       <formula1>"standard, nonstandard"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N124" xr:uid="{1C0096F5-23AB-5A48-8F14-E27BC72A38A6}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N126" xr:uid="{1C0096F5-23AB-5A48-8F14-E27BC72A38A6}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M124" xr:uid="{127B7473-9D01-354E-A3BD-12180E660A5C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M126" xr:uid="{127B7473-9D01-354E-A3BD-12180E660A5C}">
       <formula1>"acres, MWe, m^3, MWt, Kg, Drums, kW, $"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P124" xr:uid="{17DDFD40-D97D-B64B-BD3B-AEAF52F6302C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P126" xr:uid="{17DDFD40-D97D-B64B-BD3B-AEAF52F6302C}">
       <formula1>"NA, General, Labor, Material, Equipment,Lab and Mat and Equip, 'Lab and Equip"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N125:N278" xr:uid="{6D536505-A5B6-E145-A4B9-9C3C8E6B8527}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N127:N280" xr:uid="{6D536505-A5B6-E145-A4B9-9C3C8E6B8527}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J124" xr:uid="{0FCCEC2F-487A-5A42-9C52-ED538456C753}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J126" xr:uid="{0FCCEC2F-487A-5A42-9C52-ED538456C753}">
       <formula1>"$/MWeHour,$/FTE, $/acres, $/MWe, $/m^3, $/MWt, $/Kg, $/Drum, $/(kg.sec), $/SWU, unitless"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U124" xr:uid="{8C851931-DD22-6940-94BD-3E222B1E11BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U126" xr:uid="{8C851931-DD22-6940-94BD-3E222B1E11BE}">
       <formula1>"No Learning, Onsite Learning, Factory Primary Structure, Factory Drums, Factory Other, Licensing Learning"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S3" r:id="rId1" xr:uid="{BA0D9C81-F547-414C-A28F-25DA56C7D1AB}"/>
     <hyperlink ref="S42" r:id="rId2" display="https://inldigitallibrary.inl.gov/sites/sti/sti/Sort_129862.pdf_x000a__x000a_" xr:uid="{0C5690C1-ED1C-8647-B6EB-55013768C9A4}"/>
-    <hyperlink ref="S75" r:id="rId3" display="https://www.sciencedirect.com/science/article/pii/S1290072903000218" xr:uid="{FB986645-DAA7-E546-AB13-44635CD5B6AC}"/>
+    <hyperlink ref="S77" r:id="rId3" display="https://www.sciencedirect.com/science/article/pii/S1290072903000218" xr:uid="{FB986645-DAA7-E546-AB13-44635CD5B6AC}"/>
     <hyperlink ref="R5" r:id="rId4" xr:uid="{F6784630-8313-6844-914B-DA218CBAB253}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12925,20 +13127,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="138" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="138" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="139" t="s">
+      <c r="B1" s="139" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="140" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="137"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="140"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="141"/>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="62">
@@ -13846,12 +14048,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="142" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="143"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="144"/>
     </row>
     <row r="3" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
@@ -13908,12 +14110,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="142" t="s">
         <v>252</v>
       </c>
-      <c r="B7" s="142"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="143"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="144"/>
     </row>
     <row r="8" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
@@ -13972,12 +14174,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="141" t="s">
+      <c r="A12" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="142"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="143"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="144"/>
     </row>
     <row r="13" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
@@ -14076,12 +14278,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="141" t="s">
+      <c r="A20" s="142" t="s">
         <v>275</v>
       </c>
-      <c r="B20" s="142"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="143"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="144"/>
     </row>
     <row r="21" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
@@ -14210,12 +14412,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="141" t="s">
+      <c r="A30" s="142" t="s">
         <v>288</v>
       </c>
-      <c r="B30" s="142"/>
-      <c r="C30" s="142"/>
-      <c r="D30" s="143"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="144"/>
     </row>
     <row r="31" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
@@ -14290,12 +14492,12 @@
       <c r="D36" s="60"/>
     </row>
     <row r="37" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="141" t="s">
+      <c r="A37" s="142" t="s">
         <v>295</v>
       </c>
-      <c r="B37" s="142"/>
-      <c r="C37" s="142"/>
-      <c r="D37" s="143"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="144"/>
     </row>
     <row r="38" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
@@ -14382,12 +14584,12 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="141" t="s">
+      <c r="A44" s="142" t="s">
         <v>308</v>
       </c>
-      <c r="B44" s="142"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="143"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="144"/>
     </row>
     <row r="45" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
@@ -14404,12 +14606,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="141" t="s">
+      <c r="A46" s="142" t="s">
         <v>311</v>
       </c>
-      <c r="B46" s="142"/>
-      <c r="C46" s="142"/>
-      <c r="D46" s="143"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="144"/>
     </row>
     <row r="47" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
@@ -14454,12 +14656,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="141" t="s">
+      <c r="A50" s="142" t="s">
         <v>318</v>
       </c>
-      <c r="B50" s="142"/>
-      <c r="C50" s="142"/>
-      <c r="D50" s="143"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="144"/>
     </row>
     <row r="51" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="54" t="s">
@@ -15724,7 +15926,7 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="144" t="s">
+      <c r="C10" s="145" t="s">
         <v>429</v>
       </c>
     </row>
@@ -15735,7 +15937,7 @@
       <c r="B11">
         <v>0.5</v>
       </c>
-      <c r="C11" s="144"/>
+      <c r="C11" s="145"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
@@ -15744,7 +15946,7 @@
       <c r="B12">
         <v>0.6</v>
       </c>
-      <c r="C12" s="144"/>
+      <c r="C12" s="145"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="86" t="s">
@@ -15753,7 +15955,7 @@
       <c r="B13">
         <v>0.4</v>
       </c>
-      <c r="C13" s="144"/>
+      <c r="C13" s="145"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
@@ -15762,7 +15964,7 @@
       <c r="B14">
         <v>0.3</v>
       </c>
-      <c r="C14" s="144"/>
+      <c r="C14" s="145"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">

--- a/cost/Cost_Database.xlsx
+++ b/cost/Cost_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user\mouse\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EA8974-AFC0-48F7-A49D-6C13695ADA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986E104C-FD65-4726-8681-79107D401CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19120" yWindow="-80" windowWidth="38560" windowHeight="21040" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Database" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Economics Parameters" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cost Database'!$A$1:$Z$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cost Database'!$A$1:$Z$141</definedName>
     <definedName name="CRF">#REF!</definedName>
     <definedName name="DiscountRate">#REF!</definedName>
     <definedName name="FacilityLifetime">#REF!</definedName>
@@ -139,7 +139,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="I99" authorId="8" shapeId="0" xr:uid="{25250E12-7DF8-42FE-A9C3-6F5AE6FD64C9}">
+    <comment ref="I98" authorId="8" shapeId="0" xr:uid="{25250E12-7DF8-42FE-A9C3-6F5AE6FD64C9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -148,7 +148,7 @@
 Escalation (to 2023): 8.155</t>
       </text>
     </comment>
-    <comment ref="H124" authorId="9" shapeId="0" xr:uid="{BDE8F098-EF81-461E-B745-0627E6989C51}">
+    <comment ref="H123" authorId="9" shapeId="0" xr:uid="{BDE8F098-EF81-461E-B745-0627E6989C51}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -157,7 +157,7 @@
  shipping included international shipping</t>
       </text>
     </comment>
-    <comment ref="C136" authorId="10" shapeId="0" xr:uid="{8C62D7C0-F520-42A3-9908-A880BA4D938B}">
+    <comment ref="C135" authorId="10" shapeId="0" xr:uid="{8C62D7C0-F520-42A3-9908-A880BA4D938B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -167,7 +167,7 @@
     For the GCMR, likley includes replacement coolant, CO2 refill, etc.</t>
       </text>
     </comment>
-    <comment ref="C137" authorId="11" shapeId="0" xr:uid="{335259DE-3294-4740-8C40-6B23AE73FFDB}">
+    <comment ref="C136" authorId="11" shapeId="0" xr:uid="{335259DE-3294-4740-8C40-6B23AE73FFDB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="489">
   <si>
     <t>Account</t>
   </si>
@@ -1507,15 +1507,6 @@
     <t>unitless</t>
   </si>
   <si>
-    <t>RPV Surface Area</t>
-  </si>
-  <si>
-    <t>m^2</t>
-  </si>
-  <si>
-    <t>Venneri, 2023</t>
-  </si>
-  <si>
     <t>HPCR</t>
   </si>
   <si>
@@ -1580,28 +1571,16 @@
     <t>Variable Non-Fuel Costs</t>
   </si>
   <si>
-    <t>GMCR</t>
-  </si>
-  <si>
     <t>B4C_enriched</t>
   </si>
   <si>
     <t>Prosser et al., 2023</t>
   </si>
   <si>
-    <t>RVACS Scaling</t>
-  </si>
-  <si>
     <t>Cost based on FOAK Digital I&amp;C with 2-out-of-4 voting logic</t>
   </si>
   <si>
     <t>Primary Loop Mass Flow Rate</t>
-  </si>
-  <si>
-    <t>guard_vessel_material</t>
-  </si>
-  <si>
-    <t>vessel_material</t>
   </si>
   <si>
     <t>stainless_steel</t>
@@ -1848,6 +1827,12 @@
   </si>
   <si>
     <t>Out Of Vessel Shield Mass</t>
+  </si>
+  <si>
+    <t>Guard Vessel Material</t>
+  </si>
+  <si>
+    <t>Vessel Material</t>
   </si>
 </sst>
 </file>
@@ -2224,7 +2209,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2445,6 +2430,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2456,12 +2447,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2490,11 +2475,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2503,53 +2483,12 @@
     <cellStyle name="Normal 2" xfId="4" xr:uid="{E15291B7-9068-3147-AE9D-D55638463741}"/>
     <cellStyle name="Normal 2 5" xfId="3" xr:uid="{D5427F60-54E8-014E-9224-5454BAE094F2}"/>
   </cellStyles>
-  <dxfs count="118">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="100">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2586,15 +2525,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFFFFBA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2602,13 +2535,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2627,14 +2553,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFFFFBA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2650,6 +2576,27 @@
         <b/>
         <i val="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2720,6 +2667,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFFBA"/>
         </patternFill>
       </fill>
@@ -2734,7 +2688,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2743,20 +2697,6 @@
         <b/>
         <i val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2777,13 +2717,6 @@
         <b/>
         <i val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2826,15 +2759,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFFFFBA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2842,13 +2769,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2864,40 +2784,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -2908,59 +2794,6 @@
           <bgColor rgb="FFFFFFBA"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill patternType="gray125"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -3011,28 +2844,7 @@
         <i/>
       </font>
       <fill>
-        <patternFill patternType="gray0625"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
+        <patternFill patternType="gray125"/>
       </fill>
     </dxf>
     <dxf>
@@ -3040,6 +2852,15 @@
         <b/>
         <i val="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625"/>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3057,14 +2878,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFFFFBA"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3084,7 +2905,36 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3098,7 +2948,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3111,7 +2961,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3119,6 +2969,40 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3164,75 +3048,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3264,10 +3080,31 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3284,9 +3121,29 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3299,14 +3156,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFFFFBA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3752,24 +3609,24 @@
     <text xml:space="preserve">The primary pump needs to be expensive!!
 </text>
   </threadedComment>
-  <threadedComment ref="I99" dT="2025-06-20T17:42:02.17" personId="{3B5B98F4-A9DA-4CFD-B3D9-F7907C025518}" id="{25250E12-7DF8-42FE-A9C3-6F5AE6FD64C9}">
+  <threadedComment ref="I98" dT="2025-06-20T17:42:02.17" personId="{3B5B98F4-A9DA-4CFD-B3D9-F7907C025518}" id="{25250E12-7DF8-42FE-A9C3-6F5AE6FD64C9}">
     <text>Baseline Cost: 8844770 1978USD
 Escalation (to 2023): 8.155</text>
   </threadedComment>
-  <threadedComment ref="H124" dT="2025-06-19T23:17:33.50" personId="{84112BF8-C915-7B4B-BE8E-B816F75B981C}" id="{BDE8F098-EF81-461E-B745-0627E6989C51}">
+  <threadedComment ref="H123" dT="2025-06-19T23:17:33.50" personId="{84112BF8-C915-7B4B-BE8E-B816F75B981C}" id="{BDE8F098-EF81-461E-B745-0627E6989C51}">
     <text>The cost is multiplied by 0.5 since the
  shipping included international shipping</text>
   </threadedComment>
-  <threadedComment ref="C136" dT="2025-06-20T19:13:57.21" personId="{3B5B98F4-A9DA-4CFD-B3D9-F7907C025518}" id="{8C62D7C0-F520-42A3-9908-A880BA4D938B}">
+  <threadedComment ref="C135" dT="2025-06-20T19:13:57.21" personId="{3B5B98F4-A9DA-4CFD-B3D9-F7907C025518}" id="{8C62D7C0-F520-42A3-9908-A880BA4D938B}">
     <text xml:space="preserve">Variable costs that are not fuel-based, such as borated water, control rods, burnable poisons, and other consumable </text>
   </threadedComment>
-  <threadedComment ref="C136" dT="2025-06-20T19:14:14.35" personId="{3B5B98F4-A9DA-4CFD-B3D9-F7907C025518}" id="{60EA5C16-5BC5-40F2-AD75-9609617C429D}" parentId="{8C62D7C0-F520-42A3-9908-A880BA4D938B}">
+  <threadedComment ref="C135" dT="2025-06-20T19:14:14.35" personId="{3B5B98F4-A9DA-4CFD-B3D9-F7907C025518}" id="{60EA5C16-5BC5-40F2-AD75-9609617C429D}" parentId="{8C62D7C0-F520-42A3-9908-A880BA4D938B}">
     <text>For the GCMR, likley includes replacement coolant, CO2 refill, etc.</text>
   </threadedComment>
-  <threadedComment ref="C137" dT="2025-06-20T19:15:18.25" personId="{3B5B98F4-A9DA-4CFD-B3D9-F7907C025518}" id="{335259DE-3294-4740-8C40-6B23AE73FFDB}">
+  <threadedComment ref="C136" dT="2025-06-20T19:15:18.25" personId="{3B5B98F4-A9DA-4CFD-B3D9-F7907C025518}" id="{335259DE-3294-4740-8C40-6B23AE73FFDB}">
     <text xml:space="preserve">Upgrades to maintain or improve plant capacity, meet future regulatory requirements, or plant life extensions. These costs are considered "sustaining capital" for continued plant operation and performance. </text>
   </threadedComment>
-  <threadedComment ref="C137" dT="2025-06-20T19:15:33.63" personId="{3B5B98F4-A9DA-4CFD-B3D9-F7907C025518}" id="{BCE40344-6953-455E-AB5E-F11B66204C5B}" parentId="{335259DE-3294-4740-8C40-6B23AE73FFDB}">
+  <threadedComment ref="C136" dT="2025-06-20T19:15:33.63" personId="{3B5B98F4-A9DA-4CFD-B3D9-F7907C025518}" id="{BCE40344-6953-455E-AB5E-F11B66204C5B}" parentId="{335259DE-3294-4740-8C40-6B23AE73FFDB}">
     <text>Will allocate vessel, internals, IHX replacement, etc.</text>
   </threadedComment>
 </ThreadedComments>
@@ -3777,13 +3634,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5330BDA-7164-B946-A942-FFAE4F744BBA}">
-  <dimension ref="A1:AH142"/>
+  <dimension ref="A1:AH141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="X68" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
@@ -3880,37 +3737,37 @@
         <v>62</v>
       </c>
       <c r="U1" s="85" t="s">
+        <v>457</v>
+      </c>
+      <c r="V1" s="85" t="s">
+        <v>458</v>
+      </c>
+      <c r="W1" s="85" t="s">
+        <v>459</v>
+      </c>
+      <c r="X1" s="85" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y1" s="85" t="s">
+        <v>461</v>
+      </c>
+      <c r="Z1" s="85" t="s">
+        <v>462</v>
+      </c>
+      <c r="AA1" s="85" t="s">
+        <v>463</v>
+      </c>
+      <c r="AB1" s="85" t="s">
         <v>464</v>
       </c>
-      <c r="V1" s="85" t="s">
+      <c r="AC1" s="85" t="s">
         <v>465</v>
       </c>
-      <c r="W1" s="85" t="s">
+      <c r="AD1" s="85" t="s">
         <v>466</v>
       </c>
-      <c r="X1" s="85" t="s">
+      <c r="AE1" s="85" t="s">
         <v>467</v>
-      </c>
-      <c r="Y1" s="85" t="s">
-        <v>468</v>
-      </c>
-      <c r="Z1" s="85" t="s">
-        <v>469</v>
-      </c>
-      <c r="AA1" s="85" t="s">
-        <v>470</v>
-      </c>
-      <c r="AB1" s="85" t="s">
-        <v>471</v>
-      </c>
-      <c r="AC1" s="85" t="s">
-        <v>472</v>
-      </c>
-      <c r="AD1" s="85" t="s">
-        <v>473</v>
-      </c>
-      <c r="AE1" s="85" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="9" customFormat="1">
@@ -3968,7 +3825,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="40">
-        <f t="shared" ref="B3:B98" si="0">IF(ISNUMBER(A3),
+        <f t="shared" ref="B3:B97" si="0">IF(ISNUMBER(A3),
     IF(AND(A3=INT(A3), MOD(A3, 10) = 0), 0,
         IF(AND(A3=INT(A3), LEN(A3)=2), 1,
             IF(AND(A3=INT(A3), LEN(A3)=3), 2,
@@ -4015,14 +3872,14 @@
         <v>53</v>
       </c>
       <c r="R3" s="87" t="s">
-        <v>453</v>
-      </c>
-      <c r="S3" s="92" t="s">
+        <v>446</v>
+      </c>
+      <c r="S3" s="89" t="s">
         <v>56</v>
       </c>
       <c r="T3" s="51"/>
       <c r="U3" s="80" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="V3" s="84">
         <f>0.9*$H3</f>
@@ -4033,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y3" s="83">
         <f t="shared" ref="Y3" si="2">0.9*I3</f>
@@ -4044,19 +3901,19 @@
         <v>4940</v>
       </c>
       <c r="AA3" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB3" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC3" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD3" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE3" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -4105,10 +3962,10 @@
         <v>57</v>
       </c>
       <c r="R4" s="87"/>
-      <c r="S4" s="92"/>
+      <c r="S4" s="89"/>
       <c r="T4" s="51"/>
       <c r="U4" s="80" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="V4" s="84">
         <f t="shared" ref="V4:V67" si="4">0.9*$H4</f>
@@ -4119,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y4" s="83">
         <f t="shared" ref="Y4:Y67" si="6">0.9*I4</f>
@@ -4130,19 +3987,19 @@
         <v>13039</v>
       </c>
       <c r="AA4" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB4" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC4" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD4" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE4" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -4187,12 +4044,12 @@
       <c r="R5" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="S5" s="92" t="s">
+      <c r="S5" s="89" t="s">
         <v>59</v>
       </c>
       <c r="T5" s="51"/>
       <c r="U5" s="80" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="V5" s="84">
         <f>45*1000000</f>
@@ -4203,7 +4060,7 @@
         <v>70000000</v>
       </c>
       <c r="X5" s="80" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="Y5" s="83">
         <f t="shared" si="6"/>
@@ -4214,19 +4071,19 @@
         <v>0</v>
       </c>
       <c r="AA5" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB5" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC5" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD5" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE5" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -4268,10 +4125,10 @@
         <v>58</v>
       </c>
       <c r="R6" s="87"/>
-      <c r="S6" s="92"/>
+      <c r="S6" s="89"/>
       <c r="T6" s="51"/>
       <c r="U6" s="80" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="V6" s="84">
         <f t="shared" si="4"/>
@@ -4282,7 +4139,7 @@
         <v>4500000</v>
       </c>
       <c r="X6" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y6" s="83">
         <f t="shared" si="6"/>
@@ -4293,19 +4150,19 @@
         <v>0</v>
       </c>
       <c r="AA6" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB6" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC6" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD6" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE6" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="24" customHeight="1">
@@ -4348,7 +4205,7 @@
         <v>60</v>
       </c>
       <c r="R7" s="49" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="S7" s="51" t="s">
         <v>61</v>
@@ -4357,7 +4214,7 @@
         <v>63</v>
       </c>
       <c r="U7" s="80" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="V7" s="84">
         <f t="shared" si="4"/>
@@ -4368,7 +4225,7 @@
         <v>7815676.5</v>
       </c>
       <c r="X7" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y7" s="83">
         <f t="shared" si="6"/>
@@ -4379,19 +4236,19 @@
         <v>0</v>
       </c>
       <c r="AA7" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB7" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC7" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD7" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE7" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -4433,7 +4290,7 @@
       <c r="S8" s="52"/>
       <c r="T8" s="52"/>
       <c r="U8" s="80" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="V8" s="84"/>
       <c r="W8" s="84"/>
@@ -4580,12 +4437,12 @@
       <c r="R11" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="S11" s="93" t="s">
+      <c r="S11" s="88" t="s">
         <v>84</v>
       </c>
       <c r="T11" s="51"/>
       <c r="U11" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V11" s="84">
         <f t="shared" si="4"/>
@@ -4596,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y11" s="83">
         <f t="shared" si="6"/>
@@ -4607,19 +4464,19 @@
         <v>7621.7432200000012</v>
       </c>
       <c r="AA11" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB11" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC11" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD11" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE11" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -4673,10 +4530,10 @@
       </c>
       <c r="Q12" s="87"/>
       <c r="R12" s="87"/>
-      <c r="S12" s="92"/>
+      <c r="S12" s="89"/>
       <c r="T12" s="51"/>
       <c r="U12" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V12" s="84">
         <f t="shared" si="4"/>
@@ -4687,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y12" s="83">
         <f t="shared" si="6"/>
@@ -4698,19 +4555,19 @@
         <v>4435.2308000000003</v>
       </c>
       <c r="AA12" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB12" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC12" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD12" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE12" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -4757,10 +4614,10 @@
       </c>
       <c r="Q13" s="87"/>
       <c r="R13" s="87"/>
-      <c r="S13" s="92"/>
+      <c r="S13" s="89"/>
       <c r="T13" s="51"/>
       <c r="U13" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V13" s="84">
         <f t="shared" si="4"/>
@@ -4771,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y13" s="83">
         <f t="shared" si="6"/>
@@ -4782,19 +4639,19 @@
         <v>41.605199999999996</v>
       </c>
       <c r="AA13" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB13" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC13" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD13" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE13" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -4888,12 +4745,12 @@
       <c r="R15" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="S15" s="93" t="s">
+      <c r="S15" s="88" t="s">
         <v>84</v>
       </c>
       <c r="T15" s="51"/>
       <c r="U15" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V15" s="84">
         <f t="shared" si="4"/>
@@ -4904,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y15" s="83">
         <f t="shared" si="6"/>
@@ -4915,19 +4772,19 @@
         <v>2386.8000000000002</v>
       </c>
       <c r="AA15" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB15" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC15" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD15" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE15" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="25.5">
@@ -4974,10 +4831,10 @@
       </c>
       <c r="Q16" s="87"/>
       <c r="R16" s="87"/>
-      <c r="S16" s="92"/>
+      <c r="S16" s="89"/>
       <c r="T16" s="51"/>
       <c r="U16" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V16" s="84">
         <f t="shared" si="4"/>
@@ -4988,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y16" s="83">
         <f t="shared" si="6"/>
@@ -4999,19 +4856,19 @@
         <v>1877.4170999999999</v>
       </c>
       <c r="AA16" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB16" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC16" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD16" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE16" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="38.25">
@@ -5058,10 +4915,10 @@
       </c>
       <c r="Q17" s="87"/>
       <c r="R17" s="87"/>
-      <c r="S17" s="92"/>
+      <c r="S17" s="89"/>
       <c r="T17" s="51"/>
       <c r="U17" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V17" s="84">
         <f t="shared" si="4"/>
@@ -5072,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y17" s="83">
         <f t="shared" si="6"/>
@@ -5083,19 +4940,19 @@
         <v>1434.4866900000002</v>
       </c>
       <c r="AA17" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB17" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC17" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD17" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE17" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -5232,12 +5089,12 @@
       <c r="R20" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="S20" s="93" t="s">
+      <c r="S20" s="88" t="s">
         <v>84</v>
       </c>
       <c r="T20" s="51"/>
       <c r="U20" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V20" s="84">
         <f t="shared" si="4"/>
@@ -5248,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y20" s="83">
         <f t="shared" si="6"/>
@@ -5259,19 +5116,19 @@
         <v>2386.8000000000002</v>
       </c>
       <c r="AA20" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB20" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC20" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD20" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE20" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="25.5">
@@ -5318,10 +5175,10 @@
       </c>
       <c r="Q21" s="87"/>
       <c r="R21" s="87"/>
-      <c r="S21" s="92"/>
+      <c r="S21" s="89"/>
       <c r="T21" s="51"/>
       <c r="U21" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V21" s="84">
         <f t="shared" si="4"/>
@@ -5332,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y21" s="83">
         <f t="shared" si="6"/>
@@ -5343,19 +5200,19 @@
         <v>1877.4170999999999</v>
       </c>
       <c r="AA21" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB21" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC21" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD21" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE21" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="38.25">
@@ -5387,7 +5244,7 @@
         <v>79</v>
       </c>
       <c r="K22" s="49" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="L22" s="48"/>
       <c r="M22" s="47" t="s">
@@ -5402,10 +5259,10 @@
       </c>
       <c r="Q22" s="87"/>
       <c r="R22" s="87"/>
-      <c r="S22" s="92"/>
+      <c r="S22" s="89"/>
       <c r="T22" s="51"/>
       <c r="U22" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V22" s="84">
         <f t="shared" si="4"/>
@@ -5416,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y22" s="83">
         <f t="shared" si="6"/>
@@ -5427,19 +5284,19 @@
         <v>1434.4866900000002</v>
       </c>
       <c r="AA22" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB22" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC22" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD22" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE22" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -5533,12 +5390,12 @@
       <c r="R24" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="93" t="s">
+      <c r="S24" s="88" t="s">
         <v>84</v>
       </c>
       <c r="T24" s="51"/>
       <c r="U24" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V24" s="84">
         <f t="shared" si="4"/>
@@ -5549,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y24" s="83">
         <f t="shared" si="6"/>
@@ -5560,19 +5417,19 @@
         <v>2386.8000000000002</v>
       </c>
       <c r="AA24" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB24" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC24" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD24" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE24" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="25.5">
@@ -5619,10 +5476,10 @@
       </c>
       <c r="Q25" s="87"/>
       <c r="R25" s="87"/>
-      <c r="S25" s="92"/>
+      <c r="S25" s="89"/>
       <c r="T25" s="51"/>
       <c r="U25" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V25" s="84">
         <f t="shared" si="4"/>
@@ -5633,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y25" s="83">
         <f t="shared" si="6"/>
@@ -5644,19 +5501,19 @@
         <v>1877.4170999999999</v>
       </c>
       <c r="AA25" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB25" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC25" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD25" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE25" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="38.25">
@@ -5703,10 +5560,10 @@
       </c>
       <c r="Q26" s="87"/>
       <c r="R26" s="87"/>
-      <c r="S26" s="92"/>
+      <c r="S26" s="89"/>
       <c r="T26" s="51"/>
       <c r="U26" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V26" s="84">
         <f t="shared" si="4"/>
@@ -5717,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y26" s="83">
         <f t="shared" si="6"/>
@@ -5728,19 +5585,19 @@
         <v>1434.4866900000002</v>
       </c>
       <c r="AA26" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB26" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC26" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD26" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE26" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -5920,12 +5777,12 @@
       <c r="R30" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="S30" s="93" t="s">
+      <c r="S30" s="88" t="s">
         <v>84</v>
       </c>
       <c r="T30" s="51"/>
       <c r="U30" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V30" s="84">
         <f t="shared" si="4"/>
@@ -5936,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="80" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y30" s="83">
         <f t="shared" si="6"/>
@@ -5947,19 +5804,19 @@
         <v>2386.8000000000002</v>
       </c>
       <c r="AA30" s="80" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AB30" s="83" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC30" s="83" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AD30" s="83" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AE30" s="80" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:31" s="35" customFormat="1" ht="25.5">
@@ -6006,10 +5863,10 @@
       </c>
       <c r="Q31" s="87"/>
       <c r="R31" s="87"/>
-      <c r="S31" s="92"/>
+      <c r="S31" s="89"/>
       <c r="T31" s="51"/>
       <c r="U31" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V31" s="84">
         <f t="shared" si="4"/>
@@ -6020,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y31" s="83">
         <f t="shared" si="6"/>
@@ -6031,19 +5888,19 @@
         <v>1877.4170999999999</v>
       </c>
       <c r="AA31" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB31" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC31" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD31" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE31" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="32" spans="1:31" s="35" customFormat="1" ht="38.25">
@@ -6090,10 +5947,10 @@
       </c>
       <c r="Q32" s="87"/>
       <c r="R32" s="87"/>
-      <c r="S32" s="92"/>
+      <c r="S32" s="89"/>
       <c r="T32" s="51"/>
       <c r="U32" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V32" s="84">
         <f t="shared" si="4"/>
@@ -6104,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y32" s="83">
         <f t="shared" si="6"/>
@@ -6115,19 +5972,19 @@
         <v>1434.4866900000002</v>
       </c>
       <c r="AA32" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB32" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC32" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD32" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE32" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -6221,12 +6078,12 @@
       <c r="R34" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="S34" s="93" t="s">
+      <c r="S34" s="88" t="s">
         <v>84</v>
       </c>
       <c r="T34" s="51"/>
       <c r="U34" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V34" s="84">
         <f t="shared" si="4"/>
@@ -6237,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y34" s="83">
         <f t="shared" si="6"/>
@@ -6248,19 +6105,19 @@
         <v>2386.8000000000002</v>
       </c>
       <c r="AA34" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB34" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC34" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD34" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE34" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:31" s="35" customFormat="1" ht="38.25">
@@ -6307,10 +6164,10 @@
       </c>
       <c r="Q35" s="87"/>
       <c r="R35" s="87"/>
-      <c r="S35" s="92"/>
+      <c r="S35" s="89"/>
       <c r="T35" s="51"/>
       <c r="U35" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V35" s="84">
         <f t="shared" si="4"/>
@@ -6321,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y35" s="83">
         <f t="shared" si="6"/>
@@ -6332,19 +6189,19 @@
         <v>1877.4170999999999</v>
       </c>
       <c r="AA35" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB35" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC35" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD35" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE35" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="36" spans="1:31" s="35" customFormat="1" ht="38.25">
@@ -6391,10 +6248,10 @@
       </c>
       <c r="Q36" s="87"/>
       <c r="R36" s="87"/>
-      <c r="S36" s="92"/>
+      <c r="S36" s="89"/>
       <c r="T36" s="51"/>
       <c r="U36" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V36" s="84">
         <f t="shared" si="4"/>
@@ -6405,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y36" s="83">
         <f t="shared" si="6"/>
@@ -6416,19 +6273,19 @@
         <v>1434.4866900000002</v>
       </c>
       <c r="AA36" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB36" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC36" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD36" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE36" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="25.5">
@@ -6565,12 +6422,12 @@
       <c r="R39" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="S39" s="93" t="s">
+      <c r="S39" s="88" t="s">
         <v>84</v>
       </c>
       <c r="T39" s="51"/>
       <c r="U39" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V39" s="84">
         <f t="shared" si="4"/>
@@ -6581,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y39" s="83">
         <f t="shared" si="6"/>
@@ -6592,19 +6449,19 @@
         <v>2386.8000000000002</v>
       </c>
       <c r="AA39" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB39" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC39" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD39" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE39" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:31" s="35" customFormat="1" ht="38.25">
@@ -6651,10 +6508,10 @@
       </c>
       <c r="Q40" s="87"/>
       <c r="R40" s="87"/>
-      <c r="S40" s="92"/>
+      <c r="S40" s="89"/>
       <c r="T40" s="51"/>
       <c r="U40" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V40" s="84">
         <f t="shared" si="4"/>
@@ -6665,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y40" s="83">
         <f t="shared" si="6"/>
@@ -6676,19 +6533,19 @@
         <v>1877.4170999999999</v>
       </c>
       <c r="AA40" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB40" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC40" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD40" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE40" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="41" spans="1:31" s="35" customFormat="1" ht="38.25">
@@ -6735,10 +6592,10 @@
       </c>
       <c r="Q41" s="87"/>
       <c r="R41" s="87"/>
-      <c r="S41" s="92"/>
+      <c r="S41" s="89"/>
       <c r="T41" s="51"/>
       <c r="U41" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V41" s="84">
         <f t="shared" si="4"/>
@@ -6749,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y41" s="83">
         <f t="shared" si="6"/>
@@ -6760,19 +6617,19 @@
         <v>1434.4866900000002</v>
       </c>
       <c r="AA41" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB41" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC41" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD41" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE41" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:31" ht="103.9" customHeight="1">
@@ -6833,7 +6690,7 @@
       </c>
       <c r="T42" s="51"/>
       <c r="U42" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V42" s="84">
         <f t="shared" si="4"/>
@@ -6844,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y42" s="83">
         <f t="shared" si="6"/>
@@ -6855,19 +6712,19 @@
         <v>3532505.0361445784</v>
       </c>
       <c r="AA42" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB42" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC42" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD42" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE42" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -7004,12 +6861,12 @@
       <c r="R45" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="S45" s="93" t="s">
+      <c r="S45" s="88" t="s">
         <v>84</v>
       </c>
       <c r="T45" s="51"/>
       <c r="U45" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V45" s="84">
         <f t="shared" si="4"/>
@@ -7020,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y45" s="83">
         <f t="shared" si="6"/>
@@ -7031,19 +6888,19 @@
         <v>2386.8000000000002</v>
       </c>
       <c r="AA45" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB45" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC45" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD45" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE45" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="46" spans="1:31" ht="25.5">
@@ -7090,10 +6947,10 @@
       </c>
       <c r="Q46" s="87"/>
       <c r="R46" s="87"/>
-      <c r="S46" s="92"/>
+      <c r="S46" s="89"/>
       <c r="T46" s="51"/>
       <c r="U46" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V46" s="84">
         <f t="shared" si="4"/>
@@ -7104,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y46" s="83">
         <f t="shared" si="6"/>
@@ -7115,19 +6972,19 @@
         <v>1877.4170999999999</v>
       </c>
       <c r="AA46" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB46" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC46" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD46" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE46" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="47" spans="1:31" ht="38.25">
@@ -7174,10 +7031,10 @@
       </c>
       <c r="Q47" s="87"/>
       <c r="R47" s="87"/>
-      <c r="S47" s="92"/>
+      <c r="S47" s="89"/>
       <c r="T47" s="51"/>
       <c r="U47" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V47" s="84">
         <f t="shared" si="4"/>
@@ -7188,7 +7045,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y47" s="83">
         <f t="shared" si="6"/>
@@ -7199,19 +7056,19 @@
         <v>1434.4866900000002</v>
       </c>
       <c r="AA47" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB47" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC47" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD47" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE47" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -7305,12 +7162,12 @@
       <c r="R49" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="S49" s="93" t="s">
+      <c r="S49" s="88" t="s">
         <v>84</v>
       </c>
       <c r="T49" s="51"/>
       <c r="U49" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V49" s="84">
         <f t="shared" si="4"/>
@@ -7321,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="X49" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y49" s="83">
         <f t="shared" si="6"/>
@@ -7332,19 +7189,19 @@
         <v>2386.8000000000002</v>
       </c>
       <c r="AA49" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB49" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC49" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD49" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE49" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="25.5">
@@ -7391,10 +7248,10 @@
       </c>
       <c r="Q50" s="87"/>
       <c r="R50" s="87"/>
-      <c r="S50" s="92"/>
+      <c r="S50" s="89"/>
       <c r="T50" s="51"/>
       <c r="U50" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V50" s="84">
         <f t="shared" si="4"/>
@@ -7405,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="X50" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y50" s="83">
         <f t="shared" si="6"/>
@@ -7416,19 +7273,19 @@
         <v>1877.4170999999999</v>
       </c>
       <c r="AA50" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB50" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC50" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD50" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE50" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="38.25">
@@ -7475,10 +7332,10 @@
       </c>
       <c r="Q51" s="87"/>
       <c r="R51" s="87"/>
-      <c r="S51" s="92"/>
+      <c r="S51" s="89"/>
       <c r="T51" s="51"/>
       <c r="U51" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V51" s="84">
         <f t="shared" si="4"/>
@@ -7489,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y51" s="83">
         <f t="shared" si="6"/>
@@ -7500,19 +7357,19 @@
         <v>1434.4866900000002</v>
       </c>
       <c r="AA51" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB51" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC51" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD51" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE51" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -7699,7 +7556,7 @@
         <v>178</v>
       </c>
       <c r="U55" s="80" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="V55" s="84">
         <f t="shared" si="4"/>
@@ -7710,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y55" s="83">
         <f t="shared" si="6"/>
@@ -7721,19 +7578,19 @@
         <v>10.651974935400519</v>
       </c>
       <c r="AA55" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB55" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC55" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD55" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE55" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="30" customHeight="1">
@@ -7755,10 +7612,10 @@
         <v>341</v>
       </c>
       <c r="F56" s="41" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="G56" s="41" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="H56" s="45"/>
       <c r="I56" s="63">
@@ -7782,13 +7639,13 @@
       <c r="Q56" s="61" t="s">
         <v>399</v>
       </c>
-      <c r="R56" s="88" t="s">
+      <c r="R56" s="90" t="s">
         <v>350</v>
       </c>
       <c r="S56" s="58"/>
       <c r="T56" s="51"/>
       <c r="U56" s="80" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="V56" s="84">
         <f t="shared" si="4"/>
@@ -7799,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y56" s="83">
         <f t="shared" si="6"/>
@@ -7810,19 +7667,19 @@
         <v>421.30399999999997</v>
       </c>
       <c r="AA56" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB56" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC56" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD56" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE56" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="30" customHeight="1">
@@ -7844,10 +7701,10 @@
         <v>341</v>
       </c>
       <c r="F57" s="41" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="G57" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="H57" s="45"/>
       <c r="I57" s="63">
@@ -7871,11 +7728,11 @@
       <c r="Q57" s="61" t="s">
         <v>399</v>
       </c>
-      <c r="R57" s="88"/>
+      <c r="R57" s="90"/>
       <c r="S57" s="58"/>
       <c r="T57" s="51"/>
       <c r="U57" s="80" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="V57" s="84">
         <f t="shared" si="4"/>
@@ -7886,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y57" s="83">
         <f t="shared" si="6"/>
@@ -7897,19 +7754,19 @@
         <v>200.30400000000003</v>
       </c>
       <c r="AA57" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB57" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC57" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD57" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE57" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="58" spans="1:31" ht="30" customHeight="1">
@@ -7938,10 +7795,10 @@
         <v>341</v>
       </c>
       <c r="F58" s="41" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="G58" s="41" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H58" s="45"/>
       <c r="I58" s="63">
@@ -7965,11 +7822,11 @@
       <c r="Q58" s="61" t="s">
         <v>399</v>
       </c>
-      <c r="R58" s="88"/>
+      <c r="R58" s="90"/>
       <c r="S58" s="58"/>
       <c r="T58" s="51"/>
       <c r="U58" s="80" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="V58" s="84">
         <f t="shared" si="4"/>
@@ -7980,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y58" s="83">
         <f t="shared" si="6"/>
@@ -7991,19 +7848,19 @@
         <v>577.30399999999997</v>
       </c>
       <c r="AA58" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB58" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC58" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD58" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE58" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="59" spans="1:31" ht="30" customHeight="1">
@@ -8025,10 +7882,10 @@
         <v>341</v>
       </c>
       <c r="F59" s="41" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="G59" s="41" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="H59" s="45"/>
       <c r="I59" s="63">
@@ -8052,13 +7909,13 @@
       <c r="Q59" s="61" t="s">
         <v>399</v>
       </c>
-      <c r="R59" s="88"/>
+      <c r="R59" s="90"/>
       <c r="S59" s="58"/>
       <c r="T59" s="61" t="s">
         <v>179</v>
       </c>
       <c r="U59" s="80" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="V59" s="84">
         <f t="shared" si="4"/>
@@ -8069,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y59" s="83">
         <f t="shared" si="6"/>
@@ -8080,19 +7937,19 @@
         <v>421.30399999999997</v>
       </c>
       <c r="AA59" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB59" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC59" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD59" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE59" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="30" customHeight="1">
@@ -8114,10 +7971,10 @@
         <v>341</v>
       </c>
       <c r="F60" s="41" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="G60" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="H60" s="45"/>
       <c r="I60" s="63">
@@ -8141,11 +7998,11 @@
       <c r="Q60" s="61" t="s">
         <v>399</v>
       </c>
-      <c r="R60" s="88"/>
+      <c r="R60" s="90"/>
       <c r="S60" s="58"/>
       <c r="T60" s="61"/>
       <c r="U60" s="80" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="V60" s="84">
         <f t="shared" si="4"/>
@@ -8156,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y60" s="83">
         <f t="shared" si="6"/>
@@ -8167,19 +8024,19 @@
         <v>200.30400000000003</v>
       </c>
       <c r="AA60" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB60" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC60" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD60" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE60" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="61" spans="1:31" ht="30" customHeight="1">
@@ -8208,10 +8065,10 @@
         <v>341</v>
       </c>
       <c r="F61" s="41" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="G61" s="41" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H61" s="45"/>
       <c r="I61" s="63">
@@ -8235,11 +8092,11 @@
       <c r="Q61" s="61" t="s">
         <v>399</v>
       </c>
-      <c r="R61" s="88"/>
+      <c r="R61" s="90"/>
       <c r="S61" s="58"/>
       <c r="T61" s="61"/>
       <c r="U61" s="80" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="V61" s="84">
         <f t="shared" si="4"/>
@@ -8250,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y61" s="83">
         <f t="shared" si="6"/>
@@ -8261,19 +8118,19 @@
         <v>577.30399999999997</v>
       </c>
       <c r="AA61" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB61" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC61" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD61" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE61" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="30" customHeight="1">
@@ -8362,7 +8219,7 @@
       <c r="AD63" s="83"/>
       <c r="AE63" s="80"/>
     </row>
-    <row r="64" spans="1:31" s="35" customFormat="1" ht="38.25">
+    <row r="64" spans="1:31" s="35" customFormat="1" ht="51">
       <c r="A64" s="55">
         <v>221.21100000000001</v>
       </c>
@@ -8391,7 +8248,7 @@
         <v>400</v>
       </c>
       <c r="K64" s="61" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="L64" s="51"/>
       <c r="M64" s="51"/>
@@ -8405,17 +8262,17 @@
       <c r="Q64" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="R64" s="88" t="s">
+      <c r="R64" s="90" t="s">
         <v>176</v>
       </c>
       <c r="S64" s="94" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="T64" s="61" t="s">
         <v>184</v>
       </c>
       <c r="U64" s="80" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="V64" s="84">
         <f t="shared" si="4"/>
@@ -8426,7 +8283,7 @@
         <v>0</v>
       </c>
       <c r="X64" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y64" s="83">
         <f t="shared" si="6"/>
@@ -8437,19 +8294,19 @@
         <v>452257</v>
       </c>
       <c r="AA64" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB64" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC64" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD64" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE64" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65" spans="1:34" s="35" customFormat="1">
@@ -8481,7 +8338,7 @@
         <v>400</v>
       </c>
       <c r="K65" s="61" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="L65" s="51"/>
       <c r="M65" s="51"/>
@@ -8495,11 +8352,11 @@
       <c r="Q65" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="R65" s="88"/>
+      <c r="R65" s="90"/>
       <c r="S65" s="94"/>
       <c r="T65" s="51"/>
       <c r="U65" s="80" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="V65" s="84">
         <f t="shared" si="4"/>
@@ -8510,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="X65" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y65" s="83">
         <f t="shared" si="6"/>
@@ -8521,19 +8378,19 @@
         <v>104865.47500000001</v>
       </c>
       <c r="AA65" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB65" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC65" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD65" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE65" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="66" spans="1:34" s="35" customFormat="1" ht="30" customHeight="1">
@@ -8590,11 +8447,11 @@
       <c r="Q66" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="R66" s="88"/>
+      <c r="R66" s="90"/>
       <c r="S66" s="94"/>
       <c r="T66" s="51"/>
       <c r="U66" s="80" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="V66" s="84">
         <f t="shared" si="4"/>
@@ -8605,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="X66" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y66" s="83">
         <f t="shared" si="6"/>
@@ -8616,19 +8473,19 @@
         <v>18571.428571428572</v>
       </c>
       <c r="AA66" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB66" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC66" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD66" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE66" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="67" spans="1:34" s="35" customFormat="1" ht="30" customHeight="1">
@@ -8660,7 +8517,7 @@
         <v>328</v>
       </c>
       <c r="G67" s="41" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H67" s="45"/>
       <c r="I67" s="63">
@@ -8682,13 +8539,13 @@
         <v>73</v>
       </c>
       <c r="Q67" s="61" t="s">
-        <v>441</v>
-      </c>
-      <c r="R67" s="88"/>
+        <v>437</v>
+      </c>
+      <c r="R67" s="90"/>
       <c r="S67" s="94"/>
       <c r="T67" s="51"/>
       <c r="U67" s="80" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="V67" s="84">
         <f t="shared" si="4"/>
@@ -8699,7 +8556,7 @@
         <v>0</v>
       </c>
       <c r="X67" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y67" s="83">
         <f t="shared" si="6"/>
@@ -8710,19 +8567,19 @@
         <v>13083.2</v>
       </c>
       <c r="AA67" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB67" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC67" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD67" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE67" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="68" spans="1:34" s="35" customFormat="1" ht="30" customHeight="1">
@@ -8779,45 +8636,45 @@
       <c r="Q68" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="R68" s="88"/>
+      <c r="R68" s="90"/>
       <c r="S68" s="94"/>
       <c r="T68" s="51"/>
       <c r="U68" s="80" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="V68" s="84">
-        <f t="shared" ref="V68:V128" si="13">0.9*$H68</f>
+        <f t="shared" ref="V68:V127" si="13">0.9*$H68</f>
         <v>0</v>
       </c>
       <c r="W68" s="84">
-        <f t="shared" ref="W68:W128" si="14">1.5*H68</f>
+        <f t="shared" ref="W68:W127" si="14">1.5*H68</f>
         <v>0</v>
       </c>
       <c r="X68" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y68" s="83">
-        <f t="shared" ref="Y68:Y128" si="15">0.9*I68</f>
+        <f t="shared" ref="Y68:Y127" si="15">0.9*I68</f>
         <v>9056.6037735849059</v>
       </c>
       <c r="Z68" s="83">
-        <f t="shared" ref="Z68:Z128" si="16">1.3*I68</f>
+        <f t="shared" ref="Z68:Z127" si="16">1.3*I68</f>
         <v>13081.761006289309</v>
       </c>
       <c r="AA68" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB68" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC68" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD68" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE68" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69" spans="1:34" s="35" customFormat="1" ht="30" customHeight="1">
@@ -8842,7 +8699,7 @@
         <v>327</v>
       </c>
       <c r="G69" s="41" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H69" s="81"/>
       <c r="I69" s="66">
@@ -8878,7 +8735,7 @@
       <c r="S69" s="67"/>
       <c r="T69" s="51"/>
       <c r="U69" s="80" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="V69" s="84">
         <f t="shared" si="13"/>
@@ -8889,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="X69" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y69" s="83">
         <f t="shared" si="15"/>
@@ -8900,19 +8757,19 @@
         <v>58157.894736842107</v>
       </c>
       <c r="AA69" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB69" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC69" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD69" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE69" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="AH69" s="38"/>
     </row>
@@ -8975,7 +8832,7 @@
       <c r="S70" s="67"/>
       <c r="T70" s="51"/>
       <c r="U70" s="80" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="V70" s="84">
         <f t="shared" si="13"/>
@@ -8986,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="X70" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y70" s="83">
         <f t="shared" si="15"/>
@@ -8997,19 +8854,19 @@
         <v>104</v>
       </c>
       <c r="AA70" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB70" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC70" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD70" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE70" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="71" spans="1:34" s="35" customFormat="1" ht="30" customHeight="1">
@@ -9040,7 +8897,7 @@
         <v>400</v>
       </c>
       <c r="K71" s="61" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="L71" s="51"/>
       <c r="M71" s="51"/>
@@ -9052,7 +8909,7 @@
         <v>77</v>
       </c>
       <c r="Q71" s="61" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="R71" s="65" t="s">
         <v>401</v>
@@ -9062,7 +8919,7 @@
         <v>402</v>
       </c>
       <c r="U71" s="80" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="V71" s="84">
         <f t="shared" si="13"/>
@@ -9073,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="X71" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y71" s="83">
         <f t="shared" si="15"/>
@@ -9084,19 +8941,19 @@
         <v>97186.7</v>
       </c>
       <c r="AA71" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB71" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC71" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD71" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE71" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72" spans="1:34">
@@ -9205,11 +9062,11 @@
         <v>176</v>
       </c>
       <c r="S73" s="94" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="T73" s="51"/>
       <c r="U73" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V73" s="84">
         <f t="shared" si="13"/>
@@ -9220,7 +9077,7 @@
         <v>180346.5</v>
       </c>
       <c r="X73" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y73" s="83">
         <f t="shared" si="15"/>
@@ -9231,19 +9088,19 @@
         <v>13081.761006289309</v>
       </c>
       <c r="AA73" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB73" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC73" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD73" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE73" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="74" spans="1:34" ht="14.45" customHeight="1">
@@ -9275,7 +9132,7 @@
         <v>13</v>
       </c>
       <c r="G74" s="41" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H74" s="45"/>
       <c r="I74" s="66">
@@ -9313,7 +9170,7 @@
       <c r="S74" s="94"/>
       <c r="T74" s="51"/>
       <c r="U74" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V74" s="84">
         <f t="shared" si="13"/>
@@ -9324,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="X74" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y74" s="83">
         <f t="shared" si="15"/>
@@ -9335,19 +9192,19 @@
         <v>58157.894736842107</v>
       </c>
       <c r="AA74" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB74" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC74" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD74" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE74" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="75" spans="1:34" ht="51">
@@ -9409,7 +9266,7 @@
       <c r="S75" s="94"/>
       <c r="T75" s="51"/>
       <c r="U75" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V75" s="84">
         <f t="shared" si="13"/>
@@ -9420,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y75" s="83">
         <f t="shared" si="15"/>
@@ -9431,19 +9288,19 @@
         <v>104</v>
       </c>
       <c r="AA75" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB75" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC75" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD75" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE75" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="76" spans="1:34">
@@ -9503,7 +9360,7 @@
       <c r="S76" s="94"/>
       <c r="T76" s="51"/>
       <c r="U76" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V76" s="84">
         <f t="shared" si="13"/>
@@ -9514,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y76" s="83">
         <f t="shared" si="15"/>
@@ -9525,19 +9382,19 @@
         <v>174.33</v>
       </c>
       <c r="AA76" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB76" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC76" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD76" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE76" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="77" spans="1:34">
@@ -9602,7 +9459,7 @@
         <v>341</v>
       </c>
       <c r="F78" s="41" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G78" s="41" t="s">
         <v>186</v>
@@ -9619,7 +9476,7 @@
         <v>174</v>
       </c>
       <c r="K78" s="61" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="L78" s="51">
         <f>L66</f>
@@ -9644,7 +9501,7 @@
       <c r="S78" s="94"/>
       <c r="T78" s="51"/>
       <c r="U78" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V78" s="84">
         <f t="shared" si="13"/>
@@ -9655,7 +9512,7 @@
         <v>971985.89999999991</v>
       </c>
       <c r="X78" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y78" s="83">
         <f t="shared" si="15"/>
@@ -9666,19 +9523,19 @@
         <v>18571.428571428572</v>
       </c>
       <c r="AA78" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB78" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC78" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD78" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE78" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="79" spans="1:34" s="35" customFormat="1" ht="30" customHeight="1">
@@ -9700,7 +9557,7 @@
         <v>341</v>
       </c>
       <c r="F79" s="41" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G79" s="41" t="s">
         <v>331</v>
@@ -9713,7 +9570,7 @@
         <v>174</v>
       </c>
       <c r="K79" s="61" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="L79" s="51">
         <f>'Design Variables'!B43</f>
@@ -9738,7 +9595,7 @@
       <c r="S79" s="94"/>
       <c r="T79" s="51"/>
       <c r="U79" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V79" s="84">
         <f>0.9*$H79</f>
@@ -9749,7 +9606,7 @@
         <v>0</v>
       </c>
       <c r="X79" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y79" s="83">
         <f>0.9*I79</f>
@@ -9760,19 +9617,19 @@
         <v>26</v>
       </c>
       <c r="AA79" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB79" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC79" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD79" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE79" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="80" spans="1:34" ht="69" customHeight="1">
@@ -9784,7 +9641,7 @@
         <v>4</v>
       </c>
       <c r="C80" s="58" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D80" s="41" t="str">
         <f>REPT("   ", B81*2) &amp; C80</f>
@@ -9794,7 +9651,7 @@
         <v>341</v>
       </c>
       <c r="F80" s="41" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G80" s="41" t="s">
         <v>332</v>
@@ -9807,7 +9664,7 @@
         <v>174</v>
       </c>
       <c r="K80" s="61" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="L80" s="51"/>
       <c r="M80" s="51" t="s">
@@ -9829,7 +9686,7 @@
       <c r="S80" s="67"/>
       <c r="T80" s="51"/>
       <c r="U80" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V80" s="84">
         <f t="shared" si="13"/>
@@ -9840,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="X80" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y80" s="83">
         <f t="shared" si="15"/>
@@ -9851,19 +9708,19 @@
         <v>1976</v>
       </c>
       <c r="AA80" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB80" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC80" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD80" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE80" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="81" spans="1:31" ht="30" customHeight="1">
@@ -9920,7 +9777,7 @@
       <c r="S81" s="67"/>
       <c r="T81" s="51"/>
       <c r="U81" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V81" s="84">
         <f t="shared" si="13"/>
@@ -9931,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="X81" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y81" s="83">
         <f t="shared" si="15"/>
@@ -9942,19 +9799,19 @@
         <v>104</v>
       </c>
       <c r="AA81" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB81" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC81" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD81" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE81" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="82" spans="1:31" ht="30" customHeight="1">
@@ -10099,15 +9956,15 @@
       <c r="Q84" s="61" t="s">
         <v>343</v>
       </c>
-      <c r="R84" s="88" t="s">
-        <v>456</v>
-      </c>
-      <c r="S84" s="90" t="s">
+      <c r="R84" s="90" t="s">
+        <v>449</v>
+      </c>
+      <c r="S84" s="92" t="s">
         <v>344</v>
       </c>
-      <c r="T84" s="88"/>
+      <c r="T84" s="90"/>
       <c r="U84" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V84" s="84">
         <f t="shared" si="13"/>
@@ -10118,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="X84" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y84" s="83">
         <f t="shared" si="15"/>
@@ -10129,19 +9986,19 @@
         <v>11464.050000000001</v>
       </c>
       <c r="AA84" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB84" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC84" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD84" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE84" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="85" spans="1:31" ht="25.5">
@@ -10192,11 +10049,11 @@
       <c r="Q85" s="61" t="s">
         <v>339</v>
       </c>
-      <c r="R85" s="88"/>
-      <c r="S85" s="91"/>
-      <c r="T85" s="88"/>
+      <c r="R85" s="90"/>
+      <c r="S85" s="93"/>
+      <c r="T85" s="90"/>
       <c r="U85" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V85" s="84">
         <f t="shared" si="13"/>
@@ -10207,7 +10064,7 @@
         <v>0</v>
       </c>
       <c r="X85" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y85" s="83">
         <f t="shared" si="15"/>
@@ -10218,19 +10075,19 @@
         <v>917.12400000000002</v>
       </c>
       <c r="AA85" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB85" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC85" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD85" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE85" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86" spans="1:31" ht="51">
@@ -10281,7 +10138,7 @@
         <v>409</v>
       </c>
       <c r="U86" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V86" s="84">
         <f t="shared" si="13"/>
@@ -10292,7 +10149,7 @@
         <v>0</v>
       </c>
       <c r="X86" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y86" s="83">
         <f t="shared" si="15"/>
@@ -10303,19 +10160,19 @@
         <v>9230000</v>
       </c>
       <c r="AA86" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB86" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC86" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD86" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE86" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="30" customHeight="1">
@@ -10366,7 +10223,7 @@
       <c r="S87" s="51"/>
       <c r="T87" s="51"/>
       <c r="U87" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V87" s="84">
         <f t="shared" si="13"/>
@@ -10377,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="X87" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y87" s="83">
         <f t="shared" ref="Y87" si="27">0.9*I87</f>
@@ -10388,19 +10245,19 @@
         <v>26000</v>
       </c>
       <c r="AA87" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB87" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC87" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD87" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE87" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="88" spans="1:31">
@@ -10507,7 +10364,7 @@
       <c r="S89" s="51"/>
       <c r="T89" s="51"/>
       <c r="U89" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V89" s="84">
         <f t="shared" si="13"/>
@@ -10518,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="X89" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y89" s="83">
         <f t="shared" si="15"/>
@@ -10529,19 +10386,19 @@
         <v>65</v>
       </c>
       <c r="AA89" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB89" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC89" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD89" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE89" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="90" spans="1:31" ht="30" customHeight="1">
@@ -10605,7 +10462,7 @@
       <c r="S90" s="51"/>
       <c r="T90" s="51"/>
       <c r="U90" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V90" s="84">
         <f t="shared" si="13"/>
@@ -10616,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="X90" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y90" s="83">
         <f t="shared" si="15"/>
@@ -10627,19 +10484,19 @@
         <v>156</v>
       </c>
       <c r="AA90" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB90" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC90" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD90" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE90" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="91" spans="1:31" ht="30" customHeight="1">
@@ -10703,7 +10560,7 @@
       <c r="S91" s="51"/>
       <c r="T91" s="51"/>
       <c r="U91" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V91" s="84">
         <f t="shared" si="13"/>
@@ -10714,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="X91" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y91" s="83">
         <f t="shared" si="15"/>
@@ -10725,19 +10582,19 @@
         <v>65</v>
       </c>
       <c r="AA91" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB91" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC91" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD91" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE91" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="30" customHeight="1">
@@ -10801,7 +10658,7 @@
       <c r="S92" s="51"/>
       <c r="T92" s="51"/>
       <c r="U92" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V92" s="84">
         <f t="shared" si="13"/>
@@ -10812,7 +10669,7 @@
         <v>0</v>
       </c>
       <c r="X92" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y92" s="83">
         <f t="shared" si="15"/>
@@ -10823,19 +10680,19 @@
         <v>156</v>
       </c>
       <c r="AA92" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB92" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC92" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD92" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE92" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="93" spans="1:31">
@@ -10973,7 +10830,7 @@
       <c r="S95" s="51"/>
       <c r="T95" s="51"/>
       <c r="U95" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V95" s="84">
         <f t="shared" si="13"/>
@@ -10984,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="X95" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y95" s="83">
         <f t="shared" si="15"/>
@@ -10995,86 +10852,71 @@
         <v>421.30399999999997</v>
       </c>
       <c r="AA95" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB95" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC95" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD95" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE95" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="30" customHeight="1">
       <c r="A96" s="55">
-        <v>223.21</v>
+        <v>223.22</v>
       </c>
       <c r="B96" s="40">
-        <f t="shared" ref="B96" si="37">IF(ISNUMBER(A96),
-    IF(AND(A96=INT(A96), MOD(A96, 10) = 0), 0,
-        IF(AND(A96=INT(A96), LEN(A96)=2), 1,
-            IF(AND(A96=INT(A96), LEN(A96)=3), 2,
-                LEN(A96) - FIND(".", A96) + 2)
-        )
-    ),
-"")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C96" s="58" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D96" s="41" t="str">
-        <f t="shared" ref="D96" si="38">REPT("   ", B96*2) &amp; C96</f>
-        <v xml:space="preserve">                        Rvacs (Cooling Vessel)</v>
+        <f>REPT("   ", B96*2) &amp; C96</f>
+        <v xml:space="preserve">                        Rvacs (Intake Vessel)</v>
       </c>
       <c r="E96" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="F96" s="41" t="s">
-        <v>442</v>
-      </c>
-      <c r="G96" s="47" t="s">
-        <v>415</v>
-      </c>
+      <c r="F96" s="41"/>
+      <c r="G96" s="47"/>
       <c r="H96" s="68"/>
       <c r="I96" s="63">
-        <f>17192142.03/150.8</f>
-        <v>114006.24688328912</v>
+        <f>I95</f>
+        <v>324.08</v>
       </c>
       <c r="J96" s="51" t="s">
-        <v>414</v>
+        <v>174</v>
       </c>
       <c r="K96" s="61" t="s">
-        <v>415</v>
-      </c>
-      <c r="L96" s="51">
-        <v>150.80000000000001</v>
-      </c>
-      <c r="M96" s="51" t="s">
-        <v>416</v>
-      </c>
-      <c r="N96" s="51">
-        <v>1.21</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="L96" s="51"/>
+      <c r="M96" s="51"/>
+      <c r="N96" s="51"/>
       <c r="O96" s="68">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="P96" s="51" t="s">
         <v>77</v>
       </c>
       <c r="Q96" s="61" t="s">
-        <v>417</v>
-      </c>
-      <c r="R96" s="65"/>
+        <v>399</v>
+      </c>
+      <c r="R96" s="65" t="s">
+        <v>350</v>
+      </c>
       <c r="S96" s="51"/>
       <c r="T96" s="51"/>
       <c r="U96" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V96" s="84">
         <f t="shared" si="13"/>
@@ -11085,116 +10927,114 @@
         <v>0</v>
       </c>
       <c r="X96" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y96" s="83">
         <f t="shared" si="15"/>
-        <v>102605.6221949602</v>
+        <v>291.67199999999997</v>
       </c>
       <c r="Z96" s="83">
         <f t="shared" si="16"/>
-        <v>148208.12094827587</v>
+        <v>421.30399999999997</v>
       </c>
       <c r="AA96" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB96" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC96" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD96" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE96" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="97" spans="1:31" ht="30" customHeight="1">
       <c r="A97" s="55">
-        <v>223.22</v>
+        <v>226</v>
       </c>
       <c r="B97" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C97" s="58" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="D97" s="41" t="str">
         <f>REPT("   ", B97*2) &amp; C97</f>
-        <v xml:space="preserve">                        Rvacs (Intake Vessel)</v>
+        <v xml:space="preserve">            Other Reactor Plant Equipment</v>
       </c>
       <c r="E97" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="F97" s="41"/>
-      <c r="G97" s="47"/>
-      <c r="H97" s="68"/>
-      <c r="I97" s="63">
-        <f>I95</f>
-        <v>324.08</v>
-      </c>
-      <c r="J97" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="K97" s="61" t="s">
-        <v>363</v>
-      </c>
+      <c r="F97" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="G97" s="47" t="s">
+        <v>415</v>
+      </c>
+      <c r="H97" s="63">
+        <f>MARVEL_Cost!C42</f>
+        <v>456297</v>
+      </c>
+      <c r="I97" s="63"/>
+      <c r="J97" s="51"/>
+      <c r="K97" s="61"/>
       <c r="L97" s="51"/>
       <c r="M97" s="51"/>
       <c r="N97" s="51"/>
       <c r="O97" s="68">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="P97" s="51" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q97" s="61" t="s">
-        <v>399</v>
-      </c>
-      <c r="R97" s="65" t="s">
-        <v>350</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="R97" s="51"/>
       <c r="S97" s="51"/>
       <c r="T97" s="51"/>
       <c r="U97" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V97" s="84">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>410667.3</v>
       </c>
       <c r="W97" s="84">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>684445.5</v>
       </c>
       <c r="X97" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y97" s="83">
         <f t="shared" si="15"/>
-        <v>291.67199999999997</v>
+        <v>0</v>
       </c>
       <c r="Z97" s="83">
         <f t="shared" si="16"/>
-        <v>421.30399999999997</v>
+        <v>0</v>
       </c>
       <c r="AA97" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB97" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC97" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD97" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE97" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="30" customHeight="1">
@@ -11202,7 +11042,6 @@
         <v>226</v>
       </c>
       <c r="B98" s="40">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C98" s="58" t="s">
@@ -11219,188 +11058,190 @@
         <v>351</v>
       </c>
       <c r="G98" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="H98" s="63"/>
+      <c r="I98" s="63">
+        <f>8844770/L98*8.15527886031535</f>
+        <v>118207.77405377067</v>
+      </c>
+      <c r="J98" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="K98" s="61" t="s">
+        <v>439</v>
+      </c>
+      <c r="L98" s="51">
+        <v>610.21</v>
+      </c>
+      <c r="M98" s="51" t="s">
+        <v>416</v>
+      </c>
+      <c r="N98" s="51">
+        <v>0.6</v>
+      </c>
+      <c r="O98" s="68">
+        <v>2023</v>
+      </c>
+      <c r="P98" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q98" s="61" t="s">
+        <v>417</v>
+      </c>
+      <c r="R98" s="51" t="s">
         <v>418</v>
       </c>
-      <c r="H98" s="63">
-        <f>MARVEL_Cost!C42</f>
-        <v>456297</v>
-      </c>
-      <c r="I98" s="63"/>
-      <c r="J98" s="51"/>
-      <c r="K98" s="61"/>
-      <c r="L98" s="51"/>
-      <c r="M98" s="51"/>
-      <c r="N98" s="51"/>
-      <c r="O98" s="68">
-        <v>2024</v>
-      </c>
-      <c r="P98" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q98" s="61" t="s">
-        <v>364</v>
-      </c>
-      <c r="R98" s="51"/>
-      <c r="S98" s="51"/>
-      <c r="T98" s="51"/>
+      <c r="S98" s="78" t="s">
+        <v>419</v>
+      </c>
+      <c r="T98" s="51" t="s">
+        <v>420</v>
+      </c>
       <c r="U98" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V98" s="84">
         <f t="shared" si="13"/>
-        <v>410667.3</v>
+        <v>0</v>
       </c>
       <c r="W98" s="84">
         <f t="shared" si="14"/>
-        <v>684445.5</v>
+        <v>0</v>
       </c>
       <c r="X98" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y98" s="83">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>106386.9966483936</v>
       </c>
       <c r="Z98" s="83">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>153670.10626990188</v>
       </c>
       <c r="AA98" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB98" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC98" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD98" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE98" s="80" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="99" spans="1:31" ht="30" customHeight="1">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31" ht="51">
       <c r="A99" s="55">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B99" s="40">
-        <v>2</v>
-      </c>
-      <c r="C99" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="D99" s="41" t="str">
-        <f>REPT("   ", B99*2) &amp; C99</f>
-        <v xml:space="preserve">            Other Reactor Plant Equipment</v>
-      </c>
-      <c r="E99" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="F99" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="G99" s="47" t="s">
-        <v>354</v>
-      </c>
-      <c r="H99" s="63"/>
-      <c r="I99" s="63">
-        <f>8844770/L99*8.15527886031535</f>
-        <v>118207.77405377067</v>
-      </c>
-      <c r="J99" s="51" t="s">
-        <v>414</v>
-      </c>
-      <c r="K99" s="61" t="s">
-        <v>444</v>
-      </c>
-      <c r="L99" s="51">
-        <v>610.21</v>
-      </c>
-      <c r="M99" s="51" t="s">
-        <v>419</v>
-      </c>
-      <c r="N99" s="51">
-        <v>0.6</v>
-      </c>
-      <c r="O99" s="68">
-        <v>2023</v>
-      </c>
-      <c r="P99" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q99" s="61" t="s">
-        <v>420</v>
-      </c>
-      <c r="R99" s="51" t="s">
-        <v>421</v>
-      </c>
-      <c r="S99" s="78" t="s">
-        <v>422</v>
-      </c>
-      <c r="T99" s="51" t="s">
-        <v>423</v>
-      </c>
-      <c r="U99" s="80" t="s">
-        <v>475</v>
-      </c>
-      <c r="V99" s="84">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="W99" s="84">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X99" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="Y99" s="83">
-        <f t="shared" si="15"/>
-        <v>106386.9966483936</v>
-      </c>
-      <c r="Z99" s="83">
-        <f t="shared" si="16"/>
-        <v>153670.10626990188</v>
-      </c>
-      <c r="AA99" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB99" s="83" t="s">
-        <v>483</v>
-      </c>
-      <c r="AC99" s="83" t="s">
-        <v>484</v>
-      </c>
-      <c r="AD99" s="83" t="s">
-        <v>485</v>
-      </c>
-      <c r="AE99" s="80" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="100" spans="1:31" ht="51">
-      <c r="A100" s="55">
-        <v>227</v>
-      </c>
-      <c r="B100" s="40">
-        <f t="shared" ref="B100:B142" si="39">IF(ISNUMBER(A100),
-    IF(AND(A100=INT(A100), MOD(A100, 10) = 0), 0,
-        IF(AND(A100=INT(A100), LEN(A100)=2), 1,
-            IF(AND(A100=INT(A100), LEN(A100)=3), 2,
-                LEN(A100) - FIND(".", A100) + 2)
+        <f t="shared" ref="B99:B141" si="37">IF(ISNUMBER(A99),
+    IF(AND(A99=INT(A99), MOD(A99, 10) = 0), 0,
+        IF(AND(A99=INT(A99), LEN(A99)=2), 1,
+            IF(AND(A99=INT(A99), LEN(A99)=3), 2,
+                LEN(A99) - FIND(".", A99) + 2)
         )
     ),
 "")</f>
         <v>2</v>
       </c>
+      <c r="C99" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" s="41" t="str">
+        <f t="shared" ref="D99:D141" si="38">REPT("   ", B99*2) &amp; C99</f>
+        <v xml:space="preserve">            Reactor Instrumentation and Control (I&amp;C)</v>
+      </c>
+      <c r="E99" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="F99" s="41"/>
+      <c r="G99" s="47"/>
+      <c r="H99" s="63">
+        <v>8500000</v>
+      </c>
+      <c r="I99" s="63"/>
+      <c r="J99" s="51"/>
+      <c r="K99" s="61"/>
+      <c r="L99" s="51"/>
+      <c r="M99" s="51"/>
+      <c r="N99" s="51"/>
+      <c r="O99" s="68">
+        <v>2023</v>
+      </c>
+      <c r="P99" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q99" s="61" t="s">
+        <v>421</v>
+      </c>
+      <c r="R99" s="61" t="s">
+        <v>427</v>
+      </c>
+      <c r="S99" s="78" t="s">
+        <v>422</v>
+      </c>
+      <c r="T99" s="51" t="s">
+        <v>438</v>
+      </c>
+      <c r="U99" s="80" t="s">
+        <v>468</v>
+      </c>
+      <c r="V99" s="84">
+        <f t="shared" si="13"/>
+        <v>7650000</v>
+      </c>
+      <c r="W99" s="84">
+        <f t="shared" si="14"/>
+        <v>12750000</v>
+      </c>
+      <c r="X99" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y99" s="83">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z99" s="83">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA99" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB99" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC99" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD99" s="83" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE99" s="80" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31">
+      <c r="A100" s="55">
+        <v>228</v>
+      </c>
+      <c r="B100" s="40">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
       <c r="C100" s="58" t="s">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="D100" s="41" t="str">
-        <f t="shared" ref="D100:D142" si="40">REPT("   ", B100*2) &amp; C100</f>
-        <v xml:space="preserve">            Reactor Instrumentation and Control (I&amp;C)</v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">            Reactor Plant Miscellaneous Items</v>
       </c>
       <c r="E100" s="41" t="s">
         <v>341</v>
@@ -11408,7 +11249,8 @@
       <c r="F100" s="41"/>
       <c r="G100" s="47"/>
       <c r="H100" s="63">
-        <v>8500000</v>
+        <f>MARVEL_Cost!C44</f>
+        <v>30960</v>
       </c>
       <c r="I100" s="63"/>
       <c r="J100" s="51"/>
@@ -11417,36 +11259,30 @@
       <c r="M100" s="51"/>
       <c r="N100" s="51"/>
       <c r="O100" s="68">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="P100" s="51" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="Q100" s="61" t="s">
-        <v>424</v>
-      </c>
-      <c r="R100" s="61" t="s">
-        <v>430</v>
-      </c>
-      <c r="S100" s="78" t="s">
-        <v>425</v>
-      </c>
-      <c r="T100" s="51" t="s">
-        <v>443</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="R100" s="51"/>
+      <c r="S100" s="51"/>
+      <c r="T100" s="51"/>
       <c r="U100" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V100" s="84">
         <f t="shared" si="13"/>
-        <v>7650000</v>
+        <v>27864</v>
       </c>
       <c r="W100" s="84">
         <f t="shared" si="14"/>
-        <v>12750000</v>
+        <v>46440</v>
       </c>
       <c r="X100" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y100" s="83">
         <f t="shared" si="15"/>
@@ -11457,115 +11293,78 @@
         <v>0</v>
       </c>
       <c r="AA100" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB100" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC100" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD100" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE100" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="101" spans="1:31">
-      <c r="A101" s="55">
-        <v>228</v>
+      <c r="A101" s="39">
+        <v>23</v>
       </c>
       <c r="B101" s="40">
-        <f t="shared" si="39"/>
-        <v>2</v>
+        <f t="shared" si="37"/>
+        <v>1</v>
       </c>
       <c r="C101" s="58" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="D101" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">            Reactor Plant Miscellaneous Items</v>
-      </c>
-      <c r="E101" s="41" t="s">
-        <v>341</v>
-      </c>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">      Energy Conversion System </v>
+      </c>
+      <c r="E101" s="41"/>
       <c r="F101" s="41"/>
       <c r="G101" s="47"/>
-      <c r="H101" s="63">
-        <f>MARVEL_Cost!C44</f>
-        <v>30960</v>
-      </c>
+      <c r="H101" s="68"/>
       <c r="I101" s="63"/>
       <c r="J101" s="51"/>
       <c r="K101" s="61"/>
       <c r="L101" s="51"/>
       <c r="M101" s="51"/>
       <c r="N101" s="51"/>
-      <c r="O101" s="68">
-        <v>2024</v>
-      </c>
-      <c r="P101" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q101" s="61" t="s">
-        <v>364</v>
-      </c>
+      <c r="O101" s="68"/>
+      <c r="P101" s="51"/>
+      <c r="Q101" s="61"/>
       <c r="R101" s="51"/>
       <c r="S101" s="51"/>
       <c r="T101" s="51"/>
-      <c r="U101" s="80" t="s">
-        <v>475</v>
-      </c>
-      <c r="V101" s="84">
-        <f t="shared" si="13"/>
-        <v>27864</v>
-      </c>
-      <c r="W101" s="84">
-        <f t="shared" si="14"/>
-        <v>46440</v>
-      </c>
-      <c r="X101" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="Y101" s="83">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z101" s="83">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA101" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB101" s="83" t="s">
-        <v>483</v>
-      </c>
-      <c r="AC101" s="83" t="s">
-        <v>484</v>
-      </c>
-      <c r="AD101" s="83" t="s">
-        <v>485</v>
-      </c>
-      <c r="AE101" s="80" t="s">
-        <v>460</v>
-      </c>
+      <c r="U101" s="80"/>
+      <c r="V101" s="84"/>
+      <c r="W101" s="84"/>
+      <c r="X101" s="80"/>
+      <c r="Y101" s="83"/>
+      <c r="Z101" s="83"/>
+      <c r="AA101" s="80"/>
+      <c r="AB101" s="83"/>
+      <c r="AC101" s="83"/>
+      <c r="AD101" s="83"/>
+      <c r="AE101" s="80"/>
     </row>
     <row r="102" spans="1:31">
-      <c r="A102" s="39">
-        <v>23</v>
+      <c r="A102" s="55">
+        <v>232</v>
       </c>
       <c r="B102" s="40">
-        <f t="shared" si="39"/>
-        <v>1</v>
+        <f t="shared" si="37"/>
+        <v>2</v>
       </c>
       <c r="C102" s="58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D102" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">      Energy Conversion System </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">            Energy Applications</v>
       </c>
       <c r="E102" s="41"/>
       <c r="F102" s="41"/>
@@ -11597,84 +11396,124 @@
     </row>
     <row r="103" spans="1:31">
       <c r="A103" s="55">
-        <v>232</v>
+        <v>232.1</v>
       </c>
       <c r="B103" s="40">
-        <f t="shared" si="39"/>
-        <v>2</v>
+        <f t="shared" si="37"/>
+        <v>3</v>
       </c>
       <c r="C103" s="58" t="s">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="D103" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">            Energy Applications</v>
-      </c>
-      <c r="E103" s="41"/>
+        <f>REPT("   ", B103*2) &amp; C103</f>
+        <v xml:space="preserve">                  Electricity Generation Systems</v>
+      </c>
+      <c r="E103" s="41" t="s">
+        <v>341</v>
+      </c>
       <c r="F103" s="41"/>
       <c r="G103" s="47"/>
       <c r="H103" s="68"/>
-      <c r="I103" s="63"/>
-      <c r="J103" s="51"/>
-      <c r="K103" s="61"/>
-      <c r="L103" s="51"/>
+      <c r="I103" s="70">
+        <v>12504</v>
+      </c>
+      <c r="J103" s="51" t="s">
+        <v>423</v>
+      </c>
+      <c r="K103" s="47" t="s">
+        <v>444</v>
+      </c>
+      <c r="L103" s="51">
+        <v>1</v>
+      </c>
       <c r="M103" s="51"/>
-      <c r="N103" s="51"/>
-      <c r="O103" s="68"/>
-      <c r="P103" s="51"/>
-      <c r="Q103" s="61"/>
-      <c r="R103" s="51"/>
-      <c r="S103" s="51"/>
+      <c r="N103" s="47">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="O103" s="68">
+        <v>2023</v>
+      </c>
+      <c r="P103" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q103" s="61" t="s">
+        <v>424</v>
+      </c>
+      <c r="R103" s="61" t="s">
+        <v>424</v>
+      </c>
+      <c r="S103" s="78" t="s">
+        <v>425</v>
+      </c>
       <c r="T103" s="51"/>
-      <c r="U103" s="80"/>
-      <c r="V103" s="84"/>
-      <c r="W103" s="84"/>
-      <c r="X103" s="80"/>
-      <c r="Y103" s="83"/>
-      <c r="Z103" s="83"/>
-      <c r="AA103" s="80"/>
-      <c r="AB103" s="83"/>
-      <c r="AC103" s="83"/>
-      <c r="AD103" s="83"/>
-      <c r="AE103" s="80"/>
-    </row>
-    <row r="104" spans="1:31">
+      <c r="U103" s="80" t="s">
+        <v>468</v>
+      </c>
+      <c r="V103" s="84">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W103" s="84">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X103" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y103" s="83">
+        <f t="shared" si="15"/>
+        <v>11253.6</v>
+      </c>
+      <c r="Z103" s="83">
+        <f t="shared" si="16"/>
+        <v>16255.2</v>
+      </c>
+      <c r="AA103" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB103" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC103" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD103" s="83" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE103" s="80" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31" ht="51">
       <c r="A104" s="55">
-        <v>232.1</v>
+        <v>236</v>
       </c>
       <c r="B104" s="40">
-        <f t="shared" si="39"/>
-        <v>3</v>
+        <f t="shared" si="37"/>
+        <v>2</v>
       </c>
       <c r="C104" s="58" t="s">
-        <v>213</v>
+        <v>426</v>
       </c>
       <c r="D104" s="41" t="str">
         <f>REPT("   ", B104*2) &amp; C104</f>
-        <v xml:space="preserve">                  Electricity Generation Systems</v>
+        <v xml:space="preserve">            Common Instrumentation &amp; Controls</v>
       </c>
       <c r="E104" s="41" t="s">
         <v>341</v>
       </c>
       <c r="F104" s="41"/>
       <c r="G104" s="47"/>
-      <c r="H104" s="68"/>
-      <c r="I104" s="70">
-        <v>12504</v>
-      </c>
-      <c r="J104" s="51" t="s">
-        <v>426</v>
-      </c>
-      <c r="K104" s="47" t="s">
-        <v>451</v>
-      </c>
-      <c r="L104" s="51">
-        <v>1</v>
-      </c>
+      <c r="H104" s="70">
+        <v>1000000</v>
+      </c>
+      <c r="I104" s="70"/>
+      <c r="J104" s="51"/>
+      <c r="K104" s="47"/>
+      <c r="L104" s="51"/>
       <c r="M104" s="51"/>
-      <c r="N104" s="47">
-        <v>0.77700000000000002</v>
-      </c>
+      <c r="N104" s="47"/>
       <c r="O104" s="68">
         <v>2023</v>
       </c>
@@ -11682,193 +11521,202 @@
         <v>77</v>
       </c>
       <c r="Q104" s="61" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="R104" s="61" t="s">
         <v>427</v>
       </c>
       <c r="S104" s="78" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="T104" s="51"/>
       <c r="U104" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V104" s="84">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="W104" s="84">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="X104" s="80" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="Y104" s="83">
         <f t="shared" si="15"/>
-        <v>11253.6</v>
+        <v>0</v>
       </c>
       <c r="Z104" s="83">
         <f t="shared" si="16"/>
-        <v>16255.2</v>
+        <v>0</v>
       </c>
       <c r="AA104" s="80" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="AB104" s="83" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="AC104" s="83" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="AD104" s="83" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="AE104" s="80" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="105" spans="1:31" ht="51">
-      <c r="A105" s="55">
-        <v>236</v>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31">
+      <c r="A105" s="39">
+        <v>24</v>
       </c>
       <c r="B105" s="40">
-        <f t="shared" si="39"/>
-        <v>2</v>
+        <f t="shared" si="37"/>
+        <v>1</v>
       </c>
       <c r="C105" s="58" t="s">
-        <v>429</v>
+        <v>23</v>
       </c>
       <c r="D105" s="41" t="str">
-        <f>REPT("   ", B105*2) &amp; C105</f>
-        <v xml:space="preserve">            Common Instrumentation &amp; Controls</v>
-      </c>
-      <c r="E105" s="41" t="s">
-        <v>341</v>
-      </c>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">      Electrical Equipment</v>
+      </c>
+      <c r="E105" s="41"/>
       <c r="F105" s="41"/>
       <c r="G105" s="47"/>
-      <c r="H105" s="70">
-        <v>1000000</v>
-      </c>
-      <c r="I105" s="70"/>
+      <c r="H105" s="68"/>
+      <c r="I105" s="63"/>
       <c r="J105" s="51"/>
-      <c r="K105" s="47"/>
+      <c r="K105" s="61"/>
       <c r="L105" s="51"/>
       <c r="M105" s="51"/>
-      <c r="N105" s="47"/>
-      <c r="O105" s="68">
-        <v>2023</v>
-      </c>
-      <c r="P105" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q105" s="61" t="s">
-        <v>424</v>
-      </c>
-      <c r="R105" s="61" t="s">
-        <v>430</v>
-      </c>
-      <c r="S105" s="78" t="s">
-        <v>425</v>
-      </c>
+      <c r="N105" s="51"/>
+      <c r="O105" s="68"/>
+      <c r="P105" s="51"/>
+      <c r="Q105" s="61"/>
+      <c r="R105" s="51"/>
+      <c r="S105" s="51"/>
       <c r="T105" s="51"/>
-      <c r="U105" s="80" t="s">
-        <v>475</v>
-      </c>
-      <c r="V105" s="84">
-        <f t="shared" si="13"/>
-        <v>900000</v>
-      </c>
-      <c r="W105" s="84">
-        <f t="shared" si="14"/>
-        <v>1500000</v>
-      </c>
-      <c r="X105" s="80" t="s">
-        <v>478</v>
-      </c>
-      <c r="Y105" s="83">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z105" s="83">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA105" s="80" t="s">
-        <v>478</v>
-      </c>
-      <c r="AB105" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AC105" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AD105" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE105" s="80" t="s">
-        <v>478</v>
-      </c>
+      <c r="U105" s="80"/>
+      <c r="V105" s="84"/>
+      <c r="W105" s="84"/>
+      <c r="X105" s="80"/>
+      <c r="Y105" s="83"/>
+      <c r="Z105" s="83"/>
+      <c r="AA105" s="80"/>
+      <c r="AB105" s="83"/>
+      <c r="AC105" s="83"/>
+      <c r="AD105" s="83"/>
+      <c r="AE105" s="80"/>
     </row>
     <row r="106" spans="1:31">
       <c r="A106" s="39">
-        <v>24</v>
+        <v>241</v>
       </c>
       <c r="B106" s="40">
-        <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="C106" s="58" t="s">
-        <v>23</v>
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="C106" s="79" t="s">
+        <v>429</v>
       </c>
       <c r="D106" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">      Electrical Equipment</v>
-      </c>
-      <c r="E106" s="41"/>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">            Switchgear</v>
+      </c>
+      <c r="E106" s="41" t="s">
+        <v>341</v>
+      </c>
       <c r="F106" s="41"/>
       <c r="G106" s="47"/>
       <c r="H106" s="68"/>
-      <c r="I106" s="63"/>
-      <c r="J106" s="51"/>
-      <c r="K106" s="61"/>
-      <c r="L106" s="51"/>
-      <c r="M106" s="51"/>
-      <c r="N106" s="51"/>
-      <c r="O106" s="68"/>
-      <c r="P106" s="51"/>
-      <c r="Q106" s="61"/>
-      <c r="R106" s="51"/>
+      <c r="I106" s="63">
+        <f>14424707.2061682/L106</f>
+        <v>12609.009795601574</v>
+      </c>
+      <c r="J106" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="K106" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="L106" s="51">
+        <v>1144</v>
+      </c>
+      <c r="M106" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="N106" s="47">
+        <v>0.6</v>
+      </c>
+      <c r="O106" s="68">
+        <v>2018</v>
+      </c>
+      <c r="P106" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q106" s="91" t="s">
+        <v>428</v>
+      </c>
+      <c r="R106" s="91" t="s">
+        <v>365</v>
+      </c>
       <c r="S106" s="51"/>
       <c r="T106" s="51"/>
-      <c r="U106" s="80"/>
-      <c r="V106" s="84"/>
-      <c r="W106" s="84"/>
-      <c r="X106" s="80"/>
-      <c r="Y106" s="83"/>
-      <c r="Z106" s="83"/>
-      <c r="AA106" s="80"/>
-      <c r="AB106" s="83"/>
-      <c r="AC106" s="83"/>
-      <c r="AD106" s="83"/>
-      <c r="AE106" s="80"/>
+      <c r="U106" s="80" t="s">
+        <v>468</v>
+      </c>
+      <c r="V106" s="84">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W106" s="84">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X106" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y106" s="83">
+        <f t="shared" si="15"/>
+        <v>11348.108816041417</v>
+      </c>
+      <c r="Z106" s="83">
+        <f t="shared" si="16"/>
+        <v>16391.712734282046</v>
+      </c>
+      <c r="AA106" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB106" s="83" t="s">
+        <v>471</v>
+      </c>
+      <c r="AC106" s="83" t="s">
+        <v>471</v>
+      </c>
+      <c r="AD106" s="83" t="s">
+        <v>471</v>
+      </c>
+      <c r="AE106" s="80" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="107" spans="1:31">
       <c r="A107" s="39">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B107" s="40">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="C107" s="79" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D107" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">            Switchgear</v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">            Station Service Equipment</v>
       </c>
       <c r="E107" s="41" t="s">
         <v>341</v>
@@ -11877,8 +11725,8 @@
       <c r="G107" s="47"/>
       <c r="H107" s="68"/>
       <c r="I107" s="63">
-        <f>14424707.2061682/L107</f>
-        <v>12609.009795601574</v>
+        <f>11992641.3775456/L106</f>
+        <v>10483.078127225175</v>
       </c>
       <c r="J107" s="51" t="s">
         <v>67</v>
@@ -11901,16 +11749,12 @@
       <c r="P107" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="Q107" s="89" t="s">
-        <v>431</v>
-      </c>
-      <c r="R107" s="89" t="s">
-        <v>365</v>
-      </c>
+      <c r="Q107" s="91"/>
+      <c r="R107" s="91"/>
       <c r="S107" s="51"/>
       <c r="T107" s="51"/>
       <c r="U107" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V107" s="84">
         <f t="shared" si="13"/>
@@ -11921,46 +11765,46 @@
         <v>0</v>
       </c>
       <c r="X107" s="80" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y107" s="83">
         <f t="shared" si="15"/>
-        <v>11348.108816041417</v>
+        <v>9434.7703145026571</v>
       </c>
       <c r="Z107" s="83">
         <f t="shared" si="16"/>
-        <v>16391.712734282046</v>
+        <v>13628.001565392728</v>
       </c>
       <c r="AA107" s="80" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AB107" s="83" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC107" s="83" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AD107" s="83" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AE107" s="80" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="108" spans="1:31">
       <c r="A108" s="39">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B108" s="40">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="C108" s="79" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D108" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">            Station Service Equipment</v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">            Switchboards</v>
       </c>
       <c r="E108" s="41" t="s">
         <v>341</v>
@@ -11969,8 +11813,8 @@
       <c r="G108" s="47"/>
       <c r="H108" s="68"/>
       <c r="I108" s="63">
-        <f>11992641.3775456/L107</f>
-        <v>10483.078127225175</v>
+        <f>3894246.37400843/L106</f>
+        <v>3404.0615157416346</v>
       </c>
       <c r="J108" s="51" t="s">
         <v>67</v>
@@ -11993,12 +11837,12 @@
       <c r="P108" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="Q108" s="89"/>
-      <c r="R108" s="89"/>
+      <c r="Q108" s="91"/>
+      <c r="R108" s="91"/>
       <c r="S108" s="51"/>
       <c r="T108" s="51"/>
       <c r="U108" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V108" s="84">
         <f t="shared" si="13"/>
@@ -12009,46 +11853,46 @@
         <v>0</v>
       </c>
       <c r="X108" s="80" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y108" s="83">
         <f t="shared" si="15"/>
-        <v>9434.7703145026571</v>
+        <v>3063.6553641674714</v>
       </c>
       <c r="Z108" s="83">
         <f t="shared" si="16"/>
-        <v>13628.001565392728</v>
+        <v>4425.2799704641247</v>
       </c>
       <c r="AA108" s="80" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AB108" s="83" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC108" s="83" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AD108" s="83" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AE108" s="80" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="109" spans="1:31">
       <c r="A109" s="39">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B109" s="40">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="C109" s="79" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D109" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">            Switchboards</v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">            Protective Equipment</v>
       </c>
       <c r="E109" s="41" t="s">
         <v>341</v>
@@ -12057,8 +11901,8 @@
       <c r="G109" s="47"/>
       <c r="H109" s="68"/>
       <c r="I109" s="63">
-        <f>3894246.37400843/L107</f>
-        <v>3404.0615157416346</v>
+        <f>11183911.9256997/L106</f>
+        <v>9776.1467881990375</v>
       </c>
       <c r="J109" s="51" t="s">
         <v>67</v>
@@ -12081,12 +11925,12 @@
       <c r="P109" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="Q109" s="89"/>
-      <c r="R109" s="89"/>
+      <c r="Q109" s="91"/>
+      <c r="R109" s="91"/>
       <c r="S109" s="51"/>
       <c r="T109" s="51"/>
       <c r="U109" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V109" s="84">
         <f t="shared" si="13"/>
@@ -12097,46 +11941,46 @@
         <v>0</v>
       </c>
       <c r="X109" s="80" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y109" s="83">
         <f t="shared" si="15"/>
-        <v>3063.6553641674714</v>
+        <v>8798.5321093791335</v>
       </c>
       <c r="Z109" s="83">
         <f t="shared" si="16"/>
-        <v>4425.2799704641247</v>
+        <v>12708.990824658749</v>
       </c>
       <c r="AA109" s="80" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AB109" s="83" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC109" s="83" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AD109" s="83" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AE109" s="80" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="110" spans="1:31">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31" ht="25.5">
       <c r="A110" s="39">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B110" s="40">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="C110" s="79" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D110" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">            Protective Equipment</v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">            Electrical Structure &amp; Wiring Container</v>
       </c>
       <c r="E110" s="41" t="s">
         <v>341</v>
@@ -12145,8 +11989,8 @@
       <c r="G110" s="47"/>
       <c r="H110" s="68"/>
       <c r="I110" s="63">
-        <f>11183911.9256997/L107</f>
-        <v>9776.1467881990375</v>
+        <f>60312483.673456/L106</f>
+        <v>52720.70251176224</v>
       </c>
       <c r="J110" s="51" t="s">
         <v>67</v>
@@ -12169,12 +12013,12 @@
       <c r="P110" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="Q110" s="89"/>
-      <c r="R110" s="89"/>
+      <c r="Q110" s="91"/>
+      <c r="R110" s="91"/>
       <c r="S110" s="51"/>
       <c r="T110" s="51"/>
       <c r="U110" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V110" s="84">
         <f t="shared" si="13"/>
@@ -12185,46 +12029,46 @@
         <v>0</v>
       </c>
       <c r="X110" s="80" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y110" s="83">
         <f t="shared" si="15"/>
-        <v>8798.5321093791335</v>
+        <v>47448.632260586019</v>
       </c>
       <c r="Z110" s="83">
         <f t="shared" si="16"/>
-        <v>12708.990824658749</v>
+        <v>68536.913265290917</v>
       </c>
       <c r="AA110" s="80" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AB110" s="83" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC110" s="83" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AD110" s="83" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AE110" s="80" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="111" spans="1:31" ht="25.5">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31">
       <c r="A111" s="39">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B111" s="40">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="C111" s="79" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D111" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">            Electrical Structure &amp; Wiring Container</v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">            Power &amp; Control Wiring</v>
       </c>
       <c r="E111" s="41" t="s">
         <v>341</v>
@@ -12233,8 +12077,8 @@
       <c r="G111" s="47"/>
       <c r="H111" s="68"/>
       <c r="I111" s="63">
-        <f>60312483.673456/L107</f>
-        <v>52720.70251176224</v>
+        <f>45613077.4753702/L106</f>
+        <v>39871.571219729194</v>
       </c>
       <c r="J111" s="51" t="s">
         <v>67</v>
@@ -12257,12 +12101,12 @@
       <c r="P111" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="Q111" s="89"/>
-      <c r="R111" s="89"/>
+      <c r="Q111" s="91"/>
+      <c r="R111" s="91"/>
       <c r="S111" s="51"/>
       <c r="T111" s="51"/>
       <c r="U111" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V111" s="84">
         <f t="shared" si="13"/>
@@ -12273,177 +12117,174 @@
         <v>0</v>
       </c>
       <c r="X111" s="80" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y111" s="83">
         <f t="shared" si="15"/>
-        <v>47448.632260586019</v>
+        <v>35884.414097756278</v>
       </c>
       <c r="Z111" s="83">
         <f t="shared" si="16"/>
-        <v>68536.913265290917</v>
+        <v>51833.042585647956</v>
       </c>
       <c r="AA111" s="80" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AB111" s="83" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC111" s="83" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AD111" s="83" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AE111" s="80" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="112" spans="1:31">
       <c r="A112" s="39">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="B112" s="40">
-        <f t="shared" si="39"/>
-        <v>2</v>
-      </c>
-      <c r="C112" s="79" t="s">
-        <v>437</v>
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="C112" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="D112" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">            Power &amp; Control Wiring</v>
-      </c>
-      <c r="E112" s="41" t="s">
-        <v>341</v>
-      </c>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">      Initial Fuel Inventory</v>
+      </c>
+      <c r="E112" s="41"/>
       <c r="F112" s="41"/>
       <c r="G112" s="47"/>
       <c r="H112" s="68"/>
-      <c r="I112" s="63">
-        <f>45613077.4753702/L107</f>
-        <v>39871.571219729194</v>
-      </c>
-      <c r="J112" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="K112" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="L112" s="51">
-        <v>1144</v>
-      </c>
-      <c r="M112" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="N112" s="47">
-        <v>0.6</v>
-      </c>
-      <c r="O112" s="68">
-        <v>2018</v>
-      </c>
-      <c r="P112" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q112" s="89"/>
-      <c r="R112" s="89"/>
+      <c r="I112" s="63"/>
+      <c r="J112" s="51"/>
+      <c r="K112" s="61"/>
+      <c r="L112" s="51"/>
+      <c r="M112" s="51"/>
+      <c r="N112" s="51"/>
+      <c r="O112" s="68"/>
+      <c r="P112" s="51"/>
+      <c r="Q112" s="61"/>
+      <c r="R112" s="51"/>
       <c r="S112" s="51"/>
       <c r="T112" s="51"/>
-      <c r="U112" s="80" t="s">
-        <v>475</v>
-      </c>
-      <c r="V112" s="84">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="W112" s="84">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X112" s="80" t="s">
-        <v>478</v>
-      </c>
-      <c r="Y112" s="83">
-        <f t="shared" si="15"/>
-        <v>35884.414097756278</v>
-      </c>
-      <c r="Z112" s="83">
-        <f t="shared" si="16"/>
-        <v>51833.042585647956</v>
-      </c>
-      <c r="AA112" s="80" t="s">
-        <v>478</v>
-      </c>
-      <c r="AB112" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AC112" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AD112" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE112" s="80" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="113" spans="1:31">
-      <c r="A113" s="39">
+      <c r="U112" s="80"/>
+      <c r="V112" s="84"/>
+      <c r="W112" s="84"/>
+      <c r="X112" s="80"/>
+      <c r="Y112" s="83"/>
+      <c r="Z112" s="83"/>
+      <c r="AA112" s="80"/>
+      <c r="AB112" s="83"/>
+      <c r="AC112" s="83"/>
+      <c r="AD112" s="83"/>
+      <c r="AE112" s="80"/>
+    </row>
+    <row r="113" spans="1:31" ht="16.149999999999999" customHeight="1">
+      <c r="A113" s="55">
+        <v>251</v>
+      </c>
+      <c r="B113" s="40">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="C113" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B113" s="40">
-        <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="C113" s="58" t="s">
-        <v>24</v>
-      </c>
       <c r="D113" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">      Initial Fuel Inventory</v>
-      </c>
-      <c r="E113" s="41"/>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">            First Core Mining</v>
+      </c>
+      <c r="E113" s="41" t="s">
+        <v>341</v>
+      </c>
       <c r="F113" s="41"/>
       <c r="G113" s="47"/>
       <c r="H113" s="68"/>
-      <c r="I113" s="63"/>
-      <c r="J113" s="51"/>
-      <c r="K113" s="61"/>
+      <c r="I113" s="68">
+        <v>184</v>
+      </c>
+      <c r="J113" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="K113" s="47" t="s">
+        <v>367</v>
+      </c>
       <c r="L113" s="51"/>
       <c r="M113" s="51"/>
       <c r="N113" s="51"/>
-      <c r="O113" s="68"/>
-      <c r="P113" s="51"/>
-      <c r="Q113" s="61"/>
-      <c r="R113" s="51"/>
+      <c r="O113" s="68">
+        <v>2022</v>
+      </c>
+      <c r="P113" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q113" s="90" t="s">
+        <v>369</v>
+      </c>
+      <c r="R113" s="90" t="s">
+        <v>370</v>
+      </c>
       <c r="S113" s="51"/>
       <c r="T113" s="51"/>
-      <c r="U113" s="80"/>
-      <c r="V113" s="84"/>
-      <c r="W113" s="84"/>
-      <c r="X113" s="80"/>
-      <c r="Y113" s="83"/>
-      <c r="Z113" s="83"/>
-      <c r="AA113" s="80"/>
-      <c r="AB113" s="83"/>
-      <c r="AC113" s="83"/>
-      <c r="AD113" s="83"/>
-      <c r="AE113" s="80"/>
-    </row>
-    <row r="114" spans="1:31" ht="16.149999999999999" customHeight="1">
+      <c r="U113" s="80" t="s">
+        <v>469</v>
+      </c>
+      <c r="V113" s="84">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W113" s="84">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X113" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y113" s="83">
+        <f t="shared" si="15"/>
+        <v>165.6</v>
+      </c>
+      <c r="Z113" s="83">
+        <f t="shared" si="16"/>
+        <v>239.20000000000002</v>
+      </c>
+      <c r="AA113" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB113" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC113" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD113" s="83" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE113" s="80" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31">
       <c r="A114" s="55">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B114" s="40">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="C114" s="58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D114" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">            First Core Mining</v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">            First Core Conversion </v>
       </c>
       <c r="E114" s="41" t="s">
         <v>341</v>
@@ -12452,7 +12293,7 @@
       <c r="G114" s="47"/>
       <c r="H114" s="68"/>
       <c r="I114" s="68">
-        <v>184</v>
+        <v>15.1</v>
       </c>
       <c r="J114" s="51" t="s">
         <v>174</v>
@@ -12469,16 +12310,12 @@
       <c r="P114" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="Q114" s="88" t="s">
-        <v>369</v>
-      </c>
-      <c r="R114" s="88" t="s">
-        <v>370</v>
-      </c>
+      <c r="Q114" s="90"/>
+      <c r="R114" s="90"/>
       <c r="S114" s="51"/>
       <c r="T114" s="51"/>
       <c r="U114" s="80" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="V114" s="84">
         <f t="shared" si="13"/>
@@ -12489,77 +12326,79 @@
         <v>0</v>
       </c>
       <c r="X114" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y114" s="83">
         <f t="shared" si="15"/>
-        <v>165.6</v>
+        <v>13.59</v>
       </c>
       <c r="Z114" s="83">
         <f t="shared" si="16"/>
-        <v>239.20000000000002</v>
+        <v>19.63</v>
       </c>
       <c r="AA114" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB114" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC114" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD114" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE114" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="115" spans="1:31">
       <c r="A115" s="55">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B115" s="40">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="C115" s="58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D115" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">            First Core Conversion </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">            First Core Enrichment </v>
       </c>
       <c r="E115" s="41" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F115" s="41"/>
       <c r="G115" s="47"/>
       <c r="H115" s="68"/>
       <c r="I115" s="68">
-        <v>15.1</v>
+        <v>184.2</v>
       </c>
       <c r="J115" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="K115" s="47" t="s">
-        <v>367</v>
+        <v>366</v>
+      </c>
+      <c r="K115" s="61" t="s">
+        <v>368</v>
       </c>
       <c r="L115" s="51"/>
       <c r="M115" s="51"/>
-      <c r="N115" s="51"/>
+      <c r="N115" s="51">
+        <v>1</v>
+      </c>
       <c r="O115" s="68">
         <v>2022</v>
       </c>
       <c r="P115" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="Q115" s="88"/>
-      <c r="R115" s="88"/>
+      <c r="Q115" s="90"/>
+      <c r="R115" s="90"/>
       <c r="S115" s="51"/>
       <c r="T115" s="51"/>
       <c r="U115" s="80" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="V115" s="84">
         <f t="shared" si="13"/>
@@ -12570,79 +12409,81 @@
         <v>0</v>
       </c>
       <c r="X115" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y115" s="83">
         <f t="shared" si="15"/>
-        <v>13.59</v>
+        <v>165.78</v>
       </c>
       <c r="Z115" s="83">
         <f t="shared" si="16"/>
-        <v>19.63</v>
+        <v>239.45999999999998</v>
       </c>
       <c r="AA115" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB115" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC115" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD115" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE115" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="116" spans="1:31" ht="25.5">
       <c r="A116" s="55">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B116" s="40">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="C116" s="58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">            First Core Enrichment </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">            First Core Fuel Assembly Fabrication </v>
       </c>
       <c r="E116" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="F116" s="41"/>
-      <c r="G116" s="47"/>
+        <v>341</v>
+      </c>
+      <c r="F116" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="G116" s="47" t="s">
+        <v>373</v>
+      </c>
       <c r="H116" s="68"/>
       <c r="I116" s="68">
-        <v>184.2</v>
+        <v>1520</v>
       </c>
       <c r="J116" s="51" t="s">
-        <v>366</v>
+        <v>174</v>
       </c>
       <c r="K116" s="61" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L116" s="51"/>
       <c r="M116" s="51"/>
-      <c r="N116" s="51">
-        <v>1</v>
-      </c>
+      <c r="N116" s="51"/>
       <c r="O116" s="68">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="P116" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="Q116" s="88"/>
-      <c r="R116" s="88"/>
+      <c r="Q116" s="90"/>
+      <c r="R116" s="90"/>
       <c r="S116" s="51"/>
       <c r="T116" s="51"/>
       <c r="U116" s="80" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="V116" s="84">
         <f t="shared" si="13"/>
@@ -12653,30 +12494,30 @@
         <v>0</v>
       </c>
       <c r="X116" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y116" s="83">
         <f t="shared" si="15"/>
-        <v>165.78</v>
+        <v>1368</v>
       </c>
       <c r="Z116" s="83">
         <f t="shared" si="16"/>
-        <v>239.45999999999998</v>
+        <v>1976</v>
       </c>
       <c r="AA116" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB116" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC116" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD116" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE116" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="117" spans="1:31" ht="25.5">
@@ -12684,14 +12525,21 @@
         <v>254</v>
       </c>
       <c r="B117" s="40">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="B117" si="39">IF(ISNUMBER(A117),
+    IF(AND(A117=INT(A117), MOD(A117, 10) = 0), 0,
+        IF(AND(A117=INT(A117), LEN(A117)=2), 1,
+            IF(AND(A117=INT(A117), LEN(A117)=3), 2,
+                LEN(A117) - FIND(".", A117) + 2)
+        )
+    ),
+"")</f>
         <v>2</v>
       </c>
       <c r="C117" s="58" t="s">
         <v>28</v>
       </c>
       <c r="D117" s="41" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="D117" si="40">REPT("   ", B117*2) &amp; C117</f>
         <v xml:space="preserve">            First Core Fuel Assembly Fabrication </v>
       </c>
       <c r="E117" s="41" t="s">
@@ -12701,11 +12549,11 @@
         <v>372</v>
       </c>
       <c r="G117" s="47" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="H117" s="68"/>
       <c r="I117" s="68">
-        <v>1520</v>
+        <v>10000</v>
       </c>
       <c r="J117" s="51" t="s">
         <v>174</v>
@@ -12717,17 +12565,17 @@
       <c r="M117" s="51"/>
       <c r="N117" s="51"/>
       <c r="O117" s="68">
-        <v>2023</v>
+        <v>2009</v>
       </c>
       <c r="P117" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="Q117" s="88"/>
-      <c r="R117" s="88"/>
+      <c r="Q117" s="90"/>
+      <c r="R117" s="90"/>
       <c r="S117" s="51"/>
       <c r="T117" s="51"/>
       <c r="U117" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V117" s="84">
         <f t="shared" si="13"/>
@@ -12738,239 +12586,189 @@
         <v>0</v>
       </c>
       <c r="X117" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y117" s="83">
         <f t="shared" si="15"/>
-        <v>1368</v>
+        <v>9000</v>
       </c>
       <c r="Z117" s="83">
         <f t="shared" si="16"/>
-        <v>1976</v>
+        <v>13000</v>
       </c>
       <c r="AA117" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB117" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC117" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD117" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE117" s="80" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="118" spans="1:31" ht="25.5">
-      <c r="A118" s="55">
-        <v>254</v>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31" ht="30" customHeight="1">
+      <c r="A118" s="39">
+        <v>26</v>
       </c>
       <c r="B118" s="40">
-        <f t="shared" ref="B118" si="41">IF(ISNUMBER(A118),
-    IF(AND(A118=INT(A118), MOD(A118, 10) = 0), 0,
-        IF(AND(A118=INT(A118), LEN(A118)=2), 1,
-            IF(AND(A118=INT(A118), LEN(A118)=3), 2,
-                LEN(A118) - FIND(".", A118) + 2)
-        )
-    ),
-"")</f>
-        <v>2</v>
+        <f t="shared" si="37"/>
+        <v>1</v>
       </c>
       <c r="C118" s="58" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="D118" s="41" t="str">
-        <f t="shared" ref="D118" si="42">REPT("   ", B118*2) &amp; C118</f>
-        <v xml:space="preserve">            First Core Fuel Assembly Fabrication </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">      Miscellaneous Equipment (Cranes)</v>
       </c>
       <c r="E118" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="F118" s="41" t="s">
-        <v>372</v>
-      </c>
-      <c r="G118" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="H118" s="68"/>
-      <c r="I118" s="68">
-        <v>10000</v>
-      </c>
-      <c r="J118" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="K118" s="61" t="s">
-        <v>371</v>
-      </c>
+      <c r="F118" s="41"/>
+      <c r="G118" s="41"/>
+      <c r="H118" s="63">
+        <v>1000000</v>
+      </c>
+      <c r="I118" s="68"/>
+      <c r="J118" s="51"/>
+      <c r="K118" s="61"/>
       <c r="L118" s="51"/>
       <c r="M118" s="51"/>
       <c r="N118" s="51"/>
       <c r="O118" s="68">
-        <v>2009</v>
+        <v>2021</v>
       </c>
       <c r="P118" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q118" s="88"/>
-      <c r="R118" s="88"/>
+        <v>74</v>
+      </c>
+      <c r="Q118" s="61" t="s">
+        <v>374</v>
+      </c>
+      <c r="R118" s="61" t="s">
+        <v>375</v>
+      </c>
       <c r="S118" s="51"/>
       <c r="T118" s="51"/>
       <c r="U118" s="80" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="V118" s="84">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="W118" s="84">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="X118" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y118" s="83">
         <f t="shared" si="15"/>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="Z118" s="83">
         <f t="shared" si="16"/>
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="AA118" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB118" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC118" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD118" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE118" s="80" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="119" spans="1:31" ht="30" customHeight="1">
-      <c r="A119" s="39">
-        <v>26</v>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31">
+      <c r="A119" s="52">
+        <v>30</v>
       </c>
       <c r="B119" s="40">
-        <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="C119" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="D119" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">      Miscellaneous Equipment (Cranes)</v>
-      </c>
-      <c r="E119" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="F119" s="41"/>
-      <c r="G119" s="41"/>
-      <c r="H119" s="63">
-        <v>1000000</v>
-      </c>
-      <c r="I119" s="68"/>
-      <c r="J119" s="51"/>
-      <c r="K119" s="61"/>
-      <c r="L119" s="51"/>
-      <c r="M119" s="51"/>
-      <c r="N119" s="51"/>
-      <c r="O119" s="68">
-        <v>2021</v>
-      </c>
-      <c r="P119" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q119" s="61" t="s">
-        <v>374</v>
-      </c>
-      <c r="R119" s="61" t="s">
-        <v>375</v>
-      </c>
-      <c r="S119" s="51"/>
-      <c r="T119" s="51"/>
-      <c r="U119" s="80" t="s">
-        <v>475</v>
-      </c>
-      <c r="V119" s="84">
-        <f t="shared" si="13"/>
-        <v>900000</v>
-      </c>
-      <c r="W119" s="84">
-        <f t="shared" si="14"/>
-        <v>1500000</v>
-      </c>
-      <c r="X119" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="Y119" s="83">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z119" s="83">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA119" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB119" s="83" t="s">
-        <v>483</v>
-      </c>
-      <c r="AC119" s="83" t="s">
-        <v>484</v>
-      </c>
-      <c r="AD119" s="83" t="s">
-        <v>485</v>
-      </c>
-      <c r="AE119" s="80" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="120" spans="1:31">
-      <c r="A120" s="52">
-        <v>30</v>
-      </c>
-      <c r="B120" s="40">
-        <f>IF(ISNUMBER(A120),
-    IF(AND(A120=INT(A120), MOD(A120, 10) = 0), 0,
-        IF(AND(A120=INT(A120), LEN(A120)=2), 1,
-            IF(AND(A120=INT(A120), LEN(A120)=3), 2,
-                LEN(A120) - FIND(".", A120) + 2)
+        <f>IF(ISNUMBER(A119),
+    IF(AND(A119=INT(A119), MOD(A119, 10) = 0), 0,
+        IF(AND(A119=INT(A119), LEN(A119)=2), 1,
+            IF(AND(A119=INT(A119), LEN(A119)=3), 2,
+                LEN(A119) - FIND(".", A119) + 2)
         )
     ),
 "")</f>
         <v>0</v>
       </c>
+      <c r="C119" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D119" s="41" t="str">
+        <f t="shared" si="38"/>
+        <v>Capitalized Indirect Services Cost</v>
+      </c>
+      <c r="E119" s="41"/>
+      <c r="F119" s="41"/>
+      <c r="G119" s="41"/>
+      <c r="H119" s="71"/>
+      <c r="I119" s="53"/>
+      <c r="J119" s="52"/>
+      <c r="K119" s="52"/>
+      <c r="L119" s="52"/>
+      <c r="M119" s="52"/>
+      <c r="N119" s="52"/>
+      <c r="O119" s="71"/>
+      <c r="P119" s="52"/>
+      <c r="Q119" s="52"/>
+      <c r="R119" s="52"/>
+      <c r="S119" s="52"/>
+      <c r="T119" s="52"/>
+      <c r="U119" s="80"/>
+      <c r="V119" s="84"/>
+      <c r="W119" s="84"/>
+      <c r="X119" s="80"/>
+      <c r="Y119" s="83"/>
+      <c r="Z119" s="83"/>
+      <c r="AA119" s="80"/>
+      <c r="AB119" s="83"/>
+      <c r="AC119" s="83"/>
+      <c r="AD119" s="83"/>
+      <c r="AE119" s="80"/>
+    </row>
+    <row r="120" spans="1:31" ht="28.9" customHeight="1">
+      <c r="A120" s="52">
+        <v>31</v>
+      </c>
+      <c r="B120" s="40">
+        <v>1</v>
+      </c>
       <c r="C120" s="58" t="s">
-        <v>29</v>
+        <v>376</v>
       </c>
       <c r="D120" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v>Capitalized Indirect Services Cost</v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">      Factory &amp; field indirect costs</v>
       </c>
       <c r="E120" s="41"/>
       <c r="F120" s="41"/>
       <c r="G120" s="41"/>
       <c r="H120" s="71"/>
-      <c r="I120" s="53"/>
-      <c r="J120" s="52"/>
-      <c r="K120" s="52"/>
+      <c r="I120" s="72"/>
+      <c r="J120" s="51"/>
+      <c r="K120" s="61"/>
       <c r="L120" s="52"/>
       <c r="M120" s="52"/>
       <c r="N120" s="52"/>
-      <c r="O120" s="71"/>
-      <c r="P120" s="52"/>
+      <c r="O120" s="68"/>
+      <c r="P120" s="51"/>
       <c r="Q120" s="52"/>
       <c r="R120" s="52"/>
       <c r="S120" s="52"/>
@@ -12987,27 +12785,27 @@
       <c r="AD120" s="83"/>
       <c r="AE120" s="80"/>
     </row>
-    <row r="121" spans="1:31" ht="28.9" customHeight="1">
+    <row r="121" spans="1:31" ht="25.5">
       <c r="A121" s="52">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B121" s="40">
         <v>1</v>
       </c>
       <c r="C121" s="58" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D121" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">      Factory &amp; field indirect costs</v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">      Factory and construction supervision</v>
       </c>
       <c r="E121" s="41"/>
       <c r="F121" s="41"/>
       <c r="G121" s="41"/>
       <c r="H121" s="71"/>
-      <c r="I121" s="72"/>
-      <c r="J121" s="51"/>
-      <c r="K121" s="61"/>
+      <c r="I121" s="53"/>
+      <c r="J121" s="52"/>
+      <c r="K121" s="52"/>
       <c r="L121" s="52"/>
       <c r="M121" s="52"/>
       <c r="N121" s="52"/>
@@ -13029,62 +12827,100 @@
       <c r="AD121" s="83"/>
       <c r="AE121" s="80"/>
     </row>
-    <row r="122" spans="1:31" ht="25.5">
-      <c r="A122" s="52">
-        <v>32</v>
+    <row r="122" spans="1:31">
+      <c r="A122" s="39">
+        <v>33</v>
       </c>
       <c r="B122" s="40">
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="C122" s="58" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="D122" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">      Factory and construction supervision</v>
-      </c>
-      <c r="E122" s="41"/>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">      Startup Costs</v>
+      </c>
+      <c r="E122" s="41" t="s">
+        <v>341</v>
+      </c>
       <c r="F122" s="41"/>
       <c r="G122" s="41"/>
-      <c r="H122" s="71"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="52"/>
-      <c r="K122" s="52"/>
-      <c r="L122" s="52"/>
-      <c r="M122" s="52"/>
-      <c r="N122" s="52"/>
-      <c r="O122" s="68"/>
-      <c r="P122" s="51"/>
-      <c r="Q122" s="52"/>
-      <c r="R122" s="52"/>
-      <c r="S122" s="52"/>
-      <c r="T122" s="52"/>
-      <c r="U122" s="80"/>
-      <c r="V122" s="84"/>
-      <c r="W122" s="84"/>
-      <c r="X122" s="80"/>
-      <c r="Y122" s="83"/>
-      <c r="Z122" s="83"/>
-      <c r="AA122" s="80"/>
-      <c r="AB122" s="83"/>
-      <c r="AC122" s="83"/>
-      <c r="AD122" s="83"/>
-      <c r="AE122" s="80"/>
-    </row>
-    <row r="123" spans="1:31">
+      <c r="H122" s="45">
+        <f>MARVEL_Cost!C58</f>
+        <v>2407166.4000000004</v>
+      </c>
+      <c r="I122" s="46"/>
+      <c r="J122" s="48"/>
+      <c r="K122" s="54"/>
+      <c r="L122" s="48"/>
+      <c r="M122" s="48"/>
+      <c r="N122" s="48"/>
+      <c r="O122" s="68">
+        <v>2024</v>
+      </c>
+      <c r="P122" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q122" s="87" t="s">
+        <v>364</v>
+      </c>
+      <c r="R122" s="48"/>
+      <c r="S122" s="48"/>
+      <c r="T122" s="48"/>
+      <c r="U122" s="80" t="s">
+        <v>472</v>
+      </c>
+      <c r="V122" s="84">
+        <f t="shared" si="13"/>
+        <v>2166449.7600000002</v>
+      </c>
+      <c r="W122" s="84">
+        <f t="shared" si="14"/>
+        <v>3610749.6000000006</v>
+      </c>
+      <c r="X122" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y122" s="83">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z122" s="83">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA122" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB122" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC122" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD122" s="83" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE122" s="80" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="123" spans="1:31" ht="30" customHeight="1">
       <c r="A123" s="39">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B123" s="40">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="C123" s="58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D123" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">      Startup Costs</v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">      Shipping and Transportation Costs</v>
       </c>
       <c r="E123" s="41" t="s">
         <v>341</v>
@@ -13092,8 +12928,8 @@
       <c r="F123" s="41"/>
       <c r="G123" s="41"/>
       <c r="H123" s="45">
-        <f>MARVEL_Cost!C58</f>
-        <v>2407166.4000000004</v>
+        <f>0.5*MARVEL_Cost!C62</f>
+        <v>832641.39999999991</v>
       </c>
       <c r="I123" s="46"/>
       <c r="J123" s="48"/>
@@ -13107,25 +12943,23 @@
       <c r="P123" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="Q123" s="87" t="s">
-        <v>364</v>
-      </c>
+      <c r="Q123" s="87"/>
       <c r="R123" s="48"/>
       <c r="S123" s="48"/>
       <c r="T123" s="48"/>
       <c r="U123" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V123" s="84">
         <f t="shared" si="13"/>
-        <v>2166449.7600000002</v>
+        <v>749377.25999999989</v>
       </c>
       <c r="W123" s="84">
         <f t="shared" si="14"/>
-        <v>3610749.6000000006</v>
+        <v>1248962.0999999999</v>
       </c>
       <c r="X123" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y123" s="83">
         <f t="shared" si="15"/>
@@ -13136,35 +12970,35 @@
         <v>0</v>
       </c>
       <c r="AA123" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB123" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC123" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD123" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE123" s="80" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="124" spans="1:31" ht="30" customHeight="1">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31">
       <c r="A124" s="39">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B124" s="40">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="C124" s="58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D124" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">      Shipping and Transportation Costs</v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">      Engineering Services</v>
       </c>
       <c r="E124" s="41" t="s">
         <v>341</v>
@@ -13172,38 +13006,38 @@
       <c r="F124" s="41"/>
       <c r="G124" s="41"/>
       <c r="H124" s="45">
-        <f>0.5*MARVEL_Cost!C62</f>
-        <v>832641.39999999991</v>
-      </c>
-      <c r="I124" s="46"/>
-      <c r="J124" s="48"/>
-      <c r="K124" s="54"/>
-      <c r="L124" s="48"/>
-      <c r="M124" s="48"/>
-      <c r="N124" s="48"/>
+        <f>MARVEL_Cost!C65</f>
+        <v>620313.58773783164</v>
+      </c>
+      <c r="I124" s="63"/>
+      <c r="J124" s="51"/>
+      <c r="K124" s="61"/>
+      <c r="L124" s="51"/>
+      <c r="M124" s="51"/>
+      <c r="N124" s="51"/>
       <c r="O124" s="68">
         <v>2024</v>
       </c>
-      <c r="P124" s="73" t="s">
-        <v>85</v>
+      <c r="P124" s="51" t="s">
+        <v>72</v>
       </c>
       <c r="Q124" s="87"/>
-      <c r="R124" s="48"/>
-      <c r="S124" s="48"/>
-      <c r="T124" s="48"/>
+      <c r="R124" s="51"/>
+      <c r="S124" s="51"/>
+      <c r="T124" s="51"/>
       <c r="U124" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V124" s="84">
         <f t="shared" si="13"/>
-        <v>749377.25999999989</v>
+        <v>558282.22896404844</v>
       </c>
       <c r="W124" s="84">
         <f t="shared" si="14"/>
-        <v>1248962.0999999999</v>
+        <v>930470.3816067474</v>
       </c>
       <c r="X124" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y124" s="83">
         <f t="shared" si="15"/>
@@ -13214,35 +13048,35 @@
         <v>0</v>
       </c>
       <c r="AA124" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB124" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC124" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD124" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE124" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="125" spans="1:31">
       <c r="A125" s="39">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B125" s="40">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="C125" s="58" t="s">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c r="D125" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">      Engineering Services</v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">      PM/CM Services</v>
       </c>
       <c r="E125" s="41" t="s">
         <v>341</v>
@@ -13250,8 +13084,8 @@
       <c r="F125" s="41"/>
       <c r="G125" s="41"/>
       <c r="H125" s="45">
-        <f>MARVEL_Cost!C65</f>
-        <v>620313.58773783164</v>
+        <f>MARVEL_Cost!C68</f>
+        <v>416958.9359999997</v>
       </c>
       <c r="I125" s="63"/>
       <c r="J125" s="51"/>
@@ -13270,18 +13104,18 @@
       <c r="S125" s="51"/>
       <c r="T125" s="51"/>
       <c r="U125" s="80" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="V125" s="84">
         <f t="shared" si="13"/>
-        <v>558282.22896404844</v>
+        <v>375263.04239999974</v>
       </c>
       <c r="W125" s="84">
         <f t="shared" si="14"/>
-        <v>930470.3816067474</v>
+        <v>625438.40399999951</v>
       </c>
       <c r="X125" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Y125" s="83">
         <f t="shared" si="15"/>
@@ -13292,254 +13126,219 @@
         <v>0</v>
       </c>
       <c r="AA125" s="80" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AB125" s="83" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AC125" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD125" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE125" s="80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="126" spans="1:31">
       <c r="A126" s="39">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B126" s="40">
-        <f t="shared" si="39"/>
-        <v>1</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="C126" s="58" t="s">
-        <v>230</v>
+        <v>378</v>
       </c>
       <c r="D126" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">      PM/CM Services</v>
-      </c>
-      <c r="E126" s="41" t="s">
-        <v>341</v>
-      </c>
+        <f t="shared" si="38"/>
+        <v>Capitalized training costs</v>
+      </c>
+      <c r="E126" s="41"/>
       <c r="F126" s="41"/>
       <c r="G126" s="41"/>
-      <c r="H126" s="45">
-        <f>MARVEL_Cost!C68</f>
-        <v>416958.9359999997</v>
-      </c>
+      <c r="H126" s="45"/>
       <c r="I126" s="63"/>
       <c r="J126" s="51"/>
       <c r="K126" s="61"/>
       <c r="L126" s="51"/>
       <c r="M126" s="51"/>
       <c r="N126" s="51"/>
-      <c r="O126" s="68">
-        <v>2024</v>
-      </c>
-      <c r="P126" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q126" s="87"/>
+      <c r="O126" s="68"/>
+      <c r="P126" s="51"/>
+      <c r="Q126" s="52"/>
       <c r="R126" s="51"/>
       <c r="S126" s="51"/>
       <c r="T126" s="51"/>
-      <c r="U126" s="80" t="s">
-        <v>479</v>
-      </c>
-      <c r="V126" s="84">
-        <f t="shared" si="13"/>
-        <v>375263.04239999974</v>
-      </c>
-      <c r="W126" s="84">
-        <f t="shared" si="14"/>
-        <v>625438.40399999951</v>
-      </c>
-      <c r="X126" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="Y126" s="83">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z126" s="83">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA126" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB126" s="83" t="s">
-        <v>483</v>
-      </c>
-      <c r="AC126" s="83" t="s">
-        <v>484</v>
-      </c>
-      <c r="AD126" s="83" t="s">
-        <v>485</v>
-      </c>
-      <c r="AE126" s="80" t="s">
-        <v>460</v>
-      </c>
+      <c r="U126" s="80"/>
+      <c r="V126" s="84"/>
+      <c r="W126" s="84"/>
+      <c r="X126" s="80"/>
+      <c r="Y126" s="83"/>
+      <c r="Z126" s="83"/>
+      <c r="AA126" s="80"/>
+      <c r="AB126" s="83"/>
+      <c r="AC126" s="83"/>
+      <c r="AD126" s="83"/>
+      <c r="AE126" s="80"/>
     </row>
     <row r="127" spans="1:31">
       <c r="A127" s="39">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B127" s="40">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>1</v>
       </c>
       <c r="C127" s="58" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D127" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v>Capitalized training costs</v>
-      </c>
-      <c r="E127" s="41"/>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">      staff recruitment and training</v>
+      </c>
+      <c r="E127" s="41" t="s">
+        <v>341</v>
+      </c>
       <c r="F127" s="41"/>
       <c r="G127" s="41"/>
-      <c r="H127" s="45"/>
+      <c r="H127" s="45">
+        <v>300000</v>
+      </c>
       <c r="I127" s="63"/>
       <c r="J127" s="51"/>
       <c r="K127" s="61"/>
       <c r="L127" s="51"/>
       <c r="M127" s="51"/>
       <c r="N127" s="51"/>
-      <c r="O127" s="68"/>
-      <c r="P127" s="51"/>
-      <c r="Q127" s="52"/>
-      <c r="R127" s="51"/>
-      <c r="S127" s="51"/>
+      <c r="O127" s="68">
+        <v>2024</v>
+      </c>
+      <c r="P127" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q127" s="44"/>
+      <c r="R127" s="51" t="s">
+        <v>455</v>
+      </c>
+      <c r="S127" s="51" t="s">
+        <v>456</v>
+      </c>
       <c r="T127" s="51"/>
-      <c r="U127" s="80"/>
-      <c r="V127" s="84"/>
-      <c r="W127" s="84"/>
-      <c r="X127" s="80"/>
-      <c r="Y127" s="83"/>
-      <c r="Z127" s="83"/>
-      <c r="AA127" s="80"/>
-      <c r="AB127" s="83"/>
-      <c r="AC127" s="83"/>
-      <c r="AD127" s="83"/>
-      <c r="AE127" s="80"/>
+      <c r="U127" s="80" t="s">
+        <v>469</v>
+      </c>
+      <c r="V127" s="84">
+        <f t="shared" si="13"/>
+        <v>270000</v>
+      </c>
+      <c r="W127" s="84">
+        <f t="shared" si="14"/>
+        <v>450000</v>
+      </c>
+      <c r="X127" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y127" s="83">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z127" s="83">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA127" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB127" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC127" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD127" s="83" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE127" s="80" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="128" spans="1:31">
-      <c r="A128" s="39">
-        <v>41</v>
+      <c r="A128" s="52">
+        <v>60</v>
       </c>
       <c r="B128" s="40">
-        <f t="shared" si="39"/>
-        <v>1</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="C128" s="58" t="s">
-        <v>379</v>
+        <v>34</v>
       </c>
       <c r="D128" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">      staff recruitment and training</v>
-      </c>
-      <c r="E128" s="41" t="s">
-        <v>341</v>
-      </c>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">Capitalized Financial Costs </v>
+      </c>
+      <c r="E128" s="41"/>
       <c r="F128" s="41"/>
       <c r="G128" s="41"/>
-      <c r="H128" s="45">
-        <v>300000</v>
-      </c>
-      <c r="I128" s="63"/>
-      <c r="J128" s="51"/>
-      <c r="K128" s="61"/>
-      <c r="L128" s="51"/>
-      <c r="M128" s="51"/>
-      <c r="N128" s="51"/>
-      <c r="O128" s="68">
-        <v>2024</v>
-      </c>
-      <c r="P128" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q128" s="44"/>
-      <c r="R128" s="51" t="s">
-        <v>462</v>
-      </c>
-      <c r="S128" s="51" t="s">
-        <v>463</v>
-      </c>
-      <c r="T128" s="51"/>
-      <c r="U128" s="80" t="s">
-        <v>476</v>
-      </c>
-      <c r="V128" s="84">
-        <f t="shared" si="13"/>
-        <v>270000</v>
-      </c>
-      <c r="W128" s="84">
-        <f t="shared" si="14"/>
-        <v>450000</v>
-      </c>
-      <c r="X128" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="Y128" s="83">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z128" s="83">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA128" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB128" s="83" t="s">
-        <v>483</v>
-      </c>
-      <c r="AC128" s="83" t="s">
-        <v>484</v>
-      </c>
-      <c r="AD128" s="83" t="s">
-        <v>485</v>
-      </c>
-      <c r="AE128" s="80" t="s">
-        <v>460</v>
-      </c>
+      <c r="H128" s="71"/>
+      <c r="I128" s="53"/>
+      <c r="J128" s="52"/>
+      <c r="K128" s="52"/>
+      <c r="L128" s="52"/>
+      <c r="M128" s="52"/>
+      <c r="N128" s="52"/>
+      <c r="O128" s="71"/>
+      <c r="P128" s="52"/>
+      <c r="Q128" s="52"/>
+      <c r="R128" s="52"/>
+      <c r="S128" s="52"/>
+      <c r="T128" s="52"/>
+      <c r="U128" s="80"/>
+      <c r="V128" s="84"/>
+      <c r="W128" s="84"/>
+      <c r="X128" s="80"/>
+      <c r="Y128" s="83"/>
+      <c r="Z128" s="83"/>
+      <c r="AA128" s="80"/>
+      <c r="AB128" s="83"/>
+      <c r="AC128" s="83"/>
+      <c r="AD128" s="83"/>
+      <c r="AE128" s="80"/>
     </row>
     <row r="129" spans="1:31">
-      <c r="A129" s="52">
-        <v>60</v>
+      <c r="A129" s="39">
+        <v>62</v>
       </c>
       <c r="B129" s="40">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>1</v>
       </c>
       <c r="C129" s="58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D129" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">Capitalized Financial Costs </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">      Interest</v>
       </c>
       <c r="E129" s="41"/>
       <c r="F129" s="41"/>
       <c r="G129" s="41"/>
-      <c r="H129" s="71"/>
-      <c r="I129" s="53"/>
-      <c r="J129" s="52"/>
-      <c r="K129" s="52"/>
-      <c r="L129" s="52"/>
-      <c r="M129" s="52"/>
-      <c r="N129" s="52"/>
-      <c r="O129" s="71"/>
-      <c r="P129" s="52"/>
-      <c r="Q129" s="52"/>
-      <c r="R129" s="52"/>
-      <c r="S129" s="52"/>
-      <c r="T129" s="52"/>
+      <c r="H129" s="45"/>
+      <c r="I129" s="63"/>
+      <c r="J129" s="51"/>
+      <c r="K129" s="61"/>
+      <c r="L129" s="51"/>
+      <c r="M129" s="51"/>
+      <c r="N129" s="51"/>
+      <c r="O129" s="68"/>
+      <c r="P129" s="51"/>
+      <c r="Q129" s="61"/>
+      <c r="R129" s="51"/>
+      <c r="S129" s="51"/>
+      <c r="T129" s="51"/>
       <c r="U129" s="80"/>
       <c r="V129" s="84"/>
       <c r="W129" s="84"/>
@@ -13554,35 +13353,35 @@
     </row>
     <row r="130" spans="1:31">
       <c r="A130" s="39">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B130" s="40">
-        <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="C130" s="58" t="s">
-        <v>35</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C130" s="74" t="s">
+        <v>36</v>
       </c>
       <c r="D130" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">      Interest</v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">Annualized O&amp;M Cost </v>
       </c>
       <c r="E130" s="41"/>
       <c r="F130" s="41"/>
       <c r="G130" s="41"/>
-      <c r="H130" s="45"/>
-      <c r="I130" s="63"/>
-      <c r="J130" s="51"/>
-      <c r="K130" s="61"/>
-      <c r="L130" s="51"/>
-      <c r="M130" s="51"/>
-      <c r="N130" s="51"/>
-      <c r="O130" s="68"/>
-      <c r="P130" s="51"/>
-      <c r="Q130" s="61"/>
-      <c r="R130" s="51"/>
-      <c r="S130" s="51"/>
-      <c r="T130" s="51"/>
+      <c r="H130" s="42"/>
+      <c r="I130" s="42"/>
+      <c r="J130" s="40"/>
+      <c r="K130" s="43"/>
+      <c r="L130" s="40"/>
+      <c r="M130" s="40"/>
+      <c r="N130" s="40"/>
+      <c r="O130" s="42"/>
+      <c r="P130" s="40"/>
+      <c r="Q130" s="43"/>
+      <c r="R130" s="40"/>
+      <c r="S130" s="40"/>
+      <c r="T130" s="40"/>
       <c r="U130" s="80"/>
       <c r="V130" s="84"/>
       <c r="W130" s="84"/>
@@ -13597,35 +13396,35 @@
     </row>
     <row r="131" spans="1:31">
       <c r="A131" s="39">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B131" s="40">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="C131" s="74" t="s">
-        <v>36</v>
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="C131" s="58" t="s">
+        <v>37</v>
       </c>
       <c r="D131" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">Annualized O&amp;M Cost </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">      O&amp;M Staff</v>
       </c>
       <c r="E131" s="41"/>
       <c r="F131" s="41"/>
       <c r="G131" s="41"/>
-      <c r="H131" s="42"/>
-      <c r="I131" s="42"/>
-      <c r="J131" s="40"/>
-      <c r="K131" s="43"/>
-      <c r="L131" s="40"/>
-      <c r="M131" s="40"/>
-      <c r="N131" s="40"/>
-      <c r="O131" s="42"/>
-      <c r="P131" s="40"/>
-      <c r="Q131" s="43"/>
-      <c r="R131" s="40"/>
-      <c r="S131" s="40"/>
-      <c r="T131" s="40"/>
+      <c r="H131" s="45"/>
+      <c r="I131" s="63"/>
+      <c r="J131" s="51"/>
+      <c r="K131" s="61"/>
+      <c r="L131" s="51"/>
+      <c r="M131" s="51"/>
+      <c r="N131" s="51"/>
+      <c r="O131" s="68"/>
+      <c r="P131" s="51"/>
+      <c r="Q131" s="61"/>
+      <c r="R131" s="51"/>
+      <c r="S131" s="51"/>
+      <c r="T131" s="51"/>
       <c r="U131" s="80"/>
       <c r="V131" s="84"/>
       <c r="W131" s="84"/>
@@ -13638,69 +13437,115 @@
       <c r="AD131" s="83"/>
       <c r="AE131" s="80"/>
     </row>
-    <row r="132" spans="1:31">
-      <c r="A132" s="39">
-        <v>71</v>
+    <row r="132" spans="1:31" ht="70.900000000000006" customHeight="1">
+      <c r="A132" s="55">
+        <v>711</v>
       </c>
       <c r="B132" s="40">
-        <f t="shared" si="39"/>
-        <v>1</v>
+        <f t="shared" si="37"/>
+        <v>2</v>
       </c>
       <c r="C132" s="58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D132" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">      O&amp;M Staff</v>
-      </c>
-      <c r="E132" s="41"/>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">            Operators </v>
+      </c>
+      <c r="E132" s="41" t="s">
+        <v>342</v>
+      </c>
       <c r="F132" s="41"/>
       <c r="G132" s="41"/>
       <c r="H132" s="45"/>
-      <c r="I132" s="63"/>
-      <c r="J132" s="51"/>
-      <c r="K132" s="61"/>
+      <c r="I132" s="63">
+        <v>178500</v>
+      </c>
+      <c r="J132" s="51" t="s">
+        <v>383</v>
+      </c>
+      <c r="K132" s="61" t="s">
+        <v>384</v>
+      </c>
       <c r="L132" s="51"/>
       <c r="M132" s="51"/>
-      <c r="N132" s="51"/>
-      <c r="O132" s="68"/>
-      <c r="P132" s="51"/>
+      <c r="N132" s="51">
+        <v>1</v>
+      </c>
+      <c r="O132" s="68">
+        <v>2024</v>
+      </c>
+      <c r="P132" s="51" t="s">
+        <v>72</v>
+      </c>
       <c r="Q132" s="61"/>
-      <c r="R132" s="51"/>
+      <c r="R132" s="61" t="s">
+        <v>385</v>
+      </c>
       <c r="S132" s="51"/>
       <c r="T132" s="51"/>
-      <c r="U132" s="80"/>
-      <c r="V132" s="84"/>
-      <c r="W132" s="84"/>
-      <c r="X132" s="80"/>
-      <c r="Y132" s="83"/>
-      <c r="Z132" s="83"/>
-      <c r="AA132" s="80"/>
-      <c r="AB132" s="83"/>
-      <c r="AC132" s="83"/>
-      <c r="AD132" s="83"/>
-      <c r="AE132" s="80"/>
-    </row>
-    <row r="133" spans="1:31" ht="70.900000000000006" customHeight="1">
+      <c r="U132" s="80" t="s">
+        <v>469</v>
+      </c>
+      <c r="V132" s="84">
+        <f t="shared" ref="V132:V141" si="41">0.9*$H132</f>
+        <v>0</v>
+      </c>
+      <c r="W132" s="84">
+        <f t="shared" ref="W132:W141" si="42">1.5*H132</f>
+        <v>0</v>
+      </c>
+      <c r="X132" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y132" s="83">
+        <f t="shared" ref="Y132:Y141" si="43">0.9*I132</f>
+        <v>160650</v>
+      </c>
+      <c r="Z132" s="83">
+        <f t="shared" ref="Z132:Z141" si="44">1.3*I132</f>
+        <v>232050</v>
+      </c>
+      <c r="AA132" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB132" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC132" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD132" s="83" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE132" s="80" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="133" spans="1:31" ht="30" customHeight="1">
       <c r="A133" s="55">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B133" s="40">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="C133" s="58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D133" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">            Operators </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">            Remote Monitoring Technicians </v>
       </c>
       <c r="E133" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="F133" s="41"/>
-      <c r="G133" s="41"/>
+      <c r="F133" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="G133" s="41" t="s">
+        <v>389</v>
+      </c>
       <c r="H133" s="45"/>
       <c r="I133" s="63">
         <v>178500</v>
@@ -13709,7 +13554,7 @@
         <v>383</v>
       </c>
       <c r="K133" s="61" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L133" s="51"/>
       <c r="M133" s="51"/>
@@ -13729,67 +13574,63 @@
       <c r="S133" s="51"/>
       <c r="T133" s="51"/>
       <c r="U133" s="80" t="s">
+        <v>469</v>
+      </c>
+      <c r="V133" s="84">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="W133" s="84">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="X133" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y133" s="83">
+        <f t="shared" si="43"/>
+        <v>160650</v>
+      </c>
+      <c r="Z133" s="83">
+        <f t="shared" si="44"/>
+        <v>232050</v>
+      </c>
+      <c r="AA133" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB133" s="83" t="s">
         <v>476</v>
       </c>
-      <c r="V133" s="84">
-        <f t="shared" ref="V133:V142" si="43">0.9*$H133</f>
-        <v>0</v>
-      </c>
-      <c r="W133" s="84">
-        <f t="shared" ref="W133:W142" si="44">1.5*H133</f>
-        <v>0</v>
-      </c>
-      <c r="X133" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="Y133" s="83">
-        <f t="shared" ref="Y133:Y142" si="45">0.9*I133</f>
-        <v>160650</v>
-      </c>
-      <c r="Z133" s="83">
-        <f t="shared" ref="Z133:Z142" si="46">1.3*I133</f>
-        <v>232050</v>
-      </c>
-      <c r="AA133" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB133" s="83" t="s">
-        <v>483</v>
-      </c>
       <c r="AC133" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD133" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE133" s="80" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="134" spans="1:31" ht="30" customHeight="1">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="134" spans="1:31" ht="89.25">
       <c r="A134" s="55">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B134" s="40">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="C134" s="58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D134" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">            Remote Monitoring Technicians </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">            Security Staff </v>
       </c>
       <c r="E134" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="F134" s="41" t="s">
-        <v>388</v>
-      </c>
-      <c r="G134" s="41" t="s">
-        <v>389</v>
-      </c>
+      <c r="F134" s="41"/>
+      <c r="G134" s="41"/>
       <c r="H134" s="45"/>
       <c r="I134" s="63">
         <v>178500</v>
@@ -13798,7 +13639,7 @@
         <v>383</v>
       </c>
       <c r="K134" s="61" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L134" s="51"/>
       <c r="M134" s="51"/>
@@ -13818,152 +13659,114 @@
       <c r="S134" s="51"/>
       <c r="T134" s="51"/>
       <c r="U134" s="80" t="s">
+        <v>469</v>
+      </c>
+      <c r="V134" s="84">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="W134" s="84">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="X134" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y134" s="83">
+        <f t="shared" si="43"/>
+        <v>160650</v>
+      </c>
+      <c r="Z134" s="83">
+        <f t="shared" si="44"/>
+        <v>232050</v>
+      </c>
+      <c r="AA134" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB134" s="83" t="s">
         <v>476</v>
       </c>
-      <c r="V134" s="84">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="W134" s="84">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="X134" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="Y134" s="83">
-        <f t="shared" si="45"/>
-        <v>160650</v>
-      </c>
-      <c r="Z134" s="83">
-        <f t="shared" si="46"/>
-        <v>232050</v>
-      </c>
-      <c r="AA134" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB134" s="83" t="s">
-        <v>483</v>
-      </c>
       <c r="AC134" s="83" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AD134" s="83" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE134" s="80" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="135" spans="1:31" ht="89.25">
-      <c r="A135" s="55">
-        <v>713</v>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="135" spans="1:31">
+      <c r="A135" s="39">
+        <v>72</v>
       </c>
       <c r="B135" s="40">
-        <f t="shared" si="39"/>
-        <v>2</v>
+        <f t="shared" si="37"/>
+        <v>1</v>
       </c>
       <c r="C135" s="58" t="s">
-        <v>40</v>
+        <v>435</v>
       </c>
       <c r="D135" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">            Security Staff </v>
-      </c>
-      <c r="E135" s="41" t="s">
-        <v>342</v>
-      </c>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">      Variable Non-Fuel Costs</v>
+      </c>
+      <c r="E135" s="41"/>
       <c r="F135" s="41"/>
       <c r="G135" s="41"/>
       <c r="H135" s="45"/>
-      <c r="I135" s="63">
-        <v>178500</v>
-      </c>
-      <c r="J135" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="K135" s="61" t="s">
-        <v>390</v>
-      </c>
+      <c r="I135" s="63"/>
+      <c r="J135" s="51"/>
+      <c r="K135" s="61"/>
       <c r="L135" s="51"/>
       <c r="M135" s="51"/>
-      <c r="N135" s="51">
-        <v>1</v>
-      </c>
-      <c r="O135" s="68">
-        <v>2024</v>
-      </c>
-      <c r="P135" s="51" t="s">
-        <v>72</v>
-      </c>
+      <c r="N135" s="51"/>
+      <c r="O135" s="68"/>
+      <c r="P135" s="51"/>
       <c r="Q135" s="61"/>
-      <c r="R135" s="61" t="s">
-        <v>385</v>
-      </c>
+      <c r="R135" s="61"/>
       <c r="S135" s="51"/>
       <c r="T135" s="51"/>
-      <c r="U135" s="80" t="s">
-        <v>476</v>
-      </c>
-      <c r="V135" s="84">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="W135" s="84">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="X135" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="Y135" s="83">
-        <f t="shared" si="45"/>
-        <v>160650</v>
-      </c>
-      <c r="Z135" s="83">
-        <f t="shared" si="46"/>
-        <v>232050</v>
-      </c>
+      <c r="U135" s="80"/>
+      <c r="V135" s="84"/>
+      <c r="W135" s="84"/>
+      <c r="X135" s="80"/>
+      <c r="Y135" s="83"/>
+      <c r="Z135" s="83"/>
       <c r="AA135" s="80" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="AB135" s="83" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="AC135" s="83" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="AD135" s="83" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="AE135" s="80" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="136" spans="1:31" ht="25.5">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="136" spans="1:31">
       <c r="A136" s="39">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B136" s="40">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="C136" s="58" t="s">
-        <v>438</v>
+        <v>41</v>
       </c>
       <c r="D136" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">      Variable Non-Fuel Costs</v>
-      </c>
-      <c r="E136" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="F136" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="G136" s="41" t="s">
-        <v>439</v>
-      </c>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">      Capital Plant Expenditures</v>
+      </c>
+      <c r="E136" s="41"/>
+      <c r="F136" s="41"/>
+      <c r="G136" s="41"/>
       <c r="H136" s="45"/>
       <c r="I136" s="63"/>
       <c r="J136" s="51"/>
@@ -13983,49 +13786,46 @@
       <c r="X136" s="80"/>
       <c r="Y136" s="83"/>
       <c r="Z136" s="83"/>
-      <c r="AA136" s="80" t="s">
-        <v>478</v>
-      </c>
-      <c r="AB136" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AC136" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AD136" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE136" s="80" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="137" spans="1:31">
+      <c r="AA136" s="80"/>
+      <c r="AB136" s="83"/>
+      <c r="AC136" s="83"/>
+      <c r="AD136" s="83"/>
+      <c r="AE136" s="80"/>
+    </row>
+    <row r="137" spans="1:31" ht="30" customHeight="1">
       <c r="A137" s="39">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B137" s="40">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="B137" si="45">IF(ISNUMBER(A137),
+    IF(AND(A137=INT(A137), MOD(A137, 10) = 0), 0,
+        IF(AND(A137=INT(A137), LEN(A137)=2), 1,
+            IF(AND(A137=INT(A137), LEN(A137)=3), 2,
+                LEN(A137) - FIND(".", A137) + 2)
+        )
+    ),
+"")</f>
         <v>1</v>
       </c>
       <c r="C137" s="58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D137" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">      Capital Plant Expenditures</v>
+        <f t="shared" ref="D137" si="46">REPT("   ", B137*2) &amp; C137</f>
+        <v xml:space="preserve">      Annualized Decommissioning Cost</v>
       </c>
       <c r="E137" s="41"/>
       <c r="F137" s="41"/>
       <c r="G137" s="41"/>
       <c r="H137" s="45"/>
-      <c r="I137" s="63"/>
+      <c r="I137" s="75"/>
       <c r="J137" s="51"/>
-      <c r="K137" s="61"/>
+      <c r="K137" s="47"/>
       <c r="L137" s="51"/>
       <c r="M137" s="51"/>
       <c r="N137" s="51"/>
       <c r="O137" s="68"/>
-      <c r="P137" s="51"/>
+      <c r="P137" s="76"/>
       <c r="Q137" s="61"/>
       <c r="R137" s="61"/>
       <c r="S137" s="51"/>
@@ -14042,44 +13842,37 @@
       <c r="AD137" s="83"/>
       <c r="AE137" s="80"/>
     </row>
-    <row r="138" spans="1:31" ht="30" customHeight="1">
+    <row r="138" spans="1:31">
       <c r="A138" s="39">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B138" s="40">
-        <f t="shared" ref="B138" si="47">IF(ISNUMBER(A138),
-    IF(AND(A138=INT(A138), MOD(A138, 10) = 0), 0,
-        IF(AND(A138=INT(A138), LEN(A138)=2), 1,
-            IF(AND(A138=INT(A138), LEN(A138)=3), 2,
-                LEN(A138) - FIND(".", A138) + 2)
-        )
-    ),
-"")</f>
-        <v>1</v>
-      </c>
-      <c r="C138" s="58" t="s">
-        <v>42</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="C138" s="74" t="s">
+        <v>43</v>
       </c>
       <c r="D138" s="41" t="str">
-        <f t="shared" ref="D138" si="48">REPT("   ", B138*2) &amp; C138</f>
-        <v xml:space="preserve">      Annualized Decommissioning Cost</v>
+        <f t="shared" si="38"/>
+        <v>Annualized Fuel Cost</v>
       </c>
       <c r="E138" s="41"/>
       <c r="F138" s="41"/>
       <c r="G138" s="41"/>
-      <c r="H138" s="45"/>
-      <c r="I138" s="75"/>
-      <c r="J138" s="51"/>
-      <c r="K138" s="47"/>
-      <c r="L138" s="51"/>
-      <c r="M138" s="51"/>
-      <c r="N138" s="51"/>
-      <c r="O138" s="68"/>
-      <c r="P138" s="76"/>
-      <c r="Q138" s="61"/>
-      <c r="R138" s="61"/>
-      <c r="S138" s="51"/>
-      <c r="T138" s="51"/>
+      <c r="H138" s="42"/>
+      <c r="I138" s="42"/>
+      <c r="J138" s="40"/>
+      <c r="K138" s="43"/>
+      <c r="L138" s="40"/>
+      <c r="M138" s="40"/>
+      <c r="N138" s="40"/>
+      <c r="O138" s="42"/>
+      <c r="P138" s="40"/>
+      <c r="Q138" s="43"/>
+      <c r="R138" s="40"/>
+      <c r="S138" s="40"/>
+      <c r="T138" s="40"/>
       <c r="U138" s="80"/>
       <c r="V138" s="84"/>
       <c r="W138" s="84"/>
@@ -14092,264 +13885,220 @@
       <c r="AD138" s="83"/>
       <c r="AE138" s="80"/>
     </row>
-    <row r="139" spans="1:31">
+    <row r="139" spans="1:31" ht="89.25">
       <c r="A139" s="39">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B139" s="40">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="C139" s="74" t="s">
-        <v>43</v>
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="C139" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="D139" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v>Annualized Fuel Cost</v>
-      </c>
-      <c r="E139" s="41"/>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">      Refueling Operations</v>
+      </c>
+      <c r="E139" s="41" t="s">
+        <v>342</v>
+      </c>
       <c r="F139" s="41"/>
       <c r="G139" s="41"/>
-      <c r="H139" s="42"/>
-      <c r="I139" s="42"/>
-      <c r="J139" s="40"/>
-      <c r="K139" s="43"/>
-      <c r="L139" s="40"/>
-      <c r="M139" s="40"/>
-      <c r="N139" s="40"/>
-      <c r="O139" s="42"/>
-      <c r="P139" s="40"/>
-      <c r="Q139" s="43"/>
-      <c r="R139" s="40"/>
-      <c r="S139" s="40"/>
-      <c r="T139" s="40"/>
-      <c r="U139" s="80"/>
-      <c r="V139" s="84"/>
-      <c r="W139" s="84"/>
-      <c r="X139" s="80"/>
-      <c r="Y139" s="83"/>
-      <c r="Z139" s="83"/>
-      <c r="AA139" s="80"/>
-      <c r="AB139" s="83"/>
-      <c r="AC139" s="83"/>
-      <c r="AD139" s="83"/>
-      <c r="AE139" s="80"/>
-    </row>
-    <row r="140" spans="1:31" ht="89.25">
+      <c r="H139" s="45"/>
+      <c r="I139" s="63">
+        <v>178500</v>
+      </c>
+      <c r="J139" s="51" t="s">
+        <v>383</v>
+      </c>
+      <c r="K139" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="L139" s="51"/>
+      <c r="M139" s="51"/>
+      <c r="N139" s="51">
+        <v>1</v>
+      </c>
+      <c r="O139" s="68">
+        <v>2024</v>
+      </c>
+      <c r="P139" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q139" s="61"/>
+      <c r="R139" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="S139" s="51"/>
+      <c r="T139" s="51"/>
+      <c r="U139" s="80" t="s">
+        <v>469</v>
+      </c>
+      <c r="V139" s="84">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="W139" s="84">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="X139" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y139" s="83">
+        <f t="shared" si="43"/>
+        <v>160650</v>
+      </c>
+      <c r="Z139" s="83">
+        <f t="shared" si="44"/>
+        <v>232050</v>
+      </c>
+      <c r="AA139" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB139" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC139" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD139" s="83" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE139" s="80" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="140" spans="1:31">
       <c r="A140" s="39">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B140" s="40">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="C140" s="58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D140" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">      Refueling Operations</v>
-      </c>
-      <c r="E140" s="41" t="s">
-        <v>342</v>
-      </c>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">      Additional Nuclear Fuel</v>
+      </c>
+      <c r="E140" s="41"/>
       <c r="F140" s="41"/>
       <c r="G140" s="41"/>
       <c r="H140" s="45"/>
-      <c r="I140" s="63">
-        <v>178500</v>
-      </c>
-      <c r="J140" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="K140" s="61" t="s">
-        <v>384</v>
-      </c>
+      <c r="I140" s="63"/>
+      <c r="J140" s="51"/>
+      <c r="K140" s="61"/>
       <c r="L140" s="51"/>
       <c r="M140" s="51"/>
-      <c r="N140" s="51">
-        <v>1</v>
-      </c>
-      <c r="O140" s="68">
-        <v>2024</v>
-      </c>
-      <c r="P140" s="76" t="s">
-        <v>72</v>
-      </c>
+      <c r="N140" s="51"/>
+      <c r="O140" s="68"/>
+      <c r="P140" s="51"/>
       <c r="Q140" s="61"/>
-      <c r="R140" s="61" t="s">
-        <v>385</v>
-      </c>
+      <c r="R140" s="51"/>
       <c r="S140" s="51"/>
       <c r="T140" s="51"/>
-      <c r="U140" s="80" t="s">
-        <v>476</v>
-      </c>
-      <c r="V140" s="84">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="W140" s="84">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="X140" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="Y140" s="83">
-        <f t="shared" si="45"/>
-        <v>160650</v>
-      </c>
-      <c r="Z140" s="83">
-        <f t="shared" si="46"/>
-        <v>232050</v>
-      </c>
-      <c r="AA140" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB140" s="83" t="s">
-        <v>483</v>
-      </c>
-      <c r="AC140" s="83" t="s">
-        <v>484</v>
-      </c>
-      <c r="AD140" s="83" t="s">
-        <v>485</v>
-      </c>
-      <c r="AE140" s="80" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="141" spans="1:31">
+      <c r="U140" s="80"/>
+      <c r="V140" s="84"/>
+      <c r="W140" s="84"/>
+      <c r="X140" s="80"/>
+      <c r="Y140" s="83"/>
+      <c r="Z140" s="83"/>
+      <c r="AA140" s="80"/>
+      <c r="AB140" s="83"/>
+      <c r="AC140" s="83"/>
+      <c r="AD140" s="83"/>
+      <c r="AE140" s="80"/>
+    </row>
+    <row r="141" spans="1:31" ht="25.5">
       <c r="A141" s="39">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B141" s="40">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="C141" s="58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D141" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">      Additional Nuclear Fuel</v>
-      </c>
-      <c r="E141" s="41"/>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">      Spent Fuel Management</v>
+      </c>
+      <c r="E141" s="41" t="s">
+        <v>341</v>
+      </c>
       <c r="F141" s="41"/>
       <c r="G141" s="41"/>
       <c r="H141" s="45"/>
-      <c r="I141" s="63"/>
-      <c r="J141" s="51"/>
-      <c r="K141" s="61"/>
+      <c r="I141" s="63">
+        <v>1</v>
+      </c>
+      <c r="J141" s="51" t="s">
+        <v>396</v>
+      </c>
+      <c r="K141" s="61" t="s">
+        <v>397</v>
+      </c>
       <c r="L141" s="51"/>
       <c r="M141" s="51"/>
-      <c r="N141" s="51"/>
-      <c r="O141" s="68"/>
-      <c r="P141" s="51"/>
+      <c r="N141" s="51">
+        <v>1</v>
+      </c>
+      <c r="O141" s="68">
+        <v>2024</v>
+      </c>
+      <c r="P141" s="51" t="s">
+        <v>77</v>
+      </c>
       <c r="Q141" s="61"/>
       <c r="R141" s="51"/>
       <c r="S141" s="51"/>
       <c r="T141" s="51"/>
-      <c r="U141" s="80"/>
-      <c r="V141" s="84"/>
-      <c r="W141" s="84"/>
-      <c r="X141" s="80"/>
-      <c r="Y141" s="83"/>
-      <c r="Z141" s="83"/>
-      <c r="AA141" s="80"/>
-      <c r="AB141" s="83"/>
-      <c r="AC141" s="83"/>
-      <c r="AD141" s="83"/>
-      <c r="AE141" s="80"/>
-    </row>
-    <row r="142" spans="1:31" ht="25.5">
-      <c r="A142" s="39">
-        <v>83</v>
-      </c>
-      <c r="B142" s="40">
-        <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="C142" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="D142" s="41" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">      Spent Fuel Management</v>
-      </c>
-      <c r="E142" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="F142" s="41"/>
-      <c r="G142" s="41"/>
-      <c r="H142" s="45"/>
-      <c r="I142" s="63">
-        <v>1</v>
-      </c>
-      <c r="J142" s="51" t="s">
-        <v>396</v>
-      </c>
-      <c r="K142" s="61" t="s">
-        <v>397</v>
-      </c>
-      <c r="L142" s="51"/>
-      <c r="M142" s="51"/>
-      <c r="N142" s="51">
-        <v>1</v>
-      </c>
-      <c r="O142" s="68">
-        <v>2024</v>
-      </c>
-      <c r="P142" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q142" s="61"/>
-      <c r="R142" s="51"/>
-      <c r="S142" s="51"/>
-      <c r="T142" s="51"/>
-      <c r="U142" s="80" t="s">
+      <c r="U141" s="80" t="s">
+        <v>469</v>
+      </c>
+      <c r="V141" s="84">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="W141" s="84">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="X141" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y141" s="83">
+        <f t="shared" si="43"/>
+        <v>0.9</v>
+      </c>
+      <c r="Z141" s="83">
+        <f t="shared" si="44"/>
+        <v>1.3</v>
+      </c>
+      <c r="AA141" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB141" s="83" t="s">
         <v>476</v>
       </c>
-      <c r="V142" s="84">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="W142" s="84">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="X142" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="Y142" s="83">
-        <f t="shared" si="45"/>
-        <v>0.9</v>
-      </c>
-      <c r="Z142" s="83">
-        <f t="shared" si="46"/>
-        <v>1.3</v>
-      </c>
-      <c r="AA142" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB142" s="83" t="s">
-        <v>483</v>
-      </c>
-      <c r="AC142" s="83" t="s">
-        <v>484</v>
-      </c>
-      <c r="AD142" s="83" t="s">
-        <v>485</v>
-      </c>
-      <c r="AE142" s="80" t="s">
-        <v>460</v>
+      <c r="AC141" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD141" s="83" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE141" s="80" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z142" xr:uid="{F5330BDA-7164-B946-A942-FFAE4F744BBA}"/>
+  <autoFilter ref="A1:Z141" xr:uid="{F5330BDA-7164-B946-A942-FFAE4F744BBA}"/>
   <mergeCells count="43">
-    <mergeCell ref="R107:R112"/>
     <mergeCell ref="T84:T85"/>
     <mergeCell ref="R45:R47"/>
     <mergeCell ref="R49:R51"/>
@@ -14365,14 +14114,6 @@
     <mergeCell ref="S11:S13"/>
     <mergeCell ref="R15:R17"/>
     <mergeCell ref="S15:S17"/>
-    <mergeCell ref="R114:R118"/>
-    <mergeCell ref="R84:R85"/>
-    <mergeCell ref="S84:S85"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="S20:S22"/>
     <mergeCell ref="S24:S26"/>
     <mergeCell ref="S30:S32"/>
     <mergeCell ref="S34:S36"/>
@@ -14381,185 +14122,166 @@
     <mergeCell ref="R24:R26"/>
     <mergeCell ref="R30:R32"/>
     <mergeCell ref="R34:R36"/>
-    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="S20:S22"/>
     <mergeCell ref="Q20:Q22"/>
     <mergeCell ref="Q24:Q26"/>
     <mergeCell ref="Q30:Q32"/>
     <mergeCell ref="Q34:Q36"/>
-    <mergeCell ref="Q123:Q126"/>
+    <mergeCell ref="R113:R117"/>
+    <mergeCell ref="R84:R85"/>
+    <mergeCell ref="R106:R111"/>
+    <mergeCell ref="Q122:Q125"/>
     <mergeCell ref="Q39:Q41"/>
     <mergeCell ref="Q45:Q47"/>
     <mergeCell ref="Q49:Q51"/>
-    <mergeCell ref="Q114:Q118"/>
-    <mergeCell ref="Q107:Q112"/>
+    <mergeCell ref="Q113:Q117"/>
+    <mergeCell ref="Q106:Q111"/>
+    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="S84:S85"/>
   </mergeCells>
-  <conditionalFormatting sqref="A84:F86 A87:T87 S89:T92 A107:B112 S107:T112 A113:T113 L114:T114 L115:P115 S115:T119 I116:P116 A119:R119 R123:T128 A129:T132 A133:H134 A135:J136">
-    <cfRule type="expression" dxfId="117" priority="214">
+  <conditionalFormatting sqref="A84:F86 A87:T87 A95:Q96 S95:T96 A106:B111 S106:T111 A112:T112 L113:T113 L114:P114 S114:T118 I115:P115 A118:R118 R122:T127 A128:T131 A132:H133 S89:T92 A134:J135">
+    <cfRule type="expression" dxfId="99" priority="226">
       <formula>$B84=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="216">
+    <cfRule type="expression" dxfId="98" priority="227">
+      <formula>$B84=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="228">
       <formula>$B84&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="215">
-      <formula>$B84=2</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A88:I92 K89:Q92 A114:H116 A137:Q138">
-    <cfRule type="expression" dxfId="114" priority="181">
-      <formula>$B88=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="180">
-      <formula>$B88&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="178">
-      <formula>$B88=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="179">
-      <formula>$B88=2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:K69">
-    <cfRule type="expression" dxfId="110" priority="10">
+  <conditionalFormatting sqref="A69:K69 A95:Q96 S95:T96 S89:T92 A134:J135">
+    <cfRule type="expression" dxfId="96" priority="22">
       <formula>$B69=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A117:P118">
-    <cfRule type="expression" dxfId="109" priority="164">
-      <formula>$B117&lt;2</formula>
+  <conditionalFormatting sqref="A1:AE141">
+    <cfRule type="expression" dxfId="95" priority="174">
+      <formula>$B1=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="165">
-      <formula>$B117=0</formula>
+    <cfRule type="expression" dxfId="94" priority="175">
+      <formula>$B1=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="162">
-      <formula>$B117=3</formula>
+    <cfRule type="expression" dxfId="93" priority="176">
+      <formula>$B1&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="163">
-      <formula>$B117=2</formula>
+    <cfRule type="expression" dxfId="92" priority="177">
+      <formula>$B1=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A121:P128">
-    <cfRule type="expression" dxfId="105" priority="110">
-      <formula>$B121=3</formula>
+  <conditionalFormatting sqref="A120:P127">
+    <cfRule type="expression" dxfId="91" priority="122">
+      <formula>$B120=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="112">
-      <formula>$B121&lt;2</formula>
+    <cfRule type="expression" dxfId="90" priority="123">
+      <formula>$B120=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="113">
-      <formula>$B121=0</formula>
+    <cfRule type="expression" dxfId="89" priority="124">
+      <formula>$B120&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="111">
-      <formula>$B121=2</formula>
+    <cfRule type="expression" dxfId="88" priority="125">
+      <formula>$B120=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:S83">
-    <cfRule type="expression" dxfId="101" priority="220">
+    <cfRule type="expression" dxfId="87" priority="230">
+      <formula>$B83=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="231">
+      <formula>$B83=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="232">
       <formula>$B83&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="219">
-      <formula>$B83=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="218">
-      <formula>$B83=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="221">
+    <cfRule type="expression" dxfId="84" priority="233">
       <formula>$B83=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:T82">
-    <cfRule type="expression" dxfId="97" priority="2">
+    <cfRule type="expression" dxfId="83" priority="13">
+      <formula>$B62=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="14">
       <formula>$B62=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="3">
+    <cfRule type="expression" dxfId="81" priority="15">
       <formula>$B62&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="1">
-      <formula>$B62=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:T71">
-    <cfRule type="expression" dxfId="94" priority="60">
+    <cfRule type="expression" dxfId="80" priority="72">
       <formula>$B71=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87:T87 A95:N97 A98:T106 A113:T113 L114:T114 L115:P115 I116:P116 A119:R119 A129:T132 A133:H134 A135:J136 A84:F86 S89:T92 A107:B112 S107:T112 S115:T119 R123:T128">
-    <cfRule type="expression" dxfId="93" priority="217">
+  <conditionalFormatting sqref="A87:T87 A97:T105 A112:T112 L113:T113 L114:P114 I115:P115 A118:R118 A128:T131 A132:H133 A84:F86 A106:B111 S106:T111 S114:T118 R122:T127">
+    <cfRule type="expression" dxfId="79" priority="229">
       <formula>$B84=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93:T94 A95:Q97 S95:T97 A98:T106">
-    <cfRule type="expression" dxfId="92" priority="48">
+  <conditionalFormatting sqref="A93:T94 A97:T105">
+    <cfRule type="expression" dxfId="78" priority="60">
       <formula>$B93=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="49">
+    <cfRule type="expression" dxfId="77" priority="61">
       <formula>$B93=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="50">
+    <cfRule type="expression" dxfId="76" priority="62">
       <formula>$B93&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:T94">
-    <cfRule type="expression" dxfId="89" priority="185">
+    <cfRule type="expression" dxfId="75" priority="197">
       <formula>$B93=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A120:T120">
-    <cfRule type="expression" dxfId="88" priority="147">
-      <formula>$B120=2</formula>
+  <conditionalFormatting sqref="A119:T119">
+    <cfRule type="expression" dxfId="74" priority="158">
+      <formula>$B119=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="146">
-      <formula>$B120=3</formula>
+    <cfRule type="expression" dxfId="73" priority="159">
+      <formula>$B119=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="149">
-      <formula>$B120=0</formula>
+    <cfRule type="expression" dxfId="72" priority="160">
+      <formula>$B119&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="148">
-      <formula>$B120&lt;2</formula>
+    <cfRule type="expression" dxfId="71" priority="161">
+      <formula>$B119=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A139:T142">
-    <cfRule type="expression" dxfId="84" priority="79">
-      <formula>$B139=2</formula>
+  <conditionalFormatting sqref="A138:T141">
+    <cfRule type="expression" dxfId="70" priority="90">
+      <formula>$B138=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="78">
-      <formula>$B139=3</formula>
+    <cfRule type="expression" dxfId="69" priority="91">
+      <formula>$B138=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="80">
-      <formula>$B139&lt;2</formula>
+    <cfRule type="expression" dxfId="68" priority="92">
+      <formula>$B138&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="81">
-      <formula>$B139=0</formula>
+    <cfRule type="expression" dxfId="67" priority="93">
+      <formula>$B138=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AE142">
-    <cfRule type="expression" dxfId="80" priority="223">
-      <formula>$B1=2</formula>
+  <conditionalFormatting sqref="C106:R106 C107:P111">
+    <cfRule type="expression" dxfId="66" priority="49">
+      <formula>$B106=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="222">
-      <formula>$B1=3</formula>
+    <cfRule type="expression" dxfId="65" priority="50">
+      <formula>$B106=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="224">
-      <formula>$B1&lt;2</formula>
+    <cfRule type="expression" dxfId="64" priority="51">
+      <formula>$B106&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="225">
-      <formula>$B1=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107:R107 C108:P112">
-    <cfRule type="expression" dxfId="76" priority="40">
-      <formula>$B107=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="39">
-      <formula>$B107&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="38">
-      <formula>$B107=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="37">
-      <formula>$B107=3</formula>
+    <cfRule type="expression" dxfId="63" priority="52">
+      <formula>$B106=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14569,7 +14291,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="colorScale" priority="61">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14578,8 +14300,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D107:D112">
-    <cfRule type="colorScale" priority="41">
+  <conditionalFormatting sqref="D106:D111">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14588,8 +14310,247 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D113:D142 D2:D68 D70 D72:D106">
-    <cfRule type="colorScale" priority="437">
+  <conditionalFormatting sqref="E106:O111">
+    <cfRule type="expression" dxfId="62" priority="48">
+      <formula>_xlfn.ISFORMULA(E106)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G84:G85">
+    <cfRule type="expression" dxfId="61" priority="222">
+      <formula>$B84=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="223">
+      <formula>$B84=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="224">
+      <formula>$B84&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="225">
+      <formula>$B84=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="57" priority="28">
+      <formula>$B5=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="29">
+      <formula>$B5=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="30">
+      <formula>$B5&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="31">
+      <formula>$B5=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59:J61">
+    <cfRule type="expression" dxfId="53" priority="79">
+      <formula>_xlfn.ISFORMULA(H59)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="83">
+      <formula>$B59=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:O1048576">
+    <cfRule type="expression" dxfId="51" priority="89">
+      <formula>_xlfn.ISFORMULA(H1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56:O58">
+    <cfRule type="expression" dxfId="50" priority="84">
+      <formula>_xlfn.ISFORMULA(H56)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57:Q61">
+    <cfRule type="expression" dxfId="49" priority="75">
+      <formula>$B57=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="76">
+      <formula>$B57=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="77">
+      <formula>$B57&lt;2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56:T56 H57:Q58 S57:T61">
+    <cfRule type="expression" dxfId="46" priority="88">
+      <formula>$B56=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56:T56 S57:T61">
+    <cfRule type="expression" dxfId="45" priority="85">
+      <formula>$B56=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="86">
+      <formula>$B56=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="87">
+      <formula>$B56&lt;2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69">
+    <cfRule type="expression" dxfId="42" priority="21">
+      <formula>_xlfn.ISFORMULA(I69)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I132:J133">
+    <cfRule type="expression" dxfId="41" priority="106">
+      <formula>$B133=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="107">
+      <formula>$B133=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="108">
+      <formula>$B133&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="109">
+      <formula>$B133=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I113:K114">
+    <cfRule type="expression" dxfId="37" priority="186">
+      <formula>$B113=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="187">
+      <formula>$B113=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="188">
+      <formula>$B113&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="189">
+      <formula>$B113=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J88">
+    <cfRule type="expression" dxfId="33" priority="35">
+      <formula>$B88=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="425">
+      <formula>#REF!=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="426">
+      <formula>#REF!&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="427">
+      <formula>#REF!=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="428">
+      <formula>#REF!=3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J88:T88">
+    <cfRule type="expression" dxfId="28" priority="32">
+      <formula>$B88=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="33">
+      <formula>$B88=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="34">
+      <formula>$B88&lt;2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L69">
+    <cfRule type="expression" dxfId="25" priority="16">
+      <formula>_xlfn.ISFORMULA(L69)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L69:T69">
+    <cfRule type="expression" dxfId="24" priority="17">
+      <formula>$B69=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O59:O61">
+    <cfRule type="expression" dxfId="23" priority="74">
+      <formula>_xlfn.ISFORMULA(O59)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O95:O96 E71:O71">
+    <cfRule type="expression" dxfId="22" priority="68">
+      <formula>_xlfn.ISFORMULA(E71)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O119">
+    <cfRule type="expression" dxfId="21" priority="243">
+      <formula>$B120=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="244">
+      <formula>$B120=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="245">
+      <formula>$B120&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="246">
+      <formula>$B120=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O59:Q61">
+    <cfRule type="expression" dxfId="17" priority="78">
+      <formula>$B59=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q122">
+    <cfRule type="expression" dxfId="16" priority="170">
+      <formula>$B122=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="171">
+      <formula>$B122=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="172">
+      <formula>$B122&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="173">
+      <formula>$B122=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q126:Q127">
+    <cfRule type="expression" dxfId="12" priority="166">
+      <formula>$B126=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="167">
+      <formula>$B126=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="168">
+      <formula>$B126&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="169">
+      <formula>$B126=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q75:T76">
+    <cfRule type="expression" dxfId="8" priority="67">
+      <formula>$B75=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q120:T121">
+    <cfRule type="expression" dxfId="7" priority="130">
+      <formula>$B120=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="131">
+      <formula>$B120=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="132">
+      <formula>$B120&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="133">
+      <formula>$B120=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S84">
+    <cfRule type="expression" dxfId="3" priority="251">
+      <formula>$B83=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="252">
+      <formula>$B83=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="253">
+      <formula>$B83&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="254">
+      <formula>$B83=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D112:D141 D2:D68 D70 D72:D105">
+    <cfRule type="colorScale" priority="491">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14598,328 +14559,51 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71:O71">
-    <cfRule type="expression" dxfId="72" priority="56">
-      <formula>_xlfn.ISFORMULA(E71)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107:O112">
-    <cfRule type="expression" dxfId="71" priority="36">
-      <formula>_xlfn.ISFORMULA(E107)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G84:G85">
-    <cfRule type="expression" dxfId="70" priority="210">
-      <formula>$B84=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="211">
-      <formula>$B84=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="212">
-      <formula>$B84&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="213">
-      <formula>$B84=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="66" priority="16">
-      <formula>$B5=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="19">
-      <formula>$B5=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="18">
-      <formula>$B5&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="17">
-      <formula>$B5=2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59:J61">
-    <cfRule type="expression" dxfId="62" priority="67">
-      <formula>_xlfn.ISFORMULA(H59)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="71">
-      <formula>$B59=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:O1048576">
-    <cfRule type="expression" dxfId="60" priority="77">
-      <formula>_xlfn.ISFORMULA(H1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56:O58">
-    <cfRule type="expression" dxfId="59" priority="72">
-      <formula>_xlfn.ISFORMULA(H56)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57:Q61">
-    <cfRule type="expression" dxfId="58" priority="64">
-      <formula>$B57=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="65">
-      <formula>$B57&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="63">
-      <formula>$B57=3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56:T56 H57:Q58 S57:T61">
-    <cfRule type="expression" dxfId="55" priority="76">
-      <formula>$B56=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56:T56 S57:T61">
-    <cfRule type="expression" dxfId="54" priority="73">
-      <formula>$B56=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="75">
-      <formula>$B56&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="74">
-      <formula>$B56=2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
-    <cfRule type="expression" dxfId="51" priority="9">
-      <formula>_xlfn.ISFORMULA(I69)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I133:J134">
-    <cfRule type="expression" dxfId="50" priority="95">
-      <formula>$B134=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="94">
-      <formula>$B134=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="96">
-      <formula>$B134&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="97">
-      <formula>$B134=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I114:K115">
-    <cfRule type="expression" dxfId="46" priority="176">
-      <formula>$B114&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="177">
-      <formula>$B114=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="174">
-      <formula>$B114=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="175">
-      <formula>$B114=2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J88">
-    <cfRule type="expression" dxfId="42" priority="414">
-      <formula>#REF!&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="415">
-      <formula>#REF!=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="416">
-      <formula>#REF!=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="23">
-      <formula>$B88=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="413">
-      <formula>#REF!=2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J88:T88">
-    <cfRule type="expression" dxfId="37" priority="22">
-      <formula>$B88&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="20">
-      <formula>$B88=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="21">
-      <formula>$B88=2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K133:Q136">
-    <cfRule type="expression" dxfId="34" priority="89">
-      <formula>$B133=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="88">
-      <formula>$B133&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="86">
-      <formula>$B133=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="87">
-      <formula>$B133=2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L69">
-    <cfRule type="expression" dxfId="30" priority="4">
-      <formula>_xlfn.ISFORMULA(L69)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L69:T69">
-    <cfRule type="expression" dxfId="29" priority="5">
-      <formula>$B69=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O59:O61">
-    <cfRule type="expression" dxfId="28" priority="62">
-      <formula>_xlfn.ISFORMULA(O59)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O95:O97">
-    <cfRule type="expression" dxfId="27" priority="47">
-      <formula>_xlfn.ISFORMULA(O95)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O120">
-    <cfRule type="expression" dxfId="26" priority="231">
-      <formula>$B121=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="232">
-      <formula>$B121=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="233">
-      <formula>$B121&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="234">
-      <formula>$B121=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O59:Q61">
-    <cfRule type="expression" dxfId="22" priority="66">
-      <formula>$B59=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O95:Q97 S95:T97">
-    <cfRule type="expression" dxfId="21" priority="51">
-      <formula>$B95=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q123">
-    <cfRule type="expression" dxfId="20" priority="158">
-      <formula>$B123=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="160">
-      <formula>$B123&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="159">
-      <formula>$B123=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="161">
-      <formula>$B123=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q127:Q128">
-    <cfRule type="expression" dxfId="16" priority="157">
-      <formula>$B127=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="155">
-      <formula>$B127=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="154">
-      <formula>$B127=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="156">
-      <formula>$B127&lt;2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q75:T76">
-    <cfRule type="expression" dxfId="12" priority="55">
-      <formula>$B75=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q121:T122">
-    <cfRule type="expression" dxfId="11" priority="120">
-      <formula>$B121&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="121">
-      <formula>$B121=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="118">
-      <formula>$B121=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="119">
-      <formula>$B121=2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R133:T138">
-    <cfRule type="expression" dxfId="7" priority="26">
-      <formula>$B133&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="25">
-      <formula>$B133=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="24">
-      <formula>$B133=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="27">
-      <formula>$B133=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S84">
-    <cfRule type="expression" dxfId="3" priority="239">
-      <formula>$B83=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="240">
-      <formula>$B83=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="242">
-      <formula>$B83=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="241">
-      <formula>$B83&lt;2</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="14">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O143:P150 O122:O142 O2:O120" xr:uid="{7C199008-9AB6-6549-A861-AD474C13E949}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O142:P149 O2:O119 O121:O141" xr:uid="{7C199008-9AB6-6549-A861-AD474C13E949}">
       <formula1>1950</formula1>
       <formula2>2025</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9 I11:I41 I45:I47 I49:I51 L1:L55 I72 L73:L81 I77:I82 H102:H103 H106:H113 I55:I67 I84:I118 I120:I142 L83:L1048576 H117:H142 H2:H99 L59:L71" xr:uid="{66ABF627-CC97-3E44-B6AC-09E441BED0CD}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9 I11:I41 I45:I47 I49:I51 I72 L73:L81 I77:I82 H101:H102 H105:H112 I55:I67 L59:L71 L1:L55 H2:H98 I84:I117 L83:L1048576 H116:H141 I119:I141" xr:uid="{66ABF627-CC97-3E44-B6AC-09E441BED0CD}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K317:K327" xr:uid="{9E6037A9-5EC7-2945-A2FE-1723BA7DEE83}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K316:K326" xr:uid="{9E6037A9-5EC7-2945-A2FE-1723BA7DEE83}">
       <formula1>"Land Area, Power MWe, Excavation Volume,  Reactor Building Slab Roof Volume,	Reactor Building  Basement Volume, Reactor Building  Exterior Walls Volume,		Turbine Building Slab Roof Volume,	Turbine Building  Basement Volume,	Turbine Building  Exterior Wall"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 J143:J1048576" xr:uid="{EEDF1E2A-32DC-6242-8EBD-BD01BBD19C77}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 J142:J1048576" xr:uid="{EEDF1E2A-32DC-6242-8EBD-BD01BBD19C77}">
       <formula1>"$/acres, $/MWe, $/m^3, $/MWt"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10 E14 E18:E19 E23 E27:E29 E33 E37:E38 E43:E44 E48 E52:E54 E63 E77 E82:E142" xr:uid="{E571E7A1-C2F9-2E4D-99A9-8FA0C5D45C39}">
-      <formula1>"standard, nonstandard"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N143:N296" xr:uid="{6D536505-A5B6-E145-A4B9-9C3C8E6B8527}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N142:N295" xr:uid="{6D536505-A5B6-E145-A4B9-9C3C8E6B8527}">
       <formula1>0</formula1>
       <formula2>2</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N113:N142 N2:N68 N70:N106" xr:uid="{1C0096F5-23AB-5A48-8F14-E27BC72A38A6}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N68 N70:N105 N112:N141" xr:uid="{1C0096F5-23AB-5A48-8F14-E27BC72A38A6}">
       <formula1>0</formula1>
       <formula2>2</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M106 M113:M142 M2:M68 M70:M103" xr:uid="{127B7473-9D01-354E-A3BD-12180E660A5C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M105 M2:M68 M70:M102 M112:M141" xr:uid="{127B7473-9D01-354E-A3BD-12180E660A5C}">
       <formula1>"acres, MWe, m^3, MWt, Kg, Drums, kW, $, m^2, kg/s"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J113:J142 J2:J68 J70:J106" xr:uid="{0FCCEC2F-487A-5A42-9C52-ED538456C753}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J68 J70:J105 J112:J141" xr:uid="{0FCCEC2F-487A-5A42-9C52-ED538456C753}">
       <formula1>"$/MWeHour,$/FTE, $/acres, $/MWe, $/m^3, $/MWt, $/Kg, $/Drum, $/(kg.sec), $/SWU, unitless, $/kWe"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M104:M105" xr:uid="{3DD8CB7E-F66A-4C30-8943-BB08D88ABA07}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M103:M104" xr:uid="{3DD8CB7E-F66A-4C30-8943-BB08D88ABA07}">
       <formula1>"acres, MWe, m^3, MWt, Kg, Drums, kW, $, m^2, kg/s, kWe"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J107:J112 J69" xr:uid="{C16DBC1B-3C9C-41C9-938B-EDB37E52B5AE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J106:J111 J69" xr:uid="{C16DBC1B-3C9C-41C9-938B-EDB37E52B5AE}">
       <formula1>"$/MWeHour,$/FTE, $/acres, $/MWe, $/m^3, $/MWt, $/Kg, $/Drum, $/(kg.sec), $/SWU, unitless"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M107:M112 M69" xr:uid="{D3B885B1-E20F-47DA-80AD-4B608DA1A8DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M106:M111 M69" xr:uid="{D3B885B1-E20F-47DA-80AD-4B608DA1A8DB}">
       <formula1>"acres, MWe, m^3, MWt, Kg, Drums, kW, $"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N107:N112 N69" xr:uid="{68CE29B1-8A74-4C55-81EE-3E98A1DF9596}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N106:N111 N69" xr:uid="{68CE29B1-8A74-4C55-81EE-3E98A1DF9596}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P142" xr:uid="{17DDFD40-D97D-B64B-BD3B-AEAF52F6302C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E141" xr:uid="{E571E7A1-C2F9-2E4D-99A9-8FA0C5D45C39}">
+      <formula1>"standard, nonstandard"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P141" xr:uid="{17DDFD40-D97D-B64B-BD3B-AEAF52F6302C}">
       <formula1>"NA, General, Labor, Material, Equipment,Lab and Mat and Equip, 'Lab and Equip"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14927,10 +14611,10 @@
     <hyperlink ref="S3" r:id="rId1" xr:uid="{BA0D9C81-F547-414C-A28F-25DA56C7D1AB}"/>
     <hyperlink ref="S42" r:id="rId2" display="https://inldigitallibrary.inl.gov/sites/sti/sti/Sort_129862.pdf_x000a__x000a_" xr:uid="{0C5690C1-ED1C-8647-B6EB-55013768C9A4}"/>
     <hyperlink ref="S84" r:id="rId3" display="https://www.sciencedirect.com/science/article/pii/S1290072903000218" xr:uid="{FB986645-DAA7-E546-AB13-44635CD5B6AC}"/>
-    <hyperlink ref="S99" r:id="rId4" xr:uid="{22457633-A12F-48B5-9254-21F42C65D36E}"/>
-    <hyperlink ref="S104" r:id="rId5" xr:uid="{9733E874-F01F-4A23-AD17-429EACFE0390}"/>
-    <hyperlink ref="S105" r:id="rId6" xr:uid="{9C11E421-3DD6-4772-9616-7E50D5AE12D8}"/>
-    <hyperlink ref="S100" r:id="rId7" xr:uid="{393EA17C-0C00-46CE-9606-5006E4E9652C}"/>
+    <hyperlink ref="S98" r:id="rId4" xr:uid="{22457633-A12F-48B5-9254-21F42C65D36E}"/>
+    <hyperlink ref="S103" r:id="rId5" xr:uid="{9733E874-F01F-4A23-AD17-429EACFE0390}"/>
+    <hyperlink ref="S104" r:id="rId6" xr:uid="{9C11E421-3DD6-4772-9616-7E50D5AE12D8}"/>
+    <hyperlink ref="S99" r:id="rId7" xr:uid="{393EA17C-0C00-46CE-9606-5006E4E9652C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -17675,141 +17359,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="36" customFormat="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="107"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="103" t="s">
+      <c r="A2" t="s">
         <v>381</v>
       </c>
-      <c r="B2" s="104">
+      <c r="B2" s="4">
         <v>6.5389932052543287E-2</v>
       </c>
-      <c r="C2" s="103"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="103" t="s">
+      <c r="A3" t="s">
         <v>391</v>
       </c>
-      <c r="B3" s="103">
+      <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" s="103"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="103" t="s">
+      <c r="A4" t="s">
         <v>392</v>
       </c>
-      <c r="B4" s="103">
+      <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4" s="103"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="103" t="s">
+      <c r="A5" t="s">
         <v>393</v>
       </c>
-      <c r="B5" s="103">
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5" s="103"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="103" t="s">
+      <c r="A6" t="s">
         <v>394</v>
       </c>
-      <c r="B6" s="103">
+      <c r="B6">
         <v>1800</v>
       </c>
-      <c r="C6" s="103"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="103" t="s">
+      <c r="A7" t="s">
         <v>386</v>
       </c>
-      <c r="B7" s="103">
+      <c r="B7">
         <v>10</v>
       </c>
-      <c r="C7" s="103"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="103" t="s">
+      <c r="A8" t="s">
         <v>395</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8">
         <v>0.01</v>
       </c>
-      <c r="C8" s="103"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="103" t="s">
-        <v>487</v>
-      </c>
-      <c r="B9" s="103">
+      <c r="A9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B9">
         <v>0.08</v>
       </c>
-      <c r="C9" s="103"/>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1">
-      <c r="A10" s="105" t="s">
-        <v>476</v>
-      </c>
-      <c r="B10" s="103">
+      <c r="A10" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="102" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="105" t="s">
-        <v>477</v>
-      </c>
-      <c r="B11" s="103">
+      <c r="A11" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11" s="102"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="105" t="s">
-        <v>480</v>
-      </c>
-      <c r="B12" s="103">
+      <c r="A12" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B12">
         <v>0.6</v>
       </c>
       <c r="C12" s="102"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="106" t="s">
-        <v>458</v>
-      </c>
-      <c r="B13" s="103">
+      <c r="A13" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="B13">
         <v>0.4</v>
       </c>
       <c r="C13" s="102"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="105" t="s">
-        <v>475</v>
-      </c>
-      <c r="B14" s="103">
+      <c r="A14" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B14">
         <v>0.3</v>
       </c>
       <c r="C14" s="102"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="105" t="s">
-        <v>489</v>
-      </c>
-      <c r="B15" s="103">
+      <c r="A15" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B15">
         <v>20</v>
       </c>
-      <c r="C15" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/cost/Cost_Database.xlsx
+++ b/cost/Cost_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user\mouse\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986E104C-FD65-4726-8681-79107D401CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DCF7DC-4886-46DD-8BCA-0D9D4355AFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1489,9 +1489,6 @@
     <t>NTRD-FCO-2018-000439</t>
   </si>
   <si>
-    <t>Implemented on the python side</t>
-  </si>
-  <si>
     <t>Hoffman et al. (2020). Improvement of ACCERT Algorithm - FY20 (No. ANL/NSE-20/28). Argonne National Laboratory.(ANL), Argonne, IL (United States).</t>
   </si>
   <si>
@@ -1833,6 +1830,10 @@
   </si>
   <si>
     <t>Vessel Material</t>
+  </si>
+  <si>
+    <t>Implemented on the python side. 
+Chosen over default due to uncertainty in compressor Pressure Ratio changes based on reactor TH</t>
   </si>
 </sst>
 </file>
@@ -2428,6 +2429,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2436,7 +2440,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2447,9 +2451,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2512,12 +2513,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
@@ -2553,7 +2548,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2567,7 +2562,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2580,16 +2575,22 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFFFFBA"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -2613,13 +2614,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFFBA"/>
         </patternFill>
       </fill>
@@ -2628,6 +2622,13 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2667,36 +2668,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -2719,10 +2693,31 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2752,10 +2747,39 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill patternType="gray125"/>
       </fill>
     </dxf>
     <dxf>
@@ -2773,32 +2797,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill patternType="gray125"/>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2863,6 +2864,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2871,7 +2886,20 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2885,7 +2913,70 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2905,36 +2996,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2944,73 +3006,6 @@
           <bgColor rgb="FFFFFFBA"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -3073,18 +3068,10 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -3092,12 +3079,6 @@
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -3116,7 +3097,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFBA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3134,16 +3129,22 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFBA"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFFFFBA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3156,7 +3157,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3170,7 +3171,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3637,10 +3638,10 @@
   <dimension ref="A1:AH141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="R78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomRight" activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
@@ -3737,37 +3738,37 @@
         <v>62</v>
       </c>
       <c r="U1" s="85" t="s">
+        <v>456</v>
+      </c>
+      <c r="V1" s="85" t="s">
         <v>457</v>
       </c>
-      <c r="V1" s="85" t="s">
+      <c r="W1" s="85" t="s">
         <v>458</v>
       </c>
-      <c r="W1" s="85" t="s">
+      <c r="X1" s="85" t="s">
         <v>459</v>
       </c>
-      <c r="X1" s="85" t="s">
+      <c r="Y1" s="85" t="s">
         <v>460</v>
       </c>
-      <c r="Y1" s="85" t="s">
+      <c r="Z1" s="85" t="s">
         <v>461</v>
       </c>
-      <c r="Z1" s="85" t="s">
+      <c r="AA1" s="85" t="s">
         <v>462</v>
       </c>
-      <c r="AA1" s="85" t="s">
+      <c r="AB1" s="85" t="s">
         <v>463</v>
       </c>
-      <c r="AB1" s="85" t="s">
+      <c r="AC1" s="85" t="s">
         <v>464</v>
       </c>
-      <c r="AC1" s="85" t="s">
+      <c r="AD1" s="85" t="s">
         <v>465</v>
       </c>
-      <c r="AD1" s="85" t="s">
+      <c r="AE1" s="85" t="s">
         <v>466</v>
-      </c>
-      <c r="AE1" s="85" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="9" customFormat="1">
@@ -3871,15 +3872,15 @@
       <c r="Q3" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="87" t="s">
-        <v>446</v>
-      </c>
-      <c r="S3" s="89" t="s">
+      <c r="R3" s="88" t="s">
+        <v>445</v>
+      </c>
+      <c r="S3" s="90" t="s">
         <v>56</v>
       </c>
       <c r="T3" s="51"/>
       <c r="U3" s="80" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V3" s="84">
         <f>0.9*$H3</f>
@@ -3890,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y3" s="83">
         <f t="shared" ref="Y3" si="2">0.9*I3</f>
@@ -3901,19 +3902,19 @@
         <v>4940</v>
       </c>
       <c r="AA3" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB3" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC3" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD3" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE3" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB3" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC3" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD3" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE3" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -3961,11 +3962,11 @@
       <c r="Q4" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="87"/>
-      <c r="S4" s="89"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="90"/>
       <c r="T4" s="51"/>
       <c r="U4" s="80" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V4" s="84">
         <f t="shared" ref="V4:V67" si="4">0.9*$H4</f>
@@ -3976,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y4" s="83">
         <f t="shared" ref="Y4:Y67" si="6">0.9*I4</f>
@@ -3987,19 +3988,19 @@
         <v>13039</v>
       </c>
       <c r="AA4" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB4" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC4" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD4" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE4" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB4" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC4" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD4" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE4" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -4041,15 +4042,15 @@
       <c r="Q5" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="87" t="s">
+      <c r="R5" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="S5" s="89" t="s">
+      <c r="S5" s="90" t="s">
         <v>59</v>
       </c>
       <c r="T5" s="51"/>
       <c r="U5" s="80" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="V5" s="84">
         <f>45*1000000</f>
@@ -4060,7 +4061,7 @@
         <v>70000000</v>
       </c>
       <c r="X5" s="80" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Y5" s="83">
         <f t="shared" si="6"/>
@@ -4071,19 +4072,19 @@
         <v>0</v>
       </c>
       <c r="AA5" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB5" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC5" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD5" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE5" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB5" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC5" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD5" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE5" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -4124,11 +4125,11 @@
       <c r="Q6" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="87"/>
-      <c r="S6" s="89"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="90"/>
       <c r="T6" s="51"/>
       <c r="U6" s="80" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V6" s="84">
         <f t="shared" si="4"/>
@@ -4139,7 +4140,7 @@
         <v>4500000</v>
       </c>
       <c r="X6" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y6" s="83">
         <f t="shared" si="6"/>
@@ -4150,19 +4151,19 @@
         <v>0</v>
       </c>
       <c r="AA6" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB6" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC6" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD6" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE6" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB6" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC6" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD6" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE6" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="24" customHeight="1">
@@ -4205,7 +4206,7 @@
         <v>60</v>
       </c>
       <c r="R7" s="49" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S7" s="51" t="s">
         <v>61</v>
@@ -4214,7 +4215,7 @@
         <v>63</v>
       </c>
       <c r="U7" s="80" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V7" s="84">
         <f t="shared" si="4"/>
@@ -4225,7 +4226,7 @@
         <v>7815676.5</v>
       </c>
       <c r="X7" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y7" s="83">
         <f t="shared" si="6"/>
@@ -4236,19 +4237,19 @@
         <v>0</v>
       </c>
       <c r="AA7" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB7" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC7" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD7" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE7" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB7" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC7" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD7" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE7" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -4290,7 +4291,7 @@
       <c r="S8" s="52"/>
       <c r="T8" s="52"/>
       <c r="U8" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="V8" s="84"/>
       <c r="W8" s="84"/>
@@ -4431,18 +4432,18 @@
       <c r="P11" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="87" t="s">
+      <c r="Q11" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="R11" s="87" t="s">
+      <c r="R11" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="S11" s="88" t="s">
+      <c r="S11" s="89" t="s">
         <v>84</v>
       </c>
       <c r="T11" s="51"/>
       <c r="U11" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V11" s="84">
         <f t="shared" si="4"/>
@@ -4453,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y11" s="83">
         <f t="shared" si="6"/>
@@ -4464,19 +4465,19 @@
         <v>7621.7432200000012</v>
       </c>
       <c r="AA11" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB11" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC11" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD11" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE11" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB11" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC11" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD11" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE11" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -4528,12 +4529,12 @@
       <c r="P12" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="89"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="90"/>
       <c r="T12" s="51"/>
       <c r="U12" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V12" s="84">
         <f t="shared" si="4"/>
@@ -4544,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y12" s="83">
         <f t="shared" si="6"/>
@@ -4555,19 +4556,19 @@
         <v>4435.2308000000003</v>
       </c>
       <c r="AA12" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB12" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC12" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD12" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE12" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB12" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC12" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD12" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE12" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -4612,12 +4613,12 @@
       <c r="P13" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="89"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="90"/>
       <c r="T13" s="51"/>
       <c r="U13" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V13" s="84">
         <f t="shared" si="4"/>
@@ -4628,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y13" s="83">
         <f t="shared" si="6"/>
@@ -4639,19 +4640,19 @@
         <v>41.605199999999996</v>
       </c>
       <c r="AA13" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB13" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC13" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD13" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE13" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB13" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC13" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD13" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE13" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -4739,18 +4740,18 @@
       <c r="P15" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q15" s="87" t="s">
+      <c r="Q15" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="87" t="s">
+      <c r="R15" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="S15" s="88" t="s">
+      <c r="S15" s="89" t="s">
         <v>84</v>
       </c>
       <c r="T15" s="51"/>
       <c r="U15" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V15" s="84">
         <f t="shared" si="4"/>
@@ -4761,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y15" s="83">
         <f t="shared" si="6"/>
@@ -4772,19 +4773,19 @@
         <v>2386.8000000000002</v>
       </c>
       <c r="AA15" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB15" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC15" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD15" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE15" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB15" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC15" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD15" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE15" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="25.5">
@@ -4829,12 +4830,12 @@
       <c r="P16" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="89"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="88"/>
+      <c r="S16" s="90"/>
       <c r="T16" s="51"/>
       <c r="U16" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V16" s="84">
         <f t="shared" si="4"/>
@@ -4845,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y16" s="83">
         <f t="shared" si="6"/>
@@ -4856,19 +4857,19 @@
         <v>1877.4170999999999</v>
       </c>
       <c r="AA16" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB16" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC16" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD16" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE16" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB16" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC16" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD16" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE16" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="38.25">
@@ -4913,12 +4914,12 @@
       <c r="P17" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="89"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="90"/>
       <c r="T17" s="51"/>
       <c r="U17" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V17" s="84">
         <f t="shared" si="4"/>
@@ -4929,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y17" s="83">
         <f t="shared" si="6"/>
@@ -4940,19 +4941,19 @@
         <v>1434.4866900000002</v>
       </c>
       <c r="AA17" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB17" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC17" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD17" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE17" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB17" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC17" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD17" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE17" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -5083,18 +5084,18 @@
       <c r="P20" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q20" s="87" t="s">
+      <c r="Q20" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="R20" s="87" t="s">
+      <c r="R20" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="S20" s="88" t="s">
+      <c r="S20" s="89" t="s">
         <v>84</v>
       </c>
       <c r="T20" s="51"/>
       <c r="U20" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V20" s="84">
         <f t="shared" si="4"/>
@@ -5105,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y20" s="83">
         <f t="shared" si="6"/>
@@ -5116,19 +5117,19 @@
         <v>2386.8000000000002</v>
       </c>
       <c r="AA20" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB20" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC20" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD20" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE20" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB20" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC20" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD20" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE20" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="25.5">
@@ -5173,12 +5174,12 @@
       <c r="P21" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="89"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="90"/>
       <c r="T21" s="51"/>
       <c r="U21" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V21" s="84">
         <f t="shared" si="4"/>
@@ -5189,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y21" s="83">
         <f t="shared" si="6"/>
@@ -5200,19 +5201,19 @@
         <v>1877.4170999999999</v>
       </c>
       <c r="AA21" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB21" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC21" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD21" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE21" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB21" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC21" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD21" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE21" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="38.25">
@@ -5244,7 +5245,7 @@
         <v>79</v>
       </c>
       <c r="K22" s="49" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L22" s="48"/>
       <c r="M22" s="47" t="s">
@@ -5257,12 +5258,12 @@
       <c r="P22" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="89"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="90"/>
       <c r="T22" s="51"/>
       <c r="U22" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V22" s="84">
         <f t="shared" si="4"/>
@@ -5273,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y22" s="83">
         <f t="shared" si="6"/>
@@ -5284,19 +5285,19 @@
         <v>1434.4866900000002</v>
       </c>
       <c r="AA22" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB22" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC22" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD22" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE22" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB22" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC22" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD22" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE22" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -5384,18 +5385,18 @@
       <c r="P24" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q24" s="87" t="s">
+      <c r="Q24" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="R24" s="87" t="s">
+      <c r="R24" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="88" t="s">
+      <c r="S24" s="89" t="s">
         <v>84</v>
       </c>
       <c r="T24" s="51"/>
       <c r="U24" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V24" s="84">
         <f t="shared" si="4"/>
@@ -5406,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y24" s="83">
         <f t="shared" si="6"/>
@@ -5417,19 +5418,19 @@
         <v>2386.8000000000002</v>
       </c>
       <c r="AA24" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB24" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC24" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD24" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE24" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB24" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC24" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD24" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE24" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="25.5">
@@ -5474,12 +5475,12 @@
       <c r="P25" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q25" s="87"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="89"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="90"/>
       <c r="T25" s="51"/>
       <c r="U25" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V25" s="84">
         <f t="shared" si="4"/>
@@ -5490,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y25" s="83">
         <f t="shared" si="6"/>
@@ -5501,19 +5502,19 @@
         <v>1877.4170999999999</v>
       </c>
       <c r="AA25" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB25" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC25" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD25" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE25" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB25" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC25" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD25" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE25" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="38.25">
@@ -5558,12 +5559,12 @@
       <c r="P26" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="89"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="90"/>
       <c r="T26" s="51"/>
       <c r="U26" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V26" s="84">
         <f t="shared" si="4"/>
@@ -5574,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y26" s="83">
         <f t="shared" si="6"/>
@@ -5585,19 +5586,19 @@
         <v>1434.4866900000002</v>
       </c>
       <c r="AA26" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB26" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC26" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD26" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE26" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB26" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC26" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD26" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE26" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -5771,18 +5772,18 @@
       <c r="P30" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q30" s="87" t="s">
+      <c r="Q30" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="R30" s="87" t="s">
+      <c r="R30" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="S30" s="88" t="s">
+      <c r="S30" s="89" t="s">
         <v>84</v>
       </c>
       <c r="T30" s="51"/>
       <c r="U30" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V30" s="84">
         <f t="shared" si="4"/>
@@ -5793,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y30" s="83">
         <f t="shared" si="6"/>
@@ -5804,19 +5805,19 @@
         <v>2386.8000000000002</v>
       </c>
       <c r="AA30" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AB30" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AC30" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AD30" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AE30" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="31" spans="1:31" s="35" customFormat="1" ht="25.5">
@@ -5861,12 +5862,12 @@
       <c r="P31" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="89"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="90"/>
       <c r="T31" s="51"/>
       <c r="U31" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V31" s="84">
         <f t="shared" si="4"/>
@@ -5877,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y31" s="83">
         <f t="shared" si="6"/>
@@ -5888,19 +5889,19 @@
         <v>1877.4170999999999</v>
       </c>
       <c r="AA31" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB31" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC31" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD31" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE31" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB31" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC31" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD31" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE31" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="32" spans="1:31" s="35" customFormat="1" ht="38.25">
@@ -5945,12 +5946,12 @@
       <c r="P32" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q32" s="87"/>
-      <c r="R32" s="87"/>
-      <c r="S32" s="89"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="90"/>
       <c r="T32" s="51"/>
       <c r="U32" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V32" s="84">
         <f t="shared" si="4"/>
@@ -5961,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y32" s="83">
         <f t="shared" si="6"/>
@@ -5972,19 +5973,19 @@
         <v>1434.4866900000002</v>
       </c>
       <c r="AA32" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB32" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC32" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD32" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE32" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB32" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC32" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD32" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE32" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -6072,18 +6073,18 @@
       <c r="P34" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="Q34" s="87" t="s">
+      <c r="Q34" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="R34" s="87" t="s">
+      <c r="R34" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="S34" s="88" t="s">
+      <c r="S34" s="89" t="s">
         <v>84</v>
       </c>
       <c r="T34" s="51"/>
       <c r="U34" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V34" s="84">
         <f t="shared" si="4"/>
@@ -6094,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y34" s="83">
         <f t="shared" si="6"/>
@@ -6105,19 +6106,19 @@
         <v>2386.8000000000002</v>
       </c>
       <c r="AA34" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB34" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC34" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD34" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE34" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB34" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC34" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD34" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE34" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:31" s="35" customFormat="1" ht="38.25">
@@ -6162,12 +6163,12 @@
       <c r="P35" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="Q35" s="87"/>
-      <c r="R35" s="87"/>
-      <c r="S35" s="89"/>
+      <c r="Q35" s="88"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="90"/>
       <c r="T35" s="51"/>
       <c r="U35" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V35" s="84">
         <f t="shared" si="4"/>
@@ -6178,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y35" s="83">
         <f t="shared" si="6"/>
@@ -6189,19 +6190,19 @@
         <v>1877.4170999999999</v>
       </c>
       <c r="AA35" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB35" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC35" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD35" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE35" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB35" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC35" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD35" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE35" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="36" spans="1:31" s="35" customFormat="1" ht="38.25">
@@ -6246,12 +6247,12 @@
       <c r="P36" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q36" s="87"/>
-      <c r="R36" s="87"/>
-      <c r="S36" s="89"/>
+      <c r="Q36" s="88"/>
+      <c r="R36" s="88"/>
+      <c r="S36" s="90"/>
       <c r="T36" s="51"/>
       <c r="U36" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V36" s="84">
         <f t="shared" si="4"/>
@@ -6262,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y36" s="83">
         <f t="shared" si="6"/>
@@ -6273,19 +6274,19 @@
         <v>1434.4866900000002</v>
       </c>
       <c r="AA36" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB36" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC36" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD36" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE36" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB36" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC36" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD36" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE36" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="25.5">
@@ -6416,18 +6417,18 @@
       <c r="P39" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="Q39" s="87" t="s">
+      <c r="Q39" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="R39" s="87" t="s">
+      <c r="R39" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="S39" s="88" t="s">
+      <c r="S39" s="89" t="s">
         <v>84</v>
       </c>
       <c r="T39" s="51"/>
       <c r="U39" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V39" s="84">
         <f t="shared" si="4"/>
@@ -6438,7 +6439,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y39" s="83">
         <f t="shared" si="6"/>
@@ -6449,19 +6450,19 @@
         <v>2386.8000000000002</v>
       </c>
       <c r="AA39" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB39" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC39" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD39" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE39" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB39" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC39" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD39" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE39" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:31" s="35" customFormat="1" ht="38.25">
@@ -6506,12 +6507,12 @@
       <c r="P40" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
-      <c r="S40" s="89"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="90"/>
       <c r="T40" s="51"/>
       <c r="U40" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V40" s="84">
         <f t="shared" si="4"/>
@@ -6522,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y40" s="83">
         <f t="shared" si="6"/>
@@ -6533,19 +6534,19 @@
         <v>1877.4170999999999</v>
       </c>
       <c r="AA40" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB40" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC40" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD40" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE40" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB40" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC40" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD40" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE40" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="41" spans="1:31" s="35" customFormat="1" ht="38.25">
@@ -6590,12 +6591,12 @@
       <c r="P41" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87"/>
-      <c r="S41" s="89"/>
+      <c r="Q41" s="88"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="90"/>
       <c r="T41" s="51"/>
       <c r="U41" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V41" s="84">
         <f t="shared" si="4"/>
@@ -6606,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y41" s="83">
         <f t="shared" si="6"/>
@@ -6617,19 +6618,19 @@
         <v>1434.4866900000002</v>
       </c>
       <c r="AA41" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB41" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC41" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD41" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE41" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB41" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC41" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD41" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE41" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:31" ht="103.9" customHeight="1">
@@ -6690,7 +6691,7 @@
       </c>
       <c r="T42" s="51"/>
       <c r="U42" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V42" s="84">
         <f t="shared" si="4"/>
@@ -6701,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y42" s="83">
         <f t="shared" si="6"/>
@@ -6712,19 +6713,19 @@
         <v>3532505.0361445784</v>
       </c>
       <c r="AA42" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB42" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC42" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD42" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE42" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB42" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC42" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD42" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE42" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -6855,18 +6856,18 @@
       <c r="P45" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q45" s="87" t="s">
+      <c r="Q45" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="R45" s="87" t="s">
+      <c r="R45" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="S45" s="88" t="s">
+      <c r="S45" s="89" t="s">
         <v>84</v>
       </c>
       <c r="T45" s="51"/>
       <c r="U45" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V45" s="84">
         <f t="shared" si="4"/>
@@ -6877,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y45" s="83">
         <f t="shared" si="6"/>
@@ -6888,19 +6889,19 @@
         <v>2386.8000000000002</v>
       </c>
       <c r="AA45" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB45" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC45" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD45" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE45" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB45" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC45" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD45" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE45" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="46" spans="1:31" ht="25.5">
@@ -6945,12 +6946,12 @@
       <c r="P46" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q46" s="87"/>
-      <c r="R46" s="87"/>
-      <c r="S46" s="89"/>
+      <c r="Q46" s="88"/>
+      <c r="R46" s="88"/>
+      <c r="S46" s="90"/>
       <c r="T46" s="51"/>
       <c r="U46" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V46" s="84">
         <f t="shared" si="4"/>
@@ -6961,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y46" s="83">
         <f t="shared" si="6"/>
@@ -6972,19 +6973,19 @@
         <v>1877.4170999999999</v>
       </c>
       <c r="AA46" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB46" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC46" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD46" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE46" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB46" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC46" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD46" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE46" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="47" spans="1:31" ht="38.25">
@@ -7029,12 +7030,12 @@
       <c r="P47" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q47" s="87"/>
-      <c r="R47" s="87"/>
-      <c r="S47" s="89"/>
+      <c r="Q47" s="88"/>
+      <c r="R47" s="88"/>
+      <c r="S47" s="90"/>
       <c r="T47" s="51"/>
       <c r="U47" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V47" s="84">
         <f t="shared" si="4"/>
@@ -7045,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y47" s="83">
         <f t="shared" si="6"/>
@@ -7056,19 +7057,19 @@
         <v>1434.4866900000002</v>
       </c>
       <c r="AA47" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB47" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC47" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD47" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE47" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB47" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC47" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD47" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE47" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -7156,18 +7157,18 @@
       <c r="P49" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q49" s="87" t="s">
+      <c r="Q49" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="R49" s="87" t="s">
+      <c r="R49" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="S49" s="88" t="s">
+      <c r="S49" s="89" t="s">
         <v>84</v>
       </c>
       <c r="T49" s="51"/>
       <c r="U49" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V49" s="84">
         <f t="shared" si="4"/>
@@ -7178,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="X49" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y49" s="83">
         <f t="shared" si="6"/>
@@ -7189,19 +7190,19 @@
         <v>2386.8000000000002</v>
       </c>
       <c r="AA49" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB49" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC49" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD49" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE49" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB49" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC49" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD49" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE49" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="25.5">
@@ -7246,12 +7247,12 @@
       <c r="P50" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q50" s="87"/>
-      <c r="R50" s="87"/>
-      <c r="S50" s="89"/>
+      <c r="Q50" s="88"/>
+      <c r="R50" s="88"/>
+      <c r="S50" s="90"/>
       <c r="T50" s="51"/>
       <c r="U50" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V50" s="84">
         <f t="shared" si="4"/>
@@ -7262,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="X50" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y50" s="83">
         <f t="shared" si="6"/>
@@ -7273,19 +7274,19 @@
         <v>1877.4170999999999</v>
       </c>
       <c r="AA50" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB50" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC50" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD50" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE50" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB50" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC50" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD50" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE50" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="38.25">
@@ -7330,12 +7331,12 @@
       <c r="P51" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q51" s="87"/>
-      <c r="R51" s="87"/>
-      <c r="S51" s="89"/>
+      <c r="Q51" s="88"/>
+      <c r="R51" s="88"/>
+      <c r="S51" s="90"/>
       <c r="T51" s="51"/>
       <c r="U51" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V51" s="84">
         <f t="shared" si="4"/>
@@ -7346,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y51" s="83">
         <f t="shared" si="6"/>
@@ -7357,19 +7358,19 @@
         <v>1434.4866900000002</v>
       </c>
       <c r="AA51" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB51" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC51" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD51" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE51" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB51" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC51" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD51" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE51" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -7556,7 +7557,7 @@
         <v>178</v>
       </c>
       <c r="U55" s="80" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="V55" s="84">
         <f t="shared" si="4"/>
@@ -7567,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y55" s="83">
         <f t="shared" si="6"/>
@@ -7578,19 +7579,19 @@
         <v>10.651974935400519</v>
       </c>
       <c r="AA55" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB55" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC55" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD55" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE55" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB55" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC55" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD55" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE55" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="30" customHeight="1">
@@ -7612,10 +7613,10 @@
         <v>341</v>
       </c>
       <c r="F56" s="41" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G56" s="41" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H56" s="45"/>
       <c r="I56" s="63">
@@ -7639,13 +7640,13 @@
       <c r="Q56" s="61" t="s">
         <v>399</v>
       </c>
-      <c r="R56" s="90" t="s">
+      <c r="R56" s="87" t="s">
         <v>350</v>
       </c>
       <c r="S56" s="58"/>
       <c r="T56" s="51"/>
       <c r="U56" s="80" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="V56" s="84">
         <f t="shared" si="4"/>
@@ -7656,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y56" s="83">
         <f t="shared" si="6"/>
@@ -7667,19 +7668,19 @@
         <v>421.30399999999997</v>
       </c>
       <c r="AA56" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB56" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC56" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD56" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE56" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB56" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC56" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD56" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE56" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="30" customHeight="1">
@@ -7701,10 +7702,10 @@
         <v>341</v>
       </c>
       <c r="F57" s="41" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G57" s="41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H57" s="45"/>
       <c r="I57" s="63">
@@ -7728,11 +7729,11 @@
       <c r="Q57" s="61" t="s">
         <v>399</v>
       </c>
-      <c r="R57" s="90"/>
+      <c r="R57" s="87"/>
       <c r="S57" s="58"/>
       <c r="T57" s="51"/>
       <c r="U57" s="80" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="V57" s="84">
         <f t="shared" si="4"/>
@@ -7743,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y57" s="83">
         <f t="shared" si="6"/>
@@ -7754,19 +7755,19 @@
         <v>200.30400000000003</v>
       </c>
       <c r="AA57" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB57" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC57" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD57" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE57" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB57" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC57" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD57" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE57" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="58" spans="1:31" ht="30" customHeight="1">
@@ -7795,10 +7796,10 @@
         <v>341</v>
       </c>
       <c r="F58" s="41" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G58" s="41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H58" s="45"/>
       <c r="I58" s="63">
@@ -7822,11 +7823,11 @@
       <c r="Q58" s="61" t="s">
         <v>399</v>
       </c>
-      <c r="R58" s="90"/>
+      <c r="R58" s="87"/>
       <c r="S58" s="58"/>
       <c r="T58" s="51"/>
       <c r="U58" s="80" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="V58" s="84">
         <f t="shared" si="4"/>
@@ -7837,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y58" s="83">
         <f t="shared" si="6"/>
@@ -7848,19 +7849,19 @@
         <v>577.30399999999997</v>
       </c>
       <c r="AA58" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB58" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC58" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD58" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE58" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB58" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC58" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD58" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE58" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="59" spans="1:31" ht="30" customHeight="1">
@@ -7882,10 +7883,10 @@
         <v>341</v>
       </c>
       <c r="F59" s="41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G59" s="41" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H59" s="45"/>
       <c r="I59" s="63">
@@ -7909,13 +7910,13 @@
       <c r="Q59" s="61" t="s">
         <v>399</v>
       </c>
-      <c r="R59" s="90"/>
+      <c r="R59" s="87"/>
       <c r="S59" s="58"/>
       <c r="T59" s="61" t="s">
         <v>179</v>
       </c>
       <c r="U59" s="80" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="V59" s="84">
         <f t="shared" si="4"/>
@@ -7926,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y59" s="83">
         <f t="shared" si="6"/>
@@ -7937,19 +7938,19 @@
         <v>421.30399999999997</v>
       </c>
       <c r="AA59" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB59" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC59" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD59" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE59" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB59" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC59" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD59" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE59" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="30" customHeight="1">
@@ -7971,10 +7972,10 @@
         <v>341</v>
       </c>
       <c r="F60" s="41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G60" s="41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H60" s="45"/>
       <c r="I60" s="63">
@@ -7998,11 +7999,11 @@
       <c r="Q60" s="61" t="s">
         <v>399</v>
       </c>
-      <c r="R60" s="90"/>
+      <c r="R60" s="87"/>
       <c r="S60" s="58"/>
       <c r="T60" s="61"/>
       <c r="U60" s="80" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="V60" s="84">
         <f t="shared" si="4"/>
@@ -8013,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y60" s="83">
         <f t="shared" si="6"/>
@@ -8024,19 +8025,19 @@
         <v>200.30400000000003</v>
       </c>
       <c r="AA60" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB60" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC60" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD60" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE60" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB60" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC60" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD60" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE60" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="61" spans="1:31" ht="30" customHeight="1">
@@ -8065,10 +8066,10 @@
         <v>341</v>
       </c>
       <c r="F61" s="41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G61" s="41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H61" s="45"/>
       <c r="I61" s="63">
@@ -8092,11 +8093,11 @@
       <c r="Q61" s="61" t="s">
         <v>399</v>
       </c>
-      <c r="R61" s="90"/>
+      <c r="R61" s="87"/>
       <c r="S61" s="58"/>
       <c r="T61" s="61"/>
       <c r="U61" s="80" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="V61" s="84">
         <f t="shared" si="4"/>
@@ -8107,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y61" s="83">
         <f t="shared" si="6"/>
@@ -8118,19 +8119,19 @@
         <v>577.30399999999997</v>
       </c>
       <c r="AA61" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB61" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC61" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD61" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE61" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB61" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC61" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD61" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE61" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="30" customHeight="1">
@@ -8248,7 +8249,7 @@
         <v>400</v>
       </c>
       <c r="K64" s="61" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L64" s="51"/>
       <c r="M64" s="51"/>
@@ -8262,17 +8263,17 @@
       <c r="Q64" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="R64" s="90" t="s">
+      <c r="R64" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="S64" s="94" t="s">
-        <v>448</v>
+      <c r="S64" s="91" t="s">
+        <v>447</v>
       </c>
       <c r="T64" s="61" t="s">
         <v>184</v>
       </c>
       <c r="U64" s="80" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="V64" s="84">
         <f t="shared" si="4"/>
@@ -8283,7 +8284,7 @@
         <v>0</v>
       </c>
       <c r="X64" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y64" s="83">
         <f t="shared" si="6"/>
@@ -8294,19 +8295,19 @@
         <v>452257</v>
       </c>
       <c r="AA64" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB64" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC64" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD64" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE64" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB64" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC64" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD64" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE64" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="65" spans="1:34" s="35" customFormat="1">
@@ -8338,7 +8339,7 @@
         <v>400</v>
       </c>
       <c r="K65" s="61" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L65" s="51"/>
       <c r="M65" s="51"/>
@@ -8352,11 +8353,11 @@
       <c r="Q65" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="R65" s="90"/>
-      <c r="S65" s="94"/>
+      <c r="R65" s="87"/>
+      <c r="S65" s="91"/>
       <c r="T65" s="51"/>
       <c r="U65" s="80" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="V65" s="84">
         <f t="shared" si="4"/>
@@ -8367,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="X65" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y65" s="83">
         <f t="shared" si="6"/>
@@ -8378,19 +8379,19 @@
         <v>104865.47500000001</v>
       </c>
       <c r="AA65" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB65" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC65" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD65" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE65" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB65" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC65" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD65" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE65" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="66" spans="1:34" s="35" customFormat="1" ht="30" customHeight="1">
@@ -8447,11 +8448,11 @@
       <c r="Q66" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="R66" s="90"/>
-      <c r="S66" s="94"/>
+      <c r="R66" s="87"/>
+      <c r="S66" s="91"/>
       <c r="T66" s="51"/>
       <c r="U66" s="80" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="V66" s="84">
         <f t="shared" si="4"/>
@@ -8462,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="X66" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y66" s="83">
         <f t="shared" si="6"/>
@@ -8473,19 +8474,19 @@
         <v>18571.428571428572</v>
       </c>
       <c r="AA66" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB66" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC66" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD66" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE66" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB66" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC66" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD66" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE66" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="67" spans="1:34" s="35" customFormat="1" ht="30" customHeight="1">
@@ -8517,7 +8518,7 @@
         <v>328</v>
       </c>
       <c r="G67" s="41" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H67" s="45"/>
       <c r="I67" s="63">
@@ -8539,13 +8540,13 @@
         <v>73</v>
       </c>
       <c r="Q67" s="61" t="s">
-        <v>437</v>
-      </c>
-      <c r="R67" s="90"/>
-      <c r="S67" s="94"/>
+        <v>436</v>
+      </c>
+      <c r="R67" s="87"/>
+      <c r="S67" s="91"/>
       <c r="T67" s="51"/>
       <c r="U67" s="80" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="V67" s="84">
         <f t="shared" si="4"/>
@@ -8556,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="X67" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y67" s="83">
         <f t="shared" si="6"/>
@@ -8567,19 +8568,19 @@
         <v>13083.2</v>
       </c>
       <c r="AA67" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB67" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC67" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD67" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE67" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB67" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC67" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD67" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE67" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="68" spans="1:34" s="35" customFormat="1" ht="30" customHeight="1">
@@ -8636,11 +8637,11 @@
       <c r="Q68" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="R68" s="90"/>
-      <c r="S68" s="94"/>
+      <c r="R68" s="87"/>
+      <c r="S68" s="91"/>
       <c r="T68" s="51"/>
       <c r="U68" s="80" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="V68" s="84">
         <f t="shared" ref="V68:V127" si="13">0.9*$H68</f>
@@ -8651,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="X68" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y68" s="83">
         <f t="shared" ref="Y68:Y127" si="15">0.9*I68</f>
@@ -8662,19 +8663,19 @@
         <v>13081.761006289309</v>
       </c>
       <c r="AA68" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB68" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC68" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD68" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE68" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB68" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC68" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD68" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE68" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="69" spans="1:34" s="35" customFormat="1" ht="30" customHeight="1">
@@ -8699,7 +8700,7 @@
         <v>327</v>
       </c>
       <c r="G69" s="41" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H69" s="81"/>
       <c r="I69" s="66">
@@ -8735,7 +8736,7 @@
       <c r="S69" s="67"/>
       <c r="T69" s="51"/>
       <c r="U69" s="80" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="V69" s="84">
         <f t="shared" si="13"/>
@@ -8746,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="X69" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y69" s="83">
         <f t="shared" si="15"/>
@@ -8757,19 +8758,19 @@
         <v>58157.894736842107</v>
       </c>
       <c r="AA69" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB69" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC69" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD69" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE69" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB69" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC69" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD69" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE69" s="80" t="s">
-        <v>453</v>
       </c>
       <c r="AH69" s="38"/>
     </row>
@@ -8832,7 +8833,7 @@
       <c r="S70" s="67"/>
       <c r="T70" s="51"/>
       <c r="U70" s="80" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="V70" s="84">
         <f t="shared" si="13"/>
@@ -8843,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="X70" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y70" s="83">
         <f t="shared" si="15"/>
@@ -8854,19 +8855,19 @@
         <v>104</v>
       </c>
       <c r="AA70" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB70" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC70" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD70" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE70" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB70" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC70" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD70" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE70" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="71" spans="1:34" s="35" customFormat="1" ht="30" customHeight="1">
@@ -8897,7 +8898,7 @@
         <v>400</v>
       </c>
       <c r="K71" s="61" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L71" s="51"/>
       <c r="M71" s="51"/>
@@ -8909,7 +8910,7 @@
         <v>77</v>
       </c>
       <c r="Q71" s="61" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="R71" s="65" t="s">
         <v>401</v>
@@ -8919,7 +8920,7 @@
         <v>402</v>
       </c>
       <c r="U71" s="80" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="V71" s="84">
         <f t="shared" si="13"/>
@@ -8930,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="X71" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y71" s="83">
         <f t="shared" si="15"/>
@@ -8941,19 +8942,19 @@
         <v>97186.7</v>
       </c>
       <c r="AA71" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB71" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC71" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD71" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE71" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB71" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC71" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD71" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE71" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="72" spans="1:34">
@@ -9061,12 +9062,12 @@
       <c r="R73" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="S73" s="94" t="s">
-        <v>448</v>
+      <c r="S73" s="91" t="s">
+        <v>447</v>
       </c>
       <c r="T73" s="51"/>
       <c r="U73" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V73" s="84">
         <f t="shared" si="13"/>
@@ -9077,7 +9078,7 @@
         <v>180346.5</v>
       </c>
       <c r="X73" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y73" s="83">
         <f t="shared" si="15"/>
@@ -9088,19 +9089,19 @@
         <v>13081.761006289309</v>
       </c>
       <c r="AA73" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB73" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC73" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD73" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE73" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB73" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC73" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD73" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE73" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="74" spans="1:34" ht="14.45" customHeight="1">
@@ -9132,7 +9133,7 @@
         <v>13</v>
       </c>
       <c r="G74" s="41" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H74" s="45"/>
       <c r="I74" s="66">
@@ -9167,10 +9168,10 @@
       <c r="R74" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="S74" s="94"/>
+      <c r="S74" s="91"/>
       <c r="T74" s="51"/>
       <c r="U74" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V74" s="84">
         <f t="shared" si="13"/>
@@ -9181,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="X74" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y74" s="83">
         <f t="shared" si="15"/>
@@ -9192,19 +9193,19 @@
         <v>58157.894736842107</v>
       </c>
       <c r="AA74" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB74" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC74" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD74" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE74" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB74" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC74" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD74" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE74" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="75" spans="1:34" ht="51">
@@ -9263,10 +9264,10 @@
       <c r="R75" s="61" t="s">
         <v>405</v>
       </c>
-      <c r="S75" s="94"/>
+      <c r="S75" s="91"/>
       <c r="T75" s="51"/>
       <c r="U75" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V75" s="84">
         <f t="shared" si="13"/>
@@ -9277,7 +9278,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y75" s="83">
         <f t="shared" si="15"/>
@@ -9288,19 +9289,19 @@
         <v>104</v>
       </c>
       <c r="AA75" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB75" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC75" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD75" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE75" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB75" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC75" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD75" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE75" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="76" spans="1:34">
@@ -9357,10 +9358,10 @@
         <v>408</v>
       </c>
       <c r="R76" s="61"/>
-      <c r="S76" s="94"/>
+      <c r="S76" s="91"/>
       <c r="T76" s="51"/>
       <c r="U76" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V76" s="84">
         <f t="shared" si="13"/>
@@ -9371,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y76" s="83">
         <f t="shared" si="15"/>
@@ -9382,19 +9383,19 @@
         <v>174.33</v>
       </c>
       <c r="AA76" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB76" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC76" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD76" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE76" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB76" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC76" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD76" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE76" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="77" spans="1:34">
@@ -9426,7 +9427,7 @@
       <c r="P77" s="51"/>
       <c r="Q77" s="61"/>
       <c r="R77" s="61"/>
-      <c r="S77" s="94"/>
+      <c r="S77" s="91"/>
       <c r="T77" s="51"/>
       <c r="U77" s="80"/>
       <c r="V77" s="84"/>
@@ -9459,7 +9460,7 @@
         <v>341</v>
       </c>
       <c r="F78" s="41" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G78" s="41" t="s">
         <v>186</v>
@@ -9476,7 +9477,7 @@
         <v>174</v>
       </c>
       <c r="K78" s="61" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L78" s="51">
         <f>L66</f>
@@ -9498,10 +9499,10 @@
         <v>175</v>
       </c>
       <c r="R78" s="61"/>
-      <c r="S78" s="94"/>
+      <c r="S78" s="91"/>
       <c r="T78" s="51"/>
       <c r="U78" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V78" s="84">
         <f t="shared" si="13"/>
@@ -9512,7 +9513,7 @@
         <v>971985.89999999991</v>
       </c>
       <c r="X78" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y78" s="83">
         <f t="shared" si="15"/>
@@ -9523,19 +9524,19 @@
         <v>18571.428571428572</v>
       </c>
       <c r="AA78" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB78" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC78" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD78" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE78" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB78" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC78" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD78" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE78" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="79" spans="1:34" s="35" customFormat="1" ht="30" customHeight="1">
@@ -9557,7 +9558,7 @@
         <v>341</v>
       </c>
       <c r="F79" s="41" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G79" s="41" t="s">
         <v>331</v>
@@ -9570,7 +9571,7 @@
         <v>174</v>
       </c>
       <c r="K79" s="61" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L79" s="51">
         <f>'Design Variables'!B43</f>
@@ -9592,10 +9593,10 @@
         <v>175</v>
       </c>
       <c r="R79" s="61"/>
-      <c r="S79" s="94"/>
+      <c r="S79" s="91"/>
       <c r="T79" s="51"/>
       <c r="U79" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V79" s="84">
         <f>0.9*$H79</f>
@@ -9606,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="X79" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y79" s="83">
         <f>0.9*I79</f>
@@ -9617,19 +9618,19 @@
         <v>26</v>
       </c>
       <c r="AA79" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB79" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC79" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD79" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE79" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB79" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC79" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD79" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE79" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="80" spans="1:34" ht="69" customHeight="1">
@@ -9641,7 +9642,7 @@
         <v>4</v>
       </c>
       <c r="C80" s="58" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D80" s="41" t="str">
         <f>REPT("   ", B81*2) &amp; C80</f>
@@ -9651,7 +9652,7 @@
         <v>341</v>
       </c>
       <c r="F80" s="41" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G80" s="41" t="s">
         <v>332</v>
@@ -9664,7 +9665,7 @@
         <v>174</v>
       </c>
       <c r="K80" s="61" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L80" s="51"/>
       <c r="M80" s="51" t="s">
@@ -9686,7 +9687,7 @@
       <c r="S80" s="67"/>
       <c r="T80" s="51"/>
       <c r="U80" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V80" s="84">
         <f t="shared" si="13"/>
@@ -9697,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="X80" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y80" s="83">
         <f t="shared" si="15"/>
@@ -9708,19 +9709,19 @@
         <v>1976</v>
       </c>
       <c r="AA80" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB80" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC80" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD80" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE80" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB80" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC80" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD80" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE80" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="81" spans="1:31" ht="30" customHeight="1">
@@ -9777,7 +9778,7 @@
       <c r="S81" s="67"/>
       <c r="T81" s="51"/>
       <c r="U81" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V81" s="84">
         <f t="shared" si="13"/>
@@ -9788,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="X81" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y81" s="83">
         <f t="shared" si="15"/>
@@ -9799,19 +9800,19 @@
         <v>104</v>
       </c>
       <c r="AA81" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB81" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC81" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD81" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE81" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB81" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC81" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD81" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE81" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="82" spans="1:31" ht="30" customHeight="1">
@@ -9956,15 +9957,15 @@
       <c r="Q84" s="61" t="s">
         <v>343</v>
       </c>
-      <c r="R84" s="90" t="s">
-        <v>449</v>
-      </c>
-      <c r="S84" s="92" t="s">
+      <c r="R84" s="87" t="s">
+        <v>448</v>
+      </c>
+      <c r="S84" s="93" t="s">
         <v>344</v>
       </c>
-      <c r="T84" s="90"/>
+      <c r="T84" s="87"/>
       <c r="U84" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V84" s="84">
         <f t="shared" si="13"/>
@@ -9975,7 +9976,7 @@
         <v>0</v>
       </c>
       <c r="X84" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y84" s="83">
         <f t="shared" si="15"/>
@@ -9986,19 +9987,19 @@
         <v>11464.050000000001</v>
       </c>
       <c r="AA84" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB84" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC84" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD84" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE84" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB84" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC84" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD84" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE84" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="85" spans="1:31" ht="25.5">
@@ -10049,11 +10050,11 @@
       <c r="Q85" s="61" t="s">
         <v>339</v>
       </c>
-      <c r="R85" s="90"/>
-      <c r="S85" s="93"/>
-      <c r="T85" s="90"/>
+      <c r="R85" s="87"/>
+      <c r="S85" s="94"/>
+      <c r="T85" s="87"/>
       <c r="U85" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V85" s="84">
         <f t="shared" si="13"/>
@@ -10064,7 +10065,7 @@
         <v>0</v>
       </c>
       <c r="X85" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y85" s="83">
         <f t="shared" si="15"/>
@@ -10075,22 +10076,22 @@
         <v>917.12400000000002</v>
       </c>
       <c r="AA85" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB85" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC85" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD85" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE85" s="80" t="s">
         <v>452</v>
       </c>
-      <c r="AB85" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC85" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD85" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE85" s="80" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="86" spans="1:31" ht="51">
+    </row>
+    <row r="86" spans="1:31" ht="89.25">
       <c r="A86" s="44">
         <v>222.13</v>
       </c>
@@ -10115,7 +10116,7 @@
         <v>7100000</v>
       </c>
       <c r="J86" s="51" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K86" s="61"/>
       <c r="L86" s="51"/>
@@ -10131,14 +10132,14 @@
         <v>407</v>
       </c>
       <c r="R86" s="65" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="S86" s="69"/>
       <c r="T86" s="65" t="s">
-        <v>409</v>
+        <v>488</v>
       </c>
       <c r="U86" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V86" s="84">
         <f t="shared" si="13"/>
@@ -10149,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="X86" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y86" s="83">
         <f t="shared" si="15"/>
@@ -10160,19 +10161,19 @@
         <v>9230000</v>
       </c>
       <c r="AA86" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB86" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC86" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD86" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE86" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB86" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC86" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD86" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE86" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="30" customHeight="1">
@@ -10223,7 +10224,7 @@
       <c r="S87" s="51"/>
       <c r="T87" s="51"/>
       <c r="U87" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V87" s="84">
         <f t="shared" si="13"/>
@@ -10234,7 +10235,7 @@
         <v>0</v>
       </c>
       <c r="X87" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y87" s="83">
         <f t="shared" ref="Y87" si="27">0.9*I87</f>
@@ -10245,19 +10246,19 @@
         <v>26000</v>
       </c>
       <c r="AA87" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB87" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC87" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD87" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE87" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB87" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC87" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD87" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE87" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="88" spans="1:31">
@@ -10329,10 +10330,10 @@
         <v>341</v>
       </c>
       <c r="F89" s="41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G89" s="41" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H89" s="45"/>
       <c r="I89" s="63">
@@ -10364,7 +10365,7 @@
       <c r="S89" s="51"/>
       <c r="T89" s="51"/>
       <c r="U89" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V89" s="84">
         <f t="shared" si="13"/>
@@ -10375,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="X89" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y89" s="83">
         <f t="shared" si="15"/>
@@ -10386,19 +10387,19 @@
         <v>65</v>
       </c>
       <c r="AA89" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB89" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC89" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD89" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE89" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB89" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC89" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD89" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE89" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="90" spans="1:31" ht="30" customHeight="1">
@@ -10427,10 +10428,10 @@
         <v>341</v>
       </c>
       <c r="F90" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="G90" s="41" t="s">
         <v>412</v>
-      </c>
-      <c r="G90" s="41" t="s">
-        <v>413</v>
       </c>
       <c r="H90" s="45"/>
       <c r="I90" s="63">
@@ -10462,7 +10463,7 @@
       <c r="S90" s="51"/>
       <c r="T90" s="51"/>
       <c r="U90" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V90" s="84">
         <f t="shared" si="13"/>
@@ -10473,7 +10474,7 @@
         <v>0</v>
       </c>
       <c r="X90" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y90" s="83">
         <f t="shared" si="15"/>
@@ -10484,19 +10485,19 @@
         <v>156</v>
       </c>
       <c r="AA90" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB90" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC90" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD90" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE90" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB90" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC90" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD90" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE90" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="91" spans="1:31" ht="30" customHeight="1">
@@ -10525,10 +10526,10 @@
         <v>341</v>
       </c>
       <c r="F91" s="41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G91" s="41" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H91" s="45"/>
       <c r="I91" s="63">
@@ -10560,7 +10561,7 @@
       <c r="S91" s="51"/>
       <c r="T91" s="51"/>
       <c r="U91" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V91" s="84">
         <f t="shared" si="13"/>
@@ -10571,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="X91" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y91" s="83">
         <f t="shared" si="15"/>
@@ -10582,19 +10583,19 @@
         <v>65</v>
       </c>
       <c r="AA91" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB91" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC91" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD91" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE91" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB91" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC91" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD91" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE91" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="30" customHeight="1">
@@ -10623,10 +10624,10 @@
         <v>341</v>
       </c>
       <c r="F92" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="G92" s="41" t="s">
         <v>412</v>
-      </c>
-      <c r="G92" s="41" t="s">
-        <v>413</v>
       </c>
       <c r="H92" s="45"/>
       <c r="I92" s="63">
@@ -10658,7 +10659,7 @@
       <c r="S92" s="51"/>
       <c r="T92" s="51"/>
       <c r="U92" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V92" s="84">
         <f t="shared" si="13"/>
@@ -10669,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="X92" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y92" s="83">
         <f t="shared" si="15"/>
@@ -10680,19 +10681,19 @@
         <v>156</v>
       </c>
       <c r="AA92" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB92" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC92" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD92" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE92" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB92" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC92" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD92" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE92" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="93" spans="1:31">
@@ -10830,7 +10831,7 @@
       <c r="S95" s="51"/>
       <c r="T95" s="51"/>
       <c r="U95" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V95" s="84">
         <f t="shared" si="13"/>
@@ -10841,7 +10842,7 @@
         <v>0</v>
       </c>
       <c r="X95" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y95" s="83">
         <f t="shared" si="15"/>
@@ -10852,19 +10853,19 @@
         <v>421.30399999999997</v>
       </c>
       <c r="AA95" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB95" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC95" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD95" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE95" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB95" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC95" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD95" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE95" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="30" customHeight="1">
@@ -10916,7 +10917,7 @@
       <c r="S96" s="51"/>
       <c r="T96" s="51"/>
       <c r="U96" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V96" s="84">
         <f t="shared" si="13"/>
@@ -10927,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="X96" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y96" s="83">
         <f t="shared" si="15"/>
@@ -10938,19 +10939,19 @@
         <v>421.30399999999997</v>
       </c>
       <c r="AA96" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB96" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC96" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD96" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE96" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB96" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC96" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD96" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE96" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="97" spans="1:31" ht="30" customHeight="1">
@@ -10975,7 +10976,7 @@
         <v>351</v>
       </c>
       <c r="G97" s="47" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H97" s="63">
         <f>MARVEL_Cost!C42</f>
@@ -11000,7 +11001,7 @@
       <c r="S97" s="51"/>
       <c r="T97" s="51"/>
       <c r="U97" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V97" s="84">
         <f t="shared" si="13"/>
@@ -11011,7 +11012,7 @@
         <v>684445.5</v>
       </c>
       <c r="X97" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y97" s="83">
         <f t="shared" si="15"/>
@@ -11022,19 +11023,19 @@
         <v>0</v>
       </c>
       <c r="AA97" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB97" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC97" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD97" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE97" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB97" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC97" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD97" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE97" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="30" customHeight="1">
@@ -11066,16 +11067,16 @@
         <v>118207.77405377067</v>
       </c>
       <c r="J98" s="51" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K98" s="61" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L98" s="51">
         <v>610.21</v>
       </c>
       <c r="M98" s="51" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N98" s="51">
         <v>0.6</v>
@@ -11087,19 +11088,19 @@
         <v>77</v>
       </c>
       <c r="Q98" s="61" t="s">
+        <v>416</v>
+      </c>
+      <c r="R98" s="51" t="s">
         <v>417</v>
       </c>
-      <c r="R98" s="51" t="s">
+      <c r="S98" s="78" t="s">
         <v>418</v>
       </c>
-      <c r="S98" s="78" t="s">
+      <c r="T98" s="51" t="s">
         <v>419</v>
       </c>
-      <c r="T98" s="51" t="s">
-        <v>420</v>
-      </c>
       <c r="U98" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V98" s="84">
         <f t="shared" si="13"/>
@@ -11110,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="X98" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y98" s="83">
         <f t="shared" si="15"/>
@@ -11121,19 +11122,19 @@
         <v>153670.10626990188</v>
       </c>
       <c r="AA98" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB98" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC98" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD98" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE98" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB98" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC98" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD98" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE98" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="99" spans="1:31" ht="51">
@@ -11179,19 +11180,19 @@
         <v>85</v>
       </c>
       <c r="Q99" s="61" t="s">
+        <v>420</v>
+      </c>
+      <c r="R99" s="61" t="s">
+        <v>426</v>
+      </c>
+      <c r="S99" s="78" t="s">
         <v>421</v>
       </c>
-      <c r="R99" s="61" t="s">
-        <v>427</v>
-      </c>
-      <c r="S99" s="78" t="s">
-        <v>422</v>
-      </c>
       <c r="T99" s="51" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="U99" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V99" s="84">
         <f t="shared" si="13"/>
@@ -11202,7 +11203,7 @@
         <v>12750000</v>
       </c>
       <c r="X99" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y99" s="83">
         <f t="shared" si="15"/>
@@ -11213,19 +11214,19 @@
         <v>0</v>
       </c>
       <c r="AA99" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB99" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC99" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD99" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE99" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB99" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC99" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD99" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE99" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="100" spans="1:31">
@@ -11271,7 +11272,7 @@
       <c r="S100" s="51"/>
       <c r="T100" s="51"/>
       <c r="U100" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V100" s="84">
         <f t="shared" si="13"/>
@@ -11282,7 +11283,7 @@
         <v>46440</v>
       </c>
       <c r="X100" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y100" s="83">
         <f t="shared" si="15"/>
@@ -11293,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="AA100" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB100" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC100" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD100" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE100" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB100" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC100" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD100" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE100" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="101" spans="1:31">
@@ -11419,10 +11420,10 @@
         <v>12504</v>
       </c>
       <c r="J103" s="51" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K103" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L103" s="51">
         <v>1</v>
@@ -11438,17 +11439,17 @@
         <v>77</v>
       </c>
       <c r="Q103" s="61" t="s">
+        <v>423</v>
+      </c>
+      <c r="R103" s="61" t="s">
+        <v>423</v>
+      </c>
+      <c r="S103" s="78" t="s">
         <v>424</v>
-      </c>
-      <c r="R103" s="61" t="s">
-        <v>424</v>
-      </c>
-      <c r="S103" s="78" t="s">
-        <v>425</v>
       </c>
       <c r="T103" s="51"/>
       <c r="U103" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V103" s="84">
         <f t="shared" si="13"/>
@@ -11459,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="X103" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y103" s="83">
         <f t="shared" si="15"/>
@@ -11470,19 +11471,19 @@
         <v>16255.2</v>
       </c>
       <c r="AA103" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB103" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC103" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD103" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE103" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB103" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC103" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD103" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE103" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="51">
@@ -11494,7 +11495,7 @@
         <v>2</v>
       </c>
       <c r="C104" s="58" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D104" s="41" t="str">
         <f>REPT("   ", B104*2) &amp; C104</f>
@@ -11521,17 +11522,17 @@
         <v>77</v>
       </c>
       <c r="Q104" s="61" t="s">
+        <v>420</v>
+      </c>
+      <c r="R104" s="61" t="s">
+        <v>426</v>
+      </c>
+      <c r="S104" s="78" t="s">
         <v>421</v>
-      </c>
-      <c r="R104" s="61" t="s">
-        <v>427</v>
-      </c>
-      <c r="S104" s="78" t="s">
-        <v>422</v>
       </c>
       <c r="T104" s="51"/>
       <c r="U104" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V104" s="84">
         <f t="shared" si="13"/>
@@ -11542,7 +11543,7 @@
         <v>1500000</v>
       </c>
       <c r="X104" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y104" s="83">
         <f t="shared" si="15"/>
@@ -11553,19 +11554,19 @@
         <v>0</v>
       </c>
       <c r="AA104" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AB104" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AC104" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AD104" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AE104" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="105" spans="1:31">
@@ -11620,7 +11621,7 @@
         <v>2</v>
       </c>
       <c r="C106" s="79" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D106" s="41" t="str">
         <f t="shared" si="38"/>
@@ -11657,16 +11658,16 @@
       <c r="P106" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="Q106" s="91" t="s">
-        <v>428</v>
-      </c>
-      <c r="R106" s="91" t="s">
+      <c r="Q106" s="92" t="s">
+        <v>427</v>
+      </c>
+      <c r="R106" s="92" t="s">
         <v>365</v>
       </c>
       <c r="S106" s="51"/>
       <c r="T106" s="51"/>
       <c r="U106" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V106" s="84">
         <f t="shared" si="13"/>
@@ -11677,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="X106" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y106" s="83">
         <f t="shared" si="15"/>
@@ -11688,19 +11689,19 @@
         <v>16391.712734282046</v>
       </c>
       <c r="AA106" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AB106" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AC106" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AD106" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AE106" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="107" spans="1:31">
@@ -11712,7 +11713,7 @@
         <v>2</v>
       </c>
       <c r="C107" s="79" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D107" s="41" t="str">
         <f t="shared" si="38"/>
@@ -11749,12 +11750,12 @@
       <c r="P107" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="Q107" s="91"/>
-      <c r="R107" s="91"/>
+      <c r="Q107" s="92"/>
+      <c r="R107" s="92"/>
       <c r="S107" s="51"/>
       <c r="T107" s="51"/>
       <c r="U107" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V107" s="84">
         <f t="shared" si="13"/>
@@ -11765,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="X107" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y107" s="83">
         <f t="shared" si="15"/>
@@ -11776,19 +11777,19 @@
         <v>13628.001565392728</v>
       </c>
       <c r="AA107" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AB107" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AC107" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AD107" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AE107" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="108" spans="1:31">
@@ -11800,7 +11801,7 @@
         <v>2</v>
       </c>
       <c r="C108" s="79" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D108" s="41" t="str">
         <f t="shared" si="38"/>
@@ -11837,12 +11838,12 @@
       <c r="P108" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="Q108" s="91"/>
-      <c r="R108" s="91"/>
+      <c r="Q108" s="92"/>
+      <c r="R108" s="92"/>
       <c r="S108" s="51"/>
       <c r="T108" s="51"/>
       <c r="U108" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V108" s="84">
         <f t="shared" si="13"/>
@@ -11853,7 +11854,7 @@
         <v>0</v>
       </c>
       <c r="X108" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y108" s="83">
         <f t="shared" si="15"/>
@@ -11864,19 +11865,19 @@
         <v>4425.2799704641247</v>
       </c>
       <c r="AA108" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AB108" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AC108" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AD108" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AE108" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="109" spans="1:31">
@@ -11888,7 +11889,7 @@
         <v>2</v>
       </c>
       <c r="C109" s="79" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D109" s="41" t="str">
         <f t="shared" si="38"/>
@@ -11925,12 +11926,12 @@
       <c r="P109" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="Q109" s="91"/>
-      <c r="R109" s="91"/>
+      <c r="Q109" s="92"/>
+      <c r="R109" s="92"/>
       <c r="S109" s="51"/>
       <c r="T109" s="51"/>
       <c r="U109" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V109" s="84">
         <f t="shared" si="13"/>
@@ -11941,7 +11942,7 @@
         <v>0</v>
       </c>
       <c r="X109" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y109" s="83">
         <f t="shared" si="15"/>
@@ -11952,19 +11953,19 @@
         <v>12708.990824658749</v>
       </c>
       <c r="AA109" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AB109" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AC109" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AD109" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AE109" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="110" spans="1:31" ht="25.5">
@@ -11976,7 +11977,7 @@
         <v>2</v>
       </c>
       <c r="C110" s="79" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D110" s="41" t="str">
         <f t="shared" si="38"/>
@@ -12013,12 +12014,12 @@
       <c r="P110" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="Q110" s="91"/>
-      <c r="R110" s="91"/>
+      <c r="Q110" s="92"/>
+      <c r="R110" s="92"/>
       <c r="S110" s="51"/>
       <c r="T110" s="51"/>
       <c r="U110" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V110" s="84">
         <f t="shared" si="13"/>
@@ -12029,7 +12030,7 @@
         <v>0</v>
       </c>
       <c r="X110" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y110" s="83">
         <f t="shared" si="15"/>
@@ -12040,19 +12041,19 @@
         <v>68536.913265290917</v>
       </c>
       <c r="AA110" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AB110" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AC110" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AD110" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AE110" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="111" spans="1:31">
@@ -12064,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="C111" s="79" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D111" s="41" t="str">
         <f t="shared" si="38"/>
@@ -12101,12 +12102,12 @@
       <c r="P111" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="Q111" s="91"/>
-      <c r="R111" s="91"/>
+      <c r="Q111" s="92"/>
+      <c r="R111" s="92"/>
       <c r="S111" s="51"/>
       <c r="T111" s="51"/>
       <c r="U111" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V111" s="84">
         <f t="shared" si="13"/>
@@ -12117,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="X111" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y111" s="83">
         <f t="shared" si="15"/>
@@ -12128,19 +12129,19 @@
         <v>51833.042585647956</v>
       </c>
       <c r="AA111" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AB111" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AC111" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AD111" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AE111" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="112" spans="1:31">
@@ -12225,16 +12226,16 @@
       <c r="P113" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="Q113" s="90" t="s">
+      <c r="Q113" s="87" t="s">
         <v>369</v>
       </c>
-      <c r="R113" s="90" t="s">
+      <c r="R113" s="87" t="s">
         <v>370</v>
       </c>
       <c r="S113" s="51"/>
       <c r="T113" s="51"/>
       <c r="U113" s="80" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V113" s="84">
         <f t="shared" si="13"/>
@@ -12245,7 +12246,7 @@
         <v>0</v>
       </c>
       <c r="X113" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y113" s="83">
         <f t="shared" si="15"/>
@@ -12256,19 +12257,19 @@
         <v>239.20000000000002</v>
       </c>
       <c r="AA113" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB113" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC113" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD113" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE113" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB113" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC113" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD113" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE113" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="114" spans="1:31">
@@ -12310,12 +12311,12 @@
       <c r="P114" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="Q114" s="90"/>
-      <c r="R114" s="90"/>
+      <c r="Q114" s="87"/>
+      <c r="R114" s="87"/>
       <c r="S114" s="51"/>
       <c r="T114" s="51"/>
       <c r="U114" s="80" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V114" s="84">
         <f t="shared" si="13"/>
@@ -12326,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="X114" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y114" s="83">
         <f t="shared" si="15"/>
@@ -12337,19 +12338,19 @@
         <v>19.63</v>
       </c>
       <c r="AA114" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB114" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC114" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD114" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE114" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB114" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC114" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD114" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE114" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="115" spans="1:31">
@@ -12393,12 +12394,12 @@
       <c r="P115" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="Q115" s="90"/>
-      <c r="R115" s="90"/>
+      <c r="Q115" s="87"/>
+      <c r="R115" s="87"/>
       <c r="S115" s="51"/>
       <c r="T115" s="51"/>
       <c r="U115" s="80" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V115" s="84">
         <f t="shared" si="13"/>
@@ -12409,7 +12410,7 @@
         <v>0</v>
       </c>
       <c r="X115" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y115" s="83">
         <f t="shared" si="15"/>
@@ -12420,19 +12421,19 @@
         <v>239.45999999999998</v>
       </c>
       <c r="AA115" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB115" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC115" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD115" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE115" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB115" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC115" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD115" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE115" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="116" spans="1:31" ht="25.5">
@@ -12478,12 +12479,12 @@
       <c r="P116" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="Q116" s="90"/>
-      <c r="R116" s="90"/>
+      <c r="Q116" s="87"/>
+      <c r="R116" s="87"/>
       <c r="S116" s="51"/>
       <c r="T116" s="51"/>
       <c r="U116" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V116" s="84">
         <f t="shared" si="13"/>
@@ -12494,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="X116" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y116" s="83">
         <f t="shared" si="15"/>
@@ -12505,19 +12506,19 @@
         <v>1976</v>
       </c>
       <c r="AA116" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB116" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC116" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD116" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE116" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB116" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC116" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD116" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE116" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="117" spans="1:31" ht="25.5">
@@ -12570,12 +12571,12 @@
       <c r="P117" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="Q117" s="90"/>
-      <c r="R117" s="90"/>
+      <c r="Q117" s="87"/>
+      <c r="R117" s="87"/>
       <c r="S117" s="51"/>
       <c r="T117" s="51"/>
       <c r="U117" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V117" s="84">
         <f t="shared" si="13"/>
@@ -12586,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="X117" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y117" s="83">
         <f t="shared" si="15"/>
@@ -12597,19 +12598,19 @@
         <v>13000</v>
       </c>
       <c r="AA117" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB117" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC117" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD117" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE117" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB117" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC117" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD117" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE117" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="118" spans="1:31" ht="30" customHeight="1">
@@ -12656,7 +12657,7 @@
       <c r="S118" s="51"/>
       <c r="T118" s="51"/>
       <c r="U118" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V118" s="84">
         <f t="shared" si="13"/>
@@ -12667,7 +12668,7 @@
         <v>1500000</v>
       </c>
       <c r="X118" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y118" s="83">
         <f t="shared" si="15"/>
@@ -12678,19 +12679,19 @@
         <v>0</v>
       </c>
       <c r="AA118" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB118" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC118" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD118" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE118" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB118" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC118" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD118" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE118" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="119" spans="1:31">
@@ -12863,14 +12864,14 @@
       <c r="P122" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="Q122" s="87" t="s">
+      <c r="Q122" s="88" t="s">
         <v>364</v>
       </c>
       <c r="R122" s="48"/>
       <c r="S122" s="48"/>
       <c r="T122" s="48"/>
       <c r="U122" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V122" s="84">
         <f t="shared" si="13"/>
@@ -12881,7 +12882,7 @@
         <v>3610749.6000000006</v>
       </c>
       <c r="X122" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y122" s="83">
         <f t="shared" si="15"/>
@@ -12892,19 +12893,19 @@
         <v>0</v>
       </c>
       <c r="AA122" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB122" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC122" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD122" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE122" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB122" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC122" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD122" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE122" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="123" spans="1:31" ht="30" customHeight="1">
@@ -12943,12 +12944,12 @@
       <c r="P123" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="Q123" s="87"/>
+      <c r="Q123" s="88"/>
       <c r="R123" s="48"/>
       <c r="S123" s="48"/>
       <c r="T123" s="48"/>
       <c r="U123" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V123" s="84">
         <f t="shared" si="13"/>
@@ -12959,7 +12960,7 @@
         <v>1248962.0999999999</v>
       </c>
       <c r="X123" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y123" s="83">
         <f t="shared" si="15"/>
@@ -12970,19 +12971,19 @@
         <v>0</v>
       </c>
       <c r="AA123" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB123" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC123" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD123" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE123" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB123" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC123" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD123" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE123" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="124" spans="1:31">
@@ -13021,12 +13022,12 @@
       <c r="P124" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="Q124" s="87"/>
+      <c r="Q124" s="88"/>
       <c r="R124" s="51"/>
       <c r="S124" s="51"/>
       <c r="T124" s="51"/>
       <c r="U124" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V124" s="84">
         <f t="shared" si="13"/>
@@ -13037,7 +13038,7 @@
         <v>930470.3816067474</v>
       </c>
       <c r="X124" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y124" s="83">
         <f t="shared" si="15"/>
@@ -13048,19 +13049,19 @@
         <v>0</v>
       </c>
       <c r="AA124" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB124" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC124" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD124" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE124" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB124" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC124" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD124" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE124" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="125" spans="1:31">
@@ -13099,12 +13100,12 @@
       <c r="P125" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="Q125" s="87"/>
+      <c r="Q125" s="88"/>
       <c r="R125" s="51"/>
       <c r="S125" s="51"/>
       <c r="T125" s="51"/>
       <c r="U125" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V125" s="84">
         <f t="shared" si="13"/>
@@ -13115,7 +13116,7 @@
         <v>625438.40399999951</v>
       </c>
       <c r="X125" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y125" s="83">
         <f t="shared" si="15"/>
@@ -13126,19 +13127,19 @@
         <v>0</v>
       </c>
       <c r="AA125" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB125" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC125" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD125" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE125" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB125" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC125" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD125" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE125" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="126" spans="1:31">
@@ -13221,14 +13222,14 @@
       </c>
       <c r="Q127" s="44"/>
       <c r="R127" s="51" t="s">
+        <v>454</v>
+      </c>
+      <c r="S127" s="51" t="s">
         <v>455</v>
-      </c>
-      <c r="S127" s="51" t="s">
-        <v>456</v>
       </c>
       <c r="T127" s="51"/>
       <c r="U127" s="80" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V127" s="84">
         <f t="shared" si="13"/>
@@ -13239,7 +13240,7 @@
         <v>450000</v>
       </c>
       <c r="X127" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y127" s="83">
         <f t="shared" si="15"/>
@@ -13250,19 +13251,19 @@
         <v>0</v>
       </c>
       <c r="AA127" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB127" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC127" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD127" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE127" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB127" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC127" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD127" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE127" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="128" spans="1:31">
@@ -13485,7 +13486,7 @@
       <c r="S132" s="51"/>
       <c r="T132" s="51"/>
       <c r="U132" s="80" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V132" s="84">
         <f t="shared" ref="V132:V141" si="41">0.9*$H132</f>
@@ -13496,7 +13497,7 @@
         <v>0</v>
       </c>
       <c r="X132" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y132" s="83">
         <f t="shared" ref="Y132:Y141" si="43">0.9*I132</f>
@@ -13507,19 +13508,19 @@
         <v>232050</v>
       </c>
       <c r="AA132" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB132" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC132" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD132" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE132" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB132" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC132" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD132" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE132" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="133" spans="1:31" ht="30" customHeight="1">
@@ -13574,7 +13575,7 @@
       <c r="S133" s="51"/>
       <c r="T133" s="51"/>
       <c r="U133" s="80" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V133" s="84">
         <f t="shared" si="41"/>
@@ -13585,7 +13586,7 @@
         <v>0</v>
       </c>
       <c r="X133" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y133" s="83">
         <f t="shared" si="43"/>
@@ -13596,19 +13597,19 @@
         <v>232050</v>
       </c>
       <c r="AA133" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB133" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC133" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD133" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE133" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB133" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC133" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD133" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE133" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="134" spans="1:31" ht="89.25">
@@ -13659,7 +13660,7 @@
       <c r="S134" s="51"/>
       <c r="T134" s="51"/>
       <c r="U134" s="80" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V134" s="84">
         <f t="shared" si="41"/>
@@ -13670,7 +13671,7 @@
         <v>0</v>
       </c>
       <c r="X134" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y134" s="83">
         <f t="shared" si="43"/>
@@ -13681,19 +13682,19 @@
         <v>232050</v>
       </c>
       <c r="AA134" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB134" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC134" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD134" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE134" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB134" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC134" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD134" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE134" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="135" spans="1:31">
@@ -13705,7 +13706,7 @@
         <v>1</v>
       </c>
       <c r="C135" s="58" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D135" s="41" t="str">
         <f t="shared" si="38"/>
@@ -13734,19 +13735,19 @@
       <c r="Y135" s="83"/>
       <c r="Z135" s="83"/>
       <c r="AA135" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AB135" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AC135" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AD135" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AE135" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="136" spans="1:31">
@@ -13933,7 +13934,7 @@
       <c r="S139" s="51"/>
       <c r="T139" s="51"/>
       <c r="U139" s="80" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V139" s="84">
         <f t="shared" si="41"/>
@@ -13944,7 +13945,7 @@
         <v>0</v>
       </c>
       <c r="X139" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y139" s="83">
         <f t="shared" si="43"/>
@@ -13955,19 +13956,19 @@
         <v>232050</v>
       </c>
       <c r="AA139" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB139" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC139" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD139" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE139" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB139" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC139" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD139" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE139" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="140" spans="1:31">
@@ -14059,7 +14060,7 @@
       <c r="S141" s="51"/>
       <c r="T141" s="51"/>
       <c r="U141" s="80" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V141" s="84">
         <f t="shared" si="41"/>
@@ -14070,7 +14071,7 @@
         <v>0</v>
       </c>
       <c r="X141" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y141" s="83">
         <f t="shared" si="43"/>
@@ -14081,24 +14082,57 @@
         <v>1.3</v>
       </c>
       <c r="AA141" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB141" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC141" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD141" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE141" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB141" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC141" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD141" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE141" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:Z141" xr:uid="{F5330BDA-7164-B946-A942-FFAE4F744BBA}"/>
   <mergeCells count="43">
+    <mergeCell ref="Q122:Q125"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="Q45:Q47"/>
+    <mergeCell ref="Q49:Q51"/>
+    <mergeCell ref="Q113:Q117"/>
+    <mergeCell ref="Q106:Q111"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="Q34:Q36"/>
+    <mergeCell ref="R113:R117"/>
+    <mergeCell ref="R84:R85"/>
+    <mergeCell ref="R106:R111"/>
+    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="S20:S22"/>
+    <mergeCell ref="S24:S26"/>
+    <mergeCell ref="S30:S32"/>
+    <mergeCell ref="S34:S36"/>
+    <mergeCell ref="S39:S41"/>
+    <mergeCell ref="R20:R22"/>
+    <mergeCell ref="R24:R26"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="R34:R36"/>
+    <mergeCell ref="Q15:Q17"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="S15:S17"/>
     <mergeCell ref="T84:T85"/>
     <mergeCell ref="R45:R47"/>
     <mergeCell ref="R49:R51"/>
@@ -14108,176 +14142,143 @@
     <mergeCell ref="R64:R68"/>
     <mergeCell ref="S64:S68"/>
     <mergeCell ref="R56:R61"/>
-    <mergeCell ref="Q15:Q17"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="R15:R17"/>
-    <mergeCell ref="S15:S17"/>
-    <mergeCell ref="S24:S26"/>
-    <mergeCell ref="S30:S32"/>
-    <mergeCell ref="S34:S36"/>
-    <mergeCell ref="S39:S41"/>
-    <mergeCell ref="R20:R22"/>
-    <mergeCell ref="R24:R26"/>
-    <mergeCell ref="R30:R32"/>
-    <mergeCell ref="R34:R36"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="S20:S22"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="Q24:Q26"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="Q34:Q36"/>
-    <mergeCell ref="R113:R117"/>
-    <mergeCell ref="R84:R85"/>
-    <mergeCell ref="R106:R111"/>
-    <mergeCell ref="Q122:Q125"/>
-    <mergeCell ref="Q39:Q41"/>
-    <mergeCell ref="Q45:Q47"/>
-    <mergeCell ref="Q49:Q51"/>
-    <mergeCell ref="Q113:Q117"/>
-    <mergeCell ref="Q106:Q111"/>
-    <mergeCell ref="R39:R41"/>
     <mergeCell ref="S84:S85"/>
   </mergeCells>
-  <conditionalFormatting sqref="A84:F86 A87:T87 A95:Q96 S95:T96 A106:B111 S106:T111 A112:T112 L113:T113 L114:P114 S114:T118 I115:P115 A118:R118 R122:T127 A128:T131 A132:H133 S89:T92 A134:J135">
-    <cfRule type="expression" dxfId="99" priority="226">
-      <formula>$B84=3</formula>
+  <conditionalFormatting sqref="A84:F86 A87:T87 S89:T92 A95:Q96 S95:T96 A106:B111 S106:T111 A112:T112 L113:T113 L114:P114 S114:T118 I115:P115 A118:R118 R122:T127 A128:T131 A132:H133 A134:J135">
+    <cfRule type="expression" dxfId="99" priority="228">
+      <formula>$B84&lt;2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="98" priority="227">
       <formula>$B84=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="228">
-      <formula>$B84&lt;2</formula>
+    <cfRule type="expression" dxfId="97" priority="226">
+      <formula>$B84=3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69:K69 A95:Q96 S95:T96 S89:T92 A134:J135">
+  <conditionalFormatting sqref="A69:K69 S89:T92 A95:Q96 S95:T96 A134:J135">
     <cfRule type="expression" dxfId="96" priority="22">
       <formula>$B69=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AE141">
-    <cfRule type="expression" dxfId="95" priority="174">
-      <formula>$B1=3</formula>
+  <conditionalFormatting sqref="A120:P127">
+    <cfRule type="expression" dxfId="95" priority="123">
+      <formula>$B120=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="175">
-      <formula>$B1=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="176">
-      <formula>$B1&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="177">
-      <formula>$B1=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A120:P127">
-    <cfRule type="expression" dxfId="91" priority="122">
+    <cfRule type="expression" dxfId="94" priority="122">
       <formula>$B120=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="123">
-      <formula>$B120=2</formula>
+    <cfRule type="expression" dxfId="93" priority="125">
+      <formula>$B120=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="124">
+    <cfRule type="expression" dxfId="92" priority="124">
       <formula>$B120&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="125">
-      <formula>$B120=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:S83">
-    <cfRule type="expression" dxfId="87" priority="230">
+    <cfRule type="expression" dxfId="91" priority="233">
+      <formula>$B83=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="231">
+      <formula>$B83=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="230">
       <formula>$B83=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="231">
-      <formula>$B83=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="232">
+    <cfRule type="expression" dxfId="88" priority="232">
       <formula>$B83&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="233">
-      <formula>$B83=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:T82">
-    <cfRule type="expression" dxfId="83" priority="13">
-      <formula>$B62=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="14">
+    <cfRule type="expression" dxfId="87" priority="14">
       <formula>$B62=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="15">
+    <cfRule type="expression" dxfId="86" priority="15">
       <formula>$B62&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="13">
+      <formula>$B62=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:T71">
-    <cfRule type="expression" dxfId="80" priority="72">
+    <cfRule type="expression" dxfId="84" priority="72">
       <formula>$B71=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87:T87 A97:T105 A112:T112 L113:T113 L114:P114 I115:P115 A118:R118 A128:T131 A132:H133 A84:F86 A106:B111 S106:T111 S114:T118 R122:T127">
-    <cfRule type="expression" dxfId="79" priority="229">
+    <cfRule type="expression" dxfId="83" priority="229">
       <formula>$B84=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:T94 A97:T105">
-    <cfRule type="expression" dxfId="78" priority="60">
+    <cfRule type="expression" dxfId="82" priority="60">
       <formula>$B93=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="61">
+    <cfRule type="expression" dxfId="81" priority="61">
       <formula>$B93=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="62">
+    <cfRule type="expression" dxfId="80" priority="62">
       <formula>$B93&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:T94">
-    <cfRule type="expression" dxfId="75" priority="197">
+    <cfRule type="expression" dxfId="79" priority="197">
       <formula>$B93=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119:T119">
-    <cfRule type="expression" dxfId="74" priority="158">
+    <cfRule type="expression" dxfId="78" priority="161">
+      <formula>$B119=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="158">
       <formula>$B119=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="159">
+    <cfRule type="expression" dxfId="76" priority="159">
       <formula>$B119=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="160">
+    <cfRule type="expression" dxfId="75" priority="160">
       <formula>$B119&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="161">
-      <formula>$B119=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138:T141">
-    <cfRule type="expression" dxfId="70" priority="90">
+    <cfRule type="expression" dxfId="74" priority="91">
+      <formula>$B138=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="90">
       <formula>$B138=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="91">
-      <formula>$B138=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="92">
+    <cfRule type="expression" dxfId="72" priority="92">
       <formula>$B138&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="93">
+    <cfRule type="expression" dxfId="71" priority="93">
       <formula>$B138=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AE141">
+    <cfRule type="expression" dxfId="70" priority="175">
+      <formula>$B1=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="176">
+      <formula>$B1&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="174">
+      <formula>$B1=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="177">
+      <formula>$B1=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C106:R106 C107:P111">
-    <cfRule type="expression" dxfId="66" priority="49">
-      <formula>$B106=3</formula>
+    <cfRule type="expression" dxfId="66" priority="52">
+      <formula>$B106=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="50">
+    <cfRule type="expression" dxfId="65" priority="51">
+      <formula>$B106&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="50">
       <formula>$B106=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="51">
-      <formula>$B106&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="52">
-      <formula>$B106=0</formula>
+    <cfRule type="expression" dxfId="63" priority="49">
+      <formula>$B106=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
@@ -14310,20 +14311,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D112:D141 D2:D68 D70 D72:D105">
+    <cfRule type="colorScale" priority="491">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E106:O111">
     <cfRule type="expression" dxfId="62" priority="48">
       <formula>_xlfn.ISFORMULA(E106)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84:G85">
-    <cfRule type="expression" dxfId="61" priority="222">
-      <formula>$B84=3</formula>
+    <cfRule type="expression" dxfId="61" priority="224">
+      <formula>$B84&lt;2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="60" priority="223">
       <formula>$B84=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="224">
-      <formula>$B84&lt;2</formula>
+    <cfRule type="expression" dxfId="59" priority="222">
+      <formula>$B84=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="58" priority="225">
       <formula>$B84=0</formula>
@@ -14333,14 +14344,14 @@
     <cfRule type="expression" dxfId="57" priority="28">
       <formula>$B5=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="29">
-      <formula>$B5=2</formula>
+    <cfRule type="expression" dxfId="56" priority="31">
+      <formula>$B5=0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="55" priority="30">
       <formula>$B5&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="31">
-      <formula>$B5=0</formula>
+    <cfRule type="expression" dxfId="54" priority="29">
+      <formula>$B5=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59:J61">
@@ -14378,14 +14389,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56:T56 S57:T61">
-    <cfRule type="expression" dxfId="45" priority="85">
+    <cfRule type="expression" dxfId="45" priority="87">
+      <formula>$B56&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="85">
       <formula>$B56=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="86">
+    <cfRule type="expression" dxfId="43" priority="86">
       <formula>$B56=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="87">
-      <formula>$B56&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69">
@@ -14394,59 +14405,59 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132:J133">
-    <cfRule type="expression" dxfId="41" priority="106">
+    <cfRule type="expression" dxfId="41" priority="108">
+      <formula>$B133&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="106">
       <formula>$B133=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="107">
+    <cfRule type="expression" dxfId="39" priority="107">
       <formula>$B133=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="108">
-      <formula>$B133&lt;2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="38" priority="109">
       <formula>$B133=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I113:K114">
-    <cfRule type="expression" dxfId="37" priority="186">
+    <cfRule type="expression" dxfId="37" priority="189">
+      <formula>$B113=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="186">
       <formula>$B113=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="187">
+    <cfRule type="expression" dxfId="35" priority="187">
       <formula>$B113=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="188">
+    <cfRule type="expression" dxfId="34" priority="188">
       <formula>$B113&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="189">
-      <formula>$B113=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J88">
-    <cfRule type="expression" dxfId="33" priority="35">
-      <formula>$B88=0</formula>
+    <cfRule type="expression" dxfId="33" priority="428">
+      <formula>#REF!=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="425">
-      <formula>#REF!=2</formula>
+    <cfRule type="expression" dxfId="32" priority="427">
+      <formula>#REF!=0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="31" priority="426">
       <formula>#REF!&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="427">
-      <formula>#REF!=0</formula>
+    <cfRule type="expression" dxfId="30" priority="425">
+      <formula>#REF!=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="428">
-      <formula>#REF!=3</formula>
+    <cfRule type="expression" dxfId="29" priority="35">
+      <formula>$B88=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J88:T88">
-    <cfRule type="expression" dxfId="28" priority="32">
-      <formula>$B88=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="33">
+    <cfRule type="expression" dxfId="28" priority="33">
       <formula>$B88=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="34">
+    <cfRule type="expression" dxfId="27" priority="34">
       <formula>$B88&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="32">
+      <formula>$B88=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L69">
@@ -14470,14 +14481,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O119">
-    <cfRule type="expression" dxfId="21" priority="243">
+    <cfRule type="expression" dxfId="21" priority="245">
+      <formula>$B120&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="243">
       <formula>$B120=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="244">
+    <cfRule type="expression" dxfId="19" priority="244">
       <formula>$B120=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="245">
-      <formula>$B120&lt;2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="246">
       <formula>$B120=0</formula>
@@ -14492,28 +14503,28 @@
     <cfRule type="expression" dxfId="16" priority="170">
       <formula>$B122=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="171">
-      <formula>$B122=2</formula>
+    <cfRule type="expression" dxfId="15" priority="173">
+      <formula>$B122=0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="172">
       <formula>$B122&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="173">
-      <formula>$B122=0</formula>
+    <cfRule type="expression" dxfId="13" priority="171">
+      <formula>$B122=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q126:Q127">
-    <cfRule type="expression" dxfId="12" priority="166">
-      <formula>$B126=3</formula>
+    <cfRule type="expression" dxfId="12" priority="169">
+      <formula>$B126=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="167">
+    <cfRule type="expression" dxfId="11" priority="168">
+      <formula>$B126&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="167">
       <formula>$B126=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="168">
-      <formula>$B126&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="169">
-      <formula>$B126=0</formula>
+    <cfRule type="expression" dxfId="9" priority="166">
+      <formula>$B126=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q75:T76">
@@ -14522,17 +14533,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q120:T121">
-    <cfRule type="expression" dxfId="7" priority="130">
+    <cfRule type="expression" dxfId="7" priority="133">
+      <formula>$B120=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="130">
       <formula>$B120=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="131">
+    <cfRule type="expression" dxfId="5" priority="131">
       <formula>$B120=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="132">
+    <cfRule type="expression" dxfId="4" priority="132">
       <formula>$B120&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="133">
-      <formula>$B120=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S84">
@@ -14547,16 +14558,6 @@
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="254">
       <formula>$B83=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D112:D141 D2:D68 D70 D72:D105">
-    <cfRule type="colorScale" priority="491">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="14">
@@ -17424,7 +17425,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B9">
         <v>0.08</v>
@@ -17432,18 +17433,18 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="102" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B11">
         <v>0.5</v>
@@ -17452,7 +17453,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B12">
         <v>0.6</v>
@@ -17461,7 +17462,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B13">
         <v>0.4</v>
@@ -17470,7 +17471,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B14">
         <v>0.3</v>
@@ -17479,7 +17480,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B15">
         <v>20</v>

--- a/cost/Cost_Database.xlsx
+++ b/cost/Cost_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user\mouse\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DCF7DC-4886-46DD-8BCA-0D9D4355AFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224B1060-DDF9-48E2-8346-63E5471A3B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="491">
   <si>
     <t>Account</t>
   </si>
@@ -1834,6 +1834,13 @@
   <si>
     <t>Implemented on the python side. 
 Chosen over default due to uncertainty in compressor Pressure Ratio changes based on reactor TH</t>
+  </si>
+  <si>
+    <t>Implemented on non_direct_cost.py
+The cost is scaled as a fraction of CAPEX (15%)</t>
+  </si>
+  <si>
+    <t>Venneri, (2023) and INL/EXT-21-63067</t>
   </si>
 </sst>
 </file>
@@ -3638,10 +3645,10 @@
   <dimension ref="A1:AH141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="R78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="Q132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A86" sqref="A86"/>
+      <selection pane="bottomRight" activeCell="Q137" sqref="Q137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
@@ -13750,7 +13757,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="136" spans="1:31">
+    <row r="136" spans="1:31" ht="25.5">
       <c r="A136" s="39">
         <v>75</v>
       </c>
@@ -13777,8 +13784,12 @@
       <c r="N136" s="51"/>
       <c r="O136" s="68"/>
       <c r="P136" s="51"/>
-      <c r="Q136" s="61"/>
-      <c r="R136" s="61"/>
+      <c r="Q136" s="61" t="s">
+        <v>490</v>
+      </c>
+      <c r="R136" s="61" t="s">
+        <v>490</v>
+      </c>
       <c r="S136" s="51"/>
       <c r="T136" s="51"/>
       <c r="U136" s="80"/>
@@ -13830,7 +13841,9 @@
       <c r="Q137" s="61"/>
       <c r="R137" s="61"/>
       <c r="S137" s="51"/>
-      <c r="T137" s="51"/>
+      <c r="T137" s="61" t="s">
+        <v>489</v>
+      </c>
       <c r="U137" s="80"/>
       <c r="V137" s="84"/>
       <c r="W137" s="84"/>

--- a/cost/Cost_Database.xlsx
+++ b/cost/Cost_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user\mouse\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0012D395-8DBF-4E81-994C-2F4DD0B570A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB96E22-E606-44E6-A98E-62124BE95389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Database" sheetId="2" r:id="rId1"/>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="508">
   <si>
     <t>Account</t>
   </si>
@@ -1487,9 +1487,6 @@
   </si>
   <si>
     <t>NTRD-FCO-2018-000439</t>
-  </si>
-  <si>
-    <t>Implemented on the python side</t>
   </si>
   <si>
     <t>Hoffman et al. (2020). Improvement of ACCERT Algorithm - FY20 (No. ANL/NSE-20/28). Argonne National Laboratory.(ANL), Argonne, IL (United States).</t>
@@ -1878,6 +1875,24 @@
   </si>
   <si>
     <t>Vessel Material</t>
+  </si>
+  <si>
+    <t>Implemented on non_direct_cost.py
+The cost is scaled as a fraction of CAPEX (15%)</t>
+  </si>
+  <si>
+    <t>Venneri, (2023) and INL/EXT-21-63067</t>
+  </si>
+  <si>
+    <t>Implemented on non_direct_cost.py
+Cost is scaled as a fraction of CAPEX unless specific parameters are added to indicate more/less frequent replacements (e.g. GCMR)</t>
+  </si>
+  <si>
+    <t>Implemented on the python side. 
+Chosen over default due to uncertainty in compressor Pressure Ratio changes based on reactor TH</t>
+  </si>
+  <si>
+    <t>Added a custom building for GCMR based on CAD drawing</t>
   </si>
 </sst>
 </file>
@@ -2291,7 +2306,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2510,23 +2525,29 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2537,20 +2558,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2575,6 +2590,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3792,10 +3816,10 @@
   <dimension ref="A1:AH148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="S45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R89" sqref="R89:R90"/>
+      <selection pane="bottomRight" activeCell="S45" sqref="S45:S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
@@ -3892,37 +3916,37 @@
         <v>62</v>
       </c>
       <c r="U1" s="85" t="s">
+        <v>456</v>
+      </c>
+      <c r="V1" s="85" t="s">
         <v>457</v>
       </c>
-      <c r="V1" s="85" t="s">
+      <c r="W1" s="85" t="s">
         <v>458</v>
       </c>
-      <c r="W1" s="85" t="s">
+      <c r="X1" s="85" t="s">
         <v>459</v>
       </c>
-      <c r="X1" s="85" t="s">
+      <c r="Y1" s="85" t="s">
         <v>460</v>
       </c>
-      <c r="Y1" s="85" t="s">
+      <c r="Z1" s="85" t="s">
         <v>461</v>
       </c>
-      <c r="Z1" s="85" t="s">
+      <c r="AA1" s="85" t="s">
         <v>462</v>
       </c>
-      <c r="AA1" s="85" t="s">
+      <c r="AB1" s="85" t="s">
         <v>463</v>
       </c>
-      <c r="AB1" s="85" t="s">
+      <c r="AC1" s="85" t="s">
         <v>464</v>
       </c>
-      <c r="AC1" s="85" t="s">
+      <c r="AD1" s="85" t="s">
         <v>465</v>
       </c>
-      <c r="AD1" s="85" t="s">
+      <c r="AE1" s="85" t="s">
         <v>466</v>
-      </c>
-      <c r="AE1" s="85" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="9" customFormat="1">
@@ -4026,15 +4050,15 @@
       <c r="Q3" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="89" t="s">
-        <v>446</v>
-      </c>
-      <c r="S3" s="91" t="s">
+      <c r="R3" s="91" t="s">
+        <v>445</v>
+      </c>
+      <c r="S3" s="99" t="s">
         <v>56</v>
       </c>
       <c r="T3" s="51"/>
       <c r="U3" s="80" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V3" s="84">
         <f>0.9*$H3</f>
@@ -4045,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y3" s="83">
         <f t="shared" ref="Y3" si="2">0.9*I3</f>
@@ -4056,19 +4080,19 @@
         <v>4940</v>
       </c>
       <c r="AA3" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB3" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC3" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD3" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE3" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB3" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC3" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD3" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE3" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -4116,11 +4140,11 @@
       <c r="Q4" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="89"/>
-      <c r="S4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="99"/>
       <c r="T4" s="51"/>
       <c r="U4" s="80" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V4" s="84">
         <f t="shared" ref="V4:V72" si="4">0.9*$H4</f>
@@ -4131,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y4" s="83">
         <f t="shared" ref="Y4:Y72" si="6">0.9*I4</f>
@@ -4142,19 +4166,19 @@
         <v>13039</v>
       </c>
       <c r="AA4" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB4" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC4" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD4" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE4" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB4" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC4" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD4" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE4" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -4196,15 +4220,15 @@
       <c r="Q5" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="89" t="s">
+      <c r="R5" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="S5" s="91" t="s">
+      <c r="S5" s="99" t="s">
         <v>59</v>
       </c>
       <c r="T5" s="51"/>
       <c r="U5" s="80" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="V5" s="84">
         <f>45*1000000</f>
@@ -4215,7 +4239,7 @@
         <v>70000000</v>
       </c>
       <c r="X5" s="80" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Y5" s="83">
         <f t="shared" si="6"/>
@@ -4226,19 +4250,19 @@
         <v>0</v>
       </c>
       <c r="AA5" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB5" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC5" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD5" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE5" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB5" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC5" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD5" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE5" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -4279,11 +4303,11 @@
       <c r="Q6" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="89"/>
-      <c r="S6" s="91"/>
+      <c r="R6" s="91"/>
+      <c r="S6" s="99"/>
       <c r="T6" s="51"/>
       <c r="U6" s="80" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V6" s="84">
         <f t="shared" si="4"/>
@@ -4294,7 +4318,7 @@
         <v>4500000</v>
       </c>
       <c r="X6" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y6" s="83">
         <f t="shared" si="6"/>
@@ -4305,19 +4329,19 @@
         <v>0</v>
       </c>
       <c r="AA6" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB6" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC6" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD6" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE6" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB6" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC6" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD6" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE6" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="24" customHeight="1">
@@ -4360,7 +4384,7 @@
         <v>60</v>
       </c>
       <c r="R7" s="49" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S7" s="51" t="s">
         <v>61</v>
@@ -4369,7 +4393,7 @@
         <v>63</v>
       </c>
       <c r="U7" s="80" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V7" s="84">
         <f t="shared" si="4"/>
@@ -4380,7 +4404,7 @@
         <v>7815676.5</v>
       </c>
       <c r="X7" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y7" s="83">
         <f t="shared" si="6"/>
@@ -4391,19 +4415,19 @@
         <v>0</v>
       </c>
       <c r="AA7" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB7" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC7" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD7" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE7" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB7" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC7" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD7" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE7" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -4445,7 +4469,7 @@
       <c r="S8" s="52"/>
       <c r="T8" s="52"/>
       <c r="U8" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="V8" s="84"/>
       <c r="W8" s="84"/>
@@ -4586,18 +4610,18 @@
       <c r="P11" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="89" t="s">
+      <c r="Q11" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="R11" s="89" t="s">
+      <c r="R11" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="S11" s="90" t="s">
+      <c r="S11" s="100" t="s">
         <v>84</v>
       </c>
       <c r="T11" s="51"/>
       <c r="U11" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V11" s="84">
         <f t="shared" si="4"/>
@@ -4608,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y11" s="83">
         <f t="shared" si="6"/>
@@ -4619,19 +4643,19 @@
         <v>7621.7432200000012</v>
       </c>
       <c r="AA11" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB11" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC11" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD11" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE11" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB11" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC11" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD11" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE11" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -4683,12 +4707,12 @@
       <c r="P12" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="99"/>
       <c r="T12" s="51"/>
       <c r="U12" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V12" s="84">
         <f t="shared" si="4"/>
@@ -4699,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y12" s="83">
         <f t="shared" si="6"/>
@@ -4710,19 +4734,19 @@
         <v>4435.2308000000003</v>
       </c>
       <c r="AA12" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB12" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC12" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD12" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE12" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB12" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC12" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD12" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE12" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -4767,12 +4791,12 @@
       <c r="P13" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="99"/>
       <c r="T13" s="51"/>
       <c r="U13" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V13" s="84">
         <f t="shared" si="4"/>
@@ -4783,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y13" s="83">
         <f t="shared" si="6"/>
@@ -4794,19 +4818,19 @@
         <v>41.605199999999996</v>
       </c>
       <c r="AA13" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB13" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC13" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD13" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE13" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB13" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC13" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD13" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE13" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -4894,18 +4918,18 @@
       <c r="P15" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q15" s="89" t="s">
+      <c r="Q15" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="89" t="s">
+      <c r="R15" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="S15" s="90" t="s">
+      <c r="S15" s="100" t="s">
         <v>84</v>
       </c>
       <c r="T15" s="51"/>
       <c r="U15" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V15" s="84">
         <f t="shared" si="4"/>
@@ -4916,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y15" s="83">
         <f t="shared" si="6"/>
@@ -4927,19 +4951,19 @@
         <v>2386.8000000000002</v>
       </c>
       <c r="AA15" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB15" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC15" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD15" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE15" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB15" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC15" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD15" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE15" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="25.5">
@@ -4984,12 +5008,12 @@
       <c r="P16" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
+      <c r="S16" s="99"/>
       <c r="T16" s="51"/>
       <c r="U16" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V16" s="84">
         <f t="shared" si="4"/>
@@ -5000,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y16" s="83">
         <f t="shared" si="6"/>
@@ -5011,19 +5035,19 @@
         <v>1877.4170999999999</v>
       </c>
       <c r="AA16" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB16" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC16" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD16" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE16" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB16" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC16" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD16" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE16" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="38.25">
@@ -5068,12 +5092,12 @@
       <c r="P17" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="99"/>
       <c r="T17" s="51"/>
       <c r="U17" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V17" s="84">
         <f t="shared" si="4"/>
@@ -5084,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y17" s="83">
         <f t="shared" si="6"/>
@@ -5095,19 +5119,19 @@
         <v>1434.4866900000002</v>
       </c>
       <c r="AA17" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB17" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC17" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD17" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE17" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB17" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC17" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD17" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE17" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -5238,18 +5262,18 @@
       <c r="P20" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q20" s="89" t="s">
+      <c r="Q20" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="R20" s="89" t="s">
+      <c r="R20" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="S20" s="90" t="s">
+      <c r="S20" s="100" t="s">
         <v>84</v>
       </c>
       <c r="T20" s="51"/>
       <c r="U20" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V20" s="84">
         <f t="shared" si="4"/>
@@ -5260,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y20" s="83">
         <f t="shared" si="6"/>
@@ -5271,19 +5295,19 @@
         <v>2386.8000000000002</v>
       </c>
       <c r="AA20" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB20" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC20" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD20" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE20" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB20" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC20" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD20" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE20" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="25.5">
@@ -5328,12 +5352,12 @@
       <c r="P21" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="91"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="91"/>
+      <c r="S21" s="99"/>
       <c r="T21" s="51"/>
       <c r="U21" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V21" s="84">
         <f t="shared" si="4"/>
@@ -5344,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y21" s="83">
         <f t="shared" si="6"/>
@@ -5355,19 +5379,19 @@
         <v>1877.4170999999999</v>
       </c>
       <c r="AA21" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB21" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC21" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD21" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE21" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB21" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC21" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD21" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE21" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="38.25">
@@ -5399,7 +5423,7 @@
         <v>79</v>
       </c>
       <c r="K22" s="49" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L22" s="48"/>
       <c r="M22" s="47" t="s">
@@ -5412,12 +5436,12 @@
       <c r="P22" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="91"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="91"/>
+      <c r="S22" s="99"/>
       <c r="T22" s="51"/>
       <c r="U22" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V22" s="84">
         <f t="shared" si="4"/>
@@ -5428,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y22" s="83">
         <f t="shared" si="6"/>
@@ -5439,19 +5463,19 @@
         <v>1434.4866900000002</v>
       </c>
       <c r="AA22" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB22" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC22" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD22" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE22" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB22" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC22" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD22" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE22" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -5539,18 +5563,18 @@
       <c r="P24" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q24" s="89" t="s">
+      <c r="Q24" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="R24" s="89" t="s">
+      <c r="R24" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="90" t="s">
+      <c r="S24" s="100" t="s">
         <v>84</v>
       </c>
       <c r="T24" s="51"/>
       <c r="U24" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V24" s="84">
         <f t="shared" si="4"/>
@@ -5561,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y24" s="83">
         <f t="shared" si="6"/>
@@ -5572,19 +5596,19 @@
         <v>2386.8000000000002</v>
       </c>
       <c r="AA24" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB24" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC24" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD24" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE24" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB24" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC24" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD24" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE24" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="25.5">
@@ -5629,12 +5653,12 @@
       <c r="P25" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="91"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="99"/>
       <c r="T25" s="51"/>
       <c r="U25" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V25" s="84">
         <f t="shared" si="4"/>
@@ -5645,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y25" s="83">
         <f t="shared" si="6"/>
@@ -5656,19 +5680,19 @@
         <v>1877.4170999999999</v>
       </c>
       <c r="AA25" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB25" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC25" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD25" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE25" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB25" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC25" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD25" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE25" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="38.25">
@@ -5713,12 +5737,12 @@
       <c r="P26" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q26" s="89"/>
-      <c r="R26" s="89"/>
-      <c r="S26" s="91"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="91"/>
+      <c r="S26" s="99"/>
       <c r="T26" s="51"/>
       <c r="U26" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V26" s="84">
         <f t="shared" si="4"/>
@@ -5729,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y26" s="83">
         <f t="shared" si="6"/>
@@ -5740,19 +5764,19 @@
         <v>1434.4866900000002</v>
       </c>
       <c r="AA26" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB26" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC26" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD26" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE26" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB26" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC26" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD26" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE26" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -5926,18 +5950,18 @@
       <c r="P30" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q30" s="89" t="s">
+      <c r="Q30" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="R30" s="89" t="s">
+      <c r="R30" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="S30" s="90" t="s">
+      <c r="S30" s="100" t="s">
         <v>84</v>
       </c>
       <c r="T30" s="51"/>
       <c r="U30" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V30" s="84">
         <f t="shared" si="4"/>
@@ -5948,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y30" s="83">
         <f t="shared" si="6"/>
@@ -5959,19 +5983,19 @@
         <v>2386.8000000000002</v>
       </c>
       <c r="AA30" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AB30" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AC30" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AD30" s="83" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AE30" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="31" spans="1:31" s="35" customFormat="1" ht="25.5">
@@ -6016,12 +6040,12 @@
       <c r="P31" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q31" s="89"/>
-      <c r="R31" s="89"/>
-      <c r="S31" s="91"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="91"/>
+      <c r="S31" s="99"/>
       <c r="T31" s="51"/>
       <c r="U31" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V31" s="84">
         <f t="shared" si="4"/>
@@ -6032,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y31" s="83">
         <f t="shared" si="6"/>
@@ -6043,19 +6067,19 @@
         <v>1877.4170999999999</v>
       </c>
       <c r="AA31" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB31" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC31" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD31" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE31" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB31" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC31" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD31" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE31" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="32" spans="1:31" s="35" customFormat="1" ht="38.25">
@@ -6100,12 +6124,12 @@
       <c r="P32" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="91"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="91"/>
+      <c r="S32" s="99"/>
       <c r="T32" s="51"/>
       <c r="U32" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V32" s="84">
         <f t="shared" si="4"/>
@@ -6116,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y32" s="83">
         <f t="shared" si="6"/>
@@ -6127,19 +6151,19 @@
         <v>1434.4866900000002</v>
       </c>
       <c r="AA32" s="80" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB32" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC32" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD32" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE32" s="80" t="s">
         <v>452</v>
-      </c>
-      <c r="AB32" s="83" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC32" s="83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD32" s="83" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE32" s="80" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -6227,18 +6251,18 @@
       <c r="P34" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="Q34" s="89" t="s">
+      <c r="Q34" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="R34" s="89" t="s">
+      <c r="R34" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="S34" s="90" t="s">
+      <c r="S34" s="100" t="s">
         <v>84</v>
       </c>
       <c r="T34" s="51"/>
       <c r="U34" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V34" s="84">
         <f t="shared" si="4"/>
@@ -6249,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y34" s="83">
         <f t="shared"